--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4231,7 +4231,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">abril 2021</t>
+    <t xml:space="preserve">junio 2021</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,37 +4225,37 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017-septiembre 2021</t>
+    <t xml:space="preserve">enero 2017-octubre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
+    <t xml:space="preserve">diciembre 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasolina Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasolina Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diésel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio de gasolina regular, premium y diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRE, pesos por litro</t>
+  </si>
+  <si>
     <t xml:space="preserve">octubre 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gasolina Regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gasolina Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diésel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio de gasolina regular, premium y diesel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRE, pesos por litro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">septiembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -29242,190 +29242,438 @@
       </c>
     </row>
     <row r="1749">
-      <c r="A1749" s="6"/>
-      <c r="B1749" s="3"/>
-      <c r="C1749" s="3"/>
-      <c r="D1749" s="3"/>
+      <c r="A1749" s="16" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B1749" s="3" t="n">
+        <v>20.043506984969</v>
+      </c>
+      <c r="C1749" s="3" t="n">
+        <v>22.3030271779255</v>
+      </c>
+      <c r="D1749" s="3" t="n">
+        <v>21.6633752777778</v>
+      </c>
     </row>
     <row r="1750">
-      <c r="A1750" s="6"/>
-      <c r="B1750" s="3"/>
-      <c r="C1750" s="3"/>
-      <c r="D1750" s="3"/>
+      <c r="A1750" s="16" t="n">
+        <v>44471</v>
+      </c>
+      <c r="B1750" s="3" t="n">
+        <v>20.0597885111042</v>
+      </c>
+      <c r="C1750" s="3" t="n">
+        <v>22.3069270473295</v>
+      </c>
+      <c r="D1750" s="3" t="n">
+        <v>21.6730735822959</v>
+      </c>
     </row>
     <row r="1751">
-      <c r="A1751" s="6"/>
-      <c r="B1751" s="3"/>
-      <c r="C1751" s="3"/>
-      <c r="D1751" s="3"/>
+      <c r="A1751" s="16" t="n">
+        <v>44472</v>
+      </c>
+      <c r="B1751" s="3" t="n">
+        <v>20.0614272235279</v>
+      </c>
+      <c r="C1751" s="3" t="n">
+        <v>22.3556175563466</v>
+      </c>
+      <c r="D1751" s="3" t="n">
+        <v>21.6753466374761</v>
+      </c>
     </row>
     <row r="1752">
-      <c r="A1752" s="6"/>
-      <c r="B1752" s="3"/>
-      <c r="C1752" s="3"/>
-      <c r="D1752" s="3"/>
+      <c r="A1752" s="16" t="n">
+        <v>44473</v>
+      </c>
+      <c r="B1752" s="3" t="n">
+        <v>20.0669777467714</v>
+      </c>
+      <c r="C1752" s="3" t="n">
+        <v>22.3218706609606</v>
+      </c>
+      <c r="D1752" s="3" t="n">
+        <v>21.6768253158818</v>
+      </c>
     </row>
     <row r="1753">
-      <c r="A1753" s="6"/>
-      <c r="B1753" s="3"/>
-      <c r="C1753" s="3"/>
-      <c r="D1753" s="3"/>
+      <c r="A1753" s="16" t="n">
+        <v>44474</v>
+      </c>
+      <c r="B1753" s="3" t="n">
+        <v>20.0892220567908</v>
+      </c>
+      <c r="C1753" s="3" t="n">
+        <v>22.3230360057836</v>
+      </c>
+      <c r="D1753" s="3" t="n">
+        <v>21.6898449612402</v>
+      </c>
     </row>
     <row r="1754">
-      <c r="A1754" s="6"/>
-      <c r="B1754" s="3"/>
-      <c r="C1754" s="3"/>
-      <c r="D1754" s="3"/>
+      <c r="A1754" s="16" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B1754" s="3" t="n">
+        <v>20.1095160263216</v>
+      </c>
+      <c r="C1754" s="3" t="n">
+        <v>22.3331384259263</v>
+      </c>
+      <c r="D1754" s="3" t="n">
+        <v>21.7031021514296</v>
+      </c>
     </row>
     <row r="1755">
-      <c r="A1755" s="6"/>
-      <c r="B1755" s="3"/>
-      <c r="C1755" s="3"/>
-      <c r="D1755" s="3"/>
+      <c r="A1755" s="16" t="n">
+        <v>44476</v>
+      </c>
+      <c r="B1755" s="3" t="n">
+        <v>20.1186753678553</v>
+      </c>
+      <c r="C1755" s="3" t="n">
+        <v>22.335531082083</v>
+      </c>
+      <c r="D1755" s="3" t="n">
+        <v>21.7082586484535</v>
+      </c>
     </row>
     <row r="1756">
-      <c r="A1756" s="6"/>
-      <c r="B1756" s="3"/>
-      <c r="C1756" s="3"/>
-      <c r="D1756" s="3"/>
+      <c r="A1756" s="16" t="n">
+        <v>44477</v>
+      </c>
+      <c r="B1756" s="3" t="n">
+        <v>20.124605631805</v>
+      </c>
+      <c r="C1756" s="3" t="n">
+        <v>22.3360592828762</v>
+      </c>
+      <c r="D1756" s="3" t="n">
+        <v>21.7105598048996</v>
+      </c>
     </row>
     <row r="1757">
-      <c r="A1757" s="6"/>
-      <c r="B1757" s="3"/>
-      <c r="C1757" s="3"/>
-      <c r="D1757" s="3"/>
+      <c r="A1757" s="16" t="n">
+        <v>44478</v>
+      </c>
+      <c r="B1757" s="3" t="n">
+        <v>20.133308002976</v>
+      </c>
+      <c r="C1757" s="3" t="n">
+        <v>22.3446867727826</v>
+      </c>
+      <c r="D1757" s="3" t="n">
+        <v>21.719965260408</v>
+      </c>
     </row>
     <row r="1758">
-      <c r="A1758" s="6"/>
-      <c r="B1758" s="3"/>
-      <c r="C1758" s="3"/>
-      <c r="D1758" s="3"/>
+      <c r="A1758" s="16" t="n">
+        <v>44479</v>
+      </c>
+      <c r="B1758" s="3" t="n">
+        <v>20.1321347373673</v>
+      </c>
+      <c r="C1758" s="3" t="n">
+        <v>22.3440151515155</v>
+      </c>
+      <c r="D1758" s="3" t="n">
+        <v>21.722737033922</v>
+      </c>
     </row>
     <row r="1759">
-      <c r="A1759" s="6"/>
-      <c r="B1759" s="3"/>
-      <c r="C1759" s="3"/>
-      <c r="D1759" s="3"/>
+      <c r="A1759" s="16" t="n">
+        <v>44480</v>
+      </c>
+      <c r="B1759" s="3" t="n">
+        <v>20.1410075400231</v>
+      </c>
+      <c r="C1759" s="3" t="n">
+        <v>22.3475174907267</v>
+      </c>
+      <c r="D1759" s="3" t="n">
+        <v>21.7292133851176</v>
+      </c>
     </row>
     <row r="1760">
-      <c r="A1760" s="6"/>
-      <c r="B1760" s="3"/>
-      <c r="C1760" s="3"/>
-      <c r="D1760" s="3"/>
+      <c r="A1760" s="16" t="n">
+        <v>44481</v>
+      </c>
+      <c r="B1760" s="3" t="n">
+        <v>20.1520524133534</v>
+      </c>
+      <c r="C1760" s="3" t="n">
+        <v>22.3491820751661</v>
+      </c>
+      <c r="D1760" s="3" t="n">
+        <v>21.7394758421986</v>
+      </c>
     </row>
     <row r="1761">
-      <c r="A1761" s="6"/>
-      <c r="B1761" s="3"/>
-      <c r="C1761" s="3"/>
-      <c r="D1761" s="3"/>
+      <c r="A1761" s="16" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B1761" s="3" t="n">
+        <v>20.1603079018112</v>
+      </c>
+      <c r="C1761" s="3" t="n">
+        <v>22.3540637760957</v>
+      </c>
+      <c r="D1761" s="3" t="n">
+        <v>21.7500116317713</v>
+      </c>
     </row>
     <row r="1762">
-      <c r="A1762" s="6"/>
-      <c r="B1762" s="3"/>
-      <c r="C1762" s="3"/>
-      <c r="D1762" s="3"/>
+      <c r="A1762" s="16" t="n">
+        <v>44483</v>
+      </c>
+      <c r="B1762" s="3" t="n">
+        <v>20.1636479727575</v>
+      </c>
+      <c r="C1762" s="3" t="n">
+        <v>22.3599143399549</v>
+      </c>
+      <c r="D1762" s="3" t="n">
+        <v>21.7514621778886</v>
+      </c>
     </row>
     <row r="1763">
-      <c r="A1763" s="6"/>
-      <c r="B1763" s="3"/>
-      <c r="C1763" s="3"/>
-      <c r="D1763" s="3"/>
+      <c r="A1763" s="16" t="n">
+        <v>44484</v>
+      </c>
+      <c r="B1763" s="3" t="n">
+        <v>20.1623046209541</v>
+      </c>
+      <c r="C1763" s="3" t="n">
+        <v>22.3586572848454</v>
+      </c>
+      <c r="D1763" s="3" t="n">
+        <v>21.7564523133456</v>
+      </c>
     </row>
     <row r="1764">
-      <c r="A1764" s="6"/>
-      <c r="B1764" s="3"/>
-      <c r="C1764" s="3"/>
-      <c r="D1764" s="3"/>
+      <c r="A1764" s="16" t="n">
+        <v>44485</v>
+      </c>
+      <c r="B1764" s="3" t="n">
+        <v>20.1630762260129</v>
+      </c>
+      <c r="C1764" s="3" t="n">
+        <v>22.3571526618441</v>
+      </c>
+      <c r="D1764" s="3" t="n">
+        <v>21.7514815123251</v>
+      </c>
     </row>
     <row r="1765">
-      <c r="A1765" s="6"/>
-      <c r="B1765" s="3"/>
-      <c r="C1765" s="3"/>
-      <c r="D1765" s="3"/>
+      <c r="A1765" s="16" t="n">
+        <v>44486</v>
+      </c>
+      <c r="B1765" s="3" t="n">
+        <v>20.1625945108929</v>
+      </c>
+      <c r="C1765" s="3" t="n">
+        <v>22.3572710980778</v>
+      </c>
+      <c r="D1765" s="3" t="n">
+        <v>21.751450209205</v>
+      </c>
     </row>
     <row r="1766">
-      <c r="A1766" s="6"/>
-      <c r="B1766" s="3"/>
-      <c r="C1766" s="3"/>
-      <c r="D1766" s="3"/>
+      <c r="A1766" s="16" t="n">
+        <v>44487</v>
+      </c>
+      <c r="B1766" s="3" t="n">
+        <v>20.1729382068573</v>
+      </c>
+      <c r="C1766" s="3" t="n">
+        <v>22.3596888015352</v>
+      </c>
+      <c r="D1766" s="3" t="n">
+        <v>21.7512173038229</v>
+      </c>
     </row>
     <row r="1767">
-      <c r="A1767" s="6"/>
-      <c r="B1767" s="3"/>
-      <c r="C1767" s="3"/>
-      <c r="D1767" s="3"/>
+      <c r="A1767" s="16" t="n">
+        <v>44488</v>
+      </c>
+      <c r="B1767" s="3" t="n">
+        <v>20.1823422321494</v>
+      </c>
+      <c r="C1767" s="3" t="n">
+        <v>22.3677040229888</v>
+      </c>
+      <c r="D1767" s="3" t="n">
+        <v>21.7431654197838</v>
+      </c>
     </row>
     <row r="1768">
-      <c r="A1768" s="6"/>
-      <c r="B1768" s="3"/>
-      <c r="C1768" s="3"/>
-      <c r="D1768" s="3"/>
+      <c r="A1768" s="16" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B1768" s="3" t="n">
+        <v>20.1748206135232</v>
+      </c>
+      <c r="C1768" s="3" t="n">
+        <v>22.3666466997158</v>
+      </c>
+      <c r="D1768" s="3" t="n">
+        <v>21.7287415699281</v>
+      </c>
     </row>
     <row r="1769">
-      <c r="A1769" s="6"/>
-      <c r="B1769" s="3"/>
-      <c r="C1769" s="3"/>
-      <c r="D1769" s="3"/>
+      <c r="A1769" s="16" t="n">
+        <v>44490</v>
+      </c>
+      <c r="B1769" s="3" t="n">
+        <v>20.1664392643287</v>
+      </c>
+      <c r="C1769" s="3" t="n">
+        <v>22.3807758222472</v>
+      </c>
+      <c r="D1769" s="3" t="n">
+        <v>21.7229961415869</v>
+      </c>
     </row>
     <row r="1770">
-      <c r="A1770" s="6"/>
-      <c r="B1770" s="3"/>
-      <c r="C1770" s="3"/>
-      <c r="D1770" s="3"/>
+      <c r="A1770" s="16" t="n">
+        <v>44491</v>
+      </c>
+      <c r="B1770" s="3" t="n">
+        <v>20.1623771051026</v>
+      </c>
+      <c r="C1770" s="3" t="n">
+        <v>22.381791405343</v>
+      </c>
+      <c r="D1770" s="3" t="n">
+        <v>21.7204473639017</v>
+      </c>
     </row>
     <row r="1771">
-      <c r="A1771" s="6"/>
-      <c r="B1771" s="3"/>
-      <c r="C1771" s="3"/>
-      <c r="D1771" s="3"/>
+      <c r="A1771" s="16" t="n">
+        <v>44492</v>
+      </c>
+      <c r="B1771" s="3" t="n">
+        <v>20.1471263867741</v>
+      </c>
+      <c r="C1771" s="3" t="n">
+        <v>22.3799503435945</v>
+      </c>
+      <c r="D1771" s="3" t="n">
+        <v>21.7059911165301</v>
+      </c>
     </row>
     <row r="1772">
-      <c r="A1772" s="6"/>
-      <c r="B1772" s="3"/>
-      <c r="C1772" s="3"/>
-      <c r="D1772" s="3"/>
+      <c r="A1772" s="16" t="n">
+        <v>44493</v>
+      </c>
+      <c r="B1772" s="3" t="n">
+        <v>20.1387871369757</v>
+      </c>
+      <c r="C1772" s="3" t="n">
+        <v>22.381636442142</v>
+      </c>
+      <c r="D1772" s="3" t="n">
+        <v>21.7037054125997</v>
+      </c>
     </row>
     <row r="1773">
-      <c r="A1773" s="6"/>
-      <c r="B1773" s="3"/>
-      <c r="C1773" s="3"/>
-      <c r="D1773" s="3"/>
+      <c r="A1773" s="16" t="n">
+        <v>44494</v>
+      </c>
+      <c r="B1773" s="3" t="n">
+        <v>20.1279607290493</v>
+      </c>
+      <c r="C1773" s="3" t="n">
+        <v>22.3782534346685</v>
+      </c>
+      <c r="D1773" s="3" t="n">
+        <v>21.6987584912405</v>
+      </c>
     </row>
     <row r="1774">
-      <c r="A1774" s="6"/>
-      <c r="B1774" s="3"/>
-      <c r="C1774" s="3"/>
-      <c r="D1774" s="3"/>
+      <c r="A1774" s="16" t="n">
+        <v>44495</v>
+      </c>
+      <c r="B1774" s="3" t="n">
+        <v>20.1233092733514</v>
+      </c>
+      <c r="C1774" s="3" t="n">
+        <v>22.3859811420602</v>
+      </c>
+      <c r="D1774" s="3" t="n">
+        <v>21.6848188920454</v>
+      </c>
     </row>
     <row r="1775">
-      <c r="A1775" s="6"/>
-      <c r="B1775" s="3"/>
-      <c r="C1775" s="3"/>
-      <c r="D1775" s="3"/>
+      <c r="A1775" s="16" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B1775" s="3" t="n">
+        <v>20.1228009130388</v>
+      </c>
+      <c r="C1775" s="3" t="n">
+        <v>22.3909913320954</v>
+      </c>
+      <c r="D1775" s="3" t="n">
+        <v>21.6818407872252</v>
+      </c>
     </row>
     <row r="1776">
-      <c r="A1776" s="6"/>
-      <c r="B1776" s="3"/>
-      <c r="C1776" s="3"/>
-      <c r="D1776" s="3"/>
+      <c r="A1776" s="16" t="n">
+        <v>44497</v>
+      </c>
+      <c r="B1776" s="3" t="n">
+        <v>20.1230627900016</v>
+      </c>
+      <c r="C1776" s="3" t="n">
+        <v>22.4051953479489</v>
+      </c>
+      <c r="D1776" s="3" t="n">
+        <v>21.6813116598567</v>
+      </c>
     </row>
     <row r="1777">
-      <c r="A1777" s="6"/>
-      <c r="B1777" s="3"/>
-      <c r="C1777" s="3"/>
-      <c r="D1777" s="3"/>
+      <c r="A1777" s="16" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B1777" s="3" t="n">
+        <v>20.104104681648</v>
+      </c>
+      <c r="C1777" s="3" t="n">
+        <v>22.3943239329633</v>
+      </c>
+      <c r="D1777" s="3" t="n">
+        <v>21.6620082428987</v>
+      </c>
     </row>
     <row r="1778">
-      <c r="A1778" s="6"/>
-      <c r="B1778" s="3"/>
-      <c r="C1778" s="3"/>
-      <c r="D1778" s="3"/>
+      <c r="A1778" s="16" t="n">
+        <v>44499</v>
+      </c>
+      <c r="B1778" s="3" t="n">
+        <v>20.0874921854405</v>
+      </c>
+      <c r="C1778" s="3" t="n">
+        <v>22.3764610281927</v>
+      </c>
+      <c r="D1778" s="3" t="n">
+        <v>21.6546487029486</v>
+      </c>
     </row>
     <row r="1779">
-      <c r="A1779" s="6"/>
-      <c r="B1779" s="3"/>
-      <c r="C1779" s="3"/>
-      <c r="D1779" s="3"/>
+      <c r="A1779" s="16" t="n">
+        <v>44500</v>
+      </c>
+      <c r="B1779" s="3" t="n">
+        <v>20.0759417624521</v>
+      </c>
+      <c r="C1779" s="3" t="n">
+        <v>22.3926161291894</v>
+      </c>
+      <c r="D1779" s="3" t="n">
+        <v>21.6414600688156</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="6"/>
@@ -38669,13 +38917,27 @@
     </row>
     <row r="73">
       <c r="A73" s="6"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>20.4592163297172</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>20.1275373147093</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>22.6777968539807</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>22.3590220572557</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>21.6736414388951</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>21.7081853844781</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PrecioDiarioNacional" sheetId="1" state="visible" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>enero 2017 - septiembre 2020</t>
   </si>
   <si>
-    <t>Proxima fecha de actualización del 9 al 16 de noviembre 2020</t>
-  </si>
-  <si>
     <t>Fuente: Comisión Reguladora de Energía</t>
   </si>
   <si>
@@ -4219,19 +4216,22 @@
     <t>Año</t>
   </si>
   <si>
+    <t>Próxima fecha de actualización del 9 al 16 de noviembre 2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Precio diario nacional de combustible regular, premium y diésel</t>
   </si>
   <si>
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017-octubre 2021</t>
+    <t xml:space="preserve">enero 2017-noviembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2021</t>
+    <t xml:space="preserve">Próxima actualización: enero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">octubre 2021</t>
+    <t xml:space="preserve">noviembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -4413,6 +4413,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -4461,17 +4472,6 @@
         <color indexed="64"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4490,9 +4490,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4885,8 +4885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView showGridLines="0" tabSelected="true" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -29246,7 +29246,7 @@
         <v>44470</v>
       </c>
       <c r="B1749" s="3" t="n">
-        <v>20.043506984969</v>
+        <v>20.0430050477539</v>
       </c>
       <c r="C1749" s="3" t="n">
         <v>22.3030271779255</v>
@@ -29260,7 +29260,7 @@
         <v>44471</v>
       </c>
       <c r="B1750" s="3" t="n">
-        <v>20.0597885111042</v>
+        <v>20.0594869284603</v>
       </c>
       <c r="C1750" s="3" t="n">
         <v>22.3069270473295</v>
@@ -29274,7 +29274,7 @@
         <v>44472</v>
       </c>
       <c r="B1751" s="3" t="n">
-        <v>20.0614272235279</v>
+        <v>20.0609831779121</v>
       </c>
       <c r="C1751" s="3" t="n">
         <v>22.3556175563466</v>
@@ -29288,7 +29288,7 @@
         <v>44473</v>
       </c>
       <c r="B1752" s="3" t="n">
-        <v>20.0669777467714</v>
+        <v>20.0666448045271</v>
       </c>
       <c r="C1752" s="3" t="n">
         <v>22.3218706609606</v>
@@ -29302,7 +29302,7 @@
         <v>44474</v>
       </c>
       <c r="B1753" s="3" t="n">
-        <v>20.0892220567908</v>
+        <v>20.0885797750359</v>
       </c>
       <c r="C1753" s="3" t="n">
         <v>22.3230360057836</v>
@@ -29316,7 +29316,7 @@
         <v>44475</v>
       </c>
       <c r="B1754" s="3" t="n">
-        <v>20.1095160263216</v>
+        <v>20.1090931880112</v>
       </c>
       <c r="C1754" s="3" t="n">
         <v>22.3331384259263</v>
@@ -29330,7 +29330,7 @@
         <v>44476</v>
       </c>
       <c r="B1755" s="3" t="n">
-        <v>20.1186753678553</v>
+        <v>20.1182256365554</v>
       </c>
       <c r="C1755" s="3" t="n">
         <v>22.335531082083</v>
@@ -29344,7 +29344,7 @@
         <v>44477</v>
       </c>
       <c r="B1756" s="3" t="n">
-        <v>20.124605631805</v>
+        <v>20.1242432353693</v>
       </c>
       <c r="C1756" s="3" t="n">
         <v>22.3360592828762</v>
@@ -29358,7 +29358,7 @@
         <v>44478</v>
       </c>
       <c r="B1757" s="3" t="n">
-        <v>20.133308002976</v>
+        <v>20.1331203622873</v>
       </c>
       <c r="C1757" s="3" t="n">
         <v>22.3446867727826</v>
@@ -29372,7 +29372,7 @@
         <v>44479</v>
       </c>
       <c r="B1758" s="3" t="n">
-        <v>20.1321347373673</v>
+        <v>20.1318661031216</v>
       </c>
       <c r="C1758" s="3" t="n">
         <v>22.3440151515155</v>
@@ -29386,7 +29386,7 @@
         <v>44480</v>
       </c>
       <c r="B1759" s="3" t="n">
-        <v>20.1410075400231</v>
+        <v>20.1411478627777</v>
       </c>
       <c r="C1759" s="3" t="n">
         <v>22.3475174907267</v>
@@ -29400,7 +29400,7 @@
         <v>44481</v>
       </c>
       <c r="B1760" s="3" t="n">
-        <v>20.1520524133534</v>
+        <v>20.1521472225256</v>
       </c>
       <c r="C1760" s="3" t="n">
         <v>22.3491820751661</v>
@@ -29414,7 +29414,7 @@
         <v>44482</v>
       </c>
       <c r="B1761" s="3" t="n">
-        <v>20.1603079018112</v>
+        <v>20.1607168790621</v>
       </c>
       <c r="C1761" s="3" t="n">
         <v>22.3540637760957</v>
@@ -29428,7 +29428,7 @@
         <v>44483</v>
       </c>
       <c r="B1762" s="3" t="n">
-        <v>20.1636479727575</v>
+        <v>20.1641852337267</v>
       </c>
       <c r="C1762" s="3" t="n">
         <v>22.3599143399549</v>
@@ -29442,7 +29442,7 @@
         <v>44484</v>
       </c>
       <c r="B1763" s="3" t="n">
-        <v>20.1623046209541</v>
+        <v>20.1627442089162</v>
       </c>
       <c r="C1763" s="3" t="n">
         <v>22.3586572848454</v>
@@ -29456,7 +29456,7 @@
         <v>44485</v>
       </c>
       <c r="B1764" s="3" t="n">
-        <v>20.1630762260129</v>
+        <v>20.163654014439</v>
       </c>
       <c r="C1764" s="3" t="n">
         <v>22.3571526618441</v>
@@ -29470,7 +29470,7 @@
         <v>44486</v>
       </c>
       <c r="B1765" s="3" t="n">
-        <v>20.1625945108929</v>
+        <v>20.1631424657535</v>
       </c>
       <c r="C1765" s="3" t="n">
         <v>22.3572710980778</v>
@@ -29484,7 +29484,7 @@
         <v>44487</v>
       </c>
       <c r="B1766" s="3" t="n">
-        <v>20.1729382068573</v>
+        <v>20.1738413517869</v>
       </c>
       <c r="C1766" s="3" t="n">
         <v>22.3596888015352</v>
@@ -29498,7 +29498,7 @@
         <v>44488</v>
       </c>
       <c r="B1767" s="3" t="n">
-        <v>20.1823422321494</v>
+        <v>20.183320055295</v>
       </c>
       <c r="C1767" s="3" t="n">
         <v>22.3677040229888</v>
@@ -29512,7 +29512,7 @@
         <v>44489</v>
       </c>
       <c r="B1768" s="3" t="n">
-        <v>20.1748206135232</v>
+        <v>20.1757366071431</v>
       </c>
       <c r="C1768" s="3" t="n">
         <v>22.3666466997158</v>
@@ -29526,7 +29526,7 @@
         <v>44490</v>
       </c>
       <c r="B1769" s="3" t="n">
-        <v>20.1664392643287</v>
+        <v>20.1671994295745</v>
       </c>
       <c r="C1769" s="3" t="n">
         <v>22.3807758222472</v>
@@ -29540,7 +29540,7 @@
         <v>44491</v>
       </c>
       <c r="B1770" s="3" t="n">
-        <v>20.1623771051026</v>
+        <v>20.1632552658713</v>
       </c>
       <c r="C1770" s="3" t="n">
         <v>22.381791405343</v>
@@ -29554,7 +29554,7 @@
         <v>44492</v>
       </c>
       <c r="B1771" s="3" t="n">
-        <v>20.1471263867741</v>
+        <v>20.1479986628037</v>
       </c>
       <c r="C1771" s="3" t="n">
         <v>22.3799503435945</v>
@@ -29568,7 +29568,7 @@
         <v>44493</v>
       </c>
       <c r="B1772" s="3" t="n">
-        <v>20.1387871369757</v>
+        <v>20.1397252935142</v>
       </c>
       <c r="C1772" s="3" t="n">
         <v>22.381636442142</v>
@@ -29582,7 +29582,7 @@
         <v>44494</v>
       </c>
       <c r="B1773" s="3" t="n">
-        <v>20.1279607290493</v>
+        <v>20.1282611624327</v>
       </c>
       <c r="C1773" s="3" t="n">
         <v>22.3782534346685</v>
@@ -29596,7 +29596,7 @@
         <v>44495</v>
       </c>
       <c r="B1774" s="3" t="n">
-        <v>20.1233092733514</v>
+        <v>20.1237847182426</v>
       </c>
       <c r="C1774" s="3" t="n">
         <v>22.3859811420602</v>
@@ -29610,7 +29610,7 @@
         <v>44496</v>
       </c>
       <c r="B1775" s="3" t="n">
-        <v>20.1228009130388</v>
+        <v>20.1234794754847</v>
       </c>
       <c r="C1775" s="3" t="n">
         <v>22.3909913320954</v>
@@ -29624,7 +29624,7 @@
         <v>44497</v>
       </c>
       <c r="B1776" s="3" t="n">
-        <v>20.1230627900016</v>
+        <v>20.1242951297085</v>
       </c>
       <c r="C1776" s="3" t="n">
         <v>22.4051953479489</v>
@@ -29638,7 +29638,7 @@
         <v>44498</v>
       </c>
       <c r="B1777" s="3" t="n">
-        <v>20.104104681648</v>
+        <v>20.1057171077868</v>
       </c>
       <c r="C1777" s="3" t="n">
         <v>22.3943239329633</v>
@@ -29652,7 +29652,7 @@
         <v>44499</v>
       </c>
       <c r="B1778" s="3" t="n">
-        <v>20.0874921854405</v>
+        <v>20.0887812126124</v>
       </c>
       <c r="C1778" s="3" t="n">
         <v>22.3764610281927</v>
@@ -29666,7 +29666,7 @@
         <v>44500</v>
       </c>
       <c r="B1779" s="3" t="n">
-        <v>20.0759417624521</v>
+        <v>20.077064137308</v>
       </c>
       <c r="C1779" s="3" t="n">
         <v>22.3926161291894</v>
@@ -29676,184 +29676,424 @@
       </c>
     </row>
     <row r="1780">
-      <c r="A1780" s="6"/>
-      <c r="B1780" s="3"/>
-      <c r="C1780" s="3"/>
-      <c r="D1780" s="3"/>
+      <c r="A1780" s="16" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B1780" s="3" t="n">
+        <v>20.0722393101255</v>
+      </c>
+      <c r="C1780" s="3" t="n">
+        <v>22.3612276998846</v>
+      </c>
+      <c r="D1780" s="3" t="n">
+        <v>21.6342409118915</v>
+      </c>
     </row>
     <row r="1781">
-      <c r="A1781" s="6"/>
-      <c r="B1781" s="3"/>
-      <c r="C1781" s="3"/>
-      <c r="D1781" s="3"/>
+      <c r="A1781" s="16" t="n">
+        <v>44502</v>
+      </c>
+      <c r="B1781" s="3" t="n">
+        <v>20.0718925165222</v>
+      </c>
+      <c r="C1781" s="3" t="n">
+        <v>22.3492849065883</v>
+      </c>
+      <c r="D1781" s="3" t="n">
+        <v>21.6353689076659</v>
+      </c>
     </row>
     <row r="1782">
-      <c r="A1782" s="6"/>
-      <c r="B1782" s="3"/>
-      <c r="C1782" s="3"/>
-      <c r="D1782" s="3"/>
+      <c r="A1782" s="16" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B1782" s="3" t="n">
+        <v>20.0726488343461</v>
+      </c>
+      <c r="C1782" s="3" t="n">
+        <v>22.3498179498506</v>
+      </c>
+      <c r="D1782" s="3" t="n">
+        <v>21.6298875406018</v>
+      </c>
     </row>
     <row r="1783">
-      <c r="A1783" s="6"/>
-      <c r="B1783" s="3"/>
-      <c r="C1783" s="3"/>
-      <c r="D1783" s="3"/>
+      <c r="A1783" s="16" t="n">
+        <v>44504</v>
+      </c>
+      <c r="B1783" s="3" t="n">
+        <v>20.0609895388121</v>
+      </c>
+      <c r="C1783" s="3" t="n">
+        <v>22.3738381446974</v>
+      </c>
+      <c r="D1783" s="3" t="n">
+        <v>21.6189313430968</v>
+      </c>
     </row>
     <row r="1784">
-      <c r="A1784" s="6"/>
-      <c r="B1784" s="3"/>
-      <c r="C1784" s="3"/>
-      <c r="D1784" s="3"/>
+      <c r="A1784" s="16" t="n">
+        <v>44505</v>
+      </c>
+      <c r="B1784" s="3" t="n">
+        <v>20.0506205153293</v>
+      </c>
+      <c r="C1784" s="3" t="n">
+        <v>22.3242445048038</v>
+      </c>
+      <c r="D1784" s="3" t="n">
+        <v>21.6073306207418</v>
+      </c>
     </row>
     <row r="1785">
-      <c r="A1785" s="6"/>
-      <c r="B1785" s="3"/>
-      <c r="C1785" s="3"/>
-      <c r="D1785" s="3"/>
+      <c r="A1785" s="16" t="n">
+        <v>44506</v>
+      </c>
+      <c r="B1785" s="3" t="n">
+        <v>20.0251895696037</v>
+      </c>
+      <c r="C1785" s="3" t="n">
+        <v>22.309728443309</v>
+      </c>
+      <c r="D1785" s="3" t="n">
+        <v>21.6009445701357</v>
+      </c>
     </row>
     <row r="1786">
-      <c r="A1786" s="6"/>
-      <c r="B1786" s="3"/>
-      <c r="C1786" s="3"/>
-      <c r="D1786" s="3"/>
+      <c r="A1786" s="16" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B1786" s="3" t="n">
+        <v>20.0230743188122</v>
+      </c>
+      <c r="C1786" s="3" t="n">
+        <v>22.3081788863696</v>
+      </c>
+      <c r="D1786" s="3" t="n">
+        <v>21.6020007600227</v>
+      </c>
     </row>
     <row r="1787">
-      <c r="A1787" s="6"/>
-      <c r="B1787" s="3"/>
-      <c r="C1787" s="3"/>
-      <c r="D1787" s="3"/>
+      <c r="A1787" s="16" t="n">
+        <v>44508</v>
+      </c>
+      <c r="B1787" s="3" t="n">
+        <v>20.0219655046318</v>
+      </c>
+      <c r="C1787" s="3" t="n">
+        <v>22.3034760692721</v>
+      </c>
+      <c r="D1787" s="3" t="n">
+        <v>21.6056592956592</v>
+      </c>
     </row>
     <row r="1788">
-      <c r="A1788" s="6"/>
-      <c r="B1788" s="3"/>
-      <c r="C1788" s="3"/>
-      <c r="D1788" s="3"/>
+      <c r="A1788" s="16" t="n">
+        <v>44509</v>
+      </c>
+      <c r="B1788" s="3" t="n">
+        <v>19.9979506158125</v>
+      </c>
+      <c r="C1788" s="3" t="n">
+        <v>22.2836445768545</v>
+      </c>
+      <c r="D1788" s="3" t="n">
+        <v>21.601012483936</v>
+      </c>
     </row>
     <row r="1789">
-      <c r="A1789" s="6"/>
-      <c r="B1789" s="3"/>
-      <c r="C1789" s="3"/>
-      <c r="D1789" s="3"/>
+      <c r="A1789" s="16" t="n">
+        <v>44510</v>
+      </c>
+      <c r="B1789" s="3" t="n">
+        <v>19.9763751666275</v>
+      </c>
+      <c r="C1789" s="3" t="n">
+        <v>22.256807291667</v>
+      </c>
+      <c r="D1789" s="3" t="n">
+        <v>21.5974020581331</v>
+      </c>
     </row>
     <row r="1790">
-      <c r="A1790" s="6"/>
-      <c r="B1790" s="3"/>
-      <c r="C1790" s="3"/>
-      <c r="D1790" s="3"/>
+      <c r="A1790" s="16" t="n">
+        <v>44511</v>
+      </c>
+      <c r="B1790" s="3" t="n">
+        <v>19.9602661343978</v>
+      </c>
+      <c r="C1790" s="3" t="n">
+        <v>22.2389476176946</v>
+      </c>
+      <c r="D1790" s="3" t="n">
+        <v>21.5950379198265</v>
+      </c>
     </row>
     <row r="1791">
-      <c r="A1791" s="6"/>
-      <c r="B1791" s="3"/>
-      <c r="C1791" s="3"/>
-      <c r="D1791" s="3"/>
+      <c r="A1791" s="16" t="n">
+        <v>44512</v>
+      </c>
+      <c r="B1791" s="3" t="n">
+        <v>19.9256582731016</v>
+      </c>
+      <c r="C1791" s="3" t="n">
+        <v>22.2138705292272</v>
+      </c>
+      <c r="D1791" s="3" t="n">
+        <v>21.5812322104124</v>
+      </c>
     </row>
     <row r="1792">
-      <c r="A1792" s="6"/>
-      <c r="B1792" s="3"/>
-      <c r="C1792" s="3"/>
-      <c r="D1792" s="3"/>
+      <c r="A1792" s="16" t="n">
+        <v>44513</v>
+      </c>
+      <c r="B1792" s="3" t="n">
+        <v>19.9509022643252</v>
+      </c>
+      <c r="C1792" s="3" t="n">
+        <v>22.1962379305378</v>
+      </c>
+      <c r="D1792" s="3" t="n">
+        <v>21.5905143252677</v>
+      </c>
     </row>
     <row r="1793">
-      <c r="A1793" s="6"/>
-      <c r="B1793" s="3"/>
-      <c r="C1793" s="3"/>
-      <c r="D1793" s="3"/>
+      <c r="A1793" s="16" t="n">
+        <v>44514</v>
+      </c>
+      <c r="B1793" s="3" t="n">
+        <v>19.9610342693586</v>
+      </c>
+      <c r="C1793" s="3" t="n">
+        <v>22.1986210389237</v>
+      </c>
+      <c r="D1793" s="3" t="n">
+        <v>21.5906451515149</v>
+      </c>
     </row>
     <row r="1794">
-      <c r="A1794" s="6"/>
-      <c r="B1794" s="3"/>
-      <c r="C1794" s="3"/>
-      <c r="D1794" s="3"/>
+      <c r="A1794" s="16" t="n">
+        <v>44515</v>
+      </c>
+      <c r="B1794" s="3" t="n">
+        <v>19.9765689702054</v>
+      </c>
+      <c r="C1794" s="3" t="n">
+        <v>22.203043572985</v>
+      </c>
+      <c r="D1794" s="3" t="n">
+        <v>21.5898924336876</v>
+      </c>
     </row>
     <row r="1795">
-      <c r="A1795" s="6"/>
-      <c r="B1795" s="3"/>
-      <c r="C1795" s="3"/>
-      <c r="D1795" s="3"/>
+      <c r="A1795" s="16" t="n">
+        <v>44516</v>
+      </c>
+      <c r="B1795" s="3" t="n">
+        <v>19.9979684669056</v>
+      </c>
+      <c r="C1795" s="3" t="n">
+        <v>22.2059480780267</v>
+      </c>
+      <c r="D1795" s="3" t="n">
+        <v>21.5912924738968</v>
+      </c>
     </row>
     <row r="1796">
-      <c r="A1796" s="6"/>
-      <c r="B1796" s="3"/>
-      <c r="C1796" s="3"/>
-      <c r="D1796" s="3"/>
+      <c r="A1796" s="16" t="n">
+        <v>44517</v>
+      </c>
+      <c r="B1796" s="3" t="n">
+        <v>20.0266441879071</v>
+      </c>
+      <c r="C1796" s="3" t="n">
+        <v>22.2194677752728</v>
+      </c>
+      <c r="D1796" s="3" t="n">
+        <v>21.5957952500898</v>
+      </c>
     </row>
     <row r="1797">
-      <c r="A1797" s="6"/>
-      <c r="B1797" s="3"/>
-      <c r="C1797" s="3"/>
-      <c r="D1797" s="3"/>
+      <c r="A1797" s="16" t="n">
+        <v>44518</v>
+      </c>
+      <c r="B1797" s="3" t="n">
+        <v>20.0655255784012</v>
+      </c>
+      <c r="C1797" s="3" t="n">
+        <v>22.2477691699241</v>
+      </c>
+      <c r="D1797" s="3" t="n">
+        <v>21.6252183211547</v>
+      </c>
     </row>
     <row r="1798">
-      <c r="A1798" s="6"/>
-      <c r="B1798" s="3"/>
-      <c r="C1798" s="3"/>
-      <c r="D1798" s="3"/>
+      <c r="A1798" s="16" t="n">
+        <v>44519</v>
+      </c>
+      <c r="B1798" s="3" t="n">
+        <v>20.0595971070467</v>
+      </c>
+      <c r="C1798" s="3" t="n">
+        <v>22.2392333102337</v>
+      </c>
+      <c r="D1798" s="3" t="n">
+        <v>21.6177298902015</v>
+      </c>
     </row>
     <row r="1799">
-      <c r="A1799" s="6"/>
-      <c r="B1799" s="3"/>
-      <c r="C1799" s="3"/>
-      <c r="D1799" s="3"/>
+      <c r="A1799" s="16" t="n">
+        <v>44520</v>
+      </c>
+      <c r="B1799" s="3" t="n">
+        <v>20.0550955365621</v>
+      </c>
+      <c r="C1799" s="3" t="n">
+        <v>22.2294273444757</v>
+      </c>
+      <c r="D1799" s="3" t="n">
+        <v>21.6270108271848</v>
+      </c>
     </row>
     <row r="1800">
-      <c r="A1800" s="6"/>
-      <c r="B1800" s="3"/>
-      <c r="C1800" s="3"/>
-      <c r="D1800" s="3"/>
+      <c r="A1800" s="16" t="n">
+        <v>44521</v>
+      </c>
+      <c r="B1800" s="3" t="n">
+        <v>20.0520678835188</v>
+      </c>
+      <c r="C1800" s="3" t="n">
+        <v>22.2271036985022</v>
+      </c>
+      <c r="D1800" s="3" t="n">
+        <v>21.6284279238439</v>
+      </c>
     </row>
     <row r="1801">
-      <c r="A1801" s="6"/>
-      <c r="B1801" s="3"/>
-      <c r="C1801" s="3"/>
-      <c r="D1801" s="3"/>
+      <c r="A1801" s="16" t="n">
+        <v>44522</v>
+      </c>
+      <c r="B1801" s="3" t="n">
+        <v>20.0632256151225</v>
+      </c>
+      <c r="C1801" s="3" t="n">
+        <v>22.2290866488593</v>
+      </c>
+      <c r="D1801" s="3" t="n">
+        <v>21.6339079832695</v>
+      </c>
     </row>
     <row r="1802">
-      <c r="A1802" s="6"/>
-      <c r="B1802" s="3"/>
-      <c r="C1802" s="3"/>
-      <c r="D1802" s="3"/>
+      <c r="A1802" s="16" t="n">
+        <v>44523</v>
+      </c>
+      <c r="B1802" s="3" t="n">
+        <v>20.0526171949497</v>
+      </c>
+      <c r="C1802" s="3" t="n">
+        <v>22.219815745394</v>
+      </c>
+      <c r="D1802" s="3" t="n">
+        <v>21.624734251374</v>
+      </c>
     </row>
     <row r="1803">
-      <c r="A1803" s="6"/>
-      <c r="B1803" s="3"/>
-      <c r="C1803" s="3"/>
-      <c r="D1803" s="3"/>
+      <c r="A1803" s="16" t="n">
+        <v>44524</v>
+      </c>
+      <c r="B1803" s="3" t="n">
+        <v>20.0602898797367</v>
+      </c>
+      <c r="C1803" s="3" t="n">
+        <v>22.2284235801785</v>
+      </c>
+      <c r="D1803" s="3" t="n">
+        <v>21.6303350669535</v>
+      </c>
     </row>
     <row r="1804">
-      <c r="A1804" s="6"/>
-      <c r="B1804" s="3"/>
-      <c r="C1804" s="3"/>
-      <c r="D1804" s="3"/>
+      <c r="A1804" s="16" t="n">
+        <v>44525</v>
+      </c>
+      <c r="B1804" s="3" t="n">
+        <v>20.1324771957256</v>
+      </c>
+      <c r="C1804" s="3" t="n">
+        <v>22.2951074455901</v>
+      </c>
+      <c r="D1804" s="3" t="n">
+        <v>21.6978768446941</v>
+      </c>
     </row>
     <row r="1805">
-      <c r="A1805" s="6"/>
-      <c r="B1805" s="3"/>
-      <c r="C1805" s="3"/>
-      <c r="D1805" s="3"/>
+      <c r="A1805" s="16" t="n">
+        <v>44526</v>
+      </c>
+      <c r="B1805" s="3" t="n">
+        <v>20.2027184650455</v>
+      </c>
+      <c r="C1805" s="3" t="n">
+        <v>22.3423582195114</v>
+      </c>
+      <c r="D1805" s="3" t="n">
+        <v>21.7516387903361</v>
+      </c>
     </row>
     <row r="1806">
-      <c r="A1806" s="6"/>
-      <c r="B1806" s="3"/>
-      <c r="C1806" s="3"/>
-      <c r="D1806" s="3"/>
+      <c r="A1806" s="16" t="n">
+        <v>44527</v>
+      </c>
+      <c r="B1806" s="3" t="n">
+        <v>20.2286616485159</v>
+      </c>
+      <c r="C1806" s="3" t="n">
+        <v>22.3606517107956</v>
+      </c>
+      <c r="D1806" s="3" t="n">
+        <v>21.7705668386881</v>
+      </c>
     </row>
     <row r="1807">
-      <c r="A1807" s="6"/>
-      <c r="B1807" s="3"/>
-      <c r="C1807" s="3"/>
-      <c r="D1807" s="3"/>
+      <c r="A1807" s="16" t="n">
+        <v>44528</v>
+      </c>
+      <c r="B1807" s="3" t="n">
+        <v>20.2363252494903</v>
+      </c>
+      <c r="C1807" s="3" t="n">
+        <v>22.3641216007761</v>
+      </c>
+      <c r="D1807" s="3" t="n">
+        <v>21.7770400269087</v>
+      </c>
     </row>
     <row r="1808">
-      <c r="A1808" s="6"/>
-      <c r="B1808" s="3"/>
-      <c r="C1808" s="3"/>
-      <c r="D1808" s="3"/>
+      <c r="A1808" s="16" t="n">
+        <v>44529</v>
+      </c>
+      <c r="B1808" s="3" t="n">
+        <v>20.2635287234043</v>
+      </c>
+      <c r="C1808" s="3" t="n">
+        <v>22.3845168030267</v>
+      </c>
+      <c r="D1808" s="3" t="n">
+        <v>21.7922659020389</v>
+      </c>
     </row>
     <row r="1809">
-      <c r="A1809" s="6"/>
-      <c r="B1809" s="3"/>
-      <c r="C1809" s="3"/>
-      <c r="D1809" s="3"/>
+      <c r="A1809" s="16" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B1809" s="3" t="n">
+        <v>20.3030157987735</v>
+      </c>
+      <c r="C1809" s="3" t="n">
+        <v>22.4149164439924</v>
+      </c>
+      <c r="D1809" s="3" t="n">
+        <v>21.8190271988884</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="6"/>
@@ -37402,8 +37642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="true" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -37496,44 +37736,44 @@
       <c r="G13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>1399</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="12" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H14" s="13"/>
     </row>
     <row r="15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -38941,13 +39181,27 @@
     </row>
     <row r="74">
       <c r="A74" s="6"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>20.4366281700018</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>20.0649044777706</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>22.7023721544429</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>22.2826305579075</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>21.6298265670886</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>21.6420989374039</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017-noviembre 2021</t>
+    <t xml:space="preserve">enero 2017-diciembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: enero 2022</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">noviembre 2021</t>
+    <t xml:space="preserve">diciembre 2021</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -30096,190 +30096,438 @@
       </c>
     </row>
     <row r="1810">
-      <c r="A1810" s="6"/>
-      <c r="B1810" s="3"/>
-      <c r="C1810" s="3"/>
-      <c r="D1810" s="3"/>
+      <c r="A1810" s="16" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B1810" s="3" t="n">
+        <v>20.2832716622002</v>
+      </c>
+      <c r="C1810" s="3" t="n">
+        <v>22.3963307672897</v>
+      </c>
+      <c r="D1810" s="3" t="n">
+        <v>21.793229199704</v>
+      </c>
     </row>
     <row r="1811">
-      <c r="A1811" s="6"/>
-      <c r="B1811" s="3"/>
-      <c r="C1811" s="3"/>
-      <c r="D1811" s="3"/>
+      <c r="A1811" s="16" t="n">
+        <v>44532</v>
+      </c>
+      <c r="B1811" s="3" t="n">
+        <v>20.2278642152344</v>
+      </c>
+      <c r="C1811" s="3" t="n">
+        <v>22.3684884878661</v>
+      </c>
+      <c r="D1811" s="3" t="n">
+        <v>21.7517339854844</v>
+      </c>
     </row>
     <row r="1812">
-      <c r="A1812" s="6"/>
-      <c r="B1812" s="3"/>
-      <c r="C1812" s="3"/>
-      <c r="D1812" s="3"/>
+      <c r="A1812" s="16" t="n">
+        <v>44533</v>
+      </c>
+      <c r="B1812" s="3" t="n">
+        <v>20.151827421486</v>
+      </c>
+      <c r="C1812" s="3" t="n">
+        <v>22.3303800956323</v>
+      </c>
+      <c r="D1812" s="3" t="n">
+        <v>21.7092104306269</v>
+      </c>
     </row>
     <row r="1813">
-      <c r="A1813" s="6"/>
-      <c r="B1813" s="3"/>
-      <c r="C1813" s="3"/>
-      <c r="D1813" s="3"/>
+      <c r="A1813" s="16" t="n">
+        <v>44534</v>
+      </c>
+      <c r="B1813" s="3" t="n">
+        <v>20.1139745276653</v>
+      </c>
+      <c r="C1813" s="3" t="n">
+        <v>22.3270832336288</v>
+      </c>
+      <c r="D1813" s="3" t="n">
+        <v>21.6929528394677</v>
+      </c>
     </row>
     <row r="1814">
-      <c r="A1814" s="6"/>
-      <c r="B1814" s="3"/>
-      <c r="C1814" s="3"/>
-      <c r="D1814" s="3"/>
+      <c r="A1814" s="16" t="n">
+        <v>44535</v>
+      </c>
+      <c r="B1814" s="3" t="n">
+        <v>20.1052479282935</v>
+      </c>
+      <c r="C1814" s="3" t="n">
+        <v>22.3542738196044</v>
+      </c>
+      <c r="D1814" s="3" t="n">
+        <v>21.6877296342476</v>
+      </c>
     </row>
     <row r="1815">
-      <c r="A1815" s="6"/>
-      <c r="B1815" s="3"/>
-      <c r="C1815" s="3"/>
-      <c r="D1815" s="3"/>
+      <c r="A1815" s="16" t="n">
+        <v>44536</v>
+      </c>
+      <c r="B1815" s="3" t="n">
+        <v>20.0852425688942</v>
+      </c>
+      <c r="C1815" s="3" t="n">
+        <v>22.3453694939938</v>
+      </c>
+      <c r="D1815" s="3" t="n">
+        <v>21.6767271851735</v>
+      </c>
     </row>
     <row r="1816">
-      <c r="A1816" s="6"/>
-      <c r="B1816" s="3"/>
-      <c r="C1816" s="3"/>
-      <c r="D1816" s="3"/>
+      <c r="A1816" s="16" t="n">
+        <v>44537</v>
+      </c>
+      <c r="B1816" s="3" t="n">
+        <v>20.0618046301904</v>
+      </c>
+      <c r="C1816" s="3" t="n">
+        <v>22.3282658172059</v>
+      </c>
+      <c r="D1816" s="3" t="n">
+        <v>21.6630321316209</v>
+      </c>
     </row>
     <row r="1817">
-      <c r="A1817" s="6"/>
-      <c r="B1817" s="3"/>
-      <c r="C1817" s="3"/>
-      <c r="D1817" s="3"/>
+      <c r="A1817" s="16" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B1817" s="3" t="n">
+        <v>20.0594695748538</v>
+      </c>
+      <c r="C1817" s="3" t="n">
+        <v>22.2991352668492</v>
+      </c>
+      <c r="D1817" s="3" t="n">
+        <v>21.6618803616375</v>
+      </c>
     </row>
     <row r="1818">
-      <c r="A1818" s="6"/>
-      <c r="B1818" s="3"/>
-      <c r="C1818" s="3"/>
-      <c r="D1818" s="3"/>
+      <c r="A1818" s="16" t="n">
+        <v>44539</v>
+      </c>
+      <c r="B1818" s="3" t="n">
+        <v>20.0967436442822</v>
+      </c>
+      <c r="C1818" s="3" t="n">
+        <v>22.3142146004528</v>
+      </c>
+      <c r="D1818" s="3" t="n">
+        <v>21.6741286060792</v>
+      </c>
     </row>
     <row r="1819">
-      <c r="A1819" s="6"/>
-      <c r="B1819" s="3"/>
-      <c r="C1819" s="3"/>
-      <c r="D1819" s="3"/>
+      <c r="A1819" s="16" t="n">
+        <v>44540</v>
+      </c>
+      <c r="B1819" s="3" t="n">
+        <v>20.1034301304142</v>
+      </c>
+      <c r="C1819" s="3" t="n">
+        <v>22.3254018926692</v>
+      </c>
+      <c r="D1819" s="3" t="n">
+        <v>21.6866219518535</v>
+      </c>
     </row>
     <row r="1820">
-      <c r="A1820" s="6"/>
-      <c r="B1820" s="3"/>
-      <c r="C1820" s="3"/>
-      <c r="D1820" s="3"/>
+      <c r="A1820" s="16" t="n">
+        <v>44541</v>
+      </c>
+      <c r="B1820" s="3" t="n">
+        <v>20.1631390293227</v>
+      </c>
+      <c r="C1820" s="3" t="n">
+        <v>22.3764488873025</v>
+      </c>
+      <c r="D1820" s="3" t="n">
+        <v>21.7474309895833</v>
+      </c>
     </row>
     <row r="1821">
-      <c r="A1821" s="6"/>
-      <c r="B1821" s="3"/>
-      <c r="C1821" s="3"/>
-      <c r="D1821" s="3"/>
+      <c r="A1821" s="16" t="n">
+        <v>44542</v>
+      </c>
+      <c r="B1821" s="3" t="n">
+        <v>20.1814316912139</v>
+      </c>
+      <c r="C1821" s="3" t="n">
+        <v>22.3849814659815</v>
+      </c>
+      <c r="D1821" s="3" t="n">
+        <v>21.7625300288486</v>
+      </c>
     </row>
     <row r="1822">
-      <c r="A1822" s="6"/>
-      <c r="B1822" s="3"/>
-      <c r="C1822" s="3"/>
-      <c r="D1822" s="3"/>
+      <c r="A1822" s="16" t="n">
+        <v>44543</v>
+      </c>
+      <c r="B1822" s="3" t="n">
+        <v>20.2213609307361</v>
+      </c>
+      <c r="C1822" s="3" t="n">
+        <v>22.4114437659647</v>
+      </c>
+      <c r="D1822" s="3" t="n">
+        <v>21.7878666457974</v>
+      </c>
     </row>
     <row r="1823">
-      <c r="A1823" s="6"/>
-      <c r="B1823" s="3"/>
-      <c r="C1823" s="3"/>
-      <c r="D1823" s="3"/>
+      <c r="A1823" s="16" t="n">
+        <v>44544</v>
+      </c>
+      <c r="B1823" s="3" t="n">
+        <v>20.2623354810565</v>
+      </c>
+      <c r="C1823" s="3" t="n">
+        <v>22.437464308251</v>
+      </c>
+      <c r="D1823" s="3" t="n">
+        <v>21.8164523699005</v>
+      </c>
     </row>
     <row r="1824">
-      <c r="A1824" s="6"/>
-      <c r="B1824" s="3"/>
-      <c r="C1824" s="3"/>
-      <c r="D1824" s="3"/>
+      <c r="A1824" s="16" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B1824" s="3" t="n">
+        <v>20.2808663060538</v>
+      </c>
+      <c r="C1824" s="3" t="n">
+        <v>22.4489247059748</v>
+      </c>
+      <c r="D1824" s="3" t="n">
+        <v>21.8294170759157</v>
+      </c>
     </row>
     <row r="1825">
-      <c r="A1825" s="6"/>
-      <c r="B1825" s="3"/>
-      <c r="C1825" s="3"/>
-      <c r="D1825" s="3"/>
+      <c r="A1825" s="16" t="n">
+        <v>44546</v>
+      </c>
+      <c r="B1825" s="3" t="n">
+        <v>20.2948490005674</v>
+      </c>
+      <c r="C1825" s="3" t="n">
+        <v>22.4616684185944</v>
+      </c>
+      <c r="D1825" s="3" t="n">
+        <v>21.8419439342925</v>
+      </c>
     </row>
     <row r="1826">
-      <c r="A1826" s="6"/>
-      <c r="B1826" s="3"/>
-      <c r="C1826" s="3"/>
-      <c r="D1826" s="3"/>
+      <c r="A1826" s="16" t="n">
+        <v>44547</v>
+      </c>
+      <c r="B1826" s="3" t="n">
+        <v>20.3203106045459</v>
+      </c>
+      <c r="C1826" s="3" t="n">
+        <v>22.4764037635039</v>
+      </c>
+      <c r="D1826" s="3" t="n">
+        <v>21.8508848862543</v>
+      </c>
     </row>
     <row r="1827">
-      <c r="A1827" s="6"/>
-      <c r="B1827" s="3"/>
-      <c r="C1827" s="3"/>
-      <c r="D1827" s="3"/>
+      <c r="A1827" s="16" t="n">
+        <v>44548</v>
+      </c>
+      <c r="B1827" s="3" t="n">
+        <v>20.3382351566153</v>
+      </c>
+      <c r="C1827" s="3" t="n">
+        <v>22.4898085873871</v>
+      </c>
+      <c r="D1827" s="3" t="n">
+        <v>21.8564258949821</v>
+      </c>
     </row>
     <row r="1828">
-      <c r="A1828" s="6"/>
-      <c r="B1828" s="3"/>
-      <c r="C1828" s="3"/>
-      <c r="D1828" s="3"/>
+      <c r="A1828" s="16" t="n">
+        <v>44549</v>
+      </c>
+      <c r="B1828" s="3" t="n">
+        <v>20.3419563324627</v>
+      </c>
+      <c r="C1828" s="3" t="n">
+        <v>22.495754181253</v>
+      </c>
+      <c r="D1828" s="3" t="n">
+        <v>21.861205323194</v>
+      </c>
     </row>
     <row r="1829">
-      <c r="A1829" s="6"/>
-      <c r="B1829" s="3"/>
-      <c r="C1829" s="3"/>
-      <c r="D1829" s="3"/>
+      <c r="A1829" s="16" t="n">
+        <v>44550</v>
+      </c>
+      <c r="B1829" s="3" t="n">
+        <v>20.349470039145</v>
+      </c>
+      <c r="C1829" s="3" t="n">
+        <v>22.5020841099726</v>
+      </c>
+      <c r="D1829" s="3" t="n">
+        <v>21.8655759321007</v>
+      </c>
     </row>
     <row r="1830">
-      <c r="A1830" s="6"/>
-      <c r="B1830" s="3"/>
-      <c r="C1830" s="3"/>
-      <c r="D1830" s="3"/>
+      <c r="A1830" s="16" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B1830" s="3" t="n">
+        <v>20.3496910495988</v>
+      </c>
+      <c r="C1830" s="3" t="n">
+        <v>22.5014263098966</v>
+      </c>
+      <c r="D1830" s="3" t="n">
+        <v>21.8616513392633</v>
+      </c>
     </row>
     <row r="1831">
-      <c r="A1831" s="6"/>
-      <c r="B1831" s="3"/>
-      <c r="C1831" s="3"/>
-      <c r="D1831" s="3"/>
+      <c r="A1831" s="16" t="n">
+        <v>44552</v>
+      </c>
+      <c r="B1831" s="3" t="n">
+        <v>20.3326496110116</v>
+      </c>
+      <c r="C1831" s="3" t="n">
+        <v>22.4910859954643</v>
+      </c>
+      <c r="D1831" s="3" t="n">
+        <v>21.8492410086398</v>
+      </c>
     </row>
     <row r="1832">
-      <c r="A1832" s="6"/>
-      <c r="B1832" s="3"/>
-      <c r="C1832" s="3"/>
-      <c r="D1832" s="3"/>
+      <c r="A1832" s="16" t="n">
+        <v>44553</v>
+      </c>
+      <c r="B1832" s="3" t="n">
+        <v>20.3411542164677</v>
+      </c>
+      <c r="C1832" s="3" t="n">
+        <v>22.5044446362805</v>
+      </c>
+      <c r="D1832" s="3" t="n">
+        <v>21.861211323404</v>
+      </c>
     </row>
     <row r="1833">
-      <c r="A1833" s="6"/>
-      <c r="B1833" s="3"/>
-      <c r="C1833" s="3"/>
-      <c r="D1833" s="3"/>
+      <c r="A1833" s="16" t="n">
+        <v>44554</v>
+      </c>
+      <c r="B1833" s="3" t="n">
+        <v>20.3614712506628</v>
+      </c>
+      <c r="C1833" s="3" t="n">
+        <v>22.5232743616173</v>
+      </c>
+      <c r="D1833" s="3" t="n">
+        <v>21.8897676737461</v>
+      </c>
     </row>
     <row r="1834">
-      <c r="A1834" s="6"/>
-      <c r="B1834" s="3"/>
-      <c r="C1834" s="3"/>
-      <c r="D1834" s="3"/>
+      <c r="A1834" s="16" t="n">
+        <v>44555</v>
+      </c>
+      <c r="B1834" s="3" t="n">
+        <v>20.3756021354221</v>
+      </c>
+      <c r="C1834" s="3" t="n">
+        <v>22.5340617355858</v>
+      </c>
+      <c r="D1834" s="3" t="n">
+        <v>21.902017784553</v>
+      </c>
     </row>
     <row r="1835">
-      <c r="A1835" s="6"/>
-      <c r="B1835" s="3"/>
-      <c r="C1835" s="3"/>
-      <c r="D1835" s="3"/>
+      <c r="A1835" s="16" t="n">
+        <v>44556</v>
+      </c>
+      <c r="B1835" s="3" t="n">
+        <v>20.3779091775601</v>
+      </c>
+      <c r="C1835" s="3" t="n">
+        <v>22.5346335640969</v>
+      </c>
+      <c r="D1835" s="3" t="n">
+        <v>21.9028037285842</v>
+      </c>
     </row>
     <row r="1836">
-      <c r="A1836" s="6"/>
-      <c r="B1836" s="3"/>
-      <c r="C1836" s="3"/>
-      <c r="D1836" s="3"/>
+      <c r="A1836" s="16" t="n">
+        <v>44557</v>
+      </c>
+      <c r="B1836" s="3" t="n">
+        <v>20.4025256252565</v>
+      </c>
+      <c r="C1836" s="3" t="n">
+        <v>22.5520798914566</v>
+      </c>
+      <c r="D1836" s="3" t="n">
+        <v>21.9232176467531</v>
+      </c>
     </row>
     <row r="1837">
-      <c r="A1837" s="6"/>
-      <c r="B1837" s="3"/>
-      <c r="C1837" s="3"/>
-      <c r="D1837" s="3"/>
+      <c r="A1837" s="16" t="n">
+        <v>44558</v>
+      </c>
+      <c r="B1837" s="3" t="n">
+        <v>20.4518141977787</v>
+      </c>
+      <c r="C1837" s="3" t="n">
+        <v>22.5869793479525</v>
+      </c>
+      <c r="D1837" s="3" t="n">
+        <v>21.9575129559749</v>
+      </c>
     </row>
     <row r="1838">
-      <c r="A1838" s="6"/>
-      <c r="B1838" s="3"/>
-      <c r="C1838" s="3"/>
-      <c r="D1838" s="3"/>
+      <c r="A1838" s="16" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B1838" s="3" t="n">
+        <v>20.4860204182774</v>
+      </c>
+      <c r="C1838" s="3" t="n">
+        <v>22.5900801735524</v>
+      </c>
+      <c r="D1838" s="3" t="n">
+        <v>21.9943183843184</v>
+      </c>
     </row>
     <row r="1839">
-      <c r="A1839" s="6"/>
-      <c r="B1839" s="3"/>
-      <c r="C1839" s="3"/>
-      <c r="D1839" s="3"/>
+      <c r="A1839" s="16" t="n">
+        <v>44560</v>
+      </c>
+      <c r="B1839" s="3" t="n">
+        <v>20.5118980566536</v>
+      </c>
+      <c r="C1839" s="3" t="n">
+        <v>22.6079825949369</v>
+      </c>
+      <c r="D1839" s="3" t="n">
+        <v>22.0189621156213</v>
+      </c>
     </row>
     <row r="1840">
-      <c r="A1840" s="6"/>
-      <c r="B1840" s="3"/>
-      <c r="C1840" s="3"/>
-      <c r="D1840" s="3"/>
+      <c r="A1840" s="16" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B1840" s="3" t="n">
+        <v>20.5335237955349</v>
+      </c>
+      <c r="C1840" s="3" t="n">
+        <v>22.6214761320546</v>
+      </c>
+      <c r="D1840" s="3" t="n">
+        <v>22.0395980535281</v>
+      </c>
     </row>
     <row r="1841">
       <c r="A1841" s="6"/>
@@ -39205,13 +39453,27 @@
     </row>
     <row r="75">
       <c r="A75" s="6"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>20.7772917799114</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>20.2763577551438</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>22.9300141945325</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>22.4490790455572</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>21.8999608070896</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>21.8199123039081</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1432">
   <si>
     <t>Periodicidad Mensual</t>
   </si>
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017-diciembre 2021</t>
+    <t xml:space="preserve">enero 2017 - enero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2022</t>
+    <t xml:space="preserve">Próxima actualización: marzo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2021</t>
+    <t xml:space="preserve">enero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -4307,6 +4307,9 @@
   </si>
   <si>
     <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
   </si>
 </sst>
 </file>
@@ -30530,190 +30533,438 @@
       </c>
     </row>
     <row r="1841">
-      <c r="A1841" s="6"/>
-      <c r="B1841" s="3"/>
-      <c r="C1841" s="3"/>
-      <c r="D1841" s="3"/>
+      <c r="A1841" s="16" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B1841" s="3" t="n">
+        <v>20.5451633701767</v>
+      </c>
+      <c r="C1841" s="3" t="n">
+        <v>22.6269856749313</v>
+      </c>
+      <c r="D1841" s="3" t="n">
+        <v>22.0480353105308</v>
+      </c>
     </row>
     <row r="1842">
-      <c r="A1842" s="6"/>
-      <c r="B1842" s="3"/>
-      <c r="C1842" s="3"/>
-      <c r="D1842" s="3"/>
+      <c r="A1842" s="16" t="n">
+        <v>44563</v>
+      </c>
+      <c r="B1842" s="3" t="n">
+        <v>20.5482320441991</v>
+      </c>
+      <c r="C1842" s="3" t="n">
+        <v>22.6284492931094</v>
+      </c>
+      <c r="D1842" s="3" t="n">
+        <v>22.0521102735094</v>
+      </c>
     </row>
     <row r="1843">
-      <c r="A1843" s="6"/>
-      <c r="B1843" s="3"/>
-      <c r="C1843" s="3"/>
-      <c r="D1843" s="3"/>
+      <c r="A1843" s="16" t="n">
+        <v>44564</v>
+      </c>
+      <c r="B1843" s="3" t="n">
+        <v>20.5636682011448</v>
+      </c>
+      <c r="C1843" s="3" t="n">
+        <v>22.6390293303821</v>
+      </c>
+      <c r="D1843" s="3" t="n">
+        <v>22.0504391762453</v>
+      </c>
     </row>
     <row r="1844">
-      <c r="A1844" s="6"/>
-      <c r="B1844" s="3"/>
-      <c r="C1844" s="3"/>
-      <c r="D1844" s="3"/>
+      <c r="A1844" s="16" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B1844" s="3" t="n">
+        <v>20.5851149752047</v>
+      </c>
+      <c r="C1844" s="3" t="n">
+        <v>22.6540913529349</v>
+      </c>
+      <c r="D1844" s="3" t="n">
+        <v>22.0614939124714</v>
+      </c>
     </row>
     <row r="1845">
-      <c r="A1845" s="6"/>
-      <c r="B1845" s="3"/>
-      <c r="C1845" s="3"/>
-      <c r="D1845" s="3"/>
+      <c r="A1845" s="16" t="n">
+        <v>44566</v>
+      </c>
+      <c r="B1845" s="3" t="n">
+        <v>20.5973432405318</v>
+      </c>
+      <c r="C1845" s="3" t="n">
+        <v>22.6711196199392</v>
+      </c>
+      <c r="D1845" s="3" t="n">
+        <v>22.0682661290324</v>
+      </c>
     </row>
     <row r="1846">
-      <c r="A1846" s="6"/>
-      <c r="B1846" s="3"/>
-      <c r="C1846" s="3"/>
-      <c r="D1846" s="3"/>
+      <c r="A1846" s="16" t="n">
+        <v>44567</v>
+      </c>
+      <c r="B1846" s="3" t="n">
+        <v>20.6020567808542</v>
+      </c>
+      <c r="C1846" s="3" t="n">
+        <v>22.6818842190701</v>
+      </c>
+      <c r="D1846" s="3" t="n">
+        <v>22.0804219789359</v>
+      </c>
     </row>
     <row r="1847">
-      <c r="A1847" s="6"/>
-      <c r="B1847" s="3"/>
-      <c r="C1847" s="3"/>
-      <c r="D1847" s="3"/>
+      <c r="A1847" s="16" t="n">
+        <v>44568</v>
+      </c>
+      <c r="B1847" s="3" t="n">
+        <v>20.6090908807385</v>
+      </c>
+      <c r="C1847" s="3" t="n">
+        <v>22.6963197163723</v>
+      </c>
+      <c r="D1847" s="3" t="n">
+        <v>22.1037468914066</v>
+      </c>
     </row>
     <row r="1848">
-      <c r="A1848" s="6"/>
-      <c r="B1848" s="3"/>
-      <c r="C1848" s="3"/>
-      <c r="D1848" s="3"/>
+      <c r="A1848" s="16" t="n">
+        <v>44569</v>
+      </c>
+      <c r="B1848" s="3" t="n">
+        <v>20.6138000747034</v>
+      </c>
+      <c r="C1848" s="3" t="n">
+        <v>22.7017215653155</v>
+      </c>
+      <c r="D1848" s="3" t="n">
+        <v>22.1148081072398</v>
+      </c>
     </row>
     <row r="1849">
-      <c r="A1849" s="6"/>
-      <c r="B1849" s="3"/>
-      <c r="C1849" s="3"/>
-      <c r="D1849" s="3"/>
+      <c r="A1849" s="16" t="n">
+        <v>44570</v>
+      </c>
+      <c r="B1849" s="3" t="n">
+        <v>20.6141915748178</v>
+      </c>
+      <c r="C1849" s="3" t="n">
+        <v>22.702262895467</v>
+      </c>
+      <c r="D1849" s="3" t="n">
+        <v>22.1182734723951</v>
+      </c>
     </row>
     <row r="1850">
-      <c r="A1850" s="6"/>
-      <c r="B1850" s="3"/>
-      <c r="C1850" s="3"/>
-      <c r="D1850" s="3"/>
+      <c r="A1850" s="16" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B1850" s="3" t="n">
+        <v>20.6180986723741</v>
+      </c>
+      <c r="C1850" s="3" t="n">
+        <v>22.7032705461435</v>
+      </c>
+      <c r="D1850" s="3" t="n">
+        <v>22.125003218835</v>
+      </c>
     </row>
     <row r="1851">
-      <c r="A1851" s="6"/>
-      <c r="B1851" s="3"/>
-      <c r="C1851" s="3"/>
-      <c r="D1851" s="3"/>
+      <c r="A1851" s="16" t="n">
+        <v>44572</v>
+      </c>
+      <c r="B1851" s="3" t="n">
+        <v>20.6163253938946</v>
+      </c>
+      <c r="C1851" s="3" t="n">
+        <v>22.7106288226301</v>
+      </c>
+      <c r="D1851" s="3" t="n">
+        <v>22.1392580484041</v>
+      </c>
     </row>
     <row r="1852">
-      <c r="A1852" s="6"/>
-      <c r="B1852" s="3"/>
-      <c r="C1852" s="3"/>
-      <c r="D1852" s="3"/>
+      <c r="A1852" s="16" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B1852" s="3" t="n">
+        <v>20.6123888120485</v>
+      </c>
+      <c r="C1852" s="3" t="n">
+        <v>22.7183497835498</v>
+      </c>
+      <c r="D1852" s="3" t="n">
+        <v>22.1502080780577</v>
+      </c>
     </row>
     <row r="1853">
-      <c r="A1853" s="6"/>
-      <c r="B1853" s="3"/>
-      <c r="C1853" s="3"/>
-      <c r="D1853" s="3"/>
+      <c r="A1853" s="16" t="n">
+        <v>44574</v>
+      </c>
+      <c r="B1853" s="3" t="n">
+        <v>20.6302608628896</v>
+      </c>
+      <c r="C1853" s="3" t="n">
+        <v>22.7239612724759</v>
+      </c>
+      <c r="D1853" s="3" t="n">
+        <v>22.1569207082373</v>
+      </c>
     </row>
     <row r="1854">
-      <c r="A1854" s="6"/>
-      <c r="B1854" s="3"/>
-      <c r="C1854" s="3"/>
-      <c r="D1854" s="3"/>
+      <c r="A1854" s="16" t="n">
+        <v>44575</v>
+      </c>
+      <c r="B1854" s="3" t="n">
+        <v>20.6474718638485</v>
+      </c>
+      <c r="C1854" s="3" t="n">
+        <v>22.7320691423883</v>
+      </c>
+      <c r="D1854" s="3" t="n">
+        <v>22.1618558316546</v>
+      </c>
     </row>
     <row r="1855">
-      <c r="A1855" s="6"/>
-      <c r="B1855" s="3"/>
-      <c r="C1855" s="3"/>
-      <c r="D1855" s="3"/>
+      <c r="A1855" s="16" t="n">
+        <v>44576</v>
+      </c>
+      <c r="B1855" s="3" t="n">
+        <v>20.6568183472879</v>
+      </c>
+      <c r="C1855" s="3" t="n">
+        <v>22.7362295668165</v>
+      </c>
+      <c r="D1855" s="3" t="n">
+        <v>22.169907258784</v>
+      </c>
     </row>
     <row r="1856">
-      <c r="A1856" s="6"/>
-      <c r="B1856" s="3"/>
-      <c r="C1856" s="3"/>
-      <c r="D1856" s="3"/>
+      <c r="A1856" s="16" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B1856" s="3" t="n">
+        <v>20.6578052564336</v>
+      </c>
+      <c r="C1856" s="3" t="n">
+        <v>22.739897182809</v>
+      </c>
+      <c r="D1856" s="3" t="n">
+        <v>22.1711750760425</v>
+      </c>
     </row>
     <row r="1857">
-      <c r="A1857" s="6"/>
-      <c r="B1857" s="3"/>
-      <c r="C1857" s="3"/>
-      <c r="D1857" s="3"/>
+      <c r="A1857" s="16" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B1857" s="3" t="n">
+        <v>20.6612915982235</v>
+      </c>
+      <c r="C1857" s="3" t="n">
+        <v>22.7417808008214</v>
+      </c>
+      <c r="D1857" s="3" t="n">
+        <v>22.1779930425478</v>
+      </c>
     </row>
     <row r="1858">
-      <c r="A1858" s="6"/>
-      <c r="B1858" s="3"/>
-      <c r="C1858" s="3"/>
-      <c r="D1858" s="3"/>
+      <c r="A1858" s="16" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B1858" s="3" t="n">
+        <v>20.6716072400655</v>
+      </c>
+      <c r="C1858" s="3" t="n">
+        <v>22.7576754654164</v>
+      </c>
+      <c r="D1858" s="3" t="n">
+        <v>22.1880129904563</v>
+      </c>
     </row>
     <row r="1859">
-      <c r="A1859" s="6"/>
-      <c r="B1859" s="3"/>
-      <c r="C1859" s="3"/>
-      <c r="D1859" s="3"/>
+      <c r="A1859" s="16" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B1859" s="3" t="n">
+        <v>20.6731274996243</v>
+      </c>
+      <c r="C1859" s="3" t="n">
+        <v>22.7633690416033</v>
+      </c>
+      <c r="D1859" s="3" t="n">
+        <v>22.1926540938365</v>
+      </c>
     </row>
     <row r="1860">
-      <c r="A1860" s="6"/>
-      <c r="B1860" s="3"/>
-      <c r="C1860" s="3"/>
-      <c r="D1860" s="3"/>
+      <c r="A1860" s="16" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B1860" s="3" t="n">
+        <v>20.6792963529025</v>
+      </c>
+      <c r="C1860" s="3" t="n">
+        <v>22.7704368752934</v>
+      </c>
+      <c r="D1860" s="3" t="n">
+        <v>22.2003476496009</v>
+      </c>
     </row>
     <row r="1861">
-      <c r="A1861" s="6"/>
-      <c r="B1861" s="3"/>
-      <c r="C1861" s="3"/>
-      <c r="D1861" s="3"/>
+      <c r="A1861" s="16" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B1861" s="3" t="n">
+        <v>20.6868368902441</v>
+      </c>
+      <c r="C1861" s="3" t="n">
+        <v>22.7739667605822</v>
+      </c>
+      <c r="D1861" s="3" t="n">
+        <v>22.208053418525</v>
+      </c>
     </row>
     <row r="1862">
-      <c r="A1862" s="6"/>
-      <c r="B1862" s="3"/>
-      <c r="C1862" s="3"/>
-      <c r="D1862" s="3"/>
+      <c r="A1862" s="16" t="n">
+        <v>44583</v>
+      </c>
+      <c r="B1862" s="3" t="n">
+        <v>20.6925152084453</v>
+      </c>
+      <c r="C1862" s="3" t="n">
+        <v>22.7796676058227</v>
+      </c>
+      <c r="D1862" s="3" t="n">
+        <v>22.2119661170975</v>
+      </c>
     </row>
     <row r="1863">
-      <c r="A1863" s="6"/>
-      <c r="B1863" s="3"/>
-      <c r="C1863" s="3"/>
-      <c r="D1863" s="3"/>
+      <c r="A1863" s="16" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B1863" s="3" t="n">
+        <v>20.6906009701762</v>
+      </c>
+      <c r="C1863" s="3" t="n">
+        <v>22.7809486893663</v>
+      </c>
+      <c r="D1863" s="3" t="n">
+        <v>22.2106740180089</v>
+      </c>
     </row>
     <row r="1864">
-      <c r="A1864" s="6"/>
-      <c r="B1864" s="3"/>
-      <c r="C1864" s="3"/>
-      <c r="D1864" s="3"/>
+      <c r="A1864" s="16" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B1864" s="3" t="n">
+        <v>20.6965392387503</v>
+      </c>
+      <c r="C1864" s="3" t="n">
+        <v>22.7850171979293</v>
+      </c>
+      <c r="D1864" s="3" t="n">
+        <v>22.2119925304681</v>
+      </c>
     </row>
     <row r="1865">
-      <c r="A1865" s="6"/>
-      <c r="B1865" s="3"/>
-      <c r="C1865" s="3"/>
-      <c r="D1865" s="3"/>
+      <c r="A1865" s="16" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B1865" s="3" t="n">
+        <v>20.7030015940331</v>
+      </c>
+      <c r="C1865" s="3" t="n">
+        <v>22.7917766626114</v>
+      </c>
+      <c r="D1865" s="3" t="n">
+        <v>22.2167634015915</v>
+      </c>
     </row>
     <row r="1866">
-      <c r="A1866" s="6"/>
-      <c r="B1866" s="3"/>
-      <c r="C1866" s="3"/>
-      <c r="D1866" s="3"/>
+      <c r="A1866" s="16" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B1866" s="3" t="n">
+        <v>20.7169693942423</v>
+      </c>
+      <c r="C1866" s="3" t="n">
+        <v>22.8115084055017</v>
+      </c>
+      <c r="D1866" s="3" t="n">
+        <v>22.229625326371</v>
+      </c>
     </row>
     <row r="1867">
-      <c r="A1867" s="6"/>
-      <c r="B1867" s="3"/>
-      <c r="C1867" s="3"/>
-      <c r="D1867" s="3"/>
+      <c r="A1867" s="16" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B1867" s="3" t="n">
+        <v>20.7162133271636</v>
+      </c>
+      <c r="C1867" s="3" t="n">
+        <v>22.8145770588846</v>
+      </c>
+      <c r="D1867" s="3" t="n">
+        <v>22.2374714929731</v>
+      </c>
     </row>
     <row r="1868">
-      <c r="A1868" s="6"/>
-      <c r="B1868" s="3"/>
-      <c r="C1868" s="3"/>
-      <c r="D1868" s="3"/>
+      <c r="A1868" s="16" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B1868" s="3" t="n">
+        <v>20.7166782396548</v>
+      </c>
+      <c r="C1868" s="3" t="n">
+        <v>22.8233101045298</v>
+      </c>
+      <c r="D1868" s="3" t="n">
+        <v>22.2420253164561</v>
+      </c>
     </row>
     <row r="1869">
-      <c r="A1869" s="6"/>
-      <c r="B1869" s="3"/>
-      <c r="C1869" s="3"/>
-      <c r="D1869" s="3"/>
+      <c r="A1869" s="16" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B1869" s="3" t="n">
+        <v>20.7182708155727</v>
+      </c>
+      <c r="C1869" s="3" t="n">
+        <v>22.8295191793996</v>
+      </c>
+      <c r="D1869" s="3" t="n">
+        <v>22.2470158860589</v>
+      </c>
     </row>
     <row r="1870">
-      <c r="A1870" s="6"/>
-      <c r="B1870" s="3"/>
-      <c r="C1870" s="3"/>
-      <c r="D1870" s="3"/>
+      <c r="A1870" s="16" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B1870" s="3" t="n">
+        <v>20.7161435686237</v>
+      </c>
+      <c r="C1870" s="3" t="n">
+        <v>22.8305148332612</v>
+      </c>
+      <c r="D1870" s="3" t="n">
+        <v>22.2517584628194</v>
+      </c>
     </row>
     <row r="1871">
-      <c r="A1871" s="6"/>
-      <c r="B1871" s="3"/>
-      <c r="C1871" s="3"/>
-      <c r="D1871" s="3"/>
+      <c r="A1871" s="16" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B1871" s="3" t="n">
+        <v>20.7217775306972</v>
+      </c>
+      <c r="C1871" s="3" t="n">
+        <v>22.8325364064383</v>
+      </c>
+      <c r="D1871" s="3" t="n">
+        <v>22.2517047685837</v>
+      </c>
     </row>
     <row r="1872">
       <c r="A1872" s="6"/>
@@ -39476,14 +39727,30 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="A76" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>21.1711532073344</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>20.6509258006312</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>23.2961619514965</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>22.7404153248967</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>22.3081989515863</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>22.1629026447476</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - enero 2022</t>
+    <t xml:space="preserve">enero 2017 - febrero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: marzo 2022</t>
+    <t xml:space="preserve">Próxima actualización: abril 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2022</t>
+    <t xml:space="preserve">febrero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -30967,172 +30967,396 @@
       </c>
     </row>
     <row r="1872">
-      <c r="A1872" s="6"/>
-      <c r="B1872" s="3"/>
-      <c r="C1872" s="3"/>
-      <c r="D1872" s="3"/>
+      <c r="A1872" s="16" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B1872" s="3" t="n">
+        <v>20.7260593003958</v>
+      </c>
+      <c r="C1872" s="3" t="n">
+        <v>22.8386122846928</v>
+      </c>
+      <c r="D1872" s="3" t="n">
+        <v>22.2595701608433</v>
+      </c>
     </row>
     <row r="1873">
-      <c r="A1873" s="6"/>
-      <c r="B1873" s="3"/>
-      <c r="C1873" s="3"/>
-      <c r="D1873" s="3"/>
+      <c r="A1873" s="16" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B1873" s="3" t="n">
+        <v>20.7314496452535</v>
+      </c>
+      <c r="C1873" s="3" t="n">
+        <v>22.8478594735695</v>
+      </c>
+      <c r="D1873" s="3" t="n">
+        <v>22.2708469529089</v>
+      </c>
     </row>
     <row r="1874">
-      <c r="A1874" s="6"/>
-      <c r="B1874" s="3"/>
-      <c r="C1874" s="3"/>
-      <c r="D1874" s="3"/>
+      <c r="A1874" s="16" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B1874" s="3" t="n">
+        <v>20.7411806298856</v>
+      </c>
+      <c r="C1874" s="3" t="n">
+        <v>22.8540469867964</v>
+      </c>
+      <c r="D1874" s="3" t="n">
+        <v>22.2770695202129</v>
+      </c>
     </row>
     <row r="1875">
-      <c r="A1875" s="6"/>
-      <c r="B1875" s="3"/>
-      <c r="C1875" s="3"/>
-      <c r="D1875" s="3"/>
+      <c r="A1875" s="16" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B1875" s="3" t="n">
+        <v>20.7449251959541</v>
+      </c>
+      <c r="C1875" s="3" t="n">
+        <v>22.8632266339504</v>
+      </c>
+      <c r="D1875" s="3" t="n">
+        <v>22.2831017091625</v>
+      </c>
     </row>
     <row r="1876">
-      <c r="A1876" s="6"/>
-      <c r="B1876" s="3"/>
-      <c r="C1876" s="3"/>
-      <c r="D1876" s="3"/>
+      <c r="A1876" s="16" t="n">
+        <v>44597</v>
+      </c>
+      <c r="B1876" s="3" t="n">
+        <v>20.7503524731815</v>
+      </c>
+      <c r="C1876" s="3" t="n">
+        <v>22.8689850774108</v>
+      </c>
+      <c r="D1876" s="3" t="n">
+        <v>22.2837833473746</v>
+      </c>
     </row>
     <row r="1877">
-      <c r="A1877" s="6"/>
-      <c r="B1877" s="3"/>
-      <c r="C1877" s="3"/>
-      <c r="D1877" s="3"/>
+      <c r="A1877" s="16" t="n">
+        <v>44598</v>
+      </c>
+      <c r="B1877" s="3" t="n">
+        <v>20.7435193083385</v>
+      </c>
+      <c r="C1877" s="3" t="n">
+        <v>22.8685406725743</v>
+      </c>
+      <c r="D1877" s="3" t="n">
+        <v>22.271873566514</v>
+      </c>
     </row>
     <row r="1878">
-      <c r="A1878" s="6"/>
-      <c r="B1878" s="3"/>
-      <c r="C1878" s="3"/>
-      <c r="D1878" s="3"/>
+      <c r="A1878" s="16" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B1878" s="3" t="n">
+        <v>20.7436513804245</v>
+      </c>
+      <c r="C1878" s="3" t="n">
+        <v>22.870619697317</v>
+      </c>
+      <c r="D1878" s="3" t="n">
+        <v>22.2686996814367</v>
+      </c>
     </row>
     <row r="1879">
-      <c r="A1879" s="6"/>
-      <c r="B1879" s="3"/>
-      <c r="C1879" s="3"/>
-      <c r="D1879" s="3"/>
+      <c r="A1879" s="16" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B1879" s="3" t="n">
+        <v>20.7467865671644</v>
+      </c>
+      <c r="C1879" s="3" t="n">
+        <v>22.8734265375854</v>
+      </c>
+      <c r="D1879" s="3" t="n">
+        <v>22.2743654456305</v>
+      </c>
     </row>
     <row r="1880">
-      <c r="A1880" s="6"/>
-      <c r="B1880" s="3"/>
-      <c r="C1880" s="3"/>
-      <c r="D1880" s="3"/>
+      <c r="A1880" s="16" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B1880" s="3" t="n">
+        <v>20.7548140652255</v>
+      </c>
+      <c r="C1880" s="3" t="n">
+        <v>22.8839074825332</v>
+      </c>
+      <c r="D1880" s="3" t="n">
+        <v>22.2833178438664</v>
+      </c>
     </row>
     <row r="1881">
-      <c r="A1881" s="6"/>
-      <c r="B1881" s="3"/>
-      <c r="C1881" s="3"/>
-      <c r="D1881" s="3"/>
+      <c r="A1881" s="16" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B1881" s="3" t="n">
+        <v>20.7667920987657</v>
+      </c>
+      <c r="C1881" s="3" t="n">
+        <v>22.8984449572267</v>
+      </c>
+      <c r="D1881" s="3" t="n">
+        <v>22.3002319919808</v>
+      </c>
     </row>
     <row r="1882">
-      <c r="A1882" s="6"/>
-      <c r="B1882" s="3"/>
-      <c r="C1882" s="3"/>
-      <c r="D1882" s="3"/>
+      <c r="A1882" s="16" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B1882" s="3" t="n">
+        <v>20.7840293829581</v>
+      </c>
+      <c r="C1882" s="3" t="n">
+        <v>22.9212050512909</v>
+      </c>
+      <c r="D1882" s="3" t="n">
+        <v>22.3166550810992</v>
+      </c>
     </row>
     <row r="1883">
-      <c r="A1883" s="6"/>
-      <c r="B1883" s="3"/>
-      <c r="C1883" s="3"/>
-      <c r="D1883" s="3"/>
+      <c r="A1883" s="16" t="n">
+        <v>44604</v>
+      </c>
+      <c r="B1883" s="3" t="n">
+        <v>20.8169248336811</v>
+      </c>
+      <c r="C1883" s="3" t="n">
+        <v>22.940839236957</v>
+      </c>
+      <c r="D1883" s="3" t="n">
+        <v>22.3296842774406</v>
+      </c>
     </row>
     <row r="1884">
-      <c r="A1884" s="6"/>
-      <c r="B1884" s="3"/>
-      <c r="C1884" s="3"/>
-      <c r="D1884" s="3"/>
+      <c r="A1884" s="16" t="n">
+        <v>44605</v>
+      </c>
+      <c r="B1884" s="3" t="n">
+        <v>20.8335670047875</v>
+      </c>
+      <c r="C1884" s="3" t="n">
+        <v>22.9470432764304</v>
+      </c>
+      <c r="D1884" s="3" t="n">
+        <v>22.3290781563129</v>
+      </c>
     </row>
     <row r="1885">
-      <c r="A1885" s="6"/>
-      <c r="B1885" s="3"/>
-      <c r="C1885" s="3"/>
-      <c r="D1885" s="3"/>
+      <c r="A1885" s="16" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B1885" s="3" t="n">
+        <v>20.8414439060505</v>
+      </c>
+      <c r="C1885" s="3" t="n">
+        <v>22.9523605648578</v>
+      </c>
+      <c r="D1885" s="3" t="n">
+        <v>22.3321932581063</v>
+      </c>
     </row>
     <row r="1886">
-      <c r="A1886" s="6"/>
-      <c r="B1886" s="3"/>
-      <c r="C1886" s="3"/>
-      <c r="D1886" s="3"/>
+      <c r="A1886" s="16" t="n">
+        <v>44607</v>
+      </c>
+      <c r="B1886" s="3" t="n">
+        <v>20.865791835125</v>
+      </c>
+      <c r="C1886" s="3" t="n">
+        <v>22.9599132213137</v>
+      </c>
+      <c r="D1886" s="3" t="n">
+        <v>22.3420514437905</v>
+      </c>
     </row>
     <row r="1887">
-      <c r="A1887" s="6"/>
-      <c r="B1887" s="3"/>
-      <c r="C1887" s="3"/>
-      <c r="D1887" s="3"/>
+      <c r="A1887" s="16" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B1887" s="3" t="n">
+        <v>20.9032055209833</v>
+      </c>
+      <c r="C1887" s="3" t="n">
+        <v>22.9768662009677</v>
+      </c>
+      <c r="D1887" s="3" t="n">
+        <v>22.3684473071128</v>
+      </c>
     </row>
     <row r="1888">
-      <c r="A1888" s="6"/>
-      <c r="B1888" s="3"/>
-      <c r="C1888" s="3"/>
-      <c r="D1888" s="3"/>
+      <c r="A1888" s="16" t="n">
+        <v>44609</v>
+      </c>
+      <c r="B1888" s="3" t="n">
+        <v>20.9282286064725</v>
+      </c>
+      <c r="C1888" s="3" t="n">
+        <v>22.9852578415741</v>
+      </c>
+      <c r="D1888" s="3" t="n">
+        <v>22.380148829658</v>
+      </c>
     </row>
     <row r="1889">
-      <c r="A1889" s="6"/>
-      <c r="B1889" s="3"/>
-      <c r="C1889" s="3"/>
-      <c r="D1889" s="3"/>
+      <c r="A1889" s="16" t="n">
+        <v>44610</v>
+      </c>
+      <c r="B1889" s="3" t="n">
+        <v>20.9468315344911</v>
+      </c>
+      <c r="C1889" s="3" t="n">
+        <v>22.9959954294223</v>
+      </c>
+      <c r="D1889" s="3" t="n">
+        <v>22.3742164279927</v>
+      </c>
     </row>
     <row r="1890">
-      <c r="A1890" s="6"/>
-      <c r="B1890" s="3"/>
-      <c r="C1890" s="3"/>
-      <c r="D1890" s="3"/>
+      <c r="A1890" s="16" t="n">
+        <v>44611</v>
+      </c>
+      <c r="B1890" s="3" t="n">
+        <v>20.9482698263728</v>
+      </c>
+      <c r="C1890" s="3" t="n">
+        <v>23.0025566067827</v>
+      </c>
+      <c r="D1890" s="3" t="n">
+        <v>22.3621138486533</v>
+      </c>
     </row>
     <row r="1891">
-      <c r="A1891" s="6"/>
-      <c r="B1891" s="3"/>
-      <c r="C1891" s="3"/>
-      <c r="D1891" s="3"/>
+      <c r="A1891" s="16" t="n">
+        <v>44612</v>
+      </c>
+      <c r="B1891" s="3" t="n">
+        <v>20.9489380239241</v>
+      </c>
+      <c r="C1891" s="3" t="n">
+        <v>23.0044497207703</v>
+      </c>
+      <c r="D1891" s="3" t="n">
+        <v>22.3586647650097</v>
+      </c>
     </row>
     <row r="1892">
-      <c r="A1892" s="6"/>
-      <c r="B1892" s="3"/>
-      <c r="C1892" s="3"/>
-      <c r="D1892" s="3"/>
+      <c r="A1892" s="16" t="n">
+        <v>44613</v>
+      </c>
+      <c r="B1892" s="3" t="n">
+        <v>20.947508579705</v>
+      </c>
+      <c r="C1892" s="3" t="n">
+        <v>23.0046821489732</v>
+      </c>
+      <c r="D1892" s="3" t="n">
+        <v>22.3500366698359</v>
+      </c>
     </row>
     <row r="1893">
-      <c r="A1893" s="6"/>
-      <c r="B1893" s="3"/>
-      <c r="C1893" s="3"/>
-      <c r="D1893" s="3"/>
+      <c r="A1893" s="16" t="n">
+        <v>44614</v>
+      </c>
+      <c r="B1893" s="3" t="n">
+        <v>20.9301083489684</v>
+      </c>
+      <c r="C1893" s="3" t="n">
+        <v>23.0116337754206</v>
+      </c>
+      <c r="D1893" s="3" t="n">
+        <v>22.3315429687502</v>
+      </c>
     </row>
     <row r="1894">
-      <c r="A1894" s="6"/>
-      <c r="B1894" s="3"/>
-      <c r="C1894" s="3"/>
-      <c r="D1894" s="3"/>
+      <c r="A1894" s="16" t="n">
+        <v>44615</v>
+      </c>
+      <c r="B1894" s="3" t="n">
+        <v>20.9250810109163</v>
+      </c>
+      <c r="C1894" s="3" t="n">
+        <v>23.0151650444356</v>
+      </c>
+      <c r="D1894" s="3" t="n">
+        <v>22.3254490977648</v>
+      </c>
     </row>
     <row r="1895">
-      <c r="A1895" s="6"/>
-      <c r="B1895" s="3"/>
-      <c r="C1895" s="3"/>
-      <c r="D1895" s="3"/>
+      <c r="A1895" s="16" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B1895" s="3" t="n">
+        <v>20.9186343115126</v>
+      </c>
+      <c r="C1895" s="3" t="n">
+        <v>23.0226679414999</v>
+      </c>
+      <c r="D1895" s="3" t="n">
+        <v>22.3132796857466</v>
+      </c>
     </row>
     <row r="1896">
-      <c r="A1896" s="6"/>
-      <c r="B1896" s="3"/>
-      <c r="C1896" s="3"/>
-      <c r="D1896" s="3"/>
+      <c r="A1896" s="16" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B1896" s="3" t="n">
+        <v>20.9307119954736</v>
+      </c>
+      <c r="C1896" s="3" t="n">
+        <v>23.0373456658497</v>
+      </c>
+      <c r="D1896" s="3" t="n">
+        <v>22.3255872158453</v>
+      </c>
     </row>
     <row r="1897">
-      <c r="A1897" s="6"/>
-      <c r="B1897" s="3"/>
-      <c r="C1897" s="3"/>
-      <c r="D1897" s="3"/>
+      <c r="A1897" s="16" t="n">
+        <v>44618</v>
+      </c>
+      <c r="B1897" s="3" t="n">
+        <v>20.9729872324448</v>
+      </c>
+      <c r="C1897" s="3" t="n">
+        <v>23.0554592140784</v>
+      </c>
+      <c r="D1897" s="3" t="n">
+        <v>22.4089570744372</v>
+      </c>
     </row>
     <row r="1898">
-      <c r="A1898" s="6"/>
-      <c r="B1898" s="3"/>
-      <c r="C1898" s="3"/>
-      <c r="D1898" s="3"/>
+      <c r="A1898" s="16" t="n">
+        <v>44619</v>
+      </c>
+      <c r="B1898" s="3" t="n">
+        <v>20.9831353305787</v>
+      </c>
+      <c r="C1898" s="3" t="n">
+        <v>23.0893618372319</v>
+      </c>
+      <c r="D1898" s="3" t="n">
+        <v>22.4257383001615</v>
+      </c>
     </row>
     <row r="1899">
-      <c r="A1899" s="6"/>
-      <c r="B1899" s="3"/>
-      <c r="C1899" s="3"/>
-      <c r="D1899" s="3"/>
+      <c r="A1899" s="16" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B1899" s="3" t="n">
+        <v>20.9964044751506</v>
+      </c>
+      <c r="C1899" s="3" t="n">
+        <v>23.0934044449107</v>
+      </c>
+      <c r="D1899" s="3" t="n">
+        <v>22.4451682917059</v>
+      </c>
     </row>
     <row r="1900">
       <c r="A1900" s="6"/>
@@ -39754,13 +39978,27 @@
     </row>
     <row r="77">
       <c r="A77" s="6"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>21.3480900053926</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>20.852547586578</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>23.4826262150575</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>22.9529956080865</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>22.4737356712195</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>22.3282811756912</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,7 +4225,7 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - febrero 2022</t>
+    <t xml:space="preserve">enero 2017 - marzo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">febrero 2022</t>
+    <t xml:space="preserve">marzo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -31359,190 +31359,438 @@
       </c>
     </row>
     <row r="1900">
-      <c r="A1900" s="6"/>
-      <c r="B1900" s="3"/>
-      <c r="C1900" s="3"/>
-      <c r="D1900" s="3"/>
+      <c r="A1900" s="16" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B1900" s="3" t="n">
+        <v>21.0129408458083</v>
+      </c>
+      <c r="C1900" s="3" t="n">
+        <v>23.1042183088895</v>
+      </c>
+      <c r="D1900" s="3" t="n">
+        <v>22.4712334393218</v>
+      </c>
     </row>
     <row r="1901">
-      <c r="A1901" s="6"/>
-      <c r="B1901" s="3"/>
-      <c r="C1901" s="3"/>
-      <c r="D1901" s="3"/>
+      <c r="A1901" s="16" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B1901" s="3" t="n">
+        <v>21.0370962600291</v>
+      </c>
+      <c r="C1901" s="3" t="n">
+        <v>23.1172803604343</v>
+      </c>
+      <c r="D1901" s="3" t="n">
+        <v>22.49855015674</v>
+      </c>
     </row>
     <row r="1902">
-      <c r="A1902" s="6"/>
-      <c r="B1902" s="3"/>
-      <c r="C1902" s="3"/>
-      <c r="D1902" s="3"/>
+      <c r="A1902" s="16" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B1902" s="3" t="n">
+        <v>21.1417710964756</v>
+      </c>
+      <c r="C1902" s="3" t="n">
+        <v>23.1417576305827</v>
+      </c>
+      <c r="D1902" s="3" t="n">
+        <v>22.5392574278622</v>
+      </c>
     </row>
     <row r="1903">
-      <c r="A1903" s="6"/>
-      <c r="B1903" s="3"/>
-      <c r="C1903" s="3"/>
-      <c r="D1903" s="3"/>
+      <c r="A1903" s="16" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B1903" s="3" t="n">
+        <v>21.1796465229096</v>
+      </c>
+      <c r="C1903" s="3" t="n">
+        <v>23.1361916979147</v>
+      </c>
+      <c r="D1903" s="3" t="n">
+        <v>22.566846250788</v>
+      </c>
     </row>
     <row r="1904">
-      <c r="A1904" s="6"/>
-      <c r="B1904" s="3"/>
-      <c r="C1904" s="3"/>
-      <c r="D1904" s="3"/>
+      <c r="A1904" s="16" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B1904" s="3" t="n">
+        <v>21.1957735366716</v>
+      </c>
+      <c r="C1904" s="3" t="n">
+        <v>23.1567060949567</v>
+      </c>
+      <c r="D1904" s="3" t="n">
+        <v>22.5883308317703</v>
+      </c>
     </row>
     <row r="1905">
-      <c r="A1905" s="6"/>
-      <c r="B1905" s="3"/>
-      <c r="C1905" s="3"/>
-      <c r="D1905" s="3"/>
+      <c r="A1905" s="16" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B1905" s="3" t="n">
+        <v>21.2000931320624</v>
+      </c>
+      <c r="C1905" s="3" t="n">
+        <v>23.1625057710067</v>
+      </c>
+      <c r="D1905" s="3" t="n">
+        <v>22.5966547708494</v>
+      </c>
     </row>
     <row r="1906">
-      <c r="A1906" s="6"/>
-      <c r="B1906" s="3"/>
-      <c r="C1906" s="3"/>
-      <c r="D1906" s="3"/>
+      <c r="A1906" s="16" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B1906" s="3" t="n">
+        <v>21.2094504559986</v>
+      </c>
+      <c r="C1906" s="3" t="n">
+        <v>23.1683845267492</v>
+      </c>
+      <c r="D1906" s="3" t="n">
+        <v>22.6074887443726</v>
+      </c>
     </row>
     <row r="1907">
-      <c r="A1907" s="6"/>
-      <c r="B1907" s="3"/>
-      <c r="C1907" s="3"/>
-      <c r="D1907" s="3"/>
+      <c r="A1907" s="16" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B1907" s="3" t="n">
+        <v>21.2263567919539</v>
+      </c>
+      <c r="C1907" s="3" t="n">
+        <v>23.1838788705854</v>
+      </c>
+      <c r="D1907" s="3" t="n">
+        <v>22.63424305984</v>
+      </c>
     </row>
     <row r="1908">
-      <c r="A1908" s="6"/>
-      <c r="B1908" s="3"/>
-      <c r="C1908" s="3"/>
-      <c r="D1908" s="3"/>
+      <c r="A1908" s="16" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B1908" s="3" t="n">
+        <v>21.2441571080989</v>
+      </c>
+      <c r="C1908" s="3" t="n">
+        <v>23.2046699574142</v>
+      </c>
+      <c r="D1908" s="3" t="n">
+        <v>22.6562197518736</v>
+      </c>
     </row>
     <row r="1909">
-      <c r="A1909" s="6"/>
-      <c r="B1909" s="3"/>
-      <c r="C1909" s="3"/>
-      <c r="D1909" s="3"/>
+      <c r="A1909" s="16" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B1909" s="3" t="n">
+        <v>21.2664421856982</v>
+      </c>
+      <c r="C1909" s="3" t="n">
+        <v>23.2244643085995</v>
+      </c>
+      <c r="D1909" s="3" t="n">
+        <v>22.6787115954385</v>
+      </c>
     </row>
     <row r="1910">
-      <c r="A1910" s="6"/>
-      <c r="B1910" s="3"/>
-      <c r="C1910" s="3"/>
-      <c r="D1910" s="3"/>
+      <c r="A1910" s="16" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B1910" s="3" t="n">
+        <v>21.2879475587706</v>
+      </c>
+      <c r="C1910" s="3" t="n">
+        <v>23.2476003071608</v>
+      </c>
+      <c r="D1910" s="3" t="n">
+        <v>22.6999365405539</v>
+      </c>
     </row>
     <row r="1911">
-      <c r="A1911" s="6"/>
-      <c r="B1911" s="3"/>
-      <c r="C1911" s="3"/>
-      <c r="D1911" s="3"/>
+      <c r="A1911" s="16" t="n">
+        <v>44632</v>
+      </c>
+      <c r="B1911" s="3" t="n">
+        <v>21.2910895407511</v>
+      </c>
+      <c r="C1911" s="3" t="n">
+        <v>23.2574430403984</v>
+      </c>
+      <c r="D1911" s="3" t="n">
+        <v>22.7197875541649</v>
+      </c>
     </row>
     <row r="1912">
-      <c r="A1912" s="6"/>
-      <c r="B1912" s="3"/>
-      <c r="C1912" s="3"/>
-      <c r="D1912" s="3"/>
+      <c r="A1912" s="16" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B1912" s="3" t="n">
+        <v>21.2923529159889</v>
+      </c>
+      <c r="C1912" s="3" t="n">
+        <v>23.2469941548954</v>
+      </c>
+      <c r="D1912" s="3" t="n">
+        <v>22.7243354659587</v>
+      </c>
     </row>
     <row r="1913">
-      <c r="A1913" s="6"/>
-      <c r="B1913" s="3"/>
-      <c r="C1913" s="3"/>
-      <c r="D1913" s="3"/>
+      <c r="A1913" s="16" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B1913" s="3" t="n">
+        <v>21.2990851969271</v>
+      </c>
+      <c r="C1913" s="3" t="n">
+        <v>23.2447136412672</v>
+      </c>
+      <c r="D1913" s="3" t="n">
+        <v>22.7337388473598</v>
+      </c>
     </row>
     <row r="1914">
-      <c r="A1914" s="6"/>
-      <c r="B1914" s="3"/>
-      <c r="C1914" s="3"/>
-      <c r="D1914" s="3"/>
+      <c r="A1914" s="16" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B1914" s="3" t="n">
+        <v>21.2929309219861</v>
+      </c>
+      <c r="C1914" s="3" t="n">
+        <v>23.2547536203714</v>
+      </c>
+      <c r="D1914" s="3" t="n">
+        <v>22.7473107649293</v>
+      </c>
     </row>
     <row r="1915">
-      <c r="A1915" s="6"/>
-      <c r="B1915" s="3"/>
-      <c r="C1915" s="3"/>
-      <c r="D1915" s="3"/>
+      <c r="A1915" s="16" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B1915" s="3" t="n">
+        <v>21.3060006494975</v>
+      </c>
+      <c r="C1915" s="3" t="n">
+        <v>23.2566827666153</v>
+      </c>
+      <c r="D1915" s="3" t="n">
+        <v>22.7619097180924</v>
+      </c>
     </row>
     <row r="1916">
-      <c r="A1916" s="6"/>
-      <c r="B1916" s="3"/>
-      <c r="C1916" s="3"/>
-      <c r="D1916" s="3"/>
+      <c r="A1916" s="16" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B1916" s="3" t="n">
+        <v>21.3076862994351</v>
+      </c>
+      <c r="C1916" s="3" t="n">
+        <v>23.2546831567695</v>
+      </c>
+      <c r="D1916" s="3" t="n">
+        <v>22.7645148354474</v>
+      </c>
     </row>
     <row r="1917">
-      <c r="A1917" s="6"/>
-      <c r="B1917" s="3"/>
-      <c r="C1917" s="3"/>
-      <c r="D1917" s="3"/>
+      <c r="A1917" s="16" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B1917" s="3" t="n">
+        <v>21.3098174307787</v>
+      </c>
+      <c r="C1917" s="3" t="n">
+        <v>23.2642645774718</v>
+      </c>
+      <c r="D1917" s="3" t="n">
+        <v>22.7756277158887</v>
+      </c>
     </row>
     <row r="1918">
-      <c r="A1918" s="6"/>
-      <c r="B1918" s="3"/>
-      <c r="C1918" s="3"/>
-      <c r="D1918" s="3"/>
+      <c r="A1918" s="16" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B1918" s="3" t="n">
+        <v>21.3121662697062</v>
+      </c>
+      <c r="C1918" s="3" t="n">
+        <v>23.2706335349203</v>
+      </c>
+      <c r="D1918" s="3" t="n">
+        <v>22.7825889429739</v>
+      </c>
     </row>
     <row r="1919">
-      <c r="A1919" s="6"/>
-      <c r="B1919" s="3"/>
-      <c r="C1919" s="3"/>
-      <c r="D1919" s="3"/>
+      <c r="A1919" s="16" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B1919" s="3" t="n">
+        <v>21.3112123534587</v>
+      </c>
+      <c r="C1919" s="3" t="n">
+        <v>23.2722701458928</v>
+      </c>
+      <c r="D1919" s="3" t="n">
+        <v>22.7850899936571</v>
+      </c>
     </row>
     <row r="1920">
-      <c r="A1920" s="6"/>
-      <c r="B1920" s="3"/>
-      <c r="C1920" s="3"/>
-      <c r="D1920" s="3"/>
+      <c r="A1920" s="16" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B1920" s="3" t="n">
+        <v>21.3149460303933</v>
+      </c>
+      <c r="C1920" s="3" t="n">
+        <v>23.2726782566114</v>
+      </c>
+      <c r="D1920" s="3" t="n">
+        <v>22.7866271919387</v>
+      </c>
     </row>
     <row r="1921">
-      <c r="A1921" s="6"/>
-      <c r="B1921" s="3"/>
-      <c r="C1921" s="3"/>
-      <c r="D1921" s="3"/>
+      <c r="A1921" s="16" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B1921" s="3" t="n">
+        <v>21.3198956383642</v>
+      </c>
+      <c r="C1921" s="3" t="n">
+        <v>23.277666210626</v>
+      </c>
+      <c r="D1921" s="3" t="n">
+        <v>22.7907949600445</v>
+      </c>
     </row>
     <row r="1922">
-      <c r="A1922" s="6"/>
-      <c r="B1922" s="3"/>
-      <c r="C1922" s="3"/>
-      <c r="D1922" s="3"/>
+      <c r="A1922" s="16" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B1922" s="3" t="n">
+        <v>21.3214341479973</v>
+      </c>
+      <c r="C1922" s="3" t="n">
+        <v>23.2856905594408</v>
+      </c>
+      <c r="D1922" s="3" t="n">
+        <v>22.7976494361646</v>
+      </c>
     </row>
     <row r="1923">
-      <c r="A1923" s="6"/>
-      <c r="B1923" s="3"/>
-      <c r="C1923" s="3"/>
-      <c r="D1923" s="3"/>
+      <c r="A1923" s="16" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B1923" s="3" t="n">
+        <v>21.3270371783999</v>
+      </c>
+      <c r="C1923" s="3" t="n">
+        <v>23.292846959558</v>
+      </c>
+      <c r="D1923" s="3" t="n">
+        <v>22.8033721342475</v>
+      </c>
     </row>
     <row r="1924">
-      <c r="A1924" s="6"/>
-      <c r="B1924" s="3"/>
-      <c r="C1924" s="3"/>
-      <c r="D1924" s="3"/>
+      <c r="A1924" s="16" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B1924" s="3" t="n">
+        <v>21.3347201060888</v>
+      </c>
+      <c r="C1924" s="3" t="n">
+        <v>23.3034612410596</v>
+      </c>
+      <c r="D1924" s="3" t="n">
+        <v>22.8162211084909</v>
+      </c>
     </row>
     <row r="1925">
-      <c r="A1925" s="6"/>
-      <c r="B1925" s="3"/>
-      <c r="C1925" s="3"/>
-      <c r="D1925" s="3"/>
+      <c r="A1925" s="16" t="n">
+        <v>44646</v>
+      </c>
+      <c r="B1925" s="3" t="n">
+        <v>21.3464461260955</v>
+      </c>
+      <c r="C1925" s="3" t="n">
+        <v>23.3167447791361</v>
+      </c>
+      <c r="D1925" s="3" t="n">
+        <v>22.8320757825373</v>
+      </c>
     </row>
     <row r="1926">
-      <c r="A1926" s="6"/>
-      <c r="B1926" s="3"/>
-      <c r="C1926" s="3"/>
-      <c r="D1926" s="3"/>
+      <c r="A1926" s="16" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B1926" s="3" t="n">
+        <v>21.3482928309341</v>
+      </c>
+      <c r="C1926" s="3" t="n">
+        <v>23.3196574083038</v>
+      </c>
+      <c r="D1926" s="3" t="n">
+        <v>22.8361192443922</v>
+      </c>
     </row>
     <row r="1927">
-      <c r="A1927" s="6"/>
-      <c r="B1927" s="3"/>
-      <c r="C1927" s="3"/>
-      <c r="D1927" s="3"/>
+      <c r="A1927" s="16" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B1927" s="3" t="n">
+        <v>21.3649680715198</v>
+      </c>
+      <c r="C1927" s="3" t="n">
+        <v>23.3325377081295</v>
+      </c>
+      <c r="D1927" s="3" t="n">
+        <v>22.8476301238132</v>
+      </c>
     </row>
     <row r="1928">
-      <c r="A1928" s="6"/>
-      <c r="B1928" s="3"/>
-      <c r="C1928" s="3"/>
-      <c r="D1928" s="3"/>
+      <c r="A1928" s="16" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B1928" s="3" t="n">
+        <v>21.3766146451795</v>
+      </c>
+      <c r="C1928" s="3" t="n">
+        <v>23.3457394744556</v>
+      </c>
+      <c r="D1928" s="3" t="n">
+        <v>22.8718250836922</v>
+      </c>
     </row>
     <row r="1929">
-      <c r="A1929" s="6"/>
-      <c r="B1929" s="3"/>
-      <c r="C1929" s="3"/>
-      <c r="D1929" s="3"/>
+      <c r="A1929" s="16" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B1929" s="3" t="n">
+        <v>21.3870329654783</v>
+      </c>
+      <c r="C1929" s="3" t="n">
+        <v>23.3601649263201</v>
+      </c>
+      <c r="D1929" s="3" t="n">
+        <v>22.8963407193322</v>
+      </c>
     </row>
     <row r="1930">
-      <c r="A1930" s="6"/>
-      <c r="B1930" s="3"/>
-      <c r="C1930" s="3"/>
-      <c r="D1930" s="3"/>
+      <c r="A1930" s="16" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B1930" s="3" t="n">
+        <v>21.3939184397164</v>
+      </c>
+      <c r="C1930" s="3" t="n">
+        <v>23.3761809635726</v>
+      </c>
+      <c r="D1930" s="3" t="n">
+        <v>22.9192462535441</v>
+      </c>
     </row>
     <row r="1931">
       <c r="A1931" s="6"/>
@@ -40002,13 +40250,27 @@
     </row>
     <row r="78">
       <c r="A78" s="6"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>21.9101389749714</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>21.2761072017153</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>23.876881610192</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>23.2468859664551</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>22.9643789654536</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>22.72678317568</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - marzo 2022</t>
+    <t xml:space="preserve">enero 2017 - abril 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: abril 2022</t>
+    <t xml:space="preserve">Próxima actualización: junio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">marzo 2022</t>
+    <t xml:space="preserve">abril 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -31793,184 +31793,364 @@
       </c>
     </row>
     <row r="1931">
-      <c r="A1931" s="6"/>
-      <c r="B1931" s="3"/>
-      <c r="C1931" s="3"/>
-      <c r="D1931" s="3"/>
+      <c r="A1931" s="16"/>
+      <c r="B1931" s="3" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="C1931" s="3" t="n">
+        <v>23.39</v>
+      </c>
+      <c r="D1931" s="3" t="n">
+        <v>22.94</v>
+      </c>
     </row>
     <row r="1932">
-      <c r="A1932" s="6"/>
-      <c r="B1932" s="3"/>
-      <c r="C1932" s="3"/>
-      <c r="D1932" s="3"/>
+      <c r="A1932" s="16"/>
+      <c r="B1932" s="3" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="C1932" s="3" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="D1932" s="3" t="n">
+        <v>22.96</v>
+      </c>
     </row>
     <row r="1933">
-      <c r="A1933" s="6"/>
-      <c r="B1933" s="3"/>
-      <c r="C1933" s="3"/>
-      <c r="D1933" s="3"/>
+      <c r="A1933" s="16"/>
+      <c r="B1933" s="3" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="C1933" s="3" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D1933" s="3" t="n">
+        <v>22.97</v>
+      </c>
     </row>
     <row r="1934">
-      <c r="A1934" s="6"/>
-      <c r="B1934" s="3"/>
-      <c r="C1934" s="3"/>
-      <c r="D1934" s="3"/>
+      <c r="A1934" s="16"/>
+      <c r="B1934" s="3" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="C1934" s="3" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="D1934" s="3" t="n">
+        <v>22.99</v>
+      </c>
     </row>
     <row r="1935">
-      <c r="A1935" s="6"/>
-      <c r="B1935" s="3"/>
-      <c r="C1935" s="3"/>
-      <c r="D1935" s="3"/>
+      <c r="A1935" s="16"/>
+      <c r="B1935" s="3" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="C1935" s="3" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="D1935" s="3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="1936">
-      <c r="A1936" s="6"/>
-      <c r="B1936" s="3"/>
-      <c r="C1936" s="3"/>
-      <c r="D1936" s="3"/>
+      <c r="A1936" s="16"/>
+      <c r="B1936" s="3" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="C1936" s="3" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="D1936" s="3" t="n">
+        <v>23.02</v>
+      </c>
     </row>
     <row r="1937">
-      <c r="A1937" s="6"/>
-      <c r="B1937" s="3"/>
-      <c r="C1937" s="3"/>
-      <c r="D1937" s="3"/>
+      <c r="A1937" s="16"/>
+      <c r="B1937" s="3" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="C1937" s="3" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="D1937" s="3" t="n">
+        <v>23.04</v>
+      </c>
     </row>
     <row r="1938">
-      <c r="A1938" s="6"/>
-      <c r="B1938" s="3"/>
-      <c r="C1938" s="3"/>
-      <c r="D1938" s="3"/>
+      <c r="A1938" s="16"/>
+      <c r="B1938" s="3" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="C1938" s="3" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="D1938" s="3" t="n">
+        <v>23.05</v>
+      </c>
     </row>
     <row r="1939">
-      <c r="A1939" s="6"/>
-      <c r="B1939" s="3"/>
-      <c r="C1939" s="3"/>
-      <c r="D1939" s="3"/>
+      <c r="A1939" s="16"/>
+      <c r="B1939" s="3" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="C1939" s="3" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="D1939" s="3" t="n">
+        <v>23.08</v>
+      </c>
     </row>
     <row r="1940">
-      <c r="A1940" s="6"/>
-      <c r="B1940" s="3"/>
-      <c r="C1940" s="3"/>
-      <c r="D1940" s="3"/>
+      <c r="A1940" s="16"/>
+      <c r="B1940" s="3" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="C1940" s="3" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="D1940" s="3" t="n">
+        <v>23.08</v>
+      </c>
     </row>
     <row r="1941">
-      <c r="A1941" s="6"/>
-      <c r="B1941" s="3"/>
-      <c r="C1941" s="3"/>
-      <c r="D1941" s="3"/>
+      <c r="A1941" s="16"/>
+      <c r="B1941" s="3" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="C1941" s="3" t="n">
+        <v>23.37</v>
+      </c>
+      <c r="D1941" s="3" t="n">
+        <v>23.09</v>
+      </c>
     </row>
     <row r="1942">
-      <c r="A1942" s="6"/>
-      <c r="B1942" s="3"/>
-      <c r="C1942" s="3"/>
-      <c r="D1942" s="3"/>
+      <c r="A1942" s="16"/>
+      <c r="B1942" s="3" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="C1942" s="3" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="D1942" s="3" t="n">
+        <v>23.11</v>
+      </c>
     </row>
     <row r="1943">
-      <c r="A1943" s="6"/>
-      <c r="B1943" s="3"/>
-      <c r="C1943" s="3"/>
-      <c r="D1943" s="3"/>
+      <c r="A1943" s="16"/>
+      <c r="B1943" s="3" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C1943" s="3" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="D1943" s="3" t="n">
+        <v>23.13</v>
+      </c>
     </row>
     <row r="1944">
-      <c r="A1944" s="6"/>
-      <c r="B1944" s="3"/>
-      <c r="C1944" s="3"/>
-      <c r="D1944" s="3"/>
+      <c r="A1944" s="16"/>
+      <c r="B1944" s="3" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="C1944" s="3" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D1944" s="3" t="n">
+        <v>23.15</v>
+      </c>
     </row>
     <row r="1945">
-      <c r="A1945" s="6"/>
-      <c r="B1945" s="3"/>
-      <c r="C1945" s="3"/>
-      <c r="D1945" s="3"/>
+      <c r="A1945" s="16"/>
+      <c r="B1945" s="3" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="C1945" s="3" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D1945" s="3" t="n">
+        <v>23.16</v>
+      </c>
     </row>
     <row r="1946">
-      <c r="A1946" s="6"/>
-      <c r="B1946" s="3"/>
-      <c r="C1946" s="3"/>
-      <c r="D1946" s="3"/>
+      <c r="A1946" s="16"/>
+      <c r="B1946" s="3" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C1946" s="3" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D1946" s="3" t="n">
+        <v>23.17</v>
+      </c>
     </row>
     <row r="1947">
-      <c r="A1947" s="6"/>
-      <c r="B1947" s="3"/>
-      <c r="C1947" s="3"/>
-      <c r="D1947" s="3"/>
+      <c r="A1947" s="16"/>
+      <c r="B1947" s="3" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C1947" s="3" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D1947" s="3" t="n">
+        <v>23.17</v>
+      </c>
     </row>
     <row r="1948">
-      <c r="A1948" s="6"/>
-      <c r="B1948" s="3"/>
-      <c r="C1948" s="3"/>
-      <c r="D1948" s="3"/>
+      <c r="A1948" s="16"/>
+      <c r="B1948" s="3" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C1948" s="3" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="D1948" s="3" t="n">
+        <v>23.18</v>
+      </c>
     </row>
     <row r="1949">
-      <c r="A1949" s="6"/>
-      <c r="B1949" s="3"/>
-      <c r="C1949" s="3"/>
-      <c r="D1949" s="3"/>
+      <c r="A1949" s="16"/>
+      <c r="B1949" s="3" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="C1949" s="3" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="D1949" s="3" t="n">
+        <v>23.19</v>
+      </c>
     </row>
     <row r="1950">
-      <c r="A1950" s="6"/>
-      <c r="B1950" s="3"/>
-      <c r="C1950" s="3"/>
-      <c r="D1950" s="3"/>
+      <c r="A1950" s="16"/>
+      <c r="B1950" s="3" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="C1950" s="3" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="D1950" s="3" t="n">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="1951">
-      <c r="A1951" s="6"/>
-      <c r="B1951" s="3"/>
-      <c r="C1951" s="3"/>
-      <c r="D1951" s="3"/>
+      <c r="A1951" s="16"/>
+      <c r="B1951" s="3" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="C1951" s="3" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="D1951" s="3" t="n">
+        <v>23.21</v>
+      </c>
     </row>
     <row r="1952">
-      <c r="A1952" s="6"/>
-      <c r="B1952" s="3"/>
-      <c r="C1952" s="3"/>
-      <c r="D1952" s="3"/>
+      <c r="A1952" s="16"/>
+      <c r="B1952" s="3" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="C1952" s="3" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="D1952" s="3" t="n">
+        <v>23.22</v>
+      </c>
     </row>
     <row r="1953">
-      <c r="A1953" s="6"/>
-      <c r="B1953" s="3"/>
-      <c r="C1953" s="3"/>
-      <c r="D1953" s="3"/>
+      <c r="A1953" s="16"/>
+      <c r="B1953" s="3" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="C1953" s="3" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="D1953" s="3" t="n">
+        <v>23.22</v>
+      </c>
     </row>
     <row r="1954">
-      <c r="A1954" s="6"/>
-      <c r="B1954" s="3"/>
-      <c r="C1954" s="3"/>
-      <c r="D1954" s="3"/>
+      <c r="A1954" s="16"/>
+      <c r="B1954" s="3" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="C1954" s="3" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="D1954" s="3" t="n">
+        <v>23.22</v>
+      </c>
     </row>
     <row r="1955">
-      <c r="A1955" s="6"/>
-      <c r="B1955" s="3"/>
-      <c r="C1955" s="3"/>
-      <c r="D1955" s="3"/>
+      <c r="A1955" s="16"/>
+      <c r="B1955" s="3" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C1955" s="3" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="D1955" s="3" t="n">
+        <v>23.23</v>
+      </c>
     </row>
     <row r="1956">
-      <c r="A1956" s="6"/>
-      <c r="B1956" s="3"/>
-      <c r="C1956" s="3"/>
-      <c r="D1956" s="3"/>
+      <c r="A1956" s="16"/>
+      <c r="B1956" s="3" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C1956" s="3" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="D1956" s="3" t="n">
+        <v>23.24</v>
+      </c>
     </row>
     <row r="1957">
-      <c r="A1957" s="6"/>
-      <c r="B1957" s="3"/>
-      <c r="C1957" s="3"/>
-      <c r="D1957" s="3"/>
+      <c r="A1957" s="16"/>
+      <c r="B1957" s="3" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C1957" s="3" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="D1957" s="3" t="n">
+        <v>23.25</v>
+      </c>
     </row>
     <row r="1958">
-      <c r="A1958" s="6"/>
-      <c r="B1958" s="3"/>
-      <c r="C1958" s="3"/>
-      <c r="D1958" s="3"/>
+      <c r="A1958" s="16"/>
+      <c r="B1958" s="3" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C1958" s="3" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="D1958" s="3" t="n">
+        <v>23.26</v>
+      </c>
     </row>
     <row r="1959">
-      <c r="A1959" s="6"/>
-      <c r="B1959" s="3"/>
-      <c r="C1959" s="3"/>
-      <c r="D1959" s="3"/>
+      <c r="A1959" s="16"/>
+      <c r="B1959" s="3" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C1959" s="3" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="D1959" s="3" t="n">
+        <v>23.26</v>
+      </c>
     </row>
     <row r="1960">
-      <c r="A1960" s="6"/>
-      <c r="B1960" s="3"/>
-      <c r="C1960" s="3"/>
-      <c r="D1960" s="3"/>
+      <c r="A1960" s="16"/>
+      <c r="B1960" s="3" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C1960" s="3" t="n">
+        <v>23.47</v>
+      </c>
+      <c r="D1960" s="3" t="n">
+        <v>23.26</v>
+      </c>
     </row>
     <row r="1961">
       <c r="A1961" s="6"/>
@@ -40274,13 +40454,27 @@
     </row>
     <row r="79">
       <c r="A79" s="6"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>21.4733333333333</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>23.424</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>23.38</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>23.135</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - abril 2022</t>
+    <t xml:space="preserve">enero 2017 - mayo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: junio 2022</t>
+    <t xml:space="preserve">Próxima actualización: julio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">abril 2022</t>
+    <t xml:space="preserve">mayo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -31793,550 +31793,858 @@
       </c>
     </row>
     <row r="1931">
-      <c r="A1931" s="16"/>
+      <c r="A1931" s="16" t="n">
+        <v>44652</v>
+      </c>
       <c r="B1931" s="3" t="n">
-        <v>21.42</v>
+        <v>21.4225946192431</v>
       </c>
       <c r="C1931" s="3" t="n">
-        <v>23.39</v>
+        <v>23.3949443003462</v>
       </c>
       <c r="D1931" s="3" t="n">
-        <v>22.94</v>
+        <v>22.9436657681942</v>
       </c>
     </row>
     <row r="1932">
-      <c r="A1932" s="16"/>
+      <c r="A1932" s="16" t="n">
+        <v>44653</v>
+      </c>
       <c r="B1932" s="3" t="n">
-        <v>21.59</v>
+        <v>21.5935059801933</v>
       </c>
       <c r="C1932" s="3" t="n">
-        <v>23.49</v>
+        <v>23.4941098312622</v>
       </c>
       <c r="D1932" s="3" t="n">
-        <v>22.96</v>
+        <v>22.9641418545743</v>
       </c>
     </row>
     <row r="1933">
-      <c r="A1933" s="16"/>
+      <c r="A1933" s="16" t="n">
+        <v>44654</v>
+      </c>
       <c r="B1933" s="3" t="n">
-        <v>21.59</v>
+        <v>21.5940814686799</v>
       </c>
       <c r="C1933" s="3" t="n">
-        <v>23.5</v>
+        <v>23.5031709331133</v>
       </c>
       <c r="D1933" s="3" t="n">
-        <v>22.97</v>
+        <v>22.9742448841537</v>
       </c>
     </row>
     <row r="1934">
-      <c r="A1934" s="16"/>
+      <c r="A1934" s="16" t="n">
+        <v>44655</v>
+      </c>
       <c r="B1934" s="3" t="n">
-        <v>21.58</v>
+        <v>21.5809087268583</v>
       </c>
       <c r="C1934" s="3" t="n">
-        <v>23.47</v>
+        <v>23.4731449016728</v>
       </c>
       <c r="D1934" s="3" t="n">
-        <v>22.99</v>
+        <v>22.9853691618684</v>
       </c>
     </row>
     <row r="1935">
-      <c r="A1935" s="16"/>
+      <c r="A1935" s="16" t="n">
+        <v>44656</v>
+      </c>
       <c r="B1935" s="3" t="n">
-        <v>21.42</v>
+        <v>21.4199286109066</v>
       </c>
       <c r="C1935" s="3" t="n">
-        <v>23.36</v>
+        <v>23.3580400542404</v>
       </c>
       <c r="D1935" s="3" t="n">
-        <v>23</v>
+        <v>23.0007391138274</v>
       </c>
     </row>
     <row r="1936">
-      <c r="A1936" s="16"/>
+      <c r="A1936" s="16" t="n">
+        <v>44657</v>
+      </c>
       <c r="B1936" s="3" t="n">
-        <v>21.42</v>
+        <v>21.4171686375956</v>
       </c>
       <c r="C1936" s="3" t="n">
-        <v>23.36</v>
+        <v>23.3600062506513</v>
       </c>
       <c r="D1936" s="3" t="n">
-        <v>23.02</v>
+        <v>23.0166549953316</v>
       </c>
     </row>
     <row r="1937">
-      <c r="A1937" s="16"/>
+      <c r="A1937" s="16" t="n">
+        <v>44658</v>
+      </c>
       <c r="B1937" s="3" t="n">
-        <v>21.42</v>
+        <v>21.4198640502162</v>
       </c>
       <c r="C1937" s="3" t="n">
-        <v>23.36</v>
+        <v>23.3631671385134</v>
       </c>
       <c r="D1937" s="3" t="n">
-        <v>23.04</v>
+        <v>23.0365130568358</v>
       </c>
     </row>
     <row r="1938">
-      <c r="A1938" s="16"/>
+      <c r="A1938" s="16" t="n">
+        <v>44659</v>
+      </c>
       <c r="B1938" s="3" t="n">
-        <v>21.42</v>
+        <v>21.4207796001251</v>
       </c>
       <c r="C1938" s="3" t="n">
-        <v>23.37</v>
+        <v>23.3677086630793</v>
       </c>
       <c r="D1938" s="3" t="n">
-        <v>23.05</v>
+        <v>23.0534374066968</v>
       </c>
     </row>
     <row r="1939">
-      <c r="A1939" s="16"/>
+      <c r="A1939" s="16" t="n">
+        <v>44660</v>
+      </c>
       <c r="B1939" s="3" t="n">
-        <v>21.43</v>
+        <v>21.4324231155465</v>
       </c>
       <c r="C1939" s="3" t="n">
-        <v>23.37</v>
+        <v>23.3715677647819</v>
       </c>
       <c r="D1939" s="3" t="n">
-        <v>23.08</v>
+        <v>23.0755204301077</v>
       </c>
     </row>
     <row r="1940">
-      <c r="A1940" s="16"/>
+      <c r="A1940" s="16" t="n">
+        <v>44661</v>
+      </c>
       <c r="B1940" s="3" t="n">
-        <v>21.42</v>
+        <v>21.4243237776718</v>
       </c>
       <c r="C1940" s="3" t="n">
-        <v>23.37</v>
+        <v>23.3651467699698</v>
       </c>
       <c r="D1940" s="3" t="n">
-        <v>23.08</v>
+        <v>23.0810073475068</v>
       </c>
     </row>
     <row r="1941">
-      <c r="A1941" s="16"/>
+      <c r="A1941" s="16" t="n">
+        <v>44662</v>
+      </c>
       <c r="B1941" s="3" t="n">
-        <v>21.43</v>
+        <v>21.4265637021953</v>
       </c>
       <c r="C1941" s="3" t="n">
-        <v>23.37</v>
+        <v>23.3674480369518</v>
       </c>
       <c r="D1941" s="3" t="n">
-        <v>23.09</v>
+        <v>23.0923307308899</v>
       </c>
     </row>
     <row r="1942">
-      <c r="A1942" s="16"/>
+      <c r="A1942" s="16" t="n">
+        <v>44663</v>
+      </c>
       <c r="B1942" s="3" t="n">
-        <v>21.44</v>
+        <v>21.4409157911493</v>
       </c>
       <c r="C1942" s="3" t="n">
-        <v>23.38</v>
+        <v>23.3794685046494</v>
       </c>
       <c r="D1942" s="3" t="n">
-        <v>23.11</v>
+        <v>23.1097856272309</v>
       </c>
     </row>
     <row r="1943">
-      <c r="A1943" s="16"/>
+      <c r="A1943" s="16" t="n">
+        <v>44664</v>
+      </c>
       <c r="B1943" s="3" t="n">
-        <v>21.46</v>
+        <v>21.4564559569077</v>
       </c>
       <c r="C1943" s="3" t="n">
-        <v>23.41</v>
+        <v>23.4051529790663</v>
       </c>
       <c r="D1943" s="3" t="n">
-        <v>23.13</v>
+        <v>23.1299134536329</v>
       </c>
     </row>
     <row r="1944">
-      <c r="A1944" s="16"/>
+      <c r="A1944" s="16" t="n">
+        <v>44665</v>
+      </c>
       <c r="B1944" s="3" t="n">
-        <v>21.47</v>
+        <v>21.4670661051559</v>
       </c>
       <c r="C1944" s="3" t="n">
-        <v>23.42</v>
+        <v>23.4156082921237</v>
       </c>
       <c r="D1944" s="3" t="n">
-        <v>23.15</v>
+        <v>23.1508021725961</v>
       </c>
     </row>
     <row r="1945">
-      <c r="A1945" s="16"/>
+      <c r="A1945" s="16" t="n">
+        <v>44666</v>
+      </c>
       <c r="B1945" s="3" t="n">
-        <v>21.47</v>
+        <v>21.4685126174844</v>
       </c>
       <c r="C1945" s="3" t="n">
-        <v>23.42</v>
+        <v>23.417746906881</v>
       </c>
       <c r="D1945" s="3" t="n">
-        <v>23.16</v>
+        <v>23.1644345510894</v>
       </c>
     </row>
     <row r="1946">
-      <c r="A1946" s="16"/>
+      <c r="A1946" s="16" t="n">
+        <v>44667</v>
+      </c>
       <c r="B1946" s="3" t="n">
-        <v>21.46</v>
+        <v>21.460766091001</v>
       </c>
       <c r="C1946" s="3" t="n">
-        <v>23.42</v>
+        <v>23.4213135454248</v>
       </c>
       <c r="D1946" s="3" t="n">
-        <v>23.17</v>
+        <v>23.1672637993778</v>
       </c>
     </row>
     <row r="1947">
-      <c r="A1947" s="16"/>
+      <c r="A1947" s="16" t="n">
+        <v>44668</v>
+      </c>
       <c r="B1947" s="3" t="n">
-        <v>21.46</v>
+        <v>21.4577926415904</v>
       </c>
       <c r="C1947" s="3" t="n">
-        <v>23.42</v>
+        <v>23.4179927248678</v>
       </c>
       <c r="D1947" s="3" t="n">
-        <v>23.17</v>
+        <v>23.1734935174126</v>
       </c>
     </row>
     <row r="1948">
-      <c r="A1948" s="16"/>
+      <c r="A1948" s="16" t="n">
+        <v>44669</v>
+      </c>
       <c r="B1948" s="3" t="n">
-        <v>21.46</v>
+        <v>21.4644341992204</v>
       </c>
       <c r="C1948" s="3" t="n">
-        <v>23.42</v>
+        <v>23.41902147443</v>
       </c>
       <c r="D1948" s="3" t="n">
-        <v>23.18</v>
+        <v>23.1799275651253</v>
       </c>
     </row>
     <row r="1949">
-      <c r="A1949" s="16"/>
+      <c r="A1949" s="16" t="n">
+        <v>44670</v>
+      </c>
       <c r="B1949" s="3" t="n">
-        <v>21.47</v>
+        <v>21.4688032507541</v>
       </c>
       <c r="C1949" s="3" t="n">
-        <v>23.43</v>
+        <v>23.4266602641497</v>
       </c>
       <c r="D1949" s="3" t="n">
-        <v>23.19</v>
+        <v>23.1912426360683</v>
       </c>
     </row>
     <row r="1950">
-      <c r="A1950" s="16"/>
+      <c r="A1950" s="16" t="n">
+        <v>44671</v>
+      </c>
       <c r="B1950" s="3" t="n">
-        <v>21.47</v>
+        <v>21.4712618651535</v>
       </c>
       <c r="C1950" s="3" t="n">
-        <v>23.43</v>
+        <v>23.4343080527407</v>
       </c>
       <c r="D1950" s="3" t="n">
-        <v>23.2</v>
+        <v>23.2017385792353</v>
       </c>
     </row>
     <row r="1951">
-      <c r="A1951" s="16"/>
+      <c r="A1951" s="16" t="n">
+        <v>44672</v>
+      </c>
       <c r="B1951" s="3" t="n">
-        <v>21.48</v>
+        <v>21.4816806218159</v>
       </c>
       <c r="C1951" s="3" t="n">
-        <v>23.44</v>
+        <v>23.4405528402304</v>
       </c>
       <c r="D1951" s="3" t="n">
-        <v>23.21</v>
+        <v>23.211172807247</v>
       </c>
     </row>
     <row r="1952">
-      <c r="A1952" s="16"/>
+      <c r="A1952" s="16" t="n">
+        <v>44673</v>
+      </c>
       <c r="B1952" s="3" t="n">
-        <v>21.48</v>
+        <v>21.4830569864259</v>
       </c>
       <c r="C1952" s="3" t="n">
-        <v>23.44</v>
+        <v>23.4410033772744</v>
       </c>
       <c r="D1952" s="3" t="n">
-        <v>23.22</v>
+        <v>23.2183732809432</v>
       </c>
     </row>
     <row r="1953">
-      <c r="A1953" s="16"/>
+      <c r="A1953" s="16" t="n">
+        <v>44674</v>
+      </c>
       <c r="B1953" s="3" t="n">
-        <v>21.48</v>
+        <v>21.4838620106649</v>
       </c>
       <c r="C1953" s="3" t="n">
-        <v>23.45</v>
+        <v>23.4457557759374</v>
       </c>
       <c r="D1953" s="3" t="n">
-        <v>23.22</v>
+        <v>23.2239554190092</v>
       </c>
     </row>
     <row r="1954">
-      <c r="A1954" s="16"/>
+      <c r="A1954" s="16" t="n">
+        <v>44675</v>
+      </c>
       <c r="B1954" s="3" t="n">
-        <v>21.48</v>
+        <v>21.4798926854964</v>
       </c>
       <c r="C1954" s="3" t="n">
-        <v>23.44</v>
+        <v>23.4447464726633</v>
       </c>
       <c r="D1954" s="3" t="n">
-        <v>23.22</v>
+        <v>23.2235765218542</v>
       </c>
     </row>
     <row r="1955">
-      <c r="A1955" s="16"/>
+      <c r="A1955" s="16" t="n">
+        <v>44676</v>
+      </c>
       <c r="B1955" s="3" t="n">
-        <v>21.49</v>
+        <v>21.4861449102198</v>
       </c>
       <c r="C1955" s="3" t="n">
-        <v>23.45</v>
+        <v>23.451385233103</v>
       </c>
       <c r="D1955" s="3" t="n">
-        <v>23.23</v>
+        <v>23.2300393280897</v>
       </c>
     </row>
     <row r="1956">
-      <c r="A1956" s="16"/>
+      <c r="A1956" s="16" t="n">
+        <v>44677</v>
+      </c>
       <c r="B1956" s="3" t="n">
-        <v>21.49</v>
+        <v>21.494656712986</v>
       </c>
       <c r="C1956" s="3" t="n">
-        <v>23.46</v>
+        <v>23.4604012141282</v>
       </c>
       <c r="D1956" s="3" t="n">
-        <v>23.24</v>
+        <v>23.238019390582</v>
       </c>
     </row>
     <row r="1957">
-      <c r="A1957" s="16"/>
+      <c r="A1957" s="16" t="n">
+        <v>44678</v>
+      </c>
       <c r="B1957" s="3" t="n">
-        <v>21.5</v>
+        <v>21.5014191272968</v>
       </c>
       <c r="C1957" s="3" t="n">
-        <v>23.47</v>
+        <v>23.4692640501199</v>
       </c>
       <c r="D1957" s="3" t="n">
-        <v>23.25</v>
+        <v>23.2470345116733</v>
       </c>
     </row>
     <row r="1958">
-      <c r="A1958" s="16"/>
+      <c r="A1958" s="16" t="n">
+        <v>44679</v>
+      </c>
       <c r="B1958" s="3" t="n">
-        <v>21.5</v>
+        <v>21.5025649532867</v>
       </c>
       <c r="C1958" s="3" t="n">
-        <v>23.47</v>
+        <v>23.4703266621945</v>
       </c>
       <c r="D1958" s="3" t="n">
-        <v>23.26</v>
+        <v>23.2561493712806</v>
       </c>
     </row>
     <row r="1959">
-      <c r="A1959" s="16"/>
+      <c r="A1959" s="16" t="n">
+        <v>44680</v>
+      </c>
       <c r="B1959" s="3" t="n">
-        <v>21.5</v>
+        <v>21.501356998241</v>
       </c>
       <c r="C1959" s="3" t="n">
-        <v>23.47</v>
+        <v>23.4725420818237</v>
       </c>
       <c r="D1959" s="3" t="n">
-        <v>23.26</v>
+        <v>23.2550206714828</v>
       </c>
     </row>
     <row r="1960">
-      <c r="A1960" s="16"/>
+      <c r="A1960" s="16" t="n">
+        <v>44681</v>
+      </c>
       <c r="B1960" s="3" t="n">
-        <v>21.5</v>
+        <v>21.4995375790609</v>
       </c>
       <c r="C1960" s="3" t="n">
-        <v>23.47</v>
+        <v>23.4737778797965</v>
       </c>
       <c r="D1960" s="3" t="n">
-        <v>23.26</v>
+        <v>23.2550168723713</v>
       </c>
     </row>
     <row r="1961">
-      <c r="A1961" s="6"/>
-      <c r="B1961" s="3"/>
-      <c r="C1961" s="3"/>
-      <c r="D1961" s="3"/>
+      <c r="A1961" s="16" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B1961" s="3" t="n">
+        <v>21.5232839727027</v>
+      </c>
+      <c r="C1961" s="3" t="n">
+        <v>23.591248762026</v>
+      </c>
+      <c r="D1961" s="3" t="n">
+        <v>23.2434069630038</v>
+      </c>
     </row>
     <row r="1962">
-      <c r="A1962" s="6"/>
-      <c r="B1962" s="3"/>
-      <c r="C1962" s="3"/>
-      <c r="D1962" s="3"/>
+      <c r="A1962" s="16" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B1962" s="3" t="n">
+        <v>21.5285721873654</v>
+      </c>
+      <c r="C1962" s="3" t="n">
+        <v>23.5943627398815</v>
+      </c>
+      <c r="D1962" s="3" t="n">
+        <v>23.2411751637583</v>
+      </c>
     </row>
     <row r="1963">
-      <c r="A1963" s="6"/>
-      <c r="B1963" s="3"/>
-      <c r="C1963" s="3"/>
-      <c r="D1963" s="3"/>
+      <c r="A1963" s="16" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B1963" s="3" t="n">
+        <v>21.5327098070474</v>
+      </c>
+      <c r="C1963" s="3" t="n">
+        <v>23.5980308825613</v>
+      </c>
+      <c r="D1963" s="3" t="n">
+        <v>23.2453764619887</v>
+      </c>
     </row>
     <row r="1964">
-      <c r="A1964" s="6"/>
-      <c r="B1964" s="3"/>
-      <c r="C1964" s="3"/>
-      <c r="D1964" s="3"/>
+      <c r="A1964" s="16" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B1964" s="3" t="n">
+        <v>21.5376306063332</v>
+      </c>
+      <c r="C1964" s="3" t="n">
+        <v>23.6118233603067</v>
+      </c>
+      <c r="D1964" s="3" t="n">
+        <v>23.2502132128022</v>
+      </c>
     </row>
     <row r="1965">
-      <c r="A1965" s="6"/>
-      <c r="B1965" s="3"/>
-      <c r="C1965" s="3"/>
-      <c r="D1965" s="3"/>
+      <c r="A1965" s="16" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B1965" s="3" t="n">
+        <v>21.5969133360385</v>
+      </c>
+      <c r="C1965" s="3" t="n">
+        <v>23.6672241503979</v>
+      </c>
+      <c r="D1965" s="3" t="n">
+        <v>23.2538767518551</v>
+      </c>
     </row>
     <row r="1966">
-      <c r="A1966" s="6"/>
-      <c r="B1966" s="3"/>
-      <c r="C1966" s="3"/>
-      <c r="D1966" s="3"/>
+      <c r="A1966" s="16" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B1966" s="3" t="n">
+        <v>21.6031567587777</v>
+      </c>
+      <c r="C1966" s="3" t="n">
+        <v>23.6711123208131</v>
+      </c>
+      <c r="D1966" s="3" t="n">
+        <v>23.2572972600856</v>
+      </c>
     </row>
     <row r="1967">
-      <c r="A1967" s="6"/>
-      <c r="B1967" s="3"/>
-      <c r="C1967" s="3"/>
-      <c r="D1967" s="3"/>
+      <c r="A1967" s="16" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B1967" s="3" t="n">
+        <v>21.6054548703287</v>
+      </c>
+      <c r="C1967" s="3" t="n">
+        <v>23.6697980402833</v>
+      </c>
+      <c r="D1967" s="3" t="n">
+        <v>23.2620803423525</v>
+      </c>
     </row>
     <row r="1968">
-      <c r="A1968" s="6"/>
-      <c r="B1968" s="3"/>
-      <c r="C1968" s="3"/>
-      <c r="D1968" s="3"/>
+      <c r="A1968" s="16" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B1968" s="3" t="n">
+        <v>21.6006035736546</v>
+      </c>
+      <c r="C1968" s="3" t="n">
+        <v>23.6631955387862</v>
+      </c>
+      <c r="D1968" s="3" t="n">
+        <v>23.2558502681346</v>
+      </c>
     </row>
     <row r="1969">
-      <c r="A1969" s="6"/>
-      <c r="B1969" s="3"/>
-      <c r="C1969" s="3"/>
-      <c r="D1969" s="3"/>
+      <c r="A1969" s="16" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B1969" s="3" t="n">
+        <v>21.5908254767517</v>
+      </c>
+      <c r="C1969" s="3" t="n">
+        <v>23.6630690153159</v>
+      </c>
+      <c r="D1969" s="3" t="n">
+        <v>23.2563051044086</v>
+      </c>
     </row>
     <row r="1970">
-      <c r="A1970" s="6"/>
-      <c r="B1970" s="3"/>
-      <c r="C1970" s="3"/>
-      <c r="D1970" s="3"/>
+      <c r="A1970" s="16" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B1970" s="3" t="n">
+        <v>21.5997806925498</v>
+      </c>
+      <c r="C1970" s="3" t="n">
+        <v>23.6729502861634</v>
+      </c>
+      <c r="D1970" s="3" t="n">
+        <v>23.2660914391356</v>
+      </c>
     </row>
     <row r="1971">
-      <c r="A1971" s="6"/>
-      <c r="B1971" s="3"/>
-      <c r="C1971" s="3"/>
-      <c r="D1971" s="3"/>
+      <c r="A1971" s="16" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B1971" s="3" t="n">
+        <v>21.6108133946295</v>
+      </c>
+      <c r="C1971" s="3" t="n">
+        <v>23.6835629146522</v>
+      </c>
+      <c r="D1971" s="3" t="n">
+        <v>23.2730503903479</v>
+      </c>
     </row>
     <row r="1972">
-      <c r="A1972" s="6"/>
-      <c r="B1972" s="3"/>
-      <c r="C1972" s="3"/>
-      <c r="D1972" s="3"/>
+      <c r="A1972" s="16" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B1972" s="3" t="n">
+        <v>21.6078981233244</v>
+      </c>
+      <c r="C1972" s="3" t="n">
+        <v>23.697516736639</v>
+      </c>
+      <c r="D1972" s="3" t="n">
+        <v>23.2892703246196</v>
+      </c>
     </row>
     <row r="1973">
-      <c r="A1973" s="6"/>
-      <c r="B1973" s="3"/>
-      <c r="C1973" s="3"/>
-      <c r="D1973" s="3"/>
+      <c r="A1973" s="16" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B1973" s="3" t="n">
+        <v>21.6559811608407</v>
+      </c>
+      <c r="C1973" s="3" t="n">
+        <v>23.713562892718</v>
+      </c>
+      <c r="D1973" s="3" t="n">
+        <v>23.2799755184334</v>
+      </c>
     </row>
     <row r="1974">
-      <c r="A1974" s="6"/>
-      <c r="B1974" s="3"/>
-      <c r="C1974" s="3"/>
-      <c r="D1974" s="3"/>
+      <c r="A1974" s="16" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B1974" s="3" t="n">
+        <v>21.6217138604517</v>
+      </c>
+      <c r="C1974" s="3" t="n">
+        <v>23.6602852923803</v>
+      </c>
+      <c r="D1974" s="3" t="n">
+        <v>23.2852083936326</v>
+      </c>
     </row>
     <row r="1975">
-      <c r="A1975" s="6"/>
-      <c r="B1975" s="3"/>
-      <c r="C1975" s="3"/>
-      <c r="D1975" s="3"/>
+      <c r="A1975" s="16" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B1975" s="3" t="n">
+        <v>21.626028143275</v>
+      </c>
+      <c r="C1975" s="3" t="n">
+        <v>23.6602900881581</v>
+      </c>
+      <c r="D1975" s="3" t="n">
+        <v>23.2843421630325</v>
+      </c>
     </row>
     <row r="1976">
-      <c r="A1976" s="6"/>
-      <c r="B1976" s="3"/>
-      <c r="C1976" s="3"/>
-      <c r="D1976" s="3"/>
+      <c r="A1976" s="16" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B1976" s="3" t="n">
+        <v>21.6241027596225</v>
+      </c>
+      <c r="C1976" s="3" t="n">
+        <v>23.6622827512218</v>
+      </c>
+      <c r="D1976" s="3" t="n">
+        <v>23.2901289335666</v>
+      </c>
     </row>
     <row r="1977">
-      <c r="A1977" s="6"/>
-      <c r="B1977" s="3"/>
-      <c r="C1977" s="3"/>
-      <c r="D1977" s="3"/>
+      <c r="A1977" s="16" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B1977" s="3" t="n">
+        <v>21.6332826266769</v>
+      </c>
+      <c r="C1977" s="3" t="n">
+        <v>23.6716977772559</v>
+      </c>
+      <c r="D1977" s="3" t="n">
+        <v>23.300391535915</v>
+      </c>
     </row>
     <row r="1978">
-      <c r="A1978" s="6"/>
-      <c r="B1978" s="3"/>
-      <c r="C1978" s="3"/>
-      <c r="D1978" s="3"/>
+      <c r="A1978" s="16" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B1978" s="3" t="n">
+        <v>21.6494375246073</v>
+      </c>
+      <c r="C1978" s="3" t="n">
+        <v>23.6815697380202</v>
+      </c>
+      <c r="D1978" s="3" t="n">
+        <v>23.309483642286</v>
+      </c>
     </row>
     <row r="1979">
-      <c r="A1979" s="6"/>
-      <c r="B1979" s="3"/>
-      <c r="C1979" s="3"/>
-      <c r="D1979" s="3"/>
+      <c r="A1979" s="16" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B1979" s="3" t="n">
+        <v>21.6586843796874</v>
+      </c>
+      <c r="C1979" s="3" t="n">
+        <v>23.6947186855119</v>
+      </c>
+      <c r="D1979" s="3" t="n">
+        <v>23.311657264092</v>
+      </c>
     </row>
     <row r="1980">
-      <c r="A1980" s="6"/>
-      <c r="B1980" s="3"/>
-      <c r="C1980" s="3"/>
-      <c r="D1980" s="3"/>
+      <c r="A1980" s="16" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B1980" s="3" t="n">
+        <v>21.7131337335864</v>
+      </c>
+      <c r="C1980" s="3" t="n">
+        <v>23.709304074378</v>
+      </c>
+      <c r="D1980" s="3" t="n">
+        <v>23.313628934478</v>
+      </c>
     </row>
     <row r="1981">
-      <c r="A1981" s="6"/>
-      <c r="B1981" s="3"/>
-      <c r="C1981" s="3"/>
-      <c r="D1981" s="3"/>
+      <c r="A1981" s="16" t="n">
+        <v>44702</v>
+      </c>
+      <c r="B1981" s="3" t="n">
+        <v>21.7269708952865</v>
+      </c>
+      <c r="C1981" s="3" t="n">
+        <v>23.7236448029517</v>
+      </c>
+      <c r="D1981" s="3" t="n">
+        <v>23.3140338411955</v>
+      </c>
     </row>
     <row r="1982">
-      <c r="A1982" s="6"/>
-      <c r="B1982" s="3"/>
-      <c r="C1982" s="3"/>
-      <c r="D1982" s="3"/>
+      <c r="A1982" s="16" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B1982" s="3" t="n">
+        <v>21.7306299823636</v>
+      </c>
+      <c r="C1982" s="3" t="n">
+        <v>23.7230078802205</v>
+      </c>
+      <c r="D1982" s="3" t="n">
+        <v>23.3180293901544</v>
+      </c>
     </row>
     <row r="1983">
-      <c r="A1983" s="6"/>
-      <c r="B1983" s="3"/>
-      <c r="C1983" s="3"/>
-      <c r="D1983" s="3"/>
+      <c r="A1983" s="16" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B1983" s="3" t="n">
+        <v>21.7416696715809</v>
+      </c>
+      <c r="C1983" s="3" t="n">
+        <v>23.7295687230079</v>
+      </c>
+      <c r="D1983" s="3" t="n">
+        <v>23.3220288035451</v>
+      </c>
     </row>
     <row r="1984">
-      <c r="A1984" s="6"/>
-      <c r="B1984" s="3"/>
-      <c r="C1984" s="3"/>
-      <c r="D1984" s="3"/>
+      <c r="A1984" s="16" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B1984" s="3" t="n">
+        <v>21.7506644926017</v>
+      </c>
+      <c r="C1984" s="3" t="n">
+        <v>23.7388956814797</v>
+      </c>
+      <c r="D1984" s="3" t="n">
+        <v>23.327945085439</v>
+      </c>
     </row>
     <row r="1985">
-      <c r="A1985" s="6"/>
-      <c r="B1985" s="3"/>
-      <c r="C1985" s="3"/>
-      <c r="D1985" s="3"/>
+      <c r="A1985" s="16" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B1985" s="3" t="n">
+        <v>21.7554391478964</v>
+      </c>
+      <c r="C1985" s="3" t="n">
+        <v>23.7466629310683</v>
+      </c>
+      <c r="D1985" s="3" t="n">
+        <v>23.3297134083931</v>
+      </c>
     </row>
     <row r="1986">
-      <c r="A1986" s="6"/>
-      <c r="B1986" s="3"/>
-      <c r="C1986" s="3"/>
-      <c r="D1986" s="3"/>
+      <c r="A1986" s="16" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B1986" s="3" t="n">
+        <v>21.7716818502829</v>
+      </c>
+      <c r="C1986" s="3" t="n">
+        <v>23.7547782691847</v>
+      </c>
+      <c r="D1986" s="3" t="n">
+        <v>23.3304886251238</v>
+      </c>
     </row>
     <row r="1987">
-      <c r="A1987" s="6"/>
-      <c r="B1987" s="3"/>
-      <c r="C1987" s="3"/>
-      <c r="D1987" s="3"/>
+      <c r="A1987" s="16" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B1987" s="3" t="n">
+        <v>21.7770751322755</v>
+      </c>
+      <c r="C1987" s="3" t="n">
+        <v>23.7592653110626</v>
+      </c>
+      <c r="D1987" s="3" t="n">
+        <v>23.3306819888839</v>
+      </c>
     </row>
     <row r="1988">
-      <c r="A1988" s="6"/>
-      <c r="B1988" s="3"/>
-      <c r="C1988" s="3"/>
-      <c r="D1988" s="3"/>
+      <c r="A1988" s="16" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B1988" s="3" t="n">
+        <v>21.7752107889989</v>
+      </c>
+      <c r="C1988" s="3" t="n">
+        <v>23.7621242545939</v>
+      </c>
+      <c r="D1988" s="3" t="n">
+        <v>23.3302474415764</v>
+      </c>
     </row>
     <row r="1989">
-      <c r="A1989" s="6"/>
-      <c r="B1989" s="3"/>
-      <c r="C1989" s="3"/>
-      <c r="D1989" s="3"/>
+      <c r="A1989" s="16" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B1989" s="3" t="n">
+        <v>21.7756370821321</v>
+      </c>
+      <c r="C1989" s="3" t="n">
+        <v>23.758017558939</v>
+      </c>
+      <c r="D1989" s="3" t="n">
+        <v>23.3300832562444</v>
+      </c>
     </row>
     <row r="1990">
-      <c r="A1990" s="6"/>
-      <c r="B1990" s="3"/>
-      <c r="C1990" s="3"/>
-      <c r="D1990" s="3"/>
+      <c r="A1990" s="16" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B1990" s="3" t="n">
+        <v>21.7811023229305</v>
+      </c>
+      <c r="C1990" s="3" t="n">
+        <v>23.7620307881772</v>
+      </c>
+      <c r="D1990" s="3" t="n">
+        <v>23.3348835765291</v>
+      </c>
     </row>
     <row r="1991">
-      <c r="A1991" s="6"/>
-      <c r="B1991" s="3"/>
-      <c r="C1991" s="3"/>
-      <c r="D1991" s="3"/>
+      <c r="A1991" s="16" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B1991" s="3" t="n">
+        <v>21.7811212185698</v>
+      </c>
+      <c r="C1991" s="3" t="n">
+        <v>23.760652733513</v>
+      </c>
+      <c r="D1991" s="3" t="n">
+        <v>23.3327264996909</v>
+      </c>
     </row>
     <row r="1992">
       <c r="A1992" s="6"/>
@@ -40458,33 +40766,47 @@
         <v>1418</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>22.13</v>
+        <v>22.1314881199953</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>21.4733333333333</v>
+        <v>21.4740774464381</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>24.14</v>
+        <v>24.1419190613005</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>23.424</v>
+        <v>23.4241827658729</v>
       </c>
       <c r="G79" s="3" t="n">
-        <v>23.38</v>
+        <v>23.3789706994777</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>23.135</v>
+        <v>23.1350194942096</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>22.3385426804593</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>21.6608777281668</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>24.4385241312958</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>23.6921372574732</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>23.4994266820039</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>23.2925700640227</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - mayo 2022</t>
+    <t xml:space="preserve">enero 2017 - junio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: julio 2022</t>
+    <t xml:space="preserve">Próxima actualización: agosto 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">mayo 2022</t>
+    <t xml:space="preserve">junio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -32647,184 +32647,424 @@
       </c>
     </row>
     <row r="1992">
-      <c r="A1992" s="6"/>
-      <c r="B1992" s="3"/>
-      <c r="C1992" s="3"/>
-      <c r="D1992" s="3"/>
+      <c r="A1992" s="16" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B1992" s="3" t="n">
+        <v>21.7855248878226</v>
+      </c>
+      <c r="C1992" s="3" t="n">
+        <v>23.7586882083433</v>
+      </c>
+      <c r="D1992" s="3" t="n">
+        <v>23.3381916679384</v>
+      </c>
     </row>
     <row r="1993">
-      <c r="A1993" s="6"/>
-      <c r="B1993" s="3"/>
-      <c r="C1993" s="3"/>
-      <c r="D1993" s="3"/>
+      <c r="A1993" s="16" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B1993" s="3" t="n">
+        <v>21.7946314986304</v>
+      </c>
+      <c r="C1993" s="3" t="n">
+        <v>23.7663443064431</v>
+      </c>
+      <c r="D1993" s="3" t="n">
+        <v>23.3369209082597</v>
+      </c>
     </row>
     <row r="1994">
-      <c r="A1994" s="6"/>
-      <c r="B1994" s="3"/>
-      <c r="C1994" s="3"/>
-      <c r="D1994" s="3"/>
+      <c r="A1994" s="16" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B1994" s="3" t="n">
+        <v>21.809779588426</v>
+      </c>
+      <c r="C1994" s="3" t="n">
+        <v>23.7928007290401</v>
+      </c>
+      <c r="D1994" s="3" t="n">
+        <v>23.3489270353303</v>
+      </c>
     </row>
     <row r="1995">
-      <c r="A1995" s="6"/>
-      <c r="B1995" s="3"/>
-      <c r="C1995" s="3"/>
-      <c r="D1995" s="3"/>
+      <c r="A1995" s="16" t="n">
+        <v>44716</v>
+      </c>
+      <c r="B1995" s="3" t="n">
+        <v>21.8191281300134</v>
+      </c>
+      <c r="C1995" s="3" t="n">
+        <v>23.7923931311655</v>
+      </c>
+      <c r="D1995" s="3" t="n">
+        <v>23.3523214559976</v>
+      </c>
     </row>
     <row r="1996">
-      <c r="A1996" s="6"/>
-      <c r="B1996" s="3"/>
-      <c r="C1996" s="3"/>
-      <c r="D1996" s="3"/>
+      <c r="A1996" s="16" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B1996" s="3" t="n">
+        <v>21.8242163785836</v>
+      </c>
+      <c r="C1996" s="3" t="n">
+        <v>23.8006174051798</v>
+      </c>
+      <c r="D1996" s="3" t="n">
+        <v>23.3516503951651</v>
+      </c>
     </row>
     <row r="1997">
-      <c r="A1997" s="6"/>
-      <c r="B1997" s="3"/>
-      <c r="C1997" s="3"/>
-      <c r="D1997" s="3"/>
+      <c r="A1997" s="16" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B1997" s="3" t="n">
+        <v>21.8358343933294</v>
+      </c>
+      <c r="C1997" s="3" t="n">
+        <v>23.8026447757516</v>
+      </c>
+      <c r="D1997" s="3" t="n">
+        <v>23.3565894365833</v>
+      </c>
     </row>
     <row r="1998">
-      <c r="A1998" s="6"/>
-      <c r="B1998" s="3"/>
-      <c r="C1998" s="3"/>
-      <c r="D1998" s="3"/>
+      <c r="A1998" s="16" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B1998" s="3" t="n">
+        <v>21.8323377557828</v>
+      </c>
+      <c r="C1998" s="3" t="n">
+        <v>23.8070007324218</v>
+      </c>
+      <c r="D1998" s="3" t="n">
+        <v>23.3590444238779</v>
+      </c>
     </row>
     <row r="1999">
-      <c r="A1999" s="6"/>
-      <c r="B1999" s="3"/>
-      <c r="C1999" s="3"/>
-      <c r="D1999" s="3"/>
+      <c r="A1999" s="16" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B1999" s="3" t="n">
+        <v>21.8373529411767</v>
+      </c>
+      <c r="C1999" s="3" t="n">
+        <v>23.809776621787</v>
+      </c>
+      <c r="D1999" s="3" t="n">
+        <v>23.3601780185759</v>
+      </c>
     </row>
     <row r="2000">
-      <c r="A2000" s="6"/>
-      <c r="B2000" s="3"/>
-      <c r="C2000" s="3"/>
-      <c r="D2000" s="3"/>
+      <c r="A2000" s="16" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B2000" s="3" t="n">
+        <v>21.8373175531725</v>
+      </c>
+      <c r="C2000" s="3" t="n">
+        <v>23.8167069656728</v>
+      </c>
+      <c r="D2000" s="3" t="n">
+        <v>23.3641412213742</v>
+      </c>
     </row>
     <row r="2001">
-      <c r="A2001" s="6"/>
-      <c r="B2001" s="3"/>
-      <c r="C2001" s="3"/>
-      <c r="D2001" s="3"/>
+      <c r="A2001" s="16" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B2001" s="3" t="n">
+        <v>21.838826453025</v>
+      </c>
+      <c r="C2001" s="3" t="n">
+        <v>23.8346950116309</v>
+      </c>
+      <c r="D2001" s="3" t="n">
+        <v>23.3694081172492</v>
+      </c>
     </row>
     <row r="2002">
-      <c r="A2002" s="6"/>
-      <c r="B2002" s="3"/>
-      <c r="C2002" s="3"/>
-      <c r="D2002" s="3"/>
+      <c r="A2002" s="16" t="n">
+        <v>44723</v>
+      </c>
+      <c r="B2002" s="3" t="n">
+        <v>21.8385899761879</v>
+      </c>
+      <c r="C2002" s="3" t="n">
+        <v>23.8435073750166</v>
+      </c>
+      <c r="D2002" s="3" t="n">
+        <v>23.3740064620355</v>
+      </c>
     </row>
     <row r="2003">
-      <c r="A2003" s="6"/>
-      <c r="B2003" s="3"/>
-      <c r="C2003" s="3"/>
-      <c r="D2003" s="3"/>
+      <c r="A2003" s="16" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B2003" s="3" t="n">
+        <v>21.8440666743438</v>
+      </c>
+      <c r="C2003" s="3" t="n">
+        <v>23.8355894145953</v>
+      </c>
+      <c r="D2003" s="3" t="n">
+        <v>23.3752416542102</v>
+      </c>
     </row>
     <row r="2004">
-      <c r="A2004" s="6"/>
-      <c r="B2004" s="3"/>
-      <c r="C2004" s="3"/>
-      <c r="D2004" s="3"/>
+      <c r="A2004" s="16" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B2004" s="3" t="n">
+        <v>21.8938447236575</v>
+      </c>
+      <c r="C2004" s="3" t="n">
+        <v>23.8755311479872</v>
+      </c>
+      <c r="D2004" s="3" t="n">
+        <v>23.378495894084</v>
+      </c>
     </row>
     <row r="2005">
-      <c r="A2005" s="6"/>
-      <c r="B2005" s="3"/>
-      <c r="C2005" s="3"/>
-      <c r="D2005" s="3"/>
+      <c r="A2005" s="16" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B2005" s="3" t="n">
+        <v>21.9013633901978</v>
+      </c>
+      <c r="C2005" s="3" t="n">
+        <v>23.8863300723669</v>
+      </c>
+      <c r="D2005" s="3" t="n">
+        <v>23.3830501484658</v>
+      </c>
     </row>
     <row r="2006">
-      <c r="A2006" s="6"/>
-      <c r="B2006" s="3"/>
-      <c r="C2006" s="3"/>
-      <c r="D2006" s="3"/>
+      <c r="A2006" s="16" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B2006" s="3" t="n">
+        <v>21.8662162944105</v>
+      </c>
+      <c r="C2006" s="3" t="n">
+        <v>23.8718185456975</v>
+      </c>
+      <c r="D2006" s="3" t="n">
+        <v>23.3870838155066</v>
+      </c>
     </row>
     <row r="2007">
-      <c r="A2007" s="6"/>
-      <c r="B2007" s="3"/>
-      <c r="C2007" s="3"/>
-      <c r="D2007" s="3"/>
+      <c r="A2007" s="16" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B2007" s="3" t="n">
+        <v>21.8705777906306</v>
+      </c>
+      <c r="C2007" s="3" t="n">
+        <v>23.8928390109172</v>
+      </c>
+      <c r="D2007" s="3" t="n">
+        <v>23.3891551177157</v>
+      </c>
     </row>
     <row r="2008">
-      <c r="A2008" s="6"/>
-      <c r="B2008" s="3"/>
-      <c r="C2008" s="3"/>
-      <c r="D2008" s="3"/>
+      <c r="A2008" s="16" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B2008" s="3" t="n">
+        <v>21.8748635307786</v>
+      </c>
+      <c r="C2008" s="3" t="n">
+        <v>23.8920121468183</v>
+      </c>
+      <c r="D2008" s="3" t="n">
+        <v>23.393417446524</v>
+      </c>
     </row>
     <row r="2009">
-      <c r="A2009" s="6"/>
-      <c r="B2009" s="3"/>
-      <c r="C2009" s="3"/>
-      <c r="D2009" s="3"/>
+      <c r="A2009" s="16" t="n">
+        <v>44730</v>
+      </c>
+      <c r="B2009" s="3" t="n">
+        <v>21.8766103068909</v>
+      </c>
+      <c r="C2009" s="3" t="n">
+        <v>23.8941657873915</v>
+      </c>
+      <c r="D2009" s="3" t="n">
+        <v>23.3976260855042</v>
+      </c>
     </row>
     <row r="2010">
-      <c r="A2010" s="6"/>
-      <c r="B2010" s="3"/>
-      <c r="C2010" s="3"/>
-      <c r="D2010" s="3"/>
+      <c r="A2010" s="16" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B2010" s="3" t="n">
+        <v>21.8701769911507</v>
+      </c>
+      <c r="C2010" s="3" t="n">
+        <v>23.8939011799413</v>
+      </c>
+      <c r="D2010" s="3" t="n">
+        <v>23.3986582880434</v>
+      </c>
     </row>
     <row r="2011">
-      <c r="A2011" s="6"/>
-      <c r="B2011" s="3"/>
-      <c r="C2011" s="3"/>
-      <c r="D2011" s="3"/>
+      <c r="A2011" s="16" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B2011" s="3" t="n">
+        <v>21.8725788101449</v>
+      </c>
+      <c r="C2011" s="3" t="n">
+        <v>23.8914201862099</v>
+      </c>
+      <c r="D2011" s="3" t="n">
+        <v>23.3977754856454</v>
+      </c>
     </row>
     <row r="2012">
-      <c r="A2012" s="6"/>
-      <c r="B2012" s="3"/>
-      <c r="C2012" s="3"/>
-      <c r="D2012" s="3"/>
+      <c r="A2012" s="16" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B2012" s="3" t="n">
+        <v>21.8684136897818</v>
+      </c>
+      <c r="C2012" s="3" t="n">
+        <v>23.8850086344316</v>
+      </c>
+      <c r="D2012" s="3" t="n">
+        <v>23.3983181203515</v>
+      </c>
     </row>
     <row r="2013">
-      <c r="A2013" s="6"/>
-      <c r="B2013" s="3"/>
-      <c r="C2013" s="3"/>
-      <c r="D2013" s="3"/>
+      <c r="A2013" s="16" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B2013" s="3" t="n">
+        <v>21.8684705769605</v>
+      </c>
+      <c r="C2013" s="3" t="n">
+        <v>23.8729138425446</v>
+      </c>
+      <c r="D2013" s="3" t="n">
+        <v>23.4039728649908</v>
+      </c>
     </row>
     <row r="2014">
-      <c r="A2014" s="6"/>
-      <c r="B2014" s="3"/>
-      <c r="C2014" s="3"/>
-      <c r="D2014" s="3"/>
+      <c r="A2014" s="16" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B2014" s="3" t="n">
+        <v>21.8660918218754</v>
+      </c>
+      <c r="C2014" s="3" t="n">
+        <v>23.8697351395947</v>
+      </c>
+      <c r="D2014" s="3" t="n">
+        <v>23.3990011731188</v>
+      </c>
     </row>
     <row r="2015">
-      <c r="A2015" s="6"/>
-      <c r="B2015" s="3"/>
-      <c r="C2015" s="3"/>
-      <c r="D2015" s="3"/>
+      <c r="A2015" s="16" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B2015" s="3" t="n">
+        <v>21.8659910632453</v>
+      </c>
+      <c r="C2015" s="3" t="n">
+        <v>23.8700675763485</v>
+      </c>
+      <c r="D2015" s="3" t="n">
+        <v>23.4002721202003</v>
+      </c>
     </row>
     <row r="2016">
-      <c r="A2016" s="6"/>
-      <c r="B2016" s="3"/>
-      <c r="C2016" s="3"/>
-      <c r="D2016" s="3"/>
+      <c r="A2016" s="16" t="n">
+        <v>44737</v>
+      </c>
+      <c r="B2016" s="3" t="n">
+        <v>21.8749581305879</v>
+      </c>
+      <c r="C2016" s="3" t="n">
+        <v>23.873253420279</v>
+      </c>
+      <c r="D2016" s="3" t="n">
+        <v>23.4092078323043</v>
+      </c>
     </row>
     <row r="2017">
-      <c r="A2017" s="6"/>
-      <c r="B2017" s="3"/>
-      <c r="C2017" s="3"/>
-      <c r="D2017" s="3"/>
+      <c r="A2017" s="16" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B2017" s="3" t="n">
+        <v>21.8771652114759</v>
+      </c>
+      <c r="C2017" s="3" t="n">
+        <v>23.8755734238854</v>
+      </c>
+      <c r="D2017" s="3" t="n">
+        <v>23.4106963302252</v>
+      </c>
     </row>
     <row r="2018">
-      <c r="A2018" s="6"/>
-      <c r="B2018" s="3"/>
-      <c r="C2018" s="3"/>
-      <c r="D2018" s="3"/>
+      <c r="A2018" s="16" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B2018" s="3" t="n">
+        <v>21.8823977695174</v>
+      </c>
+      <c r="C2018" s="3" t="n">
+        <v>23.877483187413</v>
+      </c>
+      <c r="D2018" s="3" t="n">
+        <v>23.4131494402077</v>
+      </c>
     </row>
     <row r="2019">
-      <c r="A2019" s="6"/>
-      <c r="B2019" s="3"/>
-      <c r="C2019" s="3"/>
-      <c r="D2019" s="3"/>
+      <c r="A2019" s="16" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B2019" s="3" t="n">
+        <v>21.8805944017568</v>
+      </c>
+      <c r="C2019" s="3" t="n">
+        <v>23.8752871916274</v>
+      </c>
+      <c r="D2019" s="3" t="n">
+        <v>23.4156382416654</v>
+      </c>
     </row>
     <row r="2020">
-      <c r="A2020" s="6"/>
-      <c r="B2020" s="3"/>
-      <c r="C2020" s="3"/>
-      <c r="D2020" s="3"/>
+      <c r="A2020" s="16" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B2020" s="3" t="n">
+        <v>21.8812917922231</v>
+      </c>
+      <c r="C2020" s="3" t="n">
+        <v>23.8797137800563</v>
+      </c>
+      <c r="D2020" s="3" t="n">
+        <v>23.4187131492748</v>
+      </c>
     </row>
     <row r="2021">
-      <c r="A2021" s="6"/>
-      <c r="B2021" s="3"/>
-      <c r="C2021" s="3"/>
-      <c r="D2021" s="3"/>
+      <c r="A2021" s="16" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B2021" s="3" t="n">
+        <v>21.8683349272132</v>
+      </c>
+      <c r="C2021" s="3" t="n">
+        <v>23.8724028629859</v>
+      </c>
+      <c r="D2021" s="3" t="n">
+        <v>23.4181826158771</v>
+      </c>
     </row>
     <row r="2022">
       <c r="A2022" s="6"/>
@@ -40810,13 +41050,27 @@
     </row>
     <row r="81">
       <c r="A81" s="6"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>22.5843976774147</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>21.8552515817664</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>24.6735755394889</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>23.8503407271181</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>23.5705058066474</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>23.3833011655434</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - junio 2022</t>
+    <t xml:space="preserve">enero 2017 - julio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: agosto 2022</t>
+    <t xml:space="preserve">Próxima actualización: septiembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">junio 2022</t>
+    <t xml:space="preserve">julio 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -33067,190 +33067,438 @@
       </c>
     </row>
     <row r="2022">
-      <c r="A2022" s="6"/>
-      <c r="B2022" s="3"/>
-      <c r="C2022" s="3"/>
-      <c r="D2022" s="3"/>
+      <c r="A2022" s="16" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B2022" s="3" t="n">
+        <v>21.8378058455118</v>
+      </c>
+      <c r="C2022" s="3" t="n">
+        <v>23.867323426784</v>
+      </c>
+      <c r="D2022" s="3" t="n">
+        <v>23.4235809188003</v>
+      </c>
     </row>
     <row r="2023">
-      <c r="A2023" s="6"/>
-      <c r="B2023" s="3"/>
-      <c r="C2023" s="3"/>
-      <c r="D2023" s="3"/>
+      <c r="A2023" s="16" t="n">
+        <v>44744</v>
+      </c>
+      <c r="B2023" s="3" t="n">
+        <v>21.83370078329</v>
+      </c>
+      <c r="C2023" s="3" t="n">
+        <v>23.8668465977401</v>
+      </c>
+      <c r="D2023" s="3" t="n">
+        <v>23.4290242461603</v>
+      </c>
     </row>
     <row r="2024">
-      <c r="A2024" s="6"/>
-      <c r="B2024" s="3"/>
-      <c r="C2024" s="3"/>
-      <c r="D2024" s="3"/>
+      <c r="A2024" s="16" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B2024" s="3" t="n">
+        <v>21.8319418702614</v>
+      </c>
+      <c r="C2024" s="3" t="n">
+        <v>23.8627979810268</v>
+      </c>
+      <c r="D2024" s="3" t="n">
+        <v>23.423642418566</v>
+      </c>
     </row>
     <row r="2025">
-      <c r="A2025" s="6"/>
-      <c r="B2025" s="3"/>
-      <c r="C2025" s="3"/>
-      <c r="D2025" s="3"/>
+      <c r="A2025" s="16" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B2025" s="3" t="n">
+        <v>21.8337010425474</v>
+      </c>
+      <c r="C2025" s="3" t="n">
+        <v>23.8615629584355</v>
+      </c>
+      <c r="D2025" s="3" t="n">
+        <v>23.4207738095239</v>
+      </c>
     </row>
     <row r="2026">
-      <c r="A2026" s="6"/>
-      <c r="B2026" s="3"/>
-      <c r="C2026" s="3"/>
-      <c r="D2026" s="3"/>
+      <c r="A2026" s="16" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B2026" s="3" t="n">
+        <v>21.8205047718204</v>
+      </c>
+      <c r="C2026" s="3" t="n">
+        <v>23.8617299578062</v>
+      </c>
+      <c r="D2026" s="3" t="n">
+        <v>23.4221011913973</v>
+      </c>
     </row>
     <row r="2027">
-      <c r="A2027" s="6"/>
-      <c r="B2027" s="3"/>
-      <c r="C2027" s="3"/>
-      <c r="D2027" s="3"/>
+      <c r="A2027" s="16" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B2027" s="3" t="n">
+        <v>21.822078314287</v>
+      </c>
+      <c r="C2027" s="3" t="n">
+        <v>23.8623885312354</v>
+      </c>
+      <c r="D2027" s="3" t="n">
+        <v>23.4232462040152</v>
+      </c>
     </row>
     <row r="2028">
-      <c r="A2028" s="6"/>
-      <c r="B2028" s="3"/>
-      <c r="C2028" s="3"/>
-      <c r="D2028" s="3"/>
+      <c r="A2028" s="16" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B2028" s="3" t="n">
+        <v>21.8111967483025</v>
+      </c>
+      <c r="C2028" s="3" t="n">
+        <v>23.859816557475</v>
+      </c>
+      <c r="D2028" s="3" t="n">
+        <v>23.4253047604548</v>
+      </c>
     </row>
     <row r="2029">
-      <c r="A2029" s="6"/>
-      <c r="B2029" s="3"/>
-      <c r="C2029" s="3"/>
-      <c r="D2029" s="3"/>
+      <c r="A2029" s="16" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B2029" s="3" t="n">
+        <v>21.8116682051285</v>
+      </c>
+      <c r="C2029" s="3" t="n">
+        <v>23.8615604226024</v>
+      </c>
+      <c r="D2029" s="3" t="n">
+        <v>23.42865884431</v>
+      </c>
     </row>
     <row r="2030">
-      <c r="A2030" s="6"/>
-      <c r="B2030" s="3"/>
-      <c r="C2030" s="3"/>
-      <c r="D2030" s="3"/>
+      <c r="A2030" s="16" t="n">
+        <v>44751</v>
+      </c>
+      <c r="B2030" s="3" t="n">
+        <v>21.8183826996006</v>
+      </c>
+      <c r="C2030" s="3" t="n">
+        <v>23.8660535077292</v>
+      </c>
+      <c r="D2030" s="3" t="n">
+        <v>23.4277659029167</v>
+      </c>
     </row>
     <row r="2031">
-      <c r="A2031" s="6"/>
-      <c r="B2031" s="3"/>
-      <c r="C2031" s="3"/>
-      <c r="D2031" s="3"/>
+      <c r="A2031" s="16" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B2031" s="3" t="n">
+        <v>21.8151410190431</v>
+      </c>
+      <c r="C2031" s="3" t="n">
+        <v>23.8612933923872</v>
+      </c>
+      <c r="D2031" s="3" t="n">
+        <v>23.4256508799173</v>
+      </c>
     </row>
     <row r="2032">
-      <c r="A2032" s="6"/>
-      <c r="B2032" s="3"/>
-      <c r="C2032" s="3"/>
-      <c r="D2032" s="3"/>
+      <c r="A2032" s="16" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B2032" s="3" t="n">
+        <v>21.8177890700237</v>
+      </c>
+      <c r="C2032" s="3" t="n">
+        <v>23.8476981429788</v>
+      </c>
+      <c r="D2032" s="3" t="n">
+        <v>23.4280180390935</v>
+      </c>
     </row>
     <row r="2033">
-      <c r="A2033" s="6"/>
-      <c r="B2033" s="3"/>
-      <c r="C2033" s="3"/>
-      <c r="D2033" s="3"/>
+      <c r="A2033" s="16" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B2033" s="3" t="n">
+        <v>21.8258695873667</v>
+      </c>
+      <c r="C2033" s="3" t="n">
+        <v>23.866272471688</v>
+      </c>
+      <c r="D2033" s="3" t="n">
+        <v>23.4310687179488</v>
+      </c>
     </row>
     <row r="2034">
-      <c r="A2034" s="6"/>
-      <c r="B2034" s="3"/>
-      <c r="C2034" s="3"/>
-      <c r="D2034" s="3"/>
+      <c r="A2034" s="16" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B2034" s="3" t="n">
+        <v>21.8260744038589</v>
+      </c>
+      <c r="C2034" s="3" t="n">
+        <v>23.8727027186764</v>
+      </c>
+      <c r="D2034" s="3" t="n">
+        <v>23.4360078707963</v>
+      </c>
     </row>
     <row r="2035">
-      <c r="A2035" s="6"/>
-      <c r="B2035" s="3"/>
-      <c r="C2035" s="3"/>
-      <c r="D2035" s="3"/>
+      <c r="A2035" s="16" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B2035" s="3" t="n">
+        <v>21.8313676075273</v>
+      </c>
+      <c r="C2035" s="3" t="n">
+        <v>23.8917917953594</v>
+      </c>
+      <c r="D2035" s="3" t="n">
+        <v>23.4440735100011</v>
+      </c>
     </row>
     <row r="2036">
-      <c r="A2036" s="6"/>
-      <c r="B2036" s="3"/>
-      <c r="C2036" s="3"/>
-      <c r="D2036" s="3"/>
+      <c r="A2036" s="16" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B2036" s="3" t="n">
+        <v>21.8310373910132</v>
+      </c>
+      <c r="C2036" s="3" t="n">
+        <v>23.9126327486787</v>
+      </c>
+      <c r="D2036" s="3" t="n">
+        <v>23.4545892107792</v>
+      </c>
     </row>
     <row r="2037">
-      <c r="A2037" s="6"/>
-      <c r="B2037" s="3"/>
-      <c r="C2037" s="3"/>
-      <c r="D2037" s="3"/>
+      <c r="A2037" s="16" t="n">
+        <v>44758</v>
+      </c>
+      <c r="B2037" s="3" t="n">
+        <v>21.827313808374</v>
+      </c>
+      <c r="C2037" s="3" t="n">
+        <v>23.8843199952367</v>
+      </c>
+      <c r="D2037" s="3" t="n">
+        <v>23.4581822074456</v>
+      </c>
     </row>
     <row r="2038">
-      <c r="A2038" s="6"/>
-      <c r="B2038" s="3"/>
-      <c r="C2038" s="3"/>
-      <c r="D2038" s="3"/>
+      <c r="A2038" s="16" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B2038" s="3" t="n">
+        <v>21.8212700193822</v>
+      </c>
+      <c r="C2038" s="3" t="n">
+        <v>23.8755705832633</v>
+      </c>
+      <c r="D2038" s="3" t="n">
+        <v>23.4586337537169</v>
+      </c>
     </row>
     <row r="2039">
-      <c r="A2039" s="6"/>
-      <c r="B2039" s="3"/>
-      <c r="C2039" s="3"/>
-      <c r="D2039" s="3"/>
+      <c r="A2039" s="16" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B2039" s="3" t="n">
+        <v>21.8275379720858</v>
+      </c>
+      <c r="C2039" s="3" t="n">
+        <v>23.8793991989323</v>
+      </c>
+      <c r="D2039" s="3" t="n">
+        <v>23.4587434784856</v>
+      </c>
     </row>
     <row r="2040">
-      <c r="A2040" s="6"/>
-      <c r="B2040" s="3"/>
-      <c r="C2040" s="3"/>
-      <c r="D2040" s="3"/>
+      <c r="A2040" s="16" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B2040" s="3" t="n">
+        <v>21.8315618757411</v>
+      </c>
+      <c r="C2040" s="3" t="n">
+        <v>23.8771134947271</v>
+      </c>
+      <c r="D2040" s="3" t="n">
+        <v>23.4618075117372</v>
+      </c>
     </row>
     <row r="2041">
-      <c r="A2041" s="6"/>
-      <c r="B2041" s="3"/>
-      <c r="C2041" s="3"/>
-      <c r="D2041" s="3"/>
+      <c r="A2041" s="16" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B2041" s="3" t="n">
+        <v>21.830581948947</v>
+      </c>
+      <c r="C2041" s="3" t="n">
+        <v>23.8809083860198</v>
+      </c>
+      <c r="D2041" s="3" t="n">
+        <v>23.466084838282</v>
+      </c>
     </row>
     <row r="2042">
-      <c r="A2042" s="6"/>
-      <c r="B2042" s="3"/>
-      <c r="C2042" s="3"/>
-      <c r="D2042" s="3"/>
+      <c r="A2042" s="16" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B2042" s="3" t="n">
+        <v>21.8302241238798</v>
+      </c>
+      <c r="C2042" s="3" t="n">
+        <v>23.8836329946209</v>
+      </c>
+      <c r="D2042" s="3" t="n">
+        <v>23.4690996404727</v>
+      </c>
     </row>
     <row r="2043">
-      <c r="A2043" s="6"/>
-      <c r="B2043" s="3"/>
-      <c r="C2043" s="3"/>
-      <c r="D2043" s="3"/>
+      <c r="A2043" s="16" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B2043" s="3" t="n">
+        <v>21.8316454838167</v>
+      </c>
+      <c r="C2043" s="3" t="n">
+        <v>23.8837318536297</v>
+      </c>
+      <c r="D2043" s="3" t="n">
+        <v>23.4683929493137</v>
+      </c>
     </row>
     <row r="2044">
-      <c r="A2044" s="6"/>
-      <c r="B2044" s="3"/>
-      <c r="C2044" s="3"/>
-      <c r="D2044" s="3"/>
+      <c r="A2044" s="16" t="n">
+        <v>44765</v>
+      </c>
+      <c r="B2044" s="3" t="n">
+        <v>21.8278199775994</v>
+      </c>
+      <c r="C2044" s="3" t="n">
+        <v>23.8808316159539</v>
+      </c>
+      <c r="D2044" s="3" t="n">
+        <v>23.4720027989428</v>
+      </c>
     </row>
     <row r="2045">
-      <c r="A2045" s="6"/>
-      <c r="B2045" s="3"/>
-      <c r="C2045" s="3"/>
-      <c r="D2045" s="3"/>
+      <c r="A2045" s="16" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B2045" s="3" t="n">
+        <v>21.8259842398026</v>
+      </c>
+      <c r="C2045" s="3" t="n">
+        <v>23.8791470913791</v>
+      </c>
+      <c r="D2045" s="3" t="n">
+        <v>23.4725689519308</v>
+      </c>
     </row>
     <row r="2046">
-      <c r="A2046" s="6"/>
-      <c r="B2046" s="3"/>
-      <c r="C2046" s="3"/>
-      <c r="D2046" s="3"/>
+      <c r="A2046" s="16" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B2046" s="3" t="n">
+        <v>21.8272493773354</v>
+      </c>
+      <c r="C2046" s="3" t="n">
+        <v>23.8816396328434</v>
+      </c>
+      <c r="D2046" s="3" t="n">
+        <v>23.4725077906729</v>
+      </c>
     </row>
     <row r="2047">
-      <c r="A2047" s="6"/>
-      <c r="B2047" s="3"/>
-      <c r="C2047" s="3"/>
-      <c r="D2047" s="3"/>
+      <c r="A2047" s="16" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B2047" s="3" t="n">
+        <v>21.8367095902597</v>
+      </c>
+      <c r="C2047" s="3" t="n">
+        <v>23.8944584305542</v>
+      </c>
+      <c r="D2047" s="3" t="n">
+        <v>23.4849834489284</v>
+      </c>
     </row>
     <row r="2048">
-      <c r="A2048" s="6"/>
-      <c r="B2048" s="3"/>
-      <c r="C2048" s="3"/>
-      <c r="D2048" s="3"/>
+      <c r="A2048" s="16" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B2048" s="3" t="n">
+        <v>21.8469338670504</v>
+      </c>
+      <c r="C2048" s="3" t="n">
+        <v>23.9143660594208</v>
+      </c>
+      <c r="D2048" s="3" t="n">
+        <v>23.4911063330729</v>
+      </c>
     </row>
     <row r="2049">
-      <c r="A2049" s="6"/>
-      <c r="B2049" s="3"/>
-      <c r="C2049" s="3"/>
-      <c r="D2049" s="3"/>
+      <c r="A2049" s="16" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B2049" s="3" t="n">
+        <v>21.8610754458165</v>
+      </c>
+      <c r="C2049" s="3" t="n">
+        <v>23.9284335578692</v>
+      </c>
+      <c r="D2049" s="3" t="n">
+        <v>23.5013072257386</v>
+      </c>
     </row>
     <row r="2050">
-      <c r="A2050" s="6"/>
-      <c r="B2050" s="3"/>
-      <c r="C2050" s="3"/>
-      <c r="D2050" s="3"/>
+      <c r="A2050" s="16" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B2050" s="3" t="n">
+        <v>21.8747230556995</v>
+      </c>
+      <c r="C2050" s="3" t="n">
+        <v>23.9328661833377</v>
+      </c>
+      <c r="D2050" s="3" t="n">
+        <v>23.5059509381812</v>
+      </c>
     </row>
     <row r="2051">
-      <c r="A2051" s="6"/>
-      <c r="B2051" s="3"/>
-      <c r="C2051" s="3"/>
-      <c r="D2051" s="3"/>
+      <c r="A2051" s="16" t="n">
+        <v>44772</v>
+      </c>
+      <c r="B2051" s="3" t="n">
+        <v>21.8761671907759</v>
+      </c>
+      <c r="C2051" s="3" t="n">
+        <v>23.9474570468129</v>
+      </c>
+      <c r="D2051" s="3" t="n">
+        <v>23.5165340848096</v>
+      </c>
     </row>
     <row r="2052">
-      <c r="A2052" s="6"/>
-      <c r="B2052" s="3"/>
-      <c r="C2052" s="3"/>
-      <c r="D2052" s="3"/>
+      <c r="A2052" s="16" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B2052" s="3" t="n">
+        <v>21.8713532946987</v>
+      </c>
+      <c r="C2052" s="3" t="n">
+        <v>23.9426763696455</v>
+      </c>
+      <c r="D2052" s="3" t="n">
+        <v>23.5163414167896</v>
+      </c>
     </row>
     <row r="2053">
       <c r="A2053" s="6"/>
@@ -41074,13 +41322,27 @@
     </row>
     <row r="82">
       <c r="A82" s="6"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>22.540508142899</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>21.8327874397047</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>24.6533103149005</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>23.8835168937048</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>23.6649591174615</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>23.4554114159097</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,7 +4225,7 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - julio 2022</t>
+    <t xml:space="preserve">enero 2017 - agosto 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">julio 2022</t>
+    <t xml:space="preserve">agosto 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -33501,190 +33501,376 @@
       </c>
     </row>
     <row r="2053">
-      <c r="A2053" s="6"/>
-      <c r="B2053" s="3"/>
-      <c r="C2053" s="3"/>
-      <c r="D2053" s="3"/>
+      <c r="A2053" s="16"/>
+      <c r="B2053" s="3" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="C2053" s="3" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="D2053" s="3" t="n">
+        <v>23.51</v>
+      </c>
     </row>
     <row r="2054">
-      <c r="A2054" s="6"/>
-      <c r="B2054" s="3"/>
-      <c r="C2054" s="3"/>
-      <c r="D2054" s="3"/>
+      <c r="A2054" s="16"/>
+      <c r="B2054" s="3" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="C2054" s="3" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="D2054" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2055">
-      <c r="A2055" s="6"/>
-      <c r="B2055" s="3"/>
-      <c r="C2055" s="3"/>
-      <c r="D2055" s="3"/>
+      <c r="A2055" s="16"/>
+      <c r="B2055" s="3" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="C2055" s="3" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D2055" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2056">
-      <c r="A2056" s="6"/>
-      <c r="B2056" s="3"/>
-      <c r="C2056" s="3"/>
-      <c r="D2056" s="3"/>
+      <c r="A2056" s="16"/>
+      <c r="B2056" s="3" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C2056" s="3" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="D2056" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2057">
-      <c r="A2057" s="6"/>
-      <c r="B2057" s="3"/>
-      <c r="C2057" s="3"/>
-      <c r="D2057" s="3"/>
+      <c r="A2057" s="16"/>
+      <c r="B2057" s="3" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="C2057" s="3" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="D2057" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2058">
-      <c r="A2058" s="6"/>
-      <c r="B2058" s="3"/>
-      <c r="C2058" s="3"/>
-      <c r="D2058" s="3"/>
+      <c r="A2058" s="16"/>
+      <c r="B2058" s="3" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="C2058" s="3" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="D2058" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2059">
-      <c r="A2059" s="6"/>
-      <c r="B2059" s="3"/>
-      <c r="C2059" s="3"/>
-      <c r="D2059" s="3"/>
+      <c r="A2059" s="16"/>
+      <c r="B2059" s="3" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="C2059" s="3" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="D2059" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2060">
-      <c r="A2060" s="6"/>
-      <c r="B2060" s="3"/>
-      <c r="C2060" s="3"/>
-      <c r="D2060" s="3"/>
+      <c r="A2060" s="16"/>
+      <c r="B2060" s="3" t="n">
+        <v>22.01</v>
+      </c>
+      <c r="C2060" s="3" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="D2060" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2061">
-      <c r="A2061" s="6"/>
-      <c r="B2061" s="3"/>
-      <c r="C2061" s="3"/>
-      <c r="D2061" s="3"/>
+      <c r="A2061" s="16"/>
+      <c r="B2061" s="3" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="C2061" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2061" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2062">
-      <c r="A2062" s="6"/>
-      <c r="B2062" s="3"/>
-      <c r="C2062" s="3"/>
-      <c r="D2062" s="3"/>
+      <c r="A2062" s="16"/>
+      <c r="B2062" s="3" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="C2062" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2062" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2063">
-      <c r="A2063" s="6"/>
-      <c r="B2063" s="3"/>
-      <c r="C2063" s="3"/>
-      <c r="D2063" s="3"/>
+      <c r="A2063" s="16"/>
+      <c r="B2063" s="3" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C2063" s="3" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="D2063" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2064">
-      <c r="A2064" s="6"/>
-      <c r="B2064" s="3"/>
-      <c r="C2064" s="3"/>
-      <c r="D2064" s="3"/>
+      <c r="A2064" s="16"/>
+      <c r="B2064" s="3" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C2064" s="3" t="n">
+        <v>23.98</v>
+      </c>
+      <c r="D2064" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2065">
-      <c r="A2065" s="6"/>
-      <c r="B2065" s="3"/>
-      <c r="C2065" s="3"/>
-      <c r="D2065" s="3"/>
+      <c r="A2065" s="16"/>
+      <c r="B2065" s="3" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C2065" s="3" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="D2065" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2066">
-      <c r="A2066" s="6"/>
-      <c r="B2066" s="3"/>
-      <c r="C2066" s="3"/>
-      <c r="D2066" s="3"/>
+      <c r="A2066" s="16"/>
+      <c r="B2066" s="3" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C2066" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2066" s="3" t="n">
+        <v>23.52</v>
+      </c>
     </row>
     <row r="2067">
-      <c r="A2067" s="6"/>
-      <c r="B2067" s="3"/>
-      <c r="C2067" s="3"/>
-      <c r="D2067" s="3"/>
+      <c r="A2067" s="16"/>
+      <c r="B2067" s="3" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C2067" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2067" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2068">
-      <c r="A2068" s="6"/>
-      <c r="B2068" s="3"/>
-      <c r="C2068" s="3"/>
-      <c r="D2068" s="3"/>
+      <c r="A2068" s="16"/>
+      <c r="B2068" s="3" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C2068" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2068" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2069">
-      <c r="A2069" s="6"/>
-      <c r="B2069" s="3"/>
-      <c r="C2069" s="3"/>
-      <c r="D2069" s="3"/>
+      <c r="A2069" s="16"/>
+      <c r="B2069" s="3" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C2069" s="3" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="D2069" s="3" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="2070">
-      <c r="A2070" s="6"/>
-      <c r="B2070" s="3"/>
-      <c r="C2070" s="3"/>
-      <c r="D2070" s="3"/>
+      <c r="A2070" s="16"/>
+      <c r="B2070" s="3" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C2070" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2070" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2071">
-      <c r="A2071" s="6"/>
-      <c r="B2071" s="3"/>
-      <c r="C2071" s="3"/>
-      <c r="D2071" s="3"/>
+      <c r="A2071" s="16"/>
+      <c r="B2071" s="3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="C2071" s="3" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2071" s="3" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="2072">
-      <c r="A2072" s="6"/>
-      <c r="B2072" s="3"/>
-      <c r="C2072" s="3"/>
-      <c r="D2072" s="3"/>
+      <c r="A2072" s="16"/>
+      <c r="B2072" s="3" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C2072" s="3" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2072" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2073">
-      <c r="A2073" s="6"/>
-      <c r="B2073" s="3"/>
-      <c r="C2073" s="3"/>
-      <c r="D2073" s="3"/>
+      <c r="A2073" s="16"/>
+      <c r="B2073" s="3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="C2073" s="3" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2073" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2074">
-      <c r="A2074" s="6"/>
-      <c r="B2074" s="3"/>
-      <c r="C2074" s="3"/>
-      <c r="D2074" s="3"/>
+      <c r="A2074" s="16"/>
+      <c r="B2074" s="3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="C2074" s="3" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2074" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2075">
-      <c r="A2075" s="6"/>
-      <c r="B2075" s="3"/>
-      <c r="C2075" s="3"/>
-      <c r="D2075" s="3"/>
+      <c r="A2075" s="16"/>
+      <c r="B2075" s="3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="C2075" s="3" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2075" s="3" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="2076">
-      <c r="A2076" s="6"/>
-      <c r="B2076" s="3"/>
-      <c r="C2076" s="3"/>
-      <c r="D2076" s="3"/>
+      <c r="A2076" s="16"/>
+      <c r="B2076" s="3" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C2076" s="3" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="D2076" s="3" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="2077">
-      <c r="A2077" s="6"/>
-      <c r="B2077" s="3"/>
-      <c r="C2077" s="3"/>
-      <c r="D2077" s="3"/>
+      <c r="A2077" s="16"/>
+      <c r="B2077" s="3" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C2077" s="3" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2077" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2078">
-      <c r="A2078" s="6"/>
-      <c r="B2078" s="3"/>
-      <c r="C2078" s="3"/>
-      <c r="D2078" s="3"/>
+      <c r="A2078" s="16"/>
+      <c r="B2078" s="3" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C2078" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2078" s="3" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="2079">
-      <c r="A2079" s="6"/>
-      <c r="B2079" s="3"/>
-      <c r="C2079" s="3"/>
-      <c r="D2079" s="3"/>
+      <c r="A2079" s="16"/>
+      <c r="B2079" s="3" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="C2079" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2079" s="3" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="2080">
-      <c r="A2080" s="6"/>
-      <c r="B2080" s="3"/>
-      <c r="C2080" s="3"/>
-      <c r="D2080" s="3"/>
+      <c r="A2080" s="16"/>
+      <c r="B2080" s="3" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="C2080" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2080" s="3" t="n">
+        <v>23.53</v>
+      </c>
     </row>
     <row r="2081">
-      <c r="A2081" s="6"/>
-      <c r="B2081" s="3"/>
-      <c r="C2081" s="3"/>
-      <c r="D2081" s="3"/>
+      <c r="A2081" s="16"/>
+      <c r="B2081" s="3" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="C2081" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2081" s="3" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="2082">
-      <c r="A2082" s="6"/>
-      <c r="B2082" s="3"/>
-      <c r="C2082" s="3"/>
-      <c r="D2082" s="3"/>
+      <c r="A2082" s="16"/>
+      <c r="B2082" s="3" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="C2082" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2082" s="3" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="2083">
-      <c r="A2083" s="6"/>
-      <c r="B2083" s="3"/>
-      <c r="C2083" s="3"/>
-      <c r="D2083" s="3"/>
+      <c r="A2083" s="16"/>
+      <c r="B2083" s="3" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="C2083" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2083" s="3" t="n">
+        <v>23.54</v>
+      </c>
     </row>
     <row r="2084">
       <c r="A2084" s="6"/>
@@ -41346,13 +41532,27 @@
     </row>
     <row r="83">
       <c r="A83" s="6"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>21.931935483871</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>23.9925806451613</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>23.5287096774193</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - agosto 2022</t>
+    <t xml:space="preserve">enero 2017 - septiembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: septiembre 2022</t>
+    <t xml:space="preserve">Próxima actualización: octubre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2022</t>
+    <t xml:space="preserve">septiembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -33501,556 +33501,858 @@
       </c>
     </row>
     <row r="2053">
-      <c r="A2053" s="16"/>
+      <c r="A2053" s="16" t="n">
+        <v>44774</v>
+      </c>
       <c r="B2053" s="3" t="n">
-        <v>21.96</v>
+        <v>21.9635987319845</v>
       </c>
       <c r="C2053" s="3" t="n">
-        <v>23.94</v>
+        <v>23.9421643783372</v>
       </c>
       <c r="D2053" s="3" t="n">
-        <v>23.51</v>
+        <v>23.5147209864338</v>
       </c>
     </row>
     <row r="2054">
-      <c r="A2054" s="16"/>
+      <c r="A2054" s="16" t="n">
+        <v>44775</v>
+      </c>
       <c r="B2054" s="3" t="n">
-        <v>21.96</v>
+        <v>21.9608230204799</v>
       </c>
       <c r="C2054" s="3" t="n">
-        <v>23.94</v>
+        <v>23.942567888875</v>
       </c>
       <c r="D2054" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5173809138481</v>
       </c>
     </row>
     <row r="2055">
-      <c r="A2055" s="16"/>
+      <c r="A2055" s="16" t="n">
+        <v>44776</v>
+      </c>
       <c r="B2055" s="3" t="n">
-        <v>21.96</v>
+        <v>21.9615305525066</v>
       </c>
       <c r="C2055" s="3" t="n">
-        <v>23.95</v>
+        <v>23.9474793284891</v>
       </c>
       <c r="D2055" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5194169238266</v>
       </c>
     </row>
     <row r="2056">
-      <c r="A2056" s="16"/>
+      <c r="A2056" s="16" t="n">
+        <v>44777</v>
+      </c>
       <c r="B2056" s="3" t="n">
-        <v>21.99</v>
+        <v>21.9901995697011</v>
       </c>
       <c r="C2056" s="3" t="n">
-        <v>23.98</v>
+        <v>23.977550130776</v>
       </c>
       <c r="D2056" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5226085176085</v>
       </c>
     </row>
     <row r="2057">
-      <c r="A2057" s="16"/>
+      <c r="A2057" s="16" t="n">
+        <v>44778</v>
+      </c>
       <c r="B2057" s="3" t="n">
-        <v>22.01</v>
+        <v>22.0061985481217</v>
       </c>
       <c r="C2057" s="3" t="n">
-        <v>23.98</v>
+        <v>23.9799514563107</v>
       </c>
       <c r="D2057" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5200572916666</v>
       </c>
     </row>
     <row r="2058">
-      <c r="A2058" s="16"/>
+      <c r="A2058" s="16" t="n">
+        <v>44779</v>
+      </c>
       <c r="B2058" s="3" t="n">
-        <v>22.01</v>
+        <v>22.0080907042255</v>
       </c>
       <c r="C2058" s="3" t="n">
-        <v>23.98</v>
+        <v>23.9836853093761</v>
       </c>
       <c r="D2058" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5227665562913</v>
       </c>
     </row>
     <row r="2059">
-      <c r="A2059" s="16"/>
+      <c r="A2059" s="16" t="n">
+        <v>44780</v>
+      </c>
       <c r="B2059" s="3" t="n">
-        <v>22.01</v>
+        <v>22.0114188881295</v>
       </c>
       <c r="C2059" s="3" t="n">
-        <v>23.99</v>
+        <v>23.9887043189368</v>
       </c>
       <c r="D2059" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5202888814241</v>
       </c>
     </row>
     <row r="2060">
-      <c r="A2060" s="16"/>
+      <c r="A2060" s="16" t="n">
+        <v>44781</v>
+      </c>
       <c r="B2060" s="3" t="n">
-        <v>22.01</v>
+        <v>22.0133129542046</v>
       </c>
       <c r="C2060" s="3" t="n">
-        <v>23.99</v>
+        <v>23.9936489980606</v>
       </c>
       <c r="D2060" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5195300977532</v>
       </c>
     </row>
     <row r="2061">
-      <c r="A2061" s="16"/>
+      <c r="A2061" s="16" t="n">
+        <v>44782</v>
+      </c>
       <c r="B2061" s="3" t="n">
-        <v>21.98</v>
+        <v>21.97584979122</v>
       </c>
       <c r="C2061" s="3" t="n">
-        <v>24</v>
+        <v>23.9958821901476</v>
       </c>
       <c r="D2061" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5172135725163</v>
       </c>
     </row>
     <row r="2062">
-      <c r="A2062" s="16"/>
+      <c r="A2062" s="16" t="n">
+        <v>44783</v>
+      </c>
       <c r="B2062" s="3" t="n">
-        <v>21.97</v>
+        <v>21.966015079901</v>
       </c>
       <c r="C2062" s="3" t="n">
-        <v>24</v>
+        <v>24.0042003645303</v>
       </c>
       <c r="D2062" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5205533832028</v>
       </c>
     </row>
     <row r="2063">
-      <c r="A2063" s="16"/>
+      <c r="A2063" s="16" t="n">
+        <v>44784</v>
+      </c>
       <c r="B2063" s="3" t="n">
-        <v>21.95</v>
+        <v>21.9468221041526</v>
       </c>
       <c r="C2063" s="3" t="n">
-        <v>23.98</v>
+        <v>23.9828343503686</v>
       </c>
       <c r="D2063" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5247508957514</v>
       </c>
     </row>
     <row r="2064">
-      <c r="A2064" s="16"/>
+      <c r="A2064" s="16" t="n">
+        <v>44785</v>
+      </c>
       <c r="B2064" s="3" t="n">
-        <v>21.95</v>
+        <v>21.9473486473266</v>
       </c>
       <c r="C2064" s="3" t="n">
-        <v>23.98</v>
+        <v>23.9825143549827</v>
       </c>
       <c r="D2064" s="3" t="n">
-        <v>23.53</v>
+        <v>23.5254921259841</v>
       </c>
     </row>
     <row r="2065">
-      <c r="A2065" s="16"/>
+      <c r="A2065" s="16" t="n">
+        <v>44786</v>
+      </c>
       <c r="B2065" s="3" t="n">
-        <v>21.93</v>
+        <v>21.9296267490182</v>
       </c>
       <c r="C2065" s="3" t="n">
-        <v>23.99</v>
+        <v>23.9941269433379</v>
       </c>
       <c r="D2065" s="3" t="n">
-        <v>23.53</v>
+        <v>23.5262712011075</v>
       </c>
     </row>
     <row r="2066">
-      <c r="A2066" s="16"/>
+      <c r="A2066" s="16" t="n">
+        <v>44787</v>
+      </c>
       <c r="B2066" s="3" t="n">
-        <v>21.93</v>
+        <v>21.9275295577005</v>
       </c>
       <c r="C2066" s="3" t="n">
-        <v>24</v>
+        <v>23.9958426522825</v>
       </c>
       <c r="D2066" s="3" t="n">
-        <v>23.52</v>
+        <v>23.5206235748113</v>
       </c>
     </row>
     <row r="2067">
-      <c r="A2067" s="16"/>
+      <c r="A2067" s="16" t="n">
+        <v>44788</v>
+      </c>
       <c r="B2067" s="3" t="n">
-        <v>21.93</v>
+        <v>21.9257043407043</v>
       </c>
       <c r="C2067" s="3" t="n">
-        <v>24</v>
+        <v>24.0047266091572</v>
       </c>
       <c r="D2067" s="3" t="n">
-        <v>23.53</v>
+        <v>23.5270619733145</v>
       </c>
     </row>
     <row r="2068">
-      <c r="A2068" s="16"/>
+      <c r="A2068" s="16" t="n">
+        <v>44789</v>
+      </c>
       <c r="B2068" s="3" t="n">
-        <v>21.92</v>
+        <v>21.9195854774157</v>
       </c>
       <c r="C2068" s="3" t="n">
-        <v>24</v>
+        <v>23.9993927465151</v>
       </c>
       <c r="D2068" s="3" t="n">
-        <v>23.53</v>
+        <v>23.534660319094</v>
       </c>
     </row>
     <row r="2069">
-      <c r="A2069" s="16"/>
+      <c r="A2069" s="16" t="n">
+        <v>44790</v>
+      </c>
       <c r="B2069" s="3" t="n">
-        <v>21.92</v>
+        <v>21.9151694627069</v>
       </c>
       <c r="C2069" s="3" t="n">
-        <v>23.99</v>
+        <v>23.993475672215</v>
       </c>
       <c r="D2069" s="3" t="n">
-        <v>23.54</v>
+        <v>23.5359314227225</v>
       </c>
     </row>
     <row r="2070">
-      <c r="A2070" s="16"/>
+      <c r="A2070" s="16" t="n">
+        <v>44791</v>
+      </c>
       <c r="B2070" s="3" t="n">
-        <v>21.92</v>
+        <v>21.9215169626594</v>
       </c>
       <c r="C2070" s="3" t="n">
-        <v>24</v>
+        <v>24.002364995489</v>
       </c>
       <c r="D2070" s="3" t="n">
-        <v>23.53</v>
+        <v>23.5346629310344</v>
       </c>
     </row>
     <row r="2071">
-      <c r="A2071" s="16"/>
+      <c r="A2071" s="16" t="n">
+        <v>44792</v>
+      </c>
       <c r="B2071" s="3" t="n">
-        <v>21.91</v>
+        <v>21.9144144654802</v>
       </c>
       <c r="C2071" s="3" t="n">
-        <v>24.01</v>
+        <v>24.0107876800411</v>
       </c>
       <c r="D2071" s="3" t="n">
-        <v>23.54</v>
+        <v>23.5353204134366</v>
       </c>
     </row>
     <row r="2072">
-      <c r="A2072" s="16"/>
+      <c r="A2072" s="16" t="n">
+        <v>44793</v>
+      </c>
       <c r="B2072" s="3" t="n">
-        <v>21.92</v>
+        <v>21.9157821513405</v>
       </c>
       <c r="C2072" s="3" t="n">
-        <v>24.01</v>
+        <v>24.006225509028</v>
       </c>
       <c r="D2072" s="3" t="n">
-        <v>23.53</v>
+        <v>23.5326365653806</v>
       </c>
     </row>
     <row r="2073">
-      <c r="A2073" s="16"/>
+      <c r="A2073" s="16" t="n">
+        <v>44794</v>
+      </c>
       <c r="B2073" s="3" t="n">
-        <v>21.91</v>
+        <v>21.9131009037868</v>
       </c>
       <c r="C2073" s="3" t="n">
-        <v>24.01</v>
+        <v>24.0055787156913</v>
       </c>
       <c r="D2073" s="3" t="n">
-        <v>23.53</v>
+        <v>23.5300276290795</v>
       </c>
     </row>
     <row r="2074">
-      <c r="A2074" s="16"/>
+      <c r="A2074" s="16" t="n">
+        <v>44795</v>
+      </c>
       <c r="B2074" s="3" t="n">
-        <v>21.91</v>
+        <v>21.9140793832097</v>
       </c>
       <c r="C2074" s="3" t="n">
-        <v>24.01</v>
+        <v>24.0107010974821</v>
       </c>
       <c r="D2074" s="3" t="n">
-        <v>23.53</v>
+        <v>23.5348347676418</v>
       </c>
     </row>
     <row r="2075">
-      <c r="A2075" s="16"/>
+      <c r="A2075" s="16" t="n">
+        <v>44796</v>
+      </c>
       <c r="B2075" s="3" t="n">
-        <v>21.91</v>
+        <v>21.914142599278</v>
       </c>
       <c r="C2075" s="3" t="n">
-        <v>24.01</v>
+        <v>24.0115608297276</v>
       </c>
       <c r="D2075" s="3" t="n">
-        <v>23.54</v>
+        <v>23.5378074639524</v>
       </c>
     </row>
     <row r="2076">
-      <c r="A2076" s="16"/>
+      <c r="A2076" s="16" t="n">
+        <v>44797</v>
+      </c>
       <c r="B2076" s="3" t="n">
-        <v>21.92</v>
+        <v>21.9162798321532</v>
       </c>
       <c r="C2076" s="3" t="n">
-        <v>24.02</v>
+        <v>24.0159707144659</v>
       </c>
       <c r="D2076" s="3" t="n">
-        <v>23.54</v>
+        <v>23.5400507958008</v>
       </c>
     </row>
     <row r="2077">
-      <c r="A2077" s="16"/>
+      <c r="A2077" s="16" t="n">
+        <v>44798</v>
+      </c>
       <c r="B2077" s="3" t="n">
-        <v>21.92</v>
+        <v>21.9159041406692</v>
       </c>
       <c r="C2077" s="3" t="n">
-        <v>24.01</v>
+        <v>24.0100900958465</v>
       </c>
       <c r="D2077" s="3" t="n">
-        <v>23.53</v>
+        <v>23.5328816362053</v>
       </c>
     </row>
     <row r="2078">
-      <c r="A2078" s="16"/>
+      <c r="A2078" s="16" t="n">
+        <v>44799</v>
+      </c>
       <c r="B2078" s="3" t="n">
-        <v>21.9</v>
+        <v>21.8997449846989</v>
       </c>
       <c r="C2078" s="3" t="n">
-        <v>24</v>
+        <v>24.0049279875438</v>
       </c>
       <c r="D2078" s="3" t="n">
-        <v>23.54</v>
+        <v>23.5381967213114</v>
       </c>
     </row>
     <row r="2079">
-      <c r="A2079" s="16"/>
+      <c r="A2079" s="16" t="n">
+        <v>44800</v>
+      </c>
       <c r="B2079" s="3" t="n">
-        <v>21.88</v>
+        <v>21.8832739307534</v>
       </c>
       <c r="C2079" s="3" t="n">
-        <v>24</v>
+        <v>23.9991116129032</v>
       </c>
       <c r="D2079" s="3" t="n">
-        <v>23.54</v>
+        <v>23.5398777719574</v>
       </c>
     </row>
     <row r="2080">
-      <c r="A2080" s="16"/>
+      <c r="A2080" s="16" t="n">
+        <v>44801</v>
+      </c>
       <c r="B2080" s="3" t="n">
-        <v>21.87</v>
+        <v>21.8679323006309</v>
       </c>
       <c r="C2080" s="3" t="n">
-        <v>24</v>
+        <v>23.9973653946681</v>
       </c>
       <c r="D2080" s="3" t="n">
-        <v>23.53</v>
+        <v>23.5340334044065</v>
       </c>
     </row>
     <row r="2081">
-      <c r="A2081" s="16"/>
+      <c r="A2081" s="16" t="n">
+        <v>44802</v>
+      </c>
       <c r="B2081" s="3" t="n">
-        <v>21.86</v>
+        <v>21.8563377167459</v>
       </c>
       <c r="C2081" s="3" t="n">
-        <v>24</v>
+        <v>23.9995545657016</v>
       </c>
       <c r="D2081" s="3" t="n">
-        <v>23.54</v>
+        <v>23.5372283774124</v>
       </c>
     </row>
     <row r="2082">
-      <c r="A2082" s="16"/>
+      <c r="A2082" s="16" t="n">
+        <v>44803</v>
+      </c>
       <c r="B2082" s="3" t="n">
-        <v>21.84</v>
+        <v>21.8385178470254</v>
       </c>
       <c r="C2082" s="3" t="n">
-        <v>24</v>
+        <v>24.0015306518365</v>
       </c>
       <c r="D2082" s="3" t="n">
-        <v>23.54</v>
+        <v>23.5404269149683</v>
       </c>
     </row>
     <row r="2083">
-      <c r="A2083" s="16"/>
+      <c r="A2083" s="16" t="n">
+        <v>44804</v>
+      </c>
       <c r="B2083" s="3" t="n">
-        <v>21.83</v>
+        <v>21.8328976440086</v>
       </c>
       <c r="C2083" s="3" t="n">
-        <v>24</v>
+        <v>24.0049902774177</v>
       </c>
       <c r="D2083" s="3" t="n">
-        <v>23.54</v>
+        <v>23.5434143985953</v>
       </c>
     </row>
     <row r="2084">
-      <c r="A2084" s="6"/>
-      <c r="B2084" s="3"/>
-      <c r="C2084" s="3"/>
-      <c r="D2084" s="3"/>
+      <c r="A2084" s="16" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B2084" s="3" t="n">
+        <v>21.7855582996557</v>
+      </c>
+      <c r="C2084" s="3" t="n">
+        <v>23.991697104096</v>
+      </c>
+      <c r="D2084" s="3" t="n">
+        <v>23.5436465108104</v>
+      </c>
     </row>
     <row r="2085">
-      <c r="A2085" s="6"/>
-      <c r="B2085" s="3"/>
-      <c r="C2085" s="3"/>
-      <c r="D2085" s="3"/>
+      <c r="A2085" s="16" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B2085" s="3" t="n">
+        <v>21.7235407440212</v>
+      </c>
+      <c r="C2085" s="3" t="n">
+        <v>23.9695698439315</v>
+      </c>
+      <c r="D2085" s="3" t="n">
+        <v>23.5444540483331</v>
+      </c>
     </row>
     <row r="2086">
-      <c r="A2086" s="6"/>
-      <c r="B2086" s="3"/>
-      <c r="C2086" s="3"/>
-      <c r="D2086" s="3"/>
+      <c r="A2086" s="16" t="n">
+        <v>44807</v>
+      </c>
+      <c r="B2086" s="3" t="n">
+        <v>21.6971940974908</v>
+      </c>
+      <c r="C2086" s="3" t="n">
+        <v>23.9365423308076</v>
+      </c>
+      <c r="D2086" s="3" t="n">
+        <v>23.5394952821792</v>
+      </c>
     </row>
     <row r="2087">
-      <c r="A2087" s="6"/>
-      <c r="B2087" s="3"/>
-      <c r="C2087" s="3"/>
-      <c r="D2087" s="3"/>
+      <c r="A2087" s="16" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B2087" s="3" t="n">
+        <v>21.6873335183129</v>
+      </c>
+      <c r="C2087" s="3" t="n">
+        <v>23.9296933650544</v>
+      </c>
+      <c r="D2087" s="3" t="n">
+        <v>23.5395591417239</v>
+      </c>
     </row>
     <row r="2088">
-      <c r="A2088" s="6"/>
-      <c r="B2088" s="3"/>
-      <c r="C2088" s="3"/>
-      <c r="D2088" s="3"/>
+      <c r="A2088" s="16" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B2088" s="3" t="n">
+        <v>21.6719860434204</v>
+      </c>
+      <c r="C2088" s="3" t="n">
+        <v>23.9223986546293</v>
+      </c>
+      <c r="D2088" s="3" t="n">
+        <v>23.5430273578115</v>
+      </c>
     </row>
     <row r="2089">
-      <c r="A2089" s="6"/>
-      <c r="B2089" s="3"/>
-      <c r="C2089" s="3"/>
-      <c r="D2089" s="3"/>
+      <c r="A2089" s="16" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B2089" s="3" t="n">
+        <v>21.673288969219</v>
+      </c>
+      <c r="C2089" s="3" t="n">
+        <v>23.9226006029624</v>
+      </c>
+      <c r="D2089" s="3" t="n">
+        <v>23.5449052426497</v>
+      </c>
     </row>
     <row r="2090">
-      <c r="A2090" s="6"/>
-      <c r="B2090" s="3"/>
-      <c r="C2090" s="3"/>
-      <c r="D2090" s="3"/>
+      <c r="A2090" s="16" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B2090" s="3" t="n">
+        <v>21.6697513872267</v>
+      </c>
+      <c r="C2090" s="3" t="n">
+        <v>23.9115583908345</v>
+      </c>
+      <c r="D2090" s="3" t="n">
+        <v>23.5431764705883</v>
+      </c>
     </row>
     <row r="2091">
-      <c r="A2091" s="6"/>
-      <c r="B2091" s="3"/>
-      <c r="C2091" s="3"/>
-      <c r="D2091" s="3"/>
+      <c r="A2091" s="16" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B2091" s="3" t="n">
+        <v>21.659314276451</v>
+      </c>
+      <c r="C2091" s="3" t="n">
+        <v>23.9021543177667</v>
+      </c>
+      <c r="D2091" s="3" t="n">
+        <v>23.5441732699419</v>
+      </c>
     </row>
     <row r="2092">
-      <c r="A2092" s="6"/>
-      <c r="B2092" s="3"/>
-      <c r="C2092" s="3"/>
-      <c r="D2092" s="3"/>
+      <c r="A2092" s="16" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B2092" s="3" t="n">
+        <v>21.6477931552409</v>
+      </c>
+      <c r="C2092" s="3" t="n">
+        <v>23.9153914462528</v>
+      </c>
+      <c r="D2092" s="3" t="n">
+        <v>23.5490442212826</v>
+      </c>
     </row>
     <row r="2093">
-      <c r="A2093" s="6"/>
-      <c r="B2093" s="3"/>
-      <c r="C2093" s="3"/>
-      <c r="D2093" s="3"/>
+      <c r="A2093" s="16" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B2093" s="3" t="n">
+        <v>21.6353174603175</v>
+      </c>
+      <c r="C2093" s="3" t="n">
+        <v>23.9219311903565</v>
+      </c>
+      <c r="D2093" s="3" t="n">
+        <v>23.5466610589694</v>
+      </c>
     </row>
     <row r="2094">
-      <c r="A2094" s="6"/>
-      <c r="B2094" s="3"/>
-      <c r="C2094" s="3"/>
-      <c r="D2094" s="3"/>
+      <c r="A2094" s="16" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B2094" s="3" t="n">
+        <v>21.633040211869</v>
+      </c>
+      <c r="C2094" s="3" t="n">
+        <v>23.9191845821141</v>
+      </c>
+      <c r="D2094" s="3" t="n">
+        <v>23.5493367894173</v>
+      </c>
     </row>
     <row r="2095">
-      <c r="A2095" s="6"/>
-      <c r="B2095" s="3"/>
-      <c r="C2095" s="3"/>
-      <c r="D2095" s="3"/>
+      <c r="A2095" s="16" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B2095" s="3" t="n">
+        <v>21.6292651606098</v>
+      </c>
+      <c r="C2095" s="3" t="n">
+        <v>23.9273395204949</v>
+      </c>
+      <c r="D2095" s="3" t="n">
+        <v>23.5584547896152</v>
+      </c>
     </row>
     <row r="2096">
-      <c r="A2096" s="6"/>
-      <c r="B2096" s="3"/>
-      <c r="C2096" s="3"/>
-      <c r="D2096" s="3"/>
+      <c r="A2096" s="16" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B2096" s="3" t="n">
+        <v>21.6325259123302</v>
+      </c>
+      <c r="C2096" s="3" t="n">
+        <v>23.9514043445122</v>
+      </c>
+      <c r="D2096" s="3" t="n">
+        <v>23.5635523071504</v>
+      </c>
     </row>
     <row r="2097">
-      <c r="A2097" s="6"/>
-      <c r="B2097" s="3"/>
-      <c r="C2097" s="3"/>
-      <c r="D2097" s="3"/>
+      <c r="A2097" s="16" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B2097" s="3" t="n">
+        <v>21.636522923612</v>
+      </c>
+      <c r="C2097" s="3" t="n">
+        <v>23.9695911909885</v>
+      </c>
+      <c r="D2097" s="3" t="n">
+        <v>23.5697443082312</v>
+      </c>
     </row>
     <row r="2098">
-      <c r="A2098" s="6"/>
-      <c r="B2098" s="3"/>
-      <c r="C2098" s="3"/>
-      <c r="D2098" s="3"/>
+      <c r="A2098" s="16" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B2098" s="3" t="n">
+        <v>21.6656453405021</v>
+      </c>
+      <c r="C2098" s="3" t="n">
+        <v>23.9884374208261</v>
+      </c>
+      <c r="D2098" s="3" t="n">
+        <v>23.5768672162779</v>
+      </c>
     </row>
     <row r="2099">
-      <c r="A2099" s="6"/>
-      <c r="B2099" s="3"/>
-      <c r="C2099" s="3"/>
-      <c r="D2099" s="3"/>
+      <c r="A2099" s="16" t="n">
+        <v>44820</v>
+      </c>
+      <c r="B2099" s="3" t="n">
+        <v>21.6966231148546</v>
+      </c>
+      <c r="C2099" s="3" t="n">
+        <v>24.0002056701686</v>
+      </c>
+      <c r="D2099" s="3" t="n">
+        <v>23.586078034173</v>
+      </c>
     </row>
     <row r="2100">
-      <c r="A2100" s="6"/>
-      <c r="B2100" s="3"/>
-      <c r="C2100" s="3"/>
-      <c r="D2100" s="3"/>
+      <c r="A2100" s="16" t="n">
+        <v>44821</v>
+      </c>
+      <c r="B2100" s="3" t="n">
+        <v>21.7094054073594</v>
+      </c>
+      <c r="C2100" s="3" t="n">
+        <v>24.0013485794371</v>
+      </c>
+      <c r="D2100" s="3" t="n">
+        <v>23.58611199858</v>
+      </c>
     </row>
     <row r="2101">
-      <c r="A2101" s="6"/>
-      <c r="B2101" s="3"/>
-      <c r="C2101" s="3"/>
-      <c r="D2101" s="3"/>
+      <c r="A2101" s="16" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B2101" s="3" t="n">
+        <v>21.7104189445297</v>
+      </c>
+      <c r="C2101" s="3" t="n">
+        <v>24.0078677696552</v>
+      </c>
+      <c r="D2101" s="3" t="n">
+        <v>23.5856238763036</v>
+      </c>
     </row>
     <row r="2102">
-      <c r="A2102" s="6"/>
-      <c r="B2102" s="3"/>
-      <c r="C2102" s="3"/>
-      <c r="D2102" s="3"/>
+      <c r="A2102" s="16" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B2102" s="3" t="n">
+        <v>21.711189874808</v>
+      </c>
+      <c r="C2102" s="3" t="n">
+        <v>24.0070803341905</v>
+      </c>
+      <c r="D2102" s="3" t="n">
+        <v>23.5859889911569</v>
+      </c>
     </row>
     <row r="2103">
-      <c r="A2103" s="6"/>
-      <c r="B2103" s="3"/>
-      <c r="C2103" s="3"/>
-      <c r="D2103" s="3"/>
+      <c r="A2103" s="16" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B2103" s="3" t="n">
+        <v>21.712753725661</v>
+      </c>
+      <c r="C2103" s="3" t="n">
+        <v>23.9976405494787</v>
+      </c>
+      <c r="D2103" s="3" t="n">
+        <v>23.5877570259694</v>
+      </c>
     </row>
     <row r="2104">
-      <c r="A2104" s="6"/>
-      <c r="B2104" s="3"/>
-      <c r="C2104" s="3"/>
-      <c r="D2104" s="3"/>
+      <c r="A2104" s="16" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B2104" s="3" t="n">
+        <v>21.7143634849967</v>
+      </c>
+      <c r="C2104" s="3" t="n">
+        <v>23.992933544304</v>
+      </c>
+      <c r="D2104" s="3" t="n">
+        <v>23.5877177362483</v>
+      </c>
     </row>
     <row r="2105">
-      <c r="A2105" s="6"/>
-      <c r="B2105" s="3"/>
-      <c r="C2105" s="3"/>
-      <c r="D2105" s="3"/>
+      <c r="A2105" s="16" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B2105" s="3" t="n">
+        <v>21.7212216063472</v>
+      </c>
+      <c r="C2105" s="3" t="n">
+        <v>23.9930087541235</v>
+      </c>
+      <c r="D2105" s="3" t="n">
+        <v>23.5832705509594</v>
+      </c>
     </row>
     <row r="2106">
-      <c r="A2106" s="6"/>
-      <c r="B2106" s="3"/>
-      <c r="C2106" s="3"/>
-      <c r="D2106" s="3"/>
+      <c r="A2106" s="16" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B2106" s="3" t="n">
+        <v>21.7302494553378</v>
+      </c>
+      <c r="C2106" s="3" t="n">
+        <v>23.9986914460286</v>
+      </c>
+      <c r="D2106" s="3" t="n">
+        <v>23.588124559549</v>
+      </c>
     </row>
     <row r="2107">
-      <c r="A2107" s="6"/>
-      <c r="B2107" s="3"/>
-      <c r="C2107" s="3"/>
-      <c r="D2107" s="3"/>
+      <c r="A2107" s="16" t="n">
+        <v>44828</v>
+      </c>
+      <c r="B2107" s="3" t="n">
+        <v>21.7269979228163</v>
+      </c>
+      <c r="C2107" s="3" t="n">
+        <v>24.0092202592783</v>
+      </c>
+      <c r="D2107" s="3" t="n">
+        <v>23.5853281887529</v>
+      </c>
     </row>
     <row r="2108">
-      <c r="A2108" s="6"/>
-      <c r="B2108" s="3"/>
-      <c r="C2108" s="3"/>
-      <c r="D2108" s="3"/>
+      <c r="A2108" s="16" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B2108" s="3" t="n">
+        <v>21.7238668727234</v>
+      </c>
+      <c r="C2108" s="3" t="n">
+        <v>24.0087892838745</v>
+      </c>
+      <c r="D2108" s="3" t="n">
+        <v>23.5839763281533</v>
+      </c>
     </row>
     <row r="2109">
-      <c r="A2109" s="6"/>
-      <c r="B2109" s="3"/>
-      <c r="C2109" s="3"/>
-      <c r="D2109" s="3"/>
+      <c r="A2109" s="16" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B2109" s="3" t="n">
+        <v>21.7297564130999</v>
+      </c>
+      <c r="C2109" s="3" t="n">
+        <v>24.0132500967869</v>
+      </c>
+      <c r="D2109" s="3" t="n">
+        <v>23.586301407421</v>
+      </c>
     </row>
     <row r="2110">
-      <c r="A2110" s="6"/>
-      <c r="B2110" s="3"/>
-      <c r="C2110" s="3"/>
-      <c r="D2110" s="3"/>
+      <c r="A2110" s="16" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B2110" s="3" t="n">
+        <v>21.7186407963496</v>
+      </c>
+      <c r="C2110" s="3" t="n">
+        <v>24.0215531698643</v>
+      </c>
+      <c r="D2110" s="3" t="n">
+        <v>23.5897145915092</v>
+      </c>
     </row>
     <row r="2111">
-      <c r="A2111" s="6"/>
-      <c r="B2111" s="3"/>
-      <c r="C2111" s="3"/>
-      <c r="D2111" s="3"/>
+      <c r="A2111" s="16" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B2111" s="3" t="n">
+        <v>21.7105984081575</v>
+      </c>
+      <c r="C2111" s="3" t="n">
+        <v>24.0317302331477</v>
+      </c>
+      <c r="D2111" s="3" t="n">
+        <v>23.592745220654</v>
+      </c>
     </row>
     <row r="2112">
-      <c r="A2112" s="6"/>
-      <c r="B2112" s="3"/>
-      <c r="C2112" s="3"/>
-      <c r="D2112" s="3"/>
+      <c r="A2112" s="16" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B2112" s="3" t="n">
+        <v>21.7256952244616</v>
+      </c>
+      <c r="C2112" s="3" t="n">
+        <v>24.0384439098507</v>
+      </c>
+      <c r="D2112" s="3" t="n">
+        <v>23.5970518783543</v>
+      </c>
     </row>
     <row r="2113">
-      <c r="A2113" s="6"/>
-      <c r="B2113" s="3"/>
-      <c r="C2113" s="3"/>
-      <c r="D2113" s="3"/>
+      <c r="A2113" s="16" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B2113" s="3" t="n">
+        <v>21.7377381601428</v>
+      </c>
+      <c r="C2113" s="3" t="n">
+        <v>24.0435665252124</v>
+      </c>
+      <c r="D2113" s="3" t="n">
+        <v>23.5976663669066</v>
+      </c>
     </row>
     <row r="2114">
       <c r="A2114" s="6"/>
@@ -41536,33 +41838,47 @@
         <v>1422</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>22.51</v>
+        <v>22.5147287524856</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>21.931935483871</v>
+        <v>21.9313790013529</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>24.69</v>
+        <v>24.694919253943</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>23.9925806451613</v>
+        <v>23.9932099296949</v>
       </c>
       <c r="G83" s="3" t="n">
-        <v>23.74</v>
+        <v>23.738189488514</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>23.5287096774193</v>
+        <v>23.5290557557593</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>22.1771154864642</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>21.6942532303975</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>24.6451019147556</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>23.9748274810343</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>23.7785382687134</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>23.5693184923224</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - septiembre 2022</t>
+    <t xml:space="preserve">enero 2017 - octubre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: octubre 2022</t>
+    <t xml:space="preserve">Próxima actualización: noviembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">septiembre 2022</t>
+    <t xml:space="preserve">octubre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -34355,190 +34355,376 @@
       </c>
     </row>
     <row r="2114">
-      <c r="A2114" s="6"/>
-      <c r="B2114" s="3"/>
-      <c r="C2114" s="3"/>
-      <c r="D2114" s="3"/>
+      <c r="A2114" s="16"/>
+      <c r="B2114" s="3" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="C2114" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2114" s="3" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="2115">
-      <c r="A2115" s="6"/>
-      <c r="B2115" s="3"/>
-      <c r="C2115" s="3"/>
-      <c r="D2115" s="3"/>
+      <c r="A2115" s="16"/>
+      <c r="B2115" s="3" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="C2115" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2115" s="3" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="2116">
-      <c r="A2116" s="6"/>
-      <c r="B2116" s="3"/>
-      <c r="C2116" s="3"/>
-      <c r="D2116" s="3"/>
+      <c r="A2116" s="16"/>
+      <c r="B2116" s="3" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="C2116" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2116" s="3" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="2117">
-      <c r="A2117" s="6"/>
-      <c r="B2117" s="3"/>
-      <c r="C2117" s="3"/>
-      <c r="D2117" s="3"/>
+      <c r="A2117" s="16"/>
+      <c r="B2117" s="3" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C2117" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2117" s="3" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="2118">
-      <c r="A2118" s="6"/>
-      <c r="B2118" s="3"/>
-      <c r="C2118" s="3"/>
-      <c r="D2118" s="3"/>
+      <c r="A2118" s="16"/>
+      <c r="B2118" s="3" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="C2118" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2118" s="3" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="2119">
-      <c r="A2119" s="6"/>
-      <c r="B2119" s="3"/>
-      <c r="C2119" s="3"/>
-      <c r="D2119" s="3"/>
+      <c r="A2119" s="16"/>
+      <c r="B2119" s="3" t="n">
+        <v>21.83</v>
+      </c>
+      <c r="C2119" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2119" s="3" t="n">
+        <v>23.62</v>
+      </c>
     </row>
     <row r="2120">
-      <c r="A2120" s="6"/>
-      <c r="B2120" s="3"/>
-      <c r="C2120" s="3"/>
-      <c r="D2120" s="3"/>
+      <c r="A2120" s="16"/>
+      <c r="B2120" s="3" t="n">
+        <v>21.84</v>
+      </c>
+      <c r="C2120" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2120" s="3" t="n">
+        <v>23.62</v>
+      </c>
     </row>
     <row r="2121">
-      <c r="A2121" s="6"/>
-      <c r="B2121" s="3"/>
-      <c r="C2121" s="3"/>
-      <c r="D2121" s="3"/>
+      <c r="A2121" s="16"/>
+      <c r="B2121" s="3" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="C2121" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2121" s="3" t="n">
+        <v>23.62</v>
+      </c>
     </row>
     <row r="2122">
-      <c r="A2122" s="6"/>
-      <c r="B2122" s="3"/>
-      <c r="C2122" s="3"/>
-      <c r="D2122" s="3"/>
+      <c r="A2122" s="16"/>
+      <c r="B2122" s="3" t="n">
+        <v>21.85</v>
+      </c>
+      <c r="C2122" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2122" s="3" t="n">
+        <v>23.63</v>
+      </c>
     </row>
     <row r="2123">
-      <c r="A2123" s="6"/>
-      <c r="B2123" s="3"/>
-      <c r="C2123" s="3"/>
-      <c r="D2123" s="3"/>
+      <c r="A2123" s="16"/>
+      <c r="B2123" s="3" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="C2123" s="3" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="D2123" s="3" t="n">
+        <v>23.63</v>
+      </c>
     </row>
     <row r="2124">
-      <c r="A2124" s="6"/>
-      <c r="B2124" s="3"/>
-      <c r="C2124" s="3"/>
-      <c r="D2124" s="3"/>
+      <c r="A2124" s="16"/>
+      <c r="B2124" s="3" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="C2124" s="3" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D2124" s="3" t="n">
+        <v>23.63</v>
+      </c>
     </row>
     <row r="2125">
-      <c r="A2125" s="6"/>
-      <c r="B2125" s="3"/>
-      <c r="C2125" s="3"/>
-      <c r="D2125" s="3"/>
+      <c r="A2125" s="16"/>
+      <c r="B2125" s="3" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="C2125" s="3" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="D2125" s="3" t="n">
+        <v>23.64</v>
+      </c>
     </row>
     <row r="2126">
-      <c r="A2126" s="6"/>
-      <c r="B2126" s="3"/>
-      <c r="C2126" s="3"/>
-      <c r="D2126" s="3"/>
+      <c r="A2126" s="16"/>
+      <c r="B2126" s="3" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="C2126" s="3" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="D2126" s="3" t="n">
+        <v>23.64</v>
+      </c>
     </row>
     <row r="2127">
-      <c r="A2127" s="6"/>
-      <c r="B2127" s="3"/>
-      <c r="C2127" s="3"/>
-      <c r="D2127" s="3"/>
+      <c r="A2127" s="16"/>
+      <c r="B2127" s="3" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C2127" s="3" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="D2127" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2128">
-      <c r="A2128" s="6"/>
-      <c r="B2128" s="3"/>
-      <c r="C2128" s="3"/>
-      <c r="D2128" s="3"/>
+      <c r="A2128" s="16"/>
+      <c r="B2128" s="3" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C2128" s="3" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D2128" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2129">
-      <c r="A2129" s="6"/>
-      <c r="B2129" s="3"/>
-      <c r="C2129" s="3"/>
-      <c r="D2129" s="3"/>
+      <c r="A2129" s="16"/>
+      <c r="B2129" s="3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="C2129" s="3" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="D2129" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2130">
-      <c r="A2130" s="6"/>
-      <c r="B2130" s="3"/>
-      <c r="C2130" s="3"/>
-      <c r="D2130" s="3"/>
+      <c r="A2130" s="16"/>
+      <c r="B2130" s="3" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="C2130" s="3" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="D2130" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2131">
-      <c r="A2131" s="6"/>
-      <c r="B2131" s="3"/>
-      <c r="C2131" s="3"/>
-      <c r="D2131" s="3"/>
+      <c r="A2131" s="16"/>
+      <c r="B2131" s="3" t="n">
+        <v>21.92</v>
+      </c>
+      <c r="C2131" s="3" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="D2131" s="3" t="n">
+        <v>23.66</v>
+      </c>
     </row>
     <row r="2132">
-      <c r="A2132" s="6"/>
-      <c r="B2132" s="3"/>
-      <c r="C2132" s="3"/>
-      <c r="D2132" s="3"/>
+      <c r="A2132" s="16"/>
+      <c r="B2132" s="3" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C2132" s="3" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="D2132" s="3" t="n">
+        <v>23.66</v>
+      </c>
     </row>
     <row r="2133">
-      <c r="A2133" s="6"/>
-      <c r="B2133" s="3"/>
-      <c r="C2133" s="3"/>
-      <c r="D2133" s="3"/>
+      <c r="A2133" s="16"/>
+      <c r="B2133" s="3" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="C2133" s="3" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D2133" s="3" t="n">
+        <v>23.66</v>
+      </c>
     </row>
     <row r="2134">
-      <c r="A2134" s="6"/>
-      <c r="B2134" s="3"/>
-      <c r="C2134" s="3"/>
-      <c r="D2134" s="3"/>
+      <c r="A2134" s="16"/>
+      <c r="B2134" s="3" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="C2134" s="3" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D2134" s="3" t="n">
+        <v>23.66</v>
+      </c>
     </row>
     <row r="2135">
-      <c r="A2135" s="6"/>
-      <c r="B2135" s="3"/>
-      <c r="C2135" s="3"/>
-      <c r="D2135" s="3"/>
+      <c r="A2135" s="16"/>
+      <c r="B2135" s="3" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C2135" s="3" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D2135" s="3" t="n">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="2136">
-      <c r="A2136" s="6"/>
-      <c r="B2136" s="3"/>
-      <c r="C2136" s="3"/>
-      <c r="D2136" s="3"/>
+      <c r="A2136" s="16"/>
+      <c r="B2136" s="3" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C2136" s="3" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D2136" s="3" t="n">
+        <v>23.66</v>
+      </c>
     </row>
     <row r="2137">
-      <c r="A2137" s="6"/>
-      <c r="B2137" s="3"/>
-      <c r="C2137" s="3"/>
-      <c r="D2137" s="3"/>
+      <c r="A2137" s="16"/>
+      <c r="B2137" s="3" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="C2137" s="3" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D2137" s="3" t="n">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="2138">
-      <c r="A2138" s="6"/>
-      <c r="B2138" s="3"/>
-      <c r="C2138" s="3"/>
-      <c r="D2138" s="3"/>
+      <c r="A2138" s="16"/>
+      <c r="B2138" s="3" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="C2138" s="3" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D2138" s="3" t="n">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="2139">
-      <c r="A2139" s="6"/>
-      <c r="B2139" s="3"/>
-      <c r="C2139" s="3"/>
-      <c r="D2139" s="3"/>
+      <c r="A2139" s="16"/>
+      <c r="B2139" s="3" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C2139" s="3" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D2139" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2140">
-      <c r="A2140" s="6"/>
-      <c r="B2140" s="3"/>
-      <c r="C2140" s="3"/>
-      <c r="D2140" s="3"/>
+      <c r="A2140" s="16"/>
+      <c r="B2140" s="3" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="C2140" s="3" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D2140" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2141">
-      <c r="A2141" s="6"/>
-      <c r="B2141" s="3"/>
-      <c r="C2141" s="3"/>
-      <c r="D2141" s="3"/>
+      <c r="A2141" s="16"/>
+      <c r="B2141" s="3" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="C2141" s="3" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D2141" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2142">
-      <c r="A2142" s="6"/>
-      <c r="B2142" s="3"/>
-      <c r="C2142" s="3"/>
-      <c r="D2142" s="3"/>
+      <c r="A2142" s="16"/>
+      <c r="B2142" s="3" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="C2142" s="3" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D2142" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2143">
-      <c r="A2143" s="6"/>
-      <c r="B2143" s="3"/>
-      <c r="C2143" s="3"/>
-      <c r="D2143" s="3"/>
+      <c r="A2143" s="16"/>
+      <c r="B2143" s="3" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="C2143" s="3" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D2143" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2144">
-      <c r="A2144" s="6"/>
-      <c r="B2144" s="3"/>
-      <c r="C2144" s="3"/>
-      <c r="D2144" s="3"/>
+      <c r="A2144" s="16"/>
+      <c r="B2144" s="3" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="C2144" s="3" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="D2144" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2145">
       <c r="A2145" s="6"/>
@@ -41882,13 +42068,27 @@
     </row>
     <row r="85">
       <c r="A85" s="6"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>21.8935483870968</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>24.1367741935484</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>23.6458064516129</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - octubre 2022</t>
+    <t xml:space="preserve">enero 2017 - noviembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: noviembre 2022</t>
+    <t xml:space="preserve">Próxima actualización: enero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">octubre 2022</t>
+    <t xml:space="preserve">noviembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -34355,556 +34355,858 @@
       </c>
     </row>
     <row r="2114">
-      <c r="A2114" s="16"/>
+      <c r="A2114" s="16" t="n">
+        <v>44835</v>
+      </c>
       <c r="B2114" s="3" t="n">
-        <v>21.75</v>
+        <v>21.7538673608132</v>
       </c>
       <c r="C2114" s="3" t="n">
-        <v>24.05</v>
+        <v>24.047705925744</v>
       </c>
       <c r="D2114" s="3" t="n">
-        <v>23.6</v>
+        <v>23.602305911681</v>
       </c>
     </row>
     <row r="2115">
-      <c r="A2115" s="16"/>
+      <c r="A2115" s="16" t="n">
+        <v>44836</v>
+      </c>
       <c r="B2115" s="3" t="n">
-        <v>21.76</v>
+        <v>21.75757621731</v>
       </c>
       <c r="C2115" s="3" t="n">
-        <v>24.05</v>
+        <v>24.0475853295273</v>
       </c>
       <c r="D2115" s="3" t="n">
-        <v>23.6</v>
+        <v>23.6040028823636</v>
       </c>
     </row>
     <row r="2116">
-      <c r="A2116" s="16"/>
+      <c r="A2116" s="16" t="n">
+        <v>44837</v>
+      </c>
       <c r="B2116" s="3" t="n">
-        <v>21.78</v>
+        <v>21.7839297920305</v>
       </c>
       <c r="C2116" s="3" t="n">
-        <v>24.05</v>
+        <v>24.0497613143214</v>
       </c>
       <c r="D2116" s="3" t="n">
-        <v>23.6</v>
+        <v>23.6044132973946</v>
       </c>
     </row>
     <row r="2117">
-      <c r="A2117" s="16"/>
+      <c r="A2117" s="16" t="n">
+        <v>44838</v>
+      </c>
       <c r="B2117" s="3" t="n">
-        <v>21.8</v>
+        <v>21.7963029976668</v>
       </c>
       <c r="C2117" s="3" t="n">
-        <v>24.05</v>
+        <v>24.0549223906137</v>
       </c>
       <c r="D2117" s="3" t="n">
-        <v>23.6</v>
+        <v>23.6041492748497</v>
       </c>
     </row>
     <row r="2118">
-      <c r="A2118" s="16"/>
+      <c r="A2118" s="16" t="n">
+        <v>44839</v>
+      </c>
       <c r="B2118" s="3" t="n">
-        <v>21.81</v>
+        <v>21.8136423120814</v>
       </c>
       <c r="C2118" s="3" t="n">
-        <v>24.07</v>
+        <v>24.0654871670116</v>
       </c>
       <c r="D2118" s="3" t="n">
-        <v>23.6</v>
+        <v>23.6044606028557</v>
       </c>
     </row>
     <row r="2119">
-      <c r="A2119" s="16"/>
+      <c r="A2119" s="16" t="n">
+        <v>44840</v>
+      </c>
       <c r="B2119" s="3" t="n">
-        <v>21.83</v>
+        <v>21.8285189313518</v>
       </c>
       <c r="C2119" s="3" t="n">
-        <v>24.08</v>
+        <v>24.0771406155704</v>
       </c>
       <c r="D2119" s="3" t="n">
-        <v>23.62</v>
+        <v>23.6156690976444</v>
       </c>
     </row>
     <row r="2120">
-      <c r="A2120" s="16"/>
+      <c r="A2120" s="16" t="n">
+        <v>44841</v>
+      </c>
       <c r="B2120" s="3" t="n">
-        <v>21.84</v>
+        <v>21.8423628225382</v>
       </c>
       <c r="C2120" s="3" t="n">
-        <v>24.08</v>
+        <v>24.0825294117649</v>
       </c>
       <c r="D2120" s="3" t="n">
-        <v>23.62</v>
+        <v>23.6198614457833</v>
       </c>
     </row>
     <row r="2121">
-      <c r="A2121" s="16"/>
+      <c r="A2121" s="16" t="n">
+        <v>44842</v>
+      </c>
       <c r="B2121" s="3" t="n">
-        <v>21.85</v>
+        <v>21.8486702799411</v>
       </c>
       <c r="C2121" s="3" t="n">
-        <v>24.08</v>
+        <v>24.0846520541384</v>
       </c>
       <c r="D2121" s="3" t="n">
-        <v>23.62</v>
+        <v>23.6241244002743</v>
       </c>
     </row>
     <row r="2122">
-      <c r="A2122" s="16"/>
+      <c r="A2122" s="16" t="n">
+        <v>44843</v>
+      </c>
       <c r="B2122" s="3" t="n">
-        <v>21.85</v>
+        <v>21.8487115262153</v>
       </c>
       <c r="C2122" s="3" t="n">
-        <v>24.08</v>
+        <v>24.0835751389226</v>
       </c>
       <c r="D2122" s="3" t="n">
-        <v>23.63</v>
+        <v>23.6273026886385</v>
       </c>
     </row>
     <row r="2123">
-      <c r="A2123" s="16"/>
+      <c r="A2123" s="16" t="n">
+        <v>44844</v>
+      </c>
       <c r="B2123" s="3" t="n">
-        <v>21.86</v>
+        <v>21.8597120696983</v>
       </c>
       <c r="C2123" s="3" t="n">
-        <v>24.09</v>
+        <v>24.0936036526368</v>
       </c>
       <c r="D2123" s="3" t="n">
-        <v>23.63</v>
+        <v>23.6319795281056</v>
       </c>
     </row>
     <row r="2124">
-      <c r="A2124" s="16"/>
+      <c r="A2124" s="16" t="n">
+        <v>44845</v>
+      </c>
       <c r="B2124" s="3" t="n">
-        <v>21.87</v>
+        <v>21.8718088004192</v>
       </c>
       <c r="C2124" s="3" t="n">
-        <v>24.1</v>
+        <v>24.0986870482287</v>
       </c>
       <c r="D2124" s="3" t="n">
-        <v>23.63</v>
+        <v>23.6324315126767</v>
       </c>
     </row>
     <row r="2125">
-      <c r="A2125" s="16"/>
+      <c r="A2125" s="16" t="n">
+        <v>44846</v>
+      </c>
       <c r="B2125" s="3" t="n">
-        <v>21.89</v>
+        <v>21.8858616756535</v>
       </c>
       <c r="C2125" s="3" t="n">
-        <v>24.11</v>
+        <v>24.1128447870089</v>
       </c>
       <c r="D2125" s="3" t="n">
-        <v>23.64</v>
+        <v>23.6403067896062</v>
       </c>
     </row>
     <row r="2126">
-      <c r="A2126" s="16"/>
+      <c r="A2126" s="16" t="n">
+        <v>44847</v>
+      </c>
       <c r="B2126" s="3" t="n">
-        <v>21.9</v>
+        <v>21.9041437467568</v>
       </c>
       <c r="C2126" s="3" t="n">
-        <v>24.13</v>
+        <v>24.1265466302804</v>
       </c>
       <c r="D2126" s="3" t="n">
-        <v>23.64</v>
+        <v>23.6447526827635</v>
       </c>
     </row>
     <row r="2127">
-      <c r="A2127" s="16"/>
+      <c r="A2127" s="16" t="n">
+        <v>44848</v>
+      </c>
       <c r="B2127" s="3" t="n">
-        <v>21.92</v>
+        <v>21.9176524830004</v>
       </c>
       <c r="C2127" s="3" t="n">
-        <v>24.14</v>
+        <v>24.1381105854528</v>
       </c>
       <c r="D2127" s="3" t="n">
-        <v>23.65</v>
+        <v>23.6509636333168</v>
       </c>
     </row>
     <row r="2128">
-      <c r="A2128" s="16"/>
+      <c r="A2128" s="16" t="n">
+        <v>44849</v>
+      </c>
       <c r="B2128" s="3" t="n">
-        <v>21.92</v>
+        <v>21.9151739160383</v>
       </c>
       <c r="C2128" s="3" t="n">
-        <v>24.17</v>
+        <v>24.1711858132317</v>
       </c>
       <c r="D2128" s="3" t="n">
-        <v>23.65</v>
+        <v>23.648838954469</v>
       </c>
     </row>
     <row r="2129">
-      <c r="A2129" s="16"/>
+      <c r="A2129" s="16" t="n">
+        <v>44850</v>
+      </c>
       <c r="B2129" s="3" t="n">
-        <v>21.91</v>
+        <v>21.9055907907698</v>
       </c>
       <c r="C2129" s="3" t="n">
-        <v>24.15</v>
+        <v>24.1461738243765</v>
       </c>
       <c r="D2129" s="3" t="n">
-        <v>23.65</v>
+        <v>23.6481392383545</v>
       </c>
     </row>
     <row r="2130">
-      <c r="A2130" s="16"/>
+      <c r="A2130" s="16" t="n">
+        <v>44851</v>
+      </c>
       <c r="B2130" s="3" t="n">
-        <v>21.91</v>
+        <v>21.9078014369923</v>
       </c>
       <c r="C2130" s="3" t="n">
-        <v>24.14</v>
+        <v>24.141844497608</v>
       </c>
       <c r="D2130" s="3" t="n">
-        <v>23.65</v>
+        <v>23.6537844230447</v>
       </c>
     </row>
     <row r="2131">
-      <c r="A2131" s="16"/>
+      <c r="A2131" s="16" t="n">
+        <v>44852</v>
+      </c>
       <c r="B2131" s="3" t="n">
-        <v>21.92</v>
+        <v>21.9227058378084</v>
       </c>
       <c r="C2131" s="3" t="n">
-        <v>24.15</v>
+        <v>24.1498613896429</v>
       </c>
       <c r="D2131" s="3" t="n">
-        <v>23.66</v>
+        <v>23.6578756433674</v>
       </c>
     </row>
     <row r="2132">
-      <c r="A2132" s="16"/>
+      <c r="A2132" s="16" t="n">
+        <v>44853</v>
+      </c>
       <c r="B2132" s="3" t="n">
-        <v>21.93</v>
+        <v>21.9305605327293</v>
       </c>
       <c r="C2132" s="3" t="n">
-        <v>24.16</v>
+        <v>24.1601003122563</v>
       </c>
       <c r="D2132" s="3" t="n">
-        <v>23.66</v>
+        <v>23.6574551292609</v>
       </c>
     </row>
     <row r="2133">
-      <c r="A2133" s="16"/>
+      <c r="A2133" s="16" t="n">
+        <v>44854</v>
+      </c>
       <c r="B2133" s="3" t="n">
-        <v>21.94</v>
+        <v>21.9400169508939</v>
       </c>
       <c r="C2133" s="3" t="n">
-        <v>24.17</v>
+        <v>24.1689576241345</v>
       </c>
       <c r="D2133" s="3" t="n">
-        <v>23.66</v>
+        <v>23.6633646606212</v>
       </c>
     </row>
     <row r="2134">
-      <c r="A2134" s="16"/>
+      <c r="A2134" s="16" t="n">
+        <v>44855</v>
+      </c>
       <c r="B2134" s="3" t="n">
-        <v>21.94</v>
+        <v>21.9431373654537</v>
       </c>
       <c r="C2134" s="3" t="n">
-        <v>24.17</v>
+        <v>24.1738067915692</v>
       </c>
       <c r="D2134" s="3" t="n">
-        <v>23.66</v>
+        <v>23.6638011310604</v>
       </c>
     </row>
     <row r="2135">
-      <c r="A2135" s="16"/>
+      <c r="A2135" s="16" t="n">
+        <v>44856</v>
+      </c>
       <c r="B2135" s="3" t="n">
-        <v>21.93</v>
+        <v>21.9295104070544</v>
       </c>
       <c r="C2135" s="3" t="n">
-        <v>24.18</v>
+        <v>24.1784390569223</v>
       </c>
       <c r="D2135" s="3" t="n">
-        <v>23.67</v>
+        <v>23.6661212171326</v>
       </c>
     </row>
     <row r="2136">
-      <c r="A2136" s="16"/>
+      <c r="A2136" s="16" t="n">
+        <v>44857</v>
+      </c>
       <c r="B2136" s="3" t="n">
-        <v>21.93</v>
+        <v>21.9304438817695</v>
       </c>
       <c r="C2136" s="3" t="n">
-        <v>24.18</v>
+        <v>24.1793651455581</v>
       </c>
       <c r="D2136" s="3" t="n">
-        <v>23.66</v>
+        <v>23.6642545117222</v>
       </c>
     </row>
     <row r="2137">
-      <c r="A2137" s="16"/>
+      <c r="A2137" s="16" t="n">
+        <v>44858</v>
+      </c>
       <c r="B2137" s="3" t="n">
-        <v>21.93</v>
+        <v>21.9324019302618</v>
       </c>
       <c r="C2137" s="3" t="n">
-        <v>24.18</v>
+        <v>24.1806303315632</v>
       </c>
       <c r="D2137" s="3" t="n">
-        <v>23.67</v>
+        <v>23.6695407045341</v>
       </c>
     </row>
     <row r="2138">
-      <c r="A2138" s="16"/>
+      <c r="A2138" s="16" t="n">
+        <v>44859</v>
+      </c>
       <c r="B2138" s="3" t="n">
-        <v>21.94</v>
+        <v>21.937265753707</v>
       </c>
       <c r="C2138" s="3" t="n">
-        <v>24.18</v>
+        <v>24.1824653893454</v>
       </c>
       <c r="D2138" s="3" t="n">
-        <v>23.67</v>
+        <v>23.6708205342239</v>
       </c>
     </row>
     <row r="2139">
-      <c r="A2139" s="16"/>
+      <c r="A2139" s="16" t="n">
+        <v>44860</v>
+      </c>
       <c r="B2139" s="3" t="n">
-        <v>21.95</v>
+        <v>21.948625641026</v>
       </c>
       <c r="C2139" s="3" t="n">
-        <v>24.2</v>
+        <v>24.2001351083643</v>
       </c>
       <c r="D2139" s="3" t="n">
-        <v>23.68</v>
+        <v>23.6806528980681</v>
       </c>
     </row>
     <row r="2140">
-      <c r="A2140" s="16"/>
+      <c r="A2140" s="16" t="n">
+        <v>44861</v>
+      </c>
       <c r="B2140" s="3" t="n">
-        <v>21.96</v>
+        <v>21.9607278577999</v>
       </c>
       <c r="C2140" s="3" t="n">
-        <v>24.2</v>
+        <v>24.2000138394624</v>
       </c>
       <c r="D2140" s="3" t="n">
-        <v>23.68</v>
+        <v>23.6761884834283</v>
       </c>
     </row>
     <row r="2141">
-      <c r="A2141" s="16"/>
+      <c r="A2141" s="16" t="n">
+        <v>44862</v>
+      </c>
       <c r="B2141" s="3" t="n">
-        <v>21.97</v>
+        <v>21.965903393458</v>
       </c>
       <c r="C2141" s="3" t="n">
-        <v>24.21</v>
+        <v>24.2050238913242</v>
       </c>
       <c r="D2141" s="3" t="n">
-        <v>23.68</v>
+        <v>23.6833438906486</v>
       </c>
     </row>
     <row r="2142">
-      <c r="A2142" s="16"/>
+      <c r="A2142" s="16" t="n">
+        <v>44863</v>
+      </c>
       <c r="B2142" s="3" t="n">
-        <v>21.97</v>
+        <v>21.9657829163252</v>
       </c>
       <c r="C2142" s="3" t="n">
-        <v>24.21</v>
+        <v>24.2066698458116</v>
       </c>
       <c r="D2142" s="3" t="n">
-        <v>23.68</v>
+        <v>23.6838731092439</v>
       </c>
     </row>
     <row r="2143">
-      <c r="A2143" s="16"/>
+      <c r="A2143" s="16" t="n">
+        <v>44864</v>
+      </c>
       <c r="B2143" s="3" t="n">
-        <v>21.97</v>
+        <v>21.9658893301289</v>
       </c>
       <c r="C2143" s="3" t="n">
-        <v>24.21</v>
+        <v>24.210996085079</v>
       </c>
       <c r="D2143" s="3" t="n">
-        <v>23.68</v>
+        <v>23.6847341600138</v>
       </c>
     </row>
     <row r="2144">
-      <c r="A2144" s="16"/>
+      <c r="A2144" s="16" t="n">
+        <v>44865</v>
+      </c>
       <c r="B2144" s="3" t="n">
-        <v>21.97</v>
+        <v>21.9728129283986</v>
       </c>
       <c r="C2144" s="3" t="n">
-        <v>24.22</v>
+        <v>24.2197374009639</v>
       </c>
       <c r="D2144" s="3" t="n">
-        <v>23.68</v>
+        <v>23.6847945676467</v>
       </c>
     </row>
     <row r="2145">
-      <c r="A2145" s="6"/>
-      <c r="B2145" s="3"/>
-      <c r="C2145" s="3"/>
-      <c r="D2145" s="3"/>
+      <c r="A2145" s="16" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B2145" s="3" t="n">
+        <v>22.0001350228504</v>
+      </c>
+      <c r="C2145" s="3" t="n">
+        <v>24.2302747807816</v>
+      </c>
+      <c r="D2145" s="3" t="n">
+        <v>23.7452957653651</v>
+      </c>
     </row>
     <row r="2146">
-      <c r="A2146" s="6"/>
-      <c r="B2146" s="3"/>
-      <c r="C2146" s="3"/>
-      <c r="D2146" s="3"/>
+      <c r="A2146" s="16" t="n">
+        <v>44867</v>
+      </c>
+      <c r="B2146" s="3" t="n">
+        <v>22.004541471049</v>
+      </c>
+      <c r="C2146" s="3" t="n">
+        <v>24.2371199935008</v>
+      </c>
+      <c r="D2146" s="3" t="n">
+        <v>23.7460813048519</v>
+      </c>
     </row>
     <row r="2147">
-      <c r="A2147" s="6"/>
-      <c r="B2147" s="3"/>
-      <c r="C2147" s="3"/>
-      <c r="D2147" s="3"/>
+      <c r="A2147" s="16" t="n">
+        <v>44868</v>
+      </c>
+      <c r="B2147" s="3" t="n">
+        <v>22.0085054090961</v>
+      </c>
+      <c r="C2147" s="3" t="n">
+        <v>24.2447019352728</v>
+      </c>
+      <c r="D2147" s="3" t="n">
+        <v>23.7458975000001</v>
+      </c>
     </row>
     <row r="2148">
-      <c r="A2148" s="6"/>
-      <c r="B2148" s="3"/>
-      <c r="C2148" s="3"/>
-      <c r="D2148" s="3"/>
+      <c r="A2148" s="16" t="n">
+        <v>44869</v>
+      </c>
+      <c r="B2148" s="3" t="n">
+        <v>22.0271605459411</v>
+      </c>
+      <c r="C2148" s="3" t="n">
+        <v>24.2609358816278</v>
+      </c>
+      <c r="D2148" s="3" t="n">
+        <v>23.748935192918</v>
+      </c>
     </row>
     <row r="2149">
-      <c r="A2149" s="6"/>
-      <c r="B2149" s="3"/>
-      <c r="C2149" s="3"/>
-      <c r="D2149" s="3"/>
+      <c r="A2149" s="16" t="n">
+        <v>44870</v>
+      </c>
+      <c r="B2149" s="3" t="n">
+        <v>22.0287405675422</v>
+      </c>
+      <c r="C2149" s="3" t="n">
+        <v>24.2650125996614</v>
+      </c>
+      <c r="D2149" s="3" t="n">
+        <v>23.7492355720554</v>
+      </c>
     </row>
     <row r="2150">
-      <c r="A2150" s="6"/>
-      <c r="B2150" s="3"/>
-      <c r="C2150" s="3"/>
-      <c r="D2150" s="3"/>
+      <c r="A2150" s="16" t="n">
+        <v>44871</v>
+      </c>
+      <c r="B2150" s="3" t="n">
+        <v>22.0332471511507</v>
+      </c>
+      <c r="C2150" s="3" t="n">
+        <v>24.270830314387</v>
+      </c>
+      <c r="D2150" s="3" t="n">
+        <v>23.7498991797677</v>
+      </c>
     </row>
     <row r="2151">
-      <c r="A2151" s="6"/>
-      <c r="B2151" s="3"/>
-      <c r="C2151" s="3"/>
-      <c r="D2151" s="3"/>
+      <c r="A2151" s="16" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B2151" s="3" t="n">
+        <v>22.0329661292073</v>
+      </c>
+      <c r="C2151" s="3" t="n">
+        <v>24.2719059915189</v>
+      </c>
+      <c r="D2151" s="3" t="n">
+        <v>23.7533450162422</v>
+      </c>
     </row>
     <row r="2152">
-      <c r="A2152" s="6"/>
-      <c r="B2152" s="3"/>
-      <c r="C2152" s="3"/>
-      <c r="D2152" s="3"/>
+      <c r="A2152" s="16" t="n">
+        <v>44873</v>
+      </c>
+      <c r="B2152" s="3" t="n">
+        <v>22.0361879699252</v>
+      </c>
+      <c r="C2152" s="3" t="n">
+        <v>24.2793423299598</v>
+      </c>
+      <c r="D2152" s="3" t="n">
+        <v>23.755803025153</v>
+      </c>
     </row>
     <row r="2153">
-      <c r="A2153" s="6"/>
-      <c r="B2153" s="3"/>
-      <c r="C2153" s="3"/>
-      <c r="D2153" s="3"/>
+      <c r="A2153" s="16" t="n">
+        <v>44874</v>
+      </c>
+      <c r="B2153" s="3" t="n">
+        <v>22.0358650742419</v>
+      </c>
+      <c r="C2153" s="3" t="n">
+        <v>24.2858447230932</v>
+      </c>
+      <c r="D2153" s="3" t="n">
+        <v>23.7542174779392</v>
+      </c>
     </row>
     <row r="2154">
-      <c r="A2154" s="6"/>
-      <c r="B2154" s="3"/>
-      <c r="C2154" s="3"/>
-      <c r="D2154" s="3"/>
+      <c r="A2154" s="16" t="n">
+        <v>44875</v>
+      </c>
+      <c r="B2154" s="3" t="n">
+        <v>22.0359433449331</v>
+      </c>
+      <c r="C2154" s="3" t="n">
+        <v>24.2926922259081</v>
+      </c>
+      <c r="D2154" s="3" t="n">
+        <v>23.7533367905503</v>
+      </c>
     </row>
     <row r="2155">
-      <c r="A2155" s="6"/>
-      <c r="B2155" s="3"/>
-      <c r="C2155" s="3"/>
-      <c r="D2155" s="3"/>
+      <c r="A2155" s="16" t="n">
+        <v>44876</v>
+      </c>
+      <c r="B2155" s="3" t="n">
+        <v>22.0330020863077</v>
+      </c>
+      <c r="C2155" s="3" t="n">
+        <v>24.2942620092977</v>
+      </c>
+      <c r="D2155" s="3" t="n">
+        <v>23.7507534691468</v>
+      </c>
     </row>
     <row r="2156">
-      <c r="A2156" s="6"/>
-      <c r="B2156" s="3"/>
-      <c r="C2156" s="3"/>
-      <c r="D2156" s="3"/>
+      <c r="A2156" s="16" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B2156" s="3" t="n">
+        <v>22.0258830818173</v>
+      </c>
+      <c r="C2156" s="3" t="n">
+        <v>24.2901849434292</v>
+      </c>
+      <c r="D2156" s="3" t="n">
+        <v>23.7538286765142</v>
+      </c>
     </row>
     <row r="2157">
-      <c r="A2157" s="6"/>
-      <c r="B2157" s="3"/>
-      <c r="C2157" s="3"/>
-      <c r="D2157" s="3"/>
+      <c r="A2157" s="16" t="n">
+        <v>44878</v>
+      </c>
+      <c r="B2157" s="3" t="n">
+        <v>22.0174576176045</v>
+      </c>
+      <c r="C2157" s="3" t="n">
+        <v>24.2732953267667</v>
+      </c>
+      <c r="D2157" s="3" t="n">
+        <v>23.7450964314232</v>
+      </c>
     </row>
     <row r="2158">
-      <c r="A2158" s="6"/>
-      <c r="B2158" s="3"/>
-      <c r="C2158" s="3"/>
-      <c r="D2158" s="3"/>
+      <c r="A2158" s="16" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B2158" s="3" t="n">
+        <v>21.9797916196071</v>
+      </c>
+      <c r="C2158" s="3" t="n">
+        <v>24.2485484162489</v>
+      </c>
+      <c r="D2158" s="3" t="n">
+        <v>23.7491987119365</v>
+      </c>
     </row>
     <row r="2159">
-      <c r="A2159" s="6"/>
-      <c r="B2159" s="3"/>
-      <c r="C2159" s="3"/>
-      <c r="D2159" s="3"/>
+      <c r="A2159" s="16" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B2159" s="3" t="n">
+        <v>21.9171552363987</v>
+      </c>
+      <c r="C2159" s="3" t="n">
+        <v>24.2044606801276</v>
+      </c>
+      <c r="D2159" s="3" t="n">
+        <v>23.7478433549183</v>
+      </c>
     </row>
     <row r="2160">
-      <c r="A2160" s="6"/>
-      <c r="B2160" s="3"/>
-      <c r="C2160" s="3"/>
-      <c r="D2160" s="3"/>
+      <c r="A2160" s="16" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B2160" s="3" t="n">
+        <v>21.8544295252772</v>
+      </c>
+      <c r="C2160" s="3" t="n">
+        <v>24.1631428074298</v>
+      </c>
+      <c r="D2160" s="3" t="n">
+        <v>23.7466297254033</v>
+      </c>
     </row>
     <row r="2161">
-      <c r="A2161" s="6"/>
-      <c r="B2161" s="3"/>
-      <c r="C2161" s="3"/>
-      <c r="D2161" s="3"/>
+      <c r="A2161" s="16" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B2161" s="3" t="n">
+        <v>21.7763508829542</v>
+      </c>
+      <c r="C2161" s="3" t="n">
+        <v>24.1284541714874</v>
+      </c>
+      <c r="D2161" s="3" t="n">
+        <v>23.7336335133793</v>
+      </c>
     </row>
     <row r="2162">
-      <c r="A2162" s="6"/>
-      <c r="B2162" s="3"/>
-      <c r="C2162" s="3"/>
-      <c r="D2162" s="3"/>
+      <c r="A2162" s="16" t="n">
+        <v>44883</v>
+      </c>
+      <c r="B2162" s="3" t="n">
+        <v>21.6809657087922</v>
+      </c>
+      <c r="C2162" s="3" t="n">
+        <v>24.0660326566638</v>
+      </c>
+      <c r="D2162" s="3" t="n">
+        <v>23.7294395225791</v>
+      </c>
     </row>
     <row r="2163">
-      <c r="A2163" s="6"/>
-      <c r="B2163" s="3"/>
-      <c r="C2163" s="3"/>
-      <c r="D2163" s="3"/>
+      <c r="A2163" s="16" t="n">
+        <v>44884</v>
+      </c>
+      <c r="B2163" s="3" t="n">
+        <v>21.5985263883004</v>
+      </c>
+      <c r="C2163" s="3" t="n">
+        <v>24.0502453111416</v>
+      </c>
+      <c r="D2163" s="3" t="n">
+        <v>23.7236355481317</v>
+      </c>
     </row>
     <row r="2164">
-      <c r="A2164" s="6"/>
-      <c r="B2164" s="3"/>
-      <c r="C2164" s="3"/>
-      <c r="D2164" s="3"/>
+      <c r="A2164" s="16" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B2164" s="3" t="n">
+        <v>21.5868487976168</v>
+      </c>
+      <c r="C2164" s="3" t="n">
+        <v>24.0374996859692</v>
+      </c>
+      <c r="D2164" s="3" t="n">
+        <v>23.7188314176245</v>
+      </c>
     </row>
     <row r="2165">
-      <c r="A2165" s="6"/>
-      <c r="B2165" s="3"/>
-      <c r="C2165" s="3"/>
-      <c r="D2165" s="3"/>
+      <c r="A2165" s="16" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B2165" s="3" t="n">
+        <v>21.5746755115092</v>
+      </c>
+      <c r="C2165" s="3" t="n">
+        <v>24.0298250576159</v>
+      </c>
+      <c r="D2165" s="3" t="n">
+        <v>23.7139527263473</v>
+      </c>
     </row>
     <row r="2166">
-      <c r="A2166" s="6"/>
-      <c r="B2166" s="3"/>
-      <c r="C2166" s="3"/>
-      <c r="D2166" s="3"/>
+      <c r="A2166" s="16" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B2166" s="3" t="n">
+        <v>21.5456188023408</v>
+      </c>
+      <c r="C2166" s="3" t="n">
+        <v>23.9997383601154</v>
+      </c>
+      <c r="D2166" s="3" t="n">
+        <v>23.7209714375393</v>
+      </c>
     </row>
     <row r="2167">
-      <c r="A2167" s="6"/>
-      <c r="B2167" s="3"/>
-      <c r="C2167" s="3"/>
-      <c r="D2167" s="3"/>
+      <c r="A2167" s="16" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B2167" s="3" t="n">
+        <v>21.5214194395496</v>
+      </c>
+      <c r="C2167" s="3" t="n">
+        <v>23.9667133480105</v>
+      </c>
+      <c r="D2167" s="3" t="n">
+        <v>23.7223009371316</v>
+      </c>
     </row>
     <row r="2168">
-      <c r="A2168" s="6"/>
-      <c r="B2168" s="3"/>
-      <c r="C2168" s="3"/>
-      <c r="D2168" s="3"/>
+      <c r="A2168" s="16" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B2168" s="3" t="n">
+        <v>21.4938977217979</v>
+      </c>
+      <c r="C2168" s="3" t="n">
+        <v>23.9409481563062</v>
+      </c>
+      <c r="D2168" s="3" t="n">
+        <v>23.7178530594296</v>
+      </c>
     </row>
     <row r="2169">
-      <c r="A2169" s="6"/>
-      <c r="B2169" s="3"/>
-      <c r="C2169" s="3"/>
-      <c r="D2169" s="3"/>
+      <c r="A2169" s="16" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B2169" s="3" t="n">
+        <v>21.454990171736</v>
+      </c>
+      <c r="C2169" s="3" t="n">
+        <v>23.905654150359</v>
+      </c>
+      <c r="D2169" s="3" t="n">
+        <v>23.7169589861164</v>
+      </c>
     </row>
     <row r="2170">
-      <c r="A2170" s="6"/>
-      <c r="B2170" s="3"/>
-      <c r="C2170" s="3"/>
-      <c r="D2170" s="3"/>
+      <c r="A2170" s="16" t="n">
+        <v>44891</v>
+      </c>
+      <c r="B2170" s="3" t="n">
+        <v>21.4712423835588</v>
+      </c>
+      <c r="C2170" s="3" t="n">
+        <v>23.9177284117988</v>
+      </c>
+      <c r="D2170" s="3" t="n">
+        <v>23.7184120478793</v>
+      </c>
     </row>
     <row r="2171">
-      <c r="A2171" s="6"/>
-      <c r="B2171" s="3"/>
-      <c r="C2171" s="3"/>
-      <c r="D2171" s="3"/>
+      <c r="A2171" s="16" t="n">
+        <v>44892</v>
+      </c>
+      <c r="B2171" s="3" t="n">
+        <v>21.4762320424734</v>
+      </c>
+      <c r="C2171" s="3" t="n">
+        <v>23.9243966333295</v>
+      </c>
+      <c r="D2171" s="3" t="n">
+        <v>23.7085387543479</v>
+      </c>
     </row>
     <row r="2172">
-      <c r="A2172" s="6"/>
-      <c r="B2172" s="3"/>
-      <c r="C2172" s="3"/>
-      <c r="D2172" s="3"/>
+      <c r="A2172" s="16" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B2172" s="3" t="n">
+        <v>21.4767922350471</v>
+      </c>
+      <c r="C2172" s="3" t="n">
+        <v>23.9189871362561</v>
+      </c>
+      <c r="D2172" s="3" t="n">
+        <v>23.7053585232573</v>
+      </c>
     </row>
     <row r="2173">
-      <c r="A2173" s="6"/>
-      <c r="B2173" s="3"/>
-      <c r="C2173" s="3"/>
-      <c r="D2173" s="3"/>
+      <c r="A2173" s="16" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B2173" s="3" t="n">
+        <v>21.4818957444595</v>
+      </c>
+      <c r="C2173" s="3" t="n">
+        <v>23.920632063021</v>
+      </c>
+      <c r="D2173" s="3" t="n">
+        <v>23.7061470028232</v>
+      </c>
     </row>
     <row r="2174">
-      <c r="A2174" s="6"/>
-      <c r="B2174" s="3"/>
-      <c r="C2174" s="3"/>
-      <c r="D2174" s="3"/>
+      <c r="A2174" s="16" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B2174" s="3" t="n">
+        <v>21.4722303692148</v>
+      </c>
+      <c r="C2174" s="3" t="n">
+        <v>23.9096409529681</v>
+      </c>
+      <c r="D2174" s="3" t="n">
+        <v>23.7038888888889</v>
+      </c>
     </row>
     <row r="2175">
       <c r="A2175" s="6"/>
@@ -42072,33 +42374,47 @@
         <v>1424</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>22.41</v>
+        <v>22.4121530526896</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>21.8935483870968</v>
+        <v>21.8931326414868</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>24.77</v>
+        <v>24.7721597446001</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>24.1367741935484</v>
+        <v>24.1367276902721</v>
       </c>
       <c r="G85" s="3" t="n">
-        <v>23.85</v>
+        <v>23.8478801820907</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>23.6458064516129</v>
+        <v>23.6472357098321</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>22.3693705483677</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>21.78942326841</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>24.8719848427161</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>24.1276350351351</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>23.9152672382806</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>23.7345106519887</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - noviembre 2022</t>
+    <t xml:space="preserve">enero 2017 - diciembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: enero 2022</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">noviembre 2022</t>
+    <t xml:space="preserve">diciembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -35209,190 +35209,376 @@
       </c>
     </row>
     <row r="2175">
-      <c r="A2175" s="6"/>
-      <c r="B2175" s="3"/>
-      <c r="C2175" s="3"/>
-      <c r="D2175" s="3"/>
+      <c r="A2175" s="16"/>
+      <c r="B2175" s="3" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C2175" s="3" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D2175" s="3" t="n">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="2176">
-      <c r="A2176" s="6"/>
-      <c r="B2176" s="3"/>
-      <c r="C2176" s="3"/>
-      <c r="D2176" s="3"/>
+      <c r="A2176" s="16"/>
+      <c r="B2176" s="3" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="C2176" s="3" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D2176" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2177">
-      <c r="A2177" s="6"/>
-      <c r="B2177" s="3"/>
-      <c r="C2177" s="3"/>
-      <c r="D2177" s="3"/>
+      <c r="A2177" s="16"/>
+      <c r="B2177" s="3" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C2177" s="3" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D2177" s="3" t="n">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="2178">
-      <c r="A2178" s="6"/>
-      <c r="B2178" s="3"/>
-      <c r="C2178" s="3"/>
-      <c r="D2178" s="3"/>
+      <c r="A2178" s="16"/>
+      <c r="B2178" s="3" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C2178" s="3" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D2178" s="3" t="n">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="2179">
-      <c r="A2179" s="6"/>
-      <c r="B2179" s="3"/>
-      <c r="C2179" s="3"/>
-      <c r="D2179" s="3"/>
+      <c r="A2179" s="16"/>
+      <c r="B2179" s="3" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C2179" s="3" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D2179" s="3" t="n">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="2180">
-      <c r="A2180" s="6"/>
-      <c r="B2180" s="3"/>
-      <c r="C2180" s="3"/>
-      <c r="D2180" s="3"/>
+      <c r="A2180" s="16"/>
+      <c r="B2180" s="3" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="C2180" s="3" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="D2180" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2181">
-      <c r="A2181" s="6"/>
-      <c r="B2181" s="3"/>
-      <c r="C2181" s="3"/>
-      <c r="D2181" s="3"/>
+      <c r="A2181" s="16"/>
+      <c r="B2181" s="3" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="C2181" s="3" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="D2181" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2182">
-      <c r="A2182" s="6"/>
-      <c r="B2182" s="3"/>
-      <c r="C2182" s="3"/>
-      <c r="D2182" s="3"/>
+      <c r="A2182" s="16"/>
+      <c r="B2182" s="3" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="C2182" s="3" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D2182" s="3" t="n">
+        <v>23.63</v>
+      </c>
     </row>
     <row r="2183">
-      <c r="A2183" s="6"/>
-      <c r="B2183" s="3"/>
-      <c r="C2183" s="3"/>
-      <c r="D2183" s="3"/>
+      <c r="A2183" s="16"/>
+      <c r="B2183" s="3" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="C2183" s="3" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D2183" s="3" t="n">
+        <v>23.61</v>
+      </c>
     </row>
     <row r="2184">
-      <c r="A2184" s="6"/>
-      <c r="B2184" s="3"/>
-      <c r="C2184" s="3"/>
-      <c r="D2184" s="3"/>
+      <c r="A2184" s="16"/>
+      <c r="B2184" s="3" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="C2184" s="3" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="D2184" s="3" t="n">
+        <v>23.63</v>
+      </c>
     </row>
     <row r="2185">
-      <c r="A2185" s="6"/>
-      <c r="B2185" s="3"/>
-      <c r="C2185" s="3"/>
-      <c r="D2185" s="3"/>
+      <c r="A2185" s="16"/>
+      <c r="B2185" s="3" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="C2185" s="3" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="D2185" s="3" t="n">
+        <v>23.63</v>
+      </c>
     </row>
     <row r="2186">
-      <c r="A2186" s="6"/>
-      <c r="B2186" s="3"/>
-      <c r="C2186" s="3"/>
-      <c r="D2186" s="3"/>
+      <c r="A2186" s="16"/>
+      <c r="B2186" s="3" t="n">
+        <v>21.41</v>
+      </c>
+      <c r="C2186" s="3" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="D2186" s="3" t="n">
+        <v>23.63</v>
+      </c>
     </row>
     <row r="2187">
-      <c r="A2187" s="6"/>
-      <c r="B2187" s="3"/>
-      <c r="C2187" s="3"/>
-      <c r="D2187" s="3"/>
+      <c r="A2187" s="16"/>
+      <c r="B2187" s="3" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C2187" s="3" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="D2187" s="3" t="n">
+        <v>23.62</v>
+      </c>
     </row>
     <row r="2188">
-      <c r="A2188" s="6"/>
-      <c r="B2188" s="3"/>
-      <c r="C2188" s="3"/>
-      <c r="D2188" s="3"/>
+      <c r="A2188" s="16"/>
+      <c r="B2188" s="3" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="C2188" s="3" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="D2188" s="3" t="n">
+        <v>23.62</v>
+      </c>
     </row>
     <row r="2189">
-      <c r="A2189" s="6"/>
-      <c r="B2189" s="3"/>
-      <c r="C2189" s="3"/>
-      <c r="D2189" s="3"/>
+      <c r="A2189" s="16"/>
+      <c r="B2189" s="3" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="C2189" s="3" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="D2189" s="3" t="n">
+        <v>23.63</v>
+      </c>
     </row>
     <row r="2190">
-      <c r="A2190" s="6"/>
-      <c r="B2190" s="3"/>
-      <c r="C2190" s="3"/>
-      <c r="D2190" s="3"/>
+      <c r="A2190" s="16"/>
+      <c r="B2190" s="3" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="C2190" s="3" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="D2190" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2191">
-      <c r="A2191" s="6"/>
-      <c r="B2191" s="3"/>
-      <c r="C2191" s="3"/>
-      <c r="D2191" s="3"/>
+      <c r="A2191" s="16"/>
+      <c r="B2191" s="3" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="C2191" s="3" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="D2191" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2192">
-      <c r="A2192" s="6"/>
-      <c r="B2192" s="3"/>
-      <c r="C2192" s="3"/>
-      <c r="D2192" s="3"/>
+      <c r="A2192" s="16"/>
+      <c r="B2192" s="3" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="C2192" s="3" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="D2192" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2193">
-      <c r="A2193" s="6"/>
-      <c r="B2193" s="3"/>
-      <c r="C2193" s="3"/>
-      <c r="D2193" s="3"/>
+      <c r="A2193" s="16"/>
+      <c r="B2193" s="3" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="C2193" s="3" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="D2193" s="3" t="n">
+        <v>23.65</v>
+      </c>
     </row>
     <row r="2194">
-      <c r="A2194" s="6"/>
-      <c r="B2194" s="3"/>
-      <c r="C2194" s="3"/>
-      <c r="D2194" s="3"/>
+      <c r="A2194" s="16"/>
+      <c r="B2194" s="3" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="C2194" s="3" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="D2194" s="3" t="n">
+        <v>23.66</v>
+      </c>
     </row>
     <row r="2195">
-      <c r="A2195" s="6"/>
-      <c r="B2195" s="3"/>
-      <c r="C2195" s="3"/>
-      <c r="D2195" s="3"/>
+      <c r="A2195" s="16"/>
+      <c r="B2195" s="3" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="C2195" s="3" t="n">
+        <v>23.86</v>
+      </c>
+      <c r="D2195" s="3" t="n">
+        <v>23.66</v>
+      </c>
     </row>
     <row r="2196">
-      <c r="A2196" s="6"/>
-      <c r="B2196" s="3"/>
-      <c r="C2196" s="3"/>
-      <c r="D2196" s="3"/>
+      <c r="A2196" s="16"/>
+      <c r="B2196" s="3" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="C2196" s="3" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="D2196" s="3" t="n">
+        <v>23.67</v>
+      </c>
     </row>
     <row r="2197">
-      <c r="A2197" s="6"/>
-      <c r="B2197" s="3"/>
-      <c r="C2197" s="3"/>
-      <c r="D2197" s="3"/>
+      <c r="A2197" s="16"/>
+      <c r="B2197" s="3" t="n">
+        <v>21.56</v>
+      </c>
+      <c r="C2197" s="3" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D2197" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2198">
-      <c r="A2198" s="6"/>
-      <c r="B2198" s="3"/>
-      <c r="C2198" s="3"/>
-      <c r="D2198" s="3"/>
+      <c r="A2198" s="16"/>
+      <c r="B2198" s="3" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="C2198" s="3" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D2198" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2199">
-      <c r="A2199" s="6"/>
-      <c r="B2199" s="3"/>
-      <c r="C2199" s="3"/>
-      <c r="D2199" s="3"/>
+      <c r="A2199" s="16"/>
+      <c r="B2199" s="3" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="C2199" s="3" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D2199" s="3" t="n">
+        <v>23.68</v>
+      </c>
     </row>
     <row r="2200">
-      <c r="A2200" s="6"/>
-      <c r="B2200" s="3"/>
-      <c r="C2200" s="3"/>
-      <c r="D2200" s="3"/>
+      <c r="A2200" s="16"/>
+      <c r="B2200" s="3" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="C2200" s="3" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="D2200" s="3" t="n">
+        <v>23.69</v>
+      </c>
     </row>
     <row r="2201">
-      <c r="A2201" s="6"/>
-      <c r="B2201" s="3"/>
-      <c r="C2201" s="3"/>
-      <c r="D2201" s="3"/>
+      <c r="A2201" s="16"/>
+      <c r="B2201" s="3" t="n">
+        <v>21.63</v>
+      </c>
+      <c r="C2201" s="3" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="D2201" s="3" t="n">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="2202">
-      <c r="A2202" s="6"/>
-      <c r="B2202" s="3"/>
-      <c r="C2202" s="3"/>
-      <c r="D2202" s="3"/>
+      <c r="A2202" s="16"/>
+      <c r="B2202" s="3" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="C2202" s="3" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="D2202" s="3" t="n">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="2203">
-      <c r="A2203" s="6"/>
-      <c r="B2203" s="3"/>
-      <c r="C2203" s="3"/>
-      <c r="D2203" s="3"/>
+      <c r="A2203" s="16"/>
+      <c r="B2203" s="3" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="C2203" s="3" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="D2203" s="3" t="n">
+        <v>23.71</v>
+      </c>
     </row>
     <row r="2204">
-      <c r="A2204" s="6"/>
-      <c r="B2204" s="3"/>
-      <c r="C2204" s="3"/>
-      <c r="D2204" s="3"/>
+      <c r="A2204" s="16"/>
+      <c r="B2204" s="3" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="C2204" s="3" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2204" s="3" t="n">
+        <v>23.71</v>
+      </c>
     </row>
     <row r="2205">
-      <c r="A2205" s="6"/>
-      <c r="B2205" s="3"/>
-      <c r="C2205" s="3"/>
-      <c r="D2205" s="3"/>
+      <c r="A2205" s="16"/>
+      <c r="B2205" s="3" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C2205" s="3" t="n">
+        <v>24.01</v>
+      </c>
+      <c r="D2205" s="3" t="n">
+        <v>23.71</v>
+      </c>
     </row>
     <row r="2206">
       <c r="A2206" s="6"/>
@@ -42418,13 +42604,27 @@
     </row>
     <row r="87">
       <c r="A87" s="6"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>21.5012903225806</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>23.9016129032258</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>23.6625806451613</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1433">
   <si>
     <t>Periodicidad Mensual</t>
   </si>
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - diciembre 2022</t>
+    <t xml:space="preserve">enero 2017 - enero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2023</t>
+    <t xml:space="preserve">Próxima actualización: marzo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2022</t>
+    <t xml:space="preserve">enero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -4310,6 +4310,9 @@
   </si>
   <si>
     <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
   </si>
 </sst>
 </file>
@@ -35209,562 +35212,872 @@
       </c>
     </row>
     <row r="2175">
-      <c r="A2175" s="16"/>
+      <c r="A2175" s="16" t="n">
+        <v>44896</v>
+      </c>
       <c r="B2175" s="3" t="n">
-        <v>21.46</v>
+        <v>21.4644676358602</v>
       </c>
       <c r="C2175" s="3" t="n">
-        <v>23.9</v>
+        <v>23.9042047460692</v>
       </c>
       <c r="D2175" s="3" t="n">
-        <v>23.7</v>
+        <v>23.6959555069292</v>
       </c>
     </row>
     <row r="2176">
-      <c r="A2176" s="16"/>
+      <c r="A2176" s="16" t="n">
+        <v>44897</v>
+      </c>
       <c r="B2176" s="3" t="n">
-        <v>21.48</v>
+        <v>21.481945538738</v>
       </c>
       <c r="C2176" s="3" t="n">
-        <v>23.91</v>
+        <v>23.9090693625044</v>
       </c>
       <c r="D2176" s="3" t="n">
-        <v>23.68</v>
+        <v>23.681524822695</v>
       </c>
     </row>
     <row r="2177">
-      <c r="A2177" s="16"/>
+      <c r="A2177" s="16" t="n">
+        <v>44898</v>
+      </c>
       <c r="B2177" s="3" t="n">
-        <v>21.49</v>
+        <v>21.4907654717503</v>
       </c>
       <c r="C2177" s="3" t="n">
-        <v>23.91</v>
+        <v>23.9080252322424</v>
       </c>
       <c r="D2177" s="3" t="n">
-        <v>23.67</v>
+        <v>23.6730441806792</v>
       </c>
     </row>
     <row r="2178">
-      <c r="A2178" s="16"/>
+      <c r="A2178" s="16" t="n">
+        <v>44899</v>
+      </c>
       <c r="B2178" s="3" t="n">
-        <v>21.49</v>
+        <v>21.4933380183932</v>
       </c>
       <c r="C2178" s="3" t="n">
-        <v>23.9</v>
+        <v>23.9029405039</v>
       </c>
       <c r="D2178" s="3" t="n">
-        <v>23.67</v>
+        <v>23.6688025405693</v>
       </c>
     </row>
     <row r="2179">
-      <c r="A2179" s="16"/>
+      <c r="A2179" s="16" t="n">
+        <v>44900</v>
+      </c>
       <c r="B2179" s="3" t="n">
-        <v>21.49</v>
+        <v>21.4945700775356</v>
       </c>
       <c r="C2179" s="3" t="n">
-        <v>23.91</v>
+        <v>23.9083663386637</v>
       </c>
       <c r="D2179" s="3" t="n">
-        <v>23.67</v>
+        <v>23.6710152911325</v>
       </c>
     </row>
     <row r="2180">
-      <c r="A2180" s="16"/>
+      <c r="A2180" s="16" t="n">
+        <v>44901</v>
+      </c>
       <c r="B2180" s="3" t="n">
-        <v>21.49</v>
+        <v>21.4934242140978</v>
       </c>
       <c r="C2180" s="3" t="n">
-        <v>23.92</v>
+        <v>23.9165668249525</v>
       </c>
       <c r="D2180" s="3" t="n">
-        <v>23.65</v>
+        <v>23.6538766620816</v>
       </c>
     </row>
     <row r="2181">
-      <c r="A2181" s="16"/>
+      <c r="A2181" s="16" t="n">
+        <v>44902</v>
+      </c>
       <c r="B2181" s="3" t="n">
-        <v>21.48</v>
+        <v>21.4847555071411</v>
       </c>
       <c r="C2181" s="3" t="n">
-        <v>23.92</v>
+        <v>23.9189673472697</v>
       </c>
       <c r="D2181" s="3" t="n">
-        <v>23.65</v>
+        <v>23.6458132742795</v>
       </c>
     </row>
     <row r="2182">
-      <c r="A2182" s="16"/>
+      <c r="A2182" s="16" t="n">
+        <v>44903</v>
+      </c>
       <c r="B2182" s="3" t="n">
-        <v>21.47</v>
+        <v>21.4679386511562</v>
       </c>
       <c r="C2182" s="3" t="n">
-        <v>23.91</v>
+        <v>23.9071989667237</v>
       </c>
       <c r="D2182" s="3" t="n">
-        <v>23.63</v>
+        <v>23.6305343682127</v>
       </c>
     </row>
     <row r="2183">
-      <c r="A2183" s="16"/>
+      <c r="A2183" s="16" t="n">
+        <v>44904</v>
+      </c>
       <c r="B2183" s="3" t="n">
-        <v>21.44</v>
+        <v>21.4412345742845</v>
       </c>
       <c r="C2183" s="3" t="n">
-        <v>23.9</v>
+        <v>23.8958504600914</v>
       </c>
       <c r="D2183" s="3" t="n">
-        <v>23.61</v>
+        <v>23.6101960045233</v>
       </c>
     </row>
     <row r="2184">
-      <c r="A2184" s="16"/>
+      <c r="A2184" s="16" t="n">
+        <v>44905</v>
+      </c>
       <c r="B2184" s="3" t="n">
-        <v>21.43</v>
+        <v>21.432228552852</v>
       </c>
       <c r="C2184" s="3" t="n">
-        <v>23.88</v>
+        <v>23.8823425061622</v>
       </c>
       <c r="D2184" s="3" t="n">
-        <v>23.63</v>
+        <v>23.6298189960815</v>
       </c>
     </row>
     <row r="2185">
-      <c r="A2185" s="16"/>
+      <c r="A2185" s="16" t="n">
+        <v>44906</v>
+      </c>
       <c r="B2185" s="3" t="n">
-        <v>21.42</v>
+        <v>21.4226961037173</v>
       </c>
       <c r="C2185" s="3" t="n">
-        <v>23.88</v>
+        <v>23.8752825857304</v>
       </c>
       <c r="D2185" s="3" t="n">
-        <v>23.63</v>
+        <v>23.6336825726142</v>
       </c>
     </row>
     <row r="2186">
-      <c r="A2186" s="16"/>
+      <c r="A2186" s="16" t="n">
+        <v>44907</v>
+      </c>
       <c r="B2186" s="3" t="n">
-        <v>21.41</v>
+        <v>21.4110814393938</v>
       </c>
       <c r="C2186" s="3" t="n">
-        <v>23.87</v>
+        <v>23.8695885702663</v>
       </c>
       <c r="D2186" s="3" t="n">
-        <v>23.63</v>
+        <v>23.6300838831292</v>
       </c>
     </row>
     <row r="2187">
-      <c r="A2187" s="16"/>
+      <c r="A2187" s="16" t="n">
+        <v>44908</v>
+      </c>
       <c r="B2187" s="3" t="n">
-        <v>21.4</v>
+        <v>21.3991790942438</v>
       </c>
       <c r="C2187" s="3" t="n">
-        <v>23.86</v>
+        <v>23.8585563906736</v>
       </c>
       <c r="D2187" s="3" t="n">
-        <v>23.62</v>
+        <v>23.6206204651164</v>
       </c>
     </row>
     <row r="2188">
-      <c r="A2188" s="16"/>
+      <c r="A2188" s="16" t="n">
+        <v>44909</v>
+      </c>
       <c r="B2188" s="3" t="n">
-        <v>21.37</v>
+        <v>21.3660812154883</v>
       </c>
       <c r="C2188" s="3" t="n">
-        <v>23.85</v>
+        <v>23.8511614260855</v>
       </c>
       <c r="D2188" s="3" t="n">
-        <v>23.62</v>
+        <v>23.6202757148163</v>
       </c>
     </row>
     <row r="2189">
-      <c r="A2189" s="16"/>
+      <c r="A2189" s="16" t="n">
+        <v>44910</v>
+      </c>
       <c r="B2189" s="3" t="n">
-        <v>21.38</v>
+        <v>21.3849910974147</v>
       </c>
       <c r="C2189" s="3" t="n">
-        <v>23.85</v>
+        <v>23.8460428612093</v>
       </c>
       <c r="D2189" s="3" t="n">
-        <v>23.63</v>
+        <v>23.6334156570364</v>
       </c>
     </row>
     <row r="2190">
-      <c r="A2190" s="16"/>
+      <c r="A2190" s="16" t="n">
+        <v>44911</v>
+      </c>
       <c r="B2190" s="3" t="n">
-        <v>21.43</v>
+        <v>21.4263079930049</v>
       </c>
       <c r="C2190" s="3" t="n">
-        <v>23.86</v>
+        <v>23.8593602446483</v>
       </c>
       <c r="D2190" s="3" t="n">
-        <v>23.65</v>
+        <v>23.6450659361071</v>
       </c>
     </row>
     <row r="2191">
-      <c r="A2191" s="16"/>
+      <c r="A2191" s="16" t="n">
+        <v>44912</v>
+      </c>
       <c r="B2191" s="3" t="n">
-        <v>21.43</v>
+        <v>21.4286239824671</v>
       </c>
       <c r="C2191" s="3" t="n">
-        <v>23.84</v>
+        <v>23.844368407991</v>
       </c>
       <c r="D2191" s="3" t="n">
-        <v>23.65</v>
+        <v>23.6476923076925</v>
       </c>
     </row>
     <row r="2192">
-      <c r="A2192" s="16"/>
+      <c r="A2192" s="16" t="n">
+        <v>44913</v>
+      </c>
       <c r="B2192" s="3" t="n">
-        <v>21.43</v>
+        <v>21.4306519889386</v>
       </c>
       <c r="C2192" s="3" t="n">
-        <v>23.86</v>
+        <v>23.8581382165605</v>
       </c>
       <c r="D2192" s="3" t="n">
-        <v>23.65</v>
+        <v>23.6495464895637</v>
       </c>
     </row>
     <row r="2193">
-      <c r="A2193" s="16"/>
+      <c r="A2193" s="16" t="n">
+        <v>44914</v>
+      </c>
       <c r="B2193" s="3" t="n">
-        <v>21.44</v>
+        <v>21.4369938782085</v>
       </c>
       <c r="C2193" s="3" t="n">
-        <v>23.86</v>
+        <v>23.8612777420047</v>
       </c>
       <c r="D2193" s="3" t="n">
-        <v>23.65</v>
+        <v>23.6526872871738</v>
       </c>
     </row>
     <row r="2194">
-      <c r="A2194" s="16"/>
+      <c r="A2194" s="16" t="n">
+        <v>44915</v>
+      </c>
       <c r="B2194" s="3" t="n">
-        <v>21.44</v>
+        <v>21.4375760174368</v>
       </c>
       <c r="C2194" s="3" t="n">
-        <v>23.85</v>
+        <v>23.8526222022125</v>
       </c>
       <c r="D2194" s="3" t="n">
-        <v>23.66</v>
+        <v>23.6564427250426</v>
       </c>
     </row>
     <row r="2195">
-      <c r="A2195" s="16"/>
+      <c r="A2195" s="16" t="n">
+        <v>44916</v>
+      </c>
       <c r="B2195" s="3" t="n">
-        <v>21.46</v>
+        <v>21.4568476983874</v>
       </c>
       <c r="C2195" s="3" t="n">
-        <v>23.86</v>
+        <v>23.8563608366483</v>
       </c>
       <c r="D2195" s="3" t="n">
-        <v>23.66</v>
+        <v>23.6589270911833</v>
       </c>
     </row>
     <row r="2196">
-      <c r="A2196" s="16"/>
+      <c r="A2196" s="16" t="n">
+        <v>44917</v>
+      </c>
       <c r="B2196" s="3" t="n">
-        <v>21.51</v>
+        <v>21.5134879854109</v>
       </c>
       <c r="C2196" s="3" t="n">
-        <v>23.89</v>
+        <v>23.8922904699742</v>
       </c>
       <c r="D2196" s="3" t="n">
-        <v>23.67</v>
+        <v>23.6666243416104</v>
       </c>
     </row>
     <row r="2197">
-      <c r="A2197" s="16"/>
+      <c r="A2197" s="16" t="n">
+        <v>44918</v>
+      </c>
       <c r="B2197" s="3" t="n">
-        <v>21.56</v>
+        <v>21.5585269396552</v>
       </c>
       <c r="C2197" s="3" t="n">
-        <v>23.91</v>
+        <v>23.9106959706965</v>
       </c>
       <c r="D2197" s="3" t="n">
-        <v>23.68</v>
+        <v>23.6767732612345</v>
       </c>
     </row>
     <row r="2198">
-      <c r="A2198" s="16"/>
+      <c r="A2198" s="16" t="n">
+        <v>44919</v>
+      </c>
       <c r="B2198" s="3" t="n">
-        <v>21.59</v>
+        <v>21.5857149774048</v>
       </c>
       <c r="C2198" s="3" t="n">
-        <v>23.91</v>
+        <v>23.9075994486024</v>
       </c>
       <c r="D2198" s="3" t="n">
-        <v>23.68</v>
+        <v>23.6805170813221</v>
       </c>
     </row>
     <row r="2199">
-      <c r="A2199" s="16"/>
+      <c r="A2199" s="16" t="n">
+        <v>44920</v>
+      </c>
       <c r="B2199" s="3" t="n">
-        <v>21.59</v>
+        <v>21.5892379242821</v>
       </c>
       <c r="C2199" s="3" t="n">
-        <v>23.91</v>
+        <v>23.910600961539</v>
       </c>
       <c r="D2199" s="3" t="n">
-        <v>23.68</v>
+        <v>23.6807522123895</v>
       </c>
     </row>
     <row r="2200">
-      <c r="A2200" s="16"/>
+      <c r="A2200" s="16" t="n">
+        <v>44921</v>
+      </c>
       <c r="B2200" s="3" t="n">
-        <v>21.61</v>
+        <v>21.6065409353538</v>
       </c>
       <c r="C2200" s="3" t="n">
-        <v>23.91</v>
+        <v>23.9146145063807</v>
       </c>
       <c r="D2200" s="3" t="n">
-        <v>23.69</v>
+        <v>23.6877183364841</v>
       </c>
     </row>
     <row r="2201">
-      <c r="A2201" s="16"/>
+      <c r="A2201" s="16" t="n">
+        <v>44922</v>
+      </c>
       <c r="B2201" s="3" t="n">
-        <v>21.63</v>
+        <v>21.6344452835618</v>
       </c>
       <c r="C2201" s="3" t="n">
-        <v>23.94</v>
+        <v>23.9438791858178</v>
       </c>
       <c r="D2201" s="3" t="n">
-        <v>23.7</v>
+        <v>23.7013342749531</v>
       </c>
     </row>
     <row r="2202">
-      <c r="A2202" s="16"/>
+      <c r="A2202" s="16" t="n">
+        <v>44923</v>
+      </c>
       <c r="B2202" s="3" t="n">
-        <v>21.66</v>
+        <v>21.6578800609801</v>
       </c>
       <c r="C2202" s="3" t="n">
-        <v>23.97</v>
+        <v>23.9717272844939</v>
       </c>
       <c r="D2202" s="3" t="n">
-        <v>23.7</v>
+        <v>23.7030153732175</v>
       </c>
     </row>
     <row r="2203">
-      <c r="A2203" s="16"/>
+      <c r="A2203" s="16" t="n">
+        <v>44924</v>
+      </c>
       <c r="B2203" s="3" t="n">
-        <v>21.67</v>
+        <v>21.6718879572633</v>
       </c>
       <c r="C2203" s="3" t="n">
-        <v>23.99</v>
+        <v>23.9866050340487</v>
       </c>
       <c r="D2203" s="3" t="n">
-        <v>23.71</v>
+        <v>23.7098087686569</v>
       </c>
     </row>
     <row r="2204">
-      <c r="A2204" s="16"/>
+      <c r="A2204" s="16" t="n">
+        <v>44925</v>
+      </c>
       <c r="B2204" s="3" t="n">
-        <v>21.69</v>
+        <v>21.6909045137044</v>
       </c>
       <c r="C2204" s="3" t="n">
-        <v>24.01</v>
+        <v>24.0061200983564</v>
       </c>
       <c r="D2204" s="3" t="n">
-        <v>23.71</v>
+        <v>23.7143855735269</v>
       </c>
     </row>
     <row r="2205">
-      <c r="A2205" s="16"/>
+      <c r="A2205" s="16" t="n">
+        <v>44926</v>
+      </c>
       <c r="B2205" s="3" t="n">
-        <v>21.7</v>
+        <v>21.6952317138282</v>
       </c>
       <c r="C2205" s="3" t="n">
-        <v>24.01</v>
+        <v>24.0132156735752</v>
       </c>
       <c r="D2205" s="3" t="n">
-        <v>23.71</v>
+        <v>23.7133859290888</v>
       </c>
     </row>
     <row r="2206">
-      <c r="A2206" s="6"/>
-      <c r="B2206" s="3"/>
-      <c r="C2206" s="3"/>
-      <c r="D2206" s="3"/>
+      <c r="A2206" s="16" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B2206" s="3" t="n">
+        <v>21.7020989433237</v>
+      </c>
+      <c r="C2206" s="3" t="n">
+        <v>23.9994205408285</v>
+      </c>
+      <c r="D2206" s="3" t="n">
+        <v>23.7170242727443</v>
+      </c>
     </row>
     <row r="2207">
-      <c r="A2207" s="6"/>
-      <c r="B2207" s="3"/>
-      <c r="C2207" s="3"/>
-      <c r="D2207" s="3"/>
+      <c r="A2207" s="16" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B2207" s="3" t="n">
+        <v>21.7104248052087</v>
+      </c>
+      <c r="C2207" s="3" t="n">
+        <v>24.0073668796591</v>
+      </c>
+      <c r="D2207" s="3" t="n">
+        <v>23.7246329090576</v>
+      </c>
     </row>
     <row r="2208">
-      <c r="A2208" s="6"/>
-      <c r="B2208" s="3"/>
-      <c r="C2208" s="3"/>
-      <c r="D2208" s="3"/>
+      <c r="A2208" s="16" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B2208" s="3" t="n">
+        <v>21.7273896282215</v>
+      </c>
+      <c r="C2208" s="3" t="n">
+        <v>23.9833633653101</v>
+      </c>
+      <c r="D2208" s="3" t="n">
+        <v>23.7273997448052</v>
+      </c>
     </row>
     <row r="2209">
-      <c r="A2209" s="6"/>
-      <c r="B2209" s="3"/>
-      <c r="C2209" s="3"/>
-      <c r="D2209" s="3"/>
+      <c r="A2209" s="16" t="n">
+        <v>44930</v>
+      </c>
+      <c r="B2209" s="3" t="n">
+        <v>21.7357244705391</v>
+      </c>
+      <c r="C2209" s="3" t="n">
+        <v>23.9852304827938</v>
+      </c>
+      <c r="D2209" s="3" t="n">
+        <v>23.7304153182311</v>
+      </c>
     </row>
     <row r="2210">
-      <c r="A2210" s="6"/>
-      <c r="B2210" s="3"/>
-      <c r="C2210" s="3"/>
-      <c r="D2210" s="3"/>
+      <c r="A2210" s="16" t="n">
+        <v>44931</v>
+      </c>
+      <c r="B2210" s="3" t="n">
+        <v>21.7487256029557</v>
+      </c>
+      <c r="C2210" s="3" t="n">
+        <v>23.9977895480225</v>
+      </c>
+      <c r="D2210" s="3" t="n">
+        <v>23.7359390178092</v>
+      </c>
     </row>
     <row r="2211">
-      <c r="A2211" s="6"/>
-      <c r="B2211" s="3"/>
-      <c r="C2211" s="3"/>
-      <c r="D2211" s="3"/>
+      <c r="A2211" s="16" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B2211" s="3" t="n">
+        <v>21.758812947142</v>
+      </c>
+      <c r="C2211" s="3" t="n">
+        <v>24.006251923077</v>
+      </c>
+      <c r="D2211" s="3" t="n">
+        <v>23.7358111749912</v>
+      </c>
     </row>
     <row r="2212">
-      <c r="A2212" s="6"/>
-      <c r="B2212" s="3"/>
-      <c r="C2212" s="3"/>
-      <c r="D2212" s="3"/>
+      <c r="A2212" s="16" t="n">
+        <v>44933</v>
+      </c>
+      <c r="B2212" s="3" t="n">
+        <v>21.7679346050941</v>
+      </c>
+      <c r="C2212" s="3" t="n">
+        <v>24.0129497558471</v>
+      </c>
+      <c r="D2212" s="3" t="n">
+        <v>23.7371984540717</v>
+      </c>
     </row>
     <row r="2213">
-      <c r="A2213" s="6"/>
-      <c r="B2213" s="3"/>
-      <c r="C2213" s="3"/>
-      <c r="D2213" s="3"/>
+      <c r="A2213" s="16" t="n">
+        <v>44934</v>
+      </c>
+      <c r="B2213" s="3" t="n">
+        <v>21.7722291535613</v>
+      </c>
+      <c r="C2213" s="3" t="n">
+        <v>24.0141381997665</v>
+      </c>
+      <c r="D2213" s="3" t="n">
+        <v>23.7410346399273</v>
+      </c>
     </row>
     <row r="2214">
-      <c r="A2214" s="6"/>
-      <c r="B2214" s="3"/>
-      <c r="C2214" s="3"/>
-      <c r="D2214" s="3"/>
+      <c r="A2214" s="16" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B2214" s="3" t="n">
+        <v>21.7723343876297</v>
+      </c>
+      <c r="C2214" s="3" t="n">
+        <v>24.0177152361078</v>
+      </c>
+      <c r="D2214" s="3" t="n">
+        <v>23.7318526374034</v>
+      </c>
     </row>
     <row r="2215">
-      <c r="A2215" s="6"/>
-      <c r="B2215" s="3"/>
-      <c r="C2215" s="3"/>
-      <c r="D2215" s="3"/>
+      <c r="A2215" s="16" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B2215" s="3" t="n">
+        <v>21.7768241304501</v>
+      </c>
+      <c r="C2215" s="3" t="n">
+        <v>24.025545913742</v>
+      </c>
+      <c r="D2215" s="3" t="n">
+        <v>23.7348398022705</v>
+      </c>
     </row>
     <row r="2216">
-      <c r="A2216" s="6"/>
-      <c r="B2216" s="3"/>
-      <c r="C2216" s="3"/>
-      <c r="D2216" s="3"/>
+      <c r="A2216" s="16" t="n">
+        <v>44937</v>
+      </c>
+      <c r="B2216" s="3" t="n">
+        <v>21.7506245198688</v>
+      </c>
+      <c r="C2216" s="3" t="n">
+        <v>24.002566188816</v>
+      </c>
+      <c r="D2216" s="3" t="n">
+        <v>23.7346688014641</v>
+      </c>
     </row>
     <row r="2217">
-      <c r="A2217" s="6"/>
-      <c r="B2217" s="3"/>
-      <c r="C2217" s="3"/>
-      <c r="D2217" s="3"/>
+      <c r="A2217" s="16" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B2217" s="3" t="n">
+        <v>21.7134832617726</v>
+      </c>
+      <c r="C2217" s="3" t="n">
+        <v>23.9813281250002</v>
+      </c>
+      <c r="D2217" s="3" t="n">
+        <v>23.7331539447193</v>
+      </c>
     </row>
     <row r="2218">
-      <c r="A2218" s="6"/>
-      <c r="B2218" s="3"/>
-      <c r="C2218" s="3"/>
-      <c r="D2218" s="3"/>
+      <c r="A2218" s="16" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B2218" s="3" t="n">
+        <v>21.6968060929277</v>
+      </c>
+      <c r="C2218" s="3" t="n">
+        <v>23.9687354161267</v>
+      </c>
+      <c r="D2218" s="3" t="n">
+        <v>23.7318185978403</v>
+      </c>
     </row>
     <row r="2219">
-      <c r="A2219" s="6"/>
-      <c r="B2219" s="3"/>
-      <c r="C2219" s="3"/>
-      <c r="D2219" s="3"/>
+      <c r="A2219" s="16" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B2219" s="3" t="n">
+        <v>21.7075712288062</v>
+      </c>
+      <c r="C2219" s="3" t="n">
+        <v>24.0052120353679</v>
+      </c>
+      <c r="D2219" s="3" t="n">
+        <v>23.7297030257754</v>
+      </c>
     </row>
     <row r="2220">
-      <c r="A2220" s="6"/>
-      <c r="B2220" s="3"/>
-      <c r="C2220" s="3"/>
-      <c r="D2220" s="3"/>
+      <c r="A2220" s="16" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B2220" s="3" t="n">
+        <v>21.7109848163843</v>
+      </c>
+      <c r="C2220" s="3" t="n">
+        <v>24.009857810674</v>
+      </c>
+      <c r="D2220" s="3" t="n">
+        <v>23.7302682321499</v>
+      </c>
     </row>
     <row r="2221">
-      <c r="A2221" s="6"/>
-      <c r="B2221" s="3"/>
-      <c r="C2221" s="3"/>
-      <c r="D2221" s="3"/>
+      <c r="A2221" s="16" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B2221" s="3" t="n">
+        <v>21.7204795856836</v>
+      </c>
+      <c r="C2221" s="3" t="n">
+        <v>23.9911124853535</v>
+      </c>
+      <c r="D2221" s="3" t="n">
+        <v>23.7374063813529</v>
+      </c>
     </row>
     <row r="2222">
-      <c r="A2222" s="6"/>
-      <c r="B2222" s="3"/>
-      <c r="C2222" s="3"/>
-      <c r="D2222" s="3"/>
+      <c r="A2222" s="16" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B2222" s="3" t="n">
+        <v>21.7462989260991</v>
+      </c>
+      <c r="C2222" s="3" t="n">
+        <v>24.012426870308</v>
+      </c>
+      <c r="D2222" s="3" t="n">
+        <v>23.7357233719388</v>
+      </c>
     </row>
     <row r="2223">
-      <c r="A2223" s="6"/>
-      <c r="B2223" s="3"/>
-      <c r="C2223" s="3"/>
-      <c r="D2223" s="3"/>
+      <c r="A2223" s="16" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B2223" s="3" t="n">
+        <v>21.7597014480563</v>
+      </c>
+      <c r="C2223" s="3" t="n">
+        <v>24.0174716640905</v>
+      </c>
+      <c r="D2223" s="3" t="n">
+        <v>23.7411782534574</v>
+      </c>
     </row>
     <row r="2224">
-      <c r="A2224" s="6"/>
-      <c r="B2224" s="3"/>
-      <c r="C2224" s="3"/>
-      <c r="D2224" s="3"/>
+      <c r="A2224" s="16" t="n">
+        <v>44945</v>
+      </c>
+      <c r="B2224" s="3" t="n">
+        <v>21.773738360289</v>
+      </c>
+      <c r="C2224" s="3" t="n">
+        <v>24.0265542277048</v>
+      </c>
+      <c r="D2224" s="3" t="n">
+        <v>23.7415747583857</v>
+      </c>
     </row>
     <row r="2225">
-      <c r="A2225" s="6"/>
-      <c r="B2225" s="3"/>
-      <c r="C2225" s="3"/>
-      <c r="D2225" s="3"/>
+      <c r="A2225" s="16" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B2225" s="3" t="n">
+        <v>21.7738266793079</v>
+      </c>
+      <c r="C2225" s="3" t="n">
+        <v>24.0406233149311</v>
+      </c>
+      <c r="D2225" s="3" t="n">
+        <v>23.742337600306</v>
+      </c>
     </row>
     <row r="2226">
-      <c r="A2226" s="6"/>
-      <c r="B2226" s="3"/>
-      <c r="C2226" s="3"/>
-      <c r="D2226" s="3"/>
+      <c r="A2226" s="16" t="n">
+        <v>44947</v>
+      </c>
+      <c r="B2226" s="3" t="n">
+        <v>21.7704026917327</v>
+      </c>
+      <c r="C2226" s="3" t="n">
+        <v>24.0440032175031</v>
+      </c>
+      <c r="D2226" s="3" t="n">
+        <v>23.7440680900175</v>
+      </c>
     </row>
     <row r="2227">
-      <c r="A2227" s="6"/>
-      <c r="B2227" s="3"/>
-      <c r="C2227" s="3"/>
-      <c r="D2227" s="3"/>
+      <c r="A2227" s="16" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B2227" s="3" t="n">
+        <v>21.7654730023951</v>
+      </c>
+      <c r="C2227" s="3" t="n">
+        <v>24.0479419191919</v>
+      </c>
+      <c r="D2227" s="3" t="n">
+        <v>23.7416491783807</v>
+      </c>
     </row>
     <row r="2228">
-      <c r="A2228" s="6"/>
-      <c r="B2228" s="3"/>
-      <c r="C2228" s="3"/>
-      <c r="D2228" s="3"/>
+      <c r="A2228" s="16" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B2228" s="3" t="n">
+        <v>21.7706093308375</v>
+      </c>
+      <c r="C2228" s="3" t="n">
+        <v>24.0550795738524</v>
+      </c>
+      <c r="D2228" s="3" t="n">
+        <v>23.7413654538187</v>
+      </c>
     </row>
     <row r="2229">
-      <c r="A2229" s="6"/>
-      <c r="B2229" s="3"/>
-      <c r="C2229" s="3"/>
-      <c r="D2229" s="3"/>
+      <c r="A2229" s="16" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B2229" s="3" t="n">
+        <v>21.7784473386598</v>
+      </c>
+      <c r="C2229" s="3" t="n">
+        <v>24.0617623004023</v>
+      </c>
+      <c r="D2229" s="3" t="n">
+        <v>23.740400634669</v>
+      </c>
     </row>
     <row r="2230">
-      <c r="A2230" s="6"/>
-      <c r="B2230" s="3"/>
-      <c r="C2230" s="3"/>
-      <c r="D2230" s="3"/>
+      <c r="A2230" s="16" t="n">
+        <v>44951</v>
+      </c>
+      <c r="B2230" s="3" t="n">
+        <v>21.7834965175219</v>
+      </c>
+      <c r="C2230" s="3" t="n">
+        <v>24.0683854234208</v>
+      </c>
+      <c r="D2230" s="3" t="n">
+        <v>23.747483241325</v>
+      </c>
     </row>
     <row r="2231">
-      <c r="A2231" s="6"/>
-      <c r="B2231" s="3"/>
-      <c r="C2231" s="3"/>
-      <c r="D2231" s="3"/>
+      <c r="A2231" s="16" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B2231" s="3" t="n">
+        <v>21.8022413856037</v>
+      </c>
+      <c r="C2231" s="3" t="n">
+        <v>24.0829260807102</v>
+      </c>
+      <c r="D2231" s="3" t="n">
+        <v>23.7631976071016</v>
+      </c>
     </row>
     <row r="2232">
-      <c r="A2232" s="6"/>
-      <c r="B2232" s="3"/>
-      <c r="C2232" s="3"/>
-      <c r="D2232" s="3"/>
+      <c r="A2232" s="16" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B2232" s="3" t="n">
+        <v>21.8161408730159</v>
+      </c>
+      <c r="C2232" s="3" t="n">
+        <v>24.1082732197118</v>
+      </c>
+      <c r="D2232" s="3" t="n">
+        <v>23.7662606013879</v>
+      </c>
     </row>
     <row r="2233">
-      <c r="A2233" s="6"/>
-      <c r="B2233" s="3"/>
-      <c r="C2233" s="3"/>
-      <c r="D2233" s="3"/>
+      <c r="A2233" s="16" t="n">
+        <v>44954</v>
+      </c>
+      <c r="B2233" s="3" t="n">
+        <v>21.818541089054</v>
+      </c>
+      <c r="C2233" s="3" t="n">
+        <v>24.1148728308384</v>
+      </c>
+      <c r="D2233" s="3" t="n">
+        <v>23.7706371799771</v>
+      </c>
     </row>
     <row r="2234">
-      <c r="A2234" s="6"/>
-      <c r="B2234" s="3"/>
-      <c r="C2234" s="3"/>
-      <c r="D2234" s="3"/>
+      <c r="A2234" s="16" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B2234" s="3" t="n">
+        <v>21.8108567399888</v>
+      </c>
+      <c r="C2234" s="3" t="n">
+        <v>24.115004705566</v>
+      </c>
+      <c r="D2234" s="3" t="n">
+        <v>23.7667057039619</v>
+      </c>
     </row>
     <row r="2235">
-      <c r="A2235" s="6"/>
-      <c r="B2235" s="3"/>
-      <c r="C2235" s="3"/>
-      <c r="D2235" s="3"/>
+      <c r="A2235" s="16" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B2235" s="3" t="n">
+        <v>21.8164272737596</v>
+      </c>
+      <c r="C2235" s="3" t="n">
+        <v>24.1181260140616</v>
+      </c>
+      <c r="D2235" s="3" t="n">
+        <v>23.7680083041391</v>
+      </c>
     </row>
     <row r="2236">
-      <c r="A2236" s="6"/>
-      <c r="B2236" s="3"/>
-      <c r="C2236" s="3"/>
-      <c r="D2236" s="3"/>
+      <c r="A2236" s="16" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B2236" s="3" t="n">
+        <v>21.8217291784704</v>
+      </c>
+      <c r="C2236" s="3" t="n">
+        <v>24.1258726510749</v>
+      </c>
+      <c r="D2236" s="3" t="n">
+        <v>23.7607631186353</v>
+      </c>
     </row>
     <row r="2237">
       <c r="A2237" s="6"/>
@@ -42608,33 +42921,49 @@
         <v>1426</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>22.09</v>
+        <v>22.0885742442224</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>21.5012903225806</v>
+        <v>21.5015986142566</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>24.66</v>
+        <v>24.6590477945199</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>23.9016129032258</v>
+        <v>23.9014077550353</v>
       </c>
       <c r="G87" s="3" t="n">
-        <v>23.83</v>
+        <v>23.8343366106572</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>23.6625806451613</v>
+        <v>23.6626882880369</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="6"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
+      <c r="A88" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>22.3261788619478</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>21.76065738756</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>24.7967008395776</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>24.0338034812858</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>23.9237056787865</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>23.7414361307134</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - enero 2023</t>
+    <t xml:space="preserve">enero 2017 - febrero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: marzo 2023</t>
+    <t xml:space="preserve">Próxima actualización: abril 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2023</t>
+    <t xml:space="preserve">febrero 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -36080,172 +36080,396 @@
       </c>
     </row>
     <row r="2237">
-      <c r="A2237" s="6"/>
-      <c r="B2237" s="3"/>
-      <c r="C2237" s="3"/>
-      <c r="D2237" s="3"/>
+      <c r="A2237" s="16" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B2237" s="3" t="n">
+        <v>21.8270277966359</v>
+      </c>
+      <c r="C2237" s="3" t="n">
+        <v>24.1267419884964</v>
+      </c>
+      <c r="D2237" s="3" t="n">
+        <v>23.7338556973448</v>
+      </c>
     </row>
     <row r="2238">
-      <c r="A2238" s="6"/>
-      <c r="B2238" s="3"/>
-      <c r="C2238" s="3"/>
-      <c r="D2238" s="3"/>
+      <c r="A2238" s="16" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B2238" s="3" t="n">
+        <v>21.8369065409819</v>
+      </c>
+      <c r="C2238" s="3" t="n">
+        <v>24.121330819718</v>
+      </c>
+      <c r="D2238" s="3" t="n">
+        <v>23.6992872978613</v>
+      </c>
     </row>
     <row r="2239">
-      <c r="A2239" s="6"/>
-      <c r="B2239" s="3"/>
-      <c r="C2239" s="3"/>
-      <c r="D2239" s="3"/>
+      <c r="A2239" s="16" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B2239" s="3" t="n">
+        <v>21.8154754489179</v>
+      </c>
+      <c r="C2239" s="3" t="n">
+        <v>24.0993902267287</v>
+      </c>
+      <c r="D2239" s="3" t="n">
+        <v>23.6536611646035</v>
+      </c>
     </row>
     <row r="2240">
-      <c r="A2240" s="6"/>
-      <c r="B2240" s="3"/>
-      <c r="C2240" s="3"/>
-      <c r="D2240" s="3"/>
+      <c r="A2240" s="16" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B2240" s="3" t="n">
+        <v>21.7990454405068</v>
+      </c>
+      <c r="C2240" s="3" t="n">
+        <v>24.0898974830316</v>
+      </c>
+      <c r="D2240" s="3" t="n">
+        <v>23.6371555989584</v>
+      </c>
     </row>
     <row r="2241">
-      <c r="A2241" s="6"/>
-      <c r="B2241" s="3"/>
-      <c r="C2241" s="3"/>
-      <c r="D2241" s="3"/>
+      <c r="A2241" s="16" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B2241" s="3" t="n">
+        <v>21.7890148025671</v>
+      </c>
+      <c r="C2241" s="3" t="n">
+        <v>24.0904563633766</v>
+      </c>
+      <c r="D2241" s="3" t="n">
+        <v>23.638415402797</v>
+      </c>
     </row>
     <row r="2242">
-      <c r="A2242" s="6"/>
-      <c r="B2242" s="3"/>
-      <c r="C2242" s="3"/>
-      <c r="D2242" s="3"/>
+      <c r="A2242" s="16" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B2242" s="3" t="n">
+        <v>21.7830159014115</v>
+      </c>
+      <c r="C2242" s="3" t="n">
+        <v>24.0893033675386</v>
+      </c>
+      <c r="D2242" s="3" t="n">
+        <v>23.6258603117507</v>
+      </c>
     </row>
     <row r="2243">
-      <c r="A2243" s="6"/>
-      <c r="B2243" s="3"/>
-      <c r="C2243" s="3"/>
-      <c r="D2243" s="3"/>
+      <c r="A2243" s="16" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B2243" s="3" t="n">
+        <v>21.7585057538985</v>
+      </c>
+      <c r="C2243" s="3" t="n">
+        <v>24.0687708451771</v>
+      </c>
+      <c r="D2243" s="3" t="n">
+        <v>23.5967409662216</v>
+      </c>
     </row>
     <row r="2244">
-      <c r="A2244" s="6"/>
-      <c r="B2244" s="3"/>
-      <c r="C2244" s="3"/>
-      <c r="D2244" s="3"/>
+      <c r="A2244" s="16" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B2244" s="3" t="n">
+        <v>21.7060717625062</v>
+      </c>
+      <c r="C2244" s="3" t="n">
+        <v>24.0371375176304</v>
+      </c>
+      <c r="D2244" s="3" t="n">
+        <v>23.5544720556953</v>
+      </c>
     </row>
     <row r="2245">
-      <c r="A2245" s="6"/>
-      <c r="B2245" s="3"/>
-      <c r="C2245" s="3"/>
-      <c r="D2245" s="3"/>
+      <c r="A2245" s="16" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B2245" s="3" t="n">
+        <v>21.703428543614</v>
+      </c>
+      <c r="C2245" s="3" t="n">
+        <v>24.0346372618207</v>
+      </c>
+      <c r="D2245" s="3" t="n">
+        <v>23.5445097471532</v>
+      </c>
     </row>
     <row r="2246">
-      <c r="A2246" s="6"/>
-      <c r="B2246" s="3"/>
-      <c r="C2246" s="3"/>
-      <c r="D2246" s="3"/>
+      <c r="A2246" s="16" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B2246" s="3" t="n">
+        <v>21.7089209726445</v>
+      </c>
+      <c r="C2246" s="3" t="n">
+        <v>24.0413801317079</v>
+      </c>
+      <c r="D2246" s="3" t="n">
+        <v>23.5359438482178</v>
+      </c>
     </row>
     <row r="2247">
-      <c r="A2247" s="6"/>
-      <c r="B2247" s="3"/>
-      <c r="C2247" s="3"/>
-      <c r="D2247" s="3"/>
+      <c r="A2247" s="16" t="n">
+        <v>44968</v>
+      </c>
+      <c r="B2247" s="3" t="n">
+        <v>21.7376344211347</v>
+      </c>
+      <c r="C2247" s="3" t="n">
+        <v>24.0536746064911</v>
+      </c>
+      <c r="D2247" s="3" t="n">
+        <v>23.5653055555557</v>
+      </c>
     </row>
     <row r="2248">
-      <c r="A2248" s="6"/>
-      <c r="B2248" s="3"/>
-      <c r="C2248" s="3"/>
-      <c r="D2248" s="3"/>
+      <c r="A2248" s="16" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B2248" s="3" t="n">
+        <v>21.7481405669602</v>
+      </c>
+      <c r="C2248" s="3" t="n">
+        <v>24.0553695377265</v>
+      </c>
+      <c r="D2248" s="3" t="n">
+        <v>23.5663762528915</v>
+      </c>
     </row>
     <row r="2249">
-      <c r="A2249" s="6"/>
-      <c r="B2249" s="3"/>
-      <c r="C2249" s="3"/>
-      <c r="D2249" s="3"/>
+      <c r="A2249" s="16" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B2249" s="3" t="n">
+        <v>21.7512391028691</v>
+      </c>
+      <c r="C2249" s="3" t="n">
+        <v>24.0476871963417</v>
+      </c>
+      <c r="D2249" s="3" t="n">
+        <v>23.5843642345657</v>
+      </c>
     </row>
     <row r="2250">
-      <c r="A2250" s="6"/>
-      <c r="B2250" s="3"/>
-      <c r="C2250" s="3"/>
-      <c r="D2250" s="3"/>
+      <c r="A2250" s="16" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B2250" s="3" t="n">
+        <v>21.7973994269565</v>
+      </c>
+      <c r="C2250" s="3" t="n">
+        <v>24.0858628318584</v>
+      </c>
+      <c r="D2250" s="3" t="n">
+        <v>23.6126670452396</v>
+      </c>
     </row>
     <row r="2251">
-      <c r="A2251" s="6"/>
-      <c r="B2251" s="3"/>
-      <c r="C2251" s="3"/>
-      <c r="D2251" s="3"/>
+      <c r="A2251" s="16" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B2251" s="3" t="n">
+        <v>21.8229053768402</v>
+      </c>
+      <c r="C2251" s="3" t="n">
+        <v>24.1089308825556</v>
+      </c>
+      <c r="D2251" s="3" t="n">
+        <v>23.6468268145922</v>
+      </c>
     </row>
     <row r="2252">
-      <c r="A2252" s="6"/>
-      <c r="B2252" s="3"/>
-      <c r="C2252" s="3"/>
-      <c r="D2252" s="3"/>
+      <c r="A2252" s="16" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B2252" s="3" t="n">
+        <v>21.8437885403503</v>
+      </c>
+      <c r="C2252" s="3" t="n">
+        <v>24.1285544635546</v>
+      </c>
+      <c r="D2252" s="3" t="n">
+        <v>23.6725806451615</v>
+      </c>
     </row>
     <row r="2253">
-      <c r="A2253" s="6"/>
-      <c r="B2253" s="3"/>
-      <c r="C2253" s="3"/>
-      <c r="D2253" s="3"/>
+      <c r="A2253" s="16" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B2253" s="3" t="n">
+        <v>21.8556245000575</v>
+      </c>
+      <c r="C2253" s="3" t="n">
+        <v>24.137450579414</v>
+      </c>
+      <c r="D2253" s="3" t="n">
+        <v>23.6793529628948</v>
+      </c>
     </row>
     <row r="2254">
-      <c r="A2254" s="6"/>
-      <c r="B2254" s="3"/>
-      <c r="C2254" s="3"/>
-      <c r="D2254" s="3"/>
+      <c r="A2254" s="16" t="n">
+        <v>44975</v>
+      </c>
+      <c r="B2254" s="3" t="n">
+        <v>21.8642430800777</v>
+      </c>
+      <c r="C2254" s="3" t="n">
+        <v>24.1318702445655</v>
+      </c>
+      <c r="D2254" s="3" t="n">
+        <v>23.6819630038655</v>
+      </c>
     </row>
     <row r="2255">
-      <c r="A2255" s="6"/>
-      <c r="B2255" s="3"/>
-      <c r="C2255" s="3"/>
-      <c r="D2255" s="3"/>
+      <c r="A2255" s="16" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B2255" s="3" t="n">
+        <v>21.8692377838956</v>
+      </c>
+      <c r="C2255" s="3" t="n">
+        <v>24.1298309975271</v>
+      </c>
+      <c r="D2255" s="3" t="n">
+        <v>23.680573466741</v>
+      </c>
     </row>
     <row r="2256">
-      <c r="A2256" s="6"/>
-      <c r="B2256" s="3"/>
-      <c r="C2256" s="3"/>
-      <c r="D2256" s="3"/>
+      <c r="A2256" s="16" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B2256" s="3" t="n">
+        <v>21.8593478010594</v>
+      </c>
+      <c r="C2256" s="3" t="n">
+        <v>24.1303556629837</v>
+      </c>
+      <c r="D2256" s="3" t="n">
+        <v>23.6782696964056</v>
+      </c>
     </row>
     <row r="2257">
-      <c r="A2257" s="6"/>
-      <c r="B2257" s="3"/>
-      <c r="C2257" s="3"/>
-      <c r="D2257" s="3"/>
+      <c r="A2257" s="16" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B2257" s="3" t="n">
+        <v>21.826567844926</v>
+      </c>
+      <c r="C2257" s="3" t="n">
+        <v>24.104058286804</v>
+      </c>
+      <c r="D2257" s="3" t="n">
+        <v>23.6589400625118</v>
+      </c>
     </row>
     <row r="2258">
-      <c r="A2258" s="6"/>
-      <c r="B2258" s="3"/>
-      <c r="C2258" s="3"/>
-      <c r="D2258" s="3"/>
+      <c r="A2258" s="16" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B2258" s="3" t="n">
+        <v>21.8037019612291</v>
+      </c>
+      <c r="C2258" s="3" t="n">
+        <v>24.08850541272</v>
+      </c>
+      <c r="D2258" s="3" t="n">
+        <v>23.6418603168824</v>
+      </c>
     </row>
     <row r="2259">
-      <c r="A2259" s="6"/>
-      <c r="B2259" s="3"/>
-      <c r="C2259" s="3"/>
-      <c r="D2259" s="3"/>
+      <c r="A2259" s="16" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B2259" s="3" t="n">
+        <v>21.7915077202545</v>
+      </c>
+      <c r="C2259" s="3" t="n">
+        <v>24.0741402562373</v>
+      </c>
+      <c r="D2259" s="3" t="n">
+        <v>23.6382666183664</v>
+      </c>
     </row>
     <row r="2260">
-      <c r="A2260" s="6"/>
-      <c r="B2260" s="3"/>
-      <c r="C2260" s="3"/>
-      <c r="D2260" s="3"/>
+      <c r="A2260" s="16" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B2260" s="3" t="n">
+        <v>21.7560299412546</v>
+      </c>
+      <c r="C2260" s="3" t="n">
+        <v>24.0524299275655</v>
+      </c>
+      <c r="D2260" s="3" t="n">
+        <v>23.620764631274</v>
+      </c>
     </row>
     <row r="2261">
-      <c r="A2261" s="6"/>
-      <c r="B2261" s="3"/>
-      <c r="C2261" s="3"/>
-      <c r="D2261" s="3"/>
+      <c r="A2261" s="16" t="n">
+        <v>44982</v>
+      </c>
+      <c r="B2261" s="3" t="n">
+        <v>21.7484341174221</v>
+      </c>
+      <c r="C2261" s="3" t="n">
+        <v>24.0708094388805</v>
+      </c>
+      <c r="D2261" s="3" t="n">
+        <v>23.6291271591329</v>
+      </c>
     </row>
     <row r="2262">
-      <c r="A2262" s="6"/>
-      <c r="B2262" s="3"/>
-      <c r="C2262" s="3"/>
-      <c r="D2262" s="3"/>
+      <c r="A2262" s="16" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B2262" s="3" t="n">
+        <v>21.7591056294224</v>
+      </c>
+      <c r="C2262" s="3" t="n">
+        <v>24.0701181268457</v>
+      </c>
+      <c r="D2262" s="3" t="n">
+        <v>23.6221747281592</v>
+      </c>
     </row>
     <row r="2263">
-      <c r="A2263" s="6"/>
-      <c r="B2263" s="3"/>
-      <c r="C2263" s="3"/>
-      <c r="D2263" s="3"/>
+      <c r="A2263" s="16" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B2263" s="3" t="n">
+        <v>21.7751614362122</v>
+      </c>
+      <c r="C2263" s="3" t="n">
+        <v>24.0755247045422</v>
+      </c>
+      <c r="D2263" s="3" t="n">
+        <v>23.6253288219598</v>
+      </c>
     </row>
     <row r="2264">
-      <c r="A2264" s="6"/>
-      <c r="B2264" s="3"/>
-      <c r="C2264" s="3"/>
-      <c r="D2264" s="3"/>
+      <c r="A2264" s="16" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B2264" s="3" t="n">
+        <v>21.7793388235296</v>
+      </c>
+      <c r="C2264" s="3" t="n">
+        <v>24.0757754237289</v>
+      </c>
+      <c r="D2264" s="3" t="n">
+        <v>23.6477288167581</v>
+      </c>
     </row>
     <row r="2265">
       <c r="A2265" s="6"/>
@@ -42967,13 +43191,27 @@
     </row>
     <row r="89">
       <c r="A89" s="6"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>22.3928779192125</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>21.7898864656477</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>24.8062525170852</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>24.086428378056</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>23.8097106622658</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>23.6311561758415</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - febrero 2023</t>
+    <t xml:space="preserve">enero 2017 - marzo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: abril 2023</t>
+    <t xml:space="preserve">Próxima actualización: mayo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">febrero 2023</t>
+    <t xml:space="preserve">marzo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -36472,190 +36472,438 @@
       </c>
     </row>
     <row r="2265">
-      <c r="A2265" s="6"/>
-      <c r="B2265" s="3"/>
-      <c r="C2265" s="3"/>
-      <c r="D2265" s="3"/>
+      <c r="A2265" s="16" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B2265" s="3" t="n">
+        <v>21.7421844331643</v>
+      </c>
+      <c r="C2265" s="3" t="n">
+        <v>24.0768744704887</v>
+      </c>
+      <c r="D2265" s="3" t="n">
+        <v>23.6702778824418</v>
+      </c>
     </row>
     <row r="2266">
-      <c r="A2266" s="6"/>
-      <c r="B2266" s="3"/>
-      <c r="C2266" s="3"/>
-      <c r="D2266" s="3"/>
+      <c r="A2266" s="16" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B2266" s="3" t="n">
+        <v>21.7625777185638</v>
+      </c>
+      <c r="C2266" s="3" t="n">
+        <v>24.0929617879302</v>
+      </c>
+      <c r="D2266" s="3" t="n">
+        <v>23.6976580861781</v>
+      </c>
     </row>
     <row r="2267">
-      <c r="A2267" s="6"/>
-      <c r="B2267" s="3"/>
-      <c r="C2267" s="3"/>
-      <c r="D2267" s="3"/>
+      <c r="A2267" s="16" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B2267" s="3" t="n">
+        <v>21.7834850603943</v>
+      </c>
+      <c r="C2267" s="3" t="n">
+        <v>24.1060779330795</v>
+      </c>
+      <c r="D2267" s="3" t="n">
+        <v>23.7124077196928</v>
+      </c>
     </row>
     <row r="2268">
-      <c r="A2268" s="6"/>
-      <c r="B2268" s="3"/>
-      <c r="C2268" s="3"/>
-      <c r="D2268" s="3"/>
+      <c r="A2268" s="16" t="n">
+        <v>44989</v>
+      </c>
+      <c r="B2268" s="3" t="n">
+        <v>21.8152856719955</v>
+      </c>
+      <c r="C2268" s="3" t="n">
+        <v>24.1355472496476</v>
+      </c>
+      <c r="D2268" s="3" t="n">
+        <v>23.7289145474945</v>
+      </c>
     </row>
     <row r="2269">
-      <c r="A2269" s="6"/>
-      <c r="B2269" s="3"/>
-      <c r="C2269" s="3"/>
-      <c r="D2269" s="3"/>
+      <c r="A2269" s="16" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B2269" s="3" t="n">
+        <v>21.8227954931975</v>
+      </c>
+      <c r="C2269" s="3" t="n">
+        <v>24.1376086648735</v>
+      </c>
+      <c r="D2269" s="3" t="n">
+        <v>23.7378618421054</v>
+      </c>
     </row>
     <row r="2270">
-      <c r="A2270" s="6"/>
-      <c r="B2270" s="3"/>
-      <c r="C2270" s="3"/>
-      <c r="D2270" s="3"/>
+      <c r="A2270" s="16" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B2270" s="3" t="n">
+        <v>21.83875799551</v>
+      </c>
+      <c r="C2270" s="3" t="n">
+        <v>24.1508581560286</v>
+      </c>
+      <c r="D2270" s="3" t="n">
+        <v>23.7481319196848</v>
+      </c>
     </row>
     <row r="2271">
-      <c r="A2271" s="6"/>
-      <c r="B2271" s="3"/>
-      <c r="C2271" s="3"/>
-      <c r="D2271" s="3"/>
+      <c r="A2271" s="16" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B2271" s="3" t="n">
+        <v>21.8688781770379</v>
+      </c>
+      <c r="C2271" s="3" t="n">
+        <v>24.1721558803064</v>
+      </c>
+      <c r="D2271" s="3" t="n">
+        <v>23.7570005488475</v>
+      </c>
     </row>
     <row r="2272">
-      <c r="A2272" s="6"/>
-      <c r="B2272" s="3"/>
-      <c r="C2272" s="3"/>
-      <c r="D2272" s="3"/>
+      <c r="A2272" s="16" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B2272" s="3" t="n">
+        <v>21.8825181968571</v>
+      </c>
+      <c r="C2272" s="3" t="n">
+        <v>24.1850219358379</v>
+      </c>
+      <c r="D2272" s="3" t="n">
+        <v>23.7615042334715</v>
+      </c>
     </row>
     <row r="2273">
-      <c r="A2273" s="6"/>
-      <c r="B2273" s="3"/>
-      <c r="C2273" s="3"/>
-      <c r="D2273" s="3"/>
+      <c r="A2273" s="16" t="n">
+        <v>44994</v>
+      </c>
+      <c r="B2273" s="3" t="n">
+        <v>21.9051108651996</v>
+      </c>
+      <c r="C2273" s="3" t="n">
+        <v>24.1984562023942</v>
+      </c>
+      <c r="D2273" s="3" t="n">
+        <v>23.7580284589225</v>
+      </c>
     </row>
     <row r="2274">
-      <c r="A2274" s="6"/>
-      <c r="B2274" s="3"/>
-      <c r="C2274" s="3"/>
-      <c r="D2274" s="3"/>
+      <c r="A2274" s="16" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B2274" s="3" t="n">
+        <v>21.9170244138266</v>
+      </c>
+      <c r="C2274" s="3" t="n">
+        <v>24.2012106641386</v>
+      </c>
+      <c r="D2274" s="3" t="n">
+        <v>23.7463658028001</v>
+      </c>
     </row>
     <row r="2275">
-      <c r="A2275" s="6"/>
-      <c r="B2275" s="3"/>
-      <c r="C2275" s="3"/>
-      <c r="D2275" s="3"/>
+      <c r="A2275" s="16" t="n">
+        <v>44996</v>
+      </c>
+      <c r="B2275" s="3" t="n">
+        <v>21.9013008276361</v>
+      </c>
+      <c r="C2275" s="3" t="n">
+        <v>24.1868386762255</v>
+      </c>
+      <c r="D2275" s="3" t="n">
+        <v>23.7338068485822</v>
+      </c>
     </row>
     <row r="2276">
-      <c r="A2276" s="6"/>
-      <c r="B2276" s="3"/>
-      <c r="C2276" s="3"/>
-      <c r="D2276" s="3"/>
+      <c r="A2276" s="16" t="n">
+        <v>44997</v>
+      </c>
+      <c r="B2276" s="3" t="n">
+        <v>21.8955253035223</v>
+      </c>
+      <c r="C2276" s="3" t="n">
+        <v>24.1832944679306</v>
+      </c>
+      <c r="D2276" s="3" t="n">
+        <v>23.7307442404609</v>
+      </c>
     </row>
     <row r="2277">
-      <c r="A2277" s="6"/>
-      <c r="B2277" s="3"/>
-      <c r="C2277" s="3"/>
-      <c r="D2277" s="3"/>
+      <c r="A2277" s="16" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B2277" s="3" t="n">
+        <v>21.8856602633807</v>
+      </c>
+      <c r="C2277" s="3" t="n">
+        <v>24.1789627329196</v>
+      </c>
+      <c r="D2277" s="3" t="n">
+        <v>23.7209728506788</v>
+      </c>
     </row>
     <row r="2278">
-      <c r="A2278" s="6"/>
-      <c r="B2278" s="3"/>
-      <c r="C2278" s="3"/>
-      <c r="D2278" s="3"/>
+      <c r="A2278" s="16" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B2278" s="3" t="n">
+        <v>21.883385877908</v>
+      </c>
+      <c r="C2278" s="3" t="n">
+        <v>24.1730377358495</v>
+      </c>
+      <c r="D2278" s="3" t="n">
+        <v>23.7352510200461</v>
+      </c>
     </row>
     <row r="2279">
-      <c r="A2279" s="6"/>
-      <c r="B2279" s="3"/>
-      <c r="C2279" s="3"/>
-      <c r="D2279" s="3"/>
+      <c r="A2279" s="16" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B2279" s="3" t="n">
+        <v>21.8749421364405</v>
+      </c>
+      <c r="C2279" s="3" t="n">
+        <v>24.1743118091133</v>
+      </c>
+      <c r="D2279" s="3" t="n">
+        <v>23.7419943372855</v>
+      </c>
     </row>
     <row r="2280">
-      <c r="A2280" s="6"/>
-      <c r="B2280" s="3"/>
-      <c r="C2280" s="3"/>
-      <c r="D2280" s="3"/>
+      <c r="A2280" s="16" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B2280" s="3" t="n">
+        <v>21.8597098160976</v>
+      </c>
+      <c r="C2280" s="3" t="n">
+        <v>24.1634980646948</v>
+      </c>
+      <c r="D2280" s="3" t="n">
+        <v>23.7326619870411</v>
+      </c>
     </row>
     <row r="2281">
-      <c r="A2281" s="6"/>
-      <c r="B2281" s="3"/>
-      <c r="C2281" s="3"/>
-      <c r="D2281" s="3"/>
+      <c r="A2281" s="16" t="n">
+        <v>45002</v>
+      </c>
+      <c r="B2281" s="3" t="n">
+        <v>21.8483091612281</v>
+      </c>
+      <c r="C2281" s="3" t="n">
+        <v>24.1619870713886</v>
+      </c>
+      <c r="D2281" s="3" t="n">
+        <v>23.7194856042546</v>
+      </c>
     </row>
     <row r="2282">
-      <c r="A2282" s="6"/>
-      <c r="B2282" s="3"/>
-      <c r="C2282" s="3"/>
-      <c r="D2282" s="3"/>
+      <c r="A2282" s="16" t="n">
+        <v>45003</v>
+      </c>
+      <c r="B2282" s="3" t="n">
+        <v>21.857456959263</v>
+      </c>
+      <c r="C2282" s="3" t="n">
+        <v>24.1738162368945</v>
+      </c>
+      <c r="D2282" s="3" t="n">
+        <v>23.7137404509037</v>
+      </c>
     </row>
     <row r="2283">
-      <c r="A2283" s="6"/>
-      <c r="B2283" s="3"/>
-      <c r="C2283" s="3"/>
-      <c r="D2283" s="3"/>
+      <c r="A2283" s="16" t="n">
+        <v>45004</v>
+      </c>
+      <c r="B2283" s="3" t="n">
+        <v>21.8653643247271</v>
+      </c>
+      <c r="C2283" s="3" t="n">
+        <v>24.176666907933</v>
+      </c>
+      <c r="D2283" s="3" t="n">
+        <v>23.7120291373072</v>
+      </c>
     </row>
     <row r="2284">
-      <c r="A2284" s="6"/>
-      <c r="B2284" s="3"/>
-      <c r="C2284" s="3"/>
-      <c r="D2284" s="3"/>
+      <c r="A2284" s="16" t="n">
+        <v>45005</v>
+      </c>
+      <c r="B2284" s="3" t="n">
+        <v>21.8657356278368</v>
+      </c>
+      <c r="C2284" s="3" t="n">
+        <v>24.1761301016651</v>
+      </c>
+      <c r="D2284" s="3" t="n">
+        <v>23.7059017184785</v>
+      </c>
     </row>
     <row r="2285">
-      <c r="A2285" s="6"/>
-      <c r="B2285" s="3"/>
-      <c r="C2285" s="3"/>
-      <c r="D2285" s="3"/>
+      <c r="A2285" s="16" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B2285" s="3" t="n">
+        <v>21.8719473794552</v>
+      </c>
+      <c r="C2285" s="3" t="n">
+        <v>24.1813313782993</v>
+      </c>
+      <c r="D2285" s="3" t="n">
+        <v>23.7063010155202</v>
+      </c>
     </row>
     <row r="2286">
-      <c r="A2286" s="6"/>
-      <c r="B2286" s="3"/>
-      <c r="C2286" s="3"/>
-      <c r="D2286" s="3"/>
+      <c r="A2286" s="16" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B2286" s="3" t="n">
+        <v>21.8812420355469</v>
+      </c>
+      <c r="C2286" s="3" t="n">
+        <v>24.1973500434659</v>
+      </c>
+      <c r="D2286" s="3" t="n">
+        <v>23.7075787965616</v>
+      </c>
     </row>
     <row r="2287">
-      <c r="A2287" s="6"/>
-      <c r="B2287" s="3"/>
-      <c r="C2287" s="3"/>
-      <c r="D2287" s="3"/>
+      <c r="A2287" s="16" t="n">
+        <v>45008</v>
+      </c>
+      <c r="B2287" s="3" t="n">
+        <v>21.842953278416</v>
+      </c>
+      <c r="C2287" s="3" t="n">
+        <v>24.1786037385848</v>
+      </c>
+      <c r="D2287" s="3" t="n">
+        <v>23.7009944166345</v>
+      </c>
     </row>
     <row r="2288">
-      <c r="A2288" s="6"/>
-      <c r="B2288" s="3"/>
-      <c r="C2288" s="3"/>
-      <c r="D2288" s="3"/>
+      <c r="A2288" s="16" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B2288" s="3" t="n">
+        <v>21.8471695599686</v>
+      </c>
+      <c r="C2288" s="3" t="n">
+        <v>24.192998484418</v>
+      </c>
+      <c r="D2288" s="3" t="n">
+        <v>23.6994732947232</v>
+      </c>
     </row>
     <row r="2289">
-      <c r="A2289" s="6"/>
-      <c r="B2289" s="3"/>
-      <c r="C2289" s="3"/>
-      <c r="D2289" s="3"/>
+      <c r="A2289" s="16" t="n">
+        <v>45010</v>
+      </c>
+      <c r="B2289" s="3" t="n">
+        <v>21.8521788923723</v>
+      </c>
+      <c r="C2289" s="3" t="n">
+        <v>24.2037367108853</v>
+      </c>
+      <c r="D2289" s="3" t="n">
+        <v>23.6940677306345</v>
+      </c>
     </row>
     <row r="2290">
-      <c r="A2290" s="6"/>
-      <c r="B2290" s="3"/>
-      <c r="C2290" s="3"/>
-      <c r="D2290" s="3"/>
+      <c r="A2290" s="16" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B2290" s="3" t="n">
+        <v>21.8621456253426</v>
+      </c>
+      <c r="C2290" s="3" t="n">
+        <v>24.2130238670266</v>
+      </c>
+      <c r="D2290" s="3" t="n">
+        <v>23.6947590953785</v>
+      </c>
     </row>
     <row r="2291">
-      <c r="A2291" s="6"/>
-      <c r="B2291" s="3"/>
-      <c r="C2291" s="3"/>
-      <c r="D2291" s="3"/>
+      <c r="A2291" s="16" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B2291" s="3" t="n">
+        <v>21.8683472662025</v>
+      </c>
+      <c r="C2291" s="3" t="n">
+        <v>24.2600618264048</v>
+      </c>
+      <c r="D2291" s="3" t="n">
+        <v>23.6943069013249</v>
+      </c>
     </row>
     <row r="2292">
-      <c r="A2292" s="6"/>
-      <c r="B2292" s="3"/>
-      <c r="C2292" s="3"/>
-      <c r="D2292" s="3"/>
+      <c r="A2292" s="16" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B2292" s="3" t="n">
+        <v>21.873164366374</v>
+      </c>
+      <c r="C2292" s="3" t="n">
+        <v>24.2658692986179</v>
+      </c>
+      <c r="D2292" s="3" t="n">
+        <v>23.6917535637571</v>
+      </c>
     </row>
     <row r="2293">
-      <c r="A2293" s="6"/>
-      <c r="B2293" s="3"/>
-      <c r="C2293" s="3"/>
-      <c r="D2293" s="3"/>
+      <c r="A2293" s="16" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B2293" s="3" t="n">
+        <v>21.8999216974505</v>
+      </c>
+      <c r="C2293" s="3" t="n">
+        <v>24.2453427633709</v>
+      </c>
+      <c r="D2293" s="3" t="n">
+        <v>23.7020959302326</v>
+      </c>
     </row>
     <row r="2294">
-      <c r="A2294" s="6"/>
-      <c r="B2294" s="3"/>
-      <c r="C2294" s="3"/>
-      <c r="D2294" s="3"/>
+      <c r="A2294" s="16" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B2294" s="3" t="n">
+        <v>21.9216664619918</v>
+      </c>
+      <c r="C2294" s="3" t="n">
+        <v>24.2547141811863</v>
+      </c>
+      <c r="D2294" s="3" t="n">
+        <v>23.6939435248296</v>
+      </c>
     </row>
     <row r="2295">
-      <c r="A2295" s="6"/>
-      <c r="B2295" s="3"/>
-      <c r="C2295" s="3"/>
-      <c r="D2295" s="3"/>
+      <c r="A2295" s="16" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B2295" s="3" t="n">
+        <v>21.9267595409011</v>
+      </c>
+      <c r="C2295" s="3" t="n">
+        <v>24.2582193732194</v>
+      </c>
+      <c r="D2295" s="3" t="n">
+        <v>23.6769382957884</v>
+      </c>
     </row>
     <row r="2296">
       <c r="A2296" s="6"/>
@@ -43215,13 +43463,27 @@
     </row>
     <row r="90">
       <c r="A90" s="6"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>22.5237506776281</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>21.8620485299293</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>24.9745134837926</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>24.1824699488651</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>23.9687152403321</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>23.7169984452278</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - marzo 2023</t>
+    <t xml:space="preserve">enero 2017 - abril 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: mayo 2023</t>
+    <t xml:space="preserve">Próxima actualización: junio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">marzo 2023</t>
+    <t xml:space="preserve">abril 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -36906,184 +36906,424 @@
       </c>
     </row>
     <row r="2296">
-      <c r="A2296" s="6"/>
-      <c r="B2296" s="3"/>
-      <c r="C2296" s="3"/>
-      <c r="D2296" s="3"/>
+      <c r="A2296" s="16" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B2296" s="3" t="n">
+        <v>21.9176014034233</v>
+      </c>
+      <c r="C2296" s="3" t="n">
+        <v>24.253049409529</v>
+      </c>
+      <c r="D2296" s="3" t="n">
+        <v>23.6644544185118</v>
+      </c>
     </row>
     <row r="2297">
-      <c r="A2297" s="6"/>
-      <c r="B2297" s="3"/>
-      <c r="C2297" s="3"/>
-      <c r="D2297" s="3"/>
+      <c r="A2297" s="16" t="n">
+        <v>45018</v>
+      </c>
+      <c r="B2297" s="3" t="n">
+        <v>21.900531694803</v>
+      </c>
+      <c r="C2297" s="3" t="n">
+        <v>24.2505885193873</v>
+      </c>
+      <c r="D2297" s="3" t="n">
+        <v>23.6626359747402</v>
+      </c>
     </row>
     <row r="2298">
-      <c r="A2298" s="6"/>
-      <c r="B2298" s="3"/>
-      <c r="C2298" s="3"/>
-      <c r="D2298" s="3"/>
+      <c r="A2298" s="16" t="n">
+        <v>45019</v>
+      </c>
+      <c r="B2298" s="3" t="n">
+        <v>21.899161441351</v>
+      </c>
+      <c r="C2298" s="3" t="n">
+        <v>24.2321591069663</v>
+      </c>
+      <c r="D2298" s="3" t="n">
+        <v>23.6509696652719</v>
+      </c>
     </row>
     <row r="2299">
-      <c r="A2299" s="6"/>
-      <c r="B2299" s="3"/>
-      <c r="C2299" s="3"/>
-      <c r="D2299" s="3"/>
+      <c r="A2299" s="16" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B2299" s="3" t="n">
+        <v>21.9108945882931</v>
+      </c>
+      <c r="C2299" s="3" t="n">
+        <v>24.2116460092617</v>
+      </c>
+      <c r="D2299" s="3" t="n">
+        <v>23.6566652994257</v>
+      </c>
     </row>
     <row r="2300">
-      <c r="A2300" s="6"/>
-      <c r="B2300" s="3"/>
-      <c r="C2300" s="3"/>
-      <c r="D2300" s="3"/>
+      <c r="A2300" s="16" t="n">
+        <v>45021</v>
+      </c>
+      <c r="B2300" s="3" t="n">
+        <v>21.9380685452851</v>
+      </c>
+      <c r="C2300" s="3" t="n">
+        <v>24.2279630872482</v>
+      </c>
+      <c r="D2300" s="3" t="n">
+        <v>23.6673406435744</v>
+      </c>
     </row>
     <row r="2301">
-      <c r="A2301" s="6"/>
-      <c r="B2301" s="3"/>
-      <c r="C2301" s="3"/>
-      <c r="D2301" s="3"/>
+      <c r="A2301" s="16" t="n">
+        <v>45022</v>
+      </c>
+      <c r="B2301" s="3" t="n">
+        <v>21.9403826551582</v>
+      </c>
+      <c r="C2301" s="3" t="n">
+        <v>24.2281429153649</v>
+      </c>
+      <c r="D2301" s="3" t="n">
+        <v>23.66918313709</v>
+      </c>
     </row>
     <row r="2302">
-      <c r="A2302" s="6"/>
-      <c r="B2302" s="3"/>
-      <c r="C2302" s="3"/>
-      <c r="D2302" s="3"/>
+      <c r="A2302" s="16" t="n">
+        <v>45023</v>
+      </c>
+      <c r="B2302" s="3" t="n">
+        <v>21.9454686983812</v>
+      </c>
+      <c r="C2302" s="3" t="n">
+        <v>24.2234324693044</v>
+      </c>
+      <c r="D2302" s="3" t="n">
+        <v>23.6852144829051</v>
+      </c>
     </row>
     <row r="2303">
-      <c r="A2303" s="6"/>
-      <c r="B2303" s="3"/>
-      <c r="C2303" s="3"/>
-      <c r="D2303" s="3"/>
+      <c r="A2303" s="16" t="n">
+        <v>45024</v>
+      </c>
+      <c r="B2303" s="3" t="n">
+        <v>21.9444496717267</v>
+      </c>
+      <c r="C2303" s="3" t="n">
+        <v>24.2197092620796</v>
+      </c>
+      <c r="D2303" s="3" t="n">
+        <v>23.6953027027028</v>
+      </c>
     </row>
     <row r="2304">
-      <c r="A2304" s="6"/>
-      <c r="B2304" s="3"/>
-      <c r="C2304" s="3"/>
-      <c r="D2304" s="3"/>
+      <c r="A2304" s="16" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B2304" s="3" t="n">
+        <v>21.9516006516864</v>
+      </c>
+      <c r="C2304" s="3" t="n">
+        <v>24.2224936815502</v>
+      </c>
+      <c r="D2304" s="3" t="n">
+        <v>23.6959156626506</v>
+      </c>
     </row>
     <row r="2305">
-      <c r="A2305" s="6"/>
-      <c r="B2305" s="3"/>
-      <c r="C2305" s="3"/>
-      <c r="D2305" s="3"/>
+      <c r="A2305" s="16" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B2305" s="3" t="n">
+        <v>21.95663056787</v>
+      </c>
+      <c r="C2305" s="3" t="n">
+        <v>24.2269087979827</v>
+      </c>
+      <c r="D2305" s="3" t="n">
+        <v>23.7029673985363</v>
+      </c>
     </row>
     <row r="2306">
-      <c r="A2306" s="6"/>
-      <c r="B2306" s="3"/>
-      <c r="C2306" s="3"/>
-      <c r="D2306" s="3"/>
+      <c r="A2306" s="16" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B2306" s="3" t="n">
+        <v>21.9772385620916</v>
+      </c>
+      <c r="C2306" s="3" t="n">
+        <v>24.2378575272436</v>
+      </c>
+      <c r="D2306" s="3" t="n">
+        <v>23.7365972365436</v>
+      </c>
     </row>
     <row r="2307">
-      <c r="A2307" s="6"/>
-      <c r="B2307" s="3"/>
-      <c r="C2307" s="3"/>
-      <c r="D2307" s="3"/>
+      <c r="A2307" s="16" t="n">
+        <v>45028</v>
+      </c>
+      <c r="B2307" s="3" t="n">
+        <v>21.9845472732366</v>
+      </c>
+      <c r="C2307" s="3" t="n">
+        <v>24.2410445458207</v>
+      </c>
+      <c r="D2307" s="3" t="n">
+        <v>23.7406447286982</v>
+      </c>
     </row>
     <row r="2308">
-      <c r="A2308" s="6"/>
-      <c r="B2308" s="3"/>
-      <c r="C2308" s="3"/>
-      <c r="D2308" s="3"/>
+      <c r="A2308" s="16" t="n">
+        <v>45029</v>
+      </c>
+      <c r="B2308" s="3" t="n">
+        <v>21.9920352889634</v>
+      </c>
+      <c r="C2308" s="3" t="n">
+        <v>24.2572009377095</v>
+      </c>
+      <c r="D2308" s="3" t="n">
+        <v>23.7386278156645</v>
+      </c>
     </row>
     <row r="2309">
-      <c r="A2309" s="6"/>
-      <c r="B2309" s="3"/>
-      <c r="C2309" s="3"/>
-      <c r="D2309" s="3"/>
+      <c r="A2309" s="16" t="n">
+        <v>45030</v>
+      </c>
+      <c r="B2309" s="3" t="n">
+        <v>22.0013246151431</v>
+      </c>
+      <c r="C2309" s="3" t="n">
+        <v>24.2550983911716</v>
+      </c>
+      <c r="D2309" s="3" t="n">
+        <v>23.7316743311038</v>
+      </c>
     </row>
     <row r="2310">
-      <c r="A2310" s="6"/>
-      <c r="B2310" s="3"/>
-      <c r="C2310" s="3"/>
-      <c r="D2310" s="3"/>
+      <c r="A2310" s="16" t="n">
+        <v>45031</v>
+      </c>
+      <c r="B2310" s="3" t="n">
+        <v>22.0117928085521</v>
+      </c>
+      <c r="C2310" s="3" t="n">
+        <v>24.2689859862509</v>
+      </c>
+      <c r="D2310" s="3" t="n">
+        <v>23.7349554773246</v>
+      </c>
     </row>
     <row r="2311">
-      <c r="A2311" s="6"/>
-      <c r="B2311" s="3"/>
-      <c r="C2311" s="3"/>
-      <c r="D2311" s="3"/>
+      <c r="A2311" s="16" t="n">
+        <v>45032</v>
+      </c>
+      <c r="B2311" s="3" t="n">
+        <v>22.0130230195022</v>
+      </c>
+      <c r="C2311" s="3" t="n">
+        <v>24.2692646269461</v>
+      </c>
+      <c r="D2311" s="3" t="n">
+        <v>23.7350767451641</v>
+      </c>
     </row>
     <row r="2312">
-      <c r="A2312" s="6"/>
-      <c r="B2312" s="3"/>
-      <c r="C2312" s="3"/>
-      <c r="D2312" s="3"/>
+      <c r="A2312" s="16" t="n">
+        <v>45033</v>
+      </c>
+      <c r="B2312" s="3" t="n">
+        <v>22.0134158087663</v>
+      </c>
+      <c r="C2312" s="3" t="n">
+        <v>24.2655485004057</v>
+      </c>
+      <c r="D2312" s="3" t="n">
+        <v>23.7322209351307</v>
+      </c>
     </row>
     <row r="2313">
-      <c r="A2313" s="6"/>
-      <c r="B2313" s="3"/>
-      <c r="C2313" s="3"/>
-      <c r="D2313" s="3"/>
+      <c r="A2313" s="16" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B2313" s="3" t="n">
+        <v>22.0182086584062</v>
+      </c>
+      <c r="C2313" s="3" t="n">
+        <v>24.2700793335982</v>
+      </c>
+      <c r="D2313" s="3" t="n">
+        <v>23.7284483824439</v>
+      </c>
     </row>
     <row r="2314">
-      <c r="A2314" s="6"/>
-      <c r="B2314" s="3"/>
-      <c r="C2314" s="3"/>
-      <c r="D2314" s="3"/>
+      <c r="A2314" s="16" t="n">
+        <v>45035</v>
+      </c>
+      <c r="B2314" s="3" t="n">
+        <v>22.0198574933939</v>
+      </c>
+      <c r="C2314" s="3" t="n">
+        <v>24.2710445227841</v>
+      </c>
+      <c r="D2314" s="3" t="n">
+        <v>23.722235532995</v>
+      </c>
     </row>
     <row r="2315">
-      <c r="A2315" s="6"/>
-      <c r="B2315" s="3"/>
-      <c r="C2315" s="3"/>
-      <c r="D2315" s="3"/>
+      <c r="A2315" s="16" t="n">
+        <v>45036</v>
+      </c>
+      <c r="B2315" s="3" t="n">
+        <v>22.0228025955518</v>
+      </c>
+      <c r="C2315" s="3" t="n">
+        <v>24.2717841866498</v>
+      </c>
+      <c r="D2315" s="3" t="n">
+        <v>23.7182261306533</v>
+      </c>
     </row>
     <row r="2316">
-      <c r="A2316" s="6"/>
-      <c r="B2316" s="3"/>
-      <c r="C2316" s="3"/>
-      <c r="D2316" s="3"/>
+      <c r="A2316" s="16" t="n">
+        <v>45037</v>
+      </c>
+      <c r="B2316" s="3" t="n">
+        <v>22.0198482119407</v>
+      </c>
+      <c r="C2316" s="3" t="n">
+        <v>24.274055338542</v>
+      </c>
+      <c r="D2316" s="3" t="n">
+        <v>23.7184040627514</v>
+      </c>
     </row>
     <row r="2317">
-      <c r="A2317" s="6"/>
-      <c r="B2317" s="3"/>
-      <c r="C2317" s="3"/>
-      <c r="D2317" s="3"/>
+      <c r="A2317" s="16" t="n">
+        <v>45038</v>
+      </c>
+      <c r="B2317" s="3" t="n">
+        <v>22.008462380198</v>
+      </c>
+      <c r="C2317" s="3" t="n">
+        <v>24.2743559210529</v>
+      </c>
+      <c r="D2317" s="3" t="n">
+        <v>23.7117150050353</v>
+      </c>
     </row>
     <row r="2318">
-      <c r="A2318" s="6"/>
-      <c r="B2318" s="3"/>
-      <c r="C2318" s="3"/>
-      <c r="D2318" s="3"/>
+      <c r="A2318" s="16" t="n">
+        <v>45039</v>
+      </c>
+      <c r="B2318" s="3" t="n">
+        <v>22.0009416895189</v>
+      </c>
+      <c r="C2318" s="3" t="n">
+        <v>24.2730415725862</v>
+      </c>
+      <c r="D2318" s="3" t="n">
+        <v>23.7090948890247</v>
+      </c>
     </row>
     <row r="2319">
-      <c r="A2319" s="6"/>
-      <c r="B2319" s="3"/>
-      <c r="C2319" s="3"/>
-      <c r="D2319" s="3"/>
+      <c r="A2319" s="16" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B2319" s="3" t="n">
+        <v>21.9797642769891</v>
+      </c>
+      <c r="C2319" s="3" t="n">
+        <v>24.2667207835773</v>
+      </c>
+      <c r="D2319" s="3" t="n">
+        <v>23.696077331157</v>
+      </c>
     </row>
     <row r="2320">
-      <c r="A2320" s="6"/>
-      <c r="B2320" s="3"/>
-      <c r="C2320" s="3"/>
-      <c r="D2320" s="3"/>
+      <c r="A2320" s="16" t="n">
+        <v>45041</v>
+      </c>
+      <c r="B2320" s="3" t="n">
+        <v>21.9582631320015</v>
+      </c>
+      <c r="C2320" s="3" t="n">
+        <v>24.2623912465082</v>
+      </c>
+      <c r="D2320" s="3" t="n">
+        <v>23.6893641851107</v>
+      </c>
     </row>
     <row r="2321">
-      <c r="A2321" s="6"/>
-      <c r="B2321" s="3"/>
-      <c r="C2321" s="3"/>
-      <c r="D2321" s="3"/>
+      <c r="A2321" s="16" t="n">
+        <v>45042</v>
+      </c>
+      <c r="B2321" s="3" t="n">
+        <v>21.9364135496473</v>
+      </c>
+      <c r="C2321" s="3" t="n">
+        <v>24.2654434149573</v>
+      </c>
+      <c r="D2321" s="3" t="n">
+        <v>23.6868357342938</v>
+      </c>
     </row>
     <row r="2322">
-      <c r="A2322" s="6"/>
-      <c r="B2322" s="3"/>
-      <c r="C2322" s="3"/>
-      <c r="D2322" s="3"/>
+      <c r="A2322" s="16" t="n">
+        <v>45043</v>
+      </c>
+      <c r="B2322" s="3" t="n">
+        <v>21.9263157101976</v>
+      </c>
+      <c r="C2322" s="3" t="n">
+        <v>24.2812085403521</v>
+      </c>
+      <c r="D2322" s="3" t="n">
+        <v>23.6846970004054</v>
+      </c>
     </row>
     <row r="2323">
-      <c r="A2323" s="6"/>
-      <c r="B2323" s="3"/>
-      <c r="C2323" s="3"/>
-      <c r="D2323" s="3"/>
+      <c r="A2323" s="16" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B2323" s="3" t="n">
+        <v>21.8932367315771</v>
+      </c>
+      <c r="C2323" s="3" t="n">
+        <v>24.2682815520578</v>
+      </c>
+      <c r="D2323" s="3" t="n">
+        <v>23.6726083570365</v>
+      </c>
     </row>
     <row r="2324">
-      <c r="A2324" s="6"/>
-      <c r="B2324" s="3"/>
-      <c r="C2324" s="3"/>
-      <c r="D2324" s="3"/>
+      <c r="A2324" s="16" t="n">
+        <v>45045</v>
+      </c>
+      <c r="B2324" s="3" t="n">
+        <v>21.8935675811828</v>
+      </c>
+      <c r="C2324" s="3" t="n">
+        <v>24.2641611587684</v>
+      </c>
+      <c r="D2324" s="3" t="n">
+        <v>23.6686982065554</v>
+      </c>
     </row>
     <row r="2325">
-      <c r="A2325" s="6"/>
-      <c r="B2325" s="3"/>
-      <c r="C2325" s="3"/>
-      <c r="D2325" s="3"/>
+      <c r="A2325" s="16" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B2325" s="3" t="n">
+        <v>21.9318055062519</v>
+      </c>
+      <c r="C2325" s="3" t="n">
+        <v>24.2998897853338</v>
+      </c>
+      <c r="D2325" s="3" t="n">
+        <v>23.6685657286855</v>
+      </c>
     </row>
     <row r="2326">
       <c r="A2326" s="6"/>
@@ -43487,13 +43727,27 @@
     </row>
     <row r="91">
       <c r="A91" s="6"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>22.6342163811825</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>21.963588493703</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>25.0074895869302</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>24.2544517043663</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>23.960614477928</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>23.6991805733729</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - abril 2023</t>
+    <t xml:space="preserve">enero 2017 - mayo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: junio 2023</t>
+    <t xml:space="preserve">Próxima actualización: julio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">abril 2023</t>
+    <t xml:space="preserve">mayo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -37326,190 +37326,438 @@
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" s="6"/>
-      <c r="B2326" s="3"/>
-      <c r="C2326" s="3"/>
-      <c r="D2326" s="3"/>
+      <c r="A2326" s="16" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B2326" s="3" t="n">
+        <v>21.9377721963084</v>
+      </c>
+      <c r="C2326" s="3" t="n">
+        <v>24.3018912182967</v>
+      </c>
+      <c r="D2326" s="3" t="n">
+        <v>23.6654159501291</v>
+      </c>
     </row>
     <row r="2327">
-      <c r="A2327" s="6"/>
-      <c r="B2327" s="3"/>
-      <c r="C2327" s="3"/>
-      <c r="D2327" s="3"/>
+      <c r="A2327" s="16" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B2327" s="3" t="n">
+        <v>21.9497717412937</v>
+      </c>
+      <c r="C2327" s="3" t="n">
+        <v>24.3006516673951</v>
+      </c>
+      <c r="D2327" s="3" t="n">
+        <v>23.6690199228793</v>
+      </c>
     </row>
     <row r="2328">
-      <c r="A2328" s="6"/>
-      <c r="B2328" s="3"/>
-      <c r="C2328" s="3"/>
-      <c r="D2328" s="3"/>
+      <c r="A2328" s="16" t="n">
+        <v>45049</v>
+      </c>
+      <c r="B2328" s="3" t="n">
+        <v>21.9601557354285</v>
+      </c>
+      <c r="C2328" s="3" t="n">
+        <v>24.2984078699001</v>
+      </c>
+      <c r="D2328" s="3" t="n">
+        <v>23.6727855924979</v>
+      </c>
     </row>
     <row r="2329">
-      <c r="A2329" s="6"/>
-      <c r="B2329" s="3"/>
-      <c r="C2329" s="3"/>
-      <c r="D2329" s="3"/>
+      <c r="A2329" s="16" t="n">
+        <v>45050</v>
+      </c>
+      <c r="B2329" s="3" t="n">
+        <v>21.9545941174112</v>
+      </c>
+      <c r="C2329" s="3" t="n">
+        <v>24.2909794207321</v>
+      </c>
+      <c r="D2329" s="3" t="n">
+        <v>23.6669879258302</v>
+      </c>
     </row>
     <row r="2330">
-      <c r="A2330" s="6"/>
-      <c r="B2330" s="3"/>
-      <c r="C2330" s="3"/>
-      <c r="D2330" s="3"/>
+      <c r="A2330" s="16" t="n">
+        <v>45051</v>
+      </c>
+      <c r="B2330" s="3" t="n">
+        <v>21.9219891219894</v>
+      </c>
+      <c r="C2330" s="3" t="n">
+        <v>24.2812923629553</v>
+      </c>
+      <c r="D2330" s="3" t="n">
+        <v>23.638441014333</v>
+      </c>
     </row>
     <row r="2331">
-      <c r="A2331" s="6"/>
-      <c r="B2331" s="3"/>
-      <c r="C2331" s="3"/>
-      <c r="D2331" s="3"/>
+      <c r="A2331" s="16" t="n">
+        <v>45052</v>
+      </c>
+      <c r="B2331" s="3" t="n">
+        <v>21.9081910744347</v>
+      </c>
+      <c r="C2331" s="3" t="n">
+        <v>24.2468118937831</v>
+      </c>
+      <c r="D2331" s="3" t="n">
+        <v>23.6344311443005</v>
+      </c>
     </row>
     <row r="2332">
-      <c r="A2332" s="6"/>
-      <c r="B2332" s="3"/>
-      <c r="C2332" s="3"/>
-      <c r="D2332" s="3"/>
+      <c r="A2332" s="16" t="n">
+        <v>45053</v>
+      </c>
+      <c r="B2332" s="3" t="n">
+        <v>21.9111278258329</v>
+      </c>
+      <c r="C2332" s="3" t="n">
+        <v>24.2478711666399</v>
+      </c>
+      <c r="D2332" s="3" t="n">
+        <v>23.6258408987744</v>
+      </c>
     </row>
     <row r="2333">
-      <c r="A2333" s="6"/>
-      <c r="B2333" s="3"/>
-      <c r="C2333" s="3"/>
-      <c r="D2333" s="3"/>
+      <c r="A2333" s="16" t="n">
+        <v>45054</v>
+      </c>
+      <c r="B2333" s="3" t="n">
+        <v>21.9021672940195</v>
+      </c>
+      <c r="C2333" s="3" t="n">
+        <v>24.2382101449279</v>
+      </c>
+      <c r="D2333" s="3" t="n">
+        <v>23.6196234735414</v>
+      </c>
     </row>
     <row r="2334">
-      <c r="A2334" s="6"/>
-      <c r="B2334" s="3"/>
-      <c r="C2334" s="3"/>
-      <c r="D2334" s="3"/>
+      <c r="A2334" s="16" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B2334" s="3" t="n">
+        <v>21.8940753908852</v>
+      </c>
+      <c r="C2334" s="3" t="n">
+        <v>24.2307058636077</v>
+      </c>
+      <c r="D2334" s="3" t="n">
+        <v>23.6306636871509</v>
+      </c>
     </row>
     <row r="2335">
-      <c r="A2335" s="6"/>
-      <c r="B2335" s="3"/>
-      <c r="C2335" s="3"/>
-      <c r="D2335" s="3"/>
+      <c r="A2335" s="16" t="n">
+        <v>45056</v>
+      </c>
+      <c r="B2335" s="3" t="n">
+        <v>21.9116085295726</v>
+      </c>
+      <c r="C2335" s="3" t="n">
+        <v>24.2467544707591</v>
+      </c>
+      <c r="D2335" s="3" t="n">
+        <v>23.6521391694725</v>
+      </c>
     </row>
     <row r="2336">
-      <c r="A2336" s="6"/>
-      <c r="B2336" s="3"/>
-      <c r="C2336" s="3"/>
-      <c r="D2336" s="3"/>
+      <c r="A2336" s="16" t="n">
+        <v>45057</v>
+      </c>
+      <c r="B2336" s="3" t="n">
+        <v>21.8980162043275</v>
+      </c>
+      <c r="C2336" s="3" t="n">
+        <v>24.200304453723</v>
+      </c>
+      <c r="D2336" s="3" t="n">
+        <v>23.6374838555369</v>
+      </c>
     </row>
     <row r="2337">
-      <c r="A2337" s="6"/>
-      <c r="B2337" s="3"/>
-      <c r="C2337" s="3"/>
-      <c r="D2337" s="3"/>
+      <c r="A2337" s="16" t="n">
+        <v>45058</v>
+      </c>
+      <c r="B2337" s="3" t="n">
+        <v>21.8985314217114</v>
+      </c>
+      <c r="C2337" s="3" t="n">
+        <v>24.1972016353515</v>
+      </c>
+      <c r="D2337" s="3" t="n">
+        <v>23.6388749101366</v>
+      </c>
     </row>
     <row r="2338">
-      <c r="A2338" s="6"/>
-      <c r="B2338" s="3"/>
-      <c r="C2338" s="3"/>
-      <c r="D2338" s="3"/>
+      <c r="A2338" s="16" t="n">
+        <v>45059</v>
+      </c>
+      <c r="B2338" s="3" t="n">
+        <v>21.90581411158</v>
+      </c>
+      <c r="C2338" s="3" t="n">
+        <v>24.1930502753598</v>
+      </c>
+      <c r="D2338" s="3" t="n">
+        <v>23.6424617439883</v>
+      </c>
     </row>
     <row r="2339">
-      <c r="A2339" s="6"/>
-      <c r="B2339" s="3"/>
-      <c r="C2339" s="3"/>
-      <c r="D2339" s="3"/>
+      <c r="A2339" s="16" t="n">
+        <v>45060</v>
+      </c>
+      <c r="B2339" s="3" t="n">
+        <v>21.8916981177375</v>
+      </c>
+      <c r="C2339" s="3" t="n">
+        <v>24.2000675675676</v>
+      </c>
+      <c r="D2339" s="3" t="n">
+        <v>23.6424025487256</v>
+      </c>
     </row>
     <row r="2340">
-      <c r="A2340" s="6"/>
-      <c r="B2340" s="3"/>
-      <c r="C2340" s="3"/>
-      <c r="D2340" s="3"/>
+      <c r="A2340" s="16" t="n">
+        <v>45061</v>
+      </c>
+      <c r="B2340" s="3" t="n">
+        <v>21.8963752489194</v>
+      </c>
+      <c r="C2340" s="3" t="n">
+        <v>24.1990150389901</v>
+      </c>
+      <c r="D2340" s="3" t="n">
+        <v>23.6441859577715</v>
+      </c>
     </row>
     <row r="2341">
-      <c r="A2341" s="6"/>
-      <c r="B2341" s="3"/>
-      <c r="C2341" s="3"/>
-      <c r="D2341" s="3"/>
+      <c r="A2341" s="16" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B2341" s="3" t="n">
+        <v>21.8904202686203</v>
+      </c>
+      <c r="C2341" s="3" t="n">
+        <v>24.1898463944078</v>
+      </c>
+      <c r="D2341" s="3" t="n">
+        <v>23.646144654088</v>
+      </c>
     </row>
     <row r="2342">
-      <c r="A2342" s="6"/>
-      <c r="B2342" s="3"/>
-      <c r="C2342" s="3"/>
-      <c r="D2342" s="3"/>
+      <c r="A2342" s="16" t="n">
+        <v>45063</v>
+      </c>
+      <c r="B2342" s="3" t="n">
+        <v>21.8949880271711</v>
+      </c>
+      <c r="C2342" s="3" t="n">
+        <v>24.1958526064612</v>
+      </c>
+      <c r="D2342" s="3" t="n">
+        <v>23.6595266868076</v>
+      </c>
     </row>
     <row r="2343">
-      <c r="A2343" s="6"/>
-      <c r="B2343" s="3"/>
-      <c r="C2343" s="3"/>
-      <c r="D2343" s="3"/>
+      <c r="A2343" s="16" t="n">
+        <v>45064</v>
+      </c>
+      <c r="B2343" s="3" t="n">
+        <v>21.8938301210221</v>
+      </c>
+      <c r="C2343" s="3" t="n">
+        <v>24.1843838460088</v>
+      </c>
+      <c r="D2343" s="3" t="n">
+        <v>23.6646635107471</v>
+      </c>
     </row>
     <row r="2344">
-      <c r="A2344" s="6"/>
-      <c r="B2344" s="3"/>
-      <c r="C2344" s="3"/>
-      <c r="D2344" s="3"/>
+      <c r="A2344" s="16" t="n">
+        <v>45065</v>
+      </c>
+      <c r="B2344" s="3" t="n">
+        <v>21.907542102641</v>
+      </c>
+      <c r="C2344" s="3" t="n">
+        <v>24.2056762412023</v>
+      </c>
+      <c r="D2344" s="3" t="n">
+        <v>23.6827061526677</v>
+      </c>
     </row>
     <row r="2345">
-      <c r="A2345" s="6"/>
-      <c r="B2345" s="3"/>
-      <c r="C2345" s="3"/>
-      <c r="D2345" s="3"/>
+      <c r="A2345" s="16" t="n">
+        <v>45066</v>
+      </c>
+      <c r="B2345" s="3" t="n">
+        <v>21.9266768809171</v>
+      </c>
+      <c r="C2345" s="3" t="n">
+        <v>24.211594919527</v>
+      </c>
+      <c r="D2345" s="3" t="n">
+        <v>23.7079563241604</v>
+      </c>
     </row>
     <row r="2346">
-      <c r="A2346" s="6"/>
-      <c r="B2346" s="3"/>
-      <c r="C2346" s="3"/>
-      <c r="D2346" s="3"/>
+      <c r="A2346" s="16" t="n">
+        <v>45067</v>
+      </c>
+      <c r="B2346" s="3" t="n">
+        <v>21.923892573611</v>
+      </c>
+      <c r="C2346" s="3" t="n">
+        <v>24.2105988967692</v>
+      </c>
+      <c r="D2346" s="3" t="n">
+        <v>23.7139487245554</v>
+      </c>
     </row>
     <row r="2347">
-      <c r="A2347" s="6"/>
-      <c r="B2347" s="3"/>
-      <c r="C2347" s="3"/>
-      <c r="D2347" s="3"/>
+      <c r="A2347" s="16" t="n">
+        <v>45068</v>
+      </c>
+      <c r="B2347" s="3" t="n">
+        <v>21.9404458295787</v>
+      </c>
+      <c r="C2347" s="3" t="n">
+        <v>24.2175256107172</v>
+      </c>
+      <c r="D2347" s="3" t="n">
+        <v>23.7333465068841</v>
+      </c>
     </row>
     <row r="2348">
-      <c r="A2348" s="6"/>
-      <c r="B2348" s="3"/>
-      <c r="C2348" s="3"/>
-      <c r="D2348" s="3"/>
+      <c r="A2348" s="16" t="n">
+        <v>45069</v>
+      </c>
+      <c r="B2348" s="3" t="n">
+        <v>21.9644968831298</v>
+      </c>
+      <c r="C2348" s="3" t="n">
+        <v>24.2264409056025</v>
+      </c>
+      <c r="D2348" s="3" t="n">
+        <v>23.7427794153769</v>
+      </c>
     </row>
     <row r="2349">
-      <c r="A2349" s="6"/>
-      <c r="B2349" s="3"/>
-      <c r="C2349" s="3"/>
-      <c r="D2349" s="3"/>
+      <c r="A2349" s="16" t="n">
+        <v>45070</v>
+      </c>
+      <c r="B2349" s="3" t="n">
+        <v>21.9960523158148</v>
+      </c>
+      <c r="C2349" s="3" t="n">
+        <v>24.2424520676693</v>
+      </c>
+      <c r="D2349" s="3" t="n">
+        <v>23.7650308861961</v>
+      </c>
     </row>
     <row r="2350">
-      <c r="A2350" s="6"/>
-      <c r="B2350" s="3"/>
-      <c r="C2350" s="3"/>
-      <c r="D2350" s="3"/>
+      <c r="A2350" s="16" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B2350" s="3" t="n">
+        <v>22.0152368660071</v>
+      </c>
+      <c r="C2350" s="3" t="n">
+        <v>24.2469182799703</v>
+      </c>
+      <c r="D2350" s="3" t="n">
+        <v>23.7754647887324</v>
+      </c>
     </row>
     <row r="2351">
-      <c r="A2351" s="6"/>
-      <c r="B2351" s="3"/>
-      <c r="C2351" s="3"/>
-      <c r="D2351" s="3"/>
+      <c r="A2351" s="16" t="n">
+        <v>45072</v>
+      </c>
+      <c r="B2351" s="3" t="n">
+        <v>22.013395773295</v>
+      </c>
+      <c r="C2351" s="3" t="n">
+        <v>24.2311147695204</v>
+      </c>
+      <c r="D2351" s="3" t="n">
+        <v>23.7808217108321</v>
+      </c>
     </row>
     <row r="2352">
-      <c r="A2352" s="6"/>
-      <c r="B2352" s="3"/>
-      <c r="C2352" s="3"/>
-      <c r="D2352" s="3"/>
+      <c r="A2352" s="16" t="n">
+        <v>45073</v>
+      </c>
+      <c r="B2352" s="3" t="n">
+        <v>22.0170675441135</v>
+      </c>
+      <c r="C2352" s="3" t="n">
+        <v>24.233181818182</v>
+      </c>
+      <c r="D2352" s="3" t="n">
+        <v>23.7813228492136</v>
+      </c>
     </row>
     <row r="2353">
-      <c r="A2353" s="6"/>
-      <c r="B2353" s="3"/>
-      <c r="C2353" s="3"/>
-      <c r="D2353" s="3"/>
+      <c r="A2353" s="16" t="n">
+        <v>45074</v>
+      </c>
+      <c r="B2353" s="3" t="n">
+        <v>22.0120648338725</v>
+      </c>
+      <c r="C2353" s="3" t="n">
+        <v>24.2288947774139</v>
+      </c>
+      <c r="D2353" s="3" t="n">
+        <v>23.7791674506114</v>
+      </c>
     </row>
     <row r="2354">
-      <c r="A2354" s="6"/>
-      <c r="B2354" s="3"/>
-      <c r="C2354" s="3"/>
-      <c r="D2354" s="3"/>
+      <c r="A2354" s="16" t="n">
+        <v>45075</v>
+      </c>
+      <c r="B2354" s="3" t="n">
+        <v>22.0216617733413</v>
+      </c>
+      <c r="C2354" s="3" t="n">
+        <v>24.2251047875409</v>
+      </c>
+      <c r="D2354" s="3" t="n">
+        <v>23.7812282147903</v>
+      </c>
     </row>
     <row r="2355">
-      <c r="A2355" s="6"/>
-      <c r="B2355" s="3"/>
-      <c r="C2355" s="3"/>
-      <c r="D2355" s="3"/>
+      <c r="A2355" s="16" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B2355" s="3" t="n">
+        <v>22.0339352713734</v>
+      </c>
+      <c r="C2355" s="3" t="n">
+        <v>24.2286186915889</v>
+      </c>
+      <c r="D2355" s="3" t="n">
+        <v>23.7898929141034</v>
+      </c>
     </row>
     <row r="2356">
-      <c r="A2356" s="6"/>
-      <c r="B2356" s="3"/>
-      <c r="C2356" s="3"/>
-      <c r="D2356" s="3"/>
+      <c r="A2356" s="16" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B2356" s="3" t="n">
+        <v>22.040047578469</v>
+      </c>
+      <c r="C2356" s="3" t="n">
+        <v>24.2313037460787</v>
+      </c>
+      <c r="D2356" s="3" t="n">
+        <v>23.7868195132943</v>
+      </c>
     </row>
     <row r="2357">
       <c r="A2357" s="6"/>
@@ -43751,13 +43999,27 @@
     </row>
     <row r="92">
       <c r="A92" s="6"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>22.3988618320032</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>21.943020734659</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>24.9080174170731</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>24.2317007551177</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>23.9045879966927</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>23.6926315515526</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4225,13 +4225,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - mayo 2023</t>
+    <t xml:space="preserve">enero 2017 - julio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: julio 2023</t>
+    <t xml:space="preserve">Próxima actualización: agosto 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4255,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">mayo 2023</t>
+    <t xml:space="preserve">junio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -37760,184 +37760,424 @@
       </c>
     </row>
     <row r="2357">
-      <c r="A2357" s="6"/>
-      <c r="B2357" s="3"/>
-      <c r="C2357" s="3"/>
-      <c r="D2357" s="3"/>
+      <c r="A2357" s="16" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B2357" s="3" t="n">
+        <v>22.0375881444024</v>
+      </c>
+      <c r="C2357" s="3" t="n">
+        <v>24.2405504838416</v>
+      </c>
+      <c r="D2357" s="3" t="n">
+        <v>23.7785827034237</v>
+      </c>
     </row>
     <row r="2358">
-      <c r="A2358" s="6"/>
-      <c r="B2358" s="3"/>
-      <c r="C2358" s="3"/>
-      <c r="D2358" s="3"/>
+      <c r="A2358" s="16" t="n">
+        <v>45079</v>
+      </c>
+      <c r="B2358" s="3" t="n">
+        <v>22.0367200615557</v>
+      </c>
+      <c r="C2358" s="3" t="n">
+        <v>24.2504667764965</v>
+      </c>
+      <c r="D2358" s="3" t="n">
+        <v>23.7699135254989</v>
+      </c>
     </row>
     <row r="2359">
-      <c r="A2359" s="6"/>
-      <c r="B2359" s="3"/>
-      <c r="C2359" s="3"/>
-      <c r="D2359" s="3"/>
+      <c r="A2359" s="16" t="n">
+        <v>45080</v>
+      </c>
+      <c r="B2359" s="3" t="n">
+        <v>22.028668204698</v>
+      </c>
+      <c r="C2359" s="3" t="n">
+        <v>24.2506089743591</v>
+      </c>
+      <c r="D2359" s="3" t="n">
+        <v>23.7655702333774</v>
+      </c>
     </row>
     <row r="2360">
-      <c r="A2360" s="6"/>
-      <c r="B2360" s="3"/>
-      <c r="C2360" s="3"/>
-      <c r="D2360" s="3"/>
+      <c r="A2360" s="16" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B2360" s="3" t="n">
+        <v>22.0247759301016</v>
+      </c>
+      <c r="C2360" s="3" t="n">
+        <v>24.2477100296078</v>
+      </c>
+      <c r="D2360" s="3" t="n">
+        <v>23.7652715584128</v>
+      </c>
     </row>
     <row r="2361">
-      <c r="A2361" s="6"/>
-      <c r="B2361" s="3"/>
-      <c r="C2361" s="3"/>
-      <c r="D2361" s="3"/>
+      <c r="A2361" s="16" t="n">
+        <v>45082</v>
+      </c>
+      <c r="B2361" s="3" t="n">
+        <v>22.0161739315031</v>
+      </c>
+      <c r="C2361" s="3" t="n">
+        <v>24.2412411545625</v>
+      </c>
+      <c r="D2361" s="3" t="n">
+        <v>23.763022404614</v>
+      </c>
     </row>
     <row r="2362">
-      <c r="A2362" s="6"/>
-      <c r="B2362" s="3"/>
-      <c r="C2362" s="3"/>
-      <c r="D2362" s="3"/>
+      <c r="A2362" s="16" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B2362" s="3" t="n">
+        <v>21.9913614069507</v>
+      </c>
+      <c r="C2362" s="3" t="n">
+        <v>24.2392157402313</v>
+      </c>
+      <c r="D2362" s="3" t="n">
+        <v>23.7614824945296</v>
+      </c>
     </row>
     <row r="2363">
-      <c r="A2363" s="6"/>
-      <c r="B2363" s="3"/>
-      <c r="C2363" s="3"/>
-      <c r="D2363" s="3"/>
+      <c r="A2363" s="16" t="n">
+        <v>45084</v>
+      </c>
+      <c r="B2363" s="3" t="n">
+        <v>21.9768931736361</v>
+      </c>
+      <c r="C2363" s="3" t="n">
+        <v>24.2412884649992</v>
+      </c>
+      <c r="D2363" s="3" t="n">
+        <v>23.7641197411003</v>
+      </c>
     </row>
     <row r="2364">
-      <c r="A2364" s="6"/>
-      <c r="B2364" s="3"/>
-      <c r="C2364" s="3"/>
-      <c r="D2364" s="3"/>
+      <c r="A2364" s="16" t="n">
+        <v>45085</v>
+      </c>
+      <c r="B2364" s="3" t="n">
+        <v>21.9784916047344</v>
+      </c>
+      <c r="C2364" s="3" t="n">
+        <v>24.2504742693205</v>
+      </c>
+      <c r="D2364" s="3" t="n">
+        <v>23.7675511743159</v>
+      </c>
     </row>
     <row r="2365">
-      <c r="A2365" s="6"/>
-      <c r="B2365" s="3"/>
-      <c r="C2365" s="3"/>
-      <c r="D2365" s="3"/>
+      <c r="A2365" s="16" t="n">
+        <v>45086</v>
+      </c>
+      <c r="B2365" s="3" t="n">
+        <v>21.9918932105553</v>
+      </c>
+      <c r="C2365" s="3" t="n">
+        <v>24.2543657050709</v>
+      </c>
+      <c r="D2365" s="3" t="n">
+        <v>23.770025951557</v>
+      </c>
     </row>
     <row r="2366">
-      <c r="A2366" s="6"/>
-      <c r="B2366" s="3"/>
-      <c r="C2366" s="3"/>
-      <c r="D2366" s="3"/>
+      <c r="A2366" s="16" t="n">
+        <v>45087</v>
+      </c>
+      <c r="B2366" s="3" t="n">
+        <v>22.0023969497114</v>
+      </c>
+      <c r="C2366" s="3" t="n">
+        <v>24.257233908666</v>
+      </c>
+      <c r="D2366" s="3" t="n">
+        <v>23.7695365747774</v>
+      </c>
     </row>
     <row r="2367">
-      <c r="A2367" s="6"/>
-      <c r="B2367" s="3"/>
-      <c r="C2367" s="3"/>
-      <c r="D2367" s="3"/>
+      <c r="A2367" s="16" t="n">
+        <v>45088</v>
+      </c>
+      <c r="B2367" s="3" t="n">
+        <v>22.0035573976038</v>
+      </c>
+      <c r="C2367" s="3" t="n">
+        <v>24.2552434354487</v>
+      </c>
+      <c r="D2367" s="3" t="n">
+        <v>23.7704466858789</v>
+      </c>
     </row>
     <row r="2368">
-      <c r="A2368" s="6"/>
-      <c r="B2368" s="3"/>
-      <c r="C2368" s="3"/>
-      <c r="D2368" s="3"/>
+      <c r="A2368" s="16" t="n">
+        <v>45089</v>
+      </c>
+      <c r="B2368" s="3" t="n">
+        <v>22.0134473133287</v>
+      </c>
+      <c r="C2368" s="3" t="n">
+        <v>24.2561528592377</v>
+      </c>
+      <c r="D2368" s="3" t="n">
+        <v>23.7660097756053</v>
+      </c>
     </row>
     <row r="2369">
-      <c r="A2369" s="6"/>
-      <c r="B2369" s="3"/>
-      <c r="C2369" s="3"/>
-      <c r="D2369" s="3"/>
+      <c r="A2369" s="16" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B2369" s="3" t="n">
+        <v>22.0173799006074</v>
+      </c>
+      <c r="C2369" s="3" t="n">
+        <v>24.2633081761007</v>
+      </c>
+      <c r="D2369" s="3" t="n">
+        <v>23.7602669000218</v>
+      </c>
     </row>
     <row r="2370">
-      <c r="A2370" s="6"/>
-      <c r="B2370" s="3"/>
-      <c r="C2370" s="3"/>
-      <c r="D2370" s="3"/>
+      <c r="A2370" s="16" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B2370" s="3" t="n">
+        <v>22.0055586796507</v>
+      </c>
+      <c r="C2370" s="3" t="n">
+        <v>24.2758227052273</v>
+      </c>
+      <c r="D2370" s="3" t="n">
+        <v>23.7576628771315</v>
+      </c>
     </row>
     <row r="2371">
-      <c r="A2371" s="6"/>
-      <c r="B2371" s="3"/>
-      <c r="C2371" s="3"/>
-      <c r="D2371" s="3"/>
+      <c r="A2371" s="16" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B2371" s="3" t="n">
+        <v>21.9985657534247</v>
+      </c>
+      <c r="C2371" s="3" t="n">
+        <v>24.2858777120316</v>
+      </c>
+      <c r="D2371" s="3" t="n">
+        <v>23.7537780929521</v>
+      </c>
     </row>
     <row r="2372">
-      <c r="A2372" s="6"/>
-      <c r="B2372" s="3"/>
-      <c r="C2372" s="3"/>
-      <c r="D2372" s="3"/>
+      <c r="A2372" s="16" t="n">
+        <v>45093</v>
+      </c>
+      <c r="B2372" s="3" t="n">
+        <v>21.9861940298508</v>
+      </c>
+      <c r="C2372" s="3" t="n">
+        <v>24.2995593006489</v>
+      </c>
+      <c r="D2372" s="3" t="n">
+        <v>23.748833695652</v>
+      </c>
     </row>
     <row r="2373">
-      <c r="A2373" s="6"/>
-      <c r="B2373" s="3"/>
-      <c r="C2373" s="3"/>
-      <c r="D2373" s="3"/>
+      <c r="A2373" s="16" t="n">
+        <v>45094</v>
+      </c>
+      <c r="B2373" s="3" t="n">
+        <v>21.9947411313519</v>
+      </c>
+      <c r="C2373" s="3" t="n">
+        <v>24.2979073973593</v>
+      </c>
+      <c r="D2373" s="3" t="n">
+        <v>23.7660729753139</v>
+      </c>
     </row>
     <row r="2374">
-      <c r="A2374" s="6"/>
-      <c r="B2374" s="3"/>
-      <c r="C2374" s="3"/>
-      <c r="D2374" s="3"/>
+      <c r="A2374" s="16" t="n">
+        <v>45095</v>
+      </c>
+      <c r="B2374" s="3" t="n">
+        <v>22.0037859266601</v>
+      </c>
+      <c r="C2374" s="3" t="n">
+        <v>24.2989055833797</v>
+      </c>
+      <c r="D2374" s="3" t="n">
+        <v>23.7629103309481</v>
+      </c>
     </row>
     <row r="2375">
-      <c r="A2375" s="6"/>
-      <c r="B2375" s="3"/>
-      <c r="C2375" s="3"/>
-      <c r="D2375" s="3"/>
+      <c r="A2375" s="16" t="n">
+        <v>45096</v>
+      </c>
+      <c r="B2375" s="3" t="n">
+        <v>22.0049744413612</v>
+      </c>
+      <c r="C2375" s="3" t="n">
+        <v>24.2876798936776</v>
+      </c>
+      <c r="D2375" s="3" t="n">
+        <v>23.7605847007164</v>
+      </c>
     </row>
     <row r="2376">
-      <c r="A2376" s="6"/>
-      <c r="B2376" s="3"/>
-      <c r="C2376" s="3"/>
-      <c r="D2376" s="3"/>
+      <c r="A2376" s="16" t="n">
+        <v>45097</v>
+      </c>
+      <c r="B2376" s="3" t="n">
+        <v>22.0127197962155</v>
+      </c>
+      <c r="C2376" s="3" t="n">
+        <v>24.2827790262172</v>
+      </c>
+      <c r="D2376" s="3" t="n">
+        <v>23.7781267186068</v>
+      </c>
     </row>
     <row r="2377">
-      <c r="A2377" s="6"/>
-      <c r="B2377" s="3"/>
-      <c r="C2377" s="3"/>
-      <c r="D2377" s="3"/>
+      <c r="A2377" s="16" t="n">
+        <v>45098</v>
+      </c>
+      <c r="B2377" s="3" t="n">
+        <v>22.0137648525745</v>
+      </c>
+      <c r="C2377" s="3" t="n">
+        <v>24.2906139857518</v>
+      </c>
+      <c r="D2377" s="3" t="n">
+        <v>23.7902453351762</v>
+      </c>
     </row>
     <row r="2378">
-      <c r="A2378" s="6"/>
-      <c r="B2378" s="3"/>
-      <c r="C2378" s="3"/>
-      <c r="D2378" s="3"/>
+      <c r="A2378" s="16" t="n">
+        <v>45099</v>
+      </c>
+      <c r="B2378" s="3" t="n">
+        <v>22.0098543617179</v>
+      </c>
+      <c r="C2378" s="3" t="n">
+        <v>24.2882987160121</v>
+      </c>
+      <c r="D2378" s="3" t="n">
+        <v>23.7866912453184</v>
+      </c>
     </row>
     <row r="2379">
-      <c r="A2379" s="6"/>
-      <c r="B2379" s="3"/>
-      <c r="C2379" s="3"/>
-      <c r="D2379" s="3"/>
+      <c r="A2379" s="16" t="n">
+        <v>45100</v>
+      </c>
+      <c r="B2379" s="3" t="n">
+        <v>21.9908826654524</v>
+      </c>
+      <c r="C2379" s="3" t="n">
+        <v>24.2763302397524</v>
+      </c>
+      <c r="D2379" s="3" t="n">
+        <v>23.7802999040307</v>
+      </c>
     </row>
     <row r="2380">
-      <c r="A2380" s="6"/>
-      <c r="B2380" s="3"/>
-      <c r="C2380" s="3"/>
-      <c r="D2380" s="3"/>
+      <c r="A2380" s="16" t="n">
+        <v>45101</v>
+      </c>
+      <c r="B2380" s="3" t="n">
+        <v>21.9805219950434</v>
+      </c>
+      <c r="C2380" s="3" t="n">
+        <v>24.2729189614476</v>
+      </c>
+      <c r="D2380" s="3" t="n">
+        <v>23.7844332372718</v>
+      </c>
     </row>
     <row r="2381">
-      <c r="A2381" s="6"/>
-      <c r="B2381" s="3"/>
-      <c r="C2381" s="3"/>
-      <c r="D2381" s="3"/>
+      <c r="A2381" s="16" t="n">
+        <v>45102</v>
+      </c>
+      <c r="B2381" s="3" t="n">
+        <v>21.9780567375887</v>
+      </c>
+      <c r="C2381" s="3" t="n">
+        <v>24.2780949022768</v>
+      </c>
+      <c r="D2381" s="3" t="n">
+        <v>23.7809887005649</v>
+      </c>
     </row>
     <row r="2382">
-      <c r="A2382" s="6"/>
-      <c r="B2382" s="3"/>
-      <c r="C2382" s="3"/>
-      <c r="D2382" s="3"/>
+      <c r="A2382" s="16" t="n">
+        <v>45103</v>
+      </c>
+      <c r="B2382" s="3" t="n">
+        <v>21.9776816883529</v>
+      </c>
+      <c r="C2382" s="3" t="n">
+        <v>24.2916036200935</v>
+      </c>
+      <c r="D2382" s="3" t="n">
+        <v>23.7780471255859</v>
+      </c>
     </row>
     <row r="2383">
-      <c r="A2383" s="6"/>
-      <c r="B2383" s="3"/>
-      <c r="C2383" s="3"/>
-      <c r="D2383" s="3"/>
+      <c r="A2383" s="16" t="n">
+        <v>45104</v>
+      </c>
+      <c r="B2383" s="3" t="n">
+        <v>21.9616101694916</v>
+      </c>
+      <c r="C2383" s="3" t="n">
+        <v>24.2875408366534</v>
+      </c>
+      <c r="D2383" s="3" t="n">
+        <v>23.7598576642336</v>
+      </c>
     </row>
     <row r="2384">
-      <c r="A2384" s="6"/>
-      <c r="B2384" s="3"/>
-      <c r="C2384" s="3"/>
-      <c r="D2384" s="3"/>
+      <c r="A2384" s="16" t="n">
+        <v>45105</v>
+      </c>
+      <c r="B2384" s="3" t="n">
+        <v>21.946934826884</v>
+      </c>
+      <c r="C2384" s="3" t="n">
+        <v>24.2855469371519</v>
+      </c>
+      <c r="D2384" s="3" t="n">
+        <v>23.7500490434501</v>
+      </c>
     </row>
     <row r="2385">
-      <c r="A2385" s="6"/>
-      <c r="B2385" s="3"/>
-      <c r="C2385" s="3"/>
-      <c r="D2385" s="3"/>
+      <c r="A2385" s="16" t="n">
+        <v>45106</v>
+      </c>
+      <c r="B2385" s="3" t="n">
+        <v>21.9190409227367</v>
+      </c>
+      <c r="C2385" s="3" t="n">
+        <v>24.2733533413366</v>
+      </c>
+      <c r="D2385" s="3" t="n">
+        <v>23.7277561895392</v>
+      </c>
     </row>
     <row r="2386">
-      <c r="A2386" s="6"/>
-      <c r="B2386" s="3"/>
-      <c r="C2386" s="3"/>
-      <c r="D2386" s="3"/>
+      <c r="A2386" s="16" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B2386" s="3" t="n">
+        <v>21.9069053282589</v>
+      </c>
+      <c r="C2386" s="3" t="n">
+        <v>24.2777901160464</v>
+      </c>
+      <c r="D2386" s="3" t="n">
+        <v>23.7204584456975</v>
+      </c>
     </row>
     <row r="2387">
       <c r="A2387" s="6"/>
@@ -44023,13 +44263,27 @@
     </row>
     <row r="93">
       <c r="A93" s="6"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>22.450709315965</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>21.9937046845335</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>24.9735621141066</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>24.2699494417669</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>23.9381075210145</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>23.7652865335101</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
@@ -10,6 +10,11 @@
     <sheet name="HistJal" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4231,7 +4236,7 @@
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: agosto 2023</t>
+    <t xml:space="preserve">Próxima actualización: septiembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4255,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">junio 2023</t>
+    <t xml:space="preserve">julio 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -4322,7 +4327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4335,6 +4340,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b/>
     </font>
     <font>
       <sz val="8"/>
@@ -4343,11 +4356,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
@@ -4485,26 +4506,53 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -38180,190 +38228,438 @@
       </c>
     </row>
     <row r="2387">
-      <c r="A2387" s="6"/>
-      <c r="B2387" s="3"/>
-      <c r="C2387" s="3"/>
-      <c r="D2387" s="3"/>
+      <c r="A2387" s="16" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B2387" s="3" t="n">
+        <v>21.9189886770283</v>
+      </c>
+      <c r="C2387" s="3" t="n">
+        <v>24.261916496945</v>
+      </c>
+      <c r="D2387" s="3" t="n">
+        <v>23.7189795409182</v>
+      </c>
     </row>
     <row r="2388">
-      <c r="A2388" s="6"/>
-      <c r="B2388" s="3"/>
-      <c r="C2388" s="3"/>
-      <c r="D2388" s="3"/>
+      <c r="A2388" s="16" t="n">
+        <v>45109</v>
+      </c>
+      <c r="B2388" s="3" t="n">
+        <v>21.92011704959</v>
+      </c>
+      <c r="C2388" s="3" t="n">
+        <v>24.2659675753821</v>
+      </c>
+      <c r="D2388" s="3" t="n">
+        <v>23.71395526182</v>
+      </c>
     </row>
     <row r="2389">
-      <c r="A2389" s="6"/>
-      <c r="B2389" s="3"/>
-      <c r="C2389" s="3"/>
-      <c r="D2389" s="3"/>
+      <c r="A2389" s="16" t="n">
+        <v>45110</v>
+      </c>
+      <c r="B2389" s="3" t="n">
+        <v>21.9331664208053</v>
+      </c>
+      <c r="C2389" s="3" t="n">
+        <v>24.2680108310769</v>
+      </c>
+      <c r="D2389" s="3" t="n">
+        <v>23.7172230789</v>
+      </c>
     </row>
     <row r="2390">
-      <c r="A2390" s="6"/>
-      <c r="B2390" s="3"/>
-      <c r="C2390" s="3"/>
-      <c r="D2390" s="3"/>
+      <c r="A2390" s="16" t="n">
+        <v>45111</v>
+      </c>
+      <c r="B2390" s="3" t="n">
+        <v>21.9534243495021</v>
+      </c>
+      <c r="C2390" s="3" t="n">
+        <v>24.254481285598</v>
+      </c>
+      <c r="D2390" s="3" t="n">
+        <v>23.7227369758577</v>
+      </c>
     </row>
     <row r="2391">
-      <c r="A2391" s="6"/>
-      <c r="B2391" s="3"/>
-      <c r="C2391" s="3"/>
-      <c r="D2391" s="3"/>
+      <c r="A2391" s="16" t="n">
+        <v>45112</v>
+      </c>
+      <c r="B2391" s="3" t="n">
+        <v>21.9541055555556</v>
+      </c>
+      <c r="C2391" s="3" t="n">
+        <v>24.2348944892472</v>
+      </c>
+      <c r="D2391" s="3" t="n">
+        <v>23.7286617943548</v>
+      </c>
     </row>
     <row r="2392">
-      <c r="A2392" s="6"/>
-      <c r="B2392" s="3"/>
-      <c r="C2392" s="3"/>
-      <c r="D2392" s="3"/>
+      <c r="A2392" s="16" t="n">
+        <v>45113</v>
+      </c>
+      <c r="B2392" s="3" t="n">
+        <v>21.9654039525693</v>
+      </c>
+      <c r="C2392" s="3" t="n">
+        <v>24.2362315930387</v>
+      </c>
+      <c r="D2392" s="3" t="n">
+        <v>23.733748736097</v>
+      </c>
     </row>
     <row r="2393">
-      <c r="A2393" s="6"/>
-      <c r="B2393" s="3"/>
-      <c r="C2393" s="3"/>
-      <c r="D2393" s="3"/>
+      <c r="A2393" s="16" t="n">
+        <v>45114</v>
+      </c>
+      <c r="B2393" s="3" t="n">
+        <v>21.9809642913326</v>
+      </c>
+      <c r="C2393" s="3" t="n">
+        <v>24.2373578539453</v>
+      </c>
+      <c r="D2393" s="3" t="n">
+        <v>23.7433894895649</v>
+      </c>
     </row>
     <row r="2394">
-      <c r="A2394" s="6"/>
-      <c r="B2394" s="3"/>
-      <c r="C2394" s="3"/>
-      <c r="D2394" s="3"/>
+      <c r="A2394" s="16" t="n">
+        <v>45115</v>
+      </c>
+      <c r="B2394" s="3" t="n">
+        <v>21.996660644148</v>
+      </c>
+      <c r="C2394" s="3" t="n">
+        <v>24.2586386515662</v>
+      </c>
+      <c r="D2394" s="3" t="n">
+        <v>23.7543795712484</v>
+      </c>
     </row>
     <row r="2395">
-      <c r="A2395" s="6"/>
-      <c r="B2395" s="3"/>
-      <c r="C2395" s="3"/>
-      <c r="D2395" s="3"/>
+      <c r="A2395" s="16" t="n">
+        <v>45116</v>
+      </c>
+      <c r="B2395" s="3" t="n">
+        <v>21.9970465374844</v>
+      </c>
+      <c r="C2395" s="3" t="n">
+        <v>24.259311017006</v>
+      </c>
+      <c r="D2395" s="3" t="n">
+        <v>23.7576438391038</v>
+      </c>
     </row>
     <row r="2396">
-      <c r="A2396" s="6"/>
-      <c r="B2396" s="3"/>
-      <c r="C2396" s="3"/>
-      <c r="D2396" s="3"/>
+      <c r="A2396" s="16" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B2396" s="3" t="n">
+        <v>22.0113150648665</v>
+      </c>
+      <c r="C2396" s="3" t="n">
+        <v>24.2719105609232</v>
+      </c>
+      <c r="D2396" s="3" t="n">
+        <v>23.7680598726113</v>
+      </c>
     </row>
     <row r="2397">
-      <c r="A2397" s="6"/>
-      <c r="B2397" s="3"/>
-      <c r="C2397" s="3"/>
-      <c r="D2397" s="3"/>
+      <c r="A2397" s="16" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B2397" s="3" t="n">
+        <v>22.0218727878412</v>
+      </c>
+      <c r="C2397" s="3" t="n">
+        <v>24.2816669933999</v>
+      </c>
+      <c r="D2397" s="3" t="n">
+        <v>23.7884762728621</v>
+      </c>
     </row>
     <row r="2398">
-      <c r="A2398" s="6"/>
-      <c r="B2398" s="3"/>
-      <c r="C2398" s="3"/>
-      <c r="D2398" s="3"/>
+      <c r="A2398" s="16" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B2398" s="3" t="n">
+        <v>22.0503719643408</v>
+      </c>
+      <c r="C2398" s="3" t="n">
+        <v>24.3059077238113</v>
+      </c>
+      <c r="D2398" s="3" t="n">
+        <v>23.8112312530237</v>
+      </c>
     </row>
     <row r="2399">
-      <c r="A2399" s="6"/>
-      <c r="B2399" s="3"/>
-      <c r="C2399" s="3"/>
-      <c r="D2399" s="3"/>
+      <c r="A2399" s="16" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B2399" s="3" t="n">
+        <v>22.0738764579267</v>
+      </c>
+      <c r="C2399" s="3" t="n">
+        <v>24.3189062304124</v>
+      </c>
+      <c r="D2399" s="3" t="n">
+        <v>23.8246284975312</v>
+      </c>
     </row>
     <row r="2400">
-      <c r="A2400" s="6"/>
-      <c r="B2400" s="3"/>
-      <c r="C2400" s="3"/>
-      <c r="D2400" s="3"/>
+      <c r="A2400" s="16" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B2400" s="3" t="n">
+        <v>22.0858797393366</v>
+      </c>
+      <c r="C2400" s="3" t="n">
+        <v>24.3298306082002</v>
+      </c>
+      <c r="D2400" s="3" t="n">
+        <v>23.8352158854769</v>
+      </c>
     </row>
     <row r="2401">
-      <c r="A2401" s="6"/>
-      <c r="B2401" s="3"/>
-      <c r="C2401" s="3"/>
-      <c r="D2401" s="3"/>
+      <c r="A2401" s="16" t="n">
+        <v>45122</v>
+      </c>
+      <c r="B2401" s="3" t="n">
+        <v>22.0996955434624</v>
+      </c>
+      <c r="C2401" s="3" t="n">
+        <v>24.3380169954099</v>
+      </c>
+      <c r="D2401" s="3" t="n">
+        <v>23.8423813910641</v>
+      </c>
     </row>
     <row r="2402">
-      <c r="A2402" s="6"/>
-      <c r="B2402" s="3"/>
-      <c r="C2402" s="3"/>
-      <c r="D2402" s="3"/>
+      <c r="A2402" s="16" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B2402" s="3" t="n">
+        <v>22.0982280908824</v>
+      </c>
+      <c r="C2402" s="3" t="n">
+        <v>24.3436598677644</v>
+      </c>
+      <c r="D2402" s="3" t="n">
+        <v>23.8409672206834</v>
+      </c>
     </row>
     <row r="2403">
-      <c r="A2403" s="6"/>
-      <c r="B2403" s="3"/>
-      <c r="C2403" s="3"/>
-      <c r="D2403" s="3"/>
+      <c r="A2403" s="16" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B2403" s="3" t="n">
+        <v>22.1139191770757</v>
+      </c>
+      <c r="C2403" s="3" t="n">
+        <v>24.3544746851228</v>
+      </c>
+      <c r="D2403" s="3" t="n">
+        <v>23.8388572425018</v>
+      </c>
     </row>
     <row r="2404">
-      <c r="A2404" s="6"/>
-      <c r="B2404" s="3"/>
-      <c r="C2404" s="3"/>
-      <c r="D2404" s="3"/>
+      <c r="A2404" s="16" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B2404" s="3" t="n">
+        <v>22.1189194059977</v>
+      </c>
+      <c r="C2404" s="3" t="n">
+        <v>24.353284133969</v>
+      </c>
+      <c r="D2404" s="3" t="n">
+        <v>23.8350045599636</v>
+      </c>
     </row>
     <row r="2405">
-      <c r="A2405" s="6"/>
-      <c r="B2405" s="3"/>
-      <c r="C2405" s="3"/>
-      <c r="D2405" s="3"/>
+      <c r="A2405" s="16" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B2405" s="3" t="n">
+        <v>22.1283167707742</v>
+      </c>
+      <c r="C2405" s="3" t="n">
+        <v>24.3532312121212</v>
+      </c>
+      <c r="D2405" s="3" t="n">
+        <v>23.8315345413364</v>
+      </c>
     </row>
     <row r="2406">
-      <c r="A2406" s="6"/>
-      <c r="B2406" s="3"/>
-      <c r="C2406" s="3"/>
-      <c r="D2406" s="3"/>
+      <c r="A2406" s="16" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B2406" s="3" t="n">
+        <v>22.1553443721106</v>
+      </c>
+      <c r="C2406" s="3" t="n">
+        <v>24.3626582085919</v>
+      </c>
+      <c r="D2406" s="3" t="n">
+        <v>23.8285294789762</v>
+      </c>
     </row>
     <row r="2407">
-      <c r="A2407" s="6"/>
-      <c r="B2407" s="3"/>
-      <c r="C2407" s="3"/>
-      <c r="D2407" s="3"/>
+      <c r="A2407" s="16" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B2407" s="3" t="n">
+        <v>22.1728951289933</v>
+      </c>
+      <c r="C2407" s="3" t="n">
+        <v>24.3711394993894</v>
+      </c>
+      <c r="D2407" s="3" t="n">
+        <v>23.8265656682028</v>
+      </c>
     </row>
     <row r="2408">
-      <c r="A2408" s="6"/>
-      <c r="B2408" s="3"/>
-      <c r="C2408" s="3"/>
-      <c r="D2408" s="3"/>
+      <c r="A2408" s="16" t="n">
+        <v>45129</v>
+      </c>
+      <c r="B2408" s="3" t="n">
+        <v>22.1728946516897</v>
+      </c>
+      <c r="C2408" s="3" t="n">
+        <v>24.3861460045036</v>
+      </c>
+      <c r="D2408" s="3" t="n">
+        <v>23.8447652093453</v>
+      </c>
     </row>
     <row r="2409">
-      <c r="A2409" s="6"/>
-      <c r="B2409" s="3"/>
-      <c r="C2409" s="3"/>
-      <c r="D2409" s="3"/>
+      <c r="A2409" s="16" t="n">
+        <v>45130</v>
+      </c>
+      <c r="B2409" s="3" t="n">
+        <v>22.1737271291911</v>
+      </c>
+      <c r="C2409" s="3" t="n">
+        <v>24.3881341815723</v>
+      </c>
+      <c r="D2409" s="3" t="n">
+        <v>23.8537943179149</v>
+      </c>
     </row>
     <row r="2410">
-      <c r="A2410" s="6"/>
-      <c r="B2410" s="3"/>
-      <c r="C2410" s="3"/>
-      <c r="D2410" s="3"/>
+      <c r="A2410" s="16" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B2410" s="3" t="n">
+        <v>22.174053729135</v>
+      </c>
+      <c r="C2410" s="3" t="n">
+        <v>24.39244000491</v>
+      </c>
+      <c r="D2410" s="3" t="n">
+        <v>23.8546541923258</v>
+      </c>
     </row>
     <row r="2411">
-      <c r="A2411" s="6"/>
-      <c r="B2411" s="3"/>
-      <c r="C2411" s="3"/>
-      <c r="D2411" s="3"/>
+      <c r="A2411" s="16" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B2411" s="3" t="n">
+        <v>22.1802792890823</v>
+      </c>
+      <c r="C2411" s="3" t="n">
+        <v>24.4023091614444</v>
+      </c>
+      <c r="D2411" s="3" t="n">
+        <v>23.8708192413162</v>
+      </c>
     </row>
     <row r="2412">
-      <c r="A2412" s="6"/>
-      <c r="B2412" s="3"/>
-      <c r="C2412" s="3"/>
-      <c r="D2412" s="3"/>
+      <c r="A2412" s="16" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B2412" s="3" t="n">
+        <v>22.1950140393101</v>
+      </c>
+      <c r="C2412" s="3" t="n">
+        <v>24.396652736665</v>
+      </c>
+      <c r="D2412" s="3" t="n">
+        <v>23.8944031007751</v>
+      </c>
     </row>
     <row r="2413">
-      <c r="A2413" s="6"/>
-      <c r="B2413" s="3"/>
-      <c r="C2413" s="3"/>
-      <c r="D2413" s="3"/>
+      <c r="A2413" s="16" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B2413" s="3" t="n">
+        <v>22.1868737659602</v>
+      </c>
+      <c r="C2413" s="3" t="n">
+        <v>24.4030634185396</v>
+      </c>
+      <c r="D2413" s="3" t="n">
+        <v>23.9093339081698</v>
+      </c>
     </row>
     <row r="2414">
-      <c r="A2414" s="6"/>
-      <c r="B2414" s="3"/>
-      <c r="C2414" s="3"/>
-      <c r="D2414" s="3"/>
+      <c r="A2414" s="16" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B2414" s="3" t="n">
+        <v>22.1973015976101</v>
+      </c>
+      <c r="C2414" s="3" t="n">
+        <v>24.4105276059947</v>
+      </c>
+      <c r="D2414" s="3" t="n">
+        <v>23.9284000419112</v>
+      </c>
     </row>
     <row r="2415">
-      <c r="A2415" s="6"/>
-      <c r="B2415" s="3"/>
-      <c r="C2415" s="3"/>
-      <c r="D2415" s="3"/>
+      <c r="A2415" s="16" t="n">
+        <v>45136</v>
+      </c>
+      <c r="B2415" s="3" t="n">
+        <v>22.2030789507524</v>
+      </c>
+      <c r="C2415" s="3" t="n">
+        <v>24.4152845395631</v>
+      </c>
+      <c r="D2415" s="3" t="n">
+        <v>23.9439336880884</v>
+      </c>
     </row>
     <row r="2416">
-      <c r="A2416" s="6"/>
-      <c r="B2416" s="3"/>
-      <c r="C2416" s="3"/>
-      <c r="D2416" s="3"/>
+      <c r="A2416" s="16" t="n">
+        <v>45137</v>
+      </c>
+      <c r="B2416" s="3" t="n">
+        <v>22.2024400773197</v>
+      </c>
+      <c r="C2416" s="3" t="n">
+        <v>24.4107391256649</v>
+      </c>
+      <c r="D2416" s="3" t="n">
+        <v>23.9467431098314</v>
+      </c>
     </row>
     <row r="2417">
-      <c r="A2417" s="6"/>
-      <c r="B2417" s="3"/>
-      <c r="C2417" s="3"/>
-      <c r="D2417" s="3"/>
+      <c r="A2417" s="16" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B2417" s="3" t="n">
+        <v>22.2129440436315</v>
+      </c>
+      <c r="C2417" s="3" t="n">
+        <v>24.419440155497</v>
+      </c>
+      <c r="D2417" s="3" t="n">
+        <v>23.9580758255198</v>
+      </c>
     </row>
     <row r="2418">
       <c r="A2418" s="6"/>
@@ -44287,13 +44583,27 @@
     </row>
     <row r="94">
       <c r="A94" s="6"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>22.6446760102667</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>22.0854554598486</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>24.9921329446465</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>24.3318139821702</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>24.0793629447375</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>23.821519122816</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - julio 2023</t>
+    <t xml:space="preserve">enero 2017 - agosto 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: septiembre 2023</t>
+    <t xml:space="preserve">Próxima actualización: octubre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">julio 2023</t>
+    <t xml:space="preserve">agosto 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -38662,190 +38662,438 @@
       </c>
     </row>
     <row r="2418">
-      <c r="A2418" s="6"/>
-      <c r="B2418" s="3"/>
-      <c r="C2418" s="3"/>
-      <c r="D2418" s="3"/>
+      <c r="A2418" s="16" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B2418" s="3" t="n">
+        <v>22.2231913814957</v>
+      </c>
+      <c r="C2418" s="3" t="n">
+        <v>24.4301698123265</v>
+      </c>
+      <c r="D2418" s="3" t="n">
+        <v>23.9696276067527</v>
+      </c>
     </row>
     <row r="2419">
-      <c r="A2419" s="6"/>
-      <c r="B2419" s="3"/>
-      <c r="C2419" s="3"/>
-      <c r="D2419" s="3"/>
+      <c r="A2419" s="16" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B2419" s="3" t="n">
+        <v>22.2264153205454</v>
+      </c>
+      <c r="C2419" s="3" t="n">
+        <v>24.4368605630095</v>
+      </c>
+      <c r="D2419" s="3" t="n">
+        <v>23.9803602108551</v>
+      </c>
     </row>
     <row r="2420">
-      <c r="A2420" s="6"/>
-      <c r="B2420" s="3"/>
-      <c r="C2420" s="3"/>
-      <c r="D2420" s="3"/>
+      <c r="A2420" s="16" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B2420" s="3" t="n">
+        <v>22.2325468494531</v>
+      </c>
+      <c r="C2420" s="3" t="n">
+        <v>24.4513154302513</v>
+      </c>
+      <c r="D2420" s="3" t="n">
+        <v>23.9932921219091</v>
+      </c>
     </row>
     <row r="2421">
-      <c r="A2421" s="6"/>
-      <c r="B2421" s="3"/>
-      <c r="C2421" s="3"/>
-      <c r="D2421" s="3"/>
+      <c r="A2421" s="16" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B2421" s="3" t="n">
+        <v>22.2302747668265</v>
+      </c>
+      <c r="C2421" s="3" t="n">
+        <v>24.4586147764162</v>
+      </c>
+      <c r="D2421" s="3" t="n">
+        <v>23.9891432103461</v>
+      </c>
     </row>
     <row r="2422">
-      <c r="A2422" s="6"/>
-      <c r="B2422" s="3"/>
-      <c r="C2422" s="3"/>
-      <c r="D2422" s="3"/>
+      <c r="A2422" s="16" t="n">
+        <v>45143</v>
+      </c>
+      <c r="B2422" s="3" t="n">
+        <v>22.2327595352364</v>
+      </c>
+      <c r="C2422" s="3" t="n">
+        <v>24.4584114052952</v>
+      </c>
+      <c r="D2422" s="3" t="n">
+        <v>23.9917322239032</v>
+      </c>
     </row>
     <row r="2423">
-      <c r="A2423" s="6"/>
-      <c r="B2423" s="3"/>
-      <c r="C2423" s="3"/>
-      <c r="D2423" s="3"/>
+      <c r="A2423" s="16" t="n">
+        <v>45144</v>
+      </c>
+      <c r="B2423" s="3" t="n">
+        <v>22.230726533723</v>
+      </c>
+      <c r="C2423" s="3" t="n">
+        <v>24.4570066100093</v>
+      </c>
+      <c r="D2423" s="3" t="n">
+        <v>23.9971928148289</v>
+      </c>
     </row>
     <row r="2424">
-      <c r="A2424" s="6"/>
-      <c r="B2424" s="3"/>
-      <c r="C2424" s="3"/>
-      <c r="D2424" s="3"/>
+      <c r="A2424" s="16" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B2424" s="3" t="n">
+        <v>22.2351035973054</v>
+      </c>
+      <c r="C2424" s="3" t="n">
+        <v>24.4548366577665</v>
+      </c>
+      <c r="D2424" s="3" t="n">
+        <v>23.9996221040638</v>
+      </c>
     </row>
     <row r="2425">
-      <c r="A2425" s="6"/>
-      <c r="B2425" s="3"/>
-      <c r="C2425" s="3"/>
-      <c r="D2425" s="3"/>
+      <c r="A2425" s="16" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B2425" s="3" t="n">
+        <v>22.246213201568</v>
+      </c>
+      <c r="C2425" s="3" t="n">
+        <v>24.4616674368453</v>
+      </c>
+      <c r="D2425" s="3" t="n">
+        <v>24.004266605166</v>
+      </c>
     </row>
     <row r="2426">
-      <c r="A2426" s="6"/>
-      <c r="B2426" s="3"/>
-      <c r="C2426" s="3"/>
-      <c r="D2426" s="3"/>
+      <c r="A2426" s="16" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B2426" s="3" t="n">
+        <v>22.2566256796839</v>
+      </c>
+      <c r="C2426" s="3" t="n">
+        <v>24.4721685649202</v>
+      </c>
+      <c r="D2426" s="3" t="n">
+        <v>24.021211928934</v>
+      </c>
     </row>
     <row r="2427">
-      <c r="A2427" s="6"/>
-      <c r="B2427" s="3"/>
-      <c r="C2427" s="3"/>
-      <c r="D2427" s="3"/>
+      <c r="A2427" s="16" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B2427" s="3" t="n">
+        <v>22.2662031887285</v>
+      </c>
+      <c r="C2427" s="3" t="n">
+        <v>24.4801084615383</v>
+      </c>
+      <c r="D2427" s="3" t="n">
+        <v>24.0264076008645</v>
+      </c>
     </row>
     <row r="2428">
-      <c r="A2428" s="6"/>
-      <c r="B2428" s="3"/>
-      <c r="C2428" s="3"/>
-      <c r="D2428" s="3"/>
+      <c r="A2428" s="16" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B2428" s="3" t="n">
+        <v>22.2731090174969</v>
+      </c>
+      <c r="C2428" s="3" t="n">
+        <v>24.4751118773945</v>
+      </c>
+      <c r="D2428" s="3" t="n">
+        <v>24.0220840035746</v>
+      </c>
     </row>
     <row r="2429">
-      <c r="A2429" s="6"/>
-      <c r="B2429" s="3"/>
-      <c r="C2429" s="3"/>
-      <c r="D2429" s="3"/>
+      <c r="A2429" s="16" t="n">
+        <v>45150</v>
+      </c>
+      <c r="B2429" s="3" t="n">
+        <v>22.281788402221</v>
+      </c>
+      <c r="C2429" s="3" t="n">
+        <v>24.4763840110904</v>
+      </c>
+      <c r="D2429" s="3" t="n">
+        <v>24.0273203138933</v>
+      </c>
     </row>
     <row r="2430">
-      <c r="A2430" s="6"/>
-      <c r="B2430" s="3"/>
-      <c r="C2430" s="3"/>
-      <c r="D2430" s="3"/>
+      <c r="A2430" s="16" t="n">
+        <v>45151</v>
+      </c>
+      <c r="B2430" s="3" t="n">
+        <v>22.2863177232534</v>
+      </c>
+      <c r="C2430" s="3" t="n">
+        <v>24.4738650830614</v>
+      </c>
+      <c r="D2430" s="3" t="n">
+        <v>24.0281267985611</v>
+      </c>
     </row>
     <row r="2431">
-      <c r="A2431" s="6"/>
-      <c r="B2431" s="3"/>
-      <c r="C2431" s="3"/>
-      <c r="D2431" s="3"/>
+      <c r="A2431" s="16" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B2431" s="3" t="n">
+        <v>22.298517964072</v>
+      </c>
+      <c r="C2431" s="3" t="n">
+        <v>24.4837954333642</v>
+      </c>
+      <c r="D2431" s="3" t="n">
+        <v>24.0328484903272</v>
+      </c>
     </row>
     <row r="2432">
-      <c r="A2432" s="6"/>
-      <c r="B2432" s="3"/>
-      <c r="C2432" s="3"/>
-      <c r="D2432" s="3"/>
+      <c r="A2432" s="16" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B2432" s="3" t="n">
+        <v>22.3232461820405</v>
+      </c>
+      <c r="C2432" s="3" t="n">
+        <v>24.4936144125168</v>
+      </c>
+      <c r="D2432" s="3" t="n">
+        <v>24.0562455985915</v>
+      </c>
     </row>
     <row r="2433">
-      <c r="A2433" s="6"/>
-      <c r="B2433" s="3"/>
-      <c r="C2433" s="3"/>
-      <c r="D2433" s="3"/>
+      <c r="A2433" s="16" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B2433" s="3" t="n">
+        <v>22.3351343500365</v>
+      </c>
+      <c r="C2433" s="3" t="n">
+        <v>24.4939207308089</v>
+      </c>
+      <c r="D2433" s="3" t="n">
+        <v>24.0702327392282</v>
+      </c>
     </row>
     <row r="2434">
-      <c r="A2434" s="6"/>
-      <c r="B2434" s="3"/>
-      <c r="C2434" s="3"/>
-      <c r="D2434" s="3"/>
+      <c r="A2434" s="16" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B2434" s="3" t="n">
+        <v>22.3489531796792</v>
+      </c>
+      <c r="C2434" s="3" t="n">
+        <v>24.5089167767504</v>
+      </c>
+      <c r="D2434" s="3" t="n">
+        <v>24.0817222699914</v>
+      </c>
     </row>
     <row r="2435">
-      <c r="A2435" s="6"/>
-      <c r="B2435" s="3"/>
-      <c r="C2435" s="3"/>
-      <c r="D2435" s="3"/>
+      <c r="A2435" s="16" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B2435" s="3" t="n">
+        <v>22.3610419420745</v>
+      </c>
+      <c r="C2435" s="3" t="n">
+        <v>24.5131083636365</v>
+      </c>
+      <c r="D2435" s="3" t="n">
+        <v>24.091122884977</v>
+      </c>
     </row>
     <row r="2436">
-      <c r="A2436" s="6"/>
-      <c r="B2436" s="3"/>
-      <c r="C2436" s="3"/>
-      <c r="D2436" s="3"/>
+      <c r="A2436" s="16" t="n">
+        <v>45157</v>
+      </c>
+      <c r="B2436" s="3" t="n">
+        <v>22.3699035098302</v>
+      </c>
+      <c r="C2436" s="3" t="n">
+        <v>24.5142350203609</v>
+      </c>
+      <c r="D2436" s="3" t="n">
+        <v>24.0938677798603</v>
+      </c>
     </row>
     <row r="2437">
-      <c r="A2437" s="6"/>
-      <c r="B2437" s="3"/>
-      <c r="C2437" s="3"/>
-      <c r="D2437" s="3"/>
+      <c r="A2437" s="16" t="n">
+        <v>45158</v>
+      </c>
+      <c r="B2437" s="3" t="n">
+        <v>22.3713831342922</v>
+      </c>
+      <c r="C2437" s="3" t="n">
+        <v>24.5123876116564</v>
+      </c>
+      <c r="D2437" s="3" t="n">
+        <v>24.094964028777</v>
+      </c>
     </row>
     <row r="2438">
-      <c r="A2438" s="6"/>
-      <c r="B2438" s="3"/>
-      <c r="C2438" s="3"/>
-      <c r="D2438" s="3"/>
+      <c r="A2438" s="16" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B2438" s="3" t="n">
+        <v>22.3834756995584</v>
+      </c>
+      <c r="C2438" s="3" t="n">
+        <v>24.5127044349494</v>
+      </c>
+      <c r="D2438" s="3" t="n">
+        <v>24.1042627599244</v>
+      </c>
     </row>
     <row r="2439">
-      <c r="A2439" s="6"/>
-      <c r="B2439" s="3"/>
-      <c r="C2439" s="3"/>
-      <c r="D2439" s="3"/>
+      <c r="A2439" s="16" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B2439" s="3" t="n">
+        <v>22.3852830303033</v>
+      </c>
+      <c r="C2439" s="3" t="n">
+        <v>24.5172812228343</v>
+      </c>
+      <c r="D2439" s="3" t="n">
+        <v>24.1059703138253</v>
+      </c>
     </row>
     <row r="2440">
-      <c r="A2440" s="6"/>
-      <c r="B2440" s="3"/>
-      <c r="C2440" s="3"/>
-      <c r="D2440" s="3"/>
+      <c r="A2440" s="16" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B2440" s="3" t="n">
+        <v>22.3680378906724</v>
+      </c>
+      <c r="C2440" s="3" t="n">
+        <v>24.5188337666092</v>
+      </c>
+      <c r="D2440" s="3" t="n">
+        <v>24.1097639194449</v>
+      </c>
     </row>
     <row r="2441">
-      <c r="A2441" s="6"/>
-      <c r="B2441" s="3"/>
-      <c r="C2441" s="3"/>
-      <c r="D2441" s="3"/>
+      <c r="A2441" s="16" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B2441" s="3" t="n">
+        <v>22.346567970432</v>
+      </c>
+      <c r="C2441" s="3" t="n">
+        <v>24.5188794987617</v>
+      </c>
+      <c r="D2441" s="3" t="n">
+        <v>24.1124801929039</v>
+      </c>
     </row>
     <row r="2442">
-      <c r="A2442" s="6"/>
-      <c r="B2442" s="3"/>
-      <c r="C2442" s="3"/>
-      <c r="D2442" s="3"/>
+      <c r="A2442" s="16" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B2442" s="3" t="n">
+        <v>22.3299799097993</v>
+      </c>
+      <c r="C2442" s="3" t="n">
+        <v>24.5167834252499</v>
+      </c>
+      <c r="D2442" s="3" t="n">
+        <v>24.1097717334266</v>
+      </c>
     </row>
     <row r="2443">
-      <c r="A2443" s="6"/>
-      <c r="B2443" s="3"/>
-      <c r="C2443" s="3"/>
-      <c r="D2443" s="3"/>
+      <c r="A2443" s="16" t="n">
+        <v>45164</v>
+      </c>
+      <c r="B2443" s="3" t="n">
+        <v>22.3345186200027</v>
+      </c>
+      <c r="C2443" s="3" t="n">
+        <v>24.5131103375211</v>
+      </c>
+      <c r="D2443" s="3" t="n">
+        <v>24.1136673169001</v>
+      </c>
     </row>
     <row r="2444">
-      <c r="A2444" s="6"/>
-      <c r="B2444" s="3"/>
-      <c r="C2444" s="3"/>
-      <c r="D2444" s="3"/>
+      <c r="A2444" s="16" t="n">
+        <v>45165</v>
+      </c>
+      <c r="B2444" s="3" t="n">
+        <v>22.3343286219083</v>
+      </c>
+      <c r="C2444" s="3" t="n">
+        <v>24.5096575875488</v>
+      </c>
+      <c r="D2444" s="3" t="n">
+        <v>24.1102077259475</v>
+      </c>
     </row>
     <row r="2445">
-      <c r="A2445" s="6"/>
-      <c r="B2445" s="3"/>
-      <c r="C2445" s="3"/>
-      <c r="D2445" s="3"/>
+      <c r="A2445" s="16" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B2445" s="3" t="n">
+        <v>22.3365826561708</v>
+      </c>
+      <c r="C2445" s="3" t="n">
+        <v>24.5156850393701</v>
+      </c>
+      <c r="D2445" s="3" t="n">
+        <v>24.1097391304347</v>
+      </c>
     </row>
     <row r="2446">
-      <c r="A2446" s="6"/>
-      <c r="B2446" s="3"/>
-      <c r="C2446" s="3"/>
-      <c r="D2446" s="3"/>
+      <c r="A2446" s="16" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B2446" s="3" t="n">
+        <v>22.3463131440062</v>
+      </c>
+      <c r="C2446" s="3" t="n">
+        <v>24.523753872367</v>
+      </c>
+      <c r="D2446" s="3" t="n">
+        <v>24.1148675557179</v>
+      </c>
     </row>
     <row r="2447">
-      <c r="A2447" s="6"/>
-      <c r="B2447" s="3"/>
-      <c r="C2447" s="3"/>
-      <c r="D2447" s="3"/>
+      <c r="A2447" s="16" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B2447" s="3" t="n">
+        <v>22.341066549693</v>
+      </c>
+      <c r="C2447" s="3" t="n">
+        <v>24.5208769206893</v>
+      </c>
+      <c r="D2447" s="3" t="n">
+        <v>24.1118875318994</v>
+      </c>
     </row>
     <row r="2448">
-      <c r="A2448" s="6"/>
-      <c r="B2448" s="3"/>
-      <c r="C2448" s="3"/>
-      <c r="D2448" s="3"/>
+      <c r="A2448" s="16" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B2448" s="3" t="n">
+        <v>22.3335543547363</v>
+      </c>
+      <c r="C2448" s="3" t="n">
+        <v>24.5104228262599</v>
+      </c>
+      <c r="D2448" s="3" t="n">
+        <v>24.111861531831</v>
+      </c>
     </row>
     <row r="2449">
       <c r="A2449" s="6"/>
@@ -44607,13 +44855,27 @@
     </row>
     <row r="95">
       <c r="A95" s="6"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>22.8915308035746</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>22.3054569002208</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>25.1654869472255</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>24.4898221926187</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>24.2912672864927</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>24.0576087434729</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="1414">
   <si>
     <t>Periodicidad Mensual</t>
   </si>
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - agosto 2023</t>
+    <t xml:space="preserve">enero 2017 - septiembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: octubre 2023</t>
+    <t xml:space="preserve">Próxima actualización: noviembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,64 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
+    <t xml:space="preserve">septiembre 2023</t>
   </si>
 </sst>
 </file>
@@ -39096,184 +39039,424 @@
       </c>
     </row>
     <row r="2449">
-      <c r="A2449" s="6"/>
-      <c r="B2449" s="3"/>
-      <c r="C2449" s="3"/>
-      <c r="D2449" s="3"/>
+      <c r="A2449" s="16" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B2449" s="3" t="n">
+        <v>22.2978043364681</v>
+      </c>
+      <c r="C2449" s="3" t="n">
+        <v>24.5152515572592</v>
+      </c>
+      <c r="D2449" s="3" t="n">
+        <v>24.1110461203484</v>
+      </c>
     </row>
     <row r="2450">
-      <c r="A2450" s="6"/>
-      <c r="B2450" s="3"/>
-      <c r="C2450" s="3"/>
-      <c r="D2450" s="3"/>
+      <c r="A2450" s="16" t="n">
+        <v>45171</v>
+      </c>
+      <c r="B2450" s="3" t="n">
+        <v>22.2917988929889</v>
+      </c>
+      <c r="C2450" s="3" t="n">
+        <v>24.5250186174518</v>
+      </c>
+      <c r="D2450" s="3" t="n">
+        <v>24.1048151141645</v>
+      </c>
     </row>
     <row r="2451">
-      <c r="A2451" s="6"/>
-      <c r="B2451" s="3"/>
-      <c r="C2451" s="3"/>
-      <c r="D2451" s="3"/>
+      <c r="A2451" s="16" t="n">
+        <v>45172</v>
+      </c>
+      <c r="B2451" s="3" t="n">
+        <v>22.2846474273527</v>
+      </c>
+      <c r="C2451" s="3" t="n">
+        <v>24.5207504937459</v>
+      </c>
+      <c r="D2451" s="3" t="n">
+        <v>24.1025849289685</v>
+      </c>
     </row>
     <row r="2452">
-      <c r="A2452" s="6"/>
-      <c r="B2452" s="3"/>
-      <c r="C2452" s="3"/>
-      <c r="D2452" s="3"/>
+      <c r="A2452" s="16" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B2452" s="3" t="n">
+        <v>22.2858295148248</v>
+      </c>
+      <c r="C2452" s="3" t="n">
+        <v>24.5164763877382</v>
+      </c>
+      <c r="D2452" s="3" t="n">
+        <v>24.1049323480433</v>
+      </c>
     </row>
     <row r="2453">
-      <c r="A2453" s="6"/>
-      <c r="B2453" s="3"/>
-      <c r="C2453" s="3"/>
-      <c r="D2453" s="3"/>
+      <c r="A2453" s="16" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B2453" s="3" t="n">
+        <v>22.2939171122995</v>
+      </c>
+      <c r="C2453" s="3" t="n">
+        <v>24.5243160994764</v>
+      </c>
+      <c r="D2453" s="3" t="n">
+        <v>24.1018755135579</v>
+      </c>
     </row>
     <row r="2454">
-      <c r="A2454" s="6"/>
-      <c r="B2454" s="3"/>
-      <c r="C2454" s="3"/>
-      <c r="D2454" s="3"/>
+      <c r="A2454" s="16" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B2454" s="3" t="n">
+        <v>22.2980258727627</v>
+      </c>
+      <c r="C2454" s="3" t="n">
+        <v>24.5296371882086</v>
+      </c>
+      <c r="D2454" s="3" t="n">
+        <v>24.1076557711951</v>
+      </c>
     </row>
     <row r="2455">
-      <c r="A2455" s="6"/>
-      <c r="B2455" s="3"/>
-      <c r="C2455" s="3"/>
-      <c r="D2455" s="3"/>
+      <c r="A2455" s="16" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B2455" s="3" t="n">
+        <v>22.311432996633</v>
+      </c>
+      <c r="C2455" s="3" t="n">
+        <v>24.5522170504655</v>
+      </c>
+      <c r="D2455" s="3" t="n">
+        <v>24.1336672068058</v>
+      </c>
     </row>
     <row r="2456">
-      <c r="A2456" s="6"/>
-      <c r="B2456" s="3"/>
-      <c r="C2456" s="3"/>
-      <c r="D2456" s="3"/>
+      <c r="A2456" s="16" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B2456" s="3" t="n">
+        <v>22.3358707446087</v>
+      </c>
+      <c r="C2456" s="3" t="n">
+        <v>24.5610876356462</v>
+      </c>
+      <c r="D2456" s="3" t="n">
+        <v>24.1388648813147</v>
+      </c>
     </row>
     <row r="2457">
-      <c r="A2457" s="6"/>
-      <c r="B2457" s="3"/>
-      <c r="C2457" s="3"/>
-      <c r="D2457" s="3"/>
+      <c r="A2457" s="16" t="n">
+        <v>45178</v>
+      </c>
+      <c r="B2457" s="3" t="n">
+        <v>22.3487321452864</v>
+      </c>
+      <c r="C2457" s="3" t="n">
+        <v>24.5619131859132</v>
+      </c>
+      <c r="D2457" s="3" t="n">
+        <v>24.1443282072036</v>
+      </c>
     </row>
     <row r="2458">
-      <c r="A2458" s="6"/>
-      <c r="B2458" s="3"/>
-      <c r="C2458" s="3"/>
-      <c r="D2458" s="3"/>
+      <c r="A2458" s="16" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B2458" s="3" t="n">
+        <v>22.3335558811218</v>
+      </c>
+      <c r="C2458" s="3" t="n">
+        <v>24.5696254458977</v>
+      </c>
+      <c r="D2458" s="3" t="n">
+        <v>24.14988412994</v>
+      </c>
     </row>
     <row r="2459">
-      <c r="A2459" s="6"/>
-      <c r="B2459" s="3"/>
-      <c r="C2459" s="3"/>
-      <c r="D2459" s="3"/>
+      <c r="A2459" s="16" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B2459" s="3" t="n">
+        <v>22.3367015706806</v>
+      </c>
+      <c r="C2459" s="3" t="n">
+        <v>24.5814384615385</v>
+      </c>
+      <c r="D2459" s="3" t="n">
+        <v>24.1539205723766</v>
+      </c>
     </row>
     <row r="2460">
-      <c r="A2460" s="6"/>
-      <c r="B2460" s="3"/>
-      <c r="C2460" s="3"/>
-      <c r="D2460" s="3"/>
+      <c r="A2460" s="16" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B2460" s="3" t="n">
+        <v>22.3484392048081</v>
+      </c>
+      <c r="C2460" s="3" t="n">
+        <v>24.5926790473018</v>
+      </c>
+      <c r="D2460" s="3" t="n">
+        <v>24.160079540878</v>
+      </c>
     </row>
     <row r="2461">
-      <c r="A2461" s="6"/>
-      <c r="B2461" s="3"/>
-      <c r="C2461" s="3"/>
-      <c r="D2461" s="3"/>
+      <c r="A2461" s="16" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B2461" s="3" t="n">
+        <v>22.3628468702917</v>
+      </c>
+      <c r="C2461" s="3" t="n">
+        <v>24.6019973783385</v>
+      </c>
+      <c r="D2461" s="3" t="n">
+        <v>24.1750466918339</v>
+      </c>
     </row>
     <row r="2462">
-      <c r="A2462" s="6"/>
-      <c r="B2462" s="3"/>
-      <c r="C2462" s="3"/>
-      <c r="D2462" s="3"/>
+      <c r="A2462" s="16" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B2462" s="3" t="n">
+        <v>22.3609609904228</v>
+      </c>
+      <c r="C2462" s="3" t="n">
+        <v>24.6096922047508</v>
+      </c>
+      <c r="D2462" s="3" t="n">
+        <v>24.1738527570188</v>
+      </c>
     </row>
     <row r="2463">
-      <c r="A2463" s="6"/>
-      <c r="B2463" s="3"/>
-      <c r="C2463" s="3"/>
-      <c r="D2463" s="3"/>
+      <c r="A2463" s="16" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B2463" s="3" t="n">
+        <v>22.3722623913554</v>
+      </c>
+      <c r="C2463" s="3" t="n">
+        <v>24.6014245298719</v>
+      </c>
+      <c r="D2463" s="3" t="n">
+        <v>24.1793147773279</v>
+      </c>
     </row>
     <row r="2464">
-      <c r="A2464" s="6"/>
-      <c r="B2464" s="3"/>
-      <c r="C2464" s="3"/>
-      <c r="D2464" s="3"/>
+      <c r="A2464" s="16" t="n">
+        <v>45185</v>
+      </c>
+      <c r="B2464" s="3" t="n">
+        <v>22.3784229747676</v>
+      </c>
+      <c r="C2464" s="3" t="n">
+        <v>24.6046783380801</v>
+      </c>
+      <c r="D2464" s="3" t="n">
+        <v>24.183597797267</v>
+      </c>
     </row>
     <row r="2465">
-      <c r="A2465" s="6"/>
-      <c r="B2465" s="3"/>
-      <c r="C2465" s="3"/>
-      <c r="D2465" s="3"/>
+      <c r="A2465" s="16" t="n">
+        <v>45186</v>
+      </c>
+      <c r="B2465" s="3" t="n">
+        <v>22.3757467752885</v>
+      </c>
+      <c r="C2465" s="3" t="n">
+        <v>24.6177389078498</v>
+      </c>
+      <c r="D2465" s="3" t="n">
+        <v>24.1871007268951</v>
+      </c>
     </row>
     <row r="2466">
-      <c r="A2466" s="6"/>
-      <c r="B2466" s="3"/>
-      <c r="C2466" s="3"/>
-      <c r="D2466" s="3"/>
+      <c r="A2466" s="16" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B2466" s="3" t="n">
+        <v>22.3794804092717</v>
+      </c>
+      <c r="C2466" s="3" t="n">
+        <v>24.617076949268</v>
+      </c>
+      <c r="D2466" s="3" t="n">
+        <v>24.1941118968386</v>
+      </c>
     </row>
     <row r="2467">
-      <c r="A2467" s="6"/>
-      <c r="B2467" s="3"/>
-      <c r="C2467" s="3"/>
-      <c r="D2467" s="3"/>
+      <c r="A2467" s="16" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B2467" s="3" t="n">
+        <v>22.3666338648662</v>
+      </c>
+      <c r="C2467" s="3" t="n">
+        <v>24.6218155813562</v>
+      </c>
+      <c r="D2467" s="3" t="n">
+        <v>24.1977231237322</v>
+      </c>
     </row>
     <row r="2468">
-      <c r="A2468" s="6"/>
-      <c r="B2468" s="3"/>
-      <c r="C2468" s="3"/>
-      <c r="D2468" s="3"/>
+      <c r="A2468" s="16" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B2468" s="3" t="n">
+        <v>22.358894865175</v>
+      </c>
+      <c r="C2468" s="3" t="n">
+        <v>24.6266201680672</v>
+      </c>
+      <c r="D2468" s="3" t="n">
+        <v>24.2046553122466</v>
+      </c>
     </row>
     <row r="2469">
-      <c r="A2469" s="6"/>
-      <c r="B2469" s="3"/>
-      <c r="C2469" s="3"/>
-      <c r="D2469" s="3"/>
+      <c r="A2469" s="16" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B2469" s="3" t="n">
+        <v>22.3504592155168</v>
+      </c>
+      <c r="C2469" s="3" t="n">
+        <v>24.6411336946703</v>
+      </c>
+      <c r="D2469" s="3" t="n">
+        <v>24.2110792906645</v>
+      </c>
     </row>
     <row r="2470">
-      <c r="A2470" s="6"/>
-      <c r="B2470" s="3"/>
-      <c r="C2470" s="3"/>
-      <c r="D2470" s="3"/>
+      <c r="A2470" s="16" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B2470" s="3" t="n">
+        <v>22.3204869556923</v>
+      </c>
+      <c r="C2470" s="3" t="n">
+        <v>24.6417249535394</v>
+      </c>
+      <c r="D2470" s="3" t="n">
+        <v>24.1998439298531</v>
+      </c>
     </row>
     <row r="2471">
-      <c r="A2471" s="6"/>
-      <c r="B2471" s="3"/>
-      <c r="C2471" s="3"/>
-      <c r="D2471" s="3"/>
+      <c r="A2471" s="16" t="n">
+        <v>45192</v>
+      </c>
+      <c r="B2471" s="3" t="n">
+        <v>22.3135874492961</v>
+      </c>
+      <c r="C2471" s="3" t="n">
+        <v>24.6271805603007</v>
+      </c>
+      <c r="D2471" s="3" t="n">
+        <v>24.195897854954</v>
+      </c>
     </row>
     <row r="2472">
-      <c r="A2472" s="6"/>
-      <c r="B2472" s="3"/>
-      <c r="C2472" s="3"/>
-      <c r="D2472" s="3"/>
+      <c r="A2472" s="16" t="n">
+        <v>45193</v>
+      </c>
+      <c r="B2472" s="3" t="n">
+        <v>22.323363605541</v>
+      </c>
+      <c r="C2472" s="3" t="n">
+        <v>24.6275457527624</v>
+      </c>
+      <c r="D2472" s="3" t="n">
+        <v>24.1992673308427</v>
+      </c>
     </row>
     <row r="2473">
-      <c r="A2473" s="6"/>
-      <c r="B2473" s="3"/>
-      <c r="C2473" s="3"/>
-      <c r="D2473" s="3"/>
+      <c r="A2473" s="16" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B2473" s="3" t="n">
+        <v>22.3231004579558</v>
+      </c>
+      <c r="C2473" s="3" t="n">
+        <v>24.6284738675958</v>
+      </c>
+      <c r="D2473" s="3" t="n">
+        <v>24.1906606136506</v>
+      </c>
     </row>
     <row r="2474">
-      <c r="A2474" s="6"/>
-      <c r="B2474" s="3"/>
-      <c r="C2474" s="3"/>
-      <c r="D2474" s="3"/>
+      <c r="A2474" s="16" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B2474" s="3" t="n">
+        <v>22.3214655130978</v>
+      </c>
+      <c r="C2474" s="3" t="n">
+        <v>24.6294560741249</v>
+      </c>
+      <c r="D2474" s="3" t="n">
+        <v>24.1874432989691</v>
+      </c>
     </row>
     <row r="2475">
-      <c r="A2475" s="6"/>
-      <c r="B2475" s="3"/>
-      <c r="C2475" s="3"/>
-      <c r="D2475" s="3"/>
+      <c r="A2475" s="16" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B2475" s="3" t="n">
+        <v>22.3315471590096</v>
+      </c>
+      <c r="C2475" s="3" t="n">
+        <v>24.6432810379919</v>
+      </c>
+      <c r="D2475" s="3" t="n">
+        <v>24.1947417649451</v>
+      </c>
     </row>
     <row r="2476">
-      <c r="A2476" s="6"/>
-      <c r="B2476" s="3"/>
-      <c r="C2476" s="3"/>
-      <c r="D2476" s="3"/>
+      <c r="A2476" s="16" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B2476" s="3" t="n">
+        <v>22.3281432265479</v>
+      </c>
+      <c r="C2476" s="3" t="n">
+        <v>24.6472485817432</v>
+      </c>
+      <c r="D2476" s="3" t="n">
+        <v>24.187749659864</v>
+      </c>
     </row>
     <row r="2477">
-      <c r="A2477" s="6"/>
-      <c r="B2477" s="3"/>
-      <c r="C2477" s="3"/>
-      <c r="D2477" s="3"/>
+      <c r="A2477" s="16" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B2477" s="3" t="n">
+        <v>22.3342173350582</v>
+      </c>
+      <c r="C2477" s="3" t="n">
+        <v>24.644764353042</v>
+      </c>
+      <c r="D2477" s="3" t="n">
+        <v>24.1997985347985</v>
+      </c>
     </row>
     <row r="2478">
-      <c r="A2478" s="6"/>
-      <c r="B2478" s="3"/>
-      <c r="C2478" s="3"/>
-      <c r="D2478" s="3"/>
+      <c r="A2478" s="16" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B2478" s="3" t="n">
+        <v>22.3313507484168</v>
+      </c>
+      <c r="C2478" s="3" t="n">
+        <v>24.637290239726</v>
+      </c>
+      <c r="D2478" s="3" t="n">
+        <v>24.198352284264</v>
+      </c>
     </row>
     <row r="2479">
       <c r="A2479" s="6"/>
@@ -42944,1055 +43127,1055 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>1414</v>
+      <c r="A16" s="6" t="n">
+        <v>2017</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1415</v>
+        <v>1386</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>16.4563926321609</v>
+        <v>16.45715030579569</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>16.0049804909286</v>
+        <v>16.008215252259149</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>18.3047509998448</v>
+        <v>18.306102138199691</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>17.8167725639798</v>
+        <v>17.816575165940701</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>17.2945027526445</v>
+        <v>17.29504158107288</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>17.0743136151214</v>
+        <v>17.074084350562789</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
-        <v>1416</v>
+        <v>1387</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>16.4444385250086</v>
+        <v>16.446951374512938</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>15.8508929874362</v>
+        <v>15.93535324941981</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>18.2927512903656</v>
+        <v>18.299669124343431</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>17.7165134606824</v>
+        <v>17.766765937138711</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>17.2884627385075</v>
+        <v>17.282406348573581</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>17.0655977030475</v>
+        <v>17.063389139957991</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
-        <v>1417</v>
+        <v>1388</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>16.3548961058288</v>
+        <v>16.355813066308428</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>15.7837102260116</v>
+        <v>15.79049058382871</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>18.2049051372082</v>
+        <v>18.206164308412308</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>17.6380595611068</v>
+        <v>17.63900771497514</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>17.164721707315</v>
+        <v>17.165017103965312</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>16.9498532895533</v>
+        <v>16.95016503161105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
-        <v>1418</v>
+        <v>1389</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>16.3560972158371</v>
+        <v>16.357008001072579</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>15.7777745923846</v>
+        <v>15.785376172884069</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>18.1811923048406</v>
+        <v>18.182238581505541</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>17.6011577310834</v>
+        <v>17.602752968950661</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>17.0956173161341</v>
+        <v>17.096567448794211</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>16.8837210736365</v>
+        <v>16.884861004193489</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
-        <v>1419</v>
+        <v>1390</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>16.2394532039257</v>
+        <v>16.24080758702333</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>15.6770200598946</v>
+        <v>15.687099062837209</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>18.1082953836004</v>
+        <v>18.110046940986429</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>17.5313693626132</v>
+        <v>17.533792843557311</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>16.9757140270933</v>
+        <v>16.977144997417859</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>16.7661412693482</v>
+        <v>16.769005501677931</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
-        <v>1420</v>
+        <v>1391</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>16.1180677380863</v>
+        <v>16.120024705872432</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>15.5734280107338</v>
+        <v>15.58418368120987</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>17.9783785441807</v>
+        <v>17.981130481699161</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>17.4035037176075</v>
+        <v>17.40812512323572</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>16.7962387539191</v>
+        <v>16.798098860527329</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>16.5908940110547</v>
+        <v>16.596291976021469</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
-        <v>1421</v>
+        <v>1392</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>16.0274208341791</v>
+        <v>16.030158232105581</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>15.4830190630821</v>
+        <v>15.500057851454351</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>17.8771113713502</v>
+        <v>17.880862914360609</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>17.3030561538725</v>
+        <v>17.314124660332791</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>16.6700359322852</v>
+        <v>16.67310163391986</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>16.4629208193249</v>
+        <v>16.47503569764655</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
-        <v>1422</v>
+        <v>1393</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>16.0910903185722</v>
+        <v>16.092096789213219</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>15.559245428146</v>
+        <v>15.56656301695371</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>17.9545830945797</v>
+        <v>17.956493885412069</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>17.3895679098543</v>
+        <v>17.390421177440579</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>16.7232123409936</v>
+        <v>16.724186704817789</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>16.5154317053887</v>
+        <v>16.526460474998672</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
-        <v>1423</v>
+        <v>1394</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>16.3143868686572</v>
+        <v>16.314470781120761</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>15.7850845379142</v>
+        <v>15.78703744050472</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>18.2042669066836</v>
+        <v>18.205151681634089</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>17.6390110492795</v>
+        <v>17.635991301654428</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>16.9747011762476</v>
+        <v>16.974092088207939</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>16.7681907048048</v>
+        <v>16.767631564541311</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
-        <v>1424</v>
+        <v>1395</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>16.4429161393275</v>
+        <v>16.442668535004071</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>15.9176840132329</v>
+        <v>15.921052854979671</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>18.2955297739884</v>
+        <v>18.29621887868835</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>17.7402570952788</v>
+        <v>17.73922445849993</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>17.1660112899598</v>
+        <v>17.164741891937378</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>16.9593770088327</v>
+        <v>16.956786293674451</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6"/>
       <c r="B26" s="3" t="s">
-        <v>1425</v>
+        <v>1396</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>16.5223048817771</v>
+        <v>16.52242320652207</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>16.0178973380229</v>
+        <v>16.020247595072899</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>18.396479799622</v>
+        <v>18.397297485296761</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>17.8530751466045</v>
+        <v>17.85194569884645</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>17.286427085808</v>
+        <v>17.28620397592946</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>17.0835048319778</v>
+        <v>17.081183084758919</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
-        <v>1426</v>
+        <v>1397</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>16.6704789181466</v>
+        <v>16.667992235493141</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>16.1586334483668</v>
+        <v>16.162385422807169</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>18.5239435899965</v>
+        <v>18.52217091201053</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>17.9753125960877</v>
+        <v>17.975086547157549</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>17.4418023401089</v>
+        <v>17.438814814857619</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>17.241641537202</v>
+        <v>17.23930150116276</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>1427</v>
+      <c r="A28" s="6" t="n">
+        <v>2018</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1415</v>
+        <v>1386</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>17.285123927708</v>
+        <v>17.273263893561172</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>16.7058326837273</v>
+        <v>16.69942026318212</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>19.0242886586665</v>
+        <v>19.01420576953285</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>18.4573788180457</v>
+        <v>18.445137838992469</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>18.0268701053176</v>
+        <v>18.011950528884949</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>17.7838925276589</v>
+        <v>17.76971987010295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
-        <v>1416</v>
+        <v>1387</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>18.0839516412801</v>
+        <v>18.066223187695499</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>17.3510480320334</v>
+        <v>17.343367899060691</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>19.6726786533626</v>
+        <v>19.656221417465229</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>19.0006811430012</v>
+        <v>18.98486838162108</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>18.7838174130915</v>
+        <v>18.763416026440691</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>18.447064021845</v>
+        <v>18.427488682229381</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6"/>
       <c r="B30" s="3" t="s">
-        <v>1417</v>
+        <v>1388</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>18.3287735220584</v>
+        <v>18.32491618863148</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>17.5794713557994</v>
+        <v>17.58040862833948</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>19.8336173855765</v>
+        <v>19.829739709443071</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>19.1569076309949</v>
+        <v>19.150913654052339</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>19.0436885343071</v>
+        <v>19.039995411934889</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>18.689965982853</v>
+        <v>18.682696501316531</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
-        <v>1418</v>
+        <v>1389</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>18.4167612007118</v>
+        <v>18.411042898729971</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>17.6817100164797</v>
+        <v>17.67719537564297</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>19.8889487056488</v>
+        <v>19.887238776161102</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>19.2328668629716</v>
+        <v>19.225725352202591</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>19.1217144153351</v>
+        <v>19.115374504622199</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>18.7805452472402</v>
+        <v>18.77384268477196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6"/>
       <c r="B32" s="3" t="s">
-        <v>1419</v>
+        <v>1390</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>18.6518505704888</v>
+        <v>18.638797392262781</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>17.8893663769458</v>
+        <v>17.83530692248366</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>20.096047236079</v>
+        <v>20.087501760136021</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>19.3941031740233</v>
+        <v>19.358831957896651</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>19.3331360333347</v>
+        <v>19.320473765124351</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>18.938496349444</v>
+        <v>18.918296066307079</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6"/>
       <c r="B33" s="3" t="s">
-        <v>1420</v>
+        <v>1391</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>18.9418986145202</v>
+        <v>18.936702882444571</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>18.0958433772638</v>
+        <v>18.09170727825127</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>20.3876388713605</v>
+        <v>20.38399423418506</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>19.6137084607825</v>
+        <v>19.601901359080799</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>19.6214311331807</v>
+        <v>19.613671225689892</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>19.1741754125319</v>
+        <v>19.165521317518792</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6"/>
       <c r="B34" s="3" t="s">
-        <v>1421</v>
+        <v>1392</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>19.2196076400867</v>
+        <v>19.21562325183405</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>18.4513930191822</v>
+        <v>18.455215534054279</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>20.6519650530373</v>
+        <v>20.649160115754459</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>19.9667427067371</v>
+        <v>19.962905049928491</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>19.9132860923658</v>
+        <v>19.9021330010569</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>19.5321493256491</v>
+        <v>19.52668602213253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
-        <v>1422</v>
+        <v>1393</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>19.6342249264224</v>
+        <v>19.629370691889971</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>18.9710861967979</v>
+        <v>18.97184779145589</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>21.002538750951</v>
+        <v>20.998179613396481</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>20.4693773184157</v>
+        <v>20.46484597976476</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>20.3445458862454</v>
+        <v>20.337231359372939</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>20.0450811853639</v>
+        <v>20.039352656801849</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6"/>
       <c r="B36" s="3" t="s">
-        <v>1423</v>
+        <v>1394</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>19.8940793866526</v>
+        <v>19.89087048150806</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>19.2285931239814</v>
+        <v>19.22763573900874</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>21.2367617556413</v>
+        <v>21.23282245441191</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>20.7003512679009</v>
+        <v>20.694277311170922</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>20.5913705785879</v>
+        <v>20.58862846534457</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>20.3218888119059</v>
+        <v>20.315129744863111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6"/>
       <c r="B37" s="3" t="s">
-        <v>1424</v>
+        <v>1395</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>20.1412539421152</v>
+        <v>20.131480817943778</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>19.4300867768469</v>
+        <v>19.429639852748309</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>21.4835322117016</v>
+        <v>21.473507675281549</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>20.9405491075227</v>
+        <v>20.930959649775311</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>20.8753856547553</v>
+        <v>20.861956725190311</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>20.6111327612014</v>
+        <v>20.602132938796451</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6"/>
       <c r="B38" s="3" t="s">
-        <v>1425</v>
+        <v>1396</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>20.1839990142598</v>
+        <v>20.18085934992143</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>19.404950840374</v>
+        <v>19.421190258883321</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>21.5187798722356</v>
+        <v>21.51506732728485</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>20.9440410360925</v>
+        <v>20.942957233095811</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>21.0445281677234</v>
+        <v>21.03285175538732</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>20.7822507571032</v>
+        <v>20.772260984045019</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6"/>
       <c r="B39" s="3" t="s">
-        <v>1426</v>
+        <v>1397</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>19.9517924815309</v>
+        <v>19.967345195496581</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>19.104687517973</v>
+        <v>19.19683131478196</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>21.2848769223453</v>
+        <v>21.307454602514021</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>20.6510644625788</v>
+        <v>20.71749488614924</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>20.9323412669665</v>
+        <v>20.94155386999191</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>20.6613762073583</v>
+        <v>20.683731901078641</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
-        <v>1428</v>
+      <c r="A40" s="6" t="n">
+        <v>2019</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1415</v>
+        <v>1386</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>19.8931471220353</v>
+        <v>19.899412159915851</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>18.8162703080703</v>
+        <v>18.901984817879221</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>21.1065216381746</v>
+        <v>21.129186216227762</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>20.1998902365743</v>
+        <v>20.283992537858069</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>20.9431743454288</v>
+        <v>20.954846124182431</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>20.5835196329617</v>
+        <v>20.620650193942922</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
-        <v>1416</v>
+        <v>1387</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>20.3013917299176</v>
+        <v>20.29032876105736</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>19.2383698717479</v>
+        <v>19.252986463826751</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>21.2240400620112</v>
+        <v>21.225339048142821</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>20.1855787098196</v>
+        <v>20.20820580915867</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>21.8010210797208</v>
+        <v>21.773247454581469</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>21.4170915258341</v>
+        <v>21.401188142940711</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6"/>
       <c r="B42" s="3" t="s">
-        <v>1417</v>
+        <v>1388</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>20.7744284730642</v>
+        <v>20.762419289758601</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>19.7407558683515</v>
+        <v>19.742628409013982</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>21.6430846829845</v>
+        <v>21.633048055608992</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>20.8386101972933</v>
+        <v>20.820956556015741</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>21.92746708861</v>
+        <v>21.917852922489931</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>21.5296413084284</v>
+        <v>21.529828781989441</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6"/>
       <c r="B43" s="3" t="s">
-        <v>1418</v>
+        <v>1389</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>20.6588906757132</v>
+        <v>20.661136745913868</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>19.5215373833411</v>
+        <v>19.55836850620852</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>21.7442750614585</v>
+        <v>21.732349494394331</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>20.9419998056172</v>
+        <v>20.929236444574862</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>21.7386803341271</v>
+        <v>21.756098981598001</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>21.3335600073774</v>
+        <v>21.357074914873731</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6"/>
       <c r="B44" s="3" t="s">
-        <v>1419</v>
+        <v>1390</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>20.6614093159045</v>
+        <v>20.664980707662039</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>19.4420275152358</v>
+        <v>19.44202751523585</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>21.7663786886945</v>
+        <v>21.76895972613605</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>20.9466845390632</v>
+        <v>20.94668453906317</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>21.6602215772959</v>
+        <v>21.6611315101472</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>21.2461489295563</v>
+        <v>21.24614892955633</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6"/>
       <c r="B45" s="3" t="s">
-        <v>1420</v>
+        <v>1391</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>20.5192302672233</v>
+        <v>20.52</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>19.3298048986649</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>21.750355039393</v>
+        <v>21.753220543310839</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>20.9520787833364</v>
+        <v>20.953046321973741</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>21.4560554011632</v>
+        <v>21.457464946027141</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>21.041225877984</v>
+        <v>21.040902524395051</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6"/>
       <c r="B46" s="3" t="s">
-        <v>1421</v>
+        <v>1392</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>20.5290537102723</v>
+        <v>20.529594427860381</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>19.3989640169521</v>
+        <v>19.398964016952071</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>21.7644947356634</v>
+        <v>21.764225174277819</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>20.9663593503145</v>
+        <v>20.966359350314509</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>21.497953235815</v>
+        <v>21.498019727709242</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>21.1260712173493</v>
+        <v>21.12607121734932</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6"/>
       <c r="B47" s="3" t="s">
-        <v>1422</v>
+        <v>1393</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>20.3882030396639</v>
+        <v>20.389455669223999</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>19.2848201268113</v>
+        <v>19.284820126811201</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>21.7473092648432</v>
+        <v>21.748503561531638</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>20.9442201477384</v>
+        <v>20.94422014773841</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>21.4243096712445</v>
+        <v>21.422779242373331</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>21.0993802885604</v>
+        <v>21.09938028856045</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6"/>
       <c r="B48" s="3" t="s">
-        <v>1423</v>
+        <v>1394</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>20.3691878429132</v>
+        <v>20.36998043782004</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>19.3686493233951</v>
+        <v>19.368649323395129</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>21.7539969623199</v>
+        <v>21.755339473562849</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>20.9440418045859</v>
+        <v>20.944041804585879</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>21.4140006063609</v>
+        <v>21.412440982241449</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>21.1508491680876</v>
+        <v>21.150849168087639</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6"/>
       <c r="B49" s="3" t="s">
-        <v>1424</v>
+        <v>1395</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>20.348828349989</v>
+        <v>20.34841060255847</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>19.3277841847169</v>
+        <v>19.327784184716791</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>21.7453973001408</v>
+        <v>21.74499838332742</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>20.8929770231143</v>
+        <v>20.892977023114302</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>21.3590362491251</v>
+        <v>21.35833292231429</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>21.0837162974059</v>
+        <v>21.08371629740591</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6"/>
       <c r="B50" s="3" t="s">
-        <v>1425</v>
+        <v>1396</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>20.3388963615889</v>
+        <v>20.339340650305029</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>19.3199816132102</v>
+        <v>19.319981613210182</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>21.7093919240848</v>
+        <v>21.711434564769469</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>20.7309720497456</v>
+        <v>20.730972049745599</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>21.3204729783193</v>
+        <v>21.317632746693359</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>21.0690149244099</v>
+        <v>21.069014924409949</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6"/>
       <c r="B51" s="3" t="s">
-        <v>1426</v>
+        <v>1397</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>20.4740419699867</v>
+        <v>20.47344981360699</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>19.4418210937631</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>21.7606700425749</v>
+        <v>21.761232892709739</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>20.7767170929735</v>
+        <v>20.776717092973531</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>21.4401074890467</v>
+        <v>21.43809503480027</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>21.2124560152897</v>
+        <v>21.212456015289678</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>1429</v>
+      <c r="A52" s="6" t="n">
+        <v>2020</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1415</v>
+        <v>1386</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>20.5788999500595</v>
+        <v>20.580148468834771</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>19.5185418298373</v>
+        <v>19.51899500386569</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>21.8105167895349</v>
+        <v>21.814290220342109</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>20.827147521873</v>
+        <v>20.826132197454641</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>21.5055793335004</v>
+        <v>21.50321853707154</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>21.2791101350767</v>
+        <v>21.278994918898881</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6"/>
       <c r="B53" s="3" t="s">
-        <v>1416</v>
+        <v>1387</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>20.427785187324</v>
+        <v>20.427266566387949</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>19.4048909543637</v>
+        <v>19.404117774182861</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>21.5328682302756</v>
+        <v>21.536209361590519</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>20.5063755116373</v>
+        <v>20.501831141397961</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>21.3103756080767</v>
+        <v>21.30872673484836</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>21.0207979090789</v>
+        <v>21.01906911712279</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6"/>
       <c r="B54" s="3" t="s">
-        <v>1417</v>
+        <v>1388</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>19.0113645678987</v>
+        <v>19.024426080553731</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>17.885451920244</v>
+        <v>17.885338000654681</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>20.1297724134579</v>
+        <v>20.137870088254239</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>19.1086112897634</v>
+        <v>19.12611022631954</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>20.4507805964608</v>
+        <v>20.454563044581469</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>20.177345112898</v>
+        <v>20.185588763609811</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6"/>
       <c r="B55" s="3" t="s">
-        <v>1418</v>
+        <v>1389</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>16.0157869814162</v>
+        <v>16.015786981416209</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>15.1018600996677</v>
+        <v>15.10186009966772</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>17.2770659198489</v>
+        <v>17.277065919848869</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>16.4448504372668</v>
+        <v>16.44485043726683</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>19.2025149519247</v>
+        <v>19.202514951924691</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>19.0253679920456</v>
+        <v>19.02536799204562</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6"/>
       <c r="B56" s="3" t="s">
-        <v>1419</v>
+        <v>1390</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>17.0334726373663</v>
+        <v>17.03347263736627</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>16.2544161259429</v>
+        <v>16.254416125942871</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>17.7779940960842</v>
+        <v>17.777994096084171</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>17.0619537674636</v>
+        <v>17.061953767463571</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>18.7022594945499</v>
+        <v>18.702259494549931</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>18.5671217783141</v>
+        <v>18.567121778314139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6"/>
       <c r="B57" s="3" t="s">
-        <v>1420</v>
+        <v>1391</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>18.3723666030823</v>
+        <v>18.372366603082281</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>17.6533766023432</v>
+        <v>17.653376602343201</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>18.8491943870297</v>
+        <v>18.849194387029691</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>18.161831372714</v>
+        <v>18.161831372714001</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>19.2263847547891</v>
+        <v>19.226384754789098</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>19.1257122979073</v>
+        <v>19.125712297907349</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6"/>
       <c r="B58" s="3" t="s">
-        <v>1421</v>
+        <v>1392</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>19.3879375294564</v>
+        <v>19.387883227005979</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>18.6005882678346</v>
+        <v>18.60022725960004</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>19.7380749465227</v>
+        <v>19.738251874942641</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>19.0767523341816</v>
+        <v>19.078415239067819</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>19.8674643658275</v>
+        <v>19.86914282588473</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>19.6952183688986</v>
+        <v>19.69271284039754</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6"/>
       <c r="B59" s="3" t="s">
-        <v>1422</v>
+        <v>1393</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>19.3523074622522</v>
+        <v>19.352307462252199</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>18.6006274571981</v>
+        <v>18.600627457198101</v>
       </c>
       <c r="E59" s="3" t="n">
         <v>19.716997644168</v>
@@ -44001,7 +44184,7 @@
         <v>19.0867437962678</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>19.9157126681953</v>
+        <v>19.915712668195301</v>
       </c>
       <c r="H59" s="3" t="n">
         <v>19.7027314217781</v>
@@ -44010,872 +44193,382 @@
     <row r="60">
       <c r="A60" s="6"/>
       <c r="B60" s="3" t="s">
-        <v>1423</v>
+        <v>1394</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>19.2153781310588</v>
+        <v>19.215378131058799</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>18.5350201168182</v>
+        <v>18.535020116818199</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>19.6056531903731</v>
+        <v>19.605653190373101</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>19.0450647563745</v>
+        <v>19.045064756374501</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>19.653683905842</v>
+        <v>19.653683905842001</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>19.4000656107533</v>
+        <v>19.400065610753298</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6"/>
       <c r="B61" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C61" s="3" t="n">
-        <v>19.0440042103472</v>
-      </c>
-      <c r="D61" s="3" t="n">
-        <v>18.3925417170002</v>
-      </c>
-      <c r="E61" s="3" t="n">
-        <v>19.4893057076745</v>
-      </c>
-      <c r="F61" s="3" t="n">
-        <v>18.9289103667786</v>
-      </c>
-      <c r="G61" s="3" t="n">
-        <v>19.2786117436252</v>
-      </c>
-      <c r="H61" s="3" t="n">
-        <v>19.0601558582449</v>
-      </c>
+        <v>1395</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="6"/>
       <c r="B62" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C62" s="3" t="n">
-        <v>18.2987737267123</v>
-      </c>
-      <c r="D62" s="3" t="n">
-        <v>17.7215548105422</v>
-      </c>
-      <c r="E62" s="3" t="n">
-        <v>18.8736317263882</v>
-      </c>
-      <c r="F62" s="3" t="n">
-        <v>18.3500834980045</v>
-      </c>
-      <c r="G62" s="3" t="n">
-        <v>18.9388290600482</v>
-      </c>
-      <c r="H62" s="3" t="n">
-        <v>18.8019315650339</v>
-      </c>
+        <v>1396</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="6"/>
       <c r="B63" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C63" s="3" t="n">
-        <v>18.4415312879217</v>
-      </c>
-      <c r="D63" s="3" t="n">
-        <v>17.9135361707707</v>
-      </c>
-      <c r="E63" s="3" t="n">
-        <v>18.971048182647</v>
-      </c>
-      <c r="F63" s="3" t="n">
-        <v>18.4804350674915</v>
-      </c>
-      <c r="G63" s="3" t="n">
-        <v>19.2426564636089</v>
-      </c>
-      <c r="H63" s="3" t="n">
-        <v>19.1520738434517</v>
-      </c>
+        <v>1397</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C64" s="3" t="n">
-        <v>19.4079337113836</v>
-      </c>
-      <c r="D64" s="3" t="n">
-        <v>18.9243960707144</v>
-      </c>
-      <c r="E64" s="3" t="n">
-        <v>19.8682691861778</v>
-      </c>
-      <c r="F64" s="3" t="n">
-        <v>19.4376219828258</v>
-      </c>
-      <c r="G64" s="3" t="n">
-        <v>19.9139582142334</v>
-      </c>
-      <c r="H64" s="3" t="n">
-        <v>19.8707428496037</v>
-      </c>
+      <c r="A64" s="6"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="6"/>
-      <c r="B65" s="3" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C65" s="3" t="n">
-        <v>20.2074004150879</v>
-      </c>
-      <c r="D65" s="3" t="n">
-        <v>19.7505008653741</v>
-      </c>
-      <c r="E65" s="3" t="n">
-        <v>20.8357311904004</v>
-      </c>
-      <c r="F65" s="3" t="n">
-        <v>20.4193068714953</v>
-      </c>
-      <c r="G65" s="3" t="n">
-        <v>20.7159493284952</v>
-      </c>
-      <c r="H65" s="3" t="n">
-        <v>20.7451513945409</v>
-      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="6"/>
-      <c r="B66" s="3" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C66" s="3" t="n">
-        <v>20.6964194817611</v>
-      </c>
-      <c r="D66" s="3" t="n">
-        <v>20.1058595572337</v>
-      </c>
-      <c r="E66" s="3" t="n">
-        <v>22.1807213214588</v>
-      </c>
-      <c r="F66" s="3" t="n">
-        <v>21.5910042147887</v>
-      </c>
-      <c r="G66" s="3" t="n">
-        <v>21.4830039922846</v>
-      </c>
-      <c r="H66" s="3" t="n">
-        <v>21.4276209117979</v>
-      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="6"/>
-      <c r="B67" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C67" s="3" t="n">
-        <v>20.7308297358785</v>
-      </c>
-      <c r="D67" s="3" t="n">
-        <v>20.1872522669656</v>
-      </c>
-      <c r="E67" s="3" t="n">
-        <v>22.3891148904204</v>
-      </c>
-      <c r="F67" s="3" t="n">
-        <v>21.8838692396097</v>
-      </c>
-      <c r="G67" s="3" t="n">
-        <v>21.6496451613442</v>
-      </c>
-      <c r="H67" s="3" t="n">
-        <v>21.5491744513175</v>
-      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="6"/>
-      <c r="B68" s="3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C68" s="3" t="n">
-        <v>20.7844168031617</v>
-      </c>
-      <c r="D68" s="3" t="n">
-        <v>20.2238548339058</v>
-      </c>
-      <c r="E68" s="3" t="n">
-        <v>22.5177533995697</v>
-      </c>
-      <c r="F68" s="3" t="n">
-        <v>22.0150561115614</v>
-      </c>
-      <c r="G68" s="3" t="n">
-        <v>21.8172513819571</v>
-      </c>
-      <c r="H68" s="3" t="n">
-        <v>21.6851540525282</v>
-      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="6"/>
-      <c r="B69" s="3" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C69" s="3" t="n">
-        <v>20.7865720842342</v>
-      </c>
-      <c r="D69" s="3" t="n">
-        <v>20.2690442064341</v>
-      </c>
-      <c r="E69" s="3" t="n">
-        <v>22.581968000779</v>
-      </c>
-      <c r="F69" s="3" t="n">
-        <v>22.1309016385146</v>
-      </c>
-      <c r="G69" s="3" t="n">
-        <v>21.8055485203615</v>
-      </c>
-      <c r="H69" s="3" t="n">
-        <v>21.732751381016</v>
-      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="6"/>
-      <c r="B70" s="3" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C70" s="3" t="n">
-        <v>20.7034446187663</v>
-      </c>
-      <c r="D70" s="3" t="n">
-        <v>20.2834769970071</v>
-      </c>
-      <c r="E70" s="3" t="n">
-        <v>22.6272224088656</v>
-      </c>
-      <c r="F70" s="3" t="n">
-        <v>22.2082630839988</v>
-      </c>
-      <c r="G70" s="3" t="n">
-        <v>21.8019515949038</v>
-      </c>
-      <c r="H70" s="3" t="n">
-        <v>21.7354963533589</v>
-      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="6"/>
-      <c r="B71" s="3" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C71" s="3" t="n">
-        <v>20.6232831107389</v>
-      </c>
-      <c r="D71" s="3" t="n">
-        <v>20.3027005096969</v>
-      </c>
-      <c r="E71" s="3" t="n">
-        <v>22.6680463146272</v>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>22.291945764376</v>
-      </c>
-      <c r="G71" s="3" t="n">
-        <v>21.7968837806984</v>
-      </c>
-      <c r="H71" s="3" t="n">
-        <v>21.7870390921737</v>
-      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="6"/>
-      <c r="B72" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C72" s="3" t="n">
-        <v>20.5464718794372</v>
-      </c>
-      <c r="D72" s="3" t="n">
-        <v>20.1890565527936</v>
-      </c>
-      <c r="E72" s="3" t="n">
-        <v>22.6756995804713</v>
-      </c>
-      <c r="F72" s="3" t="n">
-        <v>22.3037979541638</v>
-      </c>
-      <c r="G72" s="3" t="n">
-        <v>21.7530876669217</v>
-      </c>
-      <c r="H72" s="3" t="n">
-        <v>21.7252354130321</v>
-      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="6"/>
-      <c r="B73" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C73" s="3" t="n">
-        <v>20.4592163297172</v>
-      </c>
-      <c r="D73" s="3" t="n">
-        <v>20.1275373147093</v>
-      </c>
-      <c r="E73" s="3" t="n">
-        <v>22.6777968539807</v>
-      </c>
-      <c r="F73" s="3" t="n">
-        <v>22.3590220572557</v>
-      </c>
-      <c r="G73" s="3" t="n">
-        <v>21.6736414388951</v>
-      </c>
-      <c r="H73" s="3" t="n">
-        <v>21.7081853844781</v>
-      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="6"/>
-      <c r="B74" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C74" s="3" t="n">
-        <v>20.4366281700018</v>
-      </c>
-      <c r="D74" s="3" t="n">
-        <v>20.0649044777706</v>
-      </c>
-      <c r="E74" s="3" t="n">
-        <v>22.7023721544429</v>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>22.2826305579075</v>
-      </c>
-      <c r="G74" s="3" t="n">
-        <v>21.6298265670886</v>
-      </c>
-      <c r="H74" s="3" t="n">
-        <v>21.6420989374039</v>
-      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="6"/>
-      <c r="B75" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C75" s="3" t="n">
-        <v>20.7772917799114</v>
-      </c>
-      <c r="D75" s="3" t="n">
-        <v>20.2763577551438</v>
-      </c>
-      <c r="E75" s="3" t="n">
-        <v>22.9300141945325</v>
-      </c>
-      <c r="F75" s="3" t="n">
-        <v>22.4490790455572</v>
-      </c>
-      <c r="G75" s="3" t="n">
-        <v>21.8999608070896</v>
-      </c>
-      <c r="H75" s="3" t="n">
-        <v>21.8199123039081</v>
-      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C76" s="3" t="n">
-        <v>21.1711532073344</v>
-      </c>
-      <c r="D76" s="3" t="n">
-        <v>20.6509258006312</v>
-      </c>
-      <c r="E76" s="3" t="n">
-        <v>23.2961619514965</v>
-      </c>
-      <c r="F76" s="3" t="n">
-        <v>22.7404153248967</v>
-      </c>
-      <c r="G76" s="3" t="n">
-        <v>22.3081989515863</v>
-      </c>
-      <c r="H76" s="3" t="n">
-        <v>22.1629026447476</v>
-      </c>
+      <c r="A76" s="6"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="6"/>
-      <c r="B77" s="3" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C77" s="3" t="n">
-        <v>21.3480900053926</v>
-      </c>
-      <c r="D77" s="3" t="n">
-        <v>20.852547586578</v>
-      </c>
-      <c r="E77" s="3" t="n">
-        <v>23.4826262150575</v>
-      </c>
-      <c r="F77" s="3" t="n">
-        <v>22.9529956080865</v>
-      </c>
-      <c r="G77" s="3" t="n">
-        <v>22.4737356712195</v>
-      </c>
-      <c r="H77" s="3" t="n">
-        <v>22.3282811756912</v>
-      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="6"/>
-      <c r="B78" s="3" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C78" s="3" t="n">
-        <v>21.9101389749714</v>
-      </c>
-      <c r="D78" s="3" t="n">
-        <v>21.2761072017153</v>
-      </c>
-      <c r="E78" s="3" t="n">
-        <v>23.876881610192</v>
-      </c>
-      <c r="F78" s="3" t="n">
-        <v>23.2468859664551</v>
-      </c>
-      <c r="G78" s="3" t="n">
-        <v>22.9643789654536</v>
-      </c>
-      <c r="H78" s="3" t="n">
-        <v>22.72678317568</v>
-      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="6"/>
-      <c r="B79" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C79" s="3" t="n">
-        <v>22.1314881199953</v>
-      </c>
-      <c r="D79" s="3" t="n">
-        <v>21.4740774464381</v>
-      </c>
-      <c r="E79" s="3" t="n">
-        <v>24.1419190613005</v>
-      </c>
-      <c r="F79" s="3" t="n">
-        <v>23.4241827658729</v>
-      </c>
-      <c r="G79" s="3" t="n">
-        <v>23.3789706994777</v>
-      </c>
-      <c r="H79" s="3" t="n">
-        <v>23.1350194942096</v>
-      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="6"/>
-      <c r="B80" s="3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C80" s="3" t="n">
-        <v>22.3385426804593</v>
-      </c>
-      <c r="D80" s="3" t="n">
-        <v>21.6608777281668</v>
-      </c>
-      <c r="E80" s="3" t="n">
-        <v>24.4385241312958</v>
-      </c>
-      <c r="F80" s="3" t="n">
-        <v>23.6921372574732</v>
-      </c>
-      <c r="G80" s="3" t="n">
-        <v>23.4994266820039</v>
-      </c>
-      <c r="H80" s="3" t="n">
-        <v>23.2925700640227</v>
-      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="6"/>
-      <c r="B81" s="3" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C81" s="3" t="n">
-        <v>22.5843976774147</v>
-      </c>
-      <c r="D81" s="3" t="n">
-        <v>21.8552515817664</v>
-      </c>
-      <c r="E81" s="3" t="n">
-        <v>24.6735755394889</v>
-      </c>
-      <c r="F81" s="3" t="n">
-        <v>23.8503407271181</v>
-      </c>
-      <c r="G81" s="3" t="n">
-        <v>23.5705058066474</v>
-      </c>
-      <c r="H81" s="3" t="n">
-        <v>23.3833011655434</v>
-      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="6"/>
-      <c r="B82" s="3" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C82" s="3" t="n">
-        <v>22.540508142899</v>
-      </c>
-      <c r="D82" s="3" t="n">
-        <v>21.8327874397047</v>
-      </c>
-      <c r="E82" s="3" t="n">
-        <v>24.6533103149005</v>
-      </c>
-      <c r="F82" s="3" t="n">
-        <v>23.8835168937048</v>
-      </c>
-      <c r="G82" s="3" t="n">
-        <v>23.6649591174615</v>
-      </c>
-      <c r="H82" s="3" t="n">
-        <v>23.4554114159097</v>
-      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="6"/>
-      <c r="B83" s="3" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C83" s="3" t="n">
-        <v>22.5147287524856</v>
-      </c>
-      <c r="D83" s="3" t="n">
-        <v>21.9313790013529</v>
-      </c>
-      <c r="E83" s="3" t="n">
-        <v>24.694919253943</v>
-      </c>
-      <c r="F83" s="3" t="n">
-        <v>23.9932099296949</v>
-      </c>
-      <c r="G83" s="3" t="n">
-        <v>23.738189488514</v>
-      </c>
-      <c r="H83" s="3" t="n">
-        <v>23.5290557557593</v>
-      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="6"/>
-      <c r="B84" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C84" s="3" t="n">
-        <v>22.1771154864642</v>
-      </c>
-      <c r="D84" s="3" t="n">
-        <v>21.6942532303975</v>
-      </c>
-      <c r="E84" s="3" t="n">
-        <v>24.6451019147556</v>
-      </c>
-      <c r="F84" s="3" t="n">
-        <v>23.9748274810343</v>
-      </c>
-      <c r="G84" s="3" t="n">
-        <v>23.7785382687134</v>
-      </c>
-      <c r="H84" s="3" t="n">
-        <v>23.5693184923224</v>
-      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="6"/>
-      <c r="B85" s="3" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C85" s="3" t="n">
-        <v>22.4121530526896</v>
-      </c>
-      <c r="D85" s="3" t="n">
-        <v>21.8931326414868</v>
-      </c>
-      <c r="E85" s="3" t="n">
-        <v>24.7721597446001</v>
-      </c>
-      <c r="F85" s="3" t="n">
-        <v>24.1367276902721</v>
-      </c>
-      <c r="G85" s="3" t="n">
-        <v>23.8478801820907</v>
-      </c>
-      <c r="H85" s="3" t="n">
-        <v>23.6472357098321</v>
-      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="6"/>
-      <c r="B86" s="3" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C86" s="3" t="n">
-        <v>22.3693705483677</v>
-      </c>
-      <c r="D86" s="3" t="n">
-        <v>21.78942326841</v>
-      </c>
-      <c r="E86" s="3" t="n">
-        <v>24.8719848427161</v>
-      </c>
-      <c r="F86" s="3" t="n">
-        <v>24.1276350351351</v>
-      </c>
-      <c r="G86" s="3" t="n">
-        <v>23.9152672382806</v>
-      </c>
-      <c r="H86" s="3" t="n">
-        <v>23.7345106519887</v>
-      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="6"/>
-      <c r="B87" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C87" s="3" t="n">
-        <v>22.0885742442224</v>
-      </c>
-      <c r="D87" s="3" t="n">
-        <v>21.5015986142566</v>
-      </c>
-      <c r="E87" s="3" t="n">
-        <v>24.6590477945199</v>
-      </c>
-      <c r="F87" s="3" t="n">
-        <v>23.9014077550353</v>
-      </c>
-      <c r="G87" s="3" t="n">
-        <v>23.8343366106572</v>
-      </c>
-      <c r="H87" s="3" t="n">
-        <v>23.6626882880369</v>
-      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C88" s="3" t="n">
-        <v>22.3261788619478</v>
-      </c>
-      <c r="D88" s="3" t="n">
-        <v>21.76065738756</v>
-      </c>
-      <c r="E88" s="3" t="n">
-        <v>24.7967008395776</v>
-      </c>
-      <c r="F88" s="3" t="n">
-        <v>24.0338034812858</v>
-      </c>
-      <c r="G88" s="3" t="n">
-        <v>23.9237056787865</v>
-      </c>
-      <c r="H88" s="3" t="n">
-        <v>23.7414361307134</v>
-      </c>
+      <c r="A88" s="6"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="6"/>
-      <c r="B89" s="3" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C89" s="3" t="n">
-        <v>22.3928779192125</v>
-      </c>
-      <c r="D89" s="3" t="n">
-        <v>21.7898864656477</v>
-      </c>
-      <c r="E89" s="3" t="n">
-        <v>24.8062525170852</v>
-      </c>
-      <c r="F89" s="3" t="n">
-        <v>24.086428378056</v>
-      </c>
-      <c r="G89" s="3" t="n">
-        <v>23.8097106622658</v>
-      </c>
-      <c r="H89" s="3" t="n">
-        <v>23.6311561758415</v>
-      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="6"/>
-      <c r="B90" s="3" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C90" s="3" t="n">
-        <v>22.5237506776281</v>
-      </c>
-      <c r="D90" s="3" t="n">
-        <v>21.8620485299293</v>
-      </c>
-      <c r="E90" s="3" t="n">
-        <v>24.9745134837926</v>
-      </c>
-      <c r="F90" s="3" t="n">
-        <v>24.1824699488651</v>
-      </c>
-      <c r="G90" s="3" t="n">
-        <v>23.9687152403321</v>
-      </c>
-      <c r="H90" s="3" t="n">
-        <v>23.7169984452278</v>
-      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="6"/>
-      <c r="B91" s="3" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C91" s="3" t="n">
-        <v>22.6342163811825</v>
-      </c>
-      <c r="D91" s="3" t="n">
-        <v>21.963588493703</v>
-      </c>
-      <c r="E91" s="3" t="n">
-        <v>25.0074895869302</v>
-      </c>
-      <c r="F91" s="3" t="n">
-        <v>24.2544517043663</v>
-      </c>
-      <c r="G91" s="3" t="n">
-        <v>23.960614477928</v>
-      </c>
-      <c r="H91" s="3" t="n">
-        <v>23.6991805733729</v>
-      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="6"/>
-      <c r="B92" s="3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C92" s="3" t="n">
-        <v>22.3988618320032</v>
-      </c>
-      <c r="D92" s="3" t="n">
-        <v>21.943020734659</v>
-      </c>
-      <c r="E92" s="3" t="n">
-        <v>24.9080174170731</v>
-      </c>
-      <c r="F92" s="3" t="n">
-        <v>24.2317007551177</v>
-      </c>
-      <c r="G92" s="3" t="n">
-        <v>23.9045879966927</v>
-      </c>
-      <c r="H92" s="3" t="n">
-        <v>23.6926315515526</v>
-      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="6"/>
-      <c r="B93" s="3" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C93" s="3" t="n">
-        <v>22.450709315965</v>
-      </c>
-      <c r="D93" s="3" t="n">
-        <v>21.9937046845335</v>
-      </c>
-      <c r="E93" s="3" t="n">
-        <v>24.9735621141066</v>
-      </c>
-      <c r="F93" s="3" t="n">
-        <v>24.2699494417669</v>
-      </c>
-      <c r="G93" s="3" t="n">
-        <v>23.9381075210145</v>
-      </c>
-      <c r="H93" s="3" t="n">
-        <v>23.7652865335101</v>
-      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="6"/>
-      <c r="B94" s="3" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C94" s="3" t="n">
-        <v>22.6446760102667</v>
-      </c>
-      <c r="D94" s="3" t="n">
-        <v>22.0854554598486</v>
-      </c>
-      <c r="E94" s="3" t="n">
-        <v>24.9921329446465</v>
-      </c>
-      <c r="F94" s="3" t="n">
-        <v>24.3318139821702</v>
-      </c>
-      <c r="G94" s="3" t="n">
-        <v>24.0793629447375</v>
-      </c>
-      <c r="H94" s="3" t="n">
-        <v>23.821519122816</v>
-      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="6"/>
-      <c r="B95" s="3" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C95" s="3" t="n">
-        <v>22.8915308035746</v>
-      </c>
-      <c r="D95" s="3" t="n">
-        <v>22.3054569002208</v>
-      </c>
-      <c r="E95" s="3" t="n">
-        <v>25.1654869472255</v>
-      </c>
-      <c r="F95" s="3" t="n">
-        <v>24.4898221926187</v>
-      </c>
-      <c r="G95" s="3" t="n">
-        <v>24.2912672864927</v>
-      </c>
-      <c r="H95" s="3" t="n">
-        <v>24.0576087434729</v>
-      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1433">
   <si>
     <t>Periodicidad Mensual</t>
   </si>
@@ -4261,6 +4261,63 @@
   </si>
   <si>
     <t xml:space="preserve">septiembre 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
   </si>
 </sst>
 </file>
@@ -43127,1055 +43184,1055 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
-        <v>2017</v>
+      <c r="A16" s="6" t="s">
+        <v>1414</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1386</v>
+        <v>1415</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>16.45715030579569</v>
+        <v>16.4563926321609</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>16.008215252259149</v>
+        <v>16.0049804909286</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>18.306102138199691</v>
+        <v>18.3047509998448</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>17.816575165940701</v>
+        <v>17.8167725639798</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>17.29504158107288</v>
+        <v>17.2945027526445</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>17.074084350562789</v>
+        <v>17.0743136151214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
-        <v>1387</v>
+        <v>1416</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>16.446951374512938</v>
+        <v>16.4444385250086</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>15.93535324941981</v>
+        <v>15.8508929874362</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>18.299669124343431</v>
+        <v>18.2927512903656</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>17.766765937138711</v>
+        <v>17.7165134606824</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>17.282406348573581</v>
+        <v>17.2884627385075</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>17.063389139957991</v>
+        <v>17.0655977030475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
-        <v>1388</v>
+        <v>1417</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>16.355813066308428</v>
+        <v>16.3548961058288</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>15.79049058382871</v>
+        <v>15.7837102260116</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>18.206164308412308</v>
+        <v>18.2049051372082</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>17.63900771497514</v>
+        <v>17.6380595611068</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>17.165017103965312</v>
+        <v>17.164721707315</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>16.95016503161105</v>
+        <v>16.9498532895533</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
-        <v>1389</v>
+        <v>1418</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>16.357008001072579</v>
+        <v>16.3560972158371</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>15.785376172884069</v>
+        <v>15.7777745923846</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>18.182238581505541</v>
+        <v>18.1811923048406</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>17.602752968950661</v>
+        <v>17.6011577310834</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>17.096567448794211</v>
+        <v>17.0956173161341</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>16.884861004193489</v>
+        <v>16.8837210736365</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
-        <v>1390</v>
+        <v>1419</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>16.24080758702333</v>
+        <v>16.2394532039257</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>15.687099062837209</v>
+        <v>15.6770200598946</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>18.110046940986429</v>
+        <v>18.1082953836004</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>17.533792843557311</v>
+        <v>17.5313693626132</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>16.977144997417859</v>
+        <v>16.9757140270933</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>16.769005501677931</v>
+        <v>16.7661412693482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
-        <v>1391</v>
+        <v>1420</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>16.120024705872432</v>
+        <v>16.1180677380863</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>15.58418368120987</v>
+        <v>15.5734280107338</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>17.981130481699161</v>
+        <v>17.9783785441807</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>17.40812512323572</v>
+        <v>17.4035037176075</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>16.798098860527329</v>
+        <v>16.7962387539191</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>16.596291976021469</v>
+        <v>16.5908940110547</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
-        <v>1392</v>
+        <v>1421</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>16.030158232105581</v>
+        <v>16.0274208341791</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>15.500057851454351</v>
+        <v>15.4830190630821</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>17.880862914360609</v>
+        <v>17.8771113713502</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>17.314124660332791</v>
+        <v>17.3030561538725</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>16.67310163391986</v>
+        <v>16.6700359322852</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>16.47503569764655</v>
+        <v>16.4629208193249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
-        <v>1393</v>
+        <v>1422</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>16.092096789213219</v>
+        <v>16.0910903185722</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>15.56656301695371</v>
+        <v>15.559245428146</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>17.956493885412069</v>
+        <v>17.9545830945797</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>17.390421177440579</v>
+        <v>17.3895679098543</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>16.724186704817789</v>
+        <v>16.7232123409936</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>16.526460474998672</v>
+        <v>16.5154317053887</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
-        <v>1394</v>
+        <v>1423</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>16.314470781120761</v>
+        <v>16.3143868686572</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>15.78703744050472</v>
+        <v>15.7850845379142</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>18.205151681634089</v>
+        <v>18.2042669066836</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>17.635991301654428</v>
+        <v>17.6390110492795</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>16.974092088207939</v>
+        <v>16.9747011762476</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>16.767631564541311</v>
+        <v>16.7681907048048</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
-        <v>1395</v>
+        <v>1424</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>16.442668535004071</v>
+        <v>16.4429161393275</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>15.921052854979671</v>
+        <v>15.9176840132329</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>18.29621887868835</v>
+        <v>18.2955297739884</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>17.73922445849993</v>
+        <v>17.7402570952788</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>17.164741891937378</v>
+        <v>17.1660112899598</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>16.956786293674451</v>
+        <v>16.9593770088327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6"/>
       <c r="B26" s="3" t="s">
-        <v>1396</v>
+        <v>1425</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>16.52242320652207</v>
+        <v>16.5223048817771</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>16.020247595072899</v>
+        <v>16.0178973380229</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>18.397297485296761</v>
+        <v>18.396479799622</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>17.85194569884645</v>
+        <v>17.8530751466045</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>17.28620397592946</v>
+        <v>17.286427085808</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>17.081183084758919</v>
+        <v>17.0835048319778</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6"/>
       <c r="B27" s="3" t="s">
-        <v>1397</v>
+        <v>1426</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>16.667992235493141</v>
+        <v>16.6704789181466</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>16.162385422807169</v>
+        <v>16.1586334483668</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>18.52217091201053</v>
+        <v>18.5239435899965</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>17.975086547157549</v>
+        <v>17.9753125960877</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>17.438814814857619</v>
+        <v>17.4418023401089</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>17.23930150116276</v>
+        <v>17.241641537202</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
-        <v>2018</v>
+      <c r="A28" s="6" t="s">
+        <v>1427</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1386</v>
+        <v>1415</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>17.273263893561172</v>
+        <v>17.285123927708</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>16.69942026318212</v>
+        <v>16.7058326837273</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>19.01420576953285</v>
+        <v>19.0242886586665</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>18.445137838992469</v>
+        <v>18.4573788180457</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>18.011950528884949</v>
+        <v>18.0268701053176</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>17.76971987010295</v>
+        <v>17.7838925276589</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6"/>
       <c r="B29" s="3" t="s">
-        <v>1387</v>
+        <v>1416</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>18.066223187695499</v>
+        <v>18.0839516412801</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>17.343367899060691</v>
+        <v>17.3510480320334</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>19.656221417465229</v>
+        <v>19.6726786533626</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>18.98486838162108</v>
+        <v>19.0006811430012</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>18.763416026440691</v>
+        <v>18.7838174130915</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>18.427488682229381</v>
+        <v>18.447064021845</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6"/>
       <c r="B30" s="3" t="s">
-        <v>1388</v>
+        <v>1417</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>18.32491618863148</v>
+        <v>18.3287735220584</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>17.58040862833948</v>
+        <v>17.5794713557994</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>19.829739709443071</v>
+        <v>19.8336173855765</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>19.150913654052339</v>
+        <v>19.1569076309949</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>19.039995411934889</v>
+        <v>19.0436885343071</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>18.682696501316531</v>
+        <v>18.689965982853</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6"/>
       <c r="B31" s="3" t="s">
-        <v>1389</v>
+        <v>1418</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>18.411042898729971</v>
+        <v>18.4167612007118</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>17.67719537564297</v>
+        <v>17.6817100164797</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>19.887238776161102</v>
+        <v>19.8889487056488</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>19.225725352202591</v>
+        <v>19.2328668629716</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>19.115374504622199</v>
+        <v>19.1217144153351</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>18.77384268477196</v>
+        <v>18.7805452472402</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6"/>
       <c r="B32" s="3" t="s">
-        <v>1390</v>
+        <v>1419</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>18.638797392262781</v>
+        <v>18.6518505704888</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>17.83530692248366</v>
+        <v>17.8893663769458</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>20.087501760136021</v>
+        <v>20.096047236079</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>19.358831957896651</v>
+        <v>19.3941031740233</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>19.320473765124351</v>
+        <v>19.3331360333347</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>18.918296066307079</v>
+        <v>18.938496349444</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6"/>
       <c r="B33" s="3" t="s">
-        <v>1391</v>
+        <v>1420</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>18.936702882444571</v>
+        <v>18.9418986145202</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>18.09170727825127</v>
+        <v>18.0958433772638</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>20.38399423418506</v>
+        <v>20.3876388713605</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>19.601901359080799</v>
+        <v>19.6137084607825</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>19.613671225689892</v>
+        <v>19.6214311331807</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>19.165521317518792</v>
+        <v>19.1741754125319</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6"/>
       <c r="B34" s="3" t="s">
-        <v>1392</v>
+        <v>1421</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>19.21562325183405</v>
+        <v>19.2196076400867</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>18.455215534054279</v>
+        <v>18.4513930191822</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>20.649160115754459</v>
+        <v>20.6519650530373</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>19.962905049928491</v>
+        <v>19.9667427067371</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>19.9021330010569</v>
+        <v>19.9132860923658</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>19.52668602213253</v>
+        <v>19.5321493256491</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6"/>
       <c r="B35" s="3" t="s">
-        <v>1393</v>
+        <v>1422</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>19.629370691889971</v>
+        <v>19.6342249264224</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>18.97184779145589</v>
+        <v>18.9710861967979</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>20.998179613396481</v>
+        <v>21.002538750951</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>20.46484597976476</v>
+        <v>20.4693773184157</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>20.337231359372939</v>
+        <v>20.3445458862454</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>20.039352656801849</v>
+        <v>20.0450811853639</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6"/>
       <c r="B36" s="3" t="s">
-        <v>1394</v>
+        <v>1423</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>19.89087048150806</v>
+        <v>19.8940793866526</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>19.22763573900874</v>
+        <v>19.2285931239814</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>21.23282245441191</v>
+        <v>21.2367617556413</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>20.694277311170922</v>
+        <v>20.7003512679009</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>20.58862846534457</v>
+        <v>20.5913705785879</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>20.315129744863111</v>
+        <v>20.3218888119059</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6"/>
       <c r="B37" s="3" t="s">
-        <v>1395</v>
+        <v>1424</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>20.131480817943778</v>
+        <v>20.1412539421152</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>19.429639852748309</v>
+        <v>19.4300867768469</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>21.473507675281549</v>
+        <v>21.4835322117016</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>20.930959649775311</v>
+        <v>20.9405491075227</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>20.861956725190311</v>
+        <v>20.8753856547553</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>20.602132938796451</v>
+        <v>20.6111327612014</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6"/>
       <c r="B38" s="3" t="s">
-        <v>1396</v>
+        <v>1425</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>20.18085934992143</v>
+        <v>20.1839990142598</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>19.421190258883321</v>
+        <v>19.404950840374</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>21.51506732728485</v>
+        <v>21.5187798722356</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>20.942957233095811</v>
+        <v>20.9440410360925</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>21.03285175538732</v>
+        <v>21.0445281677234</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>20.772260984045019</v>
+        <v>20.7822507571032</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6"/>
       <c r="B39" s="3" t="s">
-        <v>1397</v>
+        <v>1426</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>19.967345195496581</v>
+        <v>19.9517924815309</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>19.19683131478196</v>
+        <v>19.104687517973</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>21.307454602514021</v>
+        <v>21.2848769223453</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>20.71749488614924</v>
+        <v>20.6510644625788</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>20.94155386999191</v>
+        <v>20.9323412669665</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>20.683731901078641</v>
+        <v>20.6613762073583</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n">
-        <v>2019</v>
+      <c r="A40" s="6" t="s">
+        <v>1428</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1386</v>
+        <v>1415</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>19.899412159915851</v>
+        <v>19.8931471220353</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>18.901984817879221</v>
+        <v>18.8162703080703</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>21.129186216227762</v>
+        <v>21.1065216381746</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>20.283992537858069</v>
+        <v>20.1998902365743</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>20.954846124182431</v>
+        <v>20.9431743454288</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>20.620650193942922</v>
+        <v>20.5835196329617</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6"/>
       <c r="B41" s="3" t="s">
-        <v>1387</v>
+        <v>1416</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>20.29032876105736</v>
+        <v>20.3013917299176</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>19.252986463826751</v>
+        <v>19.2383698717479</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>21.225339048142821</v>
+        <v>21.2240400620112</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>20.20820580915867</v>
+        <v>20.1855787098196</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>21.773247454581469</v>
+        <v>21.8010210797208</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>21.401188142940711</v>
+        <v>21.4170915258341</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6"/>
       <c r="B42" s="3" t="s">
-        <v>1388</v>
+        <v>1417</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>20.762419289758601</v>
+        <v>20.7744284730642</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>19.742628409013982</v>
+        <v>19.7407558683515</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>21.633048055608992</v>
+        <v>21.6430846829845</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>20.820956556015741</v>
+        <v>20.8386101972933</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>21.917852922489931</v>
+        <v>21.92746708861</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>21.529828781989441</v>
+        <v>21.5296413084284</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6"/>
       <c r="B43" s="3" t="s">
-        <v>1389</v>
+        <v>1418</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>20.661136745913868</v>
+        <v>20.6588906757132</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>19.55836850620852</v>
+        <v>19.5215373833411</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>21.732349494394331</v>
+        <v>21.7442750614585</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>20.929236444574862</v>
+        <v>20.9419998056172</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>21.756098981598001</v>
+        <v>21.7386803341271</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>21.357074914873731</v>
+        <v>21.3335600073774</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6"/>
       <c r="B44" s="3" t="s">
-        <v>1390</v>
+        <v>1419</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>20.664980707662039</v>
+        <v>20.6614093159045</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>19.44202751523585</v>
+        <v>19.4420275152358</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>21.76895972613605</v>
+        <v>21.7663786886945</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>20.94668453906317</v>
+        <v>20.9466845390632</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>21.6611315101472</v>
+        <v>21.6602215772959</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>21.24614892955633</v>
+        <v>21.2461489295563</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6"/>
       <c r="B45" s="3" t="s">
-        <v>1391</v>
+        <v>1420</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>20.52</v>
+        <v>20.5192302672233</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>19.329999999999998</v>
+        <v>19.3298048986649</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>21.753220543310839</v>
+        <v>21.750355039393</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>20.953046321973741</v>
+        <v>20.9520787833364</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>21.457464946027141</v>
+        <v>21.4560554011632</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>21.040902524395051</v>
+        <v>21.041225877984</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6"/>
       <c r="B46" s="3" t="s">
-        <v>1392</v>
+        <v>1421</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>20.529594427860381</v>
+        <v>20.5290537102723</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>19.398964016952071</v>
+        <v>19.3989640169521</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>21.764225174277819</v>
+        <v>21.7644947356634</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>20.966359350314509</v>
+        <v>20.9663593503145</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>21.498019727709242</v>
+        <v>21.497953235815</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>21.12607121734932</v>
+        <v>21.1260712173493</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6"/>
       <c r="B47" s="3" t="s">
-        <v>1393</v>
+        <v>1422</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>20.389455669223999</v>
+        <v>20.3882030396639</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>19.284820126811201</v>
+        <v>19.2848201268113</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>21.748503561531638</v>
+        <v>21.7473092648432</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>20.94422014773841</v>
+        <v>20.9442201477384</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>21.422779242373331</v>
+        <v>21.4243096712445</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>21.09938028856045</v>
+        <v>21.0993802885604</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6"/>
       <c r="B48" s="3" t="s">
-        <v>1394</v>
+        <v>1423</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>20.36998043782004</v>
+        <v>20.3691878429132</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>19.368649323395129</v>
+        <v>19.3686493233951</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>21.755339473562849</v>
+        <v>21.7539969623199</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>20.944041804585879</v>
+        <v>20.9440418045859</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>21.412440982241449</v>
+        <v>21.4140006063609</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>21.150849168087639</v>
+        <v>21.1508491680876</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6"/>
       <c r="B49" s="3" t="s">
-        <v>1395</v>
+        <v>1424</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>20.34841060255847</v>
+        <v>20.348828349989</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>19.327784184716791</v>
+        <v>19.3277841847169</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>21.74499838332742</v>
+        <v>21.7453973001408</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>20.892977023114302</v>
+        <v>20.8929770231143</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>21.35833292231429</v>
+        <v>21.3590362491251</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>21.08371629740591</v>
+        <v>21.0837162974059</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6"/>
       <c r="B50" s="3" t="s">
-        <v>1396</v>
+        <v>1425</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>20.339340650305029</v>
+        <v>20.3388963615889</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>19.319981613210182</v>
+        <v>19.3199816132102</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>21.711434564769469</v>
+        <v>21.7093919240848</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>20.730972049745599</v>
+        <v>20.7309720497456</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>21.317632746693359</v>
+        <v>21.3204729783193</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>21.069014924409949</v>
+        <v>21.0690149244099</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6"/>
       <c r="B51" s="3" t="s">
-        <v>1397</v>
+        <v>1426</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>20.47344981360699</v>
+        <v>20.4740419699867</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>19.4418210937631</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>21.761232892709739</v>
+        <v>21.7606700425749</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>20.776717092973531</v>
+        <v>20.7767170929735</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>21.43809503480027</v>
+        <v>21.4401074890467</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>21.212456015289678</v>
+        <v>21.2124560152897</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n">
-        <v>2020</v>
+      <c r="A52" s="6" t="s">
+        <v>1429</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1386</v>
+        <v>1415</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>20.580148468834771</v>
+        <v>20.5788999500595</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>19.51899500386569</v>
+        <v>19.5185418298373</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>21.814290220342109</v>
+        <v>21.8105167895349</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>20.826132197454641</v>
+        <v>20.827147521873</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>21.50321853707154</v>
+        <v>21.5055793335004</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>21.278994918898881</v>
+        <v>21.2791101350767</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6"/>
       <c r="B53" s="3" t="s">
-        <v>1387</v>
+        <v>1416</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>20.427266566387949</v>
+        <v>20.427785187324</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>19.404117774182861</v>
+        <v>19.4048909543637</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>21.536209361590519</v>
+        <v>21.5328682302756</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>20.501831141397961</v>
+        <v>20.5063755116373</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>21.30872673484836</v>
+        <v>21.3103756080767</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>21.01906911712279</v>
+        <v>21.0207979090789</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6"/>
       <c r="B54" s="3" t="s">
-        <v>1388</v>
+        <v>1417</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>19.024426080553731</v>
+        <v>19.0113645678987</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>17.885338000654681</v>
+        <v>17.885451920244</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>20.137870088254239</v>
+        <v>20.1297724134579</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>19.12611022631954</v>
+        <v>19.1086112897634</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>20.454563044581469</v>
+        <v>20.4507805964608</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>20.185588763609811</v>
+        <v>20.177345112898</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6"/>
       <c r="B55" s="3" t="s">
-        <v>1389</v>
+        <v>1418</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>16.015786981416209</v>
+        <v>16.0157869814162</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>15.10186009966772</v>
+        <v>15.1018600996677</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>17.277065919848869</v>
+        <v>17.2770659198489</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>16.44485043726683</v>
+        <v>16.4448504372668</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>19.202514951924691</v>
+        <v>19.2025149519247</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>19.02536799204562</v>
+        <v>19.0253679920456</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6"/>
       <c r="B56" s="3" t="s">
-        <v>1390</v>
+        <v>1419</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>17.03347263736627</v>
+        <v>17.0334726373663</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>16.254416125942871</v>
+        <v>16.2544161259429</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>17.777994096084171</v>
+        <v>17.7779940960842</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>17.061953767463571</v>
+        <v>17.0619537674636</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>18.702259494549931</v>
+        <v>18.7022594945499</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>18.567121778314139</v>
+        <v>18.5671217783141</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6"/>
       <c r="B57" s="3" t="s">
-        <v>1391</v>
+        <v>1420</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>18.372366603082281</v>
+        <v>18.3723666030823</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>17.653376602343201</v>
+        <v>17.6533766023432</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>18.849194387029691</v>
+        <v>18.8491943870297</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>18.161831372714001</v>
+        <v>18.161831372714</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>19.226384754789098</v>
+        <v>19.2263847547891</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>19.125712297907349</v>
+        <v>19.1257122979073</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6"/>
       <c r="B58" s="3" t="s">
-        <v>1392</v>
+        <v>1421</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>19.387883227005979</v>
+        <v>19.3879375294564</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>18.60022725960004</v>
+        <v>18.6005882678346</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>19.738251874942641</v>
+        <v>19.7380749465227</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>19.078415239067819</v>
+        <v>19.0767523341816</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>19.86914282588473</v>
+        <v>19.8674643658275</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>19.69271284039754</v>
+        <v>19.6952183688986</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6"/>
       <c r="B59" s="3" t="s">
-        <v>1393</v>
+        <v>1422</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>19.352307462252199</v>
+        <v>19.3523074622522</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>18.600627457198101</v>
+        <v>18.6006274571981</v>
       </c>
       <c r="E59" s="3" t="n">
         <v>19.716997644168</v>
@@ -44184,7 +44241,7 @@
         <v>19.0867437962678</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>19.915712668195301</v>
+        <v>19.9157126681953</v>
       </c>
       <c r="H59" s="3" t="n">
         <v>19.7027314217781</v>
@@ -44193,392 +44250,896 @@
     <row r="60">
       <c r="A60" s="6"/>
       <c r="B60" s="3" t="s">
-        <v>1394</v>
+        <v>1423</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>19.215378131058799</v>
+        <v>19.2153781310588</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>18.535020116818199</v>
+        <v>18.5350201168182</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>19.605653190373101</v>
+        <v>19.6056531903731</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>19.045064756374501</v>
+        <v>19.0450647563745</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>19.653683905842001</v>
+        <v>19.653683905842</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>19.400065610753298</v>
+        <v>19.4000656107533</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6"/>
       <c r="B61" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+        <v>1424</v>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>19.0440042103472</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>18.3925417170002</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>19.4893057076745</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>18.9289103667786</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>19.2786117436252</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>19.0601558582449</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="6"/>
       <c r="B62" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+        <v>1425</v>
+      </c>
+      <c r="C62" s="3" t="n">
+        <v>18.2987737267123</v>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>17.7215548105422</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>18.8736317263882</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>18.3500834980045</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>18.9388290600482</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>18.8019315650339</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="6"/>
       <c r="B63" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+        <v>1426</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>18.4415312879217</v>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>17.9135361707707</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>18.971048182647</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>18.4804350674915</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>19.2426564636089</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>19.1520738434517</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="6"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="A64" s="6" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>19.4079337113836</v>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>18.9243960707144</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>19.8682691861778</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>19.4376219828258</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>19.9139582142334</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>19.8707428496037</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="6"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>20.2074004150879</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>19.7505008653741</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>20.8357311904004</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>20.4193068714953</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>20.7159493284952</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>20.7451513945409</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>20.6964194817611</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>20.1058595572337</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>22.1807213214588</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>21.5910042147887</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>21.4830039922846</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>21.4276209117979</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="6"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>20.7308297358785</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>20.1872522669656</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>22.3891148904204</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>21.8838692396097</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>21.6496451613442</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>21.5491744513175</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>20.7844168031617</v>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>20.2238548339058</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>22.5177533995697</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>22.0150561115614</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>21.8172513819571</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>21.6851540525282</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="6"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="B69" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>20.7865720842342</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>20.2690442064341</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>22.581968000779</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>22.1309016385146</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>21.8055485203615</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>21.732751381016</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="6"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>20.7034446187663</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>20.2834769970071</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>22.6272224088656</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>22.2082630839988</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>21.8019515949038</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>21.7354963533589</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="6"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>20.6232831107389</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>20.3027005096969</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>22.6680463146272</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>22.291945764376</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>21.7968837806984</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>21.7870390921737</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="6"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>20.5464718794372</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>20.1890565527936</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>22.6756995804713</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>22.3037979541638</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>21.7530876669217</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>21.7252354130321</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="6"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="B73" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>20.4592163297172</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>20.1275373147093</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>22.6777968539807</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>22.3590220572557</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>21.6736414388951</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>21.7081853844781</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="6"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="B74" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>20.4366281700018</v>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>20.0649044777706</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>22.7023721544429</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>22.2826305579075</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>21.6298265670886</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>21.6420989374039</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="6"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="B75" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>20.7772917799114</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>20.2763577551438</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>22.9300141945325</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>22.4490790455572</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>21.8999608070896</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>21.8199123039081</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="6"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="A76" s="6" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>21.1711532073344</v>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>20.6509258006312</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>23.2961619514965</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>22.7404153248967</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>22.3081989515863</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>22.1629026447476</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="6"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>21.3480900053926</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>20.852547586578</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>23.4826262150575</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>22.9529956080865</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>22.4737356712195</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>22.3282811756912</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="6"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="B78" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>21.9101389749714</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>21.2761072017153</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>23.876881610192</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>23.2468859664551</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>22.9643789654536</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>22.72678317568</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="6"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>22.1314881199953</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>21.4740774464381</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>24.1419190613005</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>23.4241827658729</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>23.3789706994777</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>23.1350194942096</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="6"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>22.3385426804593</v>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>21.6608777281668</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>24.4385241312958</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>23.6921372574732</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>23.4994266820039</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>23.2925700640227</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="6"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>22.5843976774147</v>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>21.8552515817664</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>24.6735755394889</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>23.8503407271181</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>23.5705058066474</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>23.3833011655434</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="6"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>22.540508142899</v>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>21.8327874397047</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>24.6533103149005</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>23.8835168937048</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>23.6649591174615</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>23.4554114159097</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="6"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="B83" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>22.5147287524856</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>21.9313790013529</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>24.694919253943</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>23.9932099296949</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>23.738189488514</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>23.5290557557593</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="6"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>22.1771154864642</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>21.6942532303975</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>24.6451019147556</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>23.9748274810343</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>23.7785382687134</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>23.5693184923224</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="6"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="B85" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>22.4121530526896</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>21.8931326414868</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>24.7721597446001</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>24.1367276902721</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>23.8478801820907</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>23.6472357098321</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="6"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>22.3693705483677</v>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>21.78942326841</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>24.8719848427161</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>24.1276350351351</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>23.9152672382806</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>23.7345106519887</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="6"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="B87" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>22.0885742442224</v>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>21.5015986142566</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>24.6590477945199</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>23.9014077550353</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>23.8343366106572</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>23.6626882880369</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="6"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
+      <c r="A88" s="6" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>22.3261788619478</v>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>21.76065738756</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>24.7967008395776</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>24.0338034812858</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>23.9237056787865</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>23.7414361307134</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="6"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="B89" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>22.3928779192125</v>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>21.7898864656477</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>24.8062525170852</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>24.086428378056</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>23.8097106622658</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>23.6311561758415</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="6"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
+      <c r="B90" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>22.5237506776281</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>21.8620485299293</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>24.9745134837926</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>24.1824699488651</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>23.9687152403321</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>23.7169984452278</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="6"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="B91" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C91" s="3" t="n">
+        <v>22.6342163811825</v>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>21.963588493703</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>25.0074895869302</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>24.2544517043663</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>23.960614477928</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>23.6991805733729</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="6"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>22.3988618320032</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>21.943020734659</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>24.9080174170731</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>24.2317007551177</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>23.9045879966927</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>23.6926315515526</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="6"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="B93" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>22.450709315965</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>21.9937046845335</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>24.9735621141066</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>24.2699494417669</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>23.9381075210145</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>23.7652865335101</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="6"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="B94" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C94" s="3" t="n">
+        <v>22.6446760102667</v>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>22.0854554598486</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>24.9921329446465</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>24.3318139821702</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>24.0793629447375</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>23.821519122816</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="6"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>22.8915308035746</v>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>22.3054569002208</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>25.1654869472255</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>24.4898221926187</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>24.2912672864927</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>24.0576087434729</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="6"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>23.017957915584</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>22.3333242169136</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>25.4951972043165</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>24.5939851447907</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>24.3718194522203</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>24.1657963993587</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - septiembre 2023</t>
+    <t xml:space="preserve">enero 2017 - octubre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: noviembre 2023</t>
+    <t xml:space="preserve">Próxima actualización: diciembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">septiembre 2023</t>
+    <t xml:space="preserve">octubre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -39516,190 +39516,438 @@
       </c>
     </row>
     <row r="2479">
-      <c r="A2479" s="6"/>
-      <c r="B2479" s="3"/>
-      <c r="C2479" s="3"/>
-      <c r="D2479" s="3"/>
+      <c r="A2479" s="16" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B2479" s="3" t="n">
+        <v>22.3358259608412</v>
+      </c>
+      <c r="C2479" s="3" t="n">
+        <v>24.6349669966997</v>
+      </c>
+      <c r="D2479" s="3" t="n">
+        <v>24.2040669412976</v>
+      </c>
     </row>
     <row r="2480">
-      <c r="A2480" s="6"/>
-      <c r="B2480" s="3"/>
-      <c r="C2480" s="3"/>
-      <c r="D2480" s="3"/>
+      <c r="A2480" s="16" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B2480" s="3" t="n">
+        <v>22.3387090461003</v>
+      </c>
+      <c r="C2480" s="3" t="n">
+        <v>24.632625240007</v>
+      </c>
+      <c r="D2480" s="3" t="n">
+        <v>24.2035471581549</v>
+      </c>
     </row>
     <row r="2481">
-      <c r="A2481" s="6"/>
-      <c r="B2481" s="3"/>
-      <c r="C2481" s="3"/>
-      <c r="D2481" s="3"/>
+      <c r="A2481" s="16" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B2481" s="3" t="n">
+        <v>22.3317398164085</v>
+      </c>
+      <c r="C2481" s="3" t="n">
+        <v>24.6368480316314</v>
+      </c>
+      <c r="D2481" s="3" t="n">
+        <v>24.211439118123</v>
+      </c>
     </row>
     <row r="2482">
-      <c r="A2482" s="6"/>
-      <c r="B2482" s="3"/>
-      <c r="C2482" s="3"/>
-      <c r="D2482" s="3"/>
+      <c r="A2482" s="16" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B2482" s="3" t="n">
+        <v>22.3139184522965</v>
+      </c>
+      <c r="C2482" s="3" t="n">
+        <v>24.6396490179334</v>
+      </c>
+      <c r="D2482" s="3" t="n">
+        <v>24.2125904819036</v>
+      </c>
     </row>
     <row r="2483">
-      <c r="A2483" s="6"/>
-      <c r="B2483" s="3"/>
-      <c r="C2483" s="3"/>
-      <c r="D2483" s="3"/>
+      <c r="A2483" s="16" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B2483" s="3" t="n">
+        <v>22.2984915358136</v>
+      </c>
+      <c r="C2483" s="3" t="n">
+        <v>24.6267779870982</v>
+      </c>
+      <c r="D2483" s="3" t="n">
+        <v>24.2184494112952</v>
+      </c>
     </row>
     <row r="2484">
-      <c r="A2484" s="6"/>
-      <c r="B2484" s="3"/>
-      <c r="C2484" s="3"/>
-      <c r="D2484" s="3"/>
+      <c r="A2484" s="16" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B2484" s="3" t="n">
+        <v>22.2733721535767</v>
+      </c>
+      <c r="C2484" s="3" t="n">
+        <v>24.6276508963013</v>
+      </c>
+      <c r="D2484" s="3" t="n">
+        <v>24.2144319314331</v>
+      </c>
     </row>
     <row r="2485">
-      <c r="A2485" s="6"/>
-      <c r="B2485" s="3"/>
-      <c r="C2485" s="3"/>
-      <c r="D2485" s="3"/>
+      <c r="A2485" s="16" t="n">
+        <v>45206</v>
+      </c>
+      <c r="B2485" s="3" t="n">
+        <v>22.2549541720093</v>
+      </c>
+      <c r="C2485" s="3" t="n">
+        <v>24.6158106556436</v>
+      </c>
+      <c r="D2485" s="3" t="n">
+        <v>24.1859642466503</v>
+      </c>
     </row>
     <row r="2486">
-      <c r="A2486" s="6"/>
-      <c r="B2486" s="3"/>
-      <c r="C2486" s="3"/>
-      <c r="D2486" s="3"/>
+      <c r="A2486" s="16" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B2486" s="3" t="n">
+        <v>22.2452854065697</v>
+      </c>
+      <c r="C2486" s="3" t="n">
+        <v>24.6122998699302</v>
+      </c>
+      <c r="D2486" s="3" t="n">
+        <v>24.1847884601869</v>
+      </c>
     </row>
     <row r="2487">
-      <c r="A2487" s="6"/>
-      <c r="B2487" s="3"/>
-      <c r="C2487" s="3"/>
-      <c r="D2487" s="3"/>
+      <c r="A2487" s="16" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B2487" s="3" t="n">
+        <v>22.2286278148973</v>
+      </c>
+      <c r="C2487" s="3" t="n">
+        <v>24.6002866642703</v>
+      </c>
+      <c r="D2487" s="3" t="n">
+        <v>24.1760578158458</v>
+      </c>
     </row>
     <row r="2488">
-      <c r="A2488" s="6"/>
-      <c r="B2488" s="3"/>
-      <c r="C2488" s="3"/>
-      <c r="D2488" s="3"/>
+      <c r="A2488" s="16" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B2488" s="3" t="n">
+        <v>22.2172301772842</v>
+      </c>
+      <c r="C2488" s="3" t="n">
+        <v>24.5840990990991</v>
+      </c>
+      <c r="D2488" s="3" t="n">
+        <v>24.1576209677419</v>
+      </c>
     </row>
     <row r="2489">
-      <c r="A2489" s="6"/>
-      <c r="B2489" s="3"/>
-      <c r="C2489" s="3"/>
-      <c r="D2489" s="3"/>
+      <c r="A2489" s="16" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B2489" s="3" t="n">
+        <v>22.2107426246185</v>
+      </c>
+      <c r="C2489" s="3" t="n">
+        <v>24.5811197416652</v>
+      </c>
+      <c r="D2489" s="3" t="n">
+        <v>24.1550869380831</v>
+      </c>
     </row>
     <row r="2490">
-      <c r="A2490" s="6"/>
-      <c r="B2490" s="3"/>
-      <c r="C2490" s="3"/>
-      <c r="D2490" s="3"/>
+      <c r="A2490" s="16" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B2490" s="3" t="n">
+        <v>22.182923145933</v>
+      </c>
+      <c r="C2490" s="3" t="n">
+        <v>24.5761635614475</v>
+      </c>
+      <c r="D2490" s="3" t="n">
+        <v>24.1373358695652</v>
+      </c>
     </row>
     <row r="2491">
-      <c r="A2491" s="6"/>
-      <c r="B2491" s="3"/>
-      <c r="C2491" s="3"/>
-      <c r="D2491" s="3"/>
+      <c r="A2491" s="16" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B2491" s="3" t="n">
+        <v>22.1577523215101</v>
+      </c>
+      <c r="C2491" s="3" t="n">
+        <v>24.5749889482409</v>
+      </c>
+      <c r="D2491" s="3" t="n">
+        <v>24.1135863062265</v>
+      </c>
     </row>
     <row r="2492">
-      <c r="A2492" s="6"/>
-      <c r="B2492" s="3"/>
-      <c r="C2492" s="3"/>
-      <c r="D2492" s="3"/>
+      <c r="A2492" s="16" t="n">
+        <v>45213</v>
+      </c>
+      <c r="B2492" s="3" t="n">
+        <v>22.137450023245</v>
+      </c>
+      <c r="C2492" s="3" t="n">
+        <v>24.563060743256</v>
+      </c>
+      <c r="D2492" s="3" t="n">
+        <v>24.1228141213625</v>
+      </c>
     </row>
     <row r="2493">
-      <c r="A2493" s="6"/>
-      <c r="B2493" s="3"/>
-      <c r="C2493" s="3"/>
-      <c r="D2493" s="3"/>
+      <c r="A2493" s="16" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B2493" s="3" t="n">
+        <v>22.1155813767769</v>
+      </c>
+      <c r="C2493" s="3" t="n">
+        <v>24.5501538310798</v>
+      </c>
+      <c r="D2493" s="3" t="n">
+        <v>24.1184811890386</v>
+      </c>
     </row>
     <row r="2494">
-      <c r="A2494" s="6"/>
-      <c r="B2494" s="3"/>
-      <c r="C2494" s="3"/>
-      <c r="D2494" s="3"/>
+      <c r="A2494" s="16" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B2494" s="3" t="n">
+        <v>22.1103316709567</v>
+      </c>
+      <c r="C2494" s="3" t="n">
+        <v>24.5316203703704</v>
+      </c>
+      <c r="D2494" s="3" t="n">
+        <v>24.1229210711769</v>
+      </c>
     </row>
     <row r="2495">
-      <c r="A2495" s="6"/>
-      <c r="B2495" s="3"/>
-      <c r="C2495" s="3"/>
-      <c r="D2495" s="3"/>
+      <c r="A2495" s="16" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B2495" s="3" t="n">
+        <v>22.1577435330067</v>
+      </c>
+      <c r="C2495" s="3" t="n">
+        <v>24.5372364093635</v>
+      </c>
+      <c r="D2495" s="3" t="n">
+        <v>24.156620412844</v>
+      </c>
     </row>
     <row r="2496">
-      <c r="A2496" s="6"/>
-      <c r="B2496" s="3"/>
-      <c r="C2496" s="3"/>
-      <c r="D2496" s="3"/>
+      <c r="A2496" s="16" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B2496" s="3" t="n">
+        <v>22.204392801252</v>
+      </c>
+      <c r="C2496" s="3" t="n">
+        <v>24.5506009889692</v>
+      </c>
+      <c r="D2496" s="3" t="n">
+        <v>24.1829723606706</v>
+      </c>
     </row>
     <row r="2497">
-      <c r="A2497" s="6"/>
-      <c r="B2497" s="3"/>
-      <c r="C2497" s="3"/>
-      <c r="D2497" s="3"/>
+      <c r="A2497" s="16" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B2497" s="3" t="n">
+        <v>22.2299431198379</v>
+      </c>
+      <c r="C2497" s="3" t="n">
+        <v>24.5444839688864</v>
+      </c>
+      <c r="D2497" s="3" t="n">
+        <v>24.2009122298953</v>
+      </c>
     </row>
     <row r="2498">
-      <c r="A2498" s="6"/>
-      <c r="B2498" s="3"/>
-      <c r="C2498" s="3"/>
-      <c r="D2498" s="3"/>
+      <c r="A2498" s="16" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B2498" s="3" t="n">
+        <v>22.279591955772</v>
+      </c>
+      <c r="C2498" s="3" t="n">
+        <v>24.5836845501475</v>
+      </c>
+      <c r="D2498" s="3" t="n">
+        <v>24.2275895196507</v>
+      </c>
     </row>
     <row r="2499">
-      <c r="A2499" s="6"/>
-      <c r="B2499" s="3"/>
-      <c r="C2499" s="3"/>
-      <c r="D2499" s="3"/>
+      <c r="A2499" s="16" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B2499" s="3" t="n">
+        <v>22.3092484295543</v>
+      </c>
+      <c r="C2499" s="3" t="n">
+        <v>24.5860200364299</v>
+      </c>
+      <c r="D2499" s="3" t="n">
+        <v>24.2384662045061</v>
+      </c>
     </row>
     <row r="2500">
-      <c r="A2500" s="6"/>
-      <c r="B2500" s="3"/>
-      <c r="C2500" s="3"/>
-      <c r="D2500" s="3"/>
+      <c r="A2500" s="16" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B2500" s="3" t="n">
+        <v>22.3257878652355</v>
+      </c>
+      <c r="C2500" s="3" t="n">
+        <v>24.5915240986019</v>
+      </c>
+      <c r="D2500" s="3" t="n">
+        <v>24.2423085315296</v>
+      </c>
     </row>
     <row r="2501">
-      <c r="A2501" s="6"/>
-      <c r="B2501" s="3"/>
-      <c r="C2501" s="3"/>
-      <c r="D2501" s="3"/>
+      <c r="A2501" s="16" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B2501" s="3" t="n">
+        <v>22.3392233033564</v>
+      </c>
+      <c r="C2501" s="3" t="n">
+        <v>24.600982580294</v>
+      </c>
+      <c r="D2501" s="3" t="n">
+        <v>24.2478780068728</v>
+      </c>
     </row>
     <row r="2502">
-      <c r="A2502" s="6"/>
-      <c r="B2502" s="3"/>
-      <c r="C2502" s="3"/>
-      <c r="D2502" s="3"/>
+      <c r="A2502" s="16" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B2502" s="3" t="n">
+        <v>22.3740185813997</v>
+      </c>
+      <c r="C2502" s="3" t="n">
+        <v>24.6040630958572</v>
+      </c>
+      <c r="D2502" s="3" t="n">
+        <v>24.2590896962233</v>
+      </c>
     </row>
     <row r="2503">
-      <c r="A2503" s="6"/>
-      <c r="B2503" s="3"/>
-      <c r="C2503" s="3"/>
-      <c r="D2503" s="3"/>
+      <c r="A2503" s="16" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B2503" s="3" t="n">
+        <v>22.3986140544012</v>
+      </c>
+      <c r="C2503" s="3" t="n">
+        <v>24.6154702803107</v>
+      </c>
+      <c r="D2503" s="3" t="n">
+        <v>24.2622729091637</v>
+      </c>
     </row>
     <row r="2504">
-      <c r="A2504" s="6"/>
-      <c r="B2504" s="3"/>
-      <c r="C2504" s="3"/>
-      <c r="D2504" s="3"/>
+      <c r="A2504" s="16" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B2504" s="3" t="n">
+        <v>22.4162089296966</v>
+      </c>
+      <c r="C2504" s="3" t="n">
+        <v>24.620481987992</v>
+      </c>
+      <c r="D2504" s="3" t="n">
+        <v>24.2542091786488</v>
+      </c>
     </row>
     <row r="2505">
-      <c r="A2505" s="6"/>
-      <c r="B2505" s="3"/>
-      <c r="C2505" s="3"/>
-      <c r="D2505" s="3"/>
+      <c r="A2505" s="16" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B2505" s="3" t="n">
+        <v>22.4235713020764</v>
+      </c>
+      <c r="C2505" s="3" t="n">
+        <v>24.6169991687448</v>
+      </c>
+      <c r="D2505" s="3" t="n">
+        <v>24.2431004281822</v>
+      </c>
     </row>
     <row r="2506">
-      <c r="A2506" s="6"/>
-      <c r="B2506" s="3"/>
-      <c r="C2506" s="3"/>
-      <c r="D2506" s="3"/>
+      <c r="A2506" s="16" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B2506" s="3" t="n">
+        <v>22.4156522886163</v>
+      </c>
+      <c r="C2506" s="3" t="n">
+        <v>24.6083554706957</v>
+      </c>
+      <c r="D2506" s="3" t="n">
+        <v>24.2425131655939</v>
+      </c>
     </row>
     <row r="2507">
-      <c r="A2507" s="6"/>
-      <c r="B2507" s="3"/>
-      <c r="C2507" s="3"/>
-      <c r="D2507" s="3"/>
+      <c r="A2507" s="16" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B2507" s="3" t="n">
+        <v>22.4130246586239</v>
+      </c>
+      <c r="C2507" s="3" t="n">
+        <v>24.6044740379768</v>
+      </c>
+      <c r="D2507" s="3" t="n">
+        <v>24.2324804648367</v>
+      </c>
     </row>
     <row r="2508">
-      <c r="A2508" s="6"/>
-      <c r="B2508" s="3"/>
-      <c r="C2508" s="3"/>
-      <c r="D2508" s="3"/>
+      <c r="A2508" s="16" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B2508" s="3" t="n">
+        <v>22.4090591896186</v>
+      </c>
+      <c r="C2508" s="3" t="n">
+        <v>24.6050167954316</v>
+      </c>
+      <c r="D2508" s="3" t="n">
+        <v>24.230275944811</v>
+      </c>
     </row>
     <row r="2509">
-      <c r="A2509" s="6"/>
-      <c r="B2509" s="3"/>
-      <c r="C2509" s="3"/>
-      <c r="D2509" s="3"/>
+      <c r="A2509" s="16" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B2509" s="3" t="n">
+        <v>22.395802679979</v>
+      </c>
+      <c r="C2509" s="3" t="n">
+        <v>24.5973112033195</v>
+      </c>
+      <c r="D2509" s="3" t="n">
+        <v>24.2184407216495</v>
+      </c>
     </row>
     <row r="2510">
       <c r="A2510" s="6"/>
@@ -45143,13 +45391,27 @@
     </row>
     <row r="97">
       <c r="A97" s="6"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>22.9708156726213</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>22.2853167222988</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>25.4542881083293</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>24.5953169783127</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>24.4335792504372</v>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>24.1993003807472</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - octubre 2023</t>
+    <t xml:space="preserve">enero 2017 - noviembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: diciembre 2023</t>
+    <t xml:space="preserve">Próxima actualización: enero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">octubre 2023</t>
+    <t xml:space="preserve">noviembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -39950,184 +39950,424 @@
       </c>
     </row>
     <row r="2510">
-      <c r="A2510" s="6"/>
-      <c r="B2510" s="3"/>
-      <c r="C2510" s="3"/>
-      <c r="D2510" s="3"/>
+      <c r="A2510" s="16" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B2510" s="3" t="n">
+        <v>22.3716721204189</v>
+      </c>
+      <c r="C2510" s="3" t="n">
+        <v>24.5850364178116</v>
+      </c>
+      <c r="D2510" s="3" t="n">
+        <v>24.2064396192742</v>
+      </c>
     </row>
     <row r="2511">
-      <c r="A2511" s="6"/>
-      <c r="B2511" s="3"/>
-      <c r="C2511" s="3"/>
-      <c r="D2511" s="3"/>
+      <c r="A2511" s="16" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B2511" s="3" t="n">
+        <v>22.3453005823372</v>
+      </c>
+      <c r="C2511" s="3" t="n">
+        <v>24.5686724627989</v>
+      </c>
+      <c r="D2511" s="3" t="n">
+        <v>24.1947159090909</v>
+      </c>
     </row>
     <row r="2512">
-      <c r="A2512" s="6"/>
-      <c r="B2512" s="3"/>
-      <c r="C2512" s="3"/>
-      <c r="D2512" s="3"/>
+      <c r="A2512" s="16" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B2512" s="3" t="n">
+        <v>22.3150149954362</v>
+      </c>
+      <c r="C2512" s="3" t="n">
+        <v>24.538200485089</v>
+      </c>
+      <c r="D2512" s="3" t="n">
+        <v>24.1819038155803</v>
+      </c>
     </row>
     <row r="2513">
-      <c r="A2513" s="6"/>
-      <c r="B2513" s="3"/>
-      <c r="C2513" s="3"/>
-      <c r="D2513" s="3"/>
+      <c r="A2513" s="16" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B2513" s="3" t="n">
+        <v>22.2946830665105</v>
+      </c>
+      <c r="C2513" s="3" t="n">
+        <v>24.5274087550998</v>
+      </c>
+      <c r="D2513" s="3" t="n">
+        <v>24.1795036028823</v>
+      </c>
     </row>
     <row r="2514">
-      <c r="A2514" s="6"/>
-      <c r="B2514" s="3"/>
-      <c r="C2514" s="3"/>
-      <c r="D2514" s="3"/>
+      <c r="A2514" s="16" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B2514" s="3" t="n">
+        <v>22.2923587127159</v>
+      </c>
+      <c r="C2514" s="3" t="n">
+        <v>24.5227301109439</v>
+      </c>
+      <c r="D2514" s="3" t="n">
+        <v>24.179176056338</v>
+      </c>
     </row>
     <row r="2515">
-      <c r="A2515" s="6"/>
-      <c r="B2515" s="3"/>
-      <c r="C2515" s="3"/>
-      <c r="D2515" s="3"/>
+      <c r="A2515" s="16" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B2515" s="3" t="n">
+        <v>22.2868948607297</v>
+      </c>
+      <c r="C2515" s="3" t="n">
+        <v>24.5144899100006</v>
+      </c>
+      <c r="D2515" s="3" t="n">
+        <v>24.177096351542</v>
+      </c>
     </row>
     <row r="2516">
-      <c r="A2516" s="6"/>
-      <c r="B2516" s="3"/>
-      <c r="C2516" s="3"/>
-      <c r="D2516" s="3"/>
+      <c r="A2516" s="16" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B2516" s="3" t="n">
+        <v>22.2746134355509</v>
+      </c>
+      <c r="C2516" s="3" t="n">
+        <v>24.4757960609561</v>
+      </c>
+      <c r="D2516" s="3" t="n">
+        <v>24.169046429523</v>
+      </c>
     </row>
     <row r="2517">
-      <c r="A2517" s="6"/>
-      <c r="B2517" s="3"/>
-      <c r="C2517" s="3"/>
-      <c r="D2517" s="3"/>
+      <c r="A2517" s="16" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B2517" s="3" t="n">
+        <v>22.2543903519878</v>
+      </c>
+      <c r="C2517" s="3" t="n">
+        <v>24.4947315400844</v>
+      </c>
+      <c r="D2517" s="3" t="n">
+        <v>24.1664357822066</v>
+      </c>
     </row>
     <row r="2518">
-      <c r="A2518" s="6"/>
-      <c r="B2518" s="3"/>
-      <c r="C2518" s="3"/>
-      <c r="D2518" s="3"/>
+      <c r="A2518" s="16" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B2518" s="3" t="n">
+        <v>22.2236469322742</v>
+      </c>
+      <c r="C2518" s="3" t="n">
+        <v>24.4706845784854</v>
+      </c>
+      <c r="D2518" s="3" t="n">
+        <v>24.1537612655801</v>
+      </c>
     </row>
     <row r="2519">
-      <c r="A2519" s="6"/>
-      <c r="B2519" s="3"/>
-      <c r="C2519" s="3"/>
-      <c r="D2519" s="3"/>
+      <c r="A2519" s="16" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B2519" s="3" t="n">
+        <v>22.1972375423319</v>
+      </c>
+      <c r="C2519" s="3" t="n">
+        <v>24.4375446249499</v>
+      </c>
+      <c r="D2519" s="3" t="n">
+        <v>24.1287167478456</v>
+      </c>
     </row>
     <row r="2520">
-      <c r="A2520" s="6"/>
-      <c r="B2520" s="3"/>
-      <c r="C2520" s="3"/>
-      <c r="D2520" s="3"/>
+      <c r="A2520" s="16" t="n">
+        <v>45241</v>
+      </c>
+      <c r="B2520" s="3" t="n">
+        <v>22.2010610430185</v>
+      </c>
+      <c r="C2520" s="3" t="n">
+        <v>24.4307086809694</v>
+      </c>
+      <c r="D2520" s="3" t="n">
+        <v>24.1227094657919</v>
+      </c>
     </row>
     <row r="2521">
-      <c r="A2521" s="6"/>
-      <c r="B2521" s="3"/>
-      <c r="C2521" s="3"/>
-      <c r="D2521" s="3"/>
+      <c r="A2521" s="16" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B2521" s="3" t="n">
+        <v>22.204361509707</v>
+      </c>
+      <c r="C2521" s="3" t="n">
+        <v>24.4276348278103</v>
+      </c>
+      <c r="D2521" s="3" t="n">
+        <v>24.1212130623</v>
+      </c>
     </row>
     <row r="2522">
-      <c r="A2522" s="6"/>
-      <c r="B2522" s="3"/>
-      <c r="C2522" s="3"/>
-      <c r="D2522" s="3"/>
+      <c r="A2522" s="16" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B2522" s="3" t="n">
+        <v>22.2025470673425</v>
+      </c>
+      <c r="C2522" s="3" t="n">
+        <v>24.4192946410718</v>
+      </c>
+      <c r="D2522" s="3" t="n">
+        <v>24.1191301473366</v>
+      </c>
     </row>
     <row r="2523">
-      <c r="A2523" s="6"/>
-      <c r="B2523" s="3"/>
-      <c r="C2523" s="3"/>
-      <c r="D2523" s="3"/>
+      <c r="A2523" s="16" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B2523" s="3" t="n">
+        <v>22.215348323989</v>
+      </c>
+      <c r="C2523" s="3" t="n">
+        <v>24.4171606764285</v>
+      </c>
+      <c r="D2523" s="3" t="n">
+        <v>24.1171884328358</v>
+      </c>
     </row>
     <row r="2524">
-      <c r="A2524" s="6"/>
-      <c r="B2524" s="3"/>
-      <c r="C2524" s="3"/>
-      <c r="D2524" s="3"/>
+      <c r="A2524" s="16" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B2524" s="3" t="n">
+        <v>22.2359613784908</v>
+      </c>
+      <c r="C2524" s="3" t="n">
+        <v>24.4115907974858</v>
+      </c>
+      <c r="D2524" s="3" t="n">
+        <v>24.1237086891942</v>
+      </c>
     </row>
     <row r="2525">
-      <c r="A2525" s="6"/>
-      <c r="B2525" s="3"/>
-      <c r="C2525" s="3"/>
-      <c r="D2525" s="3"/>
+      <c r="A2525" s="16" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B2525" s="3" t="n">
+        <v>22.2350262123198</v>
+      </c>
+      <c r="C2525" s="3" t="n">
+        <v>24.4060976926853</v>
+      </c>
+      <c r="D2525" s="3" t="n">
+        <v>24.114703675919</v>
+      </c>
     </row>
     <row r="2526">
-      <c r="A2526" s="6"/>
-      <c r="B2526" s="3"/>
-      <c r="C2526" s="3"/>
-      <c r="D2526" s="3"/>
+      <c r="A2526" s="16" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B2526" s="3" t="n">
+        <v>22.2290904198062</v>
+      </c>
+      <c r="C2526" s="3" t="n">
+        <v>24.397631927091</v>
+      </c>
+      <c r="D2526" s="3" t="n">
+        <v>24.0979045168668</v>
+      </c>
     </row>
     <row r="2527">
-      <c r="A2527" s="6"/>
-      <c r="B2527" s="3"/>
-      <c r="C2527" s="3"/>
-      <c r="D2527" s="3"/>
+      <c r="A2527" s="16" t="n">
+        <v>45248</v>
+      </c>
+      <c r="B2527" s="3" t="n">
+        <v>22.2249626370978</v>
+      </c>
+      <c r="C2527" s="3" t="n">
+        <v>24.39018009409</v>
+      </c>
+      <c r="D2527" s="3" t="n">
+        <v>24.0935571705426</v>
+      </c>
     </row>
     <row r="2528">
-      <c r="A2528" s="6"/>
-      <c r="B2528" s="3"/>
-      <c r="C2528" s="3"/>
-      <c r="D2528" s="3"/>
+      <c r="A2528" s="16" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B2528" s="3" t="n">
+        <v>22.2091627649088</v>
+      </c>
+      <c r="C2528" s="3" t="n">
+        <v>24.3681935240964</v>
+      </c>
+      <c r="D2528" s="3" t="n">
+        <v>24.077821920543</v>
+      </c>
     </row>
     <row r="2529">
-      <c r="A2529" s="6"/>
-      <c r="B2529" s="3"/>
-      <c r="C2529" s="3"/>
-      <c r="D2529" s="3"/>
+      <c r="A2529" s="16" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B2529" s="3" t="n">
+        <v>22.2077661978905</v>
+      </c>
+      <c r="C2529" s="3" t="n">
+        <v>24.3670147420147</v>
+      </c>
+      <c r="D2529" s="3" t="n">
+        <v>24.0672974358974</v>
+      </c>
     </row>
     <row r="2530">
-      <c r="A2530" s="6"/>
-      <c r="B2530" s="3"/>
-      <c r="C2530" s="3"/>
-      <c r="D2530" s="3"/>
+      <c r="A2530" s="16" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B2530" s="3" t="n">
+        <v>22.2103902439024</v>
+      </c>
+      <c r="C2530" s="3" t="n">
+        <v>24.3594961003211</v>
+      </c>
+      <c r="D2530" s="3" t="n">
+        <v>24.0683979987748</v>
+      </c>
     </row>
     <row r="2531">
-      <c r="A2531" s="6"/>
-      <c r="B2531" s="3"/>
-      <c r="C2531" s="3"/>
-      <c r="D2531" s="3"/>
+      <c r="A2531" s="16" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B2531" s="3" t="n">
+        <v>22.2068198231852</v>
+      </c>
+      <c r="C2531" s="3" t="n">
+        <v>24.3466790198155</v>
+      </c>
+      <c r="D2531" s="3" t="n">
+        <v>24.0635827175698</v>
+      </c>
     </row>
     <row r="2532">
-      <c r="A2532" s="6"/>
-      <c r="B2532" s="3"/>
-      <c r="C2532" s="3"/>
-      <c r="D2532" s="3"/>
+      <c r="A2532" s="16" t="n">
+        <v>45253</v>
+      </c>
+      <c r="B2532" s="3" t="n">
+        <v>22.1867080626672</v>
+      </c>
+      <c r="C2532" s="3" t="n">
+        <v>24.330367681137</v>
+      </c>
+      <c r="D2532" s="3" t="n">
+        <v>24.0663422889782</v>
+      </c>
     </row>
     <row r="2533">
-      <c r="A2533" s="6"/>
-      <c r="B2533" s="3"/>
-      <c r="C2533" s="3"/>
-      <c r="D2533" s="3"/>
+      <c r="A2533" s="16" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B2533" s="3" t="n">
+        <v>22.1841609962768</v>
+      </c>
+      <c r="C2533" s="3" t="n">
+        <v>24.3211571782178</v>
+      </c>
+      <c r="D2533" s="3" t="n">
+        <v>24.0698062180579</v>
+      </c>
     </row>
     <row r="2534">
-      <c r="A2534" s="6"/>
-      <c r="B2534" s="3"/>
-      <c r="C2534" s="3"/>
-      <c r="D2534" s="3"/>
+      <c r="A2534" s="16" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B2534" s="3" t="n">
+        <v>22.1744355259723</v>
+      </c>
+      <c r="C2534" s="3" t="n">
+        <v>24.3058622312882</v>
+      </c>
+      <c r="D2534" s="3" t="n">
+        <v>24.0775812431843</v>
+      </c>
     </row>
     <row r="2535">
-      <c r="A2535" s="6"/>
-      <c r="B2535" s="3"/>
-      <c r="C2535" s="3"/>
-      <c r="D2535" s="3"/>
+      <c r="A2535" s="16" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B2535" s="3" t="n">
+        <v>22.1649706078824</v>
+      </c>
+      <c r="C2535" s="3" t="n">
+        <v>24.2997209785737</v>
+      </c>
+      <c r="D2535" s="3" t="n">
+        <v>24.0781958073149</v>
+      </c>
     </row>
     <row r="2536">
-      <c r="A2536" s="6"/>
-      <c r="B2536" s="3"/>
-      <c r="C2536" s="3"/>
-      <c r="D2536" s="3"/>
+      <c r="A2536" s="16" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B2536" s="3" t="n">
+        <v>22.1746817192601</v>
+      </c>
+      <c r="C2536" s="3" t="n">
+        <v>24.2969150485437</v>
+      </c>
+      <c r="D2536" s="3" t="n">
+        <v>24.081288788222</v>
+      </c>
     </row>
     <row r="2537">
-      <c r="A2537" s="6"/>
-      <c r="B2537" s="3"/>
-      <c r="C2537" s="3"/>
-      <c r="D2537" s="3"/>
+      <c r="A2537" s="16" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B2537" s="3" t="n">
+        <v>22.1796239604406</v>
+      </c>
+      <c r="C2537" s="3" t="n">
+        <v>24.289139009139</v>
+      </c>
+      <c r="D2537" s="3" t="n">
+        <v>24.0934065076889</v>
+      </c>
     </row>
     <row r="2538">
-      <c r="A2538" s="6"/>
-      <c r="B2538" s="3"/>
-      <c r="C2538" s="3"/>
-      <c r="D2538" s="3"/>
+      <c r="A2538" s="16" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B2538" s="3" t="n">
+        <v>22.1739946302062</v>
+      </c>
+      <c r="C2538" s="3" t="n">
+        <v>24.2773209169054</v>
+      </c>
+      <c r="D2538" s="3" t="n">
+        <v>24.095822616408</v>
+      </c>
     </row>
     <row r="2539">
-      <c r="A2539" s="6"/>
-      <c r="B2539" s="3"/>
-      <c r="C2539" s="3"/>
-      <c r="D2539" s="3"/>
+      <c r="A2539" s="16" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B2539" s="3" t="n">
+        <v>22.1693692286801</v>
+      </c>
+      <c r="C2539" s="3" t="n">
+        <v>24.2723428525846</v>
+      </c>
+      <c r="D2539" s="3" t="n">
+        <v>24.1026115922718</v>
+      </c>
     </row>
     <row r="2540">
       <c r="A2540" s="6"/>
@@ -45415,13 +45655,27 @@
     </row>
     <row r="98">
       <c r="A98" s="6"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>22.8530453336304</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>22.2282084984446</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>25.1729900611615</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>24.4089934522163</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>24.3516640085629</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>24.1196355291854</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - agosto 2023</t>
+    <t xml:space="preserve">enero 2017 - diciembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: octubre 2023</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2023</t>
+    <t xml:space="preserve">diciembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -39096,736 +39096,1650 @@
       </c>
     </row>
     <row r="2449">
-      <c r="A2449" s="6"/>
-      <c r="B2449" s="3"/>
-      <c r="C2449" s="3"/>
-      <c r="D2449" s="3"/>
+      <c r="A2449" s="16" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B2449" s="3" t="n">
+        <v>22.2978043364681</v>
+      </c>
+      <c r="C2449" s="3" t="n">
+        <v>24.5152515572592</v>
+      </c>
+      <c r="D2449" s="3" t="n">
+        <v>24.1110461203484</v>
+      </c>
     </row>
     <row r="2450">
-      <c r="A2450" s="6"/>
-      <c r="B2450" s="3"/>
-      <c r="C2450" s="3"/>
-      <c r="D2450" s="3"/>
+      <c r="A2450" s="16" t="n">
+        <v>45171</v>
+      </c>
+      <c r="B2450" s="3" t="n">
+        <v>22.2917988929889</v>
+      </c>
+      <c r="C2450" s="3" t="n">
+        <v>24.5250186174518</v>
+      </c>
+      <c r="D2450" s="3" t="n">
+        <v>24.1048151141645</v>
+      </c>
     </row>
     <row r="2451">
-      <c r="A2451" s="6"/>
-      <c r="B2451" s="3"/>
-      <c r="C2451" s="3"/>
-      <c r="D2451" s="3"/>
+      <c r="A2451" s="16" t="n">
+        <v>45172</v>
+      </c>
+      <c r="B2451" s="3" t="n">
+        <v>22.2846474273527</v>
+      </c>
+      <c r="C2451" s="3" t="n">
+        <v>24.5207504937459</v>
+      </c>
+      <c r="D2451" s="3" t="n">
+        <v>24.1025849289685</v>
+      </c>
     </row>
     <row r="2452">
-      <c r="A2452" s="6"/>
-      <c r="B2452" s="3"/>
-      <c r="C2452" s="3"/>
-      <c r="D2452" s="3"/>
+      <c r="A2452" s="16" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B2452" s="3" t="n">
+        <v>22.2858295148248</v>
+      </c>
+      <c r="C2452" s="3" t="n">
+        <v>24.5164763877382</v>
+      </c>
+      <c r="D2452" s="3" t="n">
+        <v>24.1049323480433</v>
+      </c>
     </row>
     <row r="2453">
-      <c r="A2453" s="6"/>
-      <c r="B2453" s="3"/>
-      <c r="C2453" s="3"/>
-      <c r="D2453" s="3"/>
+      <c r="A2453" s="16" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B2453" s="3" t="n">
+        <v>22.2939171122995</v>
+      </c>
+      <c r="C2453" s="3" t="n">
+        <v>24.5243160994764</v>
+      </c>
+      <c r="D2453" s="3" t="n">
+        <v>24.1018755135579</v>
+      </c>
     </row>
     <row r="2454">
-      <c r="A2454" s="6"/>
-      <c r="B2454" s="3"/>
-      <c r="C2454" s="3"/>
-      <c r="D2454" s="3"/>
+      <c r="A2454" s="16" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B2454" s="3" t="n">
+        <v>22.2980258727627</v>
+      </c>
+      <c r="C2454" s="3" t="n">
+        <v>24.5296371882086</v>
+      </c>
+      <c r="D2454" s="3" t="n">
+        <v>24.1076557711951</v>
+      </c>
     </row>
     <row r="2455">
-      <c r="A2455" s="6"/>
-      <c r="B2455" s="3"/>
-      <c r="C2455" s="3"/>
-      <c r="D2455" s="3"/>
+      <c r="A2455" s="16" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B2455" s="3" t="n">
+        <v>22.311432996633</v>
+      </c>
+      <c r="C2455" s="3" t="n">
+        <v>24.5522170504655</v>
+      </c>
+      <c r="D2455" s="3" t="n">
+        <v>24.1336672068058</v>
+      </c>
     </row>
     <row r="2456">
-      <c r="A2456" s="6"/>
-      <c r="B2456" s="3"/>
-      <c r="C2456" s="3"/>
-      <c r="D2456" s="3"/>
+      <c r="A2456" s="16" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B2456" s="3" t="n">
+        <v>22.3358707446087</v>
+      </c>
+      <c r="C2456" s="3" t="n">
+        <v>24.5610876356462</v>
+      </c>
+      <c r="D2456" s="3" t="n">
+        <v>24.1388648813147</v>
+      </c>
     </row>
     <row r="2457">
-      <c r="A2457" s="6"/>
-      <c r="B2457" s="3"/>
-      <c r="C2457" s="3"/>
-      <c r="D2457" s="3"/>
+      <c r="A2457" s="16" t="n">
+        <v>45178</v>
+      </c>
+      <c r="B2457" s="3" t="n">
+        <v>22.3487321452864</v>
+      </c>
+      <c r="C2457" s="3" t="n">
+        <v>24.5619131859132</v>
+      </c>
+      <c r="D2457" s="3" t="n">
+        <v>24.1443282072036</v>
+      </c>
     </row>
     <row r="2458">
-      <c r="A2458" s="6"/>
-      <c r="B2458" s="3"/>
-      <c r="C2458" s="3"/>
-      <c r="D2458" s="3"/>
+      <c r="A2458" s="16" t="n">
+        <v>45179</v>
+      </c>
+      <c r="B2458" s="3" t="n">
+        <v>22.3335558811218</v>
+      </c>
+      <c r="C2458" s="3" t="n">
+        <v>24.5696254458977</v>
+      </c>
+      <c r="D2458" s="3" t="n">
+        <v>24.14988412994</v>
+      </c>
     </row>
     <row r="2459">
-      <c r="A2459" s="6"/>
-      <c r="B2459" s="3"/>
-      <c r="C2459" s="3"/>
-      <c r="D2459" s="3"/>
+      <c r="A2459" s="16" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B2459" s="3" t="n">
+        <v>22.3367015706806</v>
+      </c>
+      <c r="C2459" s="3" t="n">
+        <v>24.5814384615385</v>
+      </c>
+      <c r="D2459" s="3" t="n">
+        <v>24.1539205723766</v>
+      </c>
     </row>
     <row r="2460">
-      <c r="A2460" s="6"/>
-      <c r="B2460" s="3"/>
-      <c r="C2460" s="3"/>
-      <c r="D2460" s="3"/>
+      <c r="A2460" s="16" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B2460" s="3" t="n">
+        <v>22.3484392048081</v>
+      </c>
+      <c r="C2460" s="3" t="n">
+        <v>24.5926790473018</v>
+      </c>
+      <c r="D2460" s="3" t="n">
+        <v>24.160079540878</v>
+      </c>
     </row>
     <row r="2461">
-      <c r="A2461" s="6"/>
-      <c r="B2461" s="3"/>
-      <c r="C2461" s="3"/>
-      <c r="D2461" s="3"/>
+      <c r="A2461" s="16" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B2461" s="3" t="n">
+        <v>22.3628468702917</v>
+      </c>
+      <c r="C2461" s="3" t="n">
+        <v>24.6019973783385</v>
+      </c>
+      <c r="D2461" s="3" t="n">
+        <v>24.1750466918339</v>
+      </c>
     </row>
     <row r="2462">
-      <c r="A2462" s="6"/>
-      <c r="B2462" s="3"/>
-      <c r="C2462" s="3"/>
-      <c r="D2462" s="3"/>
+      <c r="A2462" s="16" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B2462" s="3" t="n">
+        <v>22.3609609904228</v>
+      </c>
+      <c r="C2462" s="3" t="n">
+        <v>24.6096922047508</v>
+      </c>
+      <c r="D2462" s="3" t="n">
+        <v>24.1738527570188</v>
+      </c>
     </row>
     <row r="2463">
-      <c r="A2463" s="6"/>
-      <c r="B2463" s="3"/>
-      <c r="C2463" s="3"/>
-      <c r="D2463" s="3"/>
+      <c r="A2463" s="16" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B2463" s="3" t="n">
+        <v>22.3722623913554</v>
+      </c>
+      <c r="C2463" s="3" t="n">
+        <v>24.6014245298719</v>
+      </c>
+      <c r="D2463" s="3" t="n">
+        <v>24.1793147773279</v>
+      </c>
     </row>
     <row r="2464">
-      <c r="A2464" s="6"/>
-      <c r="B2464" s="3"/>
-      <c r="C2464" s="3"/>
-      <c r="D2464" s="3"/>
+      <c r="A2464" s="16" t="n">
+        <v>45185</v>
+      </c>
+      <c r="B2464" s="3" t="n">
+        <v>22.3784229747676</v>
+      </c>
+      <c r="C2464" s="3" t="n">
+        <v>24.6046783380801</v>
+      </c>
+      <c r="D2464" s="3" t="n">
+        <v>24.183597797267</v>
+      </c>
     </row>
     <row r="2465">
-      <c r="A2465" s="6"/>
-      <c r="B2465" s="3"/>
-      <c r="C2465" s="3"/>
-      <c r="D2465" s="3"/>
+      <c r="A2465" s="16" t="n">
+        <v>45186</v>
+      </c>
+      <c r="B2465" s="3" t="n">
+        <v>22.3757467752885</v>
+      </c>
+      <c r="C2465" s="3" t="n">
+        <v>24.6177389078498</v>
+      </c>
+      <c r="D2465" s="3" t="n">
+        <v>24.1871007268951</v>
+      </c>
     </row>
     <row r="2466">
-      <c r="A2466" s="6"/>
-      <c r="B2466" s="3"/>
-      <c r="C2466" s="3"/>
-      <c r="D2466" s="3"/>
+      <c r="A2466" s="16" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B2466" s="3" t="n">
+        <v>22.3794804092717</v>
+      </c>
+      <c r="C2466" s="3" t="n">
+        <v>24.617076949268</v>
+      </c>
+      <c r="D2466" s="3" t="n">
+        <v>24.1941118968386</v>
+      </c>
     </row>
     <row r="2467">
-      <c r="A2467" s="6"/>
-      <c r="B2467" s="3"/>
-      <c r="C2467" s="3"/>
-      <c r="D2467" s="3"/>
+      <c r="A2467" s="16" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B2467" s="3" t="n">
+        <v>22.3666338648662</v>
+      </c>
+      <c r="C2467" s="3" t="n">
+        <v>24.6218155813562</v>
+      </c>
+      <c r="D2467" s="3" t="n">
+        <v>24.1977231237322</v>
+      </c>
     </row>
     <row r="2468">
-      <c r="A2468" s="6"/>
-      <c r="B2468" s="3"/>
-      <c r="C2468" s="3"/>
-      <c r="D2468" s="3"/>
+      <c r="A2468" s="16" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B2468" s="3" t="n">
+        <v>22.358894865175</v>
+      </c>
+      <c r="C2468" s="3" t="n">
+        <v>24.6266201680672</v>
+      </c>
+      <c r="D2468" s="3" t="n">
+        <v>24.2046553122466</v>
+      </c>
     </row>
     <row r="2469">
-      <c r="A2469" s="6"/>
-      <c r="B2469" s="3"/>
-      <c r="C2469" s="3"/>
-      <c r="D2469" s="3"/>
+      <c r="A2469" s="16" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B2469" s="3" t="n">
+        <v>22.3504592155168</v>
+      </c>
+      <c r="C2469" s="3" t="n">
+        <v>24.6411336946703</v>
+      </c>
+      <c r="D2469" s="3" t="n">
+        <v>24.2110792906645</v>
+      </c>
     </row>
     <row r="2470">
-      <c r="A2470" s="6"/>
-      <c r="B2470" s="3"/>
-      <c r="C2470" s="3"/>
-      <c r="D2470" s="3"/>
+      <c r="A2470" s="16" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B2470" s="3" t="n">
+        <v>22.3204869556923</v>
+      </c>
+      <c r="C2470" s="3" t="n">
+        <v>24.6417249535394</v>
+      </c>
+      <c r="D2470" s="3" t="n">
+        <v>24.1998439298531</v>
+      </c>
     </row>
     <row r="2471">
-      <c r="A2471" s="6"/>
-      <c r="B2471" s="3"/>
-      <c r="C2471" s="3"/>
-      <c r="D2471" s="3"/>
+      <c r="A2471" s="16" t="n">
+        <v>45192</v>
+      </c>
+      <c r="B2471" s="3" t="n">
+        <v>22.3135874492961</v>
+      </c>
+      <c r="C2471" s="3" t="n">
+        <v>24.6271805603007</v>
+      </c>
+      <c r="D2471" s="3" t="n">
+        <v>24.195897854954</v>
+      </c>
     </row>
     <row r="2472">
-      <c r="A2472" s="6"/>
-      <c r="B2472" s="3"/>
-      <c r="C2472" s="3"/>
-      <c r="D2472" s="3"/>
+      <c r="A2472" s="16" t="n">
+        <v>45193</v>
+      </c>
+      <c r="B2472" s="3" t="n">
+        <v>22.323363605541</v>
+      </c>
+      <c r="C2472" s="3" t="n">
+        <v>24.6275457527624</v>
+      </c>
+      <c r="D2472" s="3" t="n">
+        <v>24.1992673308427</v>
+      </c>
     </row>
     <row r="2473">
-      <c r="A2473" s="6"/>
-      <c r="B2473" s="3"/>
-      <c r="C2473" s="3"/>
-      <c r="D2473" s="3"/>
+      <c r="A2473" s="16" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B2473" s="3" t="n">
+        <v>22.3231004579558</v>
+      </c>
+      <c r="C2473" s="3" t="n">
+        <v>24.6284738675958</v>
+      </c>
+      <c r="D2473" s="3" t="n">
+        <v>24.1906606136506</v>
+      </c>
     </row>
     <row r="2474">
-      <c r="A2474" s="6"/>
-      <c r="B2474" s="3"/>
-      <c r="C2474" s="3"/>
-      <c r="D2474" s="3"/>
+      <c r="A2474" s="16" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B2474" s="3" t="n">
+        <v>22.3214655130978</v>
+      </c>
+      <c r="C2474" s="3" t="n">
+        <v>24.6294560741249</v>
+      </c>
+      <c r="D2474" s="3" t="n">
+        <v>24.1874432989691</v>
+      </c>
     </row>
     <row r="2475">
-      <c r="A2475" s="6"/>
-      <c r="B2475" s="3"/>
-      <c r="C2475" s="3"/>
-      <c r="D2475" s="3"/>
+      <c r="A2475" s="16" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B2475" s="3" t="n">
+        <v>22.3315471590096</v>
+      </c>
+      <c r="C2475" s="3" t="n">
+        <v>24.6432810379919</v>
+      </c>
+      <c r="D2475" s="3" t="n">
+        <v>24.1947417649451</v>
+      </c>
     </row>
     <row r="2476">
-      <c r="A2476" s="6"/>
-      <c r="B2476" s="3"/>
-      <c r="C2476" s="3"/>
-      <c r="D2476" s="3"/>
+      <c r="A2476" s="16" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B2476" s="3" t="n">
+        <v>22.3281432265479</v>
+      </c>
+      <c r="C2476" s="3" t="n">
+        <v>24.6472485817432</v>
+      </c>
+      <c r="D2476" s="3" t="n">
+        <v>24.187749659864</v>
+      </c>
     </row>
     <row r="2477">
-      <c r="A2477" s="6"/>
-      <c r="B2477" s="3"/>
-      <c r="C2477" s="3"/>
-      <c r="D2477" s="3"/>
+      <c r="A2477" s="16" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B2477" s="3" t="n">
+        <v>22.3342173350582</v>
+      </c>
+      <c r="C2477" s="3" t="n">
+        <v>24.644764353042</v>
+      </c>
+      <c r="D2477" s="3" t="n">
+        <v>24.1997985347985</v>
+      </c>
     </row>
     <row r="2478">
-      <c r="A2478" s="6"/>
-      <c r="B2478" s="3"/>
-      <c r="C2478" s="3"/>
-      <c r="D2478" s="3"/>
+      <c r="A2478" s="16" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B2478" s="3" t="n">
+        <v>22.3313507484168</v>
+      </c>
+      <c r="C2478" s="3" t="n">
+        <v>24.637290239726</v>
+      </c>
+      <c r="D2478" s="3" t="n">
+        <v>24.198352284264</v>
+      </c>
     </row>
     <row r="2479">
-      <c r="A2479" s="6"/>
-      <c r="B2479" s="3"/>
-      <c r="C2479" s="3"/>
-      <c r="D2479" s="3"/>
+      <c r="A2479" s="16" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B2479" s="3" t="n">
+        <v>22.3358259608412</v>
+      </c>
+      <c r="C2479" s="3" t="n">
+        <v>24.6349669966997</v>
+      </c>
+      <c r="D2479" s="3" t="n">
+        <v>24.2040669412976</v>
+      </c>
     </row>
     <row r="2480">
-      <c r="A2480" s="6"/>
-      <c r="B2480" s="3"/>
-      <c r="C2480" s="3"/>
-      <c r="D2480" s="3"/>
+      <c r="A2480" s="16" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B2480" s="3" t="n">
+        <v>22.3387090461003</v>
+      </c>
+      <c r="C2480" s="3" t="n">
+        <v>24.632625240007</v>
+      </c>
+      <c r="D2480" s="3" t="n">
+        <v>24.2035471581549</v>
+      </c>
     </row>
     <row r="2481">
-      <c r="A2481" s="6"/>
-      <c r="B2481" s="3"/>
-      <c r="C2481" s="3"/>
-      <c r="D2481" s="3"/>
+      <c r="A2481" s="16" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B2481" s="3" t="n">
+        <v>22.3317398164085</v>
+      </c>
+      <c r="C2481" s="3" t="n">
+        <v>24.6368480316314</v>
+      </c>
+      <c r="D2481" s="3" t="n">
+        <v>24.211439118123</v>
+      </c>
     </row>
     <row r="2482">
-      <c r="A2482" s="6"/>
-      <c r="B2482" s="3"/>
-      <c r="C2482" s="3"/>
-      <c r="D2482" s="3"/>
+      <c r="A2482" s="16" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B2482" s="3" t="n">
+        <v>22.3139184522965</v>
+      </c>
+      <c r="C2482" s="3" t="n">
+        <v>24.6396490179334</v>
+      </c>
+      <c r="D2482" s="3" t="n">
+        <v>24.2125904819036</v>
+      </c>
     </row>
     <row r="2483">
-      <c r="A2483" s="6"/>
-      <c r="B2483" s="3"/>
-      <c r="C2483" s="3"/>
-      <c r="D2483" s="3"/>
+      <c r="A2483" s="16" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B2483" s="3" t="n">
+        <v>22.2984915358136</v>
+      </c>
+      <c r="C2483" s="3" t="n">
+        <v>24.6267779870982</v>
+      </c>
+      <c r="D2483" s="3" t="n">
+        <v>24.2184494112952</v>
+      </c>
     </row>
     <row r="2484">
-      <c r="A2484" s="6"/>
-      <c r="B2484" s="3"/>
-      <c r="C2484" s="3"/>
-      <c r="D2484" s="3"/>
+      <c r="A2484" s="16" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B2484" s="3" t="n">
+        <v>22.2733721535767</v>
+      </c>
+      <c r="C2484" s="3" t="n">
+        <v>24.6276508963013</v>
+      </c>
+      <c r="D2484" s="3" t="n">
+        <v>24.2144319314331</v>
+      </c>
     </row>
     <row r="2485">
-      <c r="A2485" s="6"/>
-      <c r="B2485" s="3"/>
-      <c r="C2485" s="3"/>
-      <c r="D2485" s="3"/>
+      <c r="A2485" s="16" t="n">
+        <v>45206</v>
+      </c>
+      <c r="B2485" s="3" t="n">
+        <v>22.2549541720093</v>
+      </c>
+      <c r="C2485" s="3" t="n">
+        <v>24.6158106556436</v>
+      </c>
+      <c r="D2485" s="3" t="n">
+        <v>24.1859642466503</v>
+      </c>
     </row>
     <row r="2486">
-      <c r="A2486" s="6"/>
-      <c r="B2486" s="3"/>
-      <c r="C2486" s="3"/>
-      <c r="D2486" s="3"/>
+      <c r="A2486" s="16" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B2486" s="3" t="n">
+        <v>22.2452854065697</v>
+      </c>
+      <c r="C2486" s="3" t="n">
+        <v>24.6122998699302</v>
+      </c>
+      <c r="D2486" s="3" t="n">
+        <v>24.1847884601869</v>
+      </c>
     </row>
     <row r="2487">
-      <c r="A2487" s="6"/>
-      <c r="B2487" s="3"/>
-      <c r="C2487" s="3"/>
-      <c r="D2487" s="3"/>
+      <c r="A2487" s="16" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B2487" s="3" t="n">
+        <v>22.2286278148973</v>
+      </c>
+      <c r="C2487" s="3" t="n">
+        <v>24.6002866642703</v>
+      </c>
+      <c r="D2487" s="3" t="n">
+        <v>24.1760578158458</v>
+      </c>
     </row>
     <row r="2488">
-      <c r="A2488" s="6"/>
-      <c r="B2488" s="3"/>
-      <c r="C2488" s="3"/>
-      <c r="D2488" s="3"/>
+      <c r="A2488" s="16" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B2488" s="3" t="n">
+        <v>22.2172301772842</v>
+      </c>
+      <c r="C2488" s="3" t="n">
+        <v>24.5840990990991</v>
+      </c>
+      <c r="D2488" s="3" t="n">
+        <v>24.1576209677419</v>
+      </c>
     </row>
     <row r="2489">
-      <c r="A2489" s="6"/>
-      <c r="B2489" s="3"/>
-      <c r="C2489" s="3"/>
-      <c r="D2489" s="3"/>
+      <c r="A2489" s="16" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B2489" s="3" t="n">
+        <v>22.2107426246185</v>
+      </c>
+      <c r="C2489" s="3" t="n">
+        <v>24.5811197416652</v>
+      </c>
+      <c r="D2489" s="3" t="n">
+        <v>24.1550869380831</v>
+      </c>
     </row>
     <row r="2490">
-      <c r="A2490" s="6"/>
-      <c r="B2490" s="3"/>
-      <c r="C2490" s="3"/>
-      <c r="D2490" s="3"/>
+      <c r="A2490" s="16" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B2490" s="3" t="n">
+        <v>22.182923145933</v>
+      </c>
+      <c r="C2490" s="3" t="n">
+        <v>24.5761635614475</v>
+      </c>
+      <c r="D2490" s="3" t="n">
+        <v>24.1373358695652</v>
+      </c>
     </row>
     <row r="2491">
-      <c r="A2491" s="6"/>
-      <c r="B2491" s="3"/>
-      <c r="C2491" s="3"/>
-      <c r="D2491" s="3"/>
+      <c r="A2491" s="16" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B2491" s="3" t="n">
+        <v>22.1577523215101</v>
+      </c>
+      <c r="C2491" s="3" t="n">
+        <v>24.5749889482409</v>
+      </c>
+      <c r="D2491" s="3" t="n">
+        <v>24.1135863062265</v>
+      </c>
     </row>
     <row r="2492">
-      <c r="A2492" s="6"/>
-      <c r="B2492" s="3"/>
-      <c r="C2492" s="3"/>
-      <c r="D2492" s="3"/>
+      <c r="A2492" s="16" t="n">
+        <v>45213</v>
+      </c>
+      <c r="B2492" s="3" t="n">
+        <v>22.137450023245</v>
+      </c>
+      <c r="C2492" s="3" t="n">
+        <v>24.563060743256</v>
+      </c>
+      <c r="D2492" s="3" t="n">
+        <v>24.1228141213625</v>
+      </c>
     </row>
     <row r="2493">
-      <c r="A2493" s="6"/>
-      <c r="B2493" s="3"/>
-      <c r="C2493" s="3"/>
-      <c r="D2493" s="3"/>
+      <c r="A2493" s="16" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B2493" s="3" t="n">
+        <v>22.1155813767769</v>
+      </c>
+      <c r="C2493" s="3" t="n">
+        <v>24.5501538310798</v>
+      </c>
+      <c r="D2493" s="3" t="n">
+        <v>24.1184811890386</v>
+      </c>
     </row>
     <row r="2494">
-      <c r="A2494" s="6"/>
-      <c r="B2494" s="3"/>
-      <c r="C2494" s="3"/>
-      <c r="D2494" s="3"/>
+      <c r="A2494" s="16" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B2494" s="3" t="n">
+        <v>22.1103316709567</v>
+      </c>
+      <c r="C2494" s="3" t="n">
+        <v>24.5316203703704</v>
+      </c>
+      <c r="D2494" s="3" t="n">
+        <v>24.1229210711769</v>
+      </c>
     </row>
     <row r="2495">
-      <c r="A2495" s="6"/>
-      <c r="B2495" s="3"/>
-      <c r="C2495" s="3"/>
-      <c r="D2495" s="3"/>
+      <c r="A2495" s="16" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B2495" s="3" t="n">
+        <v>22.1577435330067</v>
+      </c>
+      <c r="C2495" s="3" t="n">
+        <v>24.5372364093635</v>
+      </c>
+      <c r="D2495" s="3" t="n">
+        <v>24.156620412844</v>
+      </c>
     </row>
     <row r="2496">
-      <c r="A2496" s="6"/>
-      <c r="B2496" s="3"/>
-      <c r="C2496" s="3"/>
-      <c r="D2496" s="3"/>
+      <c r="A2496" s="16" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B2496" s="3" t="n">
+        <v>22.204392801252</v>
+      </c>
+      <c r="C2496" s="3" t="n">
+        <v>24.5506009889692</v>
+      </c>
+      <c r="D2496" s="3" t="n">
+        <v>24.1829723606706</v>
+      </c>
     </row>
     <row r="2497">
-      <c r="A2497" s="6"/>
-      <c r="B2497" s="3"/>
-      <c r="C2497" s="3"/>
-      <c r="D2497" s="3"/>
+      <c r="A2497" s="16" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B2497" s="3" t="n">
+        <v>22.2299431198379</v>
+      </c>
+      <c r="C2497" s="3" t="n">
+        <v>24.5444839688864</v>
+      </c>
+      <c r="D2497" s="3" t="n">
+        <v>24.2009122298953</v>
+      </c>
     </row>
     <row r="2498">
-      <c r="A2498" s="6"/>
-      <c r="B2498" s="3"/>
-      <c r="C2498" s="3"/>
-      <c r="D2498" s="3"/>
+      <c r="A2498" s="16" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B2498" s="3" t="n">
+        <v>22.279591955772</v>
+      </c>
+      <c r="C2498" s="3" t="n">
+        <v>24.5836845501475</v>
+      </c>
+      <c r="D2498" s="3" t="n">
+        <v>24.2275895196507</v>
+      </c>
     </row>
     <row r="2499">
-      <c r="A2499" s="6"/>
-      <c r="B2499" s="3"/>
-      <c r="C2499" s="3"/>
-      <c r="D2499" s="3"/>
+      <c r="A2499" s="16" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B2499" s="3" t="n">
+        <v>22.3092484295543</v>
+      </c>
+      <c r="C2499" s="3" t="n">
+        <v>24.5860200364299</v>
+      </c>
+      <c r="D2499" s="3" t="n">
+        <v>24.2384662045061</v>
+      </c>
     </row>
     <row r="2500">
-      <c r="A2500" s="6"/>
-      <c r="B2500" s="3"/>
-      <c r="C2500" s="3"/>
-      <c r="D2500" s="3"/>
+      <c r="A2500" s="16" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B2500" s="3" t="n">
+        <v>22.3257878652355</v>
+      </c>
+      <c r="C2500" s="3" t="n">
+        <v>24.5915240986019</v>
+      </c>
+      <c r="D2500" s="3" t="n">
+        <v>24.2423085315296</v>
+      </c>
     </row>
     <row r="2501">
-      <c r="A2501" s="6"/>
-      <c r="B2501" s="3"/>
-      <c r="C2501" s="3"/>
-      <c r="D2501" s="3"/>
+      <c r="A2501" s="16" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B2501" s="3" t="n">
+        <v>22.3392233033564</v>
+      </c>
+      <c r="C2501" s="3" t="n">
+        <v>24.600982580294</v>
+      </c>
+      <c r="D2501" s="3" t="n">
+        <v>24.2478780068728</v>
+      </c>
     </row>
     <row r="2502">
-      <c r="A2502" s="6"/>
-      <c r="B2502" s="3"/>
-      <c r="C2502" s="3"/>
-      <c r="D2502" s="3"/>
+      <c r="A2502" s="16" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B2502" s="3" t="n">
+        <v>22.3740185813997</v>
+      </c>
+      <c r="C2502" s="3" t="n">
+        <v>24.6040630958572</v>
+      </c>
+      <c r="D2502" s="3" t="n">
+        <v>24.2590896962233</v>
+      </c>
     </row>
     <row r="2503">
-      <c r="A2503" s="6"/>
-      <c r="B2503" s="3"/>
-      <c r="C2503" s="3"/>
-      <c r="D2503" s="3"/>
+      <c r="A2503" s="16" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B2503" s="3" t="n">
+        <v>22.3986140544012</v>
+      </c>
+      <c r="C2503" s="3" t="n">
+        <v>24.6154702803107</v>
+      </c>
+      <c r="D2503" s="3" t="n">
+        <v>24.2622729091637</v>
+      </c>
     </row>
     <row r="2504">
-      <c r="A2504" s="6"/>
-      <c r="B2504" s="3"/>
-      <c r="C2504" s="3"/>
-      <c r="D2504" s="3"/>
+      <c r="A2504" s="16" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B2504" s="3" t="n">
+        <v>22.4162089296966</v>
+      </c>
+      <c r="C2504" s="3" t="n">
+        <v>24.620481987992</v>
+      </c>
+      <c r="D2504" s="3" t="n">
+        <v>24.2542091786488</v>
+      </c>
     </row>
     <row r="2505">
-      <c r="A2505" s="6"/>
-      <c r="B2505" s="3"/>
-      <c r="C2505" s="3"/>
-      <c r="D2505" s="3"/>
+      <c r="A2505" s="16" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B2505" s="3" t="n">
+        <v>22.4235713020764</v>
+      </c>
+      <c r="C2505" s="3" t="n">
+        <v>24.6169991687448</v>
+      </c>
+      <c r="D2505" s="3" t="n">
+        <v>24.2431004281822</v>
+      </c>
     </row>
     <row r="2506">
-      <c r="A2506" s="6"/>
-      <c r="B2506" s="3"/>
-      <c r="C2506" s="3"/>
-      <c r="D2506" s="3"/>
+      <c r="A2506" s="16" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B2506" s="3" t="n">
+        <v>22.4156522886163</v>
+      </c>
+      <c r="C2506" s="3" t="n">
+        <v>24.6083554706957</v>
+      </c>
+      <c r="D2506" s="3" t="n">
+        <v>24.2425131655939</v>
+      </c>
     </row>
     <row r="2507">
-      <c r="A2507" s="6"/>
-      <c r="B2507" s="3"/>
-      <c r="C2507" s="3"/>
-      <c r="D2507" s="3"/>
+      <c r="A2507" s="16" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B2507" s="3" t="n">
+        <v>22.4130246586239</v>
+      </c>
+      <c r="C2507" s="3" t="n">
+        <v>24.6044740379768</v>
+      </c>
+      <c r="D2507" s="3" t="n">
+        <v>24.2324804648367</v>
+      </c>
     </row>
     <row r="2508">
-      <c r="A2508" s="6"/>
-      <c r="B2508" s="3"/>
-      <c r="C2508" s="3"/>
-      <c r="D2508" s="3"/>
+      <c r="A2508" s="16" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B2508" s="3" t="n">
+        <v>22.4090591896186</v>
+      </c>
+      <c r="C2508" s="3" t="n">
+        <v>24.6050167954316</v>
+      </c>
+      <c r="D2508" s="3" t="n">
+        <v>24.230275944811</v>
+      </c>
     </row>
     <row r="2509">
-      <c r="A2509" s="6"/>
-      <c r="B2509" s="3"/>
-      <c r="C2509" s="3"/>
-      <c r="D2509" s="3"/>
+      <c r="A2509" s="16" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B2509" s="3" t="n">
+        <v>22.395802679979</v>
+      </c>
+      <c r="C2509" s="3" t="n">
+        <v>24.5973112033195</v>
+      </c>
+      <c r="D2509" s="3" t="n">
+        <v>24.2184407216495</v>
+      </c>
     </row>
     <row r="2510">
-      <c r="A2510" s="6"/>
-      <c r="B2510" s="3"/>
-      <c r="C2510" s="3"/>
-      <c r="D2510" s="3"/>
+      <c r="A2510" s="16" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B2510" s="3" t="n">
+        <v>22.3716721204189</v>
+      </c>
+      <c r="C2510" s="3" t="n">
+        <v>24.5850364178116</v>
+      </c>
+      <c r="D2510" s="3" t="n">
+        <v>24.2064396192742</v>
+      </c>
     </row>
     <row r="2511">
-      <c r="A2511" s="6"/>
-      <c r="B2511" s="3"/>
-      <c r="C2511" s="3"/>
-      <c r="D2511" s="3"/>
+      <c r="A2511" s="16" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B2511" s="3" t="n">
+        <v>22.3453005823372</v>
+      </c>
+      <c r="C2511" s="3" t="n">
+        <v>24.5686724627989</v>
+      </c>
+      <c r="D2511" s="3" t="n">
+        <v>24.1947159090909</v>
+      </c>
     </row>
     <row r="2512">
-      <c r="A2512" s="6"/>
-      <c r="B2512" s="3"/>
-      <c r="C2512" s="3"/>
-      <c r="D2512" s="3"/>
+      <c r="A2512" s="16" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B2512" s="3" t="n">
+        <v>22.3150149954362</v>
+      </c>
+      <c r="C2512" s="3" t="n">
+        <v>24.538200485089</v>
+      </c>
+      <c r="D2512" s="3" t="n">
+        <v>24.1819038155803</v>
+      </c>
     </row>
     <row r="2513">
-      <c r="A2513" s="6"/>
-      <c r="B2513" s="3"/>
-      <c r="C2513" s="3"/>
-      <c r="D2513" s="3"/>
+      <c r="A2513" s="16" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B2513" s="3" t="n">
+        <v>22.2946830665105</v>
+      </c>
+      <c r="C2513" s="3" t="n">
+        <v>24.5274087550998</v>
+      </c>
+      <c r="D2513" s="3" t="n">
+        <v>24.1795036028823</v>
+      </c>
     </row>
     <row r="2514">
-      <c r="A2514" s="6"/>
-      <c r="B2514" s="3"/>
-      <c r="C2514" s="3"/>
-      <c r="D2514" s="3"/>
+      <c r="A2514" s="16" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B2514" s="3" t="n">
+        <v>22.2923587127159</v>
+      </c>
+      <c r="C2514" s="3" t="n">
+        <v>24.5227301109439</v>
+      </c>
+      <c r="D2514" s="3" t="n">
+        <v>24.179176056338</v>
+      </c>
     </row>
     <row r="2515">
-      <c r="A2515" s="6"/>
-      <c r="B2515" s="3"/>
-      <c r="C2515" s="3"/>
-      <c r="D2515" s="3"/>
+      <c r="A2515" s="16" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B2515" s="3" t="n">
+        <v>22.2868948607297</v>
+      </c>
+      <c r="C2515" s="3" t="n">
+        <v>24.5144899100006</v>
+      </c>
+      <c r="D2515" s="3" t="n">
+        <v>24.177096351542</v>
+      </c>
     </row>
     <row r="2516">
-      <c r="A2516" s="6"/>
-      <c r="B2516" s="3"/>
-      <c r="C2516" s="3"/>
-      <c r="D2516" s="3"/>
+      <c r="A2516" s="16" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B2516" s="3" t="n">
+        <v>22.2746134355509</v>
+      </c>
+      <c r="C2516" s="3" t="n">
+        <v>24.4757960609561</v>
+      </c>
+      <c r="D2516" s="3" t="n">
+        <v>24.169046429523</v>
+      </c>
     </row>
     <row r="2517">
-      <c r="A2517" s="6"/>
-      <c r="B2517" s="3"/>
-      <c r="C2517" s="3"/>
-      <c r="D2517" s="3"/>
+      <c r="A2517" s="16" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B2517" s="3" t="n">
+        <v>22.2543903519878</v>
+      </c>
+      <c r="C2517" s="3" t="n">
+        <v>24.4947315400844</v>
+      </c>
+      <c r="D2517" s="3" t="n">
+        <v>24.1664357822066</v>
+      </c>
     </row>
     <row r="2518">
-      <c r="A2518" s="6"/>
-      <c r="B2518" s="3"/>
-      <c r="C2518" s="3"/>
-      <c r="D2518" s="3"/>
+      <c r="A2518" s="16" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B2518" s="3" t="n">
+        <v>22.2236469322742</v>
+      </c>
+      <c r="C2518" s="3" t="n">
+        <v>24.4706845784854</v>
+      </c>
+      <c r="D2518" s="3" t="n">
+        <v>24.1537612655801</v>
+      </c>
     </row>
     <row r="2519">
-      <c r="A2519" s="6"/>
-      <c r="B2519" s="3"/>
-      <c r="C2519" s="3"/>
-      <c r="D2519" s="3"/>
+      <c r="A2519" s="16" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B2519" s="3" t="n">
+        <v>22.1972375423319</v>
+      </c>
+      <c r="C2519" s="3" t="n">
+        <v>24.4375446249499</v>
+      </c>
+      <c r="D2519" s="3" t="n">
+        <v>24.1287167478456</v>
+      </c>
     </row>
     <row r="2520">
-      <c r="A2520" s="6"/>
-      <c r="B2520" s="3"/>
-      <c r="C2520" s="3"/>
-      <c r="D2520" s="3"/>
+      <c r="A2520" s="16" t="n">
+        <v>45241</v>
+      </c>
+      <c r="B2520" s="3" t="n">
+        <v>22.2010610430185</v>
+      </c>
+      <c r="C2520" s="3" t="n">
+        <v>24.4307086809694</v>
+      </c>
+      <c r="D2520" s="3" t="n">
+        <v>24.1227094657919</v>
+      </c>
     </row>
     <row r="2521">
-      <c r="A2521" s="6"/>
-      <c r="B2521" s="3"/>
-      <c r="C2521" s="3"/>
-      <c r="D2521" s="3"/>
+      <c r="A2521" s="16" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B2521" s="3" t="n">
+        <v>22.204361509707</v>
+      </c>
+      <c r="C2521" s="3" t="n">
+        <v>24.4276348278103</v>
+      </c>
+      <c r="D2521" s="3" t="n">
+        <v>24.1212130623</v>
+      </c>
     </row>
     <row r="2522">
-      <c r="A2522" s="6"/>
-      <c r="B2522" s="3"/>
-      <c r="C2522" s="3"/>
-      <c r="D2522" s="3"/>
+      <c r="A2522" s="16" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B2522" s="3" t="n">
+        <v>22.2025470673425</v>
+      </c>
+      <c r="C2522" s="3" t="n">
+        <v>24.4192946410718</v>
+      </c>
+      <c r="D2522" s="3" t="n">
+        <v>24.1191301473366</v>
+      </c>
     </row>
     <row r="2523">
-      <c r="A2523" s="6"/>
-      <c r="B2523" s="3"/>
-      <c r="C2523" s="3"/>
-      <c r="D2523" s="3"/>
+      <c r="A2523" s="16" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B2523" s="3" t="n">
+        <v>22.215348323989</v>
+      </c>
+      <c r="C2523" s="3" t="n">
+        <v>24.4171606764285</v>
+      </c>
+      <c r="D2523" s="3" t="n">
+        <v>24.1171884328358</v>
+      </c>
     </row>
     <row r="2524">
-      <c r="A2524" s="6"/>
-      <c r="B2524" s="3"/>
-      <c r="C2524" s="3"/>
-      <c r="D2524" s="3"/>
+      <c r="A2524" s="16" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B2524" s="3" t="n">
+        <v>22.2359613784908</v>
+      </c>
+      <c r="C2524" s="3" t="n">
+        <v>24.4115907974858</v>
+      </c>
+      <c r="D2524" s="3" t="n">
+        <v>24.1237086891942</v>
+      </c>
     </row>
     <row r="2525">
-      <c r="A2525" s="6"/>
-      <c r="B2525" s="3"/>
-      <c r="C2525" s="3"/>
-      <c r="D2525" s="3"/>
+      <c r="A2525" s="16" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B2525" s="3" t="n">
+        <v>22.2350262123198</v>
+      </c>
+      <c r="C2525" s="3" t="n">
+        <v>24.4060976926853</v>
+      </c>
+      <c r="D2525" s="3" t="n">
+        <v>24.114703675919</v>
+      </c>
     </row>
     <row r="2526">
-      <c r="A2526" s="6"/>
-      <c r="B2526" s="3"/>
-      <c r="C2526" s="3"/>
-      <c r="D2526" s="3"/>
+      <c r="A2526" s="16" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B2526" s="3" t="n">
+        <v>22.2290904198062</v>
+      </c>
+      <c r="C2526" s="3" t="n">
+        <v>24.397631927091</v>
+      </c>
+      <c r="D2526" s="3" t="n">
+        <v>24.0979045168668</v>
+      </c>
     </row>
     <row r="2527">
-      <c r="A2527" s="6"/>
-      <c r="B2527" s="3"/>
-      <c r="C2527" s="3"/>
-      <c r="D2527" s="3"/>
+      <c r="A2527" s="16" t="n">
+        <v>45248</v>
+      </c>
+      <c r="B2527" s="3" t="n">
+        <v>22.2249626370978</v>
+      </c>
+      <c r="C2527" s="3" t="n">
+        <v>24.39018009409</v>
+      </c>
+      <c r="D2527" s="3" t="n">
+        <v>24.0935571705426</v>
+      </c>
     </row>
     <row r="2528">
-      <c r="A2528" s="6"/>
-      <c r="B2528" s="3"/>
-      <c r="C2528" s="3"/>
-      <c r="D2528" s="3"/>
+      <c r="A2528" s="16" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B2528" s="3" t="n">
+        <v>22.2091627649088</v>
+      </c>
+      <c r="C2528" s="3" t="n">
+        <v>24.3681935240964</v>
+      </c>
+      <c r="D2528" s="3" t="n">
+        <v>24.077821920543</v>
+      </c>
     </row>
     <row r="2529">
-      <c r="A2529" s="6"/>
-      <c r="B2529" s="3"/>
-      <c r="C2529" s="3"/>
-      <c r="D2529" s="3"/>
+      <c r="A2529" s="16" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B2529" s="3" t="n">
+        <v>22.2077661978905</v>
+      </c>
+      <c r="C2529" s="3" t="n">
+        <v>24.3670147420147</v>
+      </c>
+      <c r="D2529" s="3" t="n">
+        <v>24.0672974358974</v>
+      </c>
     </row>
     <row r="2530">
-      <c r="A2530" s="6"/>
-      <c r="B2530" s="3"/>
-      <c r="C2530" s="3"/>
-      <c r="D2530" s="3"/>
+      <c r="A2530" s="16" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B2530" s="3" t="n">
+        <v>22.2103902439024</v>
+      </c>
+      <c r="C2530" s="3" t="n">
+        <v>24.3594961003211</v>
+      </c>
+      <c r="D2530" s="3" t="n">
+        <v>24.0683979987748</v>
+      </c>
     </row>
     <row r="2531">
-      <c r="A2531" s="6"/>
-      <c r="B2531" s="3"/>
-      <c r="C2531" s="3"/>
-      <c r="D2531" s="3"/>
+      <c r="A2531" s="16" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B2531" s="3" t="n">
+        <v>22.2068198231852</v>
+      </c>
+      <c r="C2531" s="3" t="n">
+        <v>24.3466790198155</v>
+      </c>
+      <c r="D2531" s="3" t="n">
+        <v>24.0635827175698</v>
+      </c>
     </row>
     <row r="2532">
-      <c r="A2532" s="6"/>
-      <c r="B2532" s="3"/>
-      <c r="C2532" s="3"/>
-      <c r="D2532" s="3"/>
+      <c r="A2532" s="16" t="n">
+        <v>45253</v>
+      </c>
+      <c r="B2532" s="3" t="n">
+        <v>22.1867080626672</v>
+      </c>
+      <c r="C2532" s="3" t="n">
+        <v>24.330367681137</v>
+      </c>
+      <c r="D2532" s="3" t="n">
+        <v>24.0663422889782</v>
+      </c>
     </row>
     <row r="2533">
-      <c r="A2533" s="6"/>
-      <c r="B2533" s="3"/>
-      <c r="C2533" s="3"/>
-      <c r="D2533" s="3"/>
+      <c r="A2533" s="16" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B2533" s="3" t="n">
+        <v>22.1841609962768</v>
+      </c>
+      <c r="C2533" s="3" t="n">
+        <v>24.3211571782178</v>
+      </c>
+      <c r="D2533" s="3" t="n">
+        <v>24.0698062180579</v>
+      </c>
     </row>
     <row r="2534">
-      <c r="A2534" s="6"/>
-      <c r="B2534" s="3"/>
-      <c r="C2534" s="3"/>
-      <c r="D2534" s="3"/>
+      <c r="A2534" s="16" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B2534" s="3" t="n">
+        <v>22.1744355259723</v>
+      </c>
+      <c r="C2534" s="3" t="n">
+        <v>24.3058622312882</v>
+      </c>
+      <c r="D2534" s="3" t="n">
+        <v>24.0775812431843</v>
+      </c>
     </row>
     <row r="2535">
-      <c r="A2535" s="6"/>
-      <c r="B2535" s="3"/>
-      <c r="C2535" s="3"/>
-      <c r="D2535" s="3"/>
+      <c r="A2535" s="16" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B2535" s="3" t="n">
+        <v>22.1649706078824</v>
+      </c>
+      <c r="C2535" s="3" t="n">
+        <v>24.2997209785737</v>
+      </c>
+      <c r="D2535" s="3" t="n">
+        <v>24.0781958073149</v>
+      </c>
     </row>
     <row r="2536">
-      <c r="A2536" s="6"/>
-      <c r="B2536" s="3"/>
-      <c r="C2536" s="3"/>
-      <c r="D2536" s="3"/>
+      <c r="A2536" s="16" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B2536" s="3" t="n">
+        <v>22.1746817192601</v>
+      </c>
+      <c r="C2536" s="3" t="n">
+        <v>24.2969150485437</v>
+      </c>
+      <c r="D2536" s="3" t="n">
+        <v>24.081288788222</v>
+      </c>
     </row>
     <row r="2537">
-      <c r="A2537" s="6"/>
-      <c r="B2537" s="3"/>
-      <c r="C2537" s="3"/>
-      <c r="D2537" s="3"/>
+      <c r="A2537" s="16" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B2537" s="3" t="n">
+        <v>22.1796239604406</v>
+      </c>
+      <c r="C2537" s="3" t="n">
+        <v>24.289139009139</v>
+      </c>
+      <c r="D2537" s="3" t="n">
+        <v>24.0934065076889</v>
+      </c>
     </row>
     <row r="2538">
-      <c r="A2538" s="6"/>
-      <c r="B2538" s="3"/>
-      <c r="C2538" s="3"/>
-      <c r="D2538" s="3"/>
+      <c r="A2538" s="16" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B2538" s="3" t="n">
+        <v>22.1739946302062</v>
+      </c>
+      <c r="C2538" s="3" t="n">
+        <v>24.2773209169054</v>
+      </c>
+      <c r="D2538" s="3" t="n">
+        <v>24.095822616408</v>
+      </c>
     </row>
     <row r="2539">
-      <c r="A2539" s="6"/>
-      <c r="B2539" s="3"/>
-      <c r="C2539" s="3"/>
-      <c r="D2539" s="3"/>
+      <c r="A2539" s="16" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B2539" s="3" t="n">
+        <v>22.1693692286801</v>
+      </c>
+      <c r="C2539" s="3" t="n">
+        <v>24.2723428525846</v>
+      </c>
+      <c r="D2539" s="3" t="n">
+        <v>24.1026115922718</v>
+      </c>
     </row>
     <row r="2540">
-      <c r="A2540" s="6"/>
-      <c r="B2540" s="3"/>
-      <c r="C2540" s="3"/>
-      <c r="D2540" s="3"/>
+      <c r="A2540" s="16"/>
+      <c r="B2540" s="3" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="C2540" s="3" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="D2540" s="3" t="n">
+        <v>24.11</v>
+      </c>
     </row>
     <row r="2541">
-      <c r="A2541" s="6"/>
-      <c r="B2541" s="3"/>
-      <c r="C2541" s="3"/>
-      <c r="D2541" s="3"/>
+      <c r="A2541" s="16"/>
+      <c r="B2541" s="3" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="C2541" s="3" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="D2541" s="3" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="2542">
-      <c r="A2542" s="6"/>
-      <c r="B2542" s="3"/>
-      <c r="C2542" s="3"/>
-      <c r="D2542" s="3"/>
+      <c r="A2542" s="16"/>
+      <c r="B2542" s="3" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C2542" s="3" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="D2542" s="3" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="2543">
-      <c r="A2543" s="6"/>
-      <c r="B2543" s="3"/>
-      <c r="C2543" s="3"/>
-      <c r="D2543" s="3"/>
+      <c r="A2543" s="16"/>
+      <c r="B2543" s="3" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C2543" s="3" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="D2543" s="3" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="2544">
-      <c r="A2544" s="6"/>
-      <c r="B2544" s="3"/>
-      <c r="C2544" s="3"/>
-      <c r="D2544" s="3"/>
+      <c r="A2544" s="16"/>
+      <c r="B2544" s="3" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="C2544" s="3" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="D2544" s="3" t="n">
+        <v>24.14</v>
+      </c>
     </row>
     <row r="2545">
-      <c r="A2545" s="6"/>
-      <c r="B2545" s="3"/>
-      <c r="C2545" s="3"/>
-      <c r="D2545" s="3"/>
+      <c r="A2545" s="16"/>
+      <c r="B2545" s="3" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="C2545" s="3" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="D2545" s="3" t="n">
+        <v>24.14</v>
+      </c>
     </row>
     <row r="2546">
-      <c r="A2546" s="6"/>
-      <c r="B2546" s="3"/>
-      <c r="C2546" s="3"/>
-      <c r="D2546" s="3"/>
+      <c r="A2546" s="16"/>
+      <c r="B2546" s="3" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="C2546" s="3" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D2546" s="3" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="2547">
-      <c r="A2547" s="6"/>
-      <c r="B2547" s="3"/>
-      <c r="C2547" s="3"/>
-      <c r="D2547" s="3"/>
+      <c r="A2547" s="16"/>
+      <c r="B2547" s="3" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="C2547" s="3" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D2547" s="3" t="n">
+        <v>24.12</v>
+      </c>
     </row>
     <row r="2548">
-      <c r="A2548" s="6"/>
-      <c r="B2548" s="3"/>
-      <c r="C2548" s="3"/>
-      <c r="D2548" s="3"/>
+      <c r="A2548" s="16"/>
+      <c r="B2548" s="3" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="C2548" s="3" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D2548" s="3" t="n">
+        <v>24.12</v>
+      </c>
     </row>
     <row r="2549">
-      <c r="A2549" s="6"/>
-      <c r="B2549" s="3"/>
-      <c r="C2549" s="3"/>
-      <c r="D2549" s="3"/>
+      <c r="A2549" s="16"/>
+      <c r="B2549" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2549" s="3" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="D2549" s="3" t="n">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="2550">
-      <c r="A2550" s="6"/>
-      <c r="B2550" s="3"/>
-      <c r="C2550" s="3"/>
-      <c r="D2550" s="3"/>
+      <c r="A2550" s="16"/>
+      <c r="B2550" s="3" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="C2550" s="3" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D2550" s="3" t="n">
+        <v>24.09</v>
+      </c>
     </row>
     <row r="2551">
-      <c r="A2551" s="6"/>
-      <c r="B2551" s="3"/>
-      <c r="C2551" s="3"/>
-      <c r="D2551" s="3"/>
+      <c r="A2551" s="16"/>
+      <c r="B2551" s="3" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="C2551" s="3" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="D2551" s="3" t="n">
+        <v>24.09</v>
+      </c>
     </row>
     <row r="2552">
-      <c r="A2552" s="6"/>
-      <c r="B2552" s="3"/>
-      <c r="C2552" s="3"/>
-      <c r="D2552" s="3"/>
+      <c r="A2552" s="16"/>
+      <c r="B2552" s="3" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="C2552" s="3" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="D2552" s="3" t="n">
+        <v>24.08</v>
+      </c>
     </row>
     <row r="2553">
-      <c r="A2553" s="6"/>
-      <c r="B2553" s="3"/>
-      <c r="C2553" s="3"/>
-      <c r="D2553" s="3"/>
+      <c r="A2553" s="16"/>
+      <c r="B2553" s="3" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C2553" s="3" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D2553" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2554">
-      <c r="A2554" s="6"/>
-      <c r="B2554" s="3"/>
-      <c r="C2554" s="3"/>
-      <c r="D2554" s="3"/>
+      <c r="A2554" s="16"/>
+      <c r="B2554" s="3" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C2554" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2554" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2555">
-      <c r="A2555" s="6"/>
-      <c r="B2555" s="3"/>
-      <c r="C2555" s="3"/>
-      <c r="D2555" s="3"/>
+      <c r="A2555" s="16"/>
+      <c r="B2555" s="3" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C2555" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2555" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2556">
-      <c r="A2556" s="6"/>
-      <c r="B2556" s="3"/>
-      <c r="C2556" s="3"/>
-      <c r="D2556" s="3"/>
+      <c r="A2556" s="16"/>
+      <c r="B2556" s="3" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="C2556" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2556" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2557">
-      <c r="A2557" s="6"/>
-      <c r="B2557" s="3"/>
-      <c r="C2557" s="3"/>
-      <c r="D2557" s="3"/>
+      <c r="A2557" s="16"/>
+      <c r="B2557" s="3" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C2557" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2557" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2558">
-      <c r="A2558" s="6"/>
-      <c r="B2558" s="3"/>
-      <c r="C2558" s="3"/>
-      <c r="D2558" s="3"/>
+      <c r="A2558" s="16"/>
+      <c r="B2558" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2558" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2558" s="3" t="n">
+        <v>24.09</v>
+      </c>
     </row>
     <row r="2559">
-      <c r="A2559" s="6"/>
-      <c r="B2559" s="3"/>
-      <c r="C2559" s="3"/>
-      <c r="D2559" s="3"/>
+      <c r="A2559" s="16"/>
+      <c r="B2559" s="3" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C2559" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2559" s="3" t="n">
+        <v>24.11</v>
+      </c>
     </row>
     <row r="2560">
-      <c r="A2560" s="6"/>
-      <c r="B2560" s="3"/>
-      <c r="C2560" s="3"/>
-      <c r="D2560" s="3"/>
+      <c r="A2560" s="16"/>
+      <c r="B2560" s="3" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="C2560" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2560" s="3" t="n">
+        <v>24.15</v>
+      </c>
     </row>
     <row r="2561">
-      <c r="A2561" s="6"/>
-      <c r="B2561" s="3"/>
-      <c r="C2561" s="3"/>
-      <c r="D2561" s="3"/>
+      <c r="A2561" s="16"/>
+      <c r="B2561" s="3" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="C2561" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2561" s="3" t="n">
+        <v>24.17</v>
+      </c>
     </row>
     <row r="2562">
-      <c r="A2562" s="6"/>
-      <c r="B2562" s="3"/>
-      <c r="C2562" s="3"/>
-      <c r="D2562" s="3"/>
+      <c r="A2562" s="16"/>
+      <c r="B2562" s="3" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="C2562" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2562" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2563">
-      <c r="A2563" s="6"/>
-      <c r="B2563" s="3"/>
-      <c r="C2563" s="3"/>
-      <c r="D2563" s="3"/>
+      <c r="A2563" s="16"/>
+      <c r="B2563" s="3" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="C2563" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2563" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2564">
-      <c r="A2564" s="6"/>
-      <c r="B2564" s="3"/>
-      <c r="C2564" s="3"/>
-      <c r="D2564" s="3"/>
+      <c r="A2564" s="16"/>
+      <c r="B2564" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2564" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2564" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2565">
-      <c r="A2565" s="6"/>
-      <c r="B2565" s="3"/>
-      <c r="C2565" s="3"/>
-      <c r="D2565" s="3"/>
+      <c r="A2565" s="16"/>
+      <c r="B2565" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2565" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2565" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2566">
-      <c r="A2566" s="6"/>
-      <c r="B2566" s="3"/>
-      <c r="C2566" s="3"/>
-      <c r="D2566" s="3"/>
+      <c r="A2566" s="16"/>
+      <c r="B2566" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2566" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2566" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2567">
-      <c r="A2567" s="6"/>
-      <c r="B2567" s="3"/>
-      <c r="C2567" s="3"/>
-      <c r="D2567" s="3"/>
+      <c r="A2567" s="16"/>
+      <c r="B2567" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2567" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2567" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2568">
-      <c r="A2568" s="6"/>
-      <c r="B2568" s="3"/>
-      <c r="C2568" s="3"/>
-      <c r="D2568" s="3"/>
+      <c r="A2568" s="16"/>
+      <c r="B2568" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2568" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2568" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2569">
-      <c r="A2569" s="6"/>
-      <c r="B2569" s="3"/>
-      <c r="C2569" s="3"/>
-      <c r="D2569" s="3"/>
+      <c r="A2569" s="16"/>
+      <c r="B2569" s="3" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="C2569" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2569" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2570">
-      <c r="A2570" s="6"/>
-      <c r="B2570" s="3"/>
-      <c r="C2570" s="3"/>
-      <c r="D2570" s="3"/>
+      <c r="A2570" s="16"/>
+      <c r="B2570" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2570" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2570" s="3" t="n">
+        <v>24.19</v>
+      </c>
     </row>
     <row r="2571">
       <c r="A2571" s="6"/>
@@ -44879,43 +45793,99 @@
     </row>
     <row r="96">
       <c r="A96" s="6"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>23.017957915584</v>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>22.3333242169136</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>25.4951972043165</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>24.5939851447907</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>24.3718194522203</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>24.1657963993587</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="6"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>22.9708156726213</v>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>22.2853167222988</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>25.4542881083293</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>24.5953169783127</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>24.4335792504372</v>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>24.1993003807472</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="6"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>22.8530453336304</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>22.2282084984446</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>25.1729900611615</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>24.4089934522163</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>24.3516640085629</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>24.1196355291854</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="6"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>22.0887096774194</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>24.1335483870968</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>24.1293548387097</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - noviembre 2023</t>
+    <t xml:space="preserve">enero 2017 - diciembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: enero 2024</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">noviembre 2023</t>
+    <t xml:space="preserve">diciembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -40370,190 +40370,376 @@
       </c>
     </row>
     <row r="2540">
-      <c r="A2540" s="6"/>
-      <c r="B2540" s="3"/>
-      <c r="C2540" s="3"/>
-      <c r="D2540" s="3"/>
+      <c r="A2540" s="16"/>
+      <c r="B2540" s="3" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="C2540" s="3" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="D2540" s="3" t="n">
+        <v>24.11</v>
+      </c>
     </row>
     <row r="2541">
-      <c r="A2541" s="6"/>
-      <c r="B2541" s="3"/>
-      <c r="C2541" s="3"/>
-      <c r="D2541" s="3"/>
+      <c r="A2541" s="16"/>
+      <c r="B2541" s="3" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="C2541" s="3" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="D2541" s="3" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="2542">
-      <c r="A2542" s="6"/>
-      <c r="B2542" s="3"/>
-      <c r="C2542" s="3"/>
-      <c r="D2542" s="3"/>
+      <c r="A2542" s="16"/>
+      <c r="B2542" s="3" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C2542" s="3" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="D2542" s="3" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="2543">
-      <c r="A2543" s="6"/>
-      <c r="B2543" s="3"/>
-      <c r="C2543" s="3"/>
-      <c r="D2543" s="3"/>
+      <c r="A2543" s="16"/>
+      <c r="B2543" s="3" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="C2543" s="3" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="D2543" s="3" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="2544">
-      <c r="A2544" s="6"/>
-      <c r="B2544" s="3"/>
-      <c r="C2544" s="3"/>
-      <c r="D2544" s="3"/>
+      <c r="A2544" s="16"/>
+      <c r="B2544" s="3" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="C2544" s="3" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="D2544" s="3" t="n">
+        <v>24.14</v>
+      </c>
     </row>
     <row r="2545">
-      <c r="A2545" s="6"/>
-      <c r="B2545" s="3"/>
-      <c r="C2545" s="3"/>
-      <c r="D2545" s="3"/>
+      <c r="A2545" s="16"/>
+      <c r="B2545" s="3" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="C2545" s="3" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="D2545" s="3" t="n">
+        <v>24.14</v>
+      </c>
     </row>
     <row r="2546">
-      <c r="A2546" s="6"/>
-      <c r="B2546" s="3"/>
-      <c r="C2546" s="3"/>
-      <c r="D2546" s="3"/>
+      <c r="A2546" s="16"/>
+      <c r="B2546" s="3" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="C2546" s="3" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D2546" s="3" t="n">
+        <v>24.13</v>
+      </c>
     </row>
     <row r="2547">
-      <c r="A2547" s="6"/>
-      <c r="B2547" s="3"/>
-      <c r="C2547" s="3"/>
-      <c r="D2547" s="3"/>
+      <c r="A2547" s="16"/>
+      <c r="B2547" s="3" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="C2547" s="3" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D2547" s="3" t="n">
+        <v>24.12</v>
+      </c>
     </row>
     <row r="2548">
-      <c r="A2548" s="6"/>
-      <c r="B2548" s="3"/>
-      <c r="C2548" s="3"/>
-      <c r="D2548" s="3"/>
+      <c r="A2548" s="16"/>
+      <c r="B2548" s="3" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="C2548" s="3" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D2548" s="3" t="n">
+        <v>24.12</v>
+      </c>
     </row>
     <row r="2549">
-      <c r="A2549" s="6"/>
-      <c r="B2549" s="3"/>
-      <c r="C2549" s="3"/>
-      <c r="D2549" s="3"/>
+      <c r="A2549" s="16"/>
+      <c r="B2549" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2549" s="3" t="n">
+        <v>24.19</v>
+      </c>
+      <c r="D2549" s="3" t="n">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="2550">
-      <c r="A2550" s="6"/>
-      <c r="B2550" s="3"/>
-      <c r="C2550" s="3"/>
-      <c r="D2550" s="3"/>
+      <c r="A2550" s="16"/>
+      <c r="B2550" s="3" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="C2550" s="3" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D2550" s="3" t="n">
+        <v>24.09</v>
+      </c>
     </row>
     <row r="2551">
-      <c r="A2551" s="6"/>
-      <c r="B2551" s="3"/>
-      <c r="C2551" s="3"/>
-      <c r="D2551" s="3"/>
+      <c r="A2551" s="16"/>
+      <c r="B2551" s="3" t="n">
+        <v>22.06</v>
+      </c>
+      <c r="C2551" s="3" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="D2551" s="3" t="n">
+        <v>24.09</v>
+      </c>
     </row>
     <row r="2552">
-      <c r="A2552" s="6"/>
-      <c r="B2552" s="3"/>
-      <c r="C2552" s="3"/>
-      <c r="D2552" s="3"/>
+      <c r="A2552" s="16"/>
+      <c r="B2552" s="3" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="C2552" s="3" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="D2552" s="3" t="n">
+        <v>24.08</v>
+      </c>
     </row>
     <row r="2553">
-      <c r="A2553" s="6"/>
-      <c r="B2553" s="3"/>
-      <c r="C2553" s="3"/>
-      <c r="D2553" s="3"/>
+      <c r="A2553" s="16"/>
+      <c r="B2553" s="3" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C2553" s="3" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D2553" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2554">
-      <c r="A2554" s="6"/>
-      <c r="B2554" s="3"/>
-      <c r="C2554" s="3"/>
-      <c r="D2554" s="3"/>
+      <c r="A2554" s="16"/>
+      <c r="B2554" s="3" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C2554" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2554" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2555">
-      <c r="A2555" s="6"/>
-      <c r="B2555" s="3"/>
-      <c r="C2555" s="3"/>
-      <c r="D2555" s="3"/>
+      <c r="A2555" s="16"/>
+      <c r="B2555" s="3" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C2555" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2555" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2556">
-      <c r="A2556" s="6"/>
-      <c r="B2556" s="3"/>
-      <c r="C2556" s="3"/>
-      <c r="D2556" s="3"/>
+      <c r="A2556" s="16"/>
+      <c r="B2556" s="3" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="C2556" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2556" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2557">
-      <c r="A2557" s="6"/>
-      <c r="B2557" s="3"/>
-      <c r="C2557" s="3"/>
-      <c r="D2557" s="3"/>
+      <c r="A2557" s="16"/>
+      <c r="B2557" s="3" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="C2557" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2557" s="3" t="n">
+        <v>24.07</v>
+      </c>
     </row>
     <row r="2558">
-      <c r="A2558" s="6"/>
-      <c r="B2558" s="3"/>
-      <c r="C2558" s="3"/>
-      <c r="D2558" s="3"/>
+      <c r="A2558" s="16"/>
+      <c r="B2558" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2558" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2558" s="3" t="n">
+        <v>24.09</v>
+      </c>
     </row>
     <row r="2559">
-      <c r="A2559" s="6"/>
-      <c r="B2559" s="3"/>
-      <c r="C2559" s="3"/>
-      <c r="D2559" s="3"/>
+      <c r="A2559" s="16"/>
+      <c r="B2559" s="3" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="C2559" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2559" s="3" t="n">
+        <v>24.11</v>
+      </c>
     </row>
     <row r="2560">
-      <c r="A2560" s="6"/>
-      <c r="B2560" s="3"/>
-      <c r="C2560" s="3"/>
-      <c r="D2560" s="3"/>
+      <c r="A2560" s="16"/>
+      <c r="B2560" s="3" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="C2560" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2560" s="3" t="n">
+        <v>24.15</v>
+      </c>
     </row>
     <row r="2561">
-      <c r="A2561" s="6"/>
-      <c r="B2561" s="3"/>
-      <c r="C2561" s="3"/>
-      <c r="D2561" s="3"/>
+      <c r="A2561" s="16"/>
+      <c r="B2561" s="3" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="C2561" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2561" s="3" t="n">
+        <v>24.17</v>
+      </c>
     </row>
     <row r="2562">
-      <c r="A2562" s="6"/>
-      <c r="B2562" s="3"/>
-      <c r="C2562" s="3"/>
-      <c r="D2562" s="3"/>
+      <c r="A2562" s="16"/>
+      <c r="B2562" s="3" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="C2562" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2562" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2563">
-      <c r="A2563" s="6"/>
-      <c r="B2563" s="3"/>
-      <c r="C2563" s="3"/>
-      <c r="D2563" s="3"/>
+      <c r="A2563" s="16"/>
+      <c r="B2563" s="3" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="C2563" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2563" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2564">
-      <c r="A2564" s="6"/>
-      <c r="B2564" s="3"/>
-      <c r="C2564" s="3"/>
-      <c r="D2564" s="3"/>
+      <c r="A2564" s="16"/>
+      <c r="B2564" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2564" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2564" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2565">
-      <c r="A2565" s="6"/>
-      <c r="B2565" s="3"/>
-      <c r="C2565" s="3"/>
-      <c r="D2565" s="3"/>
+      <c r="A2565" s="16"/>
+      <c r="B2565" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2565" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2565" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2566">
-      <c r="A2566" s="6"/>
-      <c r="B2566" s="3"/>
-      <c r="C2566" s="3"/>
-      <c r="D2566" s="3"/>
+      <c r="A2566" s="16"/>
+      <c r="B2566" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2566" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2566" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2567">
-      <c r="A2567" s="6"/>
-      <c r="B2567" s="3"/>
-      <c r="C2567" s="3"/>
-      <c r="D2567" s="3"/>
+      <c r="A2567" s="16"/>
+      <c r="B2567" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2567" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2567" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2568">
-      <c r="A2568" s="6"/>
-      <c r="B2568" s="3"/>
-      <c r="C2568" s="3"/>
-      <c r="D2568" s="3"/>
+      <c r="A2568" s="16"/>
+      <c r="B2568" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2568" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2568" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2569">
-      <c r="A2569" s="6"/>
-      <c r="B2569" s="3"/>
-      <c r="C2569" s="3"/>
-      <c r="D2569" s="3"/>
+      <c r="A2569" s="16"/>
+      <c r="B2569" s="3" t="n">
+        <v>22.09</v>
+      </c>
+      <c r="C2569" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2569" s="3" t="n">
+        <v>24.18</v>
+      </c>
     </row>
     <row r="2570">
-      <c r="A2570" s="6"/>
-      <c r="B2570" s="3"/>
-      <c r="C2570" s="3"/>
-      <c r="D2570" s="3"/>
+      <c r="A2570" s="16"/>
+      <c r="B2570" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C2570" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2570" s="3" t="n">
+        <v>24.19</v>
+      </c>
     </row>
     <row r="2571">
       <c r="A2571" s="6"/>
@@ -45679,13 +45865,27 @@
     </row>
     <row r="99">
       <c r="A99" s="6"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+      <c r="B99" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>22.0887096774194</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>24.78</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>24.1335483870968</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>24.1293548387097</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1434">
   <si>
     <t>Periodicidad Mensual</t>
   </si>
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - diciembre 2023</t>
+    <t xml:space="preserve">enero 2017 - enero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2024</t>
+    <t xml:space="preserve">Próxima actualización: marzo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2023</t>
+    <t xml:space="preserve">enero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -4318,6 +4318,9 @@
   </si>
   <si>
     <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
   </si>
 </sst>
 </file>
@@ -40370,562 +40373,810 @@
       </c>
     </row>
     <row r="2540">
-      <c r="A2540" s="16"/>
+      <c r="A2540" s="16" t="n">
+        <v>45261</v>
+      </c>
       <c r="B2540" s="3" t="n">
+        <v>22.171738982126</v>
+      </c>
+      <c r="C2540" s="3" t="n">
+        <v>24.271960191083</v>
+      </c>
+      <c r="D2540" s="3" t="n">
+        <v>24.1133318515226</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" s="16" t="n">
+        <v>45262</v>
+      </c>
+      <c r="B2541" s="3" t="n">
+        <v>22.184081578246</v>
+      </c>
+      <c r="C2541" s="3" t="n">
+        <v>24.2797230889238</v>
+      </c>
+      <c r="D2541" s="3" t="n">
+        <v>24.1294391682855</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" s="16" t="n">
+        <v>45263</v>
+      </c>
+      <c r="B2542" s="3" t="n">
+        <v>22.1879981037521</v>
+      </c>
+      <c r="C2542" s="3" t="n">
+        <v>24.2785905138343</v>
+      </c>
+      <c r="D2542" s="3" t="n">
+        <v>24.132065907598</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" s="16" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B2543" s="3" t="n">
+        <v>22.1903543788189</v>
+      </c>
+      <c r="C2543" s="3" t="n">
+        <v>24.2831933038537</v>
+      </c>
+      <c r="D2543" s="3" t="n">
+        <v>24.1347674164665</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" s="16" t="n">
+        <v>45265</v>
+      </c>
+      <c r="B2544" s="3" t="n">
+        <v>22.1837624428305</v>
+      </c>
+      <c r="C2544" s="3" t="n">
+        <v>24.2713569758382</v>
+      </c>
+      <c r="D2544" s="3" t="n">
+        <v>24.1365982814179</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" s="16" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B2545" s="3" t="n">
+        <v>22.1712016795523</v>
+      </c>
+      <c r="C2545" s="3" t="n">
+        <v>24.2570680948739</v>
+      </c>
+      <c r="D2545" s="3" t="n">
+        <v>24.1390263991552</v>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" s="16" t="n">
+        <v>45267</v>
+      </c>
+      <c r="B2546" s="3" t="n">
+        <v>22.1551805389621</v>
+      </c>
+      <c r="C2546" s="3" t="n">
+        <v>24.2487701920149</v>
+      </c>
+      <c r="D2546" s="3" t="n">
+        <v>24.1309611344537</v>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" s="16" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B2547" s="3" t="n">
+        <v>22.1322896407797</v>
+      </c>
+      <c r="C2547" s="3" t="n">
+        <v>24.206817924577</v>
+      </c>
+      <c r="D2547" s="3" t="n">
+        <v>24.1197603833866</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" s="16" t="n">
+        <v>45269</v>
+      </c>
+      <c r="B2548" s="3" t="n">
+        <v>22.1161014650028</v>
+      </c>
+      <c r="C2548" s="3" t="n">
+        <v>24.2008221807244</v>
+      </c>
+      <c r="D2548" s="3" t="n">
+        <v>24.1176644666808</v>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" s="16" t="n">
+        <v>45270</v>
+      </c>
+      <c r="B2549" s="3" t="n">
+        <v>22.0973862529568</v>
+      </c>
+      <c r="C2549" s="3" t="n">
+        <v>24.1922202657279</v>
+      </c>
+      <c r="D2549" s="3" t="n">
+        <v>24.1035211576408</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" s="16" t="n">
+        <v>45271</v>
+      </c>
+      <c r="B2550" s="3" t="n">
+        <v>22.0796316010647</v>
+      </c>
+      <c r="C2550" s="3" t="n">
+        <v>24.1719235122901</v>
+      </c>
+      <c r="D2550" s="3" t="n">
+        <v>24.0915360052851</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" s="16" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B2551" s="3" t="n">
+        <v>22.059185618957</v>
+      </c>
+      <c r="C2551" s="3" t="n">
+        <v>24.1555296577362</v>
+      </c>
+      <c r="D2551" s="3" t="n">
+        <v>24.0917542735041</v>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" s="16" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B2552" s="3" t="n">
+        <v>22.0498930119178</v>
+      </c>
+      <c r="C2552" s="3" t="n">
+        <v>24.1286352191567</v>
+      </c>
+      <c r="D2552" s="3" t="n">
+        <v>24.0782981745861</v>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" s="16" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B2553" s="3" t="n">
+        <v>22.0162270118839</v>
+      </c>
+      <c r="C2553" s="3" t="n">
+        <v>24.0977208346031</v>
+      </c>
+      <c r="D2553" s="3" t="n">
+        <v>24.0687326278659</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" s="16" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B2554" s="3" t="n">
+        <v>21.9926669802446</v>
+      </c>
+      <c r="C2554" s="3" t="n">
+        <v>24.0793263857429</v>
+      </c>
+      <c r="D2554" s="3" t="n">
+        <v>24.0692025316455</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" s="16" t="n">
+        <v>45276</v>
+      </c>
+      <c r="B2555" s="3" t="n">
+        <v>21.9909391409721</v>
+      </c>
+      <c r="C2555" s="3" t="n">
+        <v>24.0669120328174</v>
+      </c>
+      <c r="D2555" s="3" t="n">
+        <v>24.06857563644</v>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" s="16" t="n">
+        <v>45277</v>
+      </c>
+      <c r="B2556" s="3" t="n">
+        <v>21.9849891260024</v>
+      </c>
+      <c r="C2556" s="3" t="n">
+        <v>24.059022539099</v>
+      </c>
+      <c r="D2556" s="3" t="n">
+        <v>24.0662925531914</v>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" s="16" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B2557" s="3" t="n">
+        <v>21.988752384846</v>
+      </c>
+      <c r="C2557" s="3" t="n">
+        <v>24.0627248881352</v>
+      </c>
+      <c r="D2557" s="3" t="n">
+        <v>24.0656739409499</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" s="16" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B2558" s="3" t="n">
+        <v>22.0008872338521</v>
+      </c>
+      <c r="C2558" s="3" t="n">
+        <v>24.0665829677814</v>
+      </c>
+      <c r="D2558" s="3" t="n">
+        <v>24.0855421137527</v>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" s="16" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B2559" s="3" t="n">
+        <v>22.0201198706017</v>
+      </c>
+      <c r="C2559" s="3" t="n">
+        <v>24.0713571320987</v>
+      </c>
+      <c r="D2559" s="3" t="n">
+        <v>24.1136905754796</v>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" s="16" t="n">
+        <v>45281</v>
+      </c>
+      <c r="B2560" s="3" t="n">
+        <v>22.0468994885478</v>
+      </c>
+      <c r="C2560" s="3" t="n">
+        <v>24.0796004824368</v>
+      </c>
+      <c r="D2560" s="3" t="n">
+        <v>24.1498430400661</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" s="16" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B2561" s="3" t="n">
+        <v>22.0681898098312</v>
+      </c>
+      <c r="C2561" s="3" t="n">
+        <v>24.0702031706946</v>
+      </c>
+      <c r="D2561" s="3" t="n">
+        <v>24.1743020854842</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" s="16" t="n">
+        <v>45283</v>
+      </c>
+      <c r="B2562" s="3" t="n">
+        <v>22.0896381800997</v>
+      </c>
+      <c r="C2562" s="3" t="n">
+        <v>24.0824583975351</v>
+      </c>
+      <c r="D2562" s="3" t="n">
+        <v>24.1847636325938</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" s="16" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B2563" s="3" t="n">
+        <v>22.0763986738499</v>
+      </c>
+      <c r="C2563" s="3" t="n">
+        <v>24.058775992439</v>
+      </c>
+      <c r="D2563" s="3" t="n">
+        <v>24.1808809776833</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" s="16" t="n">
+        <v>45285</v>
+      </c>
+      <c r="B2564" s="3" t="n">
+        <v>22.0990866787052</v>
+      </c>
+      <c r="C2564" s="3" t="n">
+        <v>24.0661428346709</v>
+      </c>
+      <c r="D2564" s="3" t="n">
+        <v>24.1823434838159</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" s="16" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B2565" s="3" t="n">
+        <v>22.0967371315034</v>
+      </c>
+      <c r="C2565" s="3" t="n">
+        <v>24.0648280464829</v>
+      </c>
+      <c r="D2565" s="3" t="n">
+        <v>24.1828062526584</v>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" s="16" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B2566" s="3" t="n">
+        <v>22.1044594034796</v>
+      </c>
+      <c r="C2566" s="3" t="n">
+        <v>24.0621196850398</v>
+      </c>
+      <c r="D2566" s="3" t="n">
+        <v>24.1816673737801</v>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" s="16" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B2567" s="3" t="n">
+        <v>22.0997647793505</v>
+      </c>
+      <c r="C2567" s="3" t="n">
+        <v>24.0530497520316</v>
+      </c>
+      <c r="D2567" s="3" t="n">
+        <v>24.1798188405797</v>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" s="16" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B2568" s="3" t="n">
+        <v>22.1044452919151</v>
+      </c>
+      <c r="C2568" s="3" t="n">
+        <v>24.0514302393465</v>
+      </c>
+      <c r="D2568" s="3" t="n">
+        <v>24.1788624052004</v>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" s="16" t="n">
+        <v>45290</v>
+      </c>
+      <c r="B2569" s="3" t="n">
+        <v>22.0921697062508</v>
+      </c>
+      <c r="C2569" s="3" t="n">
+        <v>24.0481623314069</v>
+      </c>
+      <c r="D2569" s="3" t="n">
+        <v>24.1788819535698</v>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" s="16" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B2570" s="3" t="n">
+        <v>22.0970123578148</v>
+      </c>
+      <c r="C2570" s="3" t="n">
+        <v>24.0505957962817</v>
+      </c>
+      <c r="D2570" s="3" t="n">
+        <v>24.1878736517719</v>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" s="16"/>
+      <c r="B2571" s="3" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="C2571" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2571" s="3" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" s="16"/>
+      <c r="B2572" s="3" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="C2572" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2572" s="3" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" s="16"/>
+      <c r="B2573" s="3" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="C2573" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2573" s="3" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" s="16"/>
+      <c r="B2574" s="3" t="n">
+        <v>22.12</v>
+      </c>
+      <c r="C2574" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="D2574" s="3" t="n">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" s="16"/>
+      <c r="B2575" s="3" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="C2575" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2575" s="3" t="n">
+        <v>24.23</v>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" s="16"/>
+      <c r="B2576" s="3" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="C2576" s="3" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D2576" s="3" t="n">
+        <v>24.24</v>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" s="16"/>
+      <c r="B2577" s="3" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="C2577" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2577" s="3" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" s="16"/>
+      <c r="B2578" s="3" t="n">
         <v>22.17</v>
       </c>
-      <c r="C2540" s="3" t="n">
+      <c r="C2578" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2578" s="3" t="n">
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" s="16"/>
+      <c r="B2579" s="3" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="C2579" s="3" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D2579" s="3" t="n">
         <v>24.27</v>
       </c>
-      <c r="D2540" s="3" t="n">
-        <v>24.11</v>
-      </c>
-    </row>
-    <row r="2541">
-      <c r="A2541" s="16"/>
-      <c r="B2541" s="3" t="n">
-        <v>22.18</v>
-      </c>
-      <c r="C2541" s="3" t="n">
+    </row>
+    <row r="2580">
+      <c r="A2580" s="16"/>
+      <c r="B2580" s="3" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="C2580" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2580" s="3" t="n">
         <v>24.28</v>
       </c>
-      <c r="D2541" s="3" t="n">
-        <v>24.13</v>
-      </c>
-    </row>
-    <row r="2542">
-      <c r="A2542" s="16"/>
-      <c r="B2542" s="3" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="C2542" s="3" t="n">
+    </row>
+    <row r="2581">
+      <c r="A2581" s="16"/>
+      <c r="B2581" s="3" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="C2581" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2581" s="3" t="n">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" s="16"/>
+      <c r="B2582" s="3" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="C2582" s="3" t="n">
+        <v>24.06</v>
+      </c>
+      <c r="D2582" s="3" t="n">
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" s="16"/>
+      <c r="B2583" s="3" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="C2583" s="3" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="D2583" s="3" t="n">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" s="16"/>
+      <c r="B2584" s="3" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="C2584" s="3" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="D2584" s="3" t="n">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" s="16"/>
+      <c r="B2585" s="3" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="C2585" s="3" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="D2585" s="3" t="n">
+        <v>24.37</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" s="16"/>
+      <c r="B2586" s="3" t="n">
+        <v>22.24</v>
+      </c>
+      <c r="C2586" s="3" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D2586" s="3" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" s="16"/>
+      <c r="B2587" s="3" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="C2587" s="3" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D2587" s="3" t="n">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" s="16"/>
+      <c r="B2588" s="3" t="n">
+        <v>22.29</v>
+      </c>
+      <c r="C2588" s="3" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="D2588" s="3" t="n">
+        <v>24.45</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" s="16"/>
+      <c r="B2589" s="3" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="C2589" s="3" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D2589" s="3" t="n">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" s="16"/>
+      <c r="B2590" s="3" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="C2590" s="3" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D2590" s="3" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" s="16"/>
+      <c r="B2591" s="3" t="n">
+        <v>22.34</v>
+      </c>
+      <c r="C2591" s="3" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D2591" s="3" t="n">
+        <v>24.51</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" s="16"/>
+      <c r="B2592" s="3" t="n">
+        <v>22.35</v>
+      </c>
+      <c r="C2592" s="3" t="n">
+        <v>24.18</v>
+      </c>
+      <c r="D2592" s="3" t="n">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" s="16"/>
+      <c r="B2593" s="3" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C2593" s="3" t="n">
+        <v>24.21</v>
+      </c>
+      <c r="D2593" s="3" t="n">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" s="16"/>
+      <c r="B2594" s="3" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="C2594" s="3" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="D2594" s="3" t="n">
+        <v>24.54</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" s="16"/>
+      <c r="B2595" s="3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C2595" s="3" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D2595" s="3" t="n">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" s="16"/>
+      <c r="B2596" s="3" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="C2596" s="3" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="D2596" s="3" t="n">
+        <v>24.57</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" s="16"/>
+      <c r="B2597" s="3" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C2597" s="3" t="n">
         <v>24.28</v>
       </c>
-      <c r="D2542" s="3" t="n">
-        <v>24.13</v>
-      </c>
-    </row>
-    <row r="2543">
-      <c r="A2543" s="16"/>
-      <c r="B2543" s="3" t="n">
-        <v>22.19</v>
-      </c>
-      <c r="C2543" s="3" t="n">
+      <c r="D2597" s="3" t="n">
+        <v>24.61</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" s="16"/>
+      <c r="B2598" s="3" t="n">
+        <v>22.61</v>
+      </c>
+      <c r="C2598" s="3" t="n">
         <v>24.28</v>
       </c>
-      <c r="D2543" s="3" t="n">
-        <v>24.13</v>
-      </c>
-    </row>
-    <row r="2544">
-      <c r="A2544" s="16"/>
-      <c r="B2544" s="3" t="n">
-        <v>22.18</v>
-      </c>
-      <c r="C2544" s="3" t="n">
-        <v>24.27</v>
-      </c>
-      <c r="D2544" s="3" t="n">
-        <v>24.14</v>
-      </c>
-    </row>
-    <row r="2545">
-      <c r="A2545" s="16"/>
-      <c r="B2545" s="3" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="C2545" s="3" t="n">
-        <v>24.26</v>
-      </c>
-      <c r="D2545" s="3" t="n">
-        <v>24.14</v>
-      </c>
-    </row>
-    <row r="2546">
-      <c r="A2546" s="16"/>
-      <c r="B2546" s="3" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="C2546" s="3" t="n">
-        <v>24.25</v>
-      </c>
-      <c r="D2546" s="3" t="n">
-        <v>24.13</v>
-      </c>
-    </row>
-    <row r="2547">
-      <c r="A2547" s="16"/>
-      <c r="B2547" s="3" t="n">
-        <v>22.13</v>
-      </c>
-      <c r="C2547" s="3" t="n">
-        <v>24.21</v>
-      </c>
-      <c r="D2547" s="3" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="2548">
-      <c r="A2548" s="16"/>
-      <c r="B2548" s="3" t="n">
-        <v>22.12</v>
-      </c>
-      <c r="C2548" s="3" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="D2548" s="3" t="n">
-        <v>24.12</v>
-      </c>
-    </row>
-    <row r="2549">
-      <c r="A2549" s="16"/>
-      <c r="B2549" s="3" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C2549" s="3" t="n">
-        <v>24.19</v>
-      </c>
-      <c r="D2549" s="3" t="n">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="2550">
-      <c r="A2550" s="16"/>
-      <c r="B2550" s="3" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="C2550" s="3" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="D2550" s="3" t="n">
-        <v>24.09</v>
-      </c>
-    </row>
-    <row r="2551">
-      <c r="A2551" s="16"/>
-      <c r="B2551" s="3" t="n">
-        <v>22.06</v>
-      </c>
-      <c r="C2551" s="3" t="n">
-        <v>24.16</v>
-      </c>
-      <c r="D2551" s="3" t="n">
-        <v>24.09</v>
-      </c>
-    </row>
-    <row r="2552">
-      <c r="A2552" s="16"/>
-      <c r="B2552" s="3" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="C2552" s="3" t="n">
-        <v>24.13</v>
-      </c>
-      <c r="D2552" s="3" t="n">
-        <v>24.08</v>
-      </c>
-    </row>
-    <row r="2553">
-      <c r="A2553" s="16"/>
-      <c r="B2553" s="3" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="C2553" s="3" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="D2553" s="3" t="n">
-        <v>24.07</v>
-      </c>
-    </row>
-    <row r="2554">
-      <c r="A2554" s="16"/>
-      <c r="B2554" s="3" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="C2554" s="3" t="n">
-        <v>24.08</v>
-      </c>
-      <c r="D2554" s="3" t="n">
-        <v>24.07</v>
-      </c>
-    </row>
-    <row r="2555">
-      <c r="A2555" s="16"/>
-      <c r="B2555" s="3" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="C2555" s="3" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="D2555" s="3" t="n">
-        <v>24.07</v>
-      </c>
-    </row>
-    <row r="2556">
-      <c r="A2556" s="16"/>
-      <c r="B2556" s="3" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="C2556" s="3" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="D2556" s="3" t="n">
-        <v>24.07</v>
-      </c>
-    </row>
-    <row r="2557">
-      <c r="A2557" s="16"/>
-      <c r="B2557" s="3" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="C2557" s="3" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="D2557" s="3" t="n">
-        <v>24.07</v>
-      </c>
-    </row>
-    <row r="2558">
-      <c r="A2558" s="16"/>
-      <c r="B2558" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C2558" s="3" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="D2558" s="3" t="n">
-        <v>24.09</v>
-      </c>
-    </row>
-    <row r="2559">
-      <c r="A2559" s="16"/>
-      <c r="B2559" s="3" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="C2559" s="3" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="D2559" s="3" t="n">
-        <v>24.11</v>
-      </c>
-    </row>
-    <row r="2560">
-      <c r="A2560" s="16"/>
-      <c r="B2560" s="3" t="n">
-        <v>22.05</v>
-      </c>
-      <c r="C2560" s="3" t="n">
-        <v>24.08</v>
-      </c>
-      <c r="D2560" s="3" t="n">
-        <v>24.15</v>
-      </c>
-    </row>
-    <row r="2561">
-      <c r="A2561" s="16"/>
-      <c r="B2561" s="3" t="n">
-        <v>22.07</v>
-      </c>
-      <c r="C2561" s="3" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="D2561" s="3" t="n">
-        <v>24.17</v>
-      </c>
-    </row>
-    <row r="2562">
-      <c r="A2562" s="16"/>
-      <c r="B2562" s="3" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="C2562" s="3" t="n">
-        <v>24.08</v>
-      </c>
-      <c r="D2562" s="3" t="n">
-        <v>24.18</v>
-      </c>
-    </row>
-    <row r="2563">
-      <c r="A2563" s="16"/>
-      <c r="B2563" s="3" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="C2563" s="3" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="D2563" s="3" t="n">
-        <v>24.18</v>
-      </c>
-    </row>
-    <row r="2564">
-      <c r="A2564" s="16"/>
-      <c r="B2564" s="3" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C2564" s="3" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="D2564" s="3" t="n">
-        <v>24.18</v>
-      </c>
-    </row>
-    <row r="2565">
-      <c r="A2565" s="16"/>
-      <c r="B2565" s="3" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C2565" s="3" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="D2565" s="3" t="n">
-        <v>24.18</v>
-      </c>
-    </row>
-    <row r="2566">
-      <c r="A2566" s="16"/>
-      <c r="B2566" s="3" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C2566" s="3" t="n">
-        <v>24.06</v>
-      </c>
-      <c r="D2566" s="3" t="n">
-        <v>24.18</v>
-      </c>
-    </row>
-    <row r="2567">
-      <c r="A2567" s="16"/>
-      <c r="B2567" s="3" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C2567" s="3" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="D2567" s="3" t="n">
-        <v>24.18</v>
-      </c>
-    </row>
-    <row r="2568">
-      <c r="A2568" s="16"/>
-      <c r="B2568" s="3" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C2568" s="3" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="D2568" s="3" t="n">
-        <v>24.18</v>
-      </c>
-    </row>
-    <row r="2569">
-      <c r="A2569" s="16"/>
-      <c r="B2569" s="3" t="n">
-        <v>22.09</v>
-      </c>
-      <c r="C2569" s="3" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="D2569" s="3" t="n">
-        <v>24.18</v>
-      </c>
-    </row>
-    <row r="2570">
-      <c r="A2570" s="16"/>
-      <c r="B2570" s="3" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C2570" s="3" t="n">
-        <v>24.05</v>
-      </c>
-      <c r="D2570" s="3" t="n">
-        <v>24.19</v>
-      </c>
-    </row>
-    <row r="2571">
-      <c r="A2571" s="6"/>
-      <c r="B2571" s="3"/>
-      <c r="C2571" s="3"/>
-      <c r="D2571" s="3"/>
-    </row>
-    <row r="2572">
-      <c r="A2572" s="6"/>
-      <c r="B2572" s="3"/>
-      <c r="C2572" s="3"/>
-      <c r="D2572" s="3"/>
-    </row>
-    <row r="2573">
-      <c r="A2573" s="6"/>
-      <c r="B2573" s="3"/>
-      <c r="C2573" s="3"/>
-      <c r="D2573" s="3"/>
-    </row>
-    <row r="2574">
-      <c r="A2574" s="6"/>
-      <c r="B2574" s="3"/>
-      <c r="C2574" s="3"/>
-      <c r="D2574" s="3"/>
-    </row>
-    <row r="2575">
-      <c r="A2575" s="6"/>
-      <c r="B2575" s="3"/>
-      <c r="C2575" s="3"/>
-      <c r="D2575" s="3"/>
-    </row>
-    <row r="2576">
-      <c r="A2576" s="6"/>
-      <c r="B2576" s="3"/>
-      <c r="C2576" s="3"/>
-      <c r="D2576" s="3"/>
-    </row>
-    <row r="2577">
-      <c r="A2577" s="6"/>
-      <c r="B2577" s="3"/>
-      <c r="C2577" s="3"/>
-      <c r="D2577" s="3"/>
-    </row>
-    <row r="2578">
-      <c r="A2578" s="6"/>
-      <c r="B2578" s="3"/>
-      <c r="C2578" s="3"/>
-      <c r="D2578" s="3"/>
-    </row>
-    <row r="2579">
-      <c r="A2579" s="6"/>
-      <c r="B2579" s="3"/>
-      <c r="C2579" s="3"/>
-      <c r="D2579" s="3"/>
-    </row>
-    <row r="2580">
-      <c r="A2580" s="6"/>
-      <c r="B2580" s="3"/>
-      <c r="C2580" s="3"/>
-      <c r="D2580" s="3"/>
-    </row>
-    <row r="2581">
-      <c r="A2581" s="6"/>
-      <c r="B2581" s="3"/>
-      <c r="C2581" s="3"/>
-      <c r="D2581" s="3"/>
-    </row>
-    <row r="2582">
-      <c r="A2582" s="6"/>
-      <c r="B2582" s="3"/>
-      <c r="C2582" s="3"/>
-      <c r="D2582" s="3"/>
-    </row>
-    <row r="2583">
-      <c r="A2583" s="6"/>
-      <c r="B2583" s="3"/>
-      <c r="C2583" s="3"/>
-      <c r="D2583" s="3"/>
-    </row>
-    <row r="2584">
-      <c r="A2584" s="6"/>
-      <c r="B2584" s="3"/>
-      <c r="C2584" s="3"/>
-      <c r="D2584" s="3"/>
-    </row>
-    <row r="2585">
-      <c r="A2585" s="6"/>
-      <c r="B2585" s="3"/>
-      <c r="C2585" s="3"/>
-      <c r="D2585" s="3"/>
-    </row>
-    <row r="2586">
-      <c r="A2586" s="6"/>
-      <c r="B2586" s="3"/>
-      <c r="C2586" s="3"/>
-      <c r="D2586" s="3"/>
-    </row>
-    <row r="2587">
-      <c r="A2587" s="6"/>
-      <c r="B2587" s="3"/>
-      <c r="C2587" s="3"/>
-      <c r="D2587" s="3"/>
-    </row>
-    <row r="2588">
-      <c r="A2588" s="6"/>
-      <c r="B2588" s="3"/>
-      <c r="C2588" s="3"/>
-      <c r="D2588" s="3"/>
-    </row>
-    <row r="2589">
-      <c r="A2589" s="6"/>
-      <c r="B2589" s="3"/>
-      <c r="C2589" s="3"/>
-      <c r="D2589" s="3"/>
-    </row>
-    <row r="2590">
-      <c r="A2590" s="6"/>
-      <c r="B2590" s="3"/>
-      <c r="C2590" s="3"/>
-      <c r="D2590" s="3"/>
-    </row>
-    <row r="2591">
-      <c r="A2591" s="6"/>
-      <c r="B2591" s="3"/>
-      <c r="C2591" s="3"/>
-      <c r="D2591" s="3"/>
-    </row>
-    <row r="2592">
-      <c r="A2592" s="6"/>
-      <c r="B2592" s="3"/>
-      <c r="C2592" s="3"/>
-      <c r="D2592" s="3"/>
-    </row>
-    <row r="2593">
-      <c r="A2593" s="6"/>
-      <c r="B2593" s="3"/>
-      <c r="C2593" s="3"/>
-      <c r="D2593" s="3"/>
-    </row>
-    <row r="2594">
-      <c r="A2594" s="6"/>
-      <c r="B2594" s="3"/>
-      <c r="C2594" s="3"/>
-      <c r="D2594" s="3"/>
-    </row>
-    <row r="2595">
-      <c r="A2595" s="6"/>
-      <c r="B2595" s="3"/>
-      <c r="C2595" s="3"/>
-      <c r="D2595" s="3"/>
-    </row>
-    <row r="2596">
-      <c r="A2596" s="6"/>
-      <c r="B2596" s="3"/>
-      <c r="C2596" s="3"/>
-      <c r="D2596" s="3"/>
-    </row>
-    <row r="2597">
-      <c r="A2597" s="6"/>
-      <c r="B2597" s="3"/>
-      <c r="C2597" s="3"/>
-      <c r="D2597" s="3"/>
-    </row>
-    <row r="2598">
-      <c r="A2598" s="6"/>
-      <c r="B2598" s="3"/>
-      <c r="C2598" s="3"/>
-      <c r="D2598" s="3"/>
+      <c r="D2598" s="3" t="n">
+        <v>24.61</v>
+      </c>
     </row>
     <row r="2599">
-      <c r="A2599" s="6"/>
-      <c r="B2599" s="3"/>
-      <c r="C2599" s="3"/>
-      <c r="D2599" s="3"/>
+      <c r="A2599" s="16"/>
+      <c r="B2599" s="3" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="C2599" s="3" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D2599" s="3" t="n">
+        <v>24.64</v>
+      </c>
     </row>
     <row r="2600">
-      <c r="A2600" s="6"/>
-      <c r="B2600" s="3"/>
-      <c r="C2600" s="3"/>
-      <c r="D2600" s="3"/>
+      <c r="A2600" s="16"/>
+      <c r="B2600" s="3" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="C2600" s="3" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="D2600" s="3" t="n">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="2601">
-      <c r="A2601" s="6"/>
-      <c r="B2601" s="3"/>
-      <c r="C2601" s="3"/>
-      <c r="D2601" s="3"/>
+      <c r="A2601" s="16"/>
+      <c r="B2601" s="3" t="n">
+        <v>22.77</v>
+      </c>
+      <c r="C2601" s="3" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="D2601" s="3" t="n">
+        <v>24.73</v>
+      </c>
     </row>
     <row r="2602">
       <c r="A2602" s="6"/>
@@ -45869,33 +46120,49 @@
         <v>1426</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>22.7</v>
+        <v>22.7044542779626</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>22.0887096774194</v>
+        <v>22.088651243378</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>24.78</v>
+        <v>24.7837776674997</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>24.1335483870968</v>
+        <v>24.1334717622348</v>
       </c>
       <c r="G99" s="3" t="n">
-        <v>24.35</v>
+        <v>24.3507202704545</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>24.1293548387097</v>
+        <v>24.1296283321455</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="6"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
+      <c r="A100" s="6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>22.32</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>24.87</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>24.42</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - enero 2024</t>
+    <t xml:space="preserve">enero 2017 - febrero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: marzo 2024</t>
+    <t xml:space="preserve">Próxima actualización: abril 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2024</t>
+    <t xml:space="preserve">febrero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -40807,550 +40807,844 @@
       </c>
     </row>
     <row r="2571">
-      <c r="A2571" s="16"/>
+      <c r="A2571" s="16" t="n">
+        <v>45292</v>
+      </c>
       <c r="B2571" s="3" t="n">
-        <v>22.12</v>
+        <v>22.1212638807714</v>
       </c>
       <c r="C2571" s="3" t="n">
-        <v>24.06</v>
+        <v>24.0638996945829</v>
       </c>
       <c r="D2571" s="3" t="n">
-        <v>24.2</v>
+        <v>24.1967017353579</v>
       </c>
     </row>
     <row r="2572">
-      <c r="A2572" s="16"/>
+      <c r="A2572" s="16" t="n">
+        <v>45293</v>
+      </c>
       <c r="B2572" s="3" t="n">
-        <v>22.12</v>
+        <v>22.1153739672416</v>
       </c>
       <c r="C2572" s="3" t="n">
-        <v>24.06</v>
+        <v>24.0636050955415</v>
       </c>
       <c r="D2572" s="3" t="n">
-        <v>24.2</v>
+        <v>24.1956387096774</v>
       </c>
     </row>
     <row r="2573">
-      <c r="A2573" s="16"/>
+      <c r="A2573" s="16" t="n">
+        <v>45294</v>
+      </c>
       <c r="B2573" s="3" t="n">
-        <v>22.12</v>
+        <v>22.1174964090779</v>
       </c>
       <c r="C2573" s="3" t="n">
-        <v>24.05</v>
+        <v>24.0537728501034</v>
       </c>
       <c r="D2573" s="3" t="n">
-        <v>24.2</v>
+        <v>24.1981245965138</v>
       </c>
     </row>
     <row r="2574">
-      <c r="A2574" s="16"/>
+      <c r="A2574" s="16" t="n">
+        <v>45295</v>
+      </c>
       <c r="B2574" s="3" t="n">
-        <v>22.12</v>
+        <v>22.1213628620102</v>
       </c>
       <c r="C2574" s="3" t="n">
-        <v>24.05</v>
+        <v>24.0487417374884</v>
       </c>
       <c r="D2574" s="3" t="n">
-        <v>24.2</v>
+        <v>24.2023251116308</v>
       </c>
     </row>
     <row r="2575">
-      <c r="A2575" s="16"/>
+      <c r="A2575" s="16" t="n">
+        <v>45296</v>
+      </c>
       <c r="B2575" s="3" t="n">
-        <v>22.16</v>
+        <v>22.1595406879195</v>
       </c>
       <c r="C2575" s="3" t="n">
-        <v>24.08</v>
+        <v>24.0753636363638</v>
       </c>
       <c r="D2575" s="3" t="n">
-        <v>24.23</v>
+        <v>24.2288570831592</v>
       </c>
     </row>
     <row r="2576">
-      <c r="A2576" s="16"/>
+      <c r="A2576" s="16" t="n">
+        <v>45297</v>
+      </c>
       <c r="B2576" s="3" t="n">
-        <v>22.16</v>
+        <v>22.1616592334494</v>
       </c>
       <c r="C2576" s="3" t="n">
-        <v>24.07</v>
+        <v>24.0748819455377</v>
       </c>
       <c r="D2576" s="3" t="n">
-        <v>24.24</v>
+        <v>24.243360875852</v>
       </c>
     </row>
     <row r="2577">
-      <c r="A2577" s="16"/>
+      <c r="A2577" s="16" t="n">
+        <v>45298</v>
+      </c>
       <c r="B2577" s="3" t="n">
-        <v>22.16</v>
+        <v>22.1604954321855</v>
       </c>
       <c r="C2577" s="3" t="n">
-        <v>24.08</v>
+        <v>24.0763987523994</v>
       </c>
       <c r="D2577" s="3" t="n">
-        <v>24.25</v>
+        <v>24.2490616538221</v>
       </c>
     </row>
     <row r="2578">
-      <c r="A2578" s="16"/>
+      <c r="A2578" s="16" t="n">
+        <v>45299</v>
+      </c>
       <c r="B2578" s="3" t="n">
-        <v>22.17</v>
+        <v>22.1699036178237</v>
       </c>
       <c r="C2578" s="3" t="n">
-        <v>24.06</v>
+        <v>24.0572373761976</v>
       </c>
       <c r="D2578" s="3" t="n">
-        <v>24.25</v>
+        <v>24.2511973601509</v>
       </c>
     </row>
     <row r="2579">
-      <c r="A2579" s="16"/>
+      <c r="A2579" s="16" t="n">
+        <v>45300</v>
+      </c>
       <c r="B2579" s="3" t="n">
-        <v>22.18</v>
+        <v>22.1790905980567</v>
       </c>
       <c r="C2579" s="3" t="n">
-        <v>24.08</v>
+        <v>24.08022895358</v>
       </c>
       <c r="D2579" s="3" t="n">
-        <v>24.27</v>
+        <v>24.2685678290667</v>
       </c>
     </row>
     <row r="2580">
-      <c r="A2580" s="16"/>
+      <c r="A2580" s="16" t="n">
+        <v>45301</v>
+      </c>
       <c r="B2580" s="3" t="n">
-        <v>22.16</v>
+        <v>22.162243902439</v>
       </c>
       <c r="C2580" s="3" t="n">
-        <v>24.06</v>
+        <v>24.0623698444898</v>
       </c>
       <c r="D2580" s="3" t="n">
-        <v>24.28</v>
+        <v>24.2759190154823</v>
       </c>
     </row>
     <row r="2581">
-      <c r="A2581" s="16"/>
+      <c r="A2581" s="16" t="n">
+        <v>45302</v>
+      </c>
       <c r="B2581" s="3" t="n">
-        <v>22.16</v>
+        <v>22.1606899372785</v>
       </c>
       <c r="C2581" s="3" t="n">
-        <v>24.06</v>
+        <v>24.0564141895833</v>
       </c>
       <c r="D2581" s="3" t="n">
-        <v>24.3</v>
+        <v>24.2966615963362</v>
       </c>
     </row>
     <row r="2582">
-      <c r="A2582" s="16"/>
+      <c r="A2582" s="16" t="n">
+        <v>45303</v>
+      </c>
       <c r="B2582" s="3" t="n">
-        <v>22.16</v>
+        <v>22.156190411701</v>
       </c>
       <c r="C2582" s="3" t="n">
-        <v>24.06</v>
+        <v>24.0622902711326</v>
       </c>
       <c r="D2582" s="3" t="n">
-        <v>24.31</v>
+        <v>24.3070111175374</v>
       </c>
     </row>
     <row r="2583">
-      <c r="A2583" s="16"/>
+      <c r="A2583" s="16" t="n">
+        <v>45304</v>
+      </c>
       <c r="B2583" s="3" t="n">
-        <v>22.17</v>
+        <v>22.169559358577</v>
       </c>
       <c r="C2583" s="3" t="n">
-        <v>24.09</v>
+        <v>24.0870836711531</v>
       </c>
       <c r="D2583" s="3" t="n">
-        <v>24.34</v>
+        <v>24.3360907025184</v>
       </c>
     </row>
     <row r="2584">
-      <c r="A2584" s="16"/>
+      <c r="A2584" s="16" t="n">
+        <v>45305</v>
+      </c>
       <c r="B2584" s="3" t="n">
-        <v>22.22</v>
+        <v>22.2201279581728</v>
       </c>
       <c r="C2584" s="3" t="n">
-        <v>24.09</v>
+        <v>24.0860998336108</v>
       </c>
       <c r="D2584" s="3" t="n">
-        <v>24.35</v>
+        <v>24.3538735177865</v>
       </c>
     </row>
     <row r="2585">
-      <c r="A2585" s="16"/>
+      <c r="A2585" s="16" t="n">
+        <v>45306</v>
+      </c>
       <c r="B2585" s="3" t="n">
-        <v>22.24</v>
+        <v>22.235922951266</v>
       </c>
       <c r="C2585" s="3" t="n">
-        <v>24.09</v>
+        <v>24.0932890144592</v>
       </c>
       <c r="D2585" s="3" t="n">
-        <v>24.37</v>
+        <v>24.3739610269671</v>
       </c>
     </row>
     <row r="2586">
-      <c r="A2586" s="16"/>
+      <c r="A2586" s="16" t="n">
+        <v>45307</v>
+      </c>
       <c r="B2586" s="3" t="n">
-        <v>22.24</v>
+        <v>22.2421765329096</v>
       </c>
       <c r="C2586" s="3" t="n">
-        <v>24.1</v>
+        <v>24.1013480154891</v>
       </c>
       <c r="D2586" s="3" t="n">
-        <v>24.4</v>
+        <v>24.3979466357311</v>
       </c>
     </row>
     <row r="2587">
-      <c r="A2587" s="16"/>
+      <c r="A2587" s="16" t="n">
+        <v>45308</v>
+      </c>
       <c r="B2587" s="3" t="n">
-        <v>22.25</v>
+        <v>22.2529570871261</v>
       </c>
       <c r="C2587" s="3" t="n">
-        <v>24.1</v>
+        <v>24.1033198860941</v>
       </c>
       <c r="D2587" s="3" t="n">
-        <v>24.42</v>
+        <v>24.4167606364582</v>
       </c>
     </row>
     <row r="2588">
-      <c r="A2588" s="16"/>
+      <c r="A2588" s="16" t="n">
+        <v>45309</v>
+      </c>
       <c r="B2588" s="3" t="n">
-        <v>22.29</v>
+        <v>22.2869230113031</v>
       </c>
       <c r="C2588" s="3" t="n">
-        <v>24.15</v>
+        <v>24.151273144485</v>
       </c>
       <c r="D2588" s="3" t="n">
-        <v>24.45</v>
+        <v>24.4508586113922</v>
       </c>
     </row>
     <row r="2589">
-      <c r="A2589" s="16"/>
+      <c r="A2589" s="16" t="n">
+        <v>45310</v>
+      </c>
       <c r="B2589" s="3" t="n">
-        <v>22.33</v>
+        <v>22.3252738080446</v>
       </c>
       <c r="C2589" s="3" t="n">
-        <v>24.18</v>
+        <v>24.1761997526285</v>
       </c>
       <c r="D2589" s="3" t="n">
-        <v>24.49</v>
+        <v>24.4895297677463</v>
       </c>
     </row>
     <row r="2590">
-      <c r="A2590" s="16"/>
+      <c r="A2590" s="16" t="n">
+        <v>45311</v>
+      </c>
       <c r="B2590" s="3" t="n">
-        <v>22.33</v>
+        <v>22.33115193724</v>
       </c>
       <c r="C2590" s="3" t="n">
-        <v>24.17</v>
+        <v>24.1699046906189</v>
       </c>
       <c r="D2590" s="3" t="n">
-        <v>24.5</v>
+        <v>24.5036863184878</v>
       </c>
     </row>
     <row r="2591">
-      <c r="A2591" s="16"/>
+      <c r="A2591" s="16" t="n">
+        <v>45312</v>
+      </c>
       <c r="B2591" s="3" t="n">
-        <v>22.34</v>
+        <v>22.3380500341326</v>
       </c>
       <c r="C2591" s="3" t="n">
-        <v>24.17</v>
+        <v>24.1731510534522</v>
       </c>
       <c r="D2591" s="3" t="n">
-        <v>24.51</v>
+        <v>24.5103334407218</v>
       </c>
     </row>
     <row r="2592">
-      <c r="A2592" s="16"/>
+      <c r="A2592" s="16" t="n">
+        <v>45313</v>
+      </c>
       <c r="B2592" s="3" t="n">
-        <v>22.35</v>
+        <v>22.3534319901741</v>
       </c>
       <c r="C2592" s="3" t="n">
-        <v>24.18</v>
+        <v>24.1840285757486</v>
       </c>
       <c r="D2592" s="3" t="n">
-        <v>24.52</v>
+        <v>24.5229452164192</v>
       </c>
     </row>
     <row r="2593">
-      <c r="A2593" s="16"/>
+      <c r="A2593" s="16" t="n">
+        <v>45314</v>
+      </c>
       <c r="B2593" s="3" t="n">
-        <v>22.4</v>
+        <v>22.401486603447</v>
       </c>
       <c r="C2593" s="3" t="n">
-        <v>24.21</v>
+        <v>24.2105782659294</v>
       </c>
       <c r="D2593" s="3" t="n">
-        <v>24.53</v>
+        <v>24.5303144799875</v>
       </c>
     </row>
     <row r="2594">
-      <c r="A2594" s="16"/>
+      <c r="A2594" s="16" t="n">
+        <v>45315</v>
+      </c>
       <c r="B2594" s="3" t="n">
-        <v>22.46</v>
+        <v>22.4586401658555</v>
       </c>
       <c r="C2594" s="3" t="n">
-        <v>24.22</v>
+        <v>24.2227588593575</v>
       </c>
       <c r="D2594" s="3" t="n">
-        <v>24.54</v>
+        <v>24.5414442946989</v>
       </c>
     </row>
     <row r="2595">
-      <c r="A2595" s="16"/>
+      <c r="A2595" s="16" t="n">
+        <v>45316</v>
+      </c>
       <c r="B2595" s="3" t="n">
-        <v>22.5</v>
+        <v>22.5043069564314</v>
       </c>
       <c r="C2595" s="3" t="n">
-        <v>24.25</v>
+        <v>24.2477545709325</v>
       </c>
       <c r="D2595" s="3" t="n">
-        <v>24.56</v>
+        <v>24.560001454757</v>
       </c>
     </row>
     <row r="2596">
-      <c r="A2596" s="16"/>
+      <c r="A2596" s="16" t="n">
+        <v>45317</v>
+      </c>
       <c r="B2596" s="3" t="n">
-        <v>22.53</v>
+        <v>22.53351396401</v>
       </c>
       <c r="C2596" s="3" t="n">
-        <v>24.26</v>
+        <v>24.260490312376</v>
       </c>
       <c r="D2596" s="3" t="n">
-        <v>24.57</v>
+        <v>24.5712161777272</v>
       </c>
     </row>
     <row r="2597">
-      <c r="A2597" s="16"/>
+      <c r="A2597" s="16" t="n">
+        <v>45318</v>
+      </c>
       <c r="B2597" s="3" t="n">
-        <v>22.6</v>
+        <v>22.5959570345128</v>
       </c>
       <c r="C2597" s="3" t="n">
-        <v>24.28</v>
+        <v>24.2784164929647</v>
       </c>
       <c r="D2597" s="3" t="n">
-        <v>24.61</v>
+        <v>24.6080963399245</v>
       </c>
     </row>
     <row r="2598">
-      <c r="A2598" s="16"/>
+      <c r="A2598" s="16" t="n">
+        <v>45319</v>
+      </c>
       <c r="B2598" s="3" t="n">
-        <v>22.61</v>
+        <v>22.6090699144788</v>
       </c>
       <c r="C2598" s="3" t="n">
-        <v>24.28</v>
+        <v>24.2795796286607</v>
       </c>
       <c r="D2598" s="3" t="n">
-        <v>24.61</v>
+        <v>24.6145234090274</v>
       </c>
     </row>
     <row r="2599">
-      <c r="A2599" s="16"/>
+      <c r="A2599" s="16" t="n">
+        <v>45320</v>
+      </c>
       <c r="B2599" s="3" t="n">
-        <v>22.65</v>
+        <v>22.6518469043643</v>
       </c>
       <c r="C2599" s="3" t="n">
-        <v>24.3</v>
+        <v>24.2998833010957</v>
       </c>
       <c r="D2599" s="3" t="n">
-        <v>24.64</v>
+        <v>24.6381598230335</v>
       </c>
     </row>
     <row r="2600">
-      <c r="A2600" s="16"/>
+      <c r="A2600" s="16" t="n">
+        <v>45321</v>
+      </c>
       <c r="B2600" s="3" t="n">
-        <v>22.73</v>
+        <v>22.7262982406355</v>
       </c>
       <c r="C2600" s="3" t="n">
-        <v>24.35</v>
+        <v>24.3472964650818</v>
       </c>
       <c r="D2600" s="3" t="n">
-        <v>24.7</v>
+        <v>24.6958968158001</v>
       </c>
     </row>
     <row r="2601">
-      <c r="A2601" s="16"/>
+      <c r="A2601" s="16" t="n">
+        <v>45322</v>
+      </c>
       <c r="B2601" s="3" t="n">
-        <v>22.77</v>
+        <v>22.769176887815</v>
       </c>
       <c r="C2601" s="3" t="n">
-        <v>24.37</v>
+        <v>24.3732362440191</v>
       </c>
       <c r="D2601" s="3" t="n">
-        <v>24.73</v>
+        <v>24.7307187210993</v>
       </c>
     </row>
     <row r="2602">
-      <c r="A2602" s="6"/>
-      <c r="B2602" s="3"/>
-      <c r="C2602" s="3"/>
-      <c r="D2602" s="3"/>
+      <c r="A2602" s="16" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B2602" s="3" t="n">
+        <v>22.8154384526629</v>
+      </c>
+      <c r="C2602" s="3" t="n">
+        <v>24.4098160338545</v>
+      </c>
+      <c r="D2602" s="3" t="n">
+        <v>24.7664909208821</v>
+      </c>
     </row>
     <row r="2603">
-      <c r="A2603" s="6"/>
-      <c r="B2603" s="3"/>
-      <c r="C2603" s="3"/>
-      <c r="D2603" s="3"/>
+      <c r="A2603" s="16" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B2603" s="3" t="n">
+        <v>22.8378908888085</v>
+      </c>
+      <c r="C2603" s="3" t="n">
+        <v>24.4239704222609</v>
+      </c>
+      <c r="D2603" s="3" t="n">
+        <v>24.788641959422</v>
+      </c>
     </row>
     <row r="2604">
-      <c r="A2604" s="6"/>
-      <c r="B2604" s="3"/>
-      <c r="C2604" s="3"/>
-      <c r="D2604" s="3"/>
+      <c r="A2604" s="16" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B2604" s="3" t="n">
+        <v>22.8408858587682</v>
+      </c>
+      <c r="C2604" s="3" t="n">
+        <v>24.4273584905658</v>
+      </c>
+      <c r="D2604" s="3" t="n">
+        <v>24.7924300123949</v>
+      </c>
     </row>
     <row r="2605">
-      <c r="A2605" s="6"/>
-      <c r="B2605" s="3"/>
-      <c r="C2605" s="3"/>
-      <c r="D2605" s="3"/>
+      <c r="A2605" s="16" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B2605" s="3" t="n">
+        <v>22.8408377010663</v>
+      </c>
+      <c r="C2605" s="3" t="n">
+        <v>24.4240408379426</v>
+      </c>
+      <c r="D2605" s="3" t="n">
+        <v>24.7944192664871</v>
+      </c>
     </row>
     <row r="2606">
-      <c r="A2606" s="6"/>
-      <c r="B2606" s="3"/>
-      <c r="C2606" s="3"/>
-      <c r="D2606" s="3"/>
+      <c r="A2606" s="16" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B2606" s="3" t="n">
+        <v>22.8404772459965</v>
+      </c>
+      <c r="C2606" s="3" t="n">
+        <v>24.4253816208562</v>
+      </c>
+      <c r="D2606" s="3" t="n">
+        <v>24.7927615618707</v>
+      </c>
     </row>
     <row r="2607">
-      <c r="A2607" s="6"/>
-      <c r="B2607" s="3"/>
-      <c r="C2607" s="3"/>
-      <c r="D2607" s="3"/>
+      <c r="A2607" s="16" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B2607" s="3" t="n">
+        <v>22.8244119765871</v>
+      </c>
+      <c r="C2607" s="3" t="n">
+        <v>24.4188469675598</v>
+      </c>
+      <c r="D2607" s="3" t="n">
+        <v>24.783997782327</v>
+      </c>
     </row>
     <row r="2608">
-      <c r="A2608" s="6"/>
-      <c r="B2608" s="3"/>
-      <c r="C2608" s="3"/>
-      <c r="D2608" s="3"/>
+      <c r="A2608" s="16" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B2608" s="3" t="n">
+        <v>22.8139488027163</v>
+      </c>
+      <c r="C2608" s="3" t="n">
+        <v>24.4163918666977</v>
+      </c>
+      <c r="D2608" s="3" t="n">
+        <v>24.7759840583398</v>
+      </c>
     </row>
     <row r="2609">
-      <c r="A2609" s="6"/>
-      <c r="B2609" s="3"/>
-      <c r="C2609" s="3"/>
-      <c r="D2609" s="3"/>
+      <c r="A2609" s="16" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B2609" s="3" t="n">
+        <v>22.8120707341005</v>
+      </c>
+      <c r="C2609" s="3" t="n">
+        <v>24.413973755443</v>
+      </c>
+      <c r="D2609" s="3" t="n">
+        <v>24.771935285381</v>
+      </c>
     </row>
     <row r="2610">
-      <c r="A2610" s="6"/>
-      <c r="B2610" s="3"/>
-      <c r="C2610" s="3"/>
-      <c r="D2610" s="3"/>
+      <c r="A2610" s="16" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B2610" s="3" t="n">
+        <v>22.8209452714147</v>
+      </c>
+      <c r="C2610" s="3" t="n">
+        <v>24.4427733737468</v>
+      </c>
+      <c r="D2610" s="3" t="n">
+        <v>24.7828533501898</v>
+      </c>
     </row>
     <row r="2611">
-      <c r="A2611" s="6"/>
-      <c r="B2611" s="3"/>
-      <c r="C2611" s="3"/>
-      <c r="D2611" s="3"/>
+      <c r="A2611" s="16" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B2611" s="3" t="n">
+        <v>22.8908644756605</v>
+      </c>
+      <c r="C2611" s="3" t="n">
+        <v>24.4857601004336</v>
+      </c>
+      <c r="D2611" s="3" t="n">
+        <v>24.8266927899687</v>
+      </c>
     </row>
     <row r="2612">
-      <c r="A2612" s="6"/>
-      <c r="B2612" s="3"/>
-      <c r="C2612" s="3"/>
-      <c r="D2612" s="3"/>
+      <c r="A2612" s="16" t="n">
+        <v>45333</v>
+      </c>
+      <c r="B2612" s="3" t="n">
+        <v>22.9063415929204</v>
+      </c>
+      <c r="C2612" s="3" t="n">
+        <v>24.5025167630057</v>
+      </c>
+      <c r="D2612" s="3" t="n">
+        <v>24.8387303483839</v>
+      </c>
     </row>
     <row r="2613">
-      <c r="A2613" s="6"/>
-      <c r="B2613" s="3"/>
-      <c r="C2613" s="3"/>
-      <c r="D2613" s="3"/>
+      <c r="A2613" s="16" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B2613" s="3" t="n">
+        <v>22.9387861790773</v>
+      </c>
+      <c r="C2613" s="3" t="n">
+        <v>24.5150242019131</v>
+      </c>
+      <c r="D2613" s="3" t="n">
+        <v>24.8532190572221</v>
+      </c>
     </row>
     <row r="2614">
-      <c r="A2614" s="6"/>
-      <c r="B2614" s="3"/>
-      <c r="C2614" s="3"/>
-      <c r="D2614" s="3"/>
+      <c r="A2614" s="16" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B2614" s="3" t="n">
+        <v>22.98651482032</v>
+      </c>
+      <c r="C2614" s="3" t="n">
+        <v>24.5515969710669</v>
+      </c>
+      <c r="D2614" s="3" t="n">
+        <v>24.8810385960528</v>
+      </c>
     </row>
     <row r="2615">
-      <c r="A2615" s="6"/>
-      <c r="B2615" s="3"/>
-      <c r="C2615" s="3"/>
-      <c r="D2615" s="3"/>
+      <c r="A2615" s="16" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B2615" s="3" t="n">
+        <v>23.0248884854772</v>
+      </c>
+      <c r="C2615" s="3" t="n">
+        <v>24.5915639130912</v>
+      </c>
+      <c r="D2615" s="3" t="n">
+        <v>24.906969941622</v>
+      </c>
     </row>
     <row r="2616">
-      <c r="A2616" s="6"/>
-      <c r="B2616" s="3"/>
-      <c r="C2616" s="3"/>
-      <c r="D2616" s="3"/>
+      <c r="A2616" s="16" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B2616" s="3" t="n">
+        <v>23.0595662805663</v>
+      </c>
+      <c r="C2616" s="3" t="n">
+        <v>24.6278452978397</v>
+      </c>
+      <c r="D2616" s="3" t="n">
+        <v>24.9294410770245</v>
+      </c>
     </row>
     <row r="2617">
-      <c r="A2617" s="6"/>
-      <c r="B2617" s="3"/>
-      <c r="C2617" s="3"/>
-      <c r="D2617" s="3"/>
+      <c r="A2617" s="16" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B2617" s="3" t="n">
+        <v>23.085784556314</v>
+      </c>
+      <c r="C2617" s="3" t="n">
+        <v>24.6517894397246</v>
+      </c>
+      <c r="D2617" s="3" t="n">
+        <v>24.9526473846153</v>
+      </c>
     </row>
     <row r="2618">
-      <c r="A2618" s="6"/>
-      <c r="B2618" s="3"/>
-      <c r="C2618" s="3"/>
-      <c r="D2618" s="3"/>
+      <c r="A2618" s="16" t="n">
+        <v>45339</v>
+      </c>
+      <c r="B2618" s="3" t="n">
+        <v>23.1050318579561</v>
+      </c>
+      <c r="C2618" s="3" t="n">
+        <v>24.6655932747911</v>
+      </c>
+      <c r="D2618" s="3" t="n">
+        <v>24.9678688222276</v>
+      </c>
     </row>
     <row r="2619">
-      <c r="A2619" s="6"/>
-      <c r="B2619" s="3"/>
-      <c r="C2619" s="3"/>
-      <c r="D2619" s="3"/>
+      <c r="A2619" s="16" t="n">
+        <v>45340</v>
+      </c>
+      <c r="B2619" s="3" t="n">
+        <v>23.1085207730292</v>
+      </c>
+      <c r="C2619" s="3" t="n">
+        <v>24.6639233596367</v>
+      </c>
+      <c r="D2619" s="3" t="n">
+        <v>24.9681205102799</v>
+      </c>
     </row>
     <row r="2620">
-      <c r="A2620" s="6"/>
-      <c r="B2620" s="3"/>
-      <c r="C2620" s="3"/>
-      <c r="D2620" s="3"/>
+      <c r="A2620" s="16" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B2620" s="3" t="n">
+        <v>23.119260392757</v>
+      </c>
+      <c r="C2620" s="3" t="n">
+        <v>24.6763813208369</v>
+      </c>
+      <c r="D2620" s="3" t="n">
+        <v>24.9719730969501</v>
+      </c>
     </row>
     <row r="2621">
-      <c r="A2621" s="6"/>
-      <c r="B2621" s="3"/>
-      <c r="C2621" s="3"/>
-      <c r="D2621" s="3"/>
+      <c r="A2621" s="16" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B2621" s="3" t="n">
+        <v>23.1307040266375</v>
+      </c>
+      <c r="C2621" s="3" t="n">
+        <v>24.6925742680059</v>
+      </c>
+      <c r="D2621" s="3" t="n">
+        <v>24.966088485746</v>
+      </c>
     </row>
     <row r="2622">
-      <c r="A2622" s="6"/>
-      <c r="B2622" s="3"/>
-      <c r="C2622" s="3"/>
-      <c r="D2622" s="3"/>
+      <c r="A2622" s="16" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B2622" s="3" t="n">
+        <v>23.128479191305</v>
+      </c>
+      <c r="C2622" s="3" t="n">
+        <v>24.7039428815004</v>
+      </c>
+      <c r="D2622" s="3" t="n">
+        <v>24.9584722736816</v>
+      </c>
     </row>
     <row r="2623">
-      <c r="A2623" s="6"/>
-      <c r="B2623" s="3"/>
-      <c r="C2623" s="3"/>
-      <c r="D2623" s="3"/>
+      <c r="A2623" s="16" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B2623" s="3" t="n">
+        <v>23.1125065131525</v>
+      </c>
+      <c r="C2623" s="3" t="n">
+        <v>24.691399806701</v>
+      </c>
+      <c r="D2623" s="3" t="n">
+        <v>24.9435378525483</v>
+      </c>
     </row>
     <row r="2624">
-      <c r="A2624" s="6"/>
-      <c r="B2624" s="3"/>
-      <c r="C2624" s="3"/>
-      <c r="D2624" s="3"/>
+      <c r="A2624" s="16" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B2624" s="3" t="n">
+        <v>23.1137288847803</v>
+      </c>
+      <c r="C2624" s="3" t="n">
+        <v>24.7034374999999</v>
+      </c>
+      <c r="D2624" s="3" t="n">
+        <v>24.9389386432141</v>
+      </c>
     </row>
     <row r="2625">
-      <c r="A2625" s="6"/>
-      <c r="B2625" s="3"/>
-      <c r="C2625" s="3"/>
-      <c r="D2625" s="3"/>
+      <c r="A2625" s="16" t="n">
+        <v>45346</v>
+      </c>
+      <c r="B2625" s="3" t="n">
+        <v>23.1147920525342</v>
+      </c>
+      <c r="C2625" s="3" t="n">
+        <v>24.7182284519726</v>
+      </c>
+      <c r="D2625" s="3" t="n">
+        <v>24.9467922061754</v>
+      </c>
     </row>
     <row r="2626">
-      <c r="A2626" s="6"/>
-      <c r="B2626" s="3"/>
-      <c r="C2626" s="3"/>
-      <c r="D2626" s="3"/>
+      <c r="A2626" s="16" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B2626" s="3" t="n">
+        <v>23.1147424204038</v>
+      </c>
+      <c r="C2626" s="3" t="n">
+        <v>24.7175326427107</v>
+      </c>
+      <c r="D2626" s="3" t="n">
+        <v>24.9504119638828</v>
+      </c>
     </row>
     <row r="2627">
-      <c r="A2627" s="6"/>
-      <c r="B2627" s="3"/>
-      <c r="C2627" s="3"/>
-      <c r="D2627" s="3"/>
+      <c r="A2627" s="16" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B2627" s="3" t="n">
+        <v>23.1224908782352</v>
+      </c>
+      <c r="C2627" s="3" t="n">
+        <v>24.7259509335649</v>
+      </c>
+      <c r="D2627" s="3" t="n">
+        <v>24.948670025189</v>
+      </c>
     </row>
     <row r="2628">
-      <c r="A2628" s="6"/>
-      <c r="B2628" s="3"/>
-      <c r="C2628" s="3"/>
-      <c r="D2628" s="3"/>
+      <c r="A2628" s="16" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B2628" s="3" t="n">
+        <v>23.1230524487375</v>
+      </c>
+      <c r="C2628" s="3" t="n">
+        <v>24.7338612847596</v>
+      </c>
+      <c r="D2628" s="3" t="n">
+        <v>24.9453893494097</v>
+      </c>
     </row>
     <row r="2629">
-      <c r="A2629" s="6"/>
-      <c r="B2629" s="3"/>
-      <c r="C2629" s="3"/>
-      <c r="D2629" s="3"/>
+      <c r="A2629" s="16" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B2629" s="3" t="n">
+        <v>23.1227523092714</v>
+      </c>
+      <c r="C2629" s="3" t="n">
+        <v>24.7557836787565</v>
+      </c>
+      <c r="D2629" s="3" t="n">
+        <v>24.9404469273744</v>
+      </c>
     </row>
     <row r="2630">
-      <c r="A2630" s="6"/>
-      <c r="B2630" s="3"/>
-      <c r="C2630" s="3"/>
-      <c r="D2630" s="3"/>
+      <c r="A2630" s="16" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B2630" s="3" t="n">
+        <v>23.1171207362821</v>
+      </c>
+      <c r="C2630" s="3" t="n">
+        <v>24.7748311588642</v>
+      </c>
+      <c r="D2630" s="3" t="n">
+        <v>24.9325965805275</v>
+      </c>
     </row>
     <row r="2631">
       <c r="A2631" s="6"/>
@@ -46146,33 +46440,47 @@
         <v>1415</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>22.98</v>
+        <v>22.976233458982</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>22.32</v>
+        <v>22.3158445896919</v>
       </c>
       <c r="E100" s="3" t="n">
-        <v>24.87</v>
+        <v>24.8736130997437</v>
       </c>
       <c r="F100" s="3" t="n">
-        <v>24.15</v>
+        <v>24.1490611653277</v>
       </c>
       <c r="G100" s="3" t="n">
-        <v>24.7</v>
+        <v>24.702615690899</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>24.42</v>
+        <v>24.4116059378991</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C101" s="3" t="n">
+        <v>23.6996236117548</v>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>22.9956150278462</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>25.3152294300865</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>24.5845548489001</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>25.1805784267156</v>
+      </c>
+      <c r="H101" s="3" t="n">
+        <v>24.8833641423928</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - febrero 2024</t>
+    <t xml:space="preserve">enero 2017 - marzo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: abril 2024</t>
+    <t xml:space="preserve">Próxima actualización: mayo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">febrero 2024</t>
+    <t xml:space="preserve">marzo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -41647,190 +41647,376 @@
       </c>
     </row>
     <row r="2631">
-      <c r="A2631" s="6"/>
-      <c r="B2631" s="3"/>
-      <c r="C2631" s="3"/>
-      <c r="D2631" s="3"/>
+      <c r="A2631" s="16"/>
+      <c r="B2631" s="3" t="n">
+        <v>23.1132447650894</v>
+      </c>
+      <c r="C2631" s="3" t="n">
+        <v>24.7630509366447</v>
+      </c>
+      <c r="D2631" s="3" t="n">
+        <v>24.9158143470904</v>
+      </c>
     </row>
     <row r="2632">
-      <c r="A2632" s="6"/>
-      <c r="B2632" s="3"/>
-      <c r="C2632" s="3"/>
-      <c r="D2632" s="3"/>
+      <c r="A2632" s="16"/>
+      <c r="B2632" s="3" t="n">
+        <v>23.114185092725</v>
+      </c>
+      <c r="C2632" s="3" t="n">
+        <v>24.7693619957537</v>
+      </c>
+      <c r="D2632" s="3" t="n">
+        <v>24.9157806468788</v>
+      </c>
     </row>
     <row r="2633">
-      <c r="A2633" s="6"/>
-      <c r="B2633" s="3"/>
-      <c r="C2633" s="3"/>
-      <c r="D2633" s="3"/>
+      <c r="A2633" s="16"/>
+      <c r="B2633" s="3" t="n">
+        <v>23.1113831893452</v>
+      </c>
+      <c r="C2633" s="3" t="n">
+        <v>24.7652072789922</v>
+      </c>
+      <c r="D2633" s="3" t="n">
+        <v>24.9112026090501</v>
+      </c>
     </row>
     <row r="2634">
-      <c r="A2634" s="6"/>
-      <c r="B2634" s="3"/>
-      <c r="C2634" s="3"/>
-      <c r="D2634" s="3"/>
+      <c r="A2634" s="16"/>
+      <c r="B2634" s="3" t="n">
+        <v>23.1136704052102</v>
+      </c>
+      <c r="C2634" s="3" t="n">
+        <v>24.7705051047825</v>
+      </c>
+      <c r="D2634" s="3" t="n">
+        <v>24.9118093278463</v>
+      </c>
     </row>
     <row r="2635">
-      <c r="A2635" s="6"/>
-      <c r="B2635" s="3"/>
-      <c r="C2635" s="3"/>
-      <c r="D2635" s="3"/>
+      <c r="A2635" s="16"/>
+      <c r="B2635" s="3" t="n">
+        <v>23.118881188119</v>
+      </c>
+      <c r="C2635" s="3" t="n">
+        <v>24.7861254651782</v>
+      </c>
+      <c r="D2635" s="3" t="n">
+        <v>24.9176538513789</v>
+      </c>
     </row>
     <row r="2636">
-      <c r="A2636" s="6"/>
-      <c r="B2636" s="3"/>
-      <c r="C2636" s="3"/>
-      <c r="D2636" s="3"/>
+      <c r="A2636" s="16"/>
+      <c r="B2636" s="3" t="n">
+        <v>23.1159432267339</v>
+      </c>
+      <c r="C2636" s="3" t="n">
+        <v>24.7960408076965</v>
+      </c>
+      <c r="D2636" s="3" t="n">
+        <v>24.9139333604225</v>
+      </c>
     </row>
     <row r="2637">
-      <c r="A2637" s="6"/>
-      <c r="B2637" s="3"/>
-      <c r="C2637" s="3"/>
-      <c r="D2637" s="3"/>
+      <c r="A2637" s="16"/>
+      <c r="B2637" s="3" t="n">
+        <v>23.1097739504846</v>
+      </c>
+      <c r="C2637" s="3" t="n">
+        <v>24.8058350015806</v>
+      </c>
+      <c r="D2637" s="3" t="n">
+        <v>24.9121835185687</v>
+      </c>
     </row>
     <row r="2638">
-      <c r="A2638" s="6"/>
-      <c r="B2638" s="3"/>
-      <c r="C2638" s="3"/>
-      <c r="D2638" s="3"/>
+      <c r="A2638" s="16"/>
+      <c r="B2638" s="3" t="n">
+        <v>23.1003201793724</v>
+      </c>
+      <c r="C2638" s="3" t="n">
+        <v>24.804832016851</v>
+      </c>
+      <c r="D2638" s="3" t="n">
+        <v>24.9124572823434</v>
+      </c>
     </row>
     <row r="2639">
-      <c r="A2639" s="6"/>
-      <c r="B2639" s="3"/>
-      <c r="C2639" s="3"/>
-      <c r="D2639" s="3"/>
+      <c r="A2639" s="16"/>
+      <c r="B2639" s="3" t="n">
+        <v>23.0944117118738</v>
+      </c>
+      <c r="C2639" s="3" t="n">
+        <v>24.8074595964932</v>
+      </c>
+      <c r="D2639" s="3" t="n">
+        <v>24.9183192820234</v>
+      </c>
     </row>
     <row r="2640">
-      <c r="A2640" s="6"/>
-      <c r="B2640" s="3"/>
-      <c r="C2640" s="3"/>
-      <c r="D2640" s="3"/>
+      <c r="A2640" s="16"/>
+      <c r="B2640" s="3" t="n">
+        <v>23.0951575905357</v>
+      </c>
+      <c r="C2640" s="3" t="n">
+        <v>24.8048468410978</v>
+      </c>
+      <c r="D2640" s="3" t="n">
+        <v>24.9183015764222</v>
+      </c>
     </row>
     <row r="2641">
-      <c r="A2641" s="6"/>
-      <c r="B2641" s="3"/>
-      <c r="C2641" s="3"/>
-      <c r="D2641" s="3"/>
+      <c r="A2641" s="16"/>
+      <c r="B2641" s="3" t="n">
+        <v>23.0956098233997</v>
+      </c>
+      <c r="C2641" s="3" t="n">
+        <v>24.8152356811566</v>
+      </c>
+      <c r="D2641" s="3" t="n">
+        <v>24.9157198989616</v>
+      </c>
     </row>
     <row r="2642">
-      <c r="A2642" s="6"/>
-      <c r="B2642" s="3"/>
-      <c r="C2642" s="3"/>
-      <c r="D2642" s="3"/>
+      <c r="A2642" s="16"/>
+      <c r="B2642" s="3" t="n">
+        <v>23.084814201619</v>
+      </c>
+      <c r="C2642" s="3" t="n">
+        <v>24.8154872402286</v>
+      </c>
+      <c r="D2642" s="3" t="n">
+        <v>24.912164021907</v>
+      </c>
     </row>
     <row r="2643">
-      <c r="A2643" s="6"/>
-      <c r="B2643" s="3"/>
-      <c r="C2643" s="3"/>
-      <c r="D2643" s="3"/>
+      <c r="A2643" s="16"/>
+      <c r="B2643" s="3" t="n">
+        <v>23.0795831789553</v>
+      </c>
+      <c r="C2643" s="3" t="n">
+        <v>24.8279722461277</v>
+      </c>
+      <c r="D2643" s="3" t="n">
+        <v>24.9119316094391</v>
+      </c>
     </row>
     <row r="2644">
-      <c r="A2644" s="6"/>
-      <c r="B2644" s="3"/>
-      <c r="C2644" s="3"/>
-      <c r="D2644" s="3"/>
+      <c r="A2644" s="16"/>
+      <c r="B2644" s="3" t="n">
+        <v>23.0655835782689</v>
+      </c>
+      <c r="C2644" s="3" t="n">
+        <v>24.8417528236321</v>
+      </c>
+      <c r="D2644" s="3" t="n">
+        <v>24.9010717926314</v>
+      </c>
     </row>
     <row r="2645">
-      <c r="A2645" s="6"/>
-      <c r="B2645" s="3"/>
-      <c r="C2645" s="3"/>
-      <c r="D2645" s="3"/>
+      <c r="A2645" s="16"/>
+      <c r="B2645" s="3" t="n">
+        <v>23.071387727317</v>
+      </c>
+      <c r="C2645" s="3" t="n">
+        <v>24.8768284931511</v>
+      </c>
+      <c r="D2645" s="3" t="n">
+        <v>24.9041204674858</v>
+      </c>
     </row>
     <row r="2646">
-      <c r="A2646" s="6"/>
-      <c r="B2646" s="3"/>
-      <c r="C2646" s="3"/>
-      <c r="D2646" s="3"/>
+      <c r="A2646" s="16"/>
+      <c r="B2646" s="3" t="n">
+        <v>23.1376015117743</v>
+      </c>
+      <c r="C2646" s="3" t="n">
+        <v>24.9517163043484</v>
+      </c>
+      <c r="D2646" s="3" t="n">
+        <v>24.9399084359053</v>
+      </c>
     </row>
     <row r="2647">
-      <c r="A2647" s="6"/>
-      <c r="B2647" s="3"/>
-      <c r="C2647" s="3"/>
-      <c r="D2647" s="3"/>
+      <c r="A2647" s="16"/>
+      <c r="B2647" s="3" t="n">
+        <v>23.1292215807285</v>
+      </c>
+      <c r="C2647" s="3" t="n">
+        <v>24.9601786308669</v>
+      </c>
+      <c r="D2647" s="3" t="n">
+        <v>24.9347210567213</v>
+      </c>
     </row>
     <row r="2648">
-      <c r="A2648" s="6"/>
-      <c r="B2648" s="3"/>
-      <c r="C2648" s="3"/>
-      <c r="D2648" s="3"/>
+      <c r="A2648" s="16"/>
+      <c r="B2648" s="3" t="n">
+        <v>23.1448198015794</v>
+      </c>
+      <c r="C2648" s="3" t="n">
+        <v>24.9751345616977</v>
+      </c>
+      <c r="D2648" s="3" t="n">
+        <v>24.930683584457</v>
+      </c>
     </row>
     <row r="2649">
-      <c r="A2649" s="6"/>
-      <c r="B2649" s="3"/>
-      <c r="C2649" s="3"/>
-      <c r="D2649" s="3"/>
+      <c r="A2649" s="16"/>
+      <c r="B2649" s="3" t="n">
+        <v>23.1823183632736</v>
+      </c>
+      <c r="C2649" s="3" t="n">
+        <v>24.9990944881893</v>
+      </c>
+      <c r="D2649" s="3" t="n">
+        <v>24.9499265854422</v>
+      </c>
     </row>
     <row r="2650">
-      <c r="A2650" s="6"/>
-      <c r="B2650" s="3"/>
-      <c r="C2650" s="3"/>
-      <c r="D2650" s="3"/>
+      <c r="A2650" s="16"/>
+      <c r="B2650" s="3" t="n">
+        <v>23.2303468829395</v>
+      </c>
+      <c r="C2650" s="3" t="n">
+        <v>25.0386474310848</v>
+      </c>
+      <c r="D2650" s="3" t="n">
+        <v>24.9794318357265</v>
+      </c>
     </row>
     <row r="2651">
-      <c r="A2651" s="6"/>
-      <c r="B2651" s="3"/>
-      <c r="C2651" s="3"/>
-      <c r="D2651" s="3"/>
+      <c r="A2651" s="16"/>
+      <c r="B2651" s="3" t="n">
+        <v>23.2918851423578</v>
+      </c>
+      <c r="C2651" s="3" t="n">
+        <v>25.0852744352971</v>
+      </c>
+      <c r="D2651" s="3" t="n">
+        <v>25.0051282442749</v>
+      </c>
     </row>
     <row r="2652">
-      <c r="A2652" s="6"/>
-      <c r="B2652" s="3"/>
-      <c r="C2652" s="3"/>
-      <c r="D2652" s="3"/>
+      <c r="A2652" s="16"/>
+      <c r="B2652" s="3" t="n">
+        <v>23.328408065291</v>
+      </c>
+      <c r="C2652" s="3" t="n">
+        <v>25.1218443474647</v>
+      </c>
+      <c r="D2652" s="3" t="n">
+        <v>25.0191051285909</v>
+      </c>
     </row>
     <row r="2653">
-      <c r="A2653" s="6"/>
-      <c r="B2653" s="3"/>
-      <c r="C2653" s="3"/>
-      <c r="D2653" s="3"/>
+      <c r="A2653" s="16"/>
+      <c r="B2653" s="3" t="n">
+        <v>23.3533107786149</v>
+      </c>
+      <c r="C2653" s="3" t="n">
+        <v>25.1414144431852</v>
+      </c>
+      <c r="D2653" s="3" t="n">
+        <v>25.0243473053894</v>
+      </c>
     </row>
     <row r="2654">
-      <c r="A2654" s="6"/>
-      <c r="B2654" s="3"/>
-      <c r="C2654" s="3"/>
-      <c r="D2654" s="3"/>
+      <c r="A2654" s="16"/>
+      <c r="B2654" s="3" t="n">
+        <v>23.3569802789808</v>
+      </c>
+      <c r="C2654" s="3" t="n">
+        <v>25.1454888773923</v>
+      </c>
+      <c r="D2654" s="3" t="n">
+        <v>25.0292056995606</v>
+      </c>
     </row>
     <row r="2655">
-      <c r="A2655" s="6"/>
-      <c r="B2655" s="3"/>
-      <c r="C2655" s="3"/>
-      <c r="D2655" s="3"/>
+      <c r="A2655" s="16"/>
+      <c r="B2655" s="3" t="n">
+        <v>23.359391521677</v>
+      </c>
+      <c r="C2655" s="3" t="n">
+        <v>25.1554522043672</v>
+      </c>
+      <c r="D2655" s="3" t="n">
+        <v>25.0283111178432</v>
+      </c>
     </row>
     <row r="2656">
-      <c r="A2656" s="6"/>
-      <c r="B2656" s="3"/>
-      <c r="C2656" s="3"/>
-      <c r="D2656" s="3"/>
+      <c r="A2656" s="16"/>
+      <c r="B2656" s="3" t="n">
+        <v>23.3595702087292</v>
+      </c>
+      <c r="C2656" s="3" t="n">
+        <v>25.1689275568177</v>
+      </c>
+      <c r="D2656" s="3" t="n">
+        <v>25.0303800119691</v>
+      </c>
     </row>
     <row r="2657">
-      <c r="A2657" s="6"/>
-      <c r="B2657" s="3"/>
-      <c r="C2657" s="3"/>
-      <c r="D2657" s="3"/>
+      <c r="A2657" s="16"/>
+      <c r="B2657" s="3" t="n">
+        <v>23.3561940298513</v>
+      </c>
+      <c r="C2657" s="3" t="n">
+        <v>25.1695923913039</v>
+      </c>
+      <c r="D2657" s="3" t="n">
+        <v>25.0333889468198</v>
+      </c>
     </row>
     <row r="2658">
-      <c r="A2658" s="6"/>
-      <c r="B2658" s="3"/>
-      <c r="C2658" s="3"/>
-      <c r="D2658" s="3"/>
+      <c r="A2658" s="16"/>
+      <c r="B2658" s="3" t="n">
+        <v>23.3452125153149</v>
+      </c>
+      <c r="C2658" s="3" t="n">
+        <v>25.1665214779209</v>
+      </c>
+      <c r="D2658" s="3" t="n">
+        <v>25.0285454002392</v>
+      </c>
     </row>
     <row r="2659">
-      <c r="A2659" s="6"/>
-      <c r="B2659" s="3"/>
-      <c r="C2659" s="3"/>
-      <c r="D2659" s="3"/>
+      <c r="A2659" s="16"/>
+      <c r="B2659" s="3" t="n">
+        <v>23.33639772188</v>
+      </c>
+      <c r="C2659" s="3" t="n">
+        <v>25.1654381210475</v>
+      </c>
+      <c r="D2659" s="3" t="n">
+        <v>25.0236377267959</v>
+      </c>
     </row>
     <row r="2660">
-      <c r="A2660" s="6"/>
-      <c r="B2660" s="3"/>
-      <c r="C2660" s="3"/>
-      <c r="D2660" s="3"/>
+      <c r="A2660" s="16"/>
+      <c r="B2660" s="3" t="n">
+        <v>23.3338942445363</v>
+      </c>
+      <c r="C2660" s="3" t="n">
+        <v>25.1612767244853</v>
+      </c>
+      <c r="D2660" s="3" t="n">
+        <v>25.0263781079444</v>
+      </c>
     </row>
     <row r="2661">
-      <c r="A2661" s="6"/>
-      <c r="B2661" s="3"/>
-      <c r="C2661" s="3"/>
-      <c r="D2661" s="3"/>
+      <c r="A2661" s="16"/>
+      <c r="B2661" s="3" t="n">
+        <v>23.3316186082282</v>
+      </c>
+      <c r="C2661" s="3" t="n">
+        <v>25.1600971561579</v>
+      </c>
+      <c r="D2661" s="3" t="n">
+        <v>25.0269667738479</v>
+      </c>
     </row>
     <row r="2662">
       <c r="A2662" s="6"/>
@@ -44410,22 +44596,22 @@
         <v>1415</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>16.4563926321609</v>
+        <v>16.46</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>16.0049804909286</v>
+        <v>16</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>18.3047509998448</v>
+        <v>18.31</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>17.8167725639798</v>
+        <v>17.82</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>17.2945027526445</v>
+        <v>17.29</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>17.0743136151214</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="17">
@@ -44434,22 +44620,22 @@
         <v>1416</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>16.4444385250086</v>
+        <v>16.44</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>15.8508929874362</v>
+        <v>15.88</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>18.2927512903656</v>
+        <v>18.29</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>17.7165134606824</v>
+        <v>17.73</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>17.2884627385075</v>
+        <v>17.28</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>17.0655977030475</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="18">
@@ -44458,22 +44644,22 @@
         <v>1417</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>16.3548961058288</v>
+        <v>16.36</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>15.7837102260116</v>
+        <v>15.78</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>18.2049051372082</v>
+        <v>18.21</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>17.6380595611068</v>
+        <v>17.64</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>17.164721707315</v>
+        <v>17.16</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>16.9498532895533</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="19">
@@ -44482,22 +44668,22 @@
         <v>1418</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>16.3560972158371</v>
+        <v>16.36</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>15.7777745923846</v>
+        <v>15.78</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>18.1811923048406</v>
+        <v>18.18</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>17.6011577310834</v>
+        <v>17.6</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>17.0956173161341</v>
+        <v>17.1</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>16.8837210736365</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="20">
@@ -44506,22 +44692,22 @@
         <v>1419</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>16.2394532039257</v>
+        <v>16.24</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>15.6770200598946</v>
+        <v>15.68</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>18.1082953836004</v>
+        <v>18.11</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>17.5313693626132</v>
+        <v>17.53</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>16.9757140270933</v>
+        <v>16.98</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>16.7661412693482</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="21">
@@ -44530,22 +44716,22 @@
         <v>1420</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>16.1180677380863</v>
+        <v>16.12</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>15.5734280107338</v>
+        <v>15.57</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>17.9783785441807</v>
+        <v>17.98</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>17.4035037176075</v>
+        <v>17.4</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>16.7962387539191</v>
+        <v>16.8</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>16.5908940110547</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="22">
@@ -44554,22 +44740,22 @@
         <v>1421</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>16.0274208341791</v>
+        <v>16.03</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>15.4830190630821</v>
+        <v>15.48</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>17.8771113713502</v>
+        <v>17.88</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>17.3030561538725</v>
+        <v>17.3</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>16.6700359322852</v>
+        <v>16.67</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>16.4629208193249</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="23">
@@ -44578,22 +44764,22 @@
         <v>1422</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>16.0910903185722</v>
+        <v>16.09</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>15.559245428146</v>
+        <v>15.56</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>17.9545830945797</v>
+        <v>17.96</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>17.3895679098543</v>
+        <v>17.39</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>16.7232123409936</v>
+        <v>16.72</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>16.5154317053887</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="24">
@@ -44602,22 +44788,22 @@
         <v>1423</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>16.3143868686572</v>
+        <v>16.32</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>15.7850845379142</v>
+        <v>15.79</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>18.2042669066836</v>
+        <v>18.21</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>17.6390110492795</v>
+        <v>17.64</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>16.9747011762476</v>
+        <v>16.98</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>16.7681907048048</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="25">
@@ -44626,22 +44812,22 @@
         <v>1424</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>16.4429161393275</v>
+        <v>16.44</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>15.9176840132329</v>
+        <v>15.92</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>18.2955297739884</v>
+        <v>18.3</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>17.7402570952788</v>
+        <v>17.74</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>17.1660112899598</v>
+        <v>17.17</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>16.9593770088327</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="26">
@@ -44650,22 +44836,22 @@
         <v>1425</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>16.5223048817771</v>
+        <v>16.52</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>16.0178973380229</v>
+        <v>16.02</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>18.396479799622</v>
+        <v>18.4</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>17.8530751466045</v>
+        <v>17.85</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>17.286427085808</v>
+        <v>17.29</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>17.0835048319778</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="27">
@@ -44674,22 +44860,22 @@
         <v>1426</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>16.6704789181466</v>
+        <v>16.67</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>16.1586334483668</v>
+        <v>16.16</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>18.5239435899965</v>
+        <v>18.52</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>17.9753125960877</v>
+        <v>17.98</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>17.4418023401089</v>
+        <v>17.44</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>17.241641537202</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="28">
@@ -44700,22 +44886,22 @@
         <v>1415</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>17.285123927708</v>
+        <v>17.29</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>16.7058326837273</v>
+        <v>16.71</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>19.0242886586665</v>
+        <v>19.03</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>18.4573788180457</v>
+        <v>18.46</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>18.0268701053176</v>
+        <v>18.03</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>17.7838925276589</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="29">
@@ -44724,22 +44910,22 @@
         <v>1416</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>18.0839516412801</v>
+        <v>18.09</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>17.3510480320334</v>
+        <v>17.35</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>19.6726786533626</v>
+        <v>19.67</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>19.0006811430012</v>
+        <v>19</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>18.7838174130915</v>
+        <v>18.78</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>18.447064021845</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="30">
@@ -44748,22 +44934,22 @@
         <v>1417</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>18.3287735220584</v>
+        <v>18.33</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>17.5794713557994</v>
+        <v>17.58</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>19.8336173855765</v>
+        <v>19.83</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>19.1569076309949</v>
+        <v>19.16</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>19.0436885343071</v>
+        <v>19.04</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>18.689965982853</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="31">
@@ -44772,22 +44958,22 @@
         <v>1418</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>18.4167612007118</v>
+        <v>18.42</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>17.6817100164797</v>
+        <v>17.68</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>19.8889487056488</v>
+        <v>19.89</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>19.2328668629716</v>
+        <v>19.23</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>19.1217144153351</v>
+        <v>19.12</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>18.7805452472402</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="32">
@@ -44796,22 +44982,22 @@
         <v>1419</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>18.6518505704888</v>
+        <v>18.65</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>17.8893663769458</v>
+        <v>17.89</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>20.096047236079</v>
+        <v>20.1</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>19.3941031740233</v>
+        <v>19.39</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>19.3331360333347</v>
+        <v>19.33</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>18.938496349444</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="33">
@@ -44820,22 +45006,22 @@
         <v>1420</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>18.9418986145202</v>
+        <v>18.94</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>18.0958433772638</v>
+        <v>18.1</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>20.3876388713605</v>
+        <v>20.39</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>19.6137084607825</v>
+        <v>19.62</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>19.6214311331807</v>
+        <v>19.62</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>19.1741754125319</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="34">
@@ -44844,22 +45030,22 @@
         <v>1421</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>19.2196076400867</v>
+        <v>19.22</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>18.4513930191822</v>
+        <v>18.45</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>20.6519650530373</v>
+        <v>20.65</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>19.9667427067371</v>
+        <v>19.97</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>19.9132860923658</v>
+        <v>19.91</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>19.5321493256491</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="35">
@@ -44868,22 +45054,22 @@
         <v>1422</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>19.6342249264224</v>
+        <v>19.63</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>18.9710861967979</v>
+        <v>18.97</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>21.002538750951</v>
+        <v>21</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>20.4693773184157</v>
+        <v>20.47</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>20.3445458862454</v>
+        <v>20.34</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>20.0450811853639</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="36">
@@ -44892,22 +45078,22 @@
         <v>1423</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>19.8940793866526</v>
+        <v>19.89</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>19.2285931239814</v>
+        <v>19.23</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>21.2367617556413</v>
+        <v>21.24</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>20.7003512679009</v>
+        <v>20.7</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>20.5913705785879</v>
+        <v>20.59</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>20.3218888119059</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="37">
@@ -44916,22 +45102,22 @@
         <v>1424</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>20.1412539421152</v>
+        <v>20.14</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>19.4300867768469</v>
+        <v>19.43</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>21.4835322117016</v>
+        <v>21.48</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>20.9405491075227</v>
+        <v>20.94</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>20.8753856547553</v>
+        <v>20.87</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>20.6111327612014</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="38">
@@ -44940,22 +45126,22 @@
         <v>1425</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>20.1839990142598</v>
+        <v>20.19</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>19.404950840374</v>
+        <v>19.41</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>21.5187798722356</v>
+        <v>21.52</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>20.9440410360925</v>
+        <v>20.95</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>21.0445281677234</v>
+        <v>21.04</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>20.7822507571032</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="39">
@@ -44964,22 +45150,22 @@
         <v>1426</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>19.9517924815309</v>
+        <v>19.95</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>19.104687517973</v>
+        <v>19.1</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>21.2848769223453</v>
+        <v>21.28</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>20.6510644625788</v>
+        <v>20.65</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>20.9323412669665</v>
+        <v>20.93</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>20.6613762073583</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="40">
@@ -44990,22 +45176,22 @@
         <v>1415</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>19.8931471220353</v>
+        <v>19.9</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>18.8162703080703</v>
+        <v>18.82</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>21.1065216381746</v>
+        <v>21.11</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>20.1998902365743</v>
+        <v>20.2</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>20.9431743454288</v>
+        <v>20.94</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>20.5835196329617</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="41">
@@ -45014,22 +45200,22 @@
         <v>1416</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>20.3013917299176</v>
+        <v>20.31</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>19.2383698717479</v>
+        <v>19.25</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>21.2240400620112</v>
+        <v>21.23</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>20.1855787098196</v>
+        <v>20.19</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>21.8010210797208</v>
+        <v>21.81</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>21.4170915258341</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="42">
@@ -45038,22 +45224,22 @@
         <v>1417</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>20.7744284730642</v>
+        <v>20.78</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>19.7407558683515</v>
+        <v>19.74</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>21.6430846829845</v>
+        <v>21.64</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>20.8386101972933</v>
+        <v>20.84</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>21.92746708861</v>
+        <v>21.93</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>21.5296413084284</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="43">
@@ -45062,22 +45248,22 @@
         <v>1418</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>20.6588906757132</v>
+        <v>20.66</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>19.5215373833411</v>
+        <v>19.52</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>21.7442750614585</v>
+        <v>21.75</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>20.9419998056172</v>
+        <v>20.94</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>21.7386803341271</v>
+        <v>21.74</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>21.3335600073774</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="44">
@@ -45086,22 +45272,22 @@
         <v>1419</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>20.6614093159045</v>
+        <v>20.66</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>19.4420275152358</v>
+        <v>19.44</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>21.7663786886945</v>
+        <v>21.77</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>20.9466845390632</v>
+        <v>20.95</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>21.6602215772959</v>
+        <v>21.66</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>21.2461489295563</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="45">
@@ -45110,22 +45296,22 @@
         <v>1420</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>20.5192302672233</v>
+        <v>20.52</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>19.3298048986649</v>
+        <v>19.33</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>21.750355039393</v>
+        <v>21.75</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>20.9520787833364</v>
+        <v>20.95</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>21.4560554011632</v>
+        <v>21.46</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>21.041225877984</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="46">
@@ -45134,22 +45320,22 @@
         <v>1421</v>
       </c>
       <c r="C46" s="3" t="n">
-        <v>20.5290537102723</v>
+        <v>20.53</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>19.3989640169521</v>
+        <v>19.4</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>21.7644947356634</v>
+        <v>21.76</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>20.9663593503145</v>
+        <v>20.97</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>21.497953235815</v>
+        <v>21.5</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>21.1260712173493</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="47">
@@ -45158,22 +45344,22 @@
         <v>1422</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>20.3882030396639</v>
+        <v>20.38</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>19.2848201268113</v>
+        <v>19.28</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>21.7473092648432</v>
+        <v>21.75</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>20.9442201477384</v>
+        <v>20.94</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>21.4243096712445</v>
+        <v>21.42</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>21.0993802885604</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="48">
@@ -45182,22 +45368,22 @@
         <v>1423</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>20.3691878429132</v>
+        <v>20.37</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>19.3686493233951</v>
+        <v>19.37</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>21.7539969623199</v>
+        <v>21.76</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>20.9440418045859</v>
+        <v>20.94</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>21.4140006063609</v>
+        <v>21.41</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>21.1508491680876</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="49">
@@ -45206,22 +45392,22 @@
         <v>1424</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>20.348828349989</v>
+        <v>20.35</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>19.3277841847169</v>
+        <v>19.33</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>21.7453973001408</v>
+        <v>21.74</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>20.8929770231143</v>
+        <v>20.89</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>21.3590362491251</v>
+        <v>21.36</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>21.0837162974059</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="50">
@@ -45230,22 +45416,22 @@
         <v>1425</v>
       </c>
       <c r="C50" s="3" t="n">
-        <v>20.3388963615889</v>
+        <v>20.34</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>19.3199816132102</v>
+        <v>19.32</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>21.7093919240848</v>
+        <v>21.71</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>20.7309720497456</v>
+        <v>20.73</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>21.3204729783193</v>
+        <v>21.32</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>21.0690149244099</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="51">
@@ -45254,22 +45440,22 @@
         <v>1426</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>20.4740419699867</v>
+        <v>20.47</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>19.4418210937631</v>
+        <v>19.44</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>21.7606700425749</v>
+        <v>21.76</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>20.7767170929735</v>
+        <v>20.78</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>21.4401074890467</v>
+        <v>21.44</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>21.2124560152897</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="52">
@@ -45280,22 +45466,22 @@
         <v>1415</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>20.5788999500595</v>
+        <v>20.58</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>19.5185418298373</v>
+        <v>19.52</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>21.8105167895349</v>
+        <v>21.81</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>20.827147521873</v>
+        <v>20.83</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>21.5055793335004</v>
+        <v>21.5</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>21.2791101350767</v>
+        <v>21.28</v>
       </c>
     </row>
     <row r="53">
@@ -45304,22 +45490,22 @@
         <v>1416</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>20.427785187324</v>
+        <v>20.43</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>19.4048909543637</v>
+        <v>19.41</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>21.5328682302756</v>
+        <v>21.53</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>20.5063755116373</v>
+        <v>20.51</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>21.3103756080767</v>
+        <v>21.3</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>21.0207979090789</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="54">
@@ -45328,22 +45514,22 @@
         <v>1417</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>19.0113645678987</v>
+        <v>18.87</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>17.885451920244</v>
+        <v>17.8</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>20.1297724134579</v>
+        <v>19.99</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>19.1086112897634</v>
+        <v>19.02</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>20.4507805964608</v>
+        <v>20.37</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>20.177345112898</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="55">
@@ -45352,22 +45538,22 @@
         <v>1418</v>
       </c>
       <c r="C55" s="3" t="n">
-        <v>16.0157869814162</v>
+        <v>16.02</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>15.1018600996677</v>
+        <v>15.1</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>17.2770659198489</v>
+        <v>17.28</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>16.4448504372668</v>
+        <v>16.45</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>19.2025149519247</v>
+        <v>19.21</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>19.0253679920456</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="56">
@@ -45376,22 +45562,22 @@
         <v>1419</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>17.0334726373663</v>
+        <v>17.06</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>16.2544161259429</v>
+        <v>16.27</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>17.7779940960842</v>
+        <v>17.8</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>17.0619537674636</v>
+        <v>17.08</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>18.7022594945499</v>
+        <v>18.7</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>18.5671217783141</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="57">
@@ -45400,22 +45586,22 @@
         <v>1420</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>18.3723666030823</v>
+        <v>18.37</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>17.6533766023432</v>
+        <v>17.65</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>18.8491943870297</v>
+        <v>18.85</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>18.161831372714</v>
+        <v>18.16</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>19.2263847547891</v>
+        <v>19.23</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>19.1257122979073</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="58">
@@ -45424,22 +45610,22 @@
         <v>1421</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>19.3879375294564</v>
+        <v>19.39</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>18.6005882678346</v>
+        <v>18.6</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>19.7380749465227</v>
+        <v>19.74</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>19.0767523341816</v>
+        <v>19.08</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>19.8674643658275</v>
+        <v>19.86</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>19.6952183688986</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="59">
@@ -45448,22 +45634,22 @@
         <v>1422</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>19.3523074622522</v>
+        <v>19.35</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>18.6006274571981</v>
+        <v>18.6</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>19.716997644168</v>
+        <v>19.72</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>19.0867437962678</v>
+        <v>19.09</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>19.9157126681953</v>
+        <v>19.91</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>19.7027314217781</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="60">
@@ -45472,22 +45658,22 @@
         <v>1423</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>19.2153781310588</v>
+        <v>19.21</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>18.5350201168182</v>
+        <v>18.53</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>19.6056531903731</v>
+        <v>19.6</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>19.0450647563745</v>
+        <v>19.04</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>19.653683905842</v>
+        <v>19.64</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>19.4000656107533</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="61">
@@ -45496,22 +45682,22 @@
         <v>1424</v>
       </c>
       <c r="C61" s="3" t="n">
-        <v>19.0440042103472</v>
+        <v>19.04</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>18.3925417170002</v>
+        <v>18.39</v>
       </c>
       <c r="E61" s="3" t="n">
-        <v>19.4893057076745</v>
+        <v>19.49</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>18.9289103667786</v>
+        <v>18.92</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>19.2786117436252</v>
+        <v>19.28</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>19.0601558582449</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="62">
@@ -45520,22 +45706,22 @@
         <v>1425</v>
       </c>
       <c r="C62" s="3" t="n">
-        <v>18.2987737267123</v>
+        <v>18.29</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>17.7215548105422</v>
+        <v>17.72</v>
       </c>
       <c r="E62" s="3" t="n">
-        <v>18.8736317263882</v>
+        <v>18.87</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>18.3500834980045</v>
+        <v>18.34</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>18.9388290600482</v>
+        <v>18.93</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>18.8019315650339</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="63">
@@ -45544,22 +45730,22 @@
         <v>1426</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>18.4415312879217</v>
+        <v>18.44</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>17.9135361707707</v>
+        <v>17.92</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>18.971048182647</v>
+        <v>18.97</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>18.4804350674915</v>
+        <v>18.48</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>19.2426564636089</v>
+        <v>19.24</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>19.1520738434517</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="64">
@@ -45570,22 +45756,22 @@
         <v>1415</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>19.4079337113836</v>
+        <v>19.42</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>18.9243960707144</v>
+        <v>18.93</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>19.8682691861778</v>
+        <v>19.88</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>19.4376219828258</v>
+        <v>19.45</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>19.9139582142334</v>
+        <v>19.92</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>19.8707428496037</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="65">
@@ -45594,22 +45780,22 @@
         <v>1416</v>
       </c>
       <c r="C65" s="3" t="n">
-        <v>20.2074004150879</v>
+        <v>20.21</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>19.7505008653741</v>
+        <v>19.75</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>20.8357311904004</v>
+        <v>20.84</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>20.4193068714953</v>
+        <v>20.42</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>20.7159493284952</v>
+        <v>20.71</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>20.7451513945409</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="66">
@@ -45618,22 +45804,22 @@
         <v>1417</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>20.6964194817611</v>
+        <v>20.69</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>20.1058595572337</v>
+        <v>20.1</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>22.1807213214588</v>
+        <v>22.18</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>21.5910042147887</v>
+        <v>21.59</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>21.4830039922846</v>
+        <v>21.48</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>21.4276209117979</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="67">
@@ -45642,22 +45828,22 @@
         <v>1418</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>20.7308297358785</v>
+        <v>20.73</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>20.1872522669656</v>
+        <v>20.19</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>22.3891148904204</v>
+        <v>22.38</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>21.8838692396097</v>
+        <v>21.88</v>
       </c>
       <c r="G67" s="3" t="n">
-        <v>21.6496451613442</v>
+        <v>21.64</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>21.5491744513175</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="68">
@@ -45666,22 +45852,22 @@
         <v>1419</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>20.7844168031617</v>
+        <v>20.78</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>20.2238548339058</v>
+        <v>20.22</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>22.5177533995697</v>
+        <v>22.51</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>22.0150561115614</v>
+        <v>22.01</v>
       </c>
       <c r="G68" s="3" t="n">
-        <v>21.8172513819571</v>
+        <v>21.81</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>21.6851540525282</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="69">
@@ -45690,22 +45876,22 @@
         <v>1420</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>20.7865720842342</v>
+        <v>20.78</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>20.2690442064341</v>
+        <v>20.27</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>22.581968000779</v>
+        <v>22.58</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>22.1309016385146</v>
+        <v>22.13</v>
       </c>
       <c r="G69" s="3" t="n">
-        <v>21.8055485203615</v>
+        <v>21.8</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>21.732751381016</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="70">
@@ -45714,22 +45900,22 @@
         <v>1421</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>20.7034446187663</v>
+        <v>20.7</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>20.2834769970071</v>
+        <v>20.28</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>22.6272224088656</v>
+        <v>22.62</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>22.2082630839988</v>
+        <v>22.21</v>
       </c>
       <c r="G70" s="3" t="n">
-        <v>21.8019515949038</v>
+        <v>21.79</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>21.7354963533589</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="71">
@@ -45738,22 +45924,22 @@
         <v>1422</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>20.6232831107389</v>
+        <v>20.61</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>20.3027005096969</v>
+        <v>20.3</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>22.6680463146272</v>
+        <v>22.66</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>22.291945764376</v>
+        <v>22.29</v>
       </c>
       <c r="G71" s="3" t="n">
-        <v>21.7968837806984</v>
+        <v>21.78</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>21.7870390921737</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="72">
@@ -45762,22 +45948,22 @@
         <v>1423</v>
       </c>
       <c r="C72" s="3" t="n">
-        <v>20.5464718794372</v>
+        <v>20.54</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>20.1890565527936</v>
+        <v>20.19</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>22.6756995804713</v>
+        <v>22.67</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>22.3037979541638</v>
+        <v>22.3</v>
       </c>
       <c r="G72" s="3" t="n">
-        <v>21.7530876669217</v>
+        <v>21.75</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>21.7252354130321</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="73">
@@ -45786,22 +45972,22 @@
         <v>1424</v>
       </c>
       <c r="C73" s="3" t="n">
-        <v>20.4592163297172</v>
+        <v>20.45</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>20.1275373147093</v>
+        <v>20.13</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>22.6777968539807</v>
+        <v>22.67</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>22.3590220572557</v>
+        <v>22.36</v>
       </c>
       <c r="G73" s="3" t="n">
-        <v>21.6736414388951</v>
+        <v>21.67</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>21.7081853844781</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="74">
@@ -45810,22 +45996,22 @@
         <v>1425</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>20.4366281700018</v>
+        <v>20.44</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>20.0649044777706</v>
+        <v>20.07</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>22.7023721544429</v>
+        <v>22.7</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>22.2826305579075</v>
+        <v>22.28</v>
       </c>
       <c r="G74" s="3" t="n">
-        <v>21.6298265670886</v>
+        <v>21.63</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>21.6420989374039</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="75">
@@ -45834,22 +46020,22 @@
         <v>1426</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>20.7772917799114</v>
+        <v>20.78</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>20.2763577551438</v>
+        <v>20.28</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>22.9300141945325</v>
+        <v>22.93</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>22.4490790455572</v>
+        <v>22.45</v>
       </c>
       <c r="G75" s="3" t="n">
-        <v>21.8999608070896</v>
+        <v>21.9</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>21.8199123039081</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="76">
@@ -45860,22 +46046,22 @@
         <v>1415</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>21.1711532073344</v>
+        <v>21.17</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>20.6509258006312</v>
+        <v>20.65</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>23.2961619514965</v>
+        <v>23.29</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>22.7404153248967</v>
+        <v>22.74</v>
       </c>
       <c r="G76" s="3" t="n">
-        <v>22.3081989515863</v>
+        <v>22.3</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>22.1629026447476</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="77">
@@ -45884,22 +46070,22 @@
         <v>1416</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>21.3480900053926</v>
+        <v>21.35</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>20.852547586578</v>
+        <v>20.85</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>23.4826262150575</v>
+        <v>23.48</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>22.9529956080865</v>
+        <v>22.95</v>
       </c>
       <c r="G77" s="3" t="n">
-        <v>22.4737356712195</v>
+        <v>22.47</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>22.3282811756912</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="78">
@@ -45908,22 +46094,22 @@
         <v>1417</v>
       </c>
       <c r="C78" s="3" t="n">
-        <v>21.9101389749714</v>
+        <v>21.92</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>21.2761072017153</v>
+        <v>21.28</v>
       </c>
       <c r="E78" s="3" t="n">
-        <v>23.876881610192</v>
+        <v>23.88</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>23.2468859664551</v>
+        <v>23.25</v>
       </c>
       <c r="G78" s="3" t="n">
-        <v>22.9643789654536</v>
+        <v>22.97</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>22.72678317568</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="79">
@@ -45932,22 +46118,22 @@
         <v>1418</v>
       </c>
       <c r="C79" s="3" t="n">
-        <v>22.1314881199953</v>
+        <v>22.13</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>21.4740774464381</v>
+        <v>21.47</v>
       </c>
       <c r="E79" s="3" t="n">
-        <v>24.1419190613005</v>
+        <v>24.14</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>23.4241827658729</v>
+        <v>23.42</v>
       </c>
       <c r="G79" s="3" t="n">
-        <v>23.3789706994777</v>
+        <v>23.38</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>23.1350194942096</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="80">
@@ -45956,22 +46142,22 @@
         <v>1419</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>22.3385426804593</v>
+        <v>22.34</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>21.6608777281668</v>
+        <v>21.67</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>24.4385241312958</v>
+        <v>24.42</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>23.6921372574732</v>
+        <v>23.64</v>
       </c>
       <c r="G80" s="3" t="n">
-        <v>23.4994266820039</v>
+        <v>23.5</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>23.2925700640227</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="81">
@@ -45980,22 +46166,22 @@
         <v>1420</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>22.5843976774147</v>
+        <v>22.59</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>21.8552515817664</v>
+        <v>21.86</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>24.6735755394889</v>
+        <v>24.73</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>23.8503407271181</v>
+        <v>23.85</v>
       </c>
       <c r="G81" s="3" t="n">
-        <v>23.5705058066474</v>
+        <v>23.57</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>23.3833011655434</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="82">
@@ -46004,22 +46190,22 @@
         <v>1421</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>22.540508142899</v>
+        <v>22.54</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>21.8327874397047</v>
+        <v>21.83</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>24.6533103149005</v>
+        <v>24.65</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>23.8835168937048</v>
+        <v>23.88</v>
       </c>
       <c r="G82" s="3" t="n">
-        <v>23.6649591174615</v>
+        <v>23.66</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>23.4554114159097</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="83">
@@ -46028,22 +46214,22 @@
         <v>1422</v>
       </c>
       <c r="C83" s="3" t="n">
-        <v>22.5147287524856</v>
+        <v>22.52</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>21.9313790013529</v>
+        <v>21.9</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>24.694919253943</v>
+        <v>24.7</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>23.9932099296949</v>
+        <v>23.99</v>
       </c>
       <c r="G83" s="3" t="n">
-        <v>23.738189488514</v>
+        <v>23.74</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>23.5290557557593</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="84">
@@ -46052,22 +46238,22 @@
         <v>1423</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>22.1771154864642</v>
+        <v>22.17</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>21.6942532303975</v>
+        <v>21.7</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>24.6451019147556</v>
+        <v>24.64</v>
       </c>
       <c r="F84" s="3" t="n">
-        <v>23.9748274810343</v>
+        <v>23.97</v>
       </c>
       <c r="G84" s="3" t="n">
-        <v>23.7785382687134</v>
+        <v>23.78</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>23.5693184923224</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="85">
@@ -46076,22 +46262,22 @@
         <v>1424</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>22.4121530526896</v>
+        <v>22.41</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>21.8931326414868</v>
+        <v>21.9</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>24.7721597446001</v>
+        <v>24.78</v>
       </c>
       <c r="F85" s="3" t="n">
-        <v>24.1367276902721</v>
+        <v>24.14</v>
       </c>
       <c r="G85" s="3" t="n">
-        <v>23.8478801820907</v>
+        <v>23.85</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>23.6472357098321</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="86">
@@ -46100,22 +46286,22 @@
         <v>1425</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>22.3693705483677</v>
+        <v>22.33</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>21.78942326841</v>
+        <v>21.74</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>24.8719848427161</v>
+        <v>24.86</v>
       </c>
       <c r="F86" s="3" t="n">
-        <v>24.1276350351351</v>
+        <v>24.1</v>
       </c>
       <c r="G86" s="3" t="n">
-        <v>23.9152672382806</v>
+        <v>23.91</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>23.7345106519887</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="87">
@@ -46124,22 +46310,22 @@
         <v>1426</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>22.0885742442224</v>
+        <v>22.09</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>21.5015986142566</v>
+        <v>21.49</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>24.6590477945199</v>
+        <v>24.66</v>
       </c>
       <c r="F87" s="3" t="n">
-        <v>23.9014077550353</v>
+        <v>23.9</v>
       </c>
       <c r="G87" s="3" t="n">
-        <v>23.8343366106572</v>
+        <v>23.83</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>23.6626882880369</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="88">
@@ -46150,22 +46336,22 @@
         <v>1415</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>22.3261788619478</v>
+        <v>22.32</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>21.76065738756</v>
+        <v>21.76</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>24.7967008395776</v>
+        <v>24.84</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>24.0338034812858</v>
+        <v>24.06</v>
       </c>
       <c r="G88" s="3" t="n">
-        <v>23.9237056787865</v>
+        <v>23.92</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>23.7414361307134</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="89">
@@ -46174,22 +46360,22 @@
         <v>1416</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>22.3928779192125</v>
+        <v>22.39</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>21.7898864656477</v>
+        <v>21.79</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>24.8062525170852</v>
+        <v>24.81</v>
       </c>
       <c r="F89" s="3" t="n">
-        <v>24.086428378056</v>
+        <v>24.09</v>
       </c>
       <c r="G89" s="3" t="n">
-        <v>23.8097106622658</v>
+        <v>23.8</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>23.6311561758415</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="90">
@@ -46198,22 +46384,22 @@
         <v>1417</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>22.5237506776281</v>
+        <v>22.51</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>21.8620485299293</v>
+        <v>21.88</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>24.9745134837926</v>
+        <v>24.97</v>
       </c>
       <c r="F90" s="3" t="n">
-        <v>24.1824699488651</v>
+        <v>24.18</v>
       </c>
       <c r="G90" s="3" t="n">
-        <v>23.9687152403321</v>
+        <v>23.96</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>23.7169984452278</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="91">
@@ -46222,22 +46408,22 @@
         <v>1418</v>
       </c>
       <c r="C91" s="3" t="n">
-        <v>22.6342163811825</v>
+        <v>22.63</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>21.963588493703</v>
+        <v>21.96</v>
       </c>
       <c r="E91" s="3" t="n">
-        <v>25.0074895869302</v>
+        <v>25.01</v>
       </c>
       <c r="F91" s="3" t="n">
-        <v>24.2544517043663</v>
+        <v>24.25</v>
       </c>
       <c r="G91" s="3" t="n">
-        <v>23.960614477928</v>
+        <v>23.95</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>23.6991805733729</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="92">
@@ -46246,22 +46432,22 @@
         <v>1419</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>22.3988618320032</v>
+        <v>22.39</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>21.943020734659</v>
+        <v>21.94</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>24.9080174170731</v>
+        <v>24.91</v>
       </c>
       <c r="F92" s="3" t="n">
-        <v>24.2317007551177</v>
+        <v>24.23</v>
       </c>
       <c r="G92" s="3" t="n">
-        <v>23.9045879966927</v>
+        <v>23.9</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>23.6926315515526</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="93">
@@ -46270,22 +46456,22 @@
         <v>1420</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>22.450709315965</v>
+        <v>22.45</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>21.9937046845335</v>
+        <v>21.99</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>24.9735621141066</v>
+        <v>24.97</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>24.2699494417669</v>
+        <v>24.27</v>
       </c>
       <c r="G93" s="3" t="n">
-        <v>23.9381075210145</v>
+        <v>23.93</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>23.7652865335101</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="94">
@@ -46294,22 +46480,22 @@
         <v>1421</v>
       </c>
       <c r="C94" s="3" t="n">
-        <v>22.6446760102667</v>
+        <v>22.65</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>22.0854554598486</v>
+        <v>22.09</v>
       </c>
       <c r="E94" s="3" t="n">
-        <v>24.9921329446465</v>
+        <v>25</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>24.3318139821702</v>
+        <v>24.34</v>
       </c>
       <c r="G94" s="3" t="n">
-        <v>24.0793629447375</v>
+        <v>24.08</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>23.821519122816</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="95">
@@ -46318,22 +46504,22 @@
         <v>1422</v>
       </c>
       <c r="C95" s="3" t="n">
-        <v>22.8915308035746</v>
+        <v>22.89</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>22.3054569002208</v>
+        <v>22.31</v>
       </c>
       <c r="E95" s="3" t="n">
-        <v>25.1654869472255</v>
+        <v>25.17</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>24.4898221926187</v>
+        <v>24.49</v>
       </c>
       <c r="G95" s="3" t="n">
-        <v>24.2912672864927</v>
+        <v>24.29</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>24.0576087434729</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="96">
@@ -46342,22 +46528,22 @@
         <v>1423</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>23.017957915584</v>
+        <v>23.02</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>22.3333242169136</v>
+        <v>22.35</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>25.4951972043165</v>
+        <v>25.5</v>
       </c>
       <c r="F96" s="3" t="n">
-        <v>24.5939851447907</v>
+        <v>24.59</v>
       </c>
       <c r="G96" s="3" t="n">
-        <v>24.3718194522203</v>
+        <v>24.37</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>24.1657963993587</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="97">
@@ -46366,22 +46552,22 @@
         <v>1424</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>22.9708156726213</v>
+        <v>22.97</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>22.2853167222988</v>
+        <v>22.29</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>25.4542881083293</v>
+        <v>25.46</v>
       </c>
       <c r="F97" s="3" t="n">
-        <v>24.5953169783127</v>
+        <v>24.6</v>
       </c>
       <c r="G97" s="3" t="n">
-        <v>24.4335792504372</v>
+        <v>24.44</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>24.1993003807472</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="98">
@@ -46390,22 +46576,22 @@
         <v>1425</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>22.8530453336304</v>
+        <v>22.84</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>22.2282084984446</v>
+        <v>22.23</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>25.1729900611615</v>
+        <v>25.14</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>24.4089934522163</v>
+        <v>24.37</v>
       </c>
       <c r="G98" s="3" t="n">
-        <v>24.3516640085629</v>
+        <v>24.35</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>24.1196355291854</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="99">
@@ -46414,22 +46600,22 @@
         <v>1426</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>22.7044542779626</v>
+        <v>22.69</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>22.088651243378</v>
+        <v>22.09</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>24.7837776674997</v>
+        <v>24.77</v>
       </c>
       <c r="F99" s="3" t="n">
-        <v>24.1334717622348</v>
+        <v>24.13</v>
       </c>
       <c r="G99" s="3" t="n">
-        <v>24.3507202704545</v>
+        <v>24.34</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>24.1296283321455</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="100">
@@ -46440,22 +46626,22 @@
         <v>1415</v>
       </c>
       <c r="C100" s="3" t="n">
-        <v>22.976233458982</v>
+        <v>23</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>22.3158445896919</v>
+        <v>22.32</v>
       </c>
       <c r="E100" s="3" t="n">
-        <v>24.8736130997437</v>
+        <v>24.89</v>
       </c>
       <c r="F100" s="3" t="n">
-        <v>24.1490611653277</v>
+        <v>24.16</v>
       </c>
       <c r="G100" s="3" t="n">
-        <v>24.702615690899</v>
+        <v>24.72</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>24.4116059378991</v>
+        <v>24.42</v>
       </c>
     </row>
     <row r="101">
@@ -46464,33 +46650,47 @@
         <v>1416</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>23.6996236117548</v>
+        <v>23.69</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>22.9956150278462</v>
+        <v>22.99</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>25.3152294300865</v>
+        <v>25.32</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>24.5845548489001</v>
+        <v>24.58</v>
       </c>
       <c r="G101" s="3" t="n">
-        <v>25.1805784267156</v>
+        <v>25.18</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>24.8833641423928</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
+      <c r="B102" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>23.19</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>24.92</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="H102" s="3" t="n">
+        <v>24.95</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - marzo 2024</t>
+    <t xml:space="preserve">enero 2017 - abril 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: mayo 2024</t>
+    <t xml:space="preserve">Próxima actualización: junio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">marzo 2024</t>
+    <t xml:space="preserve">abril 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -42019,184 +42019,364 @@
       </c>
     </row>
     <row r="2662">
-      <c r="A2662" s="6"/>
-      <c r="B2662" s="3"/>
-      <c r="C2662" s="3"/>
-      <c r="D2662" s="3"/>
+      <c r="A2662" s="16"/>
+      <c r="B2662" s="3" t="n">
+        <v>23.3193745188609</v>
+      </c>
+      <c r="C2662" s="3" t="n">
+        <v>25.1560198501114</v>
+      </c>
+      <c r="D2662" s="3" t="n">
+        <v>25.0221513944224</v>
+      </c>
     </row>
     <row r="2663">
-      <c r="A2663" s="6"/>
-      <c r="B2663" s="3"/>
-      <c r="C2663" s="3"/>
-      <c r="D2663" s="3"/>
+      <c r="A2663" s="16"/>
+      <c r="B2663" s="3" t="n">
+        <v>23.2989195666762</v>
+      </c>
+      <c r="C2663" s="3" t="n">
+        <v>25.1473121533031</v>
+      </c>
+      <c r="D2663" s="3" t="n">
+        <v>25.0110352187835</v>
+      </c>
     </row>
     <row r="2664">
-      <c r="A2664" s="6"/>
-      <c r="B2664" s="3"/>
-      <c r="C2664" s="3"/>
-      <c r="D2664" s="3"/>
+      <c r="A2664" s="16"/>
+      <c r="B2664" s="3" t="n">
+        <v>23.2898241590219</v>
+      </c>
+      <c r="C2664" s="3" t="n">
+        <v>25.1483709222716</v>
+      </c>
+      <c r="D2664" s="3" t="n">
+        <v>25.0100364797082</v>
+      </c>
     </row>
     <row r="2665">
-      <c r="A2665" s="6"/>
-      <c r="B2665" s="3"/>
-      <c r="C2665" s="3"/>
-      <c r="D2665" s="3"/>
+      <c r="A2665" s="16"/>
+      <c r="B2665" s="3" t="n">
+        <v>23.282773680682</v>
+      </c>
+      <c r="C2665" s="3" t="n">
+        <v>25.1529010479646</v>
+      </c>
+      <c r="D2665" s="3" t="n">
+        <v>25.014316141792</v>
+      </c>
     </row>
     <row r="2666">
-      <c r="A2666" s="6"/>
-      <c r="B2666" s="3"/>
-      <c r="C2666" s="3"/>
-      <c r="D2666" s="3"/>
+      <c r="A2666" s="16"/>
+      <c r="B2666" s="3" t="n">
+        <v>23.2832259301882</v>
+      </c>
+      <c r="C2666" s="3" t="n">
+        <v>25.1575130995566</v>
+      </c>
+      <c r="D2666" s="3" t="n">
+        <v>25.0257501146965</v>
+      </c>
     </row>
     <row r="2667">
-      <c r="A2667" s="6"/>
-      <c r="B2667" s="3"/>
-      <c r="C2667" s="3"/>
-      <c r="D2667" s="3"/>
+      <c r="A2667" s="16"/>
+      <c r="B2667" s="3" t="n">
+        <v>23.3394767112958</v>
+      </c>
+      <c r="C2667" s="3" t="n">
+        <v>25.1836421917263</v>
+      </c>
+      <c r="D2667" s="3" t="n">
+        <v>25.0773161875945</v>
+      </c>
     </row>
     <row r="2668">
-      <c r="A2668" s="6"/>
-      <c r="B2668" s="3"/>
-      <c r="C2668" s="3"/>
-      <c r="D2668" s="3"/>
+      <c r="A2668" s="16"/>
+      <c r="B2668" s="3" t="n">
+        <v>23.3560572501171</v>
+      </c>
+      <c r="C2668" s="3" t="n">
+        <v>25.1953573567586</v>
+      </c>
+      <c r="D2668" s="3" t="n">
+        <v>25.0920874513329</v>
+      </c>
     </row>
     <row r="2669">
-      <c r="A2669" s="6"/>
-      <c r="B2669" s="3"/>
-      <c r="C2669" s="3"/>
-      <c r="D2669" s="3"/>
+      <c r="A2669" s="16"/>
+      <c r="B2669" s="3" t="n">
+        <v>23.3795133320907</v>
+      </c>
+      <c r="C2669" s="3" t="n">
+        <v>25.2067611496533</v>
+      </c>
+      <c r="D2669" s="3" t="n">
+        <v>25.1175626761609</v>
+      </c>
     </row>
     <row r="2670">
-      <c r="A2670" s="6"/>
-      <c r="B2670" s="3"/>
-      <c r="C2670" s="3"/>
-      <c r="D2670" s="3"/>
+      <c r="A2670" s="16"/>
+      <c r="B2670" s="3" t="n">
+        <v>23.4042375380079</v>
+      </c>
+      <c r="C2670" s="3" t="n">
+        <v>25.2123099529782</v>
+      </c>
+      <c r="D2670" s="3" t="n">
+        <v>25.1501812645015</v>
+      </c>
     </row>
     <row r="2671">
-      <c r="A2671" s="6"/>
-      <c r="B2671" s="3"/>
-      <c r="C2671" s="3"/>
-      <c r="D2671" s="3"/>
+      <c r="A2671" s="16"/>
+      <c r="B2671" s="3" t="n">
+        <v>23.4138025075507</v>
+      </c>
+      <c r="C2671" s="3" t="n">
+        <v>25.2162389078493</v>
+      </c>
+      <c r="D2671" s="3" t="n">
+        <v>25.1644096523985</v>
+      </c>
     </row>
     <row r="2672">
-      <c r="A2672" s="6"/>
-      <c r="B2672" s="3"/>
-      <c r="C2672" s="3"/>
-      <c r="D2672" s="3"/>
+      <c r="A2672" s="16"/>
+      <c r="B2672" s="3" t="n">
+        <v>23.4215476948262</v>
+      </c>
+      <c r="C2672" s="3" t="n">
+        <v>25.2210355861535</v>
+      </c>
+      <c r="D2672" s="3" t="n">
+        <v>25.1720174310615</v>
+      </c>
     </row>
     <row r="2673">
-      <c r="A2673" s="6"/>
-      <c r="B2673" s="3"/>
-      <c r="C2673" s="3"/>
-      <c r="D2673" s="3"/>
+      <c r="A2673" s="16"/>
+      <c r="B2673" s="3" t="n">
+        <v>23.4319285843755</v>
+      </c>
+      <c r="C2673" s="3" t="n">
+        <v>25.2273185113584</v>
+      </c>
+      <c r="D2673" s="3" t="n">
+        <v>25.181037320846</v>
+      </c>
     </row>
     <row r="2674">
-      <c r="A2674" s="6"/>
-      <c r="B2674" s="3"/>
-      <c r="C2674" s="3"/>
-      <c r="D2674" s="3"/>
+      <c r="A2674" s="16"/>
+      <c r="B2674" s="3" t="n">
+        <v>23.4466225045372</v>
+      </c>
+      <c r="C2674" s="3" t="n">
+        <v>25.2382728943042</v>
+      </c>
+      <c r="D2674" s="3" t="n">
+        <v>25.1872407433682</v>
+      </c>
     </row>
     <row r="2675">
-      <c r="A2675" s="6"/>
-      <c r="B2675" s="3"/>
-      <c r="C2675" s="3"/>
-      <c r="D2675" s="3"/>
+      <c r="A2675" s="16"/>
+      <c r="B2675" s="3" t="n">
+        <v>23.4544163086205</v>
+      </c>
+      <c r="C2675" s="3" t="n">
+        <v>25.2375940807528</v>
+      </c>
+      <c r="D2675" s="3" t="n">
+        <v>25.1876796685242</v>
+      </c>
     </row>
     <row r="2676">
-      <c r="A2676" s="6"/>
-      <c r="B2676" s="3"/>
-      <c r="C2676" s="3"/>
-      <c r="D2676" s="3"/>
+      <c r="A2676" s="16"/>
+      <c r="B2676" s="3" t="n">
+        <v>23.4532502351839</v>
+      </c>
+      <c r="C2676" s="3" t="n">
+        <v>25.2315065702355</v>
+      </c>
+      <c r="D2676" s="3" t="n">
+        <v>25.1766534682505</v>
+      </c>
     </row>
     <row r="2677">
-      <c r="A2677" s="6"/>
-      <c r="B2677" s="3"/>
-      <c r="C2677" s="3"/>
-      <c r="D2677" s="3"/>
+      <c r="A2677" s="16"/>
+      <c r="B2677" s="3" t="n">
+        <v>23.458384448429</v>
+      </c>
+      <c r="C2677" s="3" t="n">
+        <v>25.2366663264267</v>
+      </c>
+      <c r="D2677" s="3" t="n">
+        <v>25.1764768056372</v>
+      </c>
     </row>
     <row r="2678">
-      <c r="A2678" s="6"/>
-      <c r="B2678" s="3"/>
-      <c r="C2678" s="3"/>
-      <c r="D2678" s="3"/>
+      <c r="A2678" s="16"/>
+      <c r="B2678" s="3" t="n">
+        <v>23.4610672158776</v>
+      </c>
+      <c r="C2678" s="3" t="n">
+        <v>25.2461083341833</v>
+      </c>
+      <c r="D2678" s="3" t="n">
+        <v>25.1772831948699</v>
+      </c>
     </row>
     <row r="2679">
-      <c r="A2679" s="6"/>
-      <c r="B2679" s="3"/>
-      <c r="C2679" s="3"/>
-      <c r="D2679" s="3"/>
+      <c r="A2679" s="16"/>
+      <c r="B2679" s="3" t="n">
+        <v>23.4726159345316</v>
+      </c>
+      <c r="C2679" s="3" t="n">
+        <v>25.2769801270231</v>
+      </c>
+      <c r="D2679" s="3" t="n">
+        <v>25.1875945470539</v>
+      </c>
     </row>
     <row r="2680">
-      <c r="A2680" s="6"/>
-      <c r="B2680" s="3"/>
-      <c r="C2680" s="3"/>
-      <c r="D2680" s="3"/>
+      <c r="A2680" s="16"/>
+      <c r="B2680" s="3" t="n">
+        <v>23.4943159904531</v>
+      </c>
+      <c r="C2680" s="3" t="n">
+        <v>25.3061982447085</v>
+      </c>
+      <c r="D2680" s="3" t="n">
+        <v>25.1846602373889</v>
+      </c>
     </row>
     <row r="2681">
-      <c r="A2681" s="6"/>
-      <c r="B2681" s="3"/>
-      <c r="C2681" s="3"/>
-      <c r="D2681" s="3"/>
+      <c r="A2681" s="16"/>
+      <c r="B2681" s="3" t="n">
+        <v>23.4984112239963</v>
+      </c>
+      <c r="C2681" s="3" t="n">
+        <v>25.3130218266583</v>
+      </c>
+      <c r="D2681" s="3" t="n">
+        <v>25.1818546555641</v>
+      </c>
     </row>
     <row r="2682">
-      <c r="A2682" s="6"/>
-      <c r="B2682" s="3"/>
-      <c r="C2682" s="3"/>
-      <c r="D2682" s="3"/>
+      <c r="A2682" s="16"/>
+      <c r="B2682" s="3" t="n">
+        <v>23.4953330709436</v>
+      </c>
+      <c r="C2682" s="3" t="n">
+        <v>25.3044782798519</v>
+      </c>
+      <c r="D2682" s="3" t="n">
+        <v>25.1803363819562</v>
+      </c>
     </row>
     <row r="2683">
-      <c r="A2683" s="6"/>
-      <c r="B2683" s="3"/>
-      <c r="C2683" s="3"/>
-      <c r="D2683" s="3"/>
+      <c r="A2683" s="16"/>
+      <c r="B2683" s="3" t="n">
+        <v>23.4924086129192</v>
+      </c>
+      <c r="C2683" s="3" t="n">
+        <v>25.3045788119483</v>
+      </c>
+      <c r="D2683" s="3" t="n">
+        <v>25.1783517524474</v>
+      </c>
     </row>
     <row r="2684">
-      <c r="A2684" s="6"/>
-      <c r="B2684" s="3"/>
-      <c r="C2684" s="3"/>
-      <c r="D2684" s="3"/>
+      <c r="A2684" s="16"/>
+      <c r="B2684" s="3" t="n">
+        <v>23.4945743834529</v>
+      </c>
+      <c r="C2684" s="3" t="n">
+        <v>25.3141244573088</v>
+      </c>
+      <c r="D2684" s="3" t="n">
+        <v>25.1758043273755</v>
+      </c>
     </row>
     <row r="2685">
-      <c r="A2685" s="6"/>
-      <c r="B2685" s="3"/>
-      <c r="C2685" s="3"/>
-      <c r="D2685" s="3"/>
+      <c r="A2685" s="16"/>
+      <c r="B2685" s="3" t="n">
+        <v>23.4851225806451</v>
+      </c>
+      <c r="C2685" s="3" t="n">
+        <v>25.317311731844</v>
+      </c>
+      <c r="D2685" s="3" t="n">
+        <v>25.1741082852238</v>
+      </c>
     </row>
     <row r="2686">
-      <c r="A2686" s="6"/>
-      <c r="B2686" s="3"/>
-      <c r="C2686" s="3"/>
-      <c r="D2686" s="3"/>
+      <c r="A2686" s="16"/>
+      <c r="B2686" s="3" t="n">
+        <v>23.4794049043062</v>
+      </c>
+      <c r="C2686" s="3" t="n">
+        <v>25.3184819819825</v>
+      </c>
+      <c r="D2686" s="3" t="n">
+        <v>25.171712307208</v>
+      </c>
     </row>
     <row r="2687">
-      <c r="A2687" s="6"/>
-      <c r="B2687" s="3"/>
-      <c r="C2687" s="3"/>
-      <c r="D2687" s="3"/>
+      <c r="A2687" s="16"/>
+      <c r="B2687" s="3" t="n">
+        <v>23.4781320887285</v>
+      </c>
+      <c r="C2687" s="3" t="n">
+        <v>25.3348787672785</v>
+      </c>
+      <c r="D2687" s="3" t="n">
+        <v>25.1708113654302</v>
+      </c>
     </row>
     <row r="2688">
-      <c r="A2688" s="6"/>
-      <c r="B2688" s="3"/>
-      <c r="C2688" s="3"/>
-      <c r="D2688" s="3"/>
+      <c r="A2688" s="16"/>
+      <c r="B2688" s="3" t="n">
+        <v>23.4903624861933</v>
+      </c>
+      <c r="C2688" s="3" t="n">
+        <v>25.3378906781589</v>
+      </c>
+      <c r="D2688" s="3" t="n">
+        <v>25.1698928458873</v>
+      </c>
     </row>
     <row r="2689">
-      <c r="A2689" s="6"/>
-      <c r="B2689" s="3"/>
-      <c r="C2689" s="3"/>
-      <c r="D2689" s="3"/>
+      <c r="A2689" s="16"/>
+      <c r="B2689" s="3" t="n">
+        <v>23.500262146447</v>
+      </c>
+      <c r="C2689" s="3" t="n">
+        <v>25.3480489997746</v>
+      </c>
+      <c r="D2689" s="3" t="n">
+        <v>25.1812014902206</v>
+      </c>
     </row>
     <row r="2690">
-      <c r="A2690" s="6"/>
-      <c r="B2690" s="3"/>
-      <c r="C2690" s="3"/>
-      <c r="D2690" s="3"/>
+      <c r="A2690" s="16"/>
+      <c r="B2690" s="3" t="n">
+        <v>23.5137945205475</v>
+      </c>
+      <c r="C2690" s="3" t="n">
+        <v>25.3531775075316</v>
+      </c>
+      <c r="D2690" s="3" t="n">
+        <v>25.1869051657673</v>
+      </c>
     </row>
     <row r="2691">
-      <c r="A2691" s="6"/>
-      <c r="B2691" s="3"/>
-      <c r="C2691" s="3"/>
-      <c r="D2691" s="3"/>
+      <c r="A2691" s="16"/>
+      <c r="B2691" s="3" t="n">
+        <v>23.5419065510601</v>
+      </c>
+      <c r="C2691" s="3" t="n">
+        <v>25.3643754123597</v>
+      </c>
+      <c r="D2691" s="3" t="n">
+        <v>25.1922338173018</v>
+      </c>
     </row>
     <row r="2692">
       <c r="A2692" s="6"/>
@@ -46686,7 +46866,7 @@
         <v>24.92</v>
       </c>
       <c r="G102" s="3" t="n">
-        <v>25.25</v>
+        <v>25.27</v>
       </c>
       <c r="H102" s="3" t="n">
         <v>24.95</v>
@@ -46694,13 +46874,27 @@
     </row>
     <row r="103">
       <c r="A103" s="6"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
+      <c r="B103" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="H103" s="3" t="n">
+        <v>25.14</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - abril 2024</t>
+    <t xml:space="preserve">enero 2017 - mayo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: junio 2024</t>
+    <t xml:space="preserve">Próxima actualización: julio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">abril 2024</t>
+    <t xml:space="preserve">mayo 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -42379,190 +42379,376 @@
       </c>
     </row>
     <row r="2692">
-      <c r="A2692" s="6"/>
-      <c r="B2692" s="3"/>
-      <c r="C2692" s="3"/>
-      <c r="D2692" s="3"/>
+      <c r="A2692" s="16"/>
+      <c r="B2692" s="3" t="n">
+        <v>23.5530020070719</v>
+      </c>
+      <c r="C2692" s="3" t="n">
+        <v>25.3674214387387</v>
+      </c>
+      <c r="D2692" s="3" t="n">
+        <v>25.1944264020444</v>
+      </c>
     </row>
     <row r="2693">
-      <c r="A2693" s="6"/>
-      <c r="B2693" s="3"/>
-      <c r="C2693" s="3"/>
-      <c r="D2693" s="3"/>
+      <c r="A2693" s="16"/>
+      <c r="B2693" s="3" t="n">
+        <v>23.5555344463629</v>
+      </c>
+      <c r="C2693" s="3" t="n">
+        <v>25.3702951216827</v>
+      </c>
+      <c r="D2693" s="3" t="n">
+        <v>25.1982990936552</v>
+      </c>
     </row>
     <row r="2694">
-      <c r="A2694" s="6"/>
-      <c r="B2694" s="3"/>
-      <c r="C2694" s="3"/>
-      <c r="D2694" s="3"/>
+      <c r="A2694" s="16"/>
+      <c r="B2694" s="3" t="n">
+        <v>23.5628568693149</v>
+      </c>
+      <c r="C2694" s="3" t="n">
+        <v>25.3746794942277</v>
+      </c>
+      <c r="D2694" s="3" t="n">
+        <v>25.2005125507286</v>
+      </c>
     </row>
     <row r="2695">
-      <c r="A2695" s="6"/>
-      <c r="B2695" s="3"/>
-      <c r="C2695" s="3"/>
-      <c r="D2695" s="3"/>
+      <c r="A2695" s="16"/>
+      <c r="B2695" s="3" t="n">
+        <v>23.5625247713409</v>
+      </c>
+      <c r="C2695" s="3" t="n">
+        <v>25.3640139921295</v>
+      </c>
+      <c r="D2695" s="3" t="n">
+        <v>25.1997138576775</v>
+      </c>
     </row>
     <row r="2696">
-      <c r="A2696" s="6"/>
-      <c r="B2696" s="3"/>
-      <c r="C2696" s="3"/>
-      <c r="D2696" s="3"/>
+      <c r="A2696" s="16"/>
+      <c r="B2696" s="3" t="n">
+        <v>23.5568641480627</v>
+      </c>
+      <c r="C2696" s="3" t="n">
+        <v>25.3593630573249</v>
+      </c>
+      <c r="D2696" s="3" t="n">
+        <v>25.1939303407893</v>
+      </c>
     </row>
     <row r="2697">
-      <c r="A2697" s="6"/>
-      <c r="B2697" s="3"/>
-      <c r="C2697" s="3"/>
-      <c r="D2697" s="3"/>
+      <c r="A2697" s="16"/>
+      <c r="B2697" s="3" t="n">
+        <v>23.5514932301735</v>
+      </c>
+      <c r="C2697" s="3" t="n">
+        <v>25.3646969527848</v>
+      </c>
+      <c r="D2697" s="3" t="n">
+        <v>25.1805643549128</v>
+      </c>
     </row>
     <row r="2698">
-      <c r="A2698" s="6"/>
-      <c r="B2698" s="3"/>
-      <c r="C2698" s="3"/>
-      <c r="D2698" s="3"/>
+      <c r="A2698" s="16"/>
+      <c r="B2698" s="3" t="n">
+        <v>23.5309892033845</v>
+      </c>
+      <c r="C2698" s="3" t="n">
+        <v>25.3594774027138</v>
+      </c>
+      <c r="D2698" s="3" t="n">
+        <v>25.1645932570365</v>
+      </c>
     </row>
     <row r="2699">
-      <c r="A2699" s="6"/>
-      <c r="B2699" s="3"/>
-      <c r="C2699" s="3"/>
-      <c r="D2699" s="3"/>
+      <c r="A2699" s="16"/>
+      <c r="B2699" s="3" t="n">
+        <v>23.50965283907</v>
+      </c>
+      <c r="C2699" s="3" t="n">
+        <v>25.3527335133917</v>
+      </c>
+      <c r="D2699" s="3" t="n">
+        <v>25.1498240149506</v>
+      </c>
     </row>
     <row r="2700">
-      <c r="A2700" s="6"/>
-      <c r="B2700" s="3"/>
-      <c r="C2700" s="3"/>
-      <c r="D2700" s="3"/>
+      <c r="A2700" s="16"/>
+      <c r="B2700" s="3" t="n">
+        <v>23.4805439620212</v>
+      </c>
+      <c r="C2700" s="3" t="n">
+        <v>25.3426408450704</v>
+      </c>
+      <c r="D2700" s="3" t="n">
+        <v>25.1333517874089</v>
+      </c>
     </row>
     <row r="2701">
-      <c r="A2701" s="6"/>
-      <c r="B2701" s="3"/>
-      <c r="C2701" s="3"/>
-      <c r="D2701" s="3"/>
+      <c r="A2701" s="16"/>
+      <c r="B2701" s="3" t="n">
+        <v>23.4600989010983</v>
+      </c>
+      <c r="C2701" s="3" t="n">
+        <v>25.327913693901</v>
+      </c>
+      <c r="D2701" s="3" t="n">
+        <v>25.1193128419697</v>
+      </c>
     </row>
     <row r="2702">
-      <c r="A2702" s="6"/>
-      <c r="B2702" s="3"/>
-      <c r="C2702" s="3"/>
-      <c r="D2702" s="3"/>
+      <c r="A2702" s="16"/>
+      <c r="B2702" s="3" t="n">
+        <v>23.4492069417812</v>
+      </c>
+      <c r="C2702" s="3" t="n">
+        <v>25.3134425848442</v>
+      </c>
+      <c r="D2702" s="3" t="n">
+        <v>25.1099003593598</v>
+      </c>
     </row>
     <row r="2703">
-      <c r="A2703" s="6"/>
-      <c r="B2703" s="3"/>
-      <c r="C2703" s="3"/>
-      <c r="D2703" s="3"/>
+      <c r="A2703" s="16"/>
+      <c r="B2703" s="3" t="n">
+        <v>23.4511649001216</v>
+      </c>
+      <c r="C2703" s="3" t="n">
+        <v>25.3096167452831</v>
+      </c>
+      <c r="D2703" s="3" t="n">
+        <v>25.1041961762263</v>
+      </c>
     </row>
     <row r="2704">
-      <c r="A2704" s="6"/>
-      <c r="B2704" s="3"/>
-      <c r="C2704" s="3"/>
-      <c r="D2704" s="3"/>
+      <c r="A2704" s="16"/>
+      <c r="B2704" s="3" t="n">
+        <v>23.4522814784302</v>
+      </c>
+      <c r="C2704" s="3" t="n">
+        <v>25.3104898929845</v>
+      </c>
+      <c r="D2704" s="3" t="n">
+        <v>25.0924659168373</v>
+      </c>
     </row>
     <row r="2705">
-      <c r="A2705" s="6"/>
-      <c r="B2705" s="3"/>
-      <c r="C2705" s="3"/>
-      <c r="D2705" s="3"/>
+      <c r="A2705" s="16"/>
+      <c r="B2705" s="3" t="n">
+        <v>23.4620631665293</v>
+      </c>
+      <c r="C2705" s="3" t="n">
+        <v>25.2991517380472</v>
+      </c>
+      <c r="D2705" s="3" t="n">
+        <v>25.0884185573995</v>
+      </c>
     </row>
     <row r="2706">
-      <c r="A2706" s="6"/>
-      <c r="B2706" s="3"/>
-      <c r="C2706" s="3"/>
-      <c r="D2706" s="3"/>
+      <c r="A2706" s="16"/>
+      <c r="B2706" s="3" t="n">
+        <v>23.4521054250839</v>
+      </c>
+      <c r="C2706" s="3" t="n">
+        <v>25.2954713405975</v>
+      </c>
+      <c r="D2706" s="3" t="n">
+        <v>25.083986178999</v>
+      </c>
     </row>
     <row r="2707">
-      <c r="A2707" s="6"/>
-      <c r="B2707" s="3"/>
-      <c r="C2707" s="3"/>
-      <c r="D2707" s="3"/>
+      <c r="A2707" s="16"/>
+      <c r="B2707" s="3" t="n">
+        <v>23.4474831902341</v>
+      </c>
+      <c r="C2707" s="3" t="n">
+        <v>25.2830218664124</v>
+      </c>
+      <c r="D2707" s="3" t="n">
+        <v>25.069717206133</v>
+      </c>
     </row>
     <row r="2708">
-      <c r="A2708" s="6"/>
-      <c r="B2708" s="3"/>
-      <c r="C2708" s="3"/>
-      <c r="D2708" s="3"/>
+      <c r="A2708" s="16"/>
+      <c r="B2708" s="3" t="n">
+        <v>23.4515929016576</v>
+      </c>
+      <c r="C2708" s="3" t="n">
+        <v>25.2515309842043</v>
+      </c>
+      <c r="D2708" s="3" t="n">
+        <v>25.0537569060774</v>
+      </c>
     </row>
     <row r="2709">
-      <c r="A2709" s="6"/>
-      <c r="B2709" s="3"/>
-      <c r="C2709" s="3"/>
-      <c r="D2709" s="3"/>
+      <c r="A2709" s="16"/>
+      <c r="B2709" s="3" t="n">
+        <v>23.460538760526</v>
+      </c>
+      <c r="C2709" s="3" t="n">
+        <v>25.2437144646212</v>
+      </c>
+      <c r="D2709" s="3" t="n">
+        <v>25.0426450932114</v>
+      </c>
     </row>
     <row r="2710">
-      <c r="A2710" s="6"/>
-      <c r="B2710" s="3"/>
-      <c r="C2710" s="3"/>
-      <c r="D2710" s="3"/>
+      <c r="A2710" s="16"/>
+      <c r="B2710" s="3" t="n">
+        <v>23.466952570921</v>
+      </c>
+      <c r="C2710" s="3" t="n">
+        <v>25.2323029829359</v>
+      </c>
+      <c r="D2710" s="3" t="n">
+        <v>25.0318427251311</v>
+      </c>
     </row>
     <row r="2711">
-      <c r="A2711" s="6"/>
-      <c r="B2711" s="3"/>
-      <c r="C2711" s="3"/>
-      <c r="D2711" s="3"/>
+      <c r="A2711" s="16"/>
+      <c r="B2711" s="3" t="n">
+        <v>23.4617167381964</v>
+      </c>
+      <c r="C2711" s="3" t="n">
+        <v>25.2258398932621</v>
+      </c>
+      <c r="D2711" s="3" t="n">
+        <v>25.0237069922306</v>
+      </c>
     </row>
     <row r="2712">
-      <c r="A2712" s="6"/>
-      <c r="B2712" s="3"/>
-      <c r="C2712" s="3"/>
-      <c r="D2712" s="3"/>
+      <c r="A2712" s="16"/>
+      <c r="B2712" s="3" t="n">
+        <v>23.4728862876244</v>
+      </c>
+      <c r="C2712" s="3" t="n">
+        <v>25.2255953328028</v>
+      </c>
+      <c r="D2712" s="3" t="n">
+        <v>25.0217416039638</v>
+      </c>
     </row>
     <row r="2713">
-      <c r="A2713" s="6"/>
-      <c r="B2713" s="3"/>
-      <c r="C2713" s="3"/>
-      <c r="D2713" s="3"/>
+      <c r="A2713" s="16"/>
+      <c r="B2713" s="3" t="n">
+        <v>23.4825737741282</v>
+      </c>
+      <c r="C2713" s="3" t="n">
+        <v>25.2223615160349</v>
+      </c>
+      <c r="D2713" s="3" t="n">
+        <v>25.0203358277056</v>
+      </c>
     </row>
     <row r="2714">
-      <c r="A2714" s="6"/>
-      <c r="B2714" s="3"/>
-      <c r="C2714" s="3"/>
-      <c r="D2714" s="3"/>
+      <c r="A2714" s="16"/>
+      <c r="B2714" s="3" t="n">
+        <v>23.4939694741524</v>
+      </c>
+      <c r="C2714" s="3" t="n">
+        <v>25.2158078197483</v>
+      </c>
+      <c r="D2714" s="3" t="n">
+        <v>25.0190729927005</v>
+      </c>
     </row>
     <row r="2715">
-      <c r="A2715" s="6"/>
-      <c r="B2715" s="3"/>
-      <c r="C2715" s="3"/>
-      <c r="D2715" s="3"/>
+      <c r="A2715" s="16"/>
+      <c r="B2715" s="3" t="n">
+        <v>23.4976923076915</v>
+      </c>
+      <c r="C2715" s="3" t="n">
+        <v>25.2062548314009</v>
+      </c>
+      <c r="D2715" s="3" t="n">
+        <v>25.013973607038</v>
+      </c>
     </row>
     <row r="2716">
-      <c r="A2716" s="6"/>
-      <c r="B2716" s="3"/>
-      <c r="C2716" s="3"/>
-      <c r="D2716" s="3"/>
+      <c r="A2716" s="16"/>
+      <c r="B2716" s="3" t="n">
+        <v>23.4999876847282</v>
+      </c>
+      <c r="C2716" s="3" t="n">
+        <v>25.1981978228735</v>
+      </c>
+      <c r="D2716" s="3" t="n">
+        <v>25.0095915727221</v>
+      </c>
     </row>
     <row r="2717">
-      <c r="A2717" s="6"/>
-      <c r="B2717" s="3"/>
-      <c r="C2717" s="3"/>
-      <c r="D2717" s="3"/>
+      <c r="A2717" s="16"/>
+      <c r="B2717" s="3" t="n">
+        <v>23.4759739229017</v>
+      </c>
+      <c r="C2717" s="3" t="n">
+        <v>25.182353182191</v>
+      </c>
+      <c r="D2717" s="3" t="n">
+        <v>24.9976587375912</v>
+      </c>
     </row>
     <row r="2718">
-      <c r="A2718" s="6"/>
-      <c r="B2718" s="3"/>
-      <c r="C2718" s="3"/>
-      <c r="D2718" s="3"/>
+      <c r="A2718" s="16"/>
+      <c r="B2718" s="3" t="n">
+        <v>23.4573930007089</v>
+      </c>
+      <c r="C2718" s="3" t="n">
+        <v>25.1604009196732</v>
+      </c>
+      <c r="D2718" s="3" t="n">
+        <v>24.9769731425209</v>
+      </c>
     </row>
     <row r="2719">
-      <c r="A2719" s="6"/>
-      <c r="B2719" s="3"/>
-      <c r="C2719" s="3"/>
-      <c r="D2719" s="3"/>
+      <c r="A2719" s="16"/>
+      <c r="B2719" s="3" t="n">
+        <v>23.4496854226016</v>
+      </c>
+      <c r="C2719" s="3" t="n">
+        <v>25.149620596207</v>
+      </c>
+      <c r="D2719" s="3" t="n">
+        <v>24.9733216374268</v>
+      </c>
     </row>
     <row r="2720">
-      <c r="A2720" s="6"/>
-      <c r="B2720" s="3"/>
-      <c r="C2720" s="3"/>
-      <c r="D2720" s="3"/>
+      <c r="A2720" s="16"/>
+      <c r="B2720" s="3" t="n">
+        <v>23.44302480916</v>
+      </c>
+      <c r="C2720" s="3" t="n">
+        <v>25.1415963172815</v>
+      </c>
+      <c r="D2720" s="3" t="n">
+        <v>24.9679234972677</v>
+      </c>
     </row>
     <row r="2721">
-      <c r="A2721" s="6"/>
-      <c r="B2721" s="3"/>
-      <c r="C2721" s="3"/>
-      <c r="D2721" s="3"/>
+      <c r="A2721" s="16"/>
+      <c r="B2721" s="3" t="n">
+        <v>23.4362004889976</v>
+      </c>
+      <c r="C2721" s="3" t="n">
+        <v>25.1326605770638</v>
+      </c>
+      <c r="D2721" s="3" t="n">
+        <v>24.9611414887246</v>
+      </c>
     </row>
     <row r="2722">
-      <c r="A2722" s="6"/>
-      <c r="B2722" s="3"/>
-      <c r="C2722" s="3"/>
-      <c r="D2722" s="3"/>
+      <c r="A2722" s="16"/>
+      <c r="B2722" s="3" t="n">
+        <v>23.423761604159</v>
+      </c>
+      <c r="C2722" s="3" t="n">
+        <v>25.1187655951869</v>
+      </c>
+      <c r="D2722" s="3" t="n">
+        <v>24.9600161648816</v>
+      </c>
     </row>
     <row r="2723">
       <c r="A2723" s="6"/>
@@ -46898,13 +47084,27 @@
     </row>
     <row r="104">
       <c r="A104" s="6"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>25.08</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - mayo 2024</t>
+    <t xml:space="preserve">enero 2017 - junio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: julio 2024</t>
+    <t xml:space="preserve">Próxima actualización: agosto 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">mayo 2024</t>
+    <t xml:space="preserve">junio 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -42751,184 +42751,364 @@
       </c>
     </row>
     <row r="2723">
-      <c r="A2723" s="6"/>
-      <c r="B2723" s="3"/>
-      <c r="C2723" s="3"/>
-      <c r="D2723" s="3"/>
+      <c r="A2723" s="16"/>
+      <c r="B2723" s="3" t="n">
+        <v>23.4159795613161</v>
+      </c>
+      <c r="C2723" s="3" t="n">
+        <v>25.1194168881027</v>
+      </c>
+      <c r="D2723" s="3" t="n">
+        <v>24.9549705941998</v>
+      </c>
     </row>
     <row r="2724">
-      <c r="A2724" s="6"/>
-      <c r="B2724" s="3"/>
-      <c r="C2724" s="3"/>
-      <c r="D2724" s="3"/>
+      <c r="A2724" s="16"/>
+      <c r="B2724" s="3" t="n">
+        <v>23.3965916357593</v>
+      </c>
+      <c r="C2724" s="3" t="n">
+        <v>25.1027387277983</v>
+      </c>
+      <c r="D2724" s="3" t="n">
+        <v>24.9335225130888</v>
+      </c>
     </row>
     <row r="2725">
-      <c r="A2725" s="6"/>
-      <c r="B2725" s="3"/>
-      <c r="C2725" s="3"/>
-      <c r="D2725" s="3"/>
+      <c r="A2725" s="16"/>
+      <c r="B2725" s="3" t="n">
+        <v>23.3922593652449</v>
+      </c>
+      <c r="C2725" s="3" t="n">
+        <v>25.0951143386908</v>
+      </c>
+      <c r="D2725" s="3" t="n">
+        <v>24.9271242249302</v>
+      </c>
     </row>
     <row r="2726">
-      <c r="A2726" s="6"/>
-      <c r="B2726" s="3"/>
-      <c r="C2726" s="3"/>
-      <c r="D2726" s="3"/>
+      <c r="A2726" s="16"/>
+      <c r="B2726" s="3" t="n">
+        <v>23.3943537240852</v>
+      </c>
+      <c r="C2726" s="3" t="n">
+        <v>25.0988405139846</v>
+      </c>
+      <c r="D2726" s="3" t="n">
+        <v>24.9425046420464</v>
+      </c>
     </row>
     <row r="2727">
-      <c r="A2727" s="6"/>
-      <c r="B2727" s="3"/>
-      <c r="C2727" s="3"/>
-      <c r="D2727" s="3"/>
+      <c r="A2727" s="16"/>
+      <c r="B2727" s="3" t="n">
+        <v>23.3854353122197</v>
+      </c>
+      <c r="C2727" s="3" t="n">
+        <v>25.0942493600373</v>
+      </c>
+      <c r="D2727" s="3" t="n">
+        <v>24.9354069767438</v>
+      </c>
     </row>
     <row r="2728">
-      <c r="A2728" s="6"/>
-      <c r="B2728" s="3"/>
-      <c r="C2728" s="3"/>
-      <c r="D2728" s="3"/>
+      <c r="A2728" s="16"/>
+      <c r="B2728" s="3" t="n">
+        <v>23.3735455372226</v>
+      </c>
+      <c r="C2728" s="3" t="n">
+        <v>25.0898390525368</v>
+      </c>
+      <c r="D2728" s="3" t="n">
+        <v>24.9188612923592</v>
+      </c>
     </row>
     <row r="2729">
-      <c r="A2729" s="6"/>
-      <c r="B2729" s="3"/>
-      <c r="C2729" s="3"/>
-      <c r="D2729" s="3"/>
+      <c r="A2729" s="16"/>
+      <c r="B2729" s="3" t="n">
+        <v>23.3853561661677</v>
+      </c>
+      <c r="C2729" s="3" t="n">
+        <v>25.0845236650496</v>
+      </c>
+      <c r="D2729" s="3" t="n">
+        <v>24.9091549295772</v>
+      </c>
     </row>
     <row r="2730">
-      <c r="A2730" s="6"/>
-      <c r="B2730" s="3"/>
-      <c r="C2730" s="3"/>
-      <c r="D2730" s="3"/>
+      <c r="A2730" s="16"/>
+      <c r="B2730" s="3" t="n">
+        <v>23.3750183342066</v>
+      </c>
+      <c r="C2730" s="3" t="n">
+        <v>25.0675654169865</v>
+      </c>
+      <c r="D2730" s="3" t="n">
+        <v>24.8965133120338</v>
+      </c>
     </row>
     <row r="2731">
-      <c r="A2731" s="6"/>
-      <c r="B2731" s="3"/>
-      <c r="C2731" s="3"/>
-      <c r="D2731" s="3"/>
+      <c r="A2731" s="16"/>
+      <c r="B2731" s="3" t="n">
+        <v>23.3742446233015</v>
+      </c>
+      <c r="C2731" s="3" t="n">
+        <v>25.0667134052398</v>
+      </c>
+      <c r="D2731" s="3" t="n">
+        <v>24.8915943274599</v>
+      </c>
     </row>
     <row r="2732">
-      <c r="A2732" s="6"/>
-      <c r="B2732" s="3"/>
-      <c r="C2732" s="3"/>
-      <c r="D2732" s="3"/>
+      <c r="A2732" s="16"/>
+      <c r="B2732" s="3" t="n">
+        <v>23.3721558717917</v>
+      </c>
+      <c r="C2732" s="3" t="n">
+        <v>25.0661394268019</v>
+      </c>
+      <c r="D2732" s="3" t="n">
+        <v>24.8924913718719</v>
+      </c>
     </row>
     <row r="2733">
-      <c r="A2733" s="6"/>
-      <c r="B2733" s="3"/>
-      <c r="C2733" s="3"/>
-      <c r="D2733" s="3"/>
+      <c r="A2733" s="16"/>
+      <c r="B2733" s="3" t="n">
+        <v>23.3803582246809</v>
+      </c>
+      <c r="C2733" s="3" t="n">
+        <v>25.0775651241199</v>
+      </c>
+      <c r="D2733" s="3" t="n">
+        <v>24.9086054421765</v>
+      </c>
     </row>
     <row r="2734">
-      <c r="A2734" s="6"/>
-      <c r="B2734" s="3"/>
-      <c r="C2734" s="3"/>
-      <c r="D2734" s="3"/>
+      <c r="A2734" s="16"/>
+      <c r="B2734" s="3" t="n">
+        <v>23.4026538915872</v>
+      </c>
+      <c r="C2734" s="3" t="n">
+        <v>25.0875803258729</v>
+      </c>
+      <c r="D2734" s="3" t="n">
+        <v>24.9413520833329</v>
+      </c>
     </row>
     <row r="2735">
-      <c r="A2735" s="6"/>
-      <c r="B2735" s="3"/>
-      <c r="C2735" s="3"/>
-      <c r="D2735" s="3"/>
+      <c r="A2735" s="16"/>
+      <c r="B2735" s="3" t="n">
+        <v>23.4474254199052</v>
+      </c>
+      <c r="C2735" s="3" t="n">
+        <v>25.1245075813348</v>
+      </c>
+      <c r="D2735" s="3" t="n">
+        <v>25.0007723250197</v>
+      </c>
     </row>
     <row r="2736">
-      <c r="A2736" s="6"/>
-      <c r="B2736" s="3"/>
-      <c r="C2736" s="3"/>
-      <c r="D2736" s="3"/>
+      <c r="A2736" s="16"/>
+      <c r="B2736" s="3" t="n">
+        <v>23.4791420619558</v>
+      </c>
+      <c r="C2736" s="3" t="n">
+        <v>25.1285988455997</v>
+      </c>
+      <c r="D2736" s="3" t="n">
+        <v>25.072601422803</v>
+      </c>
     </row>
     <row r="2737">
-      <c r="A2737" s="6"/>
-      <c r="B2737" s="3"/>
-      <c r="C2737" s="3"/>
-      <c r="D2737" s="3"/>
+      <c r="A2737" s="16"/>
+      <c r="B2737" s="3" t="n">
+        <v>23.5202727908604</v>
+      </c>
+      <c r="C2737" s="3" t="n">
+        <v>25.1447532430915</v>
+      </c>
+      <c r="D2737" s="3" t="n">
+        <v>25.1514606536424</v>
+      </c>
     </row>
     <row r="2738">
-      <c r="A2738" s="6"/>
-      <c r="B2738" s="3"/>
-      <c r="C2738" s="3"/>
-      <c r="D2738" s="3"/>
+      <c r="A2738" s="16"/>
+      <c r="B2738" s="3" t="n">
+        <v>23.53956541681</v>
+      </c>
+      <c r="C2738" s="3" t="n">
+        <v>25.1584885177459</v>
+      </c>
+      <c r="D2738" s="3" t="n">
+        <v>25.1926269237571</v>
+      </c>
     </row>
     <row r="2739">
-      <c r="A2739" s="6"/>
-      <c r="B2739" s="3"/>
-      <c r="C2739" s="3"/>
-      <c r="D2739" s="3"/>
+      <c r="A2739" s="16"/>
+      <c r="B2739" s="3" t="n">
+        <v>23.5437940161106</v>
+      </c>
+      <c r="C2739" s="3" t="n">
+        <v>25.1581739252212</v>
+      </c>
+      <c r="D2739" s="3" t="n">
+        <v>25.2018125442947</v>
+      </c>
     </row>
     <row r="2740">
-      <c r="A2740" s="6"/>
-      <c r="B2740" s="3"/>
-      <c r="C2740" s="3"/>
-      <c r="D2740" s="3"/>
+      <c r="A2740" s="16"/>
+      <c r="B2740" s="3" t="n">
+        <v>23.5686289602854</v>
+      </c>
+      <c r="C2740" s="3" t="n">
+        <v>25.1725383771934</v>
+      </c>
+      <c r="D2740" s="3" t="n">
+        <v>25.2360939094929</v>
+      </c>
     </row>
     <row r="2741">
-      <c r="A2741" s="6"/>
-      <c r="B2741" s="3"/>
-      <c r="C2741" s="3"/>
-      <c r="D2741" s="3"/>
+      <c r="A2741" s="16"/>
+      <c r="B2741" s="3" t="n">
+        <v>23.5947957967714</v>
+      </c>
+      <c r="C2741" s="3" t="n">
+        <v>25.1929417293234</v>
+      </c>
+      <c r="D2741" s="3" t="n">
+        <v>25.2772746536267</v>
+      </c>
     </row>
     <row r="2742">
-      <c r="A2742" s="6"/>
-      <c r="B2742" s="3"/>
-      <c r="C2742" s="3"/>
-      <c r="D2742" s="3"/>
+      <c r="A2742" s="16"/>
+      <c r="B2742" s="3" t="n">
+        <v>23.6222251725967</v>
+      </c>
+      <c r="C2742" s="3" t="n">
+        <v>25.2081706349208</v>
+      </c>
+      <c r="D2742" s="3" t="n">
+        <v>25.3041734758014</v>
+      </c>
     </row>
     <row r="2743">
-      <c r="A2743" s="6"/>
-      <c r="B2743" s="3"/>
-      <c r="C2743" s="3"/>
-      <c r="D2743" s="3"/>
+      <c r="A2743" s="16"/>
+      <c r="B2743" s="3" t="n">
+        <v>23.6569035691921</v>
+      </c>
+      <c r="C2743" s="3" t="n">
+        <v>25.2145256327061</v>
+      </c>
+      <c r="D2743" s="3" t="n">
+        <v>25.3374226646249</v>
+      </c>
     </row>
     <row r="2744">
-      <c r="A2744" s="6"/>
-      <c r="B2744" s="3"/>
-      <c r="C2744" s="3"/>
-      <c r="D2744" s="3"/>
+      <c r="A2744" s="16"/>
+      <c r="B2744" s="3" t="n">
+        <v>23.6800964498255</v>
+      </c>
+      <c r="C2744" s="3" t="n">
+        <v>25.2373519652886</v>
+      </c>
+      <c r="D2744" s="3" t="n">
+        <v>25.3669069247953</v>
+      </c>
     </row>
     <row r="2745">
-      <c r="A2745" s="6"/>
-      <c r="B2745" s="3"/>
-      <c r="C2745" s="3"/>
-      <c r="D2745" s="3"/>
+      <c r="A2745" s="16"/>
+      <c r="B2745" s="3" t="n">
+        <v>23.6881794950424</v>
+      </c>
+      <c r="C2745" s="3" t="n">
+        <v>25.2463437301083</v>
+      </c>
+      <c r="D2745" s="3" t="n">
+        <v>25.3859240655932</v>
+      </c>
     </row>
     <row r="2746">
-      <c r="A2746" s="6"/>
-      <c r="B2746" s="3"/>
-      <c r="C2746" s="3"/>
-      <c r="D2746" s="3"/>
+      <c r="A2746" s="16"/>
+      <c r="B2746" s="3" t="n">
+        <v>23.6898390238901</v>
+      </c>
+      <c r="C2746" s="3" t="n">
+        <v>25.2488169842692</v>
+      </c>
+      <c r="D2746" s="3" t="n">
+        <v>25.3906057024672</v>
+      </c>
     </row>
     <row r="2747">
-      <c r="A2747" s="6"/>
-      <c r="B2747" s="3"/>
-      <c r="C2747" s="3"/>
-      <c r="D2747" s="3"/>
+      <c r="A2747" s="16"/>
+      <c r="B2747" s="3" t="n">
+        <v>23.7113278342219</v>
+      </c>
+      <c r="C2747" s="3" t="n">
+        <v>25.2635717877797</v>
+      </c>
+      <c r="D2747" s="3" t="n">
+        <v>25.4144676559572</v>
+      </c>
     </row>
     <row r="2748">
-      <c r="A2748" s="6"/>
-      <c r="B2748" s="3"/>
-      <c r="C2748" s="3"/>
-      <c r="D2748" s="3"/>
+      <c r="A2748" s="16"/>
+      <c r="B2748" s="3" t="n">
+        <v>23.7367158018867</v>
+      </c>
+      <c r="C2748" s="3" t="n">
+        <v>25.2817137569399</v>
+      </c>
+      <c r="D2748" s="3" t="n">
+        <v>25.4381408450701</v>
+      </c>
     </row>
     <row r="2749">
-      <c r="A2749" s="6"/>
-      <c r="B2749" s="3"/>
-      <c r="C2749" s="3"/>
-      <c r="D2749" s="3"/>
+      <c r="A2749" s="16"/>
+      <c r="B2749" s="3" t="n">
+        <v>23.7474313267094</v>
+      </c>
+      <c r="C2749" s="3" t="n">
+        <v>25.2933708828207</v>
+      </c>
+      <c r="D2749" s="3" t="n">
+        <v>25.4463355592651</v>
+      </c>
     </row>
     <row r="2750">
-      <c r="A2750" s="6"/>
-      <c r="B2750" s="3"/>
-      <c r="C2750" s="3"/>
-      <c r="D2750" s="3"/>
+      <c r="A2750" s="16"/>
+      <c r="B2750" s="3" t="n">
+        <v>23.7601802930966</v>
+      </c>
+      <c r="C2750" s="3" t="n">
+        <v>25.3022895949549</v>
+      </c>
+      <c r="D2750" s="3" t="n">
+        <v>25.4580904591692</v>
+      </c>
     </row>
     <row r="2751">
-      <c r="A2751" s="6"/>
-      <c r="B2751" s="3"/>
-      <c r="C2751" s="3"/>
-      <c r="D2751" s="3"/>
+      <c r="A2751" s="16"/>
+      <c r="B2751" s="3" t="n">
+        <v>23.7752347260733</v>
+      </c>
+      <c r="C2751" s="3" t="n">
+        <v>25.3194190225199</v>
+      </c>
+      <c r="D2751" s="3" t="n">
+        <v>25.4753062330618</v>
+      </c>
     </row>
     <row r="2752">
-      <c r="A2752" s="6"/>
-      <c r="B2752" s="3"/>
-      <c r="C2752" s="3"/>
-      <c r="D2752" s="3"/>
+      <c r="A2752" s="16"/>
+      <c r="B2752" s="3" t="n">
+        <v>23.7866128724218</v>
+      </c>
+      <c r="C2752" s="3" t="n">
+        <v>25.3359502558605</v>
+      </c>
+      <c r="D2752" s="3" t="n">
+        <v>25.4873883717789</v>
+      </c>
     </row>
     <row r="2753">
       <c r="A2753" s="6"/>
@@ -47016,19 +47196,19 @@
         <v>1416</v>
       </c>
       <c r="C101" s="3" t="n">
-        <v>23.69</v>
+        <v>23.76</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>22.99</v>
+        <v>23.01</v>
       </c>
       <c r="E101" s="3" t="n">
-        <v>25.32</v>
+        <v>25.39</v>
       </c>
       <c r="F101" s="3" t="n">
-        <v>24.58</v>
+        <v>24.64</v>
       </c>
       <c r="G101" s="3" t="n">
-        <v>25.18</v>
+        <v>25.23</v>
       </c>
       <c r="H101" s="3" t="n">
         <v>24.88</v>
@@ -47046,16 +47226,16 @@
         <v>23.19</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>25.69</v>
+        <v>25.72</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>24.92</v>
+        <v>24.96</v>
       </c>
       <c r="G102" s="3" t="n">
         <v>25.27</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>24.95</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="103">
@@ -47108,13 +47288,27 @@
     </row>
     <row r="105">
       <c r="A105" s="6"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="B105" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>24.43</v>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="G105" s="3" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="H105" s="3" t="n">
+        <v>25.19</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - julio 2024</t>
+    <t xml:space="preserve">enero 2017 - agosto 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: septiembre 2024</t>
+    <t xml:space="preserve">Próxima actualización: octubre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">julio 2024</t>
+    <t xml:space="preserve">agosto 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -5083,7 +5083,7 @@
         <v>42740</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>16.0188973655325</v>
+        <v>16.0188973655323</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>17.8319669919632</v>
@@ -5159,7 +5159,7 @@
         <v>17.8289218355822</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>17.0849594242065</v>
+        <v>17.0849594242063</v>
       </c>
     </row>
     <row r="25">
@@ -5212,7 +5212,7 @@
         <v>16.0029484610723</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>17.815626970708</v>
+        <v>17.8156269707082</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>17.0711665447296</v>
@@ -5229,7 +5229,7 @@
         <v>17.8155889118453</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>17.0723933856678</v>
+        <v>17.0723933856681</v>
       </c>
     </row>
     <row r="30">
@@ -5240,7 +5240,7 @@
         <v>16.0046395652654</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>17.8152320481187</v>
+        <v>17.8152320481193</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>17.0724871320869</v>
@@ -5251,7 +5251,7 @@
         <v>42752</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>16.0011355834196</v>
+        <v>16.0011355834195</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>17.8115141629717</v>
@@ -5293,7 +5293,7 @@
         <v>42755</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>16.001511199044</v>
+        <v>16.0015111990436</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>17.8115116063398</v>
@@ -5310,7 +5310,7 @@
         <v>16.0019203430505</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>17.8119542539632</v>
+        <v>17.8119542539628</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>17.0701551451107</v>
@@ -5321,7 +5321,7 @@
         <v>42757</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>16.0018919759878</v>
+        <v>16.0018919759877</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>17.8117798650708</v>
@@ -5534,7 +5534,7 @@
         <v>15.8603086173826</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>17.7255699550782</v>
+        <v>17.725569955078</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>17.0742098868575</v>
@@ -5719,7 +5719,7 @@
         <v>17.7603928897944</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>17.0552244737225</v>
+        <v>17.0552244737221</v>
       </c>
     </row>
     <row r="65">
@@ -5755,7 +5755,7 @@
         <v>42788</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>15.9163638703042</v>
+        <v>15.916363870304</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>17.7519076721596</v>
@@ -5789,7 +5789,7 @@
         <v>17.7333504946778</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>17.029996326967</v>
+        <v>17.0299963269668</v>
       </c>
     </row>
     <row r="70">
@@ -5825,7 +5825,7 @@
         <v>42793</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>15.8926099402165</v>
+        <v>15.8926099402164</v>
       </c>
       <c r="C72" s="3" t="n">
         <v>17.7321906898043</v>
@@ -5859,7 +5859,7 @@
         <v>17.7232116548803</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>17.0293524797235</v>
+        <v>17.0293524797234</v>
       </c>
     </row>
     <row r="75">
@@ -5937,7 +5937,7 @@
         <v>42801</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>15.7995763895821</v>
+        <v>15.7995763895819</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>17.6612390153517</v>
@@ -5965,7 +5965,7 @@
         <v>42803</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>15.8210432639656</v>
+        <v>15.8210432639655</v>
       </c>
       <c r="C82" s="3" t="n">
         <v>17.6782373454503</v>
@@ -6147,7 +6147,7 @@
         <v>42816</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>15.7615183594916</v>
+        <v>15.7615183594908</v>
       </c>
       <c r="C95" s="3" t="n">
         <v>17.6007624921429</v>
@@ -6245,7 +6245,7 @@
         <v>42823</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>15.745483615386</v>
+        <v>15.7454836153864</v>
       </c>
       <c r="C102" s="3" t="n">
         <v>17.5777183962024</v>
@@ -6374,7 +6374,7 @@
         <v>15.7797735686006</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>17.6093864325237</v>
+        <v>17.6093864325257</v>
       </c>
       <c r="D111" s="3" t="n">
         <v>16.8952683588133</v>
@@ -6598,7 +6598,7 @@
         <v>15.7776863934903</v>
       </c>
       <c r="C127" s="3" t="n">
-        <v>17.6150840070052</v>
+        <v>17.6150840070056</v>
       </c>
       <c r="D127" s="3" t="n">
         <v>16.8789807791206</v>
@@ -7175,7 +7175,7 @@
         <v>17.5235702082552</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>16.7078213727533</v>
+        <v>16.7078213727532</v>
       </c>
     </row>
     <row r="169">
@@ -7357,7 +7357,7 @@
         <v>17.359713038169</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>16.5730754142149</v>
+        <v>16.5730754142154</v>
       </c>
     </row>
     <row r="182">
@@ -8404,7 +8404,7 @@
         <v>15.6431750710233</v>
       </c>
       <c r="C256" s="3" t="n">
-        <v>17.4766113105926</v>
+        <v>17.4766113105923</v>
       </c>
       <c r="D256" s="3" t="n">
         <v>16.5876876590328</v>
@@ -8614,7 +8614,7 @@
         <v>15.7818513015744</v>
       </c>
       <c r="C271" s="3" t="n">
-        <v>17.6537617319923</v>
+        <v>17.6537617319913</v>
       </c>
       <c r="D271" s="3" t="n">
         <v>16.7553765995584</v>
@@ -9023,7 +9023,7 @@
         <v>17.7601820806292</v>
       </c>
       <c r="D300" s="3" t="n">
-        <v>16.9895147180768</v>
+        <v>16.9895147180764</v>
       </c>
     </row>
     <row r="301">
@@ -9440,7 +9440,7 @@
         <v>16.0384081262163</v>
       </c>
       <c r="C330" s="3" t="n">
-        <v>17.8899362835491</v>
+        <v>17.8899362835492</v>
       </c>
       <c r="D330" s="3" t="n">
         <v>17.0879131440676</v>
@@ -10241,7 +10241,7 @@
         <v>18.2348591751382</v>
       </c>
       <c r="D387" s="3" t="n">
-        <v>17.5275357991865</v>
+        <v>17.5275357991863</v>
       </c>
     </row>
     <row r="388">
@@ -11397,7 +11397,7 @@
         <v>43191</v>
       </c>
       <c r="B470" s="3" t="n">
-        <v>17.6467303971254</v>
+        <v>17.6467303971252</v>
       </c>
       <c r="C470" s="3" t="n">
         <v>19.2107354528506</v>
@@ -12671,7 +12671,7 @@
         <v>43282</v>
       </c>
       <c r="B561" s="3" t="n">
-        <v>18.2238974797482</v>
+        <v>18.2238974797483</v>
       </c>
       <c r="C561" s="3" t="n">
         <v>19.7397936326372</v>
@@ -13153,7 +13153,7 @@
         <v>20.3225149006235</v>
       </c>
       <c r="D595" s="3" t="n">
-        <v>19.8928442935352</v>
+        <v>19.8928442935353</v>
       </c>
     </row>
     <row r="596">
@@ -13679,7 +13679,7 @@
         <v>43354</v>
       </c>
       <c r="B633" s="3" t="n">
-        <v>19.1989953604569</v>
+        <v>19.1989953604567</v>
       </c>
       <c r="C633" s="3" t="n">
         <v>20.6628987059489</v>
@@ -13696,7 +13696,7 @@
         <v>19.2056915083402</v>
       </c>
       <c r="C634" s="3" t="n">
-        <v>20.6724205655744</v>
+        <v>20.6724205655751</v>
       </c>
       <c r="D634" s="3" t="n">
         <v>20.3030736716241</v>
@@ -13836,7 +13836,7 @@
         <v>19.2580681157156</v>
       </c>
       <c r="C644" s="3" t="n">
-        <v>20.7351653598731</v>
+        <v>20.7351653598733</v>
       </c>
       <c r="D644" s="3" t="n">
         <v>20.3599229157025</v>
@@ -13976,7 +13976,7 @@
         <v>19.3402058845982</v>
       </c>
       <c r="C654" s="3" t="n">
-        <v>20.8320689523079</v>
+        <v>20.8320689523078</v>
       </c>
       <c r="D654" s="3" t="n">
         <v>20.4527207274292</v>
@@ -14018,7 +14018,7 @@
         <v>19.3863419873505</v>
       </c>
       <c r="C657" s="3" t="n">
-        <v>20.8827190793331</v>
+        <v>20.8827190793332</v>
       </c>
       <c r="D657" s="3" t="n">
         <v>20.5063158347284</v>
@@ -14029,7 +14029,7 @@
         <v>43379</v>
       </c>
       <c r="B658" s="3" t="n">
-        <v>19.405099333895</v>
+        <v>19.4050993338954</v>
       </c>
       <c r="C658" s="3" t="n">
         <v>20.9016031339886</v>
@@ -14046,7 +14046,7 @@
         <v>19.4072064018813</v>
       </c>
       <c r="C659" s="3" t="n">
-        <v>20.9037020463852</v>
+        <v>20.9037020463853</v>
       </c>
       <c r="D659" s="3" t="n">
         <v>20.5292929391967</v>
@@ -14057,7 +14057,7 @@
         <v>43381</v>
       </c>
       <c r="B660" s="3" t="n">
-        <v>19.4127141513382</v>
+        <v>19.4127141513385</v>
       </c>
       <c r="C660" s="3" t="n">
         <v>20.9085980682555</v>
@@ -14077,7 +14077,7 @@
         <v>20.9215388008371</v>
       </c>
       <c r="D661" s="3" t="n">
-        <v>20.551186300535</v>
+        <v>20.5511863005351</v>
       </c>
     </row>
     <row r="662">
@@ -14088,7 +14088,7 @@
         <v>19.434779878135</v>
       </c>
       <c r="C662" s="3" t="n">
-        <v>20.9371593664333</v>
+        <v>20.9371593664337</v>
       </c>
       <c r="D662" s="3" t="n">
         <v>20.5693311027692</v>
@@ -14099,13 +14099,13 @@
         <v>43384</v>
       </c>
       <c r="B663" s="3" t="n">
-        <v>19.4439680531229</v>
+        <v>19.443968053123</v>
       </c>
       <c r="C663" s="3" t="n">
         <v>20.952979431326</v>
       </c>
       <c r="D663" s="3" t="n">
-        <v>20.5914707315572</v>
+        <v>20.5914707315571</v>
       </c>
     </row>
     <row r="664">
@@ -14127,7 +14127,7 @@
         <v>43386</v>
       </c>
       <c r="B665" s="3" t="n">
-        <v>19.4485921976761</v>
+        <v>19.4485921976762</v>
       </c>
       <c r="C665" s="3" t="n">
         <v>20.9627062994405</v>
@@ -14141,13 +14141,13 @@
         <v>43387</v>
       </c>
       <c r="B666" s="3" t="n">
-        <v>19.4492788117855</v>
+        <v>19.4492788117854</v>
       </c>
       <c r="C666" s="3" t="n">
         <v>20.9630826029155</v>
       </c>
       <c r="D666" s="3" t="n">
-        <v>20.6193318135561</v>
+        <v>20.6193318135562</v>
       </c>
     </row>
     <row r="667">
@@ -14158,7 +14158,7 @@
         <v>19.450632723256</v>
       </c>
       <c r="C667" s="3" t="n">
-        <v>20.9666931382449</v>
+        <v>20.9666931382451</v>
       </c>
       <c r="D667" s="3" t="n">
         <v>20.6224433878619</v>
@@ -14211,13 +14211,13 @@
         <v>43392</v>
       </c>
       <c r="B671" s="3" t="n">
-        <v>19.4513913646328</v>
+        <v>19.4513913646331</v>
       </c>
       <c r="C671" s="3" t="n">
         <v>20.9679672339368</v>
       </c>
       <c r="D671" s="3" t="n">
-        <v>20.6461314710809</v>
+        <v>20.6461314710808</v>
       </c>
     </row>
     <row r="672">
@@ -14270,7 +14270,7 @@
         <v>19.454593702316</v>
       </c>
       <c r="C675" s="3" t="n">
-        <v>20.9701504988373</v>
+        <v>20.9701504988378</v>
       </c>
       <c r="D675" s="3" t="n">
         <v>20.6696913036271</v>
@@ -14351,7 +14351,7 @@
         <v>43402</v>
       </c>
       <c r="B681" s="3" t="n">
-        <v>19.4513571741768</v>
+        <v>19.4513571741772</v>
       </c>
       <c r="C681" s="3" t="n">
         <v>20.9731824104236</v>
@@ -14497,7 +14497,7 @@
         <v>20.9739994539878</v>
       </c>
       <c r="D691" s="3" t="n">
-        <v>20.7756405754936</v>
+        <v>20.7756405754937</v>
       </c>
     </row>
     <row r="692">
@@ -14637,7 +14637,7 @@
         <v>20.9331127856141</v>
       </c>
       <c r="D701" s="3" t="n">
-        <v>20.7898208001122</v>
+        <v>20.7898208001123</v>
       </c>
     </row>
     <row r="702">
@@ -14690,7 +14690,7 @@
         <v>19.3724300539221</v>
       </c>
       <c r="C705" s="3" t="n">
-        <v>20.9303735442572</v>
+        <v>20.9303735442573</v>
       </c>
       <c r="D705" s="3" t="n">
         <v>20.7932005713843</v>
@@ -14841,7 +14841,7 @@
         <v>43437</v>
       </c>
       <c r="B716" s="3" t="n">
-        <v>19.2712579443347</v>
+        <v>19.2712579443345</v>
       </c>
       <c r="C716" s="3" t="n">
         <v>20.8386459663379</v>
@@ -15373,7 +15373,7 @@
         <v>43475</v>
       </c>
       <c r="B754" s="3" t="n">
-        <v>18.780218236394</v>
+        <v>18.7802182363939</v>
       </c>
       <c r="C754" s="3" t="n">
         <v>20.2481500768421</v>
@@ -15667,7 +15667,7 @@
         <v>43496</v>
       </c>
       <c r="B775" s="3" t="n">
-        <v>18.8280104336172</v>
+        <v>18.8280104336171</v>
       </c>
       <c r="C775" s="3" t="n">
         <v>20.0308525147339</v>
@@ -17070,7 +17070,7 @@
         <v>19.4550203578701</v>
       </c>
       <c r="C875" s="3" t="n">
-        <v>20.9623413828452</v>
+        <v>20.9623413828458</v>
       </c>
       <c r="D875" s="3" t="n">
         <v>21.2527750291034</v>
@@ -17392,7 +17392,7 @@
         <v>19.4258689035988</v>
       </c>
       <c r="C898" s="3" t="n">
-        <v>20.9370017884522</v>
+        <v>20.9370017884514</v>
       </c>
       <c r="D898" s="3" t="n">
         <v>21.1031325997386</v>
@@ -17731,7 +17731,7 @@
         <v>20.9615170549725</v>
       </c>
       <c r="D922" s="3" t="n">
-        <v>21.1200296655881</v>
+        <v>21.1200296655878</v>
       </c>
     </row>
     <row r="923">
@@ -18047,7 +18047,7 @@
         <v>43666</v>
       </c>
       <c r="B945" s="3" t="n">
-        <v>19.4098109615122</v>
+        <v>19.4098109615123</v>
       </c>
       <c r="C945" s="3" t="n">
         <v>20.9693912284977</v>
@@ -18439,7 +18439,7 @@
         <v>43694</v>
       </c>
       <c r="B973" s="3" t="n">
-        <v>19.1987440143294</v>
+        <v>19.198744014329</v>
       </c>
       <c r="C973" s="3" t="n">
         <v>20.9453537057021</v>
@@ -18509,7 +18509,7 @@
         <v>43699</v>
       </c>
       <c r="B978" s="3" t="n">
-        <v>19.2447120983395</v>
+        <v>19.2447120983394</v>
       </c>
       <c r="C978" s="3" t="n">
         <v>20.9285972683644</v>
@@ -18725,7 +18725,7 @@
         <v>20.9622425936023</v>
       </c>
       <c r="D993" s="3" t="n">
-        <v>21.1608250648754</v>
+        <v>21.1608250648755</v>
       </c>
     </row>
     <row r="994">
@@ -19223,7 +19223,7 @@
         <v>43750</v>
       </c>
       <c r="B1029" s="3" t="n">
-        <v>19.278986790811</v>
+        <v>19.2789867908107</v>
       </c>
       <c r="C1029" s="3" t="n">
         <v>20.8891810857824</v>
@@ -19240,7 +19240,7 @@
         <v>19.2824040554481</v>
       </c>
       <c r="C1030" s="3" t="n">
-        <v>20.8962320152232</v>
+        <v>20.8962320152235</v>
       </c>
       <c r="D1030" s="3" t="n">
         <v>21.0754485996981</v>
@@ -20601,7 +20601,7 @@
         <v>20.8296317493354</v>
       </c>
       <c r="D1127" s="3" t="n">
-        <v>21.2637327703358</v>
+        <v>21.2637327703355</v>
       </c>
     </row>
     <row r="1128">
@@ -20847,7 +20847,7 @@
         <v>43866</v>
       </c>
       <c r="B1145" s="3" t="n">
-        <v>19.3898390816836</v>
+        <v>19.3898390816833</v>
       </c>
       <c r="C1145" s="3" t="n">
         <v>20.5472180316091</v>
@@ -20965,7 +20965,7 @@
         <v>20.4020916490135</v>
       </c>
       <c r="D1153" s="3" t="n">
-        <v>20.9706429391504</v>
+        <v>20.9706429391505</v>
       </c>
     </row>
     <row r="1154">
@@ -21435,7 +21435,7 @@
         <v>43908</v>
       </c>
       <c r="B1187" s="3" t="n">
-        <v>18.0522243264182</v>
+        <v>18.0522243264181</v>
       </c>
       <c r="C1187" s="3" t="n">
         <v>19.3143752927951</v>
@@ -22239,7 +22239,7 @@
         <v>17.0718936814228</v>
       </c>
       <c r="D1244" s="3" t="n">
-        <v>18.4884074074075</v>
+        <v>18.4884074074072</v>
       </c>
     </row>
     <row r="1245">
@@ -22267,7 +22267,7 @@
         <v>17.1346540525273</v>
       </c>
       <c r="D1246" s="3" t="n">
-        <v>18.5186468200271</v>
+        <v>18.5186468200272</v>
       </c>
     </row>
     <row r="1247">
@@ -22684,7 +22684,7 @@
         <v>17.5376992493887</v>
       </c>
       <c r="C1276" s="3" t="n">
-        <v>18.038573528061</v>
+        <v>18.0385735280614</v>
       </c>
       <c r="D1276" s="3" t="n">
         <v>19.0378085735406</v>
@@ -22936,7 +22936,7 @@
         <v>18.4298306084613</v>
       </c>
       <c r="C1294" s="3" t="n">
-        <v>18.8825450409465</v>
+        <v>18.8825450409464</v>
       </c>
       <c r="D1294" s="3" t="n">
         <v>19.5984299175502</v>
@@ -23510,7 +23510,7 @@
         <v>18.5276172112848</v>
       </c>
       <c r="C1335" s="3" t="n">
-        <v>19.0158563782337</v>
+        <v>19.0158563782339</v>
       </c>
       <c r="D1335" s="3" t="n">
         <v>19.7009279240399</v>
@@ -24291,7 +24291,7 @@
         <v>44112</v>
       </c>
       <c r="B1391" s="3" t="n">
-        <v>18.5294057507991</v>
+        <v>18.5294057507989</v>
       </c>
       <c r="C1391" s="3" t="n">
         <v>19.0359428687607</v>
@@ -25803,7 +25803,7 @@
         <v>44220</v>
       </c>
       <c r="B1499" s="3" t="n">
-        <v>20.2533692369643</v>
+        <v>20.253369236964</v>
       </c>
       <c r="C1499" s="3" t="n">
         <v>22.039871009352</v>
@@ -26086,7 +26086,7 @@
         <v>20.1172925764195</v>
       </c>
       <c r="C1519" s="3" t="n">
-        <v>21.6156520961835</v>
+        <v>21.6156520961831</v>
       </c>
       <c r="D1519" s="3" t="n">
         <v>21.4719599083616</v>
@@ -26422,7 +26422,7 @@
         <v>19.8927907367011</v>
       </c>
       <c r="C1543" s="3" t="n">
-        <v>20.629069599711</v>
+        <v>20.6290695997113</v>
       </c>
       <c r="D1543" s="3" t="n">
         <v>21.0130909090911</v>
@@ -26789,7 +26789,7 @@
         <v>19.7099727693569</v>
       </c>
       <c r="D1569" s="3" t="n">
-        <v>20.0522772625897</v>
+        <v>20.0522772625898</v>
       </c>
     </row>
     <row r="1570">
@@ -27805,7 +27805,7 @@
         <v>44363</v>
       </c>
       <c r="B1642" s="3" t="n">
-        <v>20.2139231209465</v>
+        <v>20.2139231209463</v>
       </c>
       <c r="C1642" s="3" t="n">
         <v>21.8603058280446</v>
@@ -28001,7 +28001,7 @@
         <v>44377</v>
       </c>
       <c r="B1656" s="3" t="n">
-        <v>20.3287966386555</v>
+        <v>20.3287966386551</v>
       </c>
       <c r="C1656" s="3" t="n">
         <v>22.1544744782497</v>
@@ -29163,7 +29163,7 @@
         <v>44460</v>
       </c>
       <c r="B1739" s="3" t="n">
-        <v>20.1577308407356</v>
+        <v>20.1577308407355</v>
       </c>
       <c r="C1739" s="3" t="n">
         <v>22.306751740139</v>
@@ -29362,7 +29362,7 @@
         <v>20.0889005847959</v>
       </c>
       <c r="C1753" s="3" t="n">
-        <v>22.3230200027977</v>
+        <v>22.3230200027979</v>
       </c>
       <c r="D1753" s="3" t="n">
         <v>21.6895281124498</v>
@@ -29701,7 +29701,7 @@
         <v>22.3946683746087</v>
       </c>
       <c r="D1777" s="3" t="n">
-        <v>21.6618299839944</v>
+        <v>21.6618299839941</v>
       </c>
     </row>
     <row r="1778">
@@ -30773,7 +30773,7 @@
         <v>44575</v>
       </c>
       <c r="B1854" s="3" t="n">
-        <v>20.6473397347964</v>
+        <v>20.6473397347962</v>
       </c>
       <c r="C1854" s="3" t="n">
         <v>22.7313763066207</v>
@@ -31283,7 +31283,7 @@
         <v>22.9998168536944</v>
       </c>
       <c r="D1890" s="3" t="n">
-        <v>22.3621221126567</v>
+        <v>22.362122112657</v>
       </c>
     </row>
     <row r="1891">
@@ -31462,7 +31462,7 @@
         <v>21.1793137081041</v>
       </c>
       <c r="C1903" s="3" t="n">
-        <v>23.1391071428565</v>
+        <v>23.1391071428571</v>
       </c>
       <c r="D1903" s="3" t="n">
         <v>22.5674745058543</v>
@@ -31809,7 +31809,7 @@
         <v>44649</v>
       </c>
       <c r="B1928" s="3" t="n">
-        <v>21.3763747454179</v>
+        <v>21.376374745418</v>
       </c>
       <c r="C1928" s="3" t="n">
         <v>23.3456420043066</v>
@@ -32134,7 +32134,7 @@
         <v>21.481515771028</v>
       </c>
       <c r="C1951" s="3" t="n">
-        <v>23.4407514388095</v>
+        <v>23.4407514388092</v>
       </c>
       <c r="D1951" s="3" t="n">
         <v>23.2111031331595</v>
@@ -32271,7 +32271,7 @@
         <v>44682</v>
       </c>
       <c r="B1961" s="3" t="n">
-        <v>21.4971280171098</v>
+        <v>21.4971280171094</v>
       </c>
       <c r="C1961" s="3" t="n">
         <v>23.469519711594</v>
@@ -33433,7 +33433,7 @@
         <v>44765</v>
       </c>
       <c r="B2044" s="3" t="n">
-        <v>21.8278250687306</v>
+        <v>21.8278250687307</v>
       </c>
       <c r="C2044" s="3" t="n">
         <v>23.8808328282218</v>
@@ -33971,7 +33971,7 @@
         <v>24.001515778583</v>
       </c>
       <c r="D2082" s="3" t="n">
-        <v>23.5403917779339</v>
+        <v>23.5403917779342</v>
       </c>
     </row>
     <row r="2083">
@@ -34542,7 +34542,7 @@
         <v>21.8560565937</v>
       </c>
       <c r="C2123" s="3" t="n">
-        <v>24.0942937576504</v>
+        <v>24.0942937576502</v>
       </c>
       <c r="D2123" s="3" t="n">
         <v>23.630959658788</v>
@@ -35172,7 +35172,7 @@
         <v>21.4939066694198</v>
       </c>
       <c r="C2168" s="3" t="n">
-        <v>23.9409446891821</v>
+        <v>23.9409446891829</v>
       </c>
       <c r="D2168" s="3" t="n">
         <v>23.7178571428573</v>
@@ -35186,7 +35186,7 @@
         <v>21.4550051727708</v>
       </c>
       <c r="C2169" s="3" t="n">
-        <v>23.9056482387469</v>
+        <v>23.9056482387467</v>
       </c>
       <c r="D2169" s="3" t="n">
         <v>23.7169640810089</v>
@@ -35197,10 +35197,10 @@
         <v>44891</v>
       </c>
       <c r="B2170" s="3" t="n">
-        <v>21.471244449035</v>
+        <v>21.4712444490343</v>
       </c>
       <c r="C2170" s="3" t="n">
-        <v>23.9177286172036</v>
+        <v>23.9177286172046</v>
       </c>
       <c r="D2170" s="3" t="n">
         <v>23.7184172521468</v>
@@ -35211,7 +35211,7 @@
         <v>44892</v>
       </c>
       <c r="B2171" s="3" t="n">
-        <v>21.476233603998</v>
+        <v>21.4762336039976</v>
       </c>
       <c r="C2171" s="3" t="n">
         <v>23.9243956043953</v>
@@ -35228,7 +35228,7 @@
         <v>21.4768132214065</v>
       </c>
       <c r="C2172" s="3" t="n">
-        <v>23.9189846384402</v>
+        <v>23.9189846384409</v>
       </c>
       <c r="D2172" s="3" t="n">
         <v>23.7053618552579</v>
@@ -35242,7 +35242,7 @@
         <v>21.4819144730001</v>
       </c>
       <c r="C2173" s="3" t="n">
-        <v>23.9206533036366</v>
+        <v>23.9206533036372</v>
       </c>
       <c r="D2173" s="3" t="n">
         <v>23.7061493007682</v>
@@ -35267,7 +35267,7 @@
         <v>44896</v>
       </c>
       <c r="B2175" s="3" t="n">
-        <v>21.464490134995</v>
+        <v>21.4644901349951</v>
       </c>
       <c r="C2175" s="3" t="n">
         <v>23.9042221948509</v>
@@ -35312,7 +35312,7 @@
         <v>21.4933597084854</v>
       </c>
       <c r="C2178" s="3" t="n">
-        <v>23.9029596961897</v>
+        <v>23.9029596961898</v>
       </c>
       <c r="D2178" s="3" t="n">
         <v>23.6688048683162</v>
@@ -35323,7 +35323,7 @@
         <v>44900</v>
       </c>
       <c r="B2179" s="3" t="n">
-        <v>21.494589548347</v>
+        <v>21.4945895483469</v>
       </c>
       <c r="C2179" s="3" t="n">
         <v>23.9083874538739</v>
@@ -35351,7 +35351,7 @@
         <v>44902</v>
       </c>
       <c r="B2181" s="3" t="n">
-        <v>21.4847722792824</v>
+        <v>21.4847722792832</v>
       </c>
       <c r="C2181" s="3" t="n">
         <v>23.9189876033053</v>
@@ -35365,7 +35365,7 @@
         <v>44903</v>
       </c>
       <c r="B2182" s="3" t="n">
-        <v>21.4679632322395</v>
+        <v>21.467963232239</v>
       </c>
       <c r="C2182" s="3" t="n">
         <v>23.9072162557966</v>
@@ -35634,7 +35634,7 @@
         <v>21.6344103114933</v>
       </c>
       <c r="C2201" s="3" t="n">
-        <v>23.9467271313815</v>
+        <v>23.9467271313811</v>
       </c>
       <c r="D2201" s="3" t="n">
         <v>23.7019730278961</v>
@@ -35659,7 +35659,7 @@
         <v>44924</v>
       </c>
       <c r="B2203" s="3" t="n">
-        <v>21.6646165349288</v>
+        <v>21.6646165349286</v>
       </c>
       <c r="C2203" s="3" t="n">
         <v>23.9806887124073</v>
@@ -35687,7 +35687,7 @@
         <v>44926</v>
       </c>
       <c r="B2205" s="3" t="n">
-        <v>21.6952130272291</v>
+        <v>21.6952130272293</v>
       </c>
       <c r="C2205" s="3" t="n">
         <v>24.0131930051814</v>
@@ -35732,7 +35732,7 @@
         <v>21.7265296851893</v>
       </c>
       <c r="C2208" s="3" t="n">
-        <v>24.0072125567326</v>
+        <v>24.0072125567325</v>
       </c>
       <c r="D2208" s="3" t="n">
         <v>23.727036294</v>
@@ -35844,7 +35844,7 @@
         <v>21.7498879111672</v>
       </c>
       <c r="C2216" s="3" t="n">
-        <v>24.0288771797772</v>
+        <v>24.0288771797768</v>
       </c>
       <c r="D2216" s="3" t="n">
         <v>23.7346001829829</v>
@@ -35945,7 +35945,7 @@
         <v>24.043141257001</v>
       </c>
       <c r="D2223" s="3" t="n">
-        <v>23.7400843960994</v>
+        <v>23.740084396099</v>
       </c>
     </row>
     <row r="2224">
@@ -35967,7 +35967,7 @@
         <v>44946</v>
       </c>
       <c r="B2225" s="3" t="n">
-        <v>21.7736850974197</v>
+        <v>21.7736850974202</v>
       </c>
       <c r="C2225" s="3" t="n">
         <v>24.0658737078095</v>
@@ -36096,7 +36096,7 @@
         <v>21.8108934010153</v>
       </c>
       <c r="C2234" s="3" t="n">
-        <v>24.1269989395548</v>
+        <v>24.126998939555</v>
       </c>
       <c r="D2234" s="3" t="n">
         <v>23.7667073170735</v>
@@ -36236,7 +36236,7 @@
         <v>21.7049941561479</v>
       </c>
       <c r="C2244" s="3" t="n">
-        <v>24.0394798007752</v>
+        <v>24.0394798007751</v>
       </c>
       <c r="D2244" s="3" t="n">
         <v>23.5549835621738</v>
@@ -36446,7 +36446,7 @@
         <v>21.7910112359546</v>
       </c>
       <c r="C2259" s="3" t="n">
-        <v>24.0741852001616</v>
+        <v>24.0741852001619</v>
       </c>
       <c r="D2259" s="3" t="n">
         <v>23.6383067729087</v>
@@ -36712,7 +36712,7 @@
         <v>21.8798212395631</v>
       </c>
       <c r="C2278" s="3" t="n">
-        <v>24.1730404312665</v>
+        <v>24.1730404312663</v>
       </c>
       <c r="D2278" s="3" t="n">
         <v>23.7352616640058</v>
@@ -37059,7 +37059,7 @@
         <v>45024</v>
       </c>
       <c r="B2303" s="3" t="n">
-        <v>21.9444962990842</v>
+        <v>21.9444962990844</v>
       </c>
       <c r="C2303" s="3" t="n">
         <v>24.2198352485119</v>
@@ -37230,7 +37230,7 @@
         <v>22.0227995949144</v>
       </c>
       <c r="C2315" s="3" t="n">
-        <v>24.2717848347373</v>
+        <v>24.2717848347374</v>
       </c>
       <c r="D2315" s="3" t="n">
         <v>23.7182291457289</v>
@@ -37244,7 +37244,7 @@
         <v>22.0198817966908</v>
       </c>
       <c r="C2316" s="3" t="n">
-        <v>24.2741406250001</v>
+        <v>24.274140625</v>
       </c>
       <c r="D2316" s="3" t="n">
         <v>23.7184030571201</v>
@@ -37300,7 +37300,7 @@
         <v>21.958260672117</v>
       </c>
       <c r="C2320" s="3" t="n">
-        <v>24.262390581349</v>
+        <v>24.2623905813489</v>
       </c>
       <c r="D2320" s="3" t="n">
         <v>23.6893641851109</v>
@@ -37387,7 +37387,7 @@
         <v>24.3024730556369</v>
       </c>
       <c r="D2326" s="3" t="n">
-        <v>23.6659535374869</v>
+        <v>23.665953537487</v>
       </c>
     </row>
     <row r="2327">
@@ -37451,7 +37451,7 @@
         <v>45052</v>
       </c>
       <c r="B2331" s="3" t="n">
-        <v>21.908315270936</v>
+        <v>21.9083152709364</v>
       </c>
       <c r="C2331" s="3" t="n">
         <v>24.2473233846644</v>
@@ -37647,7 +37647,7 @@
         <v>45066</v>
       </c>
       <c r="B2345" s="3" t="n">
-        <v>21.9264540169921</v>
+        <v>21.9264540169924</v>
       </c>
       <c r="C2345" s="3" t="n">
         <v>24.2104930394433</v>
@@ -37821,7 +37821,7 @@
         <v>24.2406207777982</v>
       </c>
       <c r="D2357" s="3" t="n">
-        <v>23.7785927078701</v>
+        <v>23.77859270787</v>
       </c>
     </row>
     <row r="2358">
@@ -38325,7 +38325,7 @@
         <v>24.2369466106778</v>
       </c>
       <c r="D2393" s="3" t="n">
-        <v>23.7427954830613</v>
+        <v>23.7427954830615</v>
       </c>
     </row>
     <row r="2394">
@@ -38487,13 +38487,13 @@
         <v>45126</v>
       </c>
       <c r="B2405" s="3" t="n">
-        <v>22.1283676366218</v>
+        <v>22.1283676366217</v>
       </c>
       <c r="C2405" s="3" t="n">
         <v>24.3533763401782</v>
       </c>
       <c r="D2405" s="3" t="n">
-        <v>23.8313971920289</v>
+        <v>23.8313971920288</v>
       </c>
     </row>
     <row r="2406">
@@ -38529,7 +38529,7 @@
         <v>45129</v>
       </c>
       <c r="B2408" s="3" t="n">
-        <v>22.1720155146144</v>
+        <v>22.1720155146143</v>
       </c>
       <c r="C2408" s="3" t="n">
         <v>24.3862172011661</v>
@@ -38571,10 +38571,10 @@
         <v>45132</v>
       </c>
       <c r="B2411" s="3" t="n">
-        <v>22.1831189189188</v>
+        <v>22.1831189189187</v>
       </c>
       <c r="C2411" s="3" t="n">
-        <v>24.3997103766878</v>
+        <v>24.399710376688</v>
       </c>
       <c r="D2411" s="3" t="n">
         <v>23.8735825615539</v>
@@ -38599,13 +38599,13 @@
         <v>45134</v>
       </c>
       <c r="B2413" s="3" t="n">
-        <v>22.186890380313</v>
+        <v>22.1868903803129</v>
       </c>
       <c r="C2413" s="3" t="n">
-        <v>24.4028978052126</v>
+        <v>24.4028978052124</v>
       </c>
       <c r="D2413" s="3" t="n">
-        <v>23.90801980198</v>
+        <v>23.9080198019801</v>
       </c>
     </row>
     <row r="2414">
@@ -38627,7 +38627,7 @@
         <v>45136</v>
       </c>
       <c r="B2415" s="3" t="n">
-        <v>22.2030626927026</v>
+        <v>22.2030626927024</v>
       </c>
       <c r="C2415" s="3" t="n">
         <v>24.4152533811309</v>
@@ -38795,10 +38795,10 @@
         <v>45148</v>
       </c>
       <c r="B2427" s="3" t="n">
-        <v>22.2663553249315</v>
+        <v>22.2663553249318</v>
       </c>
       <c r="C2427" s="3" t="n">
-        <v>24.4796770721203</v>
+        <v>24.4796770721204</v>
       </c>
       <c r="D2427" s="3" t="n">
         <v>24.0266138328529</v>
@@ -38879,7 +38879,7 @@
         <v>45154</v>
       </c>
       <c r="B2433" s="3" t="n">
-        <v>22.3349255538071</v>
+        <v>22.3349255538066</v>
       </c>
       <c r="C2433" s="3" t="n">
         <v>24.4939463601532</v>
@@ -38910,7 +38910,7 @@
         <v>22.3608628770578</v>
       </c>
       <c r="C2435" s="3" t="n">
-        <v>24.5131520000003</v>
+        <v>24.513152</v>
       </c>
       <c r="D2435" s="3" t="n">
         <v>24.0911160485386</v>
@@ -38924,7 +38924,7 @@
         <v>22.3697672174645</v>
       </c>
       <c r="C2436" s="3" t="n">
-        <v>24.5143586387436</v>
+        <v>24.5143586387435</v>
       </c>
       <c r="D2436" s="3" t="n">
         <v>24.0938592605213</v>
@@ -38941,7 +38941,7 @@
         <v>24.5125113486601</v>
       </c>
       <c r="D2437" s="3" t="n">
-        <v>24.0949554641998</v>
+        <v>24.0949554641999</v>
       </c>
     </row>
     <row r="2438">
@@ -38966,10 +38966,10 @@
         <v>22.3850957575757</v>
       </c>
       <c r="C2439" s="3" t="n">
-        <v>24.5172920892498</v>
+        <v>24.5172920892495</v>
       </c>
       <c r="D2439" s="3" t="n">
-        <v>24.1059609838847</v>
+        <v>24.1059609838846</v>
       </c>
     </row>
     <row r="2440">
@@ -38980,7 +38980,7 @@
         <v>22.3678436104741</v>
       </c>
       <c r="C2440" s="3" t="n">
-        <v>24.5188445984982</v>
+        <v>24.518844598498</v>
       </c>
       <c r="D2440" s="3" t="n">
         <v>24.1097546116094</v>
@@ -39005,13 +39005,13 @@
         <v>45163</v>
       </c>
       <c r="B2442" s="3" t="n">
-        <v>22.3299889298891</v>
+        <v>22.3299889298893</v>
       </c>
       <c r="C2442" s="3" t="n">
         <v>24.5168266507677</v>
       </c>
       <c r="D2442" s="3" t="n">
-        <v>24.1097673605036</v>
+        <v>24.1097673605037</v>
       </c>
     </row>
     <row r="2443">
@@ -39019,13 +39019,13 @@
         <v>45164</v>
       </c>
       <c r="B2443" s="3" t="n">
-        <v>22.334633204633</v>
+        <v>22.3346332046333</v>
       </c>
       <c r="C2443" s="3" t="n">
         <v>24.5130482821251</v>
       </c>
       <c r="D2443" s="3" t="n">
-        <v>24.1136655435361</v>
+        <v>24.113665543536</v>
       </c>
     </row>
     <row r="2444">
@@ -39053,7 +39053,7 @@
         <v>24.5156944881892</v>
       </c>
       <c r="D2445" s="3" t="n">
-        <v>24.1097187789084</v>
+        <v>24.1097187789083</v>
       </c>
     </row>
     <row r="2446">
@@ -39274,7 +39274,7 @@
         <v>22.396328457447</v>
       </c>
       <c r="C2461" s="3" t="n">
-        <v>24.6019809929545</v>
+        <v>24.6019809929542</v>
       </c>
       <c r="D2461" s="3" t="n">
         <v>24.1666735382308</v>
@@ -39361,7 +39361,7 @@
         <v>24.6211926759616</v>
       </c>
       <c r="D2467" s="3" t="n">
-        <v>24.1917985333847</v>
+        <v>24.1917985333846</v>
       </c>
     </row>
     <row r="2468">
@@ -39571,7 +39571,7 @@
         <v>24.6399692780338</v>
       </c>
       <c r="D2482" s="3" t="n">
-        <v>24.2125269892042</v>
+        <v>24.2125269892043</v>
       </c>
     </row>
     <row r="2483">
@@ -40016,7 +40016,7 @@
         <v>22.2924071166927</v>
       </c>
       <c r="C2514" s="3" t="n">
-        <v>24.5227295534369</v>
+        <v>24.5227295534371</v>
       </c>
       <c r="D2514" s="3" t="n">
         <v>24.1791790744467</v>
@@ -40212,7 +40212,7 @@
         <v>22.206071904128</v>
       </c>
       <c r="C2528" s="3" t="n">
-        <v>24.3034668439425</v>
+        <v>24.3034668439423</v>
       </c>
       <c r="D2528" s="3" t="n">
         <v>24.0594274159217</v>
@@ -40352,7 +40352,7 @@
         <v>22.1767749891191</v>
       </c>
       <c r="C2538" s="3" t="n">
-        <v>24.2457945370208</v>
+        <v>24.2457945370212</v>
       </c>
       <c r="D2538" s="3" t="n">
         <v>24.0880102159275</v>
@@ -40842,7 +40842,7 @@
         <v>22.1149926832513</v>
       </c>
       <c r="C2573" s="3" t="n">
-        <v>24.0701276923074</v>
+        <v>24.0701276923076</v>
       </c>
       <c r="D2573" s="3" t="n">
         <v>24.1935555096986</v>
@@ -41119,7 +41119,7 @@
         <v>45314</v>
       </c>
       <c r="B2593" s="3" t="n">
-        <v>22.3742627960279</v>
+        <v>22.3742627960269</v>
       </c>
       <c r="C2593" s="3" t="n">
         <v>24.2069693608765</v>
@@ -41335,7 +41335,7 @@
         <v>24.4935913978495</v>
       </c>
       <c r="D2608" s="3" t="n">
-        <v>24.7066121384544</v>
+        <v>24.706612138454</v>
       </c>
     </row>
     <row r="2609">
@@ -41497,7 +41497,7 @@
         <v>45341</v>
       </c>
       <c r="B2620" s="3" t="n">
-        <v>23.1125154813291</v>
+        <v>23.1125154813287</v>
       </c>
       <c r="C2620" s="3" t="n">
         <v>24.6848868035194</v>
@@ -41559,7 +41559,7 @@
         <v>24.6974336672904</v>
       </c>
       <c r="D2624" s="3" t="n">
-        <v>24.9152644295304</v>
+        <v>24.9152644295302</v>
       </c>
     </row>
     <row r="2625">
@@ -41584,7 +41584,7 @@
         <v>23.096754307251</v>
       </c>
       <c r="C2626" s="3" t="n">
-        <v>24.7121864073426</v>
+        <v>24.7121864073425</v>
       </c>
       <c r="D2626" s="3" t="n">
         <v>24.9260208305516</v>
@@ -41595,13 +41595,13 @@
         <v>45348</v>
       </c>
       <c r="B2627" s="3" t="n">
-        <v>23.1027637696714</v>
+        <v>23.1027637696711</v>
       </c>
       <c r="C2627" s="3" t="n">
         <v>24.7193698392003</v>
       </c>
       <c r="D2627" s="3" t="n">
-        <v>24.9225179473546</v>
+        <v>24.9225179473543</v>
       </c>
     </row>
     <row r="2628">
@@ -41609,7 +41609,7 @@
         <v>45349</v>
       </c>
       <c r="B2628" s="3" t="n">
-        <v>23.1022538721742</v>
+        <v>23.1022538721741</v>
       </c>
       <c r="C2628" s="3" t="n">
         <v>24.7267253103075</v>
@@ -41626,7 +41626,7 @@
         <v>23.1117484065161</v>
       </c>
       <c r="C2629" s="3" t="n">
-        <v>24.7437228696672</v>
+        <v>24.7437228696674</v>
       </c>
       <c r="D2629" s="3" t="n">
         <v>24.9213105712412</v>
@@ -41637,7 +41637,7 @@
         <v>45351</v>
       </c>
       <c r="B2630" s="3" t="n">
-        <v>23.1141939468812</v>
+        <v>23.1141939468808</v>
       </c>
       <c r="C2630" s="3" t="n">
         <v>24.755985386</v>
@@ -41649,7 +41649,7 @@
     <row r="2631">
       <c r="A2631" s="16"/>
       <c r="B2631" s="3" t="n">
-        <v>23.1132447650894</v>
+        <v>23.1132447650891</v>
       </c>
       <c r="C2631" s="3" t="n">
         <v>24.7630509366447</v>
@@ -41661,7 +41661,7 @@
     <row r="2632">
       <c r="A2632" s="16"/>
       <c r="B2632" s="3" t="n">
-        <v>23.1141850927251</v>
+        <v>23.1141850927248</v>
       </c>
       <c r="C2632" s="3" t="n">
         <v>24.7693619957537</v>
@@ -41673,7 +41673,7 @@
     <row r="2633">
       <c r="A2633" s="16"/>
       <c r="B2633" s="3" t="n">
-        <v>23.1113831893452</v>
+        <v>23.1113831893451</v>
       </c>
       <c r="C2633" s="3" t="n">
         <v>24.7652072789922</v>
@@ -41712,7 +41712,7 @@
         <v>23.1159432267339</v>
       </c>
       <c r="C2636" s="3" t="n">
-        <v>24.7960408076965</v>
+        <v>24.7960408076964</v>
       </c>
       <c r="D2636" s="3" t="n">
         <v>24.9139333604226</v>
@@ -41721,13 +41721,13 @@
     <row r="2637">
       <c r="A2637" s="16"/>
       <c r="B2637" s="3" t="n">
-        <v>23.1097739504846</v>
+        <v>23.1097739504847</v>
       </c>
       <c r="C2637" s="3" t="n">
         <v>24.8058350015806</v>
       </c>
       <c r="D2637" s="3" t="n">
-        <v>24.9121835185687</v>
+        <v>24.9121835185688</v>
       </c>
     </row>
     <row r="2638">
@@ -41820,7 +41820,7 @@
         <v>23.071387727317</v>
       </c>
       <c r="C2645" s="3" t="n">
-        <v>24.8768284931505</v>
+        <v>24.8768284931511</v>
       </c>
       <c r="D2645" s="3" t="n">
         <v>24.9041204674858</v>
@@ -41841,7 +41841,7 @@
     <row r="2647">
       <c r="A2647" s="16"/>
       <c r="B2647" s="3" t="n">
-        <v>23.1292215807288</v>
+        <v>23.1292215807285</v>
       </c>
       <c r="C2647" s="3" t="n">
         <v>24.9601786308669</v>
@@ -41859,7 +41859,7 @@
         <v>24.9751345616977</v>
       </c>
       <c r="D2648" s="3" t="n">
-        <v>24.9306835844566</v>
+        <v>24.930683584457</v>
       </c>
     </row>
     <row r="2649">
@@ -41871,7 +41871,7 @@
         <v>24.9990944881893</v>
       </c>
       <c r="D2649" s="3" t="n">
-        <v>24.949926585442</v>
+        <v>24.9499265854422</v>
       </c>
     </row>
     <row r="2650">
@@ -41883,7 +41883,7 @@
         <v>25.0386474310848</v>
       </c>
       <c r="D2650" s="3" t="n">
-        <v>24.9794318357267</v>
+        <v>24.9794318357265</v>
       </c>
     </row>
     <row r="2651">
@@ -41913,7 +41913,7 @@
     <row r="2653">
       <c r="A2653" s="16"/>
       <c r="B2653" s="3" t="n">
-        <v>23.3533107786146</v>
+        <v>23.3533107786149</v>
       </c>
       <c r="C2653" s="3" t="n">
         <v>25.1414144431852</v>
@@ -41937,7 +41937,7 @@
     <row r="2655">
       <c r="A2655" s="16"/>
       <c r="B2655" s="3" t="n">
-        <v>23.3593915216769</v>
+        <v>23.359391521677</v>
       </c>
       <c r="C2655" s="3" t="n">
         <v>25.1554522043672</v>
@@ -41949,7 +41949,7 @@
     <row r="2656">
       <c r="A2656" s="16"/>
       <c r="B2656" s="3" t="n">
-        <v>23.3595702087292</v>
+        <v>23.3595702087288</v>
       </c>
       <c r="C2656" s="3" t="n">
         <v>25.1689275568177</v>
@@ -41967,7 +41967,7 @@
         <v>25.1695923913039</v>
       </c>
       <c r="D2657" s="3" t="n">
-        <v>25.0333889468196</v>
+        <v>25.0333889468198</v>
       </c>
     </row>
     <row r="2658">
@@ -42024,7 +42024,7 @@
         <v>23.3193745188613</v>
       </c>
       <c r="C2662" s="3" t="n">
-        <v>25.1560198501116</v>
+        <v>25.156019850111</v>
       </c>
       <c r="D2662" s="3" t="n">
         <v>25.0221513944225</v>
@@ -42036,7 +42036,7 @@
         <v>23.2989195666769</v>
       </c>
       <c r="C2663" s="3" t="n">
-        <v>25.1473121533036</v>
+        <v>25.1473121533026</v>
       </c>
       <c r="D2663" s="3" t="n">
         <v>25.0110352187835</v>
@@ -42093,7 +42093,7 @@
     <row r="2668">
       <c r="A2668" s="16"/>
       <c r="B2668" s="3" t="n">
-        <v>23.3560572501172</v>
+        <v>23.3560572501178</v>
       </c>
       <c r="C2668" s="3" t="n">
         <v>25.1953573567574</v>
@@ -42108,7 +42108,7 @@
         <v>23.3795133320907</v>
       </c>
       <c r="C2669" s="3" t="n">
-        <v>25.2067611496526</v>
+        <v>25.2067611496529</v>
       </c>
       <c r="D2669" s="3" t="n">
         <v>25.117562676161</v>
@@ -42156,7 +42156,7 @@
         <v>23.4319285843758</v>
       </c>
       <c r="C2673" s="3" t="n">
-        <v>25.227318511358</v>
+        <v>25.2273185113578</v>
       </c>
       <c r="D2673" s="3" t="n">
         <v>25.1810373208458</v>
@@ -42183,7 +42183,7 @@
         <v>25.2375940807521</v>
       </c>
       <c r="D2675" s="3" t="n">
-        <v>25.1876796685242</v>
+        <v>25.1876796685241</v>
       </c>
     </row>
     <row r="2676">
@@ -42195,7 +42195,7 @@
         <v>25.2315065702346</v>
       </c>
       <c r="D2676" s="3" t="n">
-        <v>25.1766534682506</v>
+        <v>25.1766534682505</v>
       </c>
     </row>
     <row r="2677">
@@ -42204,7 +42204,7 @@
         <v>23.458384448429</v>
       </c>
       <c r="C2677" s="3" t="n">
-        <v>25.2366663264258</v>
+        <v>25.2366663264264</v>
       </c>
       <c r="D2677" s="3" t="n">
         <v>25.1764768056372</v>
@@ -42261,7 +42261,7 @@
     <row r="2682">
       <c r="A2682" s="16"/>
       <c r="B2682" s="3" t="n">
-        <v>23.4953330709437</v>
+        <v>23.4953330709435</v>
       </c>
       <c r="C2682" s="3" t="n">
         <v>25.3044782798525</v>
@@ -42348,7 +42348,7 @@
         <v>23.500262146447</v>
       </c>
       <c r="C2689" s="3" t="n">
-        <v>25.3480489997755</v>
+        <v>25.3480489997753</v>
       </c>
       <c r="D2689" s="3" t="n">
         <v>25.1812014902203</v>
@@ -42375,7 +42375,7 @@
         <v>25.3643754123598</v>
       </c>
       <c r="D2691" s="3" t="n">
-        <v>25.1922338173015</v>
+        <v>25.1922338173019</v>
       </c>
     </row>
     <row r="2692">
@@ -42396,7 +42396,7 @@
         <v>23.5555344463629</v>
       </c>
       <c r="C2693" s="3" t="n">
-        <v>25.3702951216831</v>
+        <v>25.3702951216827</v>
       </c>
       <c r="D2693" s="3" t="n">
         <v>25.1982990936552</v>
@@ -42429,7 +42429,7 @@
     <row r="2696">
       <c r="A2696" s="16"/>
       <c r="B2696" s="3" t="n">
-        <v>23.5568641480627</v>
+        <v>23.5568641480632</v>
       </c>
       <c r="C2696" s="3" t="n">
         <v>25.3593630573249</v>
@@ -42456,7 +42456,7 @@
         <v>23.5309892033845</v>
       </c>
       <c r="C2698" s="3" t="n">
-        <v>25.3594774027138</v>
+        <v>25.3594774027144</v>
       </c>
       <c r="D2698" s="3" t="n">
         <v>25.1645932570365</v>
@@ -42480,7 +42480,7 @@
         <v>23.4805439620212</v>
       </c>
       <c r="C2700" s="3" t="n">
-        <v>25.3426408450704</v>
+        <v>25.3426408450711</v>
       </c>
       <c r="D2700" s="3" t="n">
         <v>25.1333517874089</v>
@@ -42489,7 +42489,7 @@
     <row r="2701">
       <c r="A2701" s="16"/>
       <c r="B2701" s="3" t="n">
-        <v>23.4600989010987</v>
+        <v>23.4600989010983</v>
       </c>
       <c r="C2701" s="3" t="n">
         <v>25.327913693901</v>
@@ -42501,7 +42501,7 @@
     <row r="2702">
       <c r="A2702" s="16"/>
       <c r="B2702" s="3" t="n">
-        <v>23.4492069417812</v>
+        <v>23.4492069417819</v>
       </c>
       <c r="C2702" s="3" t="n">
         <v>25.3134425848442</v>
@@ -42525,7 +42525,7 @@
     <row r="2704">
       <c r="A2704" s="16"/>
       <c r="B2704" s="3" t="n">
-        <v>23.4522814784302</v>
+        <v>23.4522814784304</v>
       </c>
       <c r="C2704" s="3" t="n">
         <v>25.3104898929845</v>
@@ -42549,7 +42549,7 @@
     <row r="2706">
       <c r="A2706" s="16"/>
       <c r="B2706" s="3" t="n">
-        <v>23.4521054250839</v>
+        <v>23.4521054250841</v>
       </c>
       <c r="C2706" s="3" t="n">
         <v>25.2954713405975</v>
@@ -42609,7 +42609,7 @@
     <row r="2711">
       <c r="A2711" s="16"/>
       <c r="B2711" s="3" t="n">
-        <v>23.4617167381964</v>
+        <v>23.4617167381977</v>
       </c>
       <c r="C2711" s="3" t="n">
         <v>25.2258398932621</v>
@@ -42660,7 +42660,7 @@
         <v>23.4976923076915</v>
       </c>
       <c r="C2715" s="3" t="n">
-        <v>25.2062548314009</v>
+        <v>25.206254831401</v>
       </c>
       <c r="D2715" s="3" t="n">
         <v>25.013973607038</v>
@@ -42708,7 +42708,7 @@
         <v>23.4496854226016</v>
       </c>
       <c r="C2719" s="3" t="n">
-        <v>25.149620596207</v>
+        <v>25.1496205962063</v>
       </c>
       <c r="D2719" s="3" t="n">
         <v>24.9733216374268</v>
@@ -42768,7 +42768,7 @@
         <v>23.3965916357593</v>
       </c>
       <c r="C2724" s="3" t="n">
-        <v>25.1027387277976</v>
+        <v>25.1027387277983</v>
       </c>
       <c r="D2724" s="3" t="n">
         <v>24.9335225130888</v>
@@ -42819,7 +42819,7 @@
         <v>25.0898390525368</v>
       </c>
       <c r="D2728" s="3" t="n">
-        <v>24.9188612923592</v>
+        <v>24.9188612923594</v>
       </c>
     </row>
     <row r="2729">
@@ -42852,7 +42852,7 @@
         <v>23.3742446233015</v>
       </c>
       <c r="C2731" s="3" t="n">
-        <v>25.0667134052398</v>
+        <v>25.0667134052396</v>
       </c>
       <c r="D2731" s="3" t="n">
         <v>24.8915943274599</v>
@@ -42897,7 +42897,7 @@
     <row r="2735">
       <c r="A2735" s="16"/>
       <c r="B2735" s="3" t="n">
-        <v>23.4474254199048</v>
+        <v>23.4474254199052</v>
       </c>
       <c r="C2735" s="3" t="n">
         <v>25.1245075813348</v>
@@ -42912,7 +42912,7 @@
         <v>23.4791420619558</v>
       </c>
       <c r="C2736" s="3" t="n">
-        <v>25.1285988455997</v>
+        <v>25.1285988455991</v>
       </c>
       <c r="D2736" s="3" t="n">
         <v>25.072601422803</v>
@@ -42939,7 +42939,7 @@
         <v>25.1584885177459</v>
       </c>
       <c r="D2738" s="3" t="n">
-        <v>25.1926269237571</v>
+        <v>25.1926269237575</v>
       </c>
     </row>
     <row r="2739">
@@ -42993,7 +42993,7 @@
     <row r="2743">
       <c r="A2743" s="16"/>
       <c r="B2743" s="3" t="n">
-        <v>23.6569035691921</v>
+        <v>23.6569035691923</v>
       </c>
       <c r="C2743" s="3" t="n">
         <v>25.2145256327061</v>
@@ -43008,7 +43008,7 @@
         <v>23.6800964498255</v>
       </c>
       <c r="C2744" s="3" t="n">
-        <v>25.2373519652884</v>
+        <v>25.2373519652886</v>
       </c>
       <c r="D2744" s="3" t="n">
         <v>25.3669069247953</v>
@@ -43017,10 +43017,10 @@
     <row r="2745">
       <c r="A2745" s="16"/>
       <c r="B2745" s="3" t="n">
-        <v>23.6881794950424</v>
+        <v>23.6881794950422</v>
       </c>
       <c r="C2745" s="3" t="n">
-        <v>25.2463437301083</v>
+        <v>25.2463437301082</v>
       </c>
       <c r="D2745" s="3" t="n">
         <v>25.3859240655932</v>
@@ -43047,7 +43047,7 @@
         <v>25.2635717877797</v>
       </c>
       <c r="D2747" s="3" t="n">
-        <v>25.4144676559572</v>
+        <v>25.4144676559575</v>
       </c>
     </row>
     <row r="2748">
@@ -43071,7 +43071,7 @@
         <v>25.2933708828207</v>
       </c>
       <c r="D2749" s="3" t="n">
-        <v>25.4463355592651</v>
+        <v>25.4463355592654</v>
       </c>
     </row>
     <row r="2750">
@@ -43101,7 +43101,7 @@
     <row r="2752">
       <c r="A2752" s="16"/>
       <c r="B2752" s="3" t="n">
-        <v>23.7866128724218</v>
+        <v>23.7866128724215</v>
       </c>
       <c r="C2752" s="3" t="n">
         <v>25.3359502558605</v>
@@ -43113,7 +43113,7 @@
     <row r="2753">
       <c r="A2753" s="16"/>
       <c r="B2753" s="3" t="n">
-        <v>23.787851951033</v>
+        <v>23.7878519510328</v>
       </c>
       <c r="C2753" s="3" t="n">
         <v>25.3368510790504</v>
@@ -43188,7 +43188,7 @@
         <v>23.8692306993641</v>
       </c>
       <c r="C2759" s="3" t="n">
-        <v>25.4823861147613</v>
+        <v>25.4823861147614</v>
       </c>
       <c r="D2759" s="3" t="n">
         <v>25.5795687675423</v>
@@ -43287,7 +43287,7 @@
         <v>25.5216600151002</v>
       </c>
       <c r="D2767" s="3" t="n">
-        <v>25.5984446453945</v>
+        <v>25.5984446453946</v>
       </c>
     </row>
     <row r="2768">
@@ -43483,190 +43483,376 @@
       </c>
     </row>
     <row r="2784">
-      <c r="A2784" s="6"/>
-      <c r="B2784" s="3"/>
-      <c r="C2784" s="3"/>
-      <c r="D2784" s="3"/>
+      <c r="A2784" s="16"/>
+      <c r="B2784" s="3" t="n">
+        <v>23.9915586620074</v>
+      </c>
+      <c r="C2784" s="3" t="n">
+        <v>25.5107005838198</v>
+      </c>
+      <c r="D2784" s="3" t="n">
+        <v>25.6157444529459</v>
+      </c>
     </row>
     <row r="2785">
-      <c r="A2785" s="6"/>
-      <c r="B2785" s="3"/>
-      <c r="C2785" s="3"/>
-      <c r="D2785" s="3"/>
+      <c r="A2785" s="16"/>
+      <c r="B2785" s="3" t="n">
+        <v>23.9996403385052</v>
+      </c>
+      <c r="C2785" s="3" t="n">
+        <v>25.5183107033641</v>
+      </c>
+      <c r="D2785" s="3" t="n">
+        <v>25.6190438184662</v>
+      </c>
     </row>
     <row r="2786">
-      <c r="A2786" s="6"/>
-      <c r="B2786" s="3"/>
-      <c r="C2786" s="3"/>
-      <c r="D2786" s="3"/>
+      <c r="A2786" s="16"/>
+      <c r="B2786" s="3" t="n">
+        <v>24.0050355546527</v>
+      </c>
+      <c r="C2786" s="3" t="n">
+        <v>25.5374570101665</v>
+      </c>
+      <c r="D2786" s="3" t="n">
+        <v>25.5988829355414</v>
+      </c>
     </row>
     <row r="2787">
-      <c r="A2787" s="6"/>
-      <c r="B2787" s="3"/>
-      <c r="C2787" s="3"/>
-      <c r="D2787" s="3"/>
+      <c r="A2787" s="16"/>
+      <c r="B2787" s="3" t="n">
+        <v>24.0065677313342</v>
+      </c>
+      <c r="C2787" s="3" t="n">
+        <v>25.5474830280515</v>
+      </c>
+      <c r="D2787" s="3" t="n">
+        <v>25.5934997495409</v>
+      </c>
     </row>
     <row r="2788">
-      <c r="A2788" s="6"/>
-      <c r="B2788" s="3"/>
-      <c r="C2788" s="3"/>
-      <c r="D2788" s="3"/>
+      <c r="A2788" s="16"/>
+      <c r="B2788" s="3" t="n">
+        <v>24.0084978585607</v>
+      </c>
+      <c r="C2788" s="3" t="n">
+        <v>25.5508092790298</v>
+      </c>
+      <c r="D2788" s="3" t="n">
+        <v>25.5823777663408</v>
+      </c>
     </row>
     <row r="2789">
-      <c r="A2789" s="6"/>
-      <c r="B2789" s="3"/>
-      <c r="C2789" s="3"/>
-      <c r="D2789" s="3"/>
+      <c r="A2789" s="16"/>
+      <c r="B2789" s="3" t="n">
+        <v>24.0182865139422</v>
+      </c>
+      <c r="C2789" s="3" t="n">
+        <v>25.5479397574647</v>
+      </c>
+      <c r="D2789" s="3" t="n">
+        <v>25.5829378627519</v>
+      </c>
     </row>
     <row r="2790">
-      <c r="A2790" s="6"/>
-      <c r="B2790" s="3"/>
-      <c r="C2790" s="3"/>
-      <c r="D2790" s="3"/>
+      <c r="A2790" s="16"/>
+      <c r="B2790" s="3" t="n">
+        <v>24.022933607823</v>
+      </c>
+      <c r="C2790" s="3" t="n">
+        <v>25.5607379498501</v>
+      </c>
+      <c r="D2790" s="3" t="n">
+        <v>25.5777528282483</v>
+      </c>
     </row>
     <row r="2791">
-      <c r="A2791" s="6"/>
-      <c r="B2791" s="3"/>
-      <c r="C2791" s="3"/>
-      <c r="D2791" s="3"/>
+      <c r="A2791" s="16"/>
+      <c r="B2791" s="3" t="n">
+        <v>24.032023563456</v>
+      </c>
+      <c r="C2791" s="3" t="n">
+        <v>25.5801074986885</v>
+      </c>
+      <c r="D2791" s="3" t="n">
+        <v>25.5795176960445</v>
+      </c>
     </row>
     <row r="2792">
-      <c r="A2792" s="6"/>
-      <c r="B2792" s="3"/>
-      <c r="C2792" s="3"/>
-      <c r="D2792" s="3"/>
+      <c r="A2792" s="16"/>
+      <c r="B2792" s="3" t="n">
+        <v>24.0319577051927</v>
+      </c>
+      <c r="C2792" s="3" t="n">
+        <v>25.5756954084352</v>
+      </c>
+      <c r="D2792" s="3" t="n">
+        <v>25.5664914798205</v>
+      </c>
     </row>
     <row r="2793">
-      <c r="A2793" s="6"/>
-      <c r="B2793" s="3"/>
-      <c r="C2793" s="3"/>
-      <c r="D2793" s="3"/>
+      <c r="A2793" s="16"/>
+      <c r="B2793" s="3" t="n">
+        <v>24.0444512959868</v>
+      </c>
+      <c r="C2793" s="3" t="n">
+        <v>25.6012508307851</v>
+      </c>
+      <c r="D2793" s="3" t="n">
+        <v>25.5749421128797</v>
+      </c>
     </row>
     <row r="2794">
-      <c r="A2794" s="6"/>
-      <c r="B2794" s="3"/>
-      <c r="C2794" s="3"/>
-      <c r="D2794" s="3"/>
+      <c r="A2794" s="16"/>
+      <c r="B2794" s="3" t="n">
+        <v>24.0491693624128</v>
+      </c>
+      <c r="C2794" s="3" t="n">
+        <v>25.6093699643372</v>
+      </c>
+      <c r="D2794" s="3" t="n">
+        <v>25.5771646396803</v>
+      </c>
     </row>
     <row r="2795">
-      <c r="A2795" s="6"/>
-      <c r="B2795" s="3"/>
-      <c r="C2795" s="3"/>
-      <c r="D2795" s="3"/>
+      <c r="A2795" s="16"/>
+      <c r="B2795" s="3" t="n">
+        <v>24.0554854010754</v>
+      </c>
+      <c r="C2795" s="3" t="n">
+        <v>25.6143822316793</v>
+      </c>
+      <c r="D2795" s="3" t="n">
+        <v>25.5781873056518</v>
+      </c>
     </row>
     <row r="2796">
-      <c r="A2796" s="6"/>
-      <c r="B2796" s="3"/>
-      <c r="C2796" s="3"/>
-      <c r="D2796" s="3"/>
+      <c r="A2796" s="16"/>
+      <c r="B2796" s="3" t="n">
+        <v>24.0614761954371</v>
+      </c>
+      <c r="C2796" s="3" t="n">
+        <v>25.6171804511275</v>
+      </c>
+      <c r="D2796" s="3" t="n">
+        <v>25.581989557076</v>
+      </c>
     </row>
     <row r="2797">
-      <c r="A2797" s="6"/>
-      <c r="B2797" s="3"/>
-      <c r="C2797" s="3"/>
-      <c r="D2797" s="3"/>
+      <c r="A2797" s="16"/>
+      <c r="B2797" s="3" t="n">
+        <v>24.0725971223023</v>
+      </c>
+      <c r="C2797" s="3" t="n">
+        <v>25.636044529262</v>
+      </c>
+      <c r="D2797" s="3" t="n">
+        <v>25.5876592698639</v>
+      </c>
     </row>
     <row r="2798">
-      <c r="A2798" s="6"/>
-      <c r="B2798" s="3"/>
-      <c r="C2798" s="3"/>
-      <c r="D2798" s="3"/>
+      <c r="A2798" s="16"/>
+      <c r="B2798" s="3" t="n">
+        <v>24.083007028624</v>
+      </c>
+      <c r="C2798" s="3" t="n">
+        <v>25.6459166874532</v>
+      </c>
+      <c r="D2798" s="3" t="n">
+        <v>25.5936491971061</v>
+      </c>
     </row>
     <row r="2799">
-      <c r="A2799" s="6"/>
-      <c r="B2799" s="3"/>
-      <c r="C2799" s="3"/>
-      <c r="D2799" s="3"/>
+      <c r="A2799" s="16"/>
+      <c r="B2799" s="3" t="n">
+        <v>24.1050826488189</v>
+      </c>
+      <c r="C2799" s="3" t="n">
+        <v>25.6524488033557</v>
+      </c>
+      <c r="D2799" s="3" t="n">
+        <v>25.6009130510542</v>
+      </c>
     </row>
     <row r="2800">
-      <c r="A2800" s="6"/>
-      <c r="B2800" s="3"/>
-      <c r="C2800" s="3"/>
-      <c r="D2800" s="3"/>
+      <c r="A2800" s="16"/>
+      <c r="B2800" s="3" t="n">
+        <v>24.114596260738</v>
+      </c>
+      <c r="C2800" s="3" t="n">
+        <v>25.6406429531844</v>
+      </c>
+      <c r="D2800" s="3" t="n">
+        <v>25.5989049191727</v>
+      </c>
     </row>
     <row r="2801">
-      <c r="A2801" s="6"/>
-      <c r="B2801" s="3"/>
-      <c r="C2801" s="3"/>
-      <c r="D2801" s="3"/>
+      <c r="A2801" s="16"/>
+      <c r="B2801" s="3" t="n">
+        <v>24.1104677712672</v>
+      </c>
+      <c r="C2801" s="3" t="n">
+        <v>25.638400832008</v>
+      </c>
+      <c r="D2801" s="3" t="n">
+        <v>25.5982054866329</v>
+      </c>
     </row>
     <row r="2802">
-      <c r="A2802" s="6"/>
-      <c r="B2802" s="3"/>
-      <c r="C2802" s="3"/>
-      <c r="D2802" s="3"/>
+      <c r="A2802" s="16"/>
+      <c r="B2802" s="3" t="n">
+        <v>24.1059889491458</v>
+      </c>
+      <c r="C2802" s="3" t="n">
+        <v>25.636927160494</v>
+      </c>
+      <c r="D2802" s="3" t="n">
+        <v>25.6005537862703</v>
+      </c>
     </row>
     <row r="2803">
-      <c r="A2803" s="6"/>
-      <c r="B2803" s="3"/>
-      <c r="C2803" s="3"/>
-      <c r="D2803" s="3"/>
+      <c r="A2803" s="16"/>
+      <c r="B2803" s="3" t="n">
+        <v>24.0975479005302</v>
+      </c>
+      <c r="C2803" s="3" t="n">
+        <v>25.6267650676508</v>
+      </c>
+      <c r="D2803" s="3" t="n">
+        <v>25.5946598877981</v>
+      </c>
     </row>
     <row r="2804">
-      <c r="A2804" s="6"/>
-      <c r="B2804" s="3"/>
-      <c r="C2804" s="3"/>
-      <c r="D2804" s="3"/>
+      <c r="A2804" s="16"/>
+      <c r="B2804" s="3" t="n">
+        <v>24.0804852385333</v>
+      </c>
+      <c r="C2804" s="3" t="n">
+        <v>25.6154402554341</v>
+      </c>
+      <c r="D2804" s="3" t="n">
+        <v>25.5832255244756</v>
+      </c>
     </row>
     <row r="2805">
-      <c r="A2805" s="6"/>
-      <c r="B2805" s="3"/>
-      <c r="C2805" s="3"/>
-      <c r="D2805" s="3"/>
+      <c r="A2805" s="16"/>
+      <c r="B2805" s="3" t="n">
+        <v>24.059791730475</v>
+      </c>
+      <c r="C2805" s="3" t="n">
+        <v>25.6063822987092</v>
+      </c>
+      <c r="D2805" s="3" t="n">
+        <v>25.5772468077664</v>
+      </c>
     </row>
     <row r="2806">
-      <c r="A2806" s="6"/>
-      <c r="B2806" s="3"/>
-      <c r="C2806" s="3"/>
-      <c r="D2806" s="3"/>
+      <c r="A2806" s="16"/>
+      <c r="B2806" s="3" t="n">
+        <v>24.0459827833575</v>
+      </c>
+      <c r="C2806" s="3" t="n">
+        <v>25.5958007765104</v>
+      </c>
+      <c r="D2806" s="3" t="n">
+        <v>25.564448729185</v>
+      </c>
     </row>
     <row r="2807">
-      <c r="A2807" s="6"/>
-      <c r="B2807" s="3"/>
-      <c r="C2807" s="3"/>
-      <c r="D2807" s="3"/>
+      <c r="A2807" s="16"/>
+      <c r="B2807" s="3" t="n">
+        <v>24.0357632845298</v>
+      </c>
+      <c r="C2807" s="3" t="n">
+        <v>25.5761196189552</v>
+      </c>
+      <c r="D2807" s="3" t="n">
+        <v>25.5662672008362</v>
+      </c>
     </row>
     <row r="2808">
-      <c r="A2808" s="6"/>
-      <c r="B2808" s="3"/>
-      <c r="C2808" s="3"/>
-      <c r="D2808" s="3"/>
+      <c r="A2808" s="16"/>
+      <c r="B2808" s="3" t="n">
+        <v>24.0434330528724</v>
+      </c>
+      <c r="C2808" s="3" t="n">
+        <v>25.5803453325194</v>
+      </c>
+      <c r="D2808" s="3" t="n">
+        <v>25.5583209483368</v>
+      </c>
     </row>
     <row r="2809">
-      <c r="A2809" s="6"/>
-      <c r="B2809" s="3"/>
-      <c r="C2809" s="3"/>
-      <c r="D2809" s="3"/>
+      <c r="A2809" s="16"/>
+      <c r="B2809" s="3" t="n">
+        <v>24.0476406381195</v>
+      </c>
+      <c r="C2809" s="3" t="n">
+        <v>25.585420307692</v>
+      </c>
+      <c r="D2809" s="3" t="n">
+        <v>25.5507594936708</v>
+      </c>
     </row>
     <row r="2810">
-      <c r="A2810" s="6"/>
-      <c r="B2810" s="3"/>
-      <c r="C2810" s="3"/>
-      <c r="D2810" s="3"/>
+      <c r="A2810" s="16"/>
+      <c r="B2810" s="3" t="n">
+        <v>24.0574596858642</v>
+      </c>
+      <c r="C2810" s="3" t="n">
+        <v>25.5843138695061</v>
+      </c>
+      <c r="D2810" s="3" t="n">
+        <v>25.5500234192036</v>
+      </c>
     </row>
     <row r="2811">
-      <c r="A2811" s="6"/>
-      <c r="B2811" s="3"/>
-      <c r="C2811" s="3"/>
-      <c r="D2811" s="3"/>
+      <c r="A2811" s="16"/>
+      <c r="B2811" s="3" t="n">
+        <v>24.0655202766429</v>
+      </c>
+      <c r="C2811" s="3" t="n">
+        <v>25.5803612982234</v>
+      </c>
+      <c r="D2811" s="3" t="n">
+        <v>25.5527001997457</v>
+      </c>
     </row>
     <row r="2812">
-      <c r="A2812" s="6"/>
-      <c r="B2812" s="3"/>
-      <c r="C2812" s="3"/>
-      <c r="D2812" s="3"/>
+      <c r="A2812" s="16"/>
+      <c r="B2812" s="3" t="n">
+        <v>24.0825394155983</v>
+      </c>
+      <c r="C2812" s="3" t="n">
+        <v>25.5850097680091</v>
+      </c>
+      <c r="D2812" s="3" t="n">
+        <v>25.5767455728225</v>
+      </c>
     </row>
     <row r="2813">
-      <c r="A2813" s="6"/>
-      <c r="B2813" s="3"/>
-      <c r="C2813" s="3"/>
-      <c r="D2813" s="3"/>
+      <c r="A2813" s="16"/>
+      <c r="B2813" s="3" t="n">
+        <v>24.0853660089116</v>
+      </c>
+      <c r="C2813" s="3" t="n">
+        <v>25.582637578134</v>
+      </c>
+      <c r="D2813" s="3" t="n">
+        <v>25.5866509176812</v>
+      </c>
     </row>
     <row r="2814">
-      <c r="A2814" s="6"/>
-      <c r="B2814" s="3"/>
-      <c r="C2814" s="3"/>
-      <c r="D2814" s="3"/>
+      <c r="A2814" s="16"/>
+      <c r="B2814" s="3" t="n">
+        <v>24.0851999568827</v>
+      </c>
+      <c r="C2814" s="3" t="n">
+        <v>25.5828946719285</v>
+      </c>
+      <c r="D2814" s="3" t="n">
+        <v>25.5890741079596</v>
+      </c>
     </row>
     <row r="2815">
       <c r="A2815" s="6"/>
@@ -47522,13 +47708,27 @@
     </row>
     <row r="107">
       <c r="A107" s="6"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
+      <c r="B107" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="H107" s="3" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - agosto 2024</t>
+    <t xml:space="preserve">enero 2017 - septiembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: octubre 2024</t>
+    <t xml:space="preserve">Próxima actualización: noviembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">agosto 2024</t>
+    <t xml:space="preserve">septiembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -43855,184 +43855,364 @@
       </c>
     </row>
     <row r="2815">
-      <c r="A2815" s="6"/>
-      <c r="B2815" s="3"/>
-      <c r="C2815" s="3"/>
-      <c r="D2815" s="3"/>
+      <c r="A2815" s="16"/>
+      <c r="B2815" s="3" t="n">
+        <v>24.0876934882702</v>
+      </c>
+      <c r="C2815" s="3" t="n">
+        <v>25.5817882205511</v>
+      </c>
+      <c r="D2815" s="3" t="n">
+        <v>25.6064924679186</v>
+      </c>
     </row>
     <row r="2816">
-      <c r="A2816" s="6"/>
-      <c r="B2816" s="3"/>
-      <c r="C2816" s="3"/>
-      <c r="D2816" s="3"/>
+      <c r="A2816" s="16"/>
+      <c r="B2816" s="3" t="n">
+        <v>24.0869751992916</v>
+      </c>
+      <c r="C2816" s="3" t="n">
+        <v>25.5560852316354</v>
+      </c>
+      <c r="D2816" s="3" t="n">
+        <v>25.6080515328191</v>
+      </c>
     </row>
     <row r="2817">
-      <c r="A2817" s="6"/>
-      <c r="B2817" s="3"/>
-      <c r="C2817" s="3"/>
-      <c r="D2817" s="3"/>
+      <c r="A2817" s="16"/>
+      <c r="B2817" s="3" t="n">
+        <v>24.0881536091551</v>
+      </c>
+      <c r="C2817" s="3" t="n">
+        <v>25.5540906198292</v>
+      </c>
+      <c r="D2817" s="3" t="n">
+        <v>25.6146243956858</v>
+      </c>
     </row>
     <row r="2818">
-      <c r="A2818" s="6"/>
-      <c r="B2818" s="3"/>
-      <c r="C2818" s="3"/>
-      <c r="D2818" s="3"/>
+      <c r="A2818" s="16"/>
+      <c r="B2818" s="3" t="n">
+        <v>24.0969969108564</v>
+      </c>
+      <c r="C2818" s="3" t="n">
+        <v>25.5531684049858</v>
+      </c>
+      <c r="D2818" s="3" t="n">
+        <v>25.6223410938653</v>
+      </c>
     </row>
     <row r="2819">
-      <c r="A2819" s="6"/>
-      <c r="B2819" s="3"/>
-      <c r="C2819" s="3"/>
-      <c r="D2819" s="3"/>
+      <c r="A2819" s="16"/>
+      <c r="B2819" s="3" t="n">
+        <v>24.0870599313174</v>
+      </c>
+      <c r="C2819" s="3" t="n">
+        <v>25.5592223065249</v>
+      </c>
+      <c r="D2819" s="3" t="n">
+        <v>25.6218076285239</v>
+      </c>
     </row>
     <row r="2820">
-      <c r="A2820" s="6"/>
-      <c r="B2820" s="3"/>
-      <c r="C2820" s="3"/>
-      <c r="D2820" s="3"/>
+      <c r="A2820" s="16"/>
+      <c r="B2820" s="3" t="n">
+        <v>24.0742842865077</v>
+      </c>
+      <c r="C2820" s="3" t="n">
+        <v>25.5400165436498</v>
+      </c>
+      <c r="D2820" s="3" t="n">
+        <v>25.6139245630174</v>
+      </c>
     </row>
     <row r="2821">
-      <c r="A2821" s="6"/>
-      <c r="B2821" s="3"/>
-      <c r="C2821" s="3"/>
-      <c r="D2821" s="3"/>
+      <c r="A2821" s="16"/>
+      <c r="B2821" s="3" t="n">
+        <v>24.0539757831595</v>
+      </c>
+      <c r="C2821" s="3" t="n">
+        <v>25.5258169266173</v>
+      </c>
+      <c r="D2821" s="3" t="n">
+        <v>25.6107470101195</v>
+      </c>
     </row>
     <row r="2822">
-      <c r="A2822" s="6"/>
-      <c r="B2822" s="3"/>
-      <c r="C2822" s="3"/>
-      <c r="D2822" s="3"/>
+      <c r="A2822" s="16"/>
+      <c r="B2822" s="3" t="n">
+        <v>24.0371311567376</v>
+      </c>
+      <c r="C2822" s="3" t="n">
+        <v>25.5133470967744</v>
+      </c>
+      <c r="D2822" s="3" t="n">
+        <v>25.6058483553241</v>
+      </c>
     </row>
     <row r="2823">
-      <c r="A2823" s="6"/>
-      <c r="B2823" s="3"/>
-      <c r="C2823" s="3"/>
-      <c r="D2823" s="3"/>
+      <c r="A2823" s="16"/>
+      <c r="B2823" s="3" t="n">
+        <v>24.0298218771413</v>
+      </c>
+      <c r="C2823" s="3" t="n">
+        <v>25.4923535676253</v>
+      </c>
+      <c r="D2823" s="3" t="n">
+        <v>25.6031992445702</v>
+      </c>
     </row>
     <row r="2824">
-      <c r="A2824" s="6"/>
-      <c r="B2824" s="3"/>
-      <c r="C2824" s="3"/>
-      <c r="D2824" s="3"/>
+      <c r="A2824" s="16"/>
+      <c r="B2824" s="3" t="n">
+        <v>24.0110959367948</v>
+      </c>
+      <c r="C2824" s="3" t="n">
+        <v>25.4860544307131</v>
+      </c>
+      <c r="D2824" s="3" t="n">
+        <v>25.5940509172594</v>
+      </c>
     </row>
     <row r="2825">
-      <c r="A2825" s="6"/>
-      <c r="B2825" s="3"/>
-      <c r="C2825" s="3"/>
-      <c r="D2825" s="3"/>
+      <c r="A2825" s="16"/>
+      <c r="B2825" s="3" t="n">
+        <v>23.9794740383536</v>
+      </c>
+      <c r="C2825" s="3" t="n">
+        <v>25.4624344963797</v>
+      </c>
+      <c r="D2825" s="3" t="n">
+        <v>25.581837797619</v>
+      </c>
     </row>
     <row r="2826">
-      <c r="A2826" s="6"/>
-      <c r="B2826" s="3"/>
-      <c r="C2826" s="3"/>
-      <c r="D2826" s="3"/>
+      <c r="A2826" s="16"/>
+      <c r="B2826" s="3" t="n">
+        <v>23.9549101864481</v>
+      </c>
+      <c r="C2826" s="3" t="n">
+        <v>25.4279663299665</v>
+      </c>
+      <c r="D2826" s="3" t="n">
+        <v>25.5649053775528</v>
+      </c>
     </row>
     <row r="2827">
-      <c r="A2827" s="6"/>
-      <c r="B2827" s="3"/>
-      <c r="C2827" s="3"/>
-      <c r="D2827" s="3"/>
+      <c r="A2827" s="16"/>
+      <c r="B2827" s="3" t="n">
+        <v>23.9261784395197</v>
+      </c>
+      <c r="C2827" s="3" t="n">
+        <v>25.4092436631235</v>
+      </c>
+      <c r="D2827" s="3" t="n">
+        <v>25.5503608051651</v>
+      </c>
     </row>
     <row r="2828">
-      <c r="A2828" s="6"/>
-      <c r="B2828" s="3"/>
-      <c r="C2828" s="3"/>
-      <c r="D2828" s="3"/>
+      <c r="A2828" s="16"/>
+      <c r="B2828" s="3" t="n">
+        <v>23.9063884017303</v>
+      </c>
+      <c r="C2828" s="3" t="n">
+        <v>25.3947471248437</v>
+      </c>
+      <c r="D2828" s="3" t="n">
+        <v>25.5335687948767</v>
+      </c>
     </row>
     <row r="2829">
-      <c r="A2829" s="6"/>
-      <c r="B2829" s="3"/>
-      <c r="C2829" s="3"/>
-      <c r="D2829" s="3"/>
+      <c r="A2829" s="16"/>
+      <c r="B2829" s="3" t="n">
+        <v>23.8759870936902</v>
+      </c>
+      <c r="C2829" s="3" t="n">
+        <v>25.3724549453663</v>
+      </c>
+      <c r="D2829" s="3" t="n">
+        <v>25.5157843526608</v>
+      </c>
     </row>
     <row r="2830">
-      <c r="A2830" s="6"/>
-      <c r="B2830" s="3"/>
-      <c r="C2830" s="3"/>
-      <c r="D2830" s="3"/>
+      <c r="A2830" s="16"/>
+      <c r="B2830" s="3" t="n">
+        <v>23.8735661362809</v>
+      </c>
+      <c r="C2830" s="3" t="n">
+        <v>25.3690008650512</v>
+      </c>
+      <c r="D2830" s="3" t="n">
+        <v>25.5167691380349</v>
+      </c>
     </row>
     <row r="2831">
-      <c r="A2831" s="6"/>
-      <c r="B2831" s="3"/>
-      <c r="C2831" s="3"/>
-      <c r="D2831" s="3"/>
+      <c r="A2831" s="16"/>
+      <c r="B2831" s="3" t="n">
+        <v>23.8722924757283</v>
+      </c>
+      <c r="C2831" s="3" t="n">
+        <v>25.3646607245537</v>
+      </c>
+      <c r="D2831" s="3" t="n">
+        <v>25.5125691937424</v>
+      </c>
     </row>
     <row r="2832">
-      <c r="A2832" s="6"/>
-      <c r="B2832" s="3"/>
-      <c r="C2832" s="3"/>
-      <c r="D2832" s="3"/>
+      <c r="A2832" s="16"/>
+      <c r="B2832" s="3" t="n">
+        <v>23.8497642247081</v>
+      </c>
+      <c r="C2832" s="3" t="n">
+        <v>25.3374258128639</v>
+      </c>
+      <c r="D2832" s="3" t="n">
+        <v>25.494423613881</v>
+      </c>
     </row>
     <row r="2833">
-      <c r="A2833" s="6"/>
-      <c r="B2833" s="3"/>
-      <c r="C2833" s="3"/>
-      <c r="D2833" s="3"/>
+      <c r="A2833" s="16"/>
+      <c r="B2833" s="3" t="n">
+        <v>23.8347138409958</v>
+      </c>
+      <c r="C2833" s="3" t="n">
+        <v>25.3127266318909</v>
+      </c>
+      <c r="D2833" s="3" t="n">
+        <v>25.4719813195548</v>
+      </c>
     </row>
     <row r="2834">
-      <c r="A2834" s="6"/>
-      <c r="B2834" s="3"/>
-      <c r="C2834" s="3"/>
-      <c r="D2834" s="3"/>
+      <c r="A2834" s="16"/>
+      <c r="B2834" s="3" t="n">
+        <v>23.8192881923671</v>
+      </c>
+      <c r="C2834" s="3" t="n">
+        <v>25.2902826606669</v>
+      </c>
+      <c r="D2834" s="3" t="n">
+        <v>25.4546602513746</v>
+      </c>
     </row>
     <row r="2835">
-      <c r="A2835" s="6"/>
-      <c r="B2835" s="3"/>
-      <c r="C2835" s="3"/>
-      <c r="D2835" s="3"/>
+      <c r="A2835" s="16"/>
+      <c r="B2835" s="3" t="n">
+        <v>23.8136474381937</v>
+      </c>
+      <c r="C2835" s="3" t="n">
+        <v>25.2777771509172</v>
+      </c>
+      <c r="D2835" s="3" t="n">
+        <v>25.4434848188051</v>
+      </c>
     </row>
     <row r="2836">
-      <c r="A2836" s="6"/>
-      <c r="B2836" s="3"/>
-      <c r="C2836" s="3"/>
-      <c r="D2836" s="3"/>
+      <c r="A2836" s="16"/>
+      <c r="B2836" s="3" t="n">
+        <v>23.8135298372511</v>
+      </c>
+      <c r="C2836" s="3" t="n">
+        <v>25.269570980616</v>
+      </c>
+      <c r="D2836" s="3" t="n">
+        <v>25.4372535488959</v>
+      </c>
     </row>
     <row r="2837">
-      <c r="A2837" s="6"/>
-      <c r="B2837" s="3"/>
-      <c r="C2837" s="3"/>
-      <c r="D2837" s="3"/>
+      <c r="A2837" s="16"/>
+      <c r="B2837" s="3" t="n">
+        <v>23.8066054711244</v>
+      </c>
+      <c r="C2837" s="3" t="n">
+        <v>25.2557004621609</v>
+      </c>
+      <c r="D2837" s="3" t="n">
+        <v>25.4280419161676</v>
+      </c>
     </row>
     <row r="2838">
-      <c r="A2838" s="6"/>
-      <c r="B2838" s="3"/>
-      <c r="C2838" s="3"/>
-      <c r="D2838" s="3"/>
+      <c r="A2838" s="16"/>
+      <c r="B2838" s="3" t="n">
+        <v>23.8143346603931</v>
+      </c>
+      <c r="C2838" s="3" t="n">
+        <v>25.2530678720049</v>
+      </c>
+      <c r="D2838" s="3" t="n">
+        <v>25.4243943884607</v>
+      </c>
     </row>
     <row r="2839">
-      <c r="A2839" s="6"/>
-      <c r="B2839" s="3"/>
-      <c r="C2839" s="3"/>
-      <c r="D2839" s="3"/>
+      <c r="A2839" s="16"/>
+      <c r="B2839" s="3" t="n">
+        <v>23.8074882260593</v>
+      </c>
+      <c r="C2839" s="3" t="n">
+        <v>25.2408747486358</v>
+      </c>
+      <c r="D2839" s="3" t="n">
+        <v>25.4188635020681</v>
+      </c>
     </row>
     <row r="2840">
-      <c r="A2840" s="6"/>
-      <c r="B2840" s="3"/>
-      <c r="C2840" s="3"/>
-      <c r="D2840" s="3"/>
+      <c r="A2840" s="16"/>
+      <c r="B2840" s="3" t="n">
+        <v>23.8050236277713</v>
+      </c>
+      <c r="C2840" s="3" t="n">
+        <v>25.2385445942073</v>
+      </c>
+      <c r="D2840" s="3" t="n">
+        <v>25.4103301886791</v>
+      </c>
     </row>
     <row r="2841">
-      <c r="A2841" s="6"/>
-      <c r="B2841" s="3"/>
-      <c r="C2841" s="3"/>
-      <c r="D2841" s="3"/>
+      <c r="A2841" s="16"/>
+      <c r="B2841" s="3" t="n">
+        <v>23.7960201202303</v>
+      </c>
+      <c r="C2841" s="3" t="n">
+        <v>25.2308384102118</v>
+      </c>
+      <c r="D2841" s="3" t="n">
+        <v>25.4008728426898</v>
+      </c>
     </row>
     <row r="2842">
-      <c r="A2842" s="6"/>
-      <c r="B2842" s="3"/>
-      <c r="C2842" s="3"/>
-      <c r="D2842" s="3"/>
+      <c r="A2842" s="16"/>
+      <c r="B2842" s="3" t="n">
+        <v>23.7865862111647</v>
+      </c>
+      <c r="C2842" s="3" t="n">
+        <v>25.2145027624306</v>
+      </c>
+      <c r="D2842" s="3" t="n">
+        <v>25.3893244849445</v>
+      </c>
     </row>
     <row r="2843">
-      <c r="A2843" s="6"/>
-      <c r="B2843" s="3"/>
-      <c r="C2843" s="3"/>
-      <c r="D2843" s="3"/>
+      <c r="A2843" s="16"/>
+      <c r="B2843" s="3" t="n">
+        <v>23.7743677732189</v>
+      </c>
+      <c r="C2843" s="3" t="n">
+        <v>25.2110041043678</v>
+      </c>
+      <c r="D2843" s="3" t="n">
+        <v>25.3819324540367</v>
+      </c>
     </row>
     <row r="2844">
-      <c r="A2844" s="6"/>
-      <c r="B2844" s="3"/>
-      <c r="C2844" s="3"/>
-      <c r="D2844" s="3"/>
+      <c r="A2844" s="16"/>
+      <c r="B2844" s="3" t="n">
+        <v>23.7694987341773</v>
+      </c>
+      <c r="C2844" s="3" t="n">
+        <v>25.2054548165816</v>
+      </c>
+      <c r="D2844" s="3" t="n">
+        <v>25.3664650399835</v>
+      </c>
     </row>
     <row r="2845">
       <c r="A2845" s="6"/>
@@ -47732,13 +47912,27 @@
     </row>
     <row r="108">
       <c r="A108" s="6"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
+      <c r="B108" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="G108" s="3" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="H108" s="3" t="n">
+        <v>25.52</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - septiembre 2024</t>
+    <t xml:space="preserve">enero 2017 - octubre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: noviembre 2024</t>
+    <t xml:space="preserve">Próxima actualización: diciembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">septiembre 2024</t>
+    <t xml:space="preserve">octubre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -44215,190 +44215,376 @@
       </c>
     </row>
     <row r="2845">
-      <c r="A2845" s="6"/>
-      <c r="B2845" s="3"/>
-      <c r="C2845" s="3"/>
-      <c r="D2845" s="3"/>
+      <c r="A2845" s="16"/>
+      <c r="B2845" s="3" t="n">
+        <v>23.7657874810702</v>
+      </c>
+      <c r="C2845" s="3" t="n">
+        <v>25.197554565701</v>
+      </c>
+      <c r="D2845" s="3" t="n">
+        <v>25.3562059787059</v>
+      </c>
     </row>
     <row r="2846">
-      <c r="A2846" s="6"/>
-      <c r="B2846" s="3"/>
-      <c r="C2846" s="3"/>
-      <c r="D2846" s="3"/>
+      <c r="A2846" s="16"/>
+      <c r="B2846" s="3" t="n">
+        <v>23.7600164515313</v>
+      </c>
+      <c r="C2846" s="3" t="n">
+        <v>25.1917013372952</v>
+      </c>
+      <c r="D2846" s="3" t="n">
+        <v>25.3505313014826</v>
+      </c>
     </row>
     <row r="2847">
-      <c r="A2847" s="6"/>
-      <c r="B2847" s="3"/>
-      <c r="C2847" s="3"/>
-      <c r="D2847" s="3"/>
+      <c r="A2847" s="16"/>
+      <c r="B2847" s="3" t="n">
+        <v>23.7510963962817</v>
+      </c>
+      <c r="C2847" s="3" t="n">
+        <v>25.1881144479302</v>
+      </c>
+      <c r="D2847" s="3" t="n">
+        <v>25.3417160133444</v>
+      </c>
     </row>
     <row r="2848">
-      <c r="A2848" s="6"/>
-      <c r="B2848" s="3"/>
-      <c r="C2848" s="3"/>
-      <c r="D2848" s="3"/>
+      <c r="A2848" s="16"/>
+      <c r="B2848" s="3" t="n">
+        <v>23.7402724935734</v>
+      </c>
+      <c r="C2848" s="3" t="n">
+        <v>25.1782796022893</v>
+      </c>
+      <c r="D2848" s="3" t="n">
+        <v>25.3284285109982</v>
+      </c>
     </row>
     <row r="2849">
-      <c r="A2849" s="6"/>
-      <c r="B2849" s="3"/>
-      <c r="C2849" s="3"/>
-      <c r="D2849" s="3"/>
+      <c r="A2849" s="16"/>
+      <c r="B2849" s="3" t="n">
+        <v>23.7421724495082</v>
+      </c>
+      <c r="C2849" s="3" t="n">
+        <v>25.1837899057457</v>
+      </c>
+      <c r="D2849" s="3" t="n">
+        <v>25.3349904478877</v>
+      </c>
     </row>
     <row r="2850">
-      <c r="A2850" s="6"/>
-      <c r="B2850" s="3"/>
-      <c r="C2850" s="3"/>
-      <c r="D2850" s="3"/>
+      <c r="A2850" s="16"/>
+      <c r="B2850" s="3" t="n">
+        <v>23.7586653620355</v>
+      </c>
+      <c r="C2850" s="3" t="n">
+        <v>25.1979565948334</v>
+      </c>
+      <c r="D2850" s="3" t="n">
+        <v>25.3464992519767</v>
+      </c>
     </row>
     <row r="2851">
-      <c r="A2851" s="6"/>
-      <c r="B2851" s="3"/>
-      <c r="C2851" s="3"/>
-      <c r="D2851" s="3"/>
+      <c r="A2851" s="16"/>
+      <c r="B2851" s="3" t="n">
+        <v>23.7676531151006</v>
+      </c>
+      <c r="C2851" s="3" t="n">
+        <v>25.1949254426834</v>
+      </c>
+      <c r="D2851" s="3" t="n">
+        <v>25.3454180168501</v>
+      </c>
     </row>
     <row r="2852">
-      <c r="A2852" s="6"/>
-      <c r="B2852" s="3"/>
-      <c r="C2852" s="3"/>
-      <c r="D2852" s="3"/>
+      <c r="A2852" s="16"/>
+      <c r="B2852" s="3" t="n">
+        <v>23.8106032693308</v>
+      </c>
+      <c r="C2852" s="3" t="n">
+        <v>25.2224844059021</v>
+      </c>
+      <c r="D2852" s="3" t="n">
+        <v>25.3694147582695</v>
+      </c>
     </row>
     <row r="2853">
-      <c r="A2853" s="6"/>
-      <c r="B2853" s="3"/>
-      <c r="C2853" s="3"/>
-      <c r="D2853" s="3"/>
+      <c r="A2853" s="16"/>
+      <c r="B2853" s="3" t="n">
+        <v>23.8532264247384</v>
+      </c>
+      <c r="C2853" s="3" t="n">
+        <v>25.2331071913154</v>
+      </c>
+      <c r="D2853" s="3" t="n">
+        <v>25.3951295445046</v>
+      </c>
     </row>
     <row r="2854">
-      <c r="A2854" s="6"/>
-      <c r="B2854" s="3"/>
-      <c r="C2854" s="3"/>
-      <c r="D2854" s="3"/>
+      <c r="A2854" s="16"/>
+      <c r="B2854" s="3" t="n">
+        <v>23.8644595452817</v>
+      </c>
+      <c r="C2854" s="3" t="n">
+        <v>25.236500973199</v>
+      </c>
+      <c r="D2854" s="3" t="n">
+        <v>25.4247582801891</v>
+      </c>
     </row>
     <row r="2855">
-      <c r="A2855" s="6"/>
-      <c r="B2855" s="3"/>
-      <c r="C2855" s="3"/>
-      <c r="D2855" s="3"/>
+      <c r="A2855" s="16"/>
+      <c r="B2855" s="3" t="n">
+        <v>23.8678645569624</v>
+      </c>
+      <c r="C2855" s="3" t="n">
+        <v>25.2369608136398</v>
+      </c>
+      <c r="D2855" s="3" t="n">
+        <v>25.4317263244016</v>
+      </c>
     </row>
     <row r="2856">
-      <c r="A2856" s="6"/>
-      <c r="B2856" s="3"/>
-      <c r="C2856" s="3"/>
-      <c r="D2856" s="3"/>
+      <c r="A2856" s="16"/>
+      <c r="B2856" s="3" t="n">
+        <v>23.8694480313967</v>
+      </c>
+      <c r="C2856" s="3" t="n">
+        <v>25.2316864929975</v>
+      </c>
+      <c r="D2856" s="3" t="n">
+        <v>25.4415144674738</v>
+      </c>
     </row>
     <row r="2857">
-      <c r="A2857" s="6"/>
-      <c r="B2857" s="3"/>
-      <c r="C2857" s="3"/>
-      <c r="D2857" s="3"/>
+      <c r="A2857" s="16"/>
+      <c r="B2857" s="3" t="n">
+        <v>23.87614387392</v>
+      </c>
+      <c r="C2857" s="3" t="n">
+        <v>25.2593108149038</v>
+      </c>
+      <c r="D2857" s="3" t="n">
+        <v>25.4515711645101</v>
+      </c>
     </row>
     <row r="2858">
-      <c r="A2858" s="6"/>
-      <c r="B2858" s="3"/>
-      <c r="C2858" s="3"/>
-      <c r="D2858" s="3"/>
+      <c r="A2858" s="16"/>
+      <c r="B2858" s="3" t="n">
+        <v>23.8823642418036</v>
+      </c>
+      <c r="C2858" s="3" t="n">
+        <v>25.2577213641222</v>
+      </c>
+      <c r="D2858" s="3" t="n">
+        <v>25.4539464469618</v>
+      </c>
     </row>
     <row r="2859">
-      <c r="A2859" s="6"/>
-      <c r="B2859" s="3"/>
-      <c r="C2859" s="3"/>
-      <c r="D2859" s="3"/>
+      <c r="A2859" s="16"/>
+      <c r="B2859" s="3" t="n">
+        <v>23.8920783667262</v>
+      </c>
+      <c r="C2859" s="3" t="n">
+        <v>25.2658951367774</v>
+      </c>
+      <c r="D2859" s="3" t="n">
+        <v>25.4699552663684</v>
+      </c>
     </row>
     <row r="2860">
-      <c r="A2860" s="6"/>
-      <c r="B2860" s="3"/>
-      <c r="C2860" s="3"/>
-      <c r="D2860" s="3"/>
+      <c r="A2860" s="16"/>
+      <c r="B2860" s="3" t="n">
+        <v>23.8982395689766</v>
+      </c>
+      <c r="C2860" s="3" t="n">
+        <v>25.2671919252781</v>
+      </c>
+      <c r="D2860" s="3" t="n">
+        <v>25.4783102548665</v>
+      </c>
     </row>
     <row r="2861">
-      <c r="A2861" s="6"/>
-      <c r="B2861" s="3"/>
-      <c r="C2861" s="3"/>
-      <c r="D2861" s="3"/>
+      <c r="A2861" s="16"/>
+      <c r="B2861" s="3" t="n">
+        <v>23.8989168640163</v>
+      </c>
+      <c r="C2861" s="3" t="n">
+        <v>25.2674095209485</v>
+      </c>
+      <c r="D2861" s="3" t="n">
+        <v>25.4849025125627</v>
+      </c>
     </row>
     <row r="2862">
-      <c r="A2862" s="6"/>
-      <c r="B2862" s="3"/>
-      <c r="C2862" s="3"/>
-      <c r="D2862" s="3"/>
+      <c r="A2862" s="16"/>
+      <c r="B2862" s="3" t="n">
+        <v>23.9205529604851</v>
+      </c>
+      <c r="C2862" s="3" t="n">
+        <v>25.2798913542459</v>
+      </c>
+      <c r="D2862" s="3" t="n">
+        <v>25.4818200080353</v>
+      </c>
     </row>
     <row r="2863">
-      <c r="A2863" s="6"/>
-      <c r="B2863" s="3"/>
-      <c r="C2863" s="3"/>
-      <c r="D2863" s="3"/>
+      <c r="A2863" s="16"/>
+      <c r="B2863" s="3" t="n">
+        <v>23.9233673339288</v>
+      </c>
+      <c r="C2863" s="3" t="n">
+        <v>25.2790937067236</v>
+      </c>
+      <c r="D2863" s="3" t="n">
+        <v>25.4806270226536</v>
+      </c>
     </row>
     <row r="2864">
-      <c r="A2864" s="6"/>
-      <c r="B2864" s="3"/>
-      <c r="C2864" s="3"/>
-      <c r="D2864" s="3"/>
+      <c r="A2864" s="16"/>
+      <c r="B2864" s="3" t="n">
+        <v>23.9177759240251</v>
+      </c>
+      <c r="C2864" s="3" t="n">
+        <v>25.2737532930415</v>
+      </c>
+      <c r="D2864" s="3" t="n">
+        <v>25.485266380894</v>
+      </c>
     </row>
     <row r="2865">
-      <c r="A2865" s="6"/>
-      <c r="B2865" s="3"/>
-      <c r="C2865" s="3"/>
-      <c r="D2865" s="3"/>
+      <c r="A2865" s="16"/>
+      <c r="B2865" s="3" t="n">
+        <v>23.9135737407748</v>
+      </c>
+      <c r="C2865" s="3" t="n">
+        <v>25.2659191349313</v>
+      </c>
+      <c r="D2865" s="3" t="n">
+        <v>25.4824180581323</v>
+      </c>
     </row>
     <row r="2866">
-      <c r="A2866" s="6"/>
-      <c r="B2866" s="3"/>
-      <c r="C2866" s="3"/>
-      <c r="D2866" s="3"/>
+      <c r="A2866" s="16"/>
+      <c r="B2866" s="3" t="n">
+        <v>23.9115594422704</v>
+      </c>
+      <c r="C2866" s="3" t="n">
+        <v>25.2920911528151</v>
+      </c>
+      <c r="D2866" s="3" t="n">
+        <v>25.5147185722688</v>
+      </c>
     </row>
     <row r="2867">
-      <c r="A2867" s="6"/>
-      <c r="B2867" s="3"/>
-      <c r="C2867" s="3"/>
-      <c r="D2867" s="3"/>
+      <c r="A2867" s="16"/>
+      <c r="B2867" s="3" t="n">
+        <v>23.898144631118</v>
+      </c>
+      <c r="C2867" s="3" t="n">
+        <v>25.2800534521159</v>
+      </c>
+      <c r="D2867" s="3" t="n">
+        <v>25.5056986942114</v>
+      </c>
     </row>
     <row r="2868">
-      <c r="A2868" s="6"/>
-      <c r="B2868" s="3"/>
-      <c r="C2868" s="3"/>
-      <c r="D2868" s="3"/>
+      <c r="A2868" s="16"/>
+      <c r="B2868" s="3" t="n">
+        <v>23.8677985210334</v>
+      </c>
+      <c r="C2868" s="3" t="n">
+        <v>25.2642848655874</v>
+      </c>
+      <c r="D2868" s="3" t="n">
+        <v>25.496488534784</v>
+      </c>
     </row>
     <row r="2869">
-      <c r="A2869" s="6"/>
-      <c r="B2869" s="3"/>
-      <c r="C2869" s="3"/>
-      <c r="D2869" s="3"/>
+      <c r="A2869" s="16"/>
+      <c r="B2869" s="3" t="n">
+        <v>23.8580543478264</v>
+      </c>
+      <c r="C2869" s="3" t="n">
+        <v>25.2693799940809</v>
+      </c>
+      <c r="D2869" s="3" t="n">
+        <v>25.4948845780793</v>
+      </c>
     </row>
     <row r="2870">
-      <c r="A2870" s="6"/>
-      <c r="B2870" s="3"/>
-      <c r="C2870" s="3"/>
-      <c r="D2870" s="3"/>
+      <c r="A2870" s="16"/>
+      <c r="B2870" s="3" t="n">
+        <v>23.8376151794377</v>
+      </c>
+      <c r="C2870" s="3" t="n">
+        <v>25.2509332536955</v>
+      </c>
+      <c r="D2870" s="3" t="n">
+        <v>25.4861983632109</v>
+      </c>
     </row>
     <row r="2871">
-      <c r="A2871" s="6"/>
-      <c r="B2871" s="3"/>
-      <c r="C2871" s="3"/>
-      <c r="D2871" s="3"/>
+      <c r="A2871" s="16"/>
+      <c r="B2871" s="3" t="n">
+        <v>23.8310581494578</v>
+      </c>
+      <c r="C2871" s="3" t="n">
+        <v>25.2421308523407</v>
+      </c>
+      <c r="D2871" s="3" t="n">
+        <v>25.4837715517239</v>
+      </c>
     </row>
     <row r="2872">
-      <c r="A2872" s="6"/>
-      <c r="B2872" s="3"/>
-      <c r="C2872" s="3"/>
-      <c r="D2872" s="3"/>
+      <c r="A2872" s="16"/>
+      <c r="B2872" s="3" t="n">
+        <v>23.8314459161152</v>
+      </c>
+      <c r="C2872" s="3" t="n">
+        <v>25.2212390871493</v>
+      </c>
+      <c r="D2872" s="3" t="n">
+        <v>25.4846435604566</v>
+      </c>
     </row>
     <row r="2873">
-      <c r="A2873" s="6"/>
-      <c r="B2873" s="3"/>
-      <c r="C2873" s="3"/>
-      <c r="D2873" s="3"/>
+      <c r="A2873" s="16"/>
+      <c r="B2873" s="3" t="n">
+        <v>23.830494699647</v>
+      </c>
+      <c r="C2873" s="3" t="n">
+        <v>25.2205629945219</v>
+      </c>
+      <c r="D2873" s="3" t="n">
+        <v>25.4801779777036</v>
+      </c>
     </row>
     <row r="2874">
-      <c r="A2874" s="6"/>
-      <c r="B2874" s="3"/>
-      <c r="C2874" s="3"/>
-      <c r="D2874" s="3"/>
+      <c r="A2874" s="16"/>
+      <c r="B2874" s="3" t="n">
+        <v>23.832263464338</v>
+      </c>
+      <c r="C2874" s="3" t="n">
+        <v>25.2202856274686</v>
+      </c>
+      <c r="D2874" s="3" t="n">
+        <v>25.4813563622167</v>
+      </c>
     </row>
     <row r="2875">
-      <c r="A2875" s="6"/>
-      <c r="B2875" s="3"/>
-      <c r="C2875" s="3"/>
-      <c r="D2875" s="3"/>
+      <c r="A2875" s="16"/>
+      <c r="B2875" s="3" t="n">
+        <v>23.8296448984559</v>
+      </c>
+      <c r="C2875" s="3" t="n">
+        <v>25.2156613272308</v>
+      </c>
+      <c r="D2875" s="3" t="n">
+        <v>25.4757611881959</v>
+      </c>
     </row>
     <row r="2876">
       <c r="A2876" s="6"/>
@@ -47936,13 +48122,27 @@
     </row>
     <row r="109">
       <c r="A109" s="6"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="G109" s="3" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="H109" s="3" t="n">
+        <v>25.44</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - octubre 2024</t>
+    <t xml:space="preserve">enero 2017 - noviembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: diciembre 2024</t>
+    <t xml:space="preserve">Próxima actualización: enero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">octubre 2024</t>
+    <t xml:space="preserve">noviembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -5159,7 +5159,7 @@
         <v>17.8289218355822</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>17.0849594242063</v>
+        <v>17.0849594242065</v>
       </c>
     </row>
     <row r="25">
@@ -5212,7 +5212,7 @@
         <v>16.0029484610723</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>17.8156269707082</v>
+        <v>17.815626970708</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>17.0711665447296</v>
@@ -5229,7 +5229,7 @@
         <v>17.8155889118453</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>17.0723933856681</v>
+        <v>17.0723933856678</v>
       </c>
     </row>
     <row r="30">
@@ -5240,7 +5240,7 @@
         <v>16.0046395652654</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>17.8152320481193</v>
+        <v>17.8152320481187</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>17.0724871320869</v>
@@ -5251,7 +5251,7 @@
         <v>42752</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>16.0011355834195</v>
+        <v>16.0011355834196</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>17.8115141629717</v>
@@ -5293,7 +5293,7 @@
         <v>42755</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>16.0015111990436</v>
+        <v>16.001511199044</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>17.8115116063398</v>
@@ -5310,7 +5310,7 @@
         <v>16.0019203430505</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>17.8119542539628</v>
+        <v>17.8119542539632</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>17.0701551451107</v>
@@ -5321,7 +5321,7 @@
         <v>42757</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>16.0018919759877</v>
+        <v>16.0018919759878</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>17.8117798650708</v>
@@ -5439,7 +5439,7 @@
         <v>17.8095639226141</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>17.0727129573644</v>
+        <v>17.0727129573646</v>
       </c>
     </row>
     <row r="45">
@@ -5534,7 +5534,7 @@
         <v>15.8603086173826</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>17.725569955078</v>
+        <v>17.7255699550782</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>17.0742098868575</v>
@@ -5719,7 +5719,7 @@
         <v>17.7603928897944</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>17.0552244737221</v>
+        <v>17.0552244737225</v>
       </c>
     </row>
     <row r="65">
@@ -5755,7 +5755,7 @@
         <v>42788</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>15.916363870304</v>
+        <v>15.9163638703042</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>17.7519076721596</v>
@@ -5789,7 +5789,7 @@
         <v>17.7333504946778</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>17.0299963269668</v>
+        <v>17.029996326967</v>
       </c>
     </row>
     <row r="70">
@@ -5825,7 +5825,7 @@
         <v>42793</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>15.8926099402164</v>
+        <v>15.8926099402165</v>
       </c>
       <c r="C72" s="3" t="n">
         <v>17.7321906898043</v>
@@ -5859,7 +5859,7 @@
         <v>17.7232116548803</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>17.0293524797234</v>
+        <v>17.0293524797235</v>
       </c>
     </row>
     <row r="75">
@@ -5937,7 +5937,7 @@
         <v>42801</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>15.7995763895819</v>
+        <v>15.7995763895821</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>17.6612390153517</v>
@@ -6024,7 +6024,7 @@
         <v>15.79930955758</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>17.6854666208935</v>
+        <v>17.6854666208926</v>
       </c>
       <c r="D86" s="3" t="n">
         <v>16.9814496323212</v>
@@ -6147,7 +6147,7 @@
         <v>42816</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>15.7615183594908</v>
+        <v>15.7615183594916</v>
       </c>
       <c r="C95" s="3" t="n">
         <v>17.6007624921429</v>
@@ -6217,7 +6217,7 @@
         <v>42821</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>15.730798451835</v>
+        <v>15.7307984518351</v>
       </c>
       <c r="C100" s="3" t="n">
         <v>17.5693824136829</v>
@@ -6245,7 +6245,7 @@
         <v>42823</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>15.7454836153864</v>
+        <v>15.745483615386</v>
       </c>
       <c r="C102" s="3" t="n">
         <v>17.5777183962024</v>
@@ -6374,7 +6374,7 @@
         <v>15.7797735686006</v>
       </c>
       <c r="C111" s="3" t="n">
-        <v>17.6093864325257</v>
+        <v>17.6093864325237</v>
       </c>
       <c r="D111" s="3" t="n">
         <v>16.8952683588133</v>
@@ -6458,7 +6458,7 @@
         <v>15.8069718777618</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>17.6252857483764</v>
+        <v>17.6252857483763</v>
       </c>
       <c r="D117" s="3" t="n">
         <v>16.9131490054871</v>
@@ -7175,7 +7175,7 @@
         <v>17.5235702082552</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>16.7078213727532</v>
+        <v>16.7078213727533</v>
       </c>
     </row>
     <row r="169">
@@ -7771,7 +7771,7 @@
         <v>42932</v>
       </c>
       <c r="B211" s="3" t="n">
-        <v>15.4665736329987</v>
+        <v>15.4665736329993</v>
       </c>
       <c r="C211" s="3" t="n">
         <v>17.3002323176264</v>
@@ -8404,7 +8404,7 @@
         <v>15.6431750710233</v>
       </c>
       <c r="C256" s="3" t="n">
-        <v>17.4766113105923</v>
+        <v>17.4766113105926</v>
       </c>
       <c r="D256" s="3" t="n">
         <v>16.5876876590328</v>
@@ -8474,7 +8474,7 @@
         <v>15.7290676424049</v>
       </c>
       <c r="C261" s="3" t="n">
-        <v>17.5623521552156</v>
+        <v>17.5623521552158</v>
       </c>
       <c r="D261" s="3" t="n">
         <v>16.6570322946887</v>
@@ -9023,7 +9023,7 @@
         <v>17.7601820806292</v>
       </c>
       <c r="D300" s="3" t="n">
-        <v>16.9895147180764</v>
+        <v>16.9895147180768</v>
       </c>
     </row>
     <row r="301">
@@ -10199,7 +10199,7 @@
         <v>18.1977132218462</v>
       </c>
       <c r="D384" s="3" t="n">
-        <v>17.4801369149944</v>
+        <v>17.4801369149945</v>
       </c>
     </row>
     <row r="385">
@@ -11397,7 +11397,7 @@
         <v>43191</v>
       </c>
       <c r="B470" s="3" t="n">
-        <v>17.6467303971252</v>
+        <v>17.6467303971254</v>
       </c>
       <c r="C470" s="3" t="n">
         <v>19.2107354528506</v>
@@ -11473,7 +11473,7 @@
         <v>19.2119099302623</v>
       </c>
       <c r="D475" s="3" t="n">
-        <v>18.7534044062733</v>
+        <v>18.7534044062736</v>
       </c>
     </row>
     <row r="476">
@@ -12069,7 +12069,7 @@
         <v>43239</v>
       </c>
       <c r="B518" s="3" t="n">
-        <v>17.9136999688116</v>
+        <v>17.9136999688117</v>
       </c>
       <c r="C518" s="3" t="n">
         <v>19.4153679893589</v>
@@ -13153,7 +13153,7 @@
         <v>20.3225149006235</v>
       </c>
       <c r="D595" s="3" t="n">
-        <v>19.8928442935353</v>
+        <v>19.8928442935352</v>
       </c>
     </row>
     <row r="596">
@@ -13181,7 +13181,7 @@
         <v>20.3425223188991</v>
       </c>
       <c r="D597" s="3" t="n">
-        <v>19.9146951810914</v>
+        <v>19.9146951810913</v>
       </c>
     </row>
     <row r="598">
@@ -13679,7 +13679,7 @@
         <v>43354</v>
       </c>
       <c r="B633" s="3" t="n">
-        <v>19.1989953604567</v>
+        <v>19.1989953604569</v>
       </c>
       <c r="C633" s="3" t="n">
         <v>20.6628987059489</v>
@@ -13696,7 +13696,7 @@
         <v>19.2056915083402</v>
       </c>
       <c r="C634" s="3" t="n">
-        <v>20.6724205655751</v>
+        <v>20.6724205655744</v>
       </c>
       <c r="D634" s="3" t="n">
         <v>20.3030736716241</v>
@@ -13836,7 +13836,7 @@
         <v>19.2580681157156</v>
       </c>
       <c r="C644" s="3" t="n">
-        <v>20.7351653598733</v>
+        <v>20.7351653598731</v>
       </c>
       <c r="D644" s="3" t="n">
         <v>20.3599229157025</v>
@@ -13976,7 +13976,7 @@
         <v>19.3402058845982</v>
       </c>
       <c r="C654" s="3" t="n">
-        <v>20.8320689523078</v>
+        <v>20.8320689523079</v>
       </c>
       <c r="D654" s="3" t="n">
         <v>20.4527207274292</v>
@@ -14130,7 +14130,7 @@
         <v>19.4485921976762</v>
       </c>
       <c r="C665" s="3" t="n">
-        <v>20.9627062994405</v>
+        <v>20.9627062994403</v>
       </c>
       <c r="D665" s="3" t="n">
         <v>20.6174671706225</v>
@@ -14211,13 +14211,13 @@
         <v>43392</v>
       </c>
       <c r="B671" s="3" t="n">
-        <v>19.4513913646331</v>
+        <v>19.4513913646328</v>
       </c>
       <c r="C671" s="3" t="n">
         <v>20.9679672339368</v>
       </c>
       <c r="D671" s="3" t="n">
-        <v>20.6461314710808</v>
+        <v>20.6461314710809</v>
       </c>
     </row>
     <row r="672">
@@ -14357,7 +14357,7 @@
         <v>20.9731824104236</v>
       </c>
       <c r="D681" s="3" t="n">
-        <v>20.7068908060716</v>
+        <v>20.706890806072</v>
       </c>
     </row>
     <row r="682">
@@ -14421,7 +14421,7 @@
         <v>43407</v>
       </c>
       <c r="B686" s="3" t="n">
-        <v>19.4556134102597</v>
+        <v>19.45561341026</v>
       </c>
       <c r="C686" s="3" t="n">
         <v>20.9790019081617</v>
@@ -14497,7 +14497,7 @@
         <v>20.9739994539878</v>
       </c>
       <c r="D691" s="3" t="n">
-        <v>20.7756405754937</v>
+        <v>20.7756405754936</v>
       </c>
     </row>
     <row r="692">
@@ -14813,7 +14813,7 @@
         <v>43435</v>
       </c>
       <c r="B714" s="3" t="n">
-        <v>19.2884494761142</v>
+        <v>19.2884494761144</v>
       </c>
       <c r="C714" s="3" t="n">
         <v>20.8575867725462</v>
@@ -14841,7 +14841,7 @@
         <v>43437</v>
       </c>
       <c r="B716" s="3" t="n">
-        <v>19.2712579443345</v>
+        <v>19.2712579443347</v>
       </c>
       <c r="C716" s="3" t="n">
         <v>20.8386459663379</v>
@@ -15485,7 +15485,7 @@
         <v>43483</v>
       </c>
       <c r="B762" s="3" t="n">
-        <v>18.7938519727083</v>
+        <v>18.7938519727084</v>
       </c>
       <c r="C762" s="3" t="n">
         <v>20.1677994101871</v>
@@ -15813,7 +15813,7 @@
         <v>20.0551178946104</v>
       </c>
       <c r="D785" s="3" t="n">
-        <v>21.2453129952354</v>
+        <v>21.2453129952352</v>
       </c>
     </row>
     <row r="786">
@@ -16860,7 +16860,7 @@
         <v>19.4820405391817</v>
       </c>
       <c r="C860" s="3" t="n">
-        <v>20.953157194551</v>
+        <v>20.9531571945509</v>
       </c>
       <c r="D860" s="3" t="n">
         <v>21.3152788514632</v>
@@ -17392,7 +17392,7 @@
         <v>19.4258689035988</v>
       </c>
       <c r="C898" s="3" t="n">
-        <v>20.9370017884514</v>
+        <v>20.9370017884522</v>
       </c>
       <c r="D898" s="3" t="n">
         <v>21.1031325997386</v>
@@ -17731,7 +17731,7 @@
         <v>20.9615170549725</v>
       </c>
       <c r="D922" s="3" t="n">
-        <v>21.1200296655878</v>
+        <v>21.1200296655881</v>
       </c>
     </row>
     <row r="923">
@@ -18047,7 +18047,7 @@
         <v>43666</v>
       </c>
       <c r="B945" s="3" t="n">
-        <v>19.4098109615123</v>
+        <v>19.4098109615122</v>
       </c>
       <c r="C945" s="3" t="n">
         <v>20.9693912284977</v>
@@ -18106,7 +18106,7 @@
         <v>19.3960067252974</v>
       </c>
       <c r="C949" s="3" t="n">
-        <v>20.9532789360474</v>
+        <v>20.9532789360471</v>
       </c>
       <c r="D949" s="3" t="n">
         <v>21.106341890315</v>
@@ -18439,7 +18439,7 @@
         <v>43694</v>
       </c>
       <c r="B973" s="3" t="n">
-        <v>19.198744014329</v>
+        <v>19.1987440143294</v>
       </c>
       <c r="C973" s="3" t="n">
         <v>20.9453537057021</v>
@@ -18509,7 +18509,7 @@
         <v>43699</v>
       </c>
       <c r="B978" s="3" t="n">
-        <v>19.2447120983394</v>
+        <v>19.2447120983395</v>
       </c>
       <c r="C978" s="3" t="n">
         <v>20.9285972683644</v>
@@ -18837,7 +18837,7 @@
         <v>20.9407052890869</v>
       </c>
       <c r="D1001" s="3" t="n">
-        <v>21.1569146068556</v>
+        <v>21.1569146068558</v>
       </c>
     </row>
     <row r="1002">
@@ -19223,7 +19223,7 @@
         <v>43750</v>
       </c>
       <c r="B1029" s="3" t="n">
-        <v>19.2789867908107</v>
+        <v>19.278986790811</v>
       </c>
       <c r="C1029" s="3" t="n">
         <v>20.8891810857824</v>
@@ -19783,7 +19783,7 @@
         <v>43790</v>
       </c>
       <c r="B1069" s="3" t="n">
-        <v>19.2912368794327</v>
+        <v>19.2912368794325</v>
       </c>
       <c r="C1069" s="3" t="n">
         <v>20.7017154075282</v>
@@ -19971,7 +19971,7 @@
         <v>20.8505737231101</v>
       </c>
       <c r="D1082" s="3" t="n">
-        <v>21.2078067722896</v>
+        <v>21.2078067722895</v>
       </c>
     </row>
     <row r="1083">
@@ -20175,7 +20175,7 @@
         <v>43818</v>
       </c>
       <c r="B1097" s="3" t="n">
-        <v>19.4000899542432</v>
+        <v>19.4000899542431</v>
       </c>
       <c r="C1097" s="3" t="n">
         <v>20.7068331702942</v>
@@ -20315,7 +20315,7 @@
         <v>43828</v>
       </c>
       <c r="B1107" s="3" t="n">
-        <v>19.5111527909677</v>
+        <v>19.5111527909676</v>
       </c>
       <c r="C1107" s="3" t="n">
         <v>20.8201464928619</v>
@@ -20595,7 +20595,7 @@
         <v>43848</v>
       </c>
       <c r="B1127" s="3" t="n">
-        <v>19.4946797781141</v>
+        <v>19.4946797781139</v>
       </c>
       <c r="C1127" s="3" t="n">
         <v>20.8296317493354</v>
@@ -20724,7 +20724,7 @@
         <v>19.5440615191466</v>
       </c>
       <c r="C1136" s="3" t="n">
-        <v>20.7632777844387</v>
+        <v>20.7632777844384</v>
       </c>
       <c r="D1136" s="3" t="n">
         <v>21.2932384924772</v>
@@ -20847,7 +20847,7 @@
         <v>43866</v>
       </c>
       <c r="B1145" s="3" t="n">
-        <v>19.3898390816833</v>
+        <v>19.3898390816836</v>
       </c>
       <c r="C1145" s="3" t="n">
         <v>20.5472180316091</v>
@@ -20965,7 +20965,7 @@
         <v>20.4020916490135</v>
       </c>
       <c r="D1153" s="3" t="n">
-        <v>20.9706429391505</v>
+        <v>20.9706429391504</v>
       </c>
     </row>
     <row r="1154">
@@ -21228,7 +21228,7 @@
         <v>19.4506930852955</v>
       </c>
       <c r="C1172" s="3" t="n">
-        <v>20.4565350924051</v>
+        <v>20.4565350924052</v>
       </c>
       <c r="D1172" s="3" t="n">
         <v>20.8671588019216</v>
@@ -22127,7 +22127,7 @@
         <v>16.3918682310467</v>
       </c>
       <c r="D1236" s="3" t="n">
-        <v>18.3877952453989</v>
+        <v>18.3877952453986</v>
       </c>
     </row>
     <row r="1237">
@@ -22239,7 +22239,7 @@
         <v>17.0718936814228</v>
       </c>
       <c r="D1244" s="3" t="n">
-        <v>18.4884074074072</v>
+        <v>18.4884074074075</v>
       </c>
     </row>
     <row r="1245">
@@ -22614,7 +22614,7 @@
         <v>17.3867856841396</v>
       </c>
       <c r="C1271" s="3" t="n">
-        <v>17.9114887925467</v>
+        <v>17.9114887925465</v>
       </c>
       <c r="D1271" s="3" t="n">
         <v>18.9187621178227</v>
@@ -22936,7 +22936,7 @@
         <v>18.4298306084613</v>
       </c>
       <c r="C1294" s="3" t="n">
-        <v>18.8825450409464</v>
+        <v>18.8825450409465</v>
       </c>
       <c r="D1294" s="3" t="n">
         <v>19.5984299175502</v>
@@ -23451,7 +23451,7 @@
         <v>44052</v>
       </c>
       <c r="B1331" s="3" t="n">
-        <v>18.5664340557882</v>
+        <v>18.5664340557875</v>
       </c>
       <c r="C1331" s="3" t="n">
         <v>19.0374074074075</v>
@@ -24291,7 +24291,7 @@
         <v>44112</v>
       </c>
       <c r="B1391" s="3" t="n">
-        <v>18.5294057507989</v>
+        <v>18.5294057507991</v>
       </c>
       <c r="C1391" s="3" t="n">
         <v>19.0359428687607</v>
@@ -24535,7 +24535,7 @@
         <v>18.7891742926266</v>
       </c>
       <c r="D1408" s="3" t="n">
-        <v>18.959783413297</v>
+        <v>18.9597834132969</v>
       </c>
     </row>
     <row r="1409">
@@ -24879,7 +24879,7 @@
         <v>44154</v>
       </c>
       <c r="B1433" s="3" t="n">
-        <v>17.6414987239285</v>
+        <v>17.6414987239284</v>
       </c>
       <c r="C1433" s="3" t="n">
         <v>18.2710755215986</v>
@@ -25627,7 +25627,7 @@
         <v>21.2769905085965</v>
       </c>
       <c r="D1486" s="3" t="n">
-        <v>21.2417928103825</v>
+        <v>21.2417928103823</v>
       </c>
     </row>
     <row r="1487">
@@ -25803,7 +25803,7 @@
         <v>44220</v>
       </c>
       <c r="B1499" s="3" t="n">
-        <v>20.253369236964</v>
+        <v>20.2533692369643</v>
       </c>
       <c r="C1499" s="3" t="n">
         <v>22.039871009352</v>
@@ -25921,7 +25921,7 @@
         <v>18.7852473881334</v>
       </c>
       <c r="D1507" s="3" t="n">
-        <v>19.4415069541917</v>
+        <v>19.4415069541916</v>
       </c>
     </row>
     <row r="1508">
@@ -26142,7 +26142,7 @@
         <v>20.1985018726595</v>
       </c>
       <c r="C1523" s="3" t="n">
-        <v>21.8584611636298</v>
+        <v>21.8584611636301</v>
       </c>
       <c r="D1523" s="3" t="n">
         <v>21.4965952163119</v>
@@ -26187,7 +26187,7 @@
         <v>21.9176838002953</v>
       </c>
       <c r="D1526" s="3" t="n">
-        <v>21.6050945558739</v>
+        <v>21.6050945558738</v>
       </c>
     </row>
     <row r="1527">
@@ -26226,7 +26226,7 @@
         <v>20.254533102053</v>
       </c>
       <c r="C1529" s="3" t="n">
-        <v>22.0270555555554</v>
+        <v>22.0270555555549</v>
       </c>
       <c r="D1529" s="3" t="n">
         <v>21.7021039903268</v>
@@ -26422,7 +26422,7 @@
         <v>19.8927907367011</v>
       </c>
       <c r="C1543" s="3" t="n">
-        <v>20.6290695997113</v>
+        <v>20.629069599711</v>
       </c>
       <c r="D1543" s="3" t="n">
         <v>21.0130909090911</v>
@@ -26489,7 +26489,7 @@
         <v>44269</v>
       </c>
       <c r="B1548" s="3" t="n">
-        <v>20.1635210373599</v>
+        <v>20.1635210373594</v>
       </c>
       <c r="C1548" s="3" t="n">
         <v>21.7219643656545</v>
@@ -26789,7 +26789,7 @@
         <v>19.7099727693569</v>
       </c>
       <c r="D1569" s="3" t="n">
-        <v>20.0522772625898</v>
+        <v>20.0522772625897</v>
       </c>
     </row>
     <row r="1570">
@@ -27108,7 +27108,7 @@
         <v>20.2525134748648</v>
       </c>
       <c r="C1592" s="3" t="n">
-        <v>22.1172386292832</v>
+        <v>22.1172386292835</v>
       </c>
       <c r="D1592" s="3" t="n">
         <v>21.7289340767465</v>
@@ -27556,7 +27556,7 @@
         <v>20.2910141236398</v>
       </c>
       <c r="C1624" s="3" t="n">
-        <v>22.152337441006</v>
+        <v>22.1523374410067</v>
       </c>
       <c r="D1624" s="3" t="n">
         <v>21.7178089285717</v>
@@ -27805,7 +27805,7 @@
         <v>44363</v>
       </c>
       <c r="B1642" s="3" t="n">
-        <v>20.2139231209463</v>
+        <v>20.2139231209465</v>
       </c>
       <c r="C1642" s="3" t="n">
         <v>21.8603058280446</v>
@@ -29163,7 +29163,7 @@
         <v>44460</v>
       </c>
       <c r="B1739" s="3" t="n">
-        <v>20.1577308407355</v>
+        <v>20.1577308407356</v>
       </c>
       <c r="C1739" s="3" t="n">
         <v>22.306751740139</v>
@@ -29701,7 +29701,7 @@
         <v>22.3946683746087</v>
       </c>
       <c r="D1777" s="3" t="n">
-        <v>21.6618299839941</v>
+        <v>21.6618299839944</v>
       </c>
     </row>
     <row r="1778">
@@ -30454,7 +30454,7 @@
         <v>20.3326570915617</v>
       </c>
       <c r="C1831" s="3" t="n">
-        <v>22.4911002191209</v>
+        <v>22.4911002191212</v>
       </c>
       <c r="D1831" s="3" t="n">
         <v>21.8492405063291</v>
@@ -31193,7 +31193,7 @@
         <v>44605</v>
       </c>
       <c r="B1884" s="3" t="n">
-        <v>20.8337803410232</v>
+        <v>20.8337803410233</v>
       </c>
       <c r="C1884" s="3" t="n">
         <v>22.9469763532441</v>
@@ -31283,7 +31283,7 @@
         <v>22.9998168536944</v>
       </c>
       <c r="D1890" s="3" t="n">
-        <v>22.362122112657</v>
+        <v>22.3621221126567</v>
       </c>
     </row>
     <row r="1891">
@@ -31809,7 +31809,7 @@
         <v>44649</v>
       </c>
       <c r="B1928" s="3" t="n">
-        <v>21.376374745418</v>
+        <v>21.3763747454179</v>
       </c>
       <c r="C1928" s="3" t="n">
         <v>23.3456420043066</v>
@@ -31966,7 +31966,7 @@
         <v>21.4332101898852</v>
       </c>
       <c r="C1939" s="3" t="n">
-        <v>23.3720602422553</v>
+        <v>23.3720602422556</v>
       </c>
       <c r="D1939" s="3" t="n">
         <v>23.0755355071535</v>
@@ -32271,7 +32271,7 @@
         <v>44682</v>
       </c>
       <c r="B1961" s="3" t="n">
-        <v>21.4971280171094</v>
+        <v>21.4971280171098</v>
       </c>
       <c r="C1961" s="3" t="n">
         <v>23.469519711594</v>
@@ -32663,7 +32663,7 @@
         <v>44710</v>
       </c>
       <c r="B1989" s="3" t="n">
-        <v>21.7757055602361</v>
+        <v>21.775705560236</v>
       </c>
       <c r="C1989" s="3" t="n">
         <v>23.755672771673</v>
@@ -33394,7 +33394,7 @@
         <v>21.8305854943278</v>
       </c>
       <c r="C2041" s="3" t="n">
-        <v>23.8809113682455</v>
+        <v>23.8809113682456</v>
       </c>
       <c r="D2041" s="3" t="n">
         <v>23.4660896847262</v>
@@ -33971,7 +33971,7 @@
         <v>24.001515778583</v>
       </c>
       <c r="D2082" s="3" t="n">
-        <v>23.5403917779342</v>
+        <v>23.5403917779339</v>
       </c>
     </row>
     <row r="2083">
@@ -34293,7 +34293,7 @@
         <v>23.9931138180438</v>
       </c>
       <c r="D2105" s="3" t="n">
-        <v>23.5833397887325</v>
+        <v>23.5833397887326</v>
       </c>
     </row>
     <row r="2106">
@@ -34539,10 +34539,10 @@
         <v>44844</v>
       </c>
       <c r="B2123" s="3" t="n">
-        <v>21.8560565937</v>
+        <v>21.8560565936996</v>
       </c>
       <c r="C2123" s="3" t="n">
-        <v>24.0942937576502</v>
+        <v>24.0942937576504</v>
       </c>
       <c r="D2123" s="3" t="n">
         <v>23.630959658788</v>
@@ -34780,7 +34780,7 @@
         <v>21.971252543753</v>
       </c>
       <c r="C2140" s="3" t="n">
-        <v>24.2049141707116</v>
+        <v>24.2049141707114</v>
       </c>
       <c r="D2140" s="3" t="n">
         <v>23.7333414475821</v>
@@ -34945,7 +34945,7 @@
         <v>44873</v>
       </c>
       <c r="B2152" s="3" t="n">
-        <v>22.0361901181528</v>
+        <v>22.0361901181529</v>
       </c>
       <c r="C2152" s="3" t="n">
         <v>24.2793414969387</v>
@@ -34959,13 +34959,13 @@
         <v>44874</v>
       </c>
       <c r="B2153" s="3" t="n">
-        <v>22.0358693780937</v>
+        <v>22.0358693780936</v>
       </c>
       <c r="C2153" s="3" t="n">
         <v>24.285843260188</v>
       </c>
       <c r="D2153" s="3" t="n">
-        <v>23.754215200683</v>
+        <v>23.7542152006831</v>
       </c>
     </row>
     <row r="2154">
@@ -34987,10 +34987,10 @@
         <v>44876</v>
       </c>
       <c r="B2155" s="3" t="n">
-        <v>22.0330042824196</v>
+        <v>22.0330042824197</v>
       </c>
       <c r="C2155" s="3" t="n">
-        <v>24.2942600723135</v>
+        <v>24.2942600723139</v>
       </c>
       <c r="D2155" s="3" t="n">
         <v>23.7507528786541</v>
@@ -35074,7 +35074,7 @@
         <v>21.7763539842385</v>
       </c>
       <c r="C2161" s="3" t="n">
-        <v>24.1284548142433</v>
+        <v>24.1284548142436</v>
       </c>
       <c r="D2161" s="3" t="n">
         <v>23.7336338238036</v>
@@ -35172,7 +35172,7 @@
         <v>21.4939066694198</v>
       </c>
       <c r="C2168" s="3" t="n">
-        <v>23.9409446891829</v>
+        <v>23.9409446891821</v>
       </c>
       <c r="D2168" s="3" t="n">
         <v>23.7178571428573</v>
@@ -35186,7 +35186,7 @@
         <v>21.4550051727708</v>
       </c>
       <c r="C2169" s="3" t="n">
-        <v>23.9056482387467</v>
+        <v>23.9056482387469</v>
       </c>
       <c r="D2169" s="3" t="n">
         <v>23.7169640810089</v>
@@ -35197,10 +35197,10 @@
         <v>44891</v>
       </c>
       <c r="B2170" s="3" t="n">
-        <v>21.4712444490343</v>
+        <v>21.471244449035</v>
       </c>
       <c r="C2170" s="3" t="n">
-        <v>23.9177286172046</v>
+        <v>23.9177286172036</v>
       </c>
       <c r="D2170" s="3" t="n">
         <v>23.7184172521468</v>
@@ -35214,7 +35214,7 @@
         <v>21.4762336039976</v>
       </c>
       <c r="C2171" s="3" t="n">
-        <v>23.9243956043953</v>
+        <v>23.9243956043945</v>
       </c>
       <c r="D2171" s="3" t="n">
         <v>23.7085430202796</v>
@@ -35228,7 +35228,7 @@
         <v>21.4768132214065</v>
       </c>
       <c r="C2172" s="3" t="n">
-        <v>23.9189846384409</v>
+        <v>23.9189846384402</v>
       </c>
       <c r="D2172" s="3" t="n">
         <v>23.7053618552579</v>
@@ -35242,7 +35242,7 @@
         <v>21.4819144730001</v>
       </c>
       <c r="C2173" s="3" t="n">
-        <v>23.9206533036372</v>
+        <v>23.9206533036366</v>
       </c>
       <c r="D2173" s="3" t="n">
         <v>23.7061493007682</v>
@@ -35312,7 +35312,7 @@
         <v>21.4933597084854</v>
       </c>
       <c r="C2178" s="3" t="n">
-        <v>23.9029596961898</v>
+        <v>23.9029596961897</v>
       </c>
       <c r="D2178" s="3" t="n">
         <v>23.6688048683162</v>
@@ -35323,7 +35323,7 @@
         <v>44900</v>
       </c>
       <c r="B2179" s="3" t="n">
-        <v>21.4945895483469</v>
+        <v>21.494589548347</v>
       </c>
       <c r="C2179" s="3" t="n">
         <v>23.9083874538739</v>
@@ -35365,7 +35365,7 @@
         <v>44903</v>
       </c>
       <c r="B2182" s="3" t="n">
-        <v>21.467963232239</v>
+        <v>21.4679632322395</v>
       </c>
       <c r="C2182" s="3" t="n">
         <v>23.9072162557966</v>
@@ -35379,7 +35379,7 @@
         <v>44904</v>
       </c>
       <c r="B2183" s="3" t="n">
-        <v>21.4412523267837</v>
+        <v>21.4412523267838</v>
       </c>
       <c r="C2183" s="3" t="n">
         <v>23.8958494466732</v>
@@ -35435,7 +35435,7 @@
         <v>44908</v>
       </c>
       <c r="B2187" s="3" t="n">
-        <v>21.3991946929958</v>
+        <v>21.3991946929961</v>
       </c>
       <c r="C2187" s="3" t="n">
         <v>23.8585586131653</v>
@@ -35634,7 +35634,7 @@
         <v>21.6344103114933</v>
       </c>
       <c r="C2201" s="3" t="n">
-        <v>23.9467271313811</v>
+        <v>23.9467271313815</v>
       </c>
       <c r="D2201" s="3" t="n">
         <v>23.7019730278961</v>
@@ -35659,7 +35659,7 @@
         <v>44924</v>
       </c>
       <c r="B2203" s="3" t="n">
-        <v>21.6646165349286</v>
+        <v>21.6646165349288</v>
       </c>
       <c r="C2203" s="3" t="n">
         <v>23.9806887124073</v>
@@ -35732,7 +35732,7 @@
         <v>21.7265296851893</v>
       </c>
       <c r="C2208" s="3" t="n">
-        <v>24.0072125567325</v>
+        <v>24.0072125567326</v>
       </c>
       <c r="D2208" s="3" t="n">
         <v>23.727036294</v>
@@ -36096,7 +36096,7 @@
         <v>21.8108934010153</v>
       </c>
       <c r="C2234" s="3" t="n">
-        <v>24.126998939555</v>
+        <v>24.1269989395548</v>
       </c>
       <c r="D2234" s="3" t="n">
         <v>23.7667073170735</v>
@@ -36446,7 +36446,7 @@
         <v>21.7910112359546</v>
       </c>
       <c r="C2259" s="3" t="n">
-        <v>24.0741852001619</v>
+        <v>24.0741852001616</v>
       </c>
       <c r="D2259" s="3" t="n">
         <v>23.6383067729087</v>
@@ -36530,7 +36530,7 @@
         <v>21.7808661417326</v>
       </c>
       <c r="C2265" s="3" t="n">
-        <v>24.0768723524431</v>
+        <v>24.076872352443</v>
       </c>
       <c r="D2265" s="3" t="n">
         <v>23.6702675207238</v>
@@ -36729,7 +36729,7 @@
         <v>24.1743070908594</v>
       </c>
       <c r="D2279" s="3" t="n">
-        <v>23.7419872588924</v>
+        <v>23.7419872588923</v>
       </c>
     </row>
     <row r="2280">
@@ -37020,7 +37020,7 @@
         <v>21.938068747723</v>
       </c>
       <c r="C2300" s="3" t="n">
-        <v>24.2279651006712</v>
+        <v>24.227965100671</v>
       </c>
       <c r="D2300" s="3" t="n">
         <v>23.6673416683749</v>
@@ -37059,7 +37059,7 @@
         <v>45024</v>
       </c>
       <c r="B2303" s="3" t="n">
-        <v>21.9444962990844</v>
+        <v>21.9444962990842</v>
       </c>
       <c r="C2303" s="3" t="n">
         <v>24.2198352485119</v>
@@ -37090,10 +37090,10 @@
         <v>21.9534350854973</v>
       </c>
       <c r="C2305" s="3" t="n">
-        <v>24.2272523469247</v>
+        <v>24.2272523469243</v>
       </c>
       <c r="D2305" s="3" t="n">
-        <v>23.7029696163231</v>
+        <v>23.702969616323</v>
       </c>
     </row>
     <row r="2306">
@@ -37118,7 +37118,7 @@
         <v>21.9845492737968</v>
       </c>
       <c r="C2307" s="3" t="n">
-        <v>24.2409735818696</v>
+        <v>24.2409735818694</v>
       </c>
       <c r="D2307" s="3" t="n">
         <v>23.7397898207298</v>
@@ -37233,7 +37233,7 @@
         <v>24.2717848347374</v>
       </c>
       <c r="D2315" s="3" t="n">
-        <v>23.7182291457289</v>
+        <v>23.718229145729</v>
       </c>
     </row>
     <row r="2316">
@@ -37244,7 +37244,7 @@
         <v>22.0198817966908</v>
       </c>
       <c r="C2316" s="3" t="n">
-        <v>24.274140625</v>
+        <v>24.2741406250001</v>
       </c>
       <c r="D2316" s="3" t="n">
         <v>23.7184030571201</v>
@@ -37258,7 +37258,7 @@
         <v>22.0084944532494</v>
       </c>
       <c r="C2317" s="3" t="n">
-        <v>24.2744407894737</v>
+        <v>24.2744407894735</v>
       </c>
       <c r="D2317" s="3" t="n">
         <v>23.7117139979862</v>
@@ -37300,7 +37300,7 @@
         <v>21.958260672117</v>
       </c>
       <c r="C2320" s="3" t="n">
-        <v>24.2623905813489</v>
+        <v>24.262390581349</v>
       </c>
       <c r="D2320" s="3" t="n">
         <v>23.6893641851109</v>
@@ -37412,7 +37412,7 @@
         <v>21.9601535531489</v>
       </c>
       <c r="C2328" s="3" t="n">
-        <v>24.2983783391409</v>
+        <v>24.2983783391404</v>
       </c>
       <c r="D2328" s="3" t="n">
         <v>23.6740489245046</v>
@@ -37507,7 +37507,7 @@
         <v>45056</v>
       </c>
       <c r="B2335" s="3" t="n">
-        <v>21.9117224880385</v>
+        <v>21.9117224880383</v>
       </c>
       <c r="C2335" s="3" t="n">
         <v>24.2463511990985</v>
@@ -37661,7 +37661,7 @@
         <v>45067</v>
       </c>
       <c r="B2346" s="3" t="n">
-        <v>21.9236750338196</v>
+        <v>21.9236750338193</v>
       </c>
       <c r="C2346" s="3" t="n">
         <v>24.209685719898</v>
@@ -38325,7 +38325,7 @@
         <v>24.2369466106778</v>
       </c>
       <c r="D2393" s="3" t="n">
-        <v>23.7427954830615</v>
+        <v>23.7427954830613</v>
       </c>
     </row>
     <row r="2394">
@@ -38389,7 +38389,7 @@
         <v>45119</v>
       </c>
       <c r="B2398" s="3" t="n">
-        <v>22.0504457423916</v>
+        <v>22.0504457423915</v>
       </c>
       <c r="C2398" s="3" t="n">
         <v>24.3059147629104</v>
@@ -38487,13 +38487,13 @@
         <v>45126</v>
       </c>
       <c r="B2405" s="3" t="n">
-        <v>22.1283676366217</v>
+        <v>22.1283676366218</v>
       </c>
       <c r="C2405" s="3" t="n">
         <v>24.3533763401782</v>
       </c>
       <c r="D2405" s="3" t="n">
-        <v>23.8313971920288</v>
+        <v>23.8313971920289</v>
       </c>
     </row>
     <row r="2406">
@@ -38529,7 +38529,7 @@
         <v>45129</v>
       </c>
       <c r="B2408" s="3" t="n">
-        <v>22.1720155146143</v>
+        <v>22.1720155146144</v>
       </c>
       <c r="C2408" s="3" t="n">
         <v>24.3862172011661</v>
@@ -38655,10 +38655,10 @@
         <v>45138</v>
       </c>
       <c r="B2417" s="3" t="n">
-        <v>22.2113769141677</v>
+        <v>22.2113769141678</v>
       </c>
       <c r="C2417" s="3" t="n">
-        <v>24.4197904044539</v>
+        <v>24.4197904044536</v>
       </c>
       <c r="D2417" s="3" t="n">
         <v>23.9574024390242</v>
@@ -38683,10 +38683,10 @@
         <v>45140</v>
       </c>
       <c r="B2419" s="3" t="n">
-        <v>22.2258698120344</v>
+        <v>22.2258698120347</v>
       </c>
       <c r="C2419" s="3" t="n">
-        <v>24.4367981694806</v>
+        <v>24.4367981694808</v>
       </c>
       <c r="D2419" s="3" t="n">
         <v>23.9803514252244</v>
@@ -38854,7 +38854,7 @@
         <v>22.2985217065865</v>
       </c>
       <c r="C2431" s="3" t="n">
-        <v>24.48380397639</v>
+        <v>24.4838039763899</v>
       </c>
       <c r="D2431" s="3" t="n">
         <v>24.0328475863315</v>
@@ -39019,7 +39019,7 @@
         <v>45164</v>
       </c>
       <c r="B2443" s="3" t="n">
-        <v>22.3346332046333</v>
+        <v>22.334633204633</v>
       </c>
       <c r="C2443" s="3" t="n">
         <v>24.5130482821251</v>
@@ -39106,7 +39106,7 @@
         <v>22.326517083121</v>
       </c>
       <c r="C2449" s="3" t="n">
-        <v>24.516258958433</v>
+        <v>24.5162589584331</v>
       </c>
       <c r="D2449" s="3" t="n">
         <v>24.1023441860464</v>
@@ -39361,7 +39361,7 @@
         <v>24.6211926759616</v>
       </c>
       <c r="D2467" s="3" t="n">
-        <v>24.1917985333846</v>
+        <v>24.1917985333847</v>
       </c>
     </row>
     <row r="2468">
@@ -39638,7 +39638,7 @@
         <v>22.2286161841128</v>
       </c>
       <c r="C2487" s="3" t="n">
-        <v>24.6002839683683</v>
+        <v>24.6002839683684</v>
       </c>
       <c r="D2487" s="3" t="n">
         <v>24.1760556745181</v>
@@ -39848,7 +39848,7 @@
         <v>22.3740166949632</v>
       </c>
       <c r="C2502" s="3" t="n">
-        <v>24.6040648292598</v>
+        <v>24.6040648292602</v>
       </c>
       <c r="D2502" s="3" t="n">
         <v>24.2589735167317</v>
@@ -39929,13 +39929,13 @@
         <v>45229</v>
       </c>
       <c r="B2508" s="3" t="n">
-        <v>22.4090664724576</v>
+        <v>22.4090664724575</v>
       </c>
       <c r="C2508" s="3" t="n">
         <v>24.6050134363454</v>
       </c>
       <c r="D2508" s="3" t="n">
-        <v>24.2301620000001</v>
+        <v>24.230162</v>
       </c>
     </row>
     <row r="2509">
@@ -39960,7 +39960,7 @@
         <v>22.3716740837697</v>
       </c>
       <c r="C2510" s="3" t="n">
-        <v>24.5850339347791</v>
+        <v>24.5850339347793</v>
       </c>
       <c r="D2510" s="3" t="n">
         <v>24.2064366448543</v>
@@ -40016,7 +40016,7 @@
         <v>22.2924071166927</v>
       </c>
       <c r="C2514" s="3" t="n">
-        <v>24.5227295534371</v>
+        <v>24.5227295534369</v>
       </c>
       <c r="D2514" s="3" t="n">
         <v>24.1791790744467</v>
@@ -40069,7 +40069,7 @@
         <v>45239</v>
       </c>
       <c r="B2518" s="3" t="n">
-        <v>22.2401199535663</v>
+        <v>22.2401199535665</v>
       </c>
       <c r="C2518" s="3" t="n">
         <v>24.4417487046634</v>
@@ -40131,7 +40131,7 @@
         <v>24.3751967479676</v>
       </c>
       <c r="D2522" s="3" t="n">
-        <v>24.107493069307</v>
+        <v>24.1074930693067</v>
       </c>
     </row>
     <row r="2523">
@@ -40184,7 +40184,7 @@
         <v>22.2278766859346</v>
       </c>
       <c r="C2526" s="3" t="n">
-        <v>24.344318584071</v>
+        <v>24.3443185840706</v>
       </c>
       <c r="D2526" s="3" t="n">
         <v>24.0827759871071</v>
@@ -40212,7 +40212,7 @@
         <v>22.206071904128</v>
       </c>
       <c r="C2528" s="3" t="n">
-        <v>24.3034668439423</v>
+        <v>24.3034668439425</v>
       </c>
       <c r="D2528" s="3" t="n">
         <v>24.0594274159217</v>
@@ -40265,7 +40265,7 @@
         <v>45253</v>
       </c>
       <c r="B2532" s="3" t="n">
-        <v>22.1835509285314</v>
+        <v>22.1835509285312</v>
       </c>
       <c r="C2532" s="3" t="n">
         <v>24.2541841736693</v>
@@ -40352,7 +40352,7 @@
         <v>22.1767749891191</v>
       </c>
       <c r="C2538" s="3" t="n">
-        <v>24.2457945370212</v>
+        <v>24.2457945370208</v>
       </c>
       <c r="D2538" s="3" t="n">
         <v>24.0880102159275</v>
@@ -40464,7 +40464,7 @@
         <v>22.1525334215753</v>
       </c>
       <c r="C2546" s="3" t="n">
-        <v>24.2410446631337</v>
+        <v>24.2410446631341</v>
       </c>
       <c r="D2546" s="3" t="n">
         <v>24.1247381650606</v>
@@ -40783,7 +40783,7 @@
         <v>45290</v>
       </c>
       <c r="B2569" s="3" t="n">
-        <v>22.0943550605061</v>
+        <v>22.0943550605058</v>
       </c>
       <c r="C2569" s="3" t="n">
         <v>24.0574479166667</v>
@@ -40842,7 +40842,7 @@
         <v>22.1149926832513</v>
       </c>
       <c r="C2573" s="3" t="n">
-        <v>24.0701276923076</v>
+        <v>24.0701276923074</v>
       </c>
       <c r="D2573" s="3" t="n">
         <v>24.1935555096986</v>
@@ -41007,7 +41007,7 @@
         <v>45306</v>
       </c>
       <c r="B2585" s="3" t="n">
-        <v>22.1711832539485</v>
+        <v>22.1711832539482</v>
       </c>
       <c r="C2585" s="3" t="n">
         <v>24.0859462778203</v>
@@ -41335,7 +41335,7 @@
         <v>24.4935913978495</v>
       </c>
       <c r="D2608" s="3" t="n">
-        <v>24.706612138454</v>
+        <v>24.7066121384544</v>
       </c>
     </row>
     <row r="2609">
@@ -41455,7 +41455,7 @@
         <v>45338</v>
       </c>
       <c r="B2617" s="3" t="n">
-        <v>23.0759524039857</v>
+        <v>23.0759524039858</v>
       </c>
       <c r="C2617" s="3" t="n">
         <v>24.6607880268787</v>
@@ -41559,7 +41559,7 @@
         <v>24.6974336672904</v>
       </c>
       <c r="D2624" s="3" t="n">
-        <v>24.9152644295302</v>
+        <v>24.9152644295304</v>
       </c>
     </row>
     <row r="2625">
@@ -41584,7 +41584,7 @@
         <v>23.096754307251</v>
       </c>
       <c r="C2626" s="3" t="n">
-        <v>24.7121864073425</v>
+        <v>24.7121864073426</v>
       </c>
       <c r="D2626" s="3" t="n">
         <v>24.9260208305516</v>
@@ -41595,13 +41595,13 @@
         <v>45348</v>
       </c>
       <c r="B2627" s="3" t="n">
-        <v>23.1027637696711</v>
+        <v>23.1027637696714</v>
       </c>
       <c r="C2627" s="3" t="n">
         <v>24.7193698392003</v>
       </c>
       <c r="D2627" s="3" t="n">
-        <v>24.9225179473543</v>
+        <v>24.9225179473546</v>
       </c>
     </row>
     <row r="2628">
@@ -41609,7 +41609,7 @@
         <v>45349</v>
       </c>
       <c r="B2628" s="3" t="n">
-        <v>23.1022538721741</v>
+        <v>23.1022538721742</v>
       </c>
       <c r="C2628" s="3" t="n">
         <v>24.7267253103075</v>
@@ -41626,7 +41626,7 @@
         <v>23.1117484065161</v>
       </c>
       <c r="C2629" s="3" t="n">
-        <v>24.7437228696674</v>
+        <v>24.7437228696672</v>
       </c>
       <c r="D2629" s="3" t="n">
         <v>24.9213105712412</v>
@@ -41637,7 +41637,7 @@
         <v>45351</v>
       </c>
       <c r="B2630" s="3" t="n">
-        <v>23.1141939468808</v>
+        <v>23.1141939468812</v>
       </c>
       <c r="C2630" s="3" t="n">
         <v>24.755985386</v>
@@ -41649,7 +41649,7 @@
     <row r="2631">
       <c r="A2631" s="16"/>
       <c r="B2631" s="3" t="n">
-        <v>23.1132447650891</v>
+        <v>23.1132447650894</v>
       </c>
       <c r="C2631" s="3" t="n">
         <v>24.7630509366447</v>
@@ -41661,7 +41661,7 @@
     <row r="2632">
       <c r="A2632" s="16"/>
       <c r="B2632" s="3" t="n">
-        <v>23.1141850927248</v>
+        <v>23.1141850927251</v>
       </c>
       <c r="C2632" s="3" t="n">
         <v>24.7693619957537</v>
@@ -41673,7 +41673,7 @@
     <row r="2633">
       <c r="A2633" s="16"/>
       <c r="B2633" s="3" t="n">
-        <v>23.1113831893451</v>
+        <v>23.1113831893452</v>
       </c>
       <c r="C2633" s="3" t="n">
         <v>24.7652072789922</v>
@@ -41697,7 +41697,7 @@
     <row r="2635">
       <c r="A2635" s="16"/>
       <c r="B2635" s="3" t="n">
-        <v>23.1188811881188</v>
+        <v>23.118881188119</v>
       </c>
       <c r="C2635" s="3" t="n">
         <v>24.7861254651782</v>
@@ -41721,13 +41721,13 @@
     <row r="2637">
       <c r="A2637" s="16"/>
       <c r="B2637" s="3" t="n">
-        <v>23.1097739504847</v>
+        <v>23.1097739504846</v>
       </c>
       <c r="C2637" s="3" t="n">
         <v>24.8058350015806</v>
       </c>
       <c r="D2637" s="3" t="n">
-        <v>24.9121835185688</v>
+        <v>24.9121835185687</v>
       </c>
     </row>
     <row r="2638">
@@ -41760,7 +41760,7 @@
         <v>23.0951575905357</v>
       </c>
       <c r="C2640" s="3" t="n">
-        <v>24.8048468410979</v>
+        <v>24.8048468410978</v>
       </c>
       <c r="D2640" s="3" t="n">
         <v>24.9183015764222</v>
@@ -41796,7 +41796,7 @@
         <v>23.0795831789553</v>
       </c>
       <c r="C2643" s="3" t="n">
-        <v>24.8279722461278</v>
+        <v>24.8279722461277</v>
       </c>
       <c r="D2643" s="3" t="n">
         <v>24.9119316094391</v>
@@ -41805,7 +41805,7 @@
     <row r="2644">
       <c r="A2644" s="16"/>
       <c r="B2644" s="3" t="n">
-        <v>23.0655835782691</v>
+        <v>23.0655835782689</v>
       </c>
       <c r="C2644" s="3" t="n">
         <v>24.8417528236321</v>
@@ -41949,7 +41949,7 @@
     <row r="2656">
       <c r="A2656" s="16"/>
       <c r="B2656" s="3" t="n">
-        <v>23.3595702087288</v>
+        <v>23.3595702087292</v>
       </c>
       <c r="C2656" s="3" t="n">
         <v>25.1689275568177</v>
@@ -42033,7 +42033,7 @@
     <row r="2663">
       <c r="A2663" s="16"/>
       <c r="B2663" s="3" t="n">
-        <v>23.2989195666769</v>
+        <v>23.2989195666768</v>
       </c>
       <c r="C2663" s="3" t="n">
         <v>25.1473121533026</v>
@@ -42108,7 +42108,7 @@
         <v>23.3795133320907</v>
       </c>
       <c r="C2669" s="3" t="n">
-        <v>25.2067611496529</v>
+        <v>25.2067611496526</v>
       </c>
       <c r="D2669" s="3" t="n">
         <v>25.117562676161</v>
@@ -42129,7 +42129,7 @@
     <row r="2671">
       <c r="A2671" s="16"/>
       <c r="B2671" s="3" t="n">
-        <v>23.4138025075506</v>
+        <v>23.4138025075504</v>
       </c>
       <c r="C2671" s="3" t="n">
         <v>25.2162389078493</v>
@@ -42207,7 +42207,7 @@
         <v>25.2366663264264</v>
       </c>
       <c r="D2677" s="3" t="n">
-        <v>25.1764768056372</v>
+        <v>25.1764768056373</v>
       </c>
     </row>
     <row r="2678">
@@ -42225,7 +42225,7 @@
     <row r="2679">
       <c r="A2679" s="16"/>
       <c r="B2679" s="3" t="n">
-        <v>23.4726159345313</v>
+        <v>23.4726159345312</v>
       </c>
       <c r="C2679" s="3" t="n">
         <v>25.276980127023</v>
@@ -42237,7 +42237,7 @@
     <row r="2680">
       <c r="A2680" s="16"/>
       <c r="B2680" s="3" t="n">
-        <v>23.4943159904536</v>
+        <v>23.4943159904539</v>
       </c>
       <c r="C2680" s="3" t="n">
         <v>25.3061982447087</v>
@@ -42315,7 +42315,7 @@
         <v>25.3184819819823</v>
       </c>
       <c r="D2686" s="3" t="n">
-        <v>25.171712307208</v>
+        <v>25.1717123072081</v>
       </c>
     </row>
     <row r="2687">
@@ -42339,7 +42339,7 @@
         <v>25.3378906781586</v>
       </c>
       <c r="D2688" s="3" t="n">
-        <v>25.1698928458871</v>
+        <v>25.1698928458872</v>
       </c>
     </row>
     <row r="2689">
@@ -42360,7 +42360,7 @@
         <v>23.5137945205476</v>
       </c>
       <c r="C2690" s="3" t="n">
-        <v>25.3531775075312</v>
+        <v>25.3531775075313</v>
       </c>
       <c r="D2690" s="3" t="n">
         <v>25.186905165767</v>
@@ -42393,7 +42393,7 @@
     <row r="2693">
       <c r="A2693" s="16"/>
       <c r="B2693" s="3" t="n">
-        <v>23.5555344463629</v>
+        <v>23.5555344463634</v>
       </c>
       <c r="C2693" s="3" t="n">
         <v>25.3702951216827</v>
@@ -42405,7 +42405,7 @@
     <row r="2694">
       <c r="A2694" s="16"/>
       <c r="B2694" s="3" t="n">
-        <v>23.5628568693149</v>
+        <v>23.5628568693156</v>
       </c>
       <c r="C2694" s="3" t="n">
         <v>25.3746794942277</v>
@@ -42417,7 +42417,7 @@
     <row r="2695">
       <c r="A2695" s="16"/>
       <c r="B2695" s="3" t="n">
-        <v>23.5625247713409</v>
+        <v>23.5625247713415</v>
       </c>
       <c r="C2695" s="3" t="n">
         <v>25.3640139921295</v>
@@ -42432,7 +42432,7 @@
         <v>23.5568641480632</v>
       </c>
       <c r="C2696" s="3" t="n">
-        <v>25.3593630573249</v>
+        <v>25.3593630573248</v>
       </c>
       <c r="D2696" s="3" t="n">
         <v>25.1939303407893</v>
@@ -42456,7 +42456,7 @@
         <v>23.5309892033845</v>
       </c>
       <c r="C2698" s="3" t="n">
-        <v>25.3594774027144</v>
+        <v>25.3594774027138</v>
       </c>
       <c r="D2698" s="3" t="n">
         <v>25.1645932570365</v>
@@ -42480,7 +42480,7 @@
         <v>23.4805439620212</v>
       </c>
       <c r="C2700" s="3" t="n">
-        <v>25.3426408450711</v>
+        <v>25.3426408450704</v>
       </c>
       <c r="D2700" s="3" t="n">
         <v>25.1333517874089</v>
@@ -42489,7 +42489,7 @@
     <row r="2701">
       <c r="A2701" s="16"/>
       <c r="B2701" s="3" t="n">
-        <v>23.4600989010983</v>
+        <v>23.4600989010987</v>
       </c>
       <c r="C2701" s="3" t="n">
         <v>25.327913693901</v>
@@ -42501,7 +42501,7 @@
     <row r="2702">
       <c r="A2702" s="16"/>
       <c r="B2702" s="3" t="n">
-        <v>23.4492069417819</v>
+        <v>23.4492069417812</v>
       </c>
       <c r="C2702" s="3" t="n">
         <v>25.3134425848442</v>
@@ -42525,7 +42525,7 @@
     <row r="2704">
       <c r="A2704" s="16"/>
       <c r="B2704" s="3" t="n">
-        <v>23.4522814784304</v>
+        <v>23.4522814784302</v>
       </c>
       <c r="C2704" s="3" t="n">
         <v>25.3104898929845</v>
@@ -42549,7 +42549,7 @@
     <row r="2706">
       <c r="A2706" s="16"/>
       <c r="B2706" s="3" t="n">
-        <v>23.4521054250841</v>
+        <v>23.4521054250839</v>
       </c>
       <c r="C2706" s="3" t="n">
         <v>25.2954713405975</v>
@@ -42609,7 +42609,7 @@
     <row r="2711">
       <c r="A2711" s="16"/>
       <c r="B2711" s="3" t="n">
-        <v>23.4617167381977</v>
+        <v>23.4617167381964</v>
       </c>
       <c r="C2711" s="3" t="n">
         <v>25.2258398932621</v>
@@ -42660,7 +42660,7 @@
         <v>23.4976923076915</v>
       </c>
       <c r="C2715" s="3" t="n">
-        <v>25.206254831401</v>
+        <v>25.2062548314009</v>
       </c>
       <c r="D2715" s="3" t="n">
         <v>25.013973607038</v>
@@ -42669,7 +42669,7 @@
     <row r="2716">
       <c r="A2716" s="16"/>
       <c r="B2716" s="3" t="n">
-        <v>23.4999876847282</v>
+        <v>23.4999876847292</v>
       </c>
       <c r="C2716" s="3" t="n">
         <v>25.1981978228735</v>
@@ -42708,7 +42708,7 @@
         <v>23.4496854226016</v>
       </c>
       <c r="C2719" s="3" t="n">
-        <v>25.1496205962063</v>
+        <v>25.149620596207</v>
       </c>
       <c r="D2719" s="3" t="n">
         <v>24.9733216374268</v>
@@ -42768,7 +42768,7 @@
         <v>23.3965916357593</v>
       </c>
       <c r="C2724" s="3" t="n">
-        <v>25.1027387277983</v>
+        <v>25.1027387277976</v>
       </c>
       <c r="D2724" s="3" t="n">
         <v>24.9335225130888</v>
@@ -42819,7 +42819,7 @@
         <v>25.0898390525368</v>
       </c>
       <c r="D2728" s="3" t="n">
-        <v>24.9188612923594</v>
+        <v>24.9188612923592</v>
       </c>
     </row>
     <row r="2729">
@@ -42852,7 +42852,7 @@
         <v>23.3742446233015</v>
       </c>
       <c r="C2731" s="3" t="n">
-        <v>25.0667134052396</v>
+        <v>25.0667134052398</v>
       </c>
       <c r="D2731" s="3" t="n">
         <v>24.8915943274599</v>
@@ -42912,7 +42912,7 @@
         <v>23.4791420619558</v>
       </c>
       <c r="C2736" s="3" t="n">
-        <v>25.1285988455991</v>
+        <v>25.1285988455997</v>
       </c>
       <c r="D2736" s="3" t="n">
         <v>25.072601422803</v>
@@ -42939,7 +42939,7 @@
         <v>25.1584885177459</v>
       </c>
       <c r="D2738" s="3" t="n">
-        <v>25.1926269237575</v>
+        <v>25.1926269237571</v>
       </c>
     </row>
     <row r="2739">
@@ -42993,7 +42993,7 @@
     <row r="2743">
       <c r="A2743" s="16"/>
       <c r="B2743" s="3" t="n">
-        <v>23.6569035691923</v>
+        <v>23.6569035691921</v>
       </c>
       <c r="C2743" s="3" t="n">
         <v>25.2145256327061</v>
@@ -43017,10 +43017,10 @@
     <row r="2745">
       <c r="A2745" s="16"/>
       <c r="B2745" s="3" t="n">
-        <v>23.6881794950422</v>
+        <v>23.6881794950424</v>
       </c>
       <c r="C2745" s="3" t="n">
-        <v>25.2463437301082</v>
+        <v>25.2463437301083</v>
       </c>
       <c r="D2745" s="3" t="n">
         <v>25.3859240655932</v>
@@ -43047,7 +43047,7 @@
         <v>25.2635717877797</v>
       </c>
       <c r="D2747" s="3" t="n">
-        <v>25.4144676559575</v>
+        <v>25.4144676559572</v>
       </c>
     </row>
     <row r="2748">
@@ -43071,7 +43071,7 @@
         <v>25.2933708828207</v>
       </c>
       <c r="D2749" s="3" t="n">
-        <v>25.4463355592654</v>
+        <v>25.4463355592651</v>
       </c>
     </row>
     <row r="2750">
@@ -43101,7 +43101,7 @@
     <row r="2752">
       <c r="A2752" s="16"/>
       <c r="B2752" s="3" t="n">
-        <v>23.7866128724215</v>
+        <v>23.7866128724218</v>
       </c>
       <c r="C2752" s="3" t="n">
         <v>25.3359502558605</v>
@@ -43113,7 +43113,7 @@
     <row r="2753">
       <c r="A2753" s="16"/>
       <c r="B2753" s="3" t="n">
-        <v>23.7878519510328</v>
+        <v>23.787851951033</v>
       </c>
       <c r="C2753" s="3" t="n">
         <v>25.3368510790504</v>
@@ -43284,7 +43284,7 @@
         <v>23.9302765579748</v>
       </c>
       <c r="C2767" s="3" t="n">
-        <v>25.5216600151002</v>
+        <v>25.5216600151</v>
       </c>
       <c r="D2767" s="3" t="n">
         <v>25.5984446453946</v>
@@ -43431,7 +43431,7 @@
         <v>25.4943755803156</v>
       </c>
       <c r="D2779" s="3" t="n">
-        <v>25.5953908197686</v>
+        <v>25.5953908197684</v>
       </c>
     </row>
     <row r="2780">
@@ -43764,7 +43764,7 @@
         <v>24.0357632845298</v>
       </c>
       <c r="C2807" s="3" t="n">
-        <v>25.5761196189552</v>
+        <v>25.5761196189553</v>
       </c>
       <c r="D2807" s="3" t="n">
         <v>25.5662672008362</v>
@@ -43917,7 +43917,7 @@
     <row r="2820">
       <c r="A2820" s="16"/>
       <c r="B2820" s="3" t="n">
-        <v>24.0742842865077</v>
+        <v>24.074284286507</v>
       </c>
       <c r="C2820" s="3" t="n">
         <v>25.5400165436498</v>
@@ -44028,10 +44028,10 @@
         <v>23.8759870936902</v>
       </c>
       <c r="C2829" s="3" t="n">
-        <v>25.3724549453663</v>
+        <v>25.3724549453671</v>
       </c>
       <c r="D2829" s="3" t="n">
-        <v>25.5157843526608</v>
+        <v>25.5157843526607</v>
       </c>
     </row>
     <row r="2830">
@@ -44181,7 +44181,7 @@
     <row r="2842">
       <c r="A2842" s="16"/>
       <c r="B2842" s="3" t="n">
-        <v>23.7865862111647</v>
+        <v>23.7865862111648</v>
       </c>
       <c r="C2842" s="3" t="n">
         <v>25.2145027624306</v>
@@ -44587,184 +44587,364 @@
       </c>
     </row>
     <row r="2876">
-      <c r="A2876" s="6"/>
-      <c r="B2876" s="3"/>
-      <c r="C2876" s="3"/>
-      <c r="D2876" s="3"/>
+      <c r="A2876" s="16"/>
+      <c r="B2876" s="3" t="n">
+        <v>23.8262556026653</v>
+      </c>
+      <c r="C2876" s="3" t="n">
+        <v>25.2152954545453</v>
+      </c>
+      <c r="D2876" s="3" t="n">
+        <v>25.4746242436069</v>
+      </c>
     </row>
     <row r="2877">
-      <c r="A2877" s="6"/>
-      <c r="B2877" s="3"/>
-      <c r="C2877" s="3"/>
-      <c r="D2877" s="3"/>
+      <c r="A2877" s="16"/>
+      <c r="B2877" s="3" t="n">
+        <v>23.8261225728159</v>
+      </c>
+      <c r="C2877" s="3" t="n">
+        <v>25.2163403157254</v>
+      </c>
+      <c r="D2877" s="3" t="n">
+        <v>25.4733137944506</v>
+      </c>
     </row>
     <row r="2878">
-      <c r="A2878" s="6"/>
-      <c r="B2878" s="3"/>
-      <c r="C2878" s="3"/>
-      <c r="D2878" s="3"/>
+      <c r="A2878" s="16"/>
+      <c r="B2878" s="3" t="n">
+        <v>23.8237042905903</v>
+      </c>
+      <c r="C2878" s="3" t="n">
+        <v>25.2094383057087</v>
+      </c>
+      <c r="D2878" s="3" t="n">
+        <v>25.4724447513809</v>
+      </c>
     </row>
     <row r="2879">
-      <c r="A2879" s="6"/>
-      <c r="B2879" s="3"/>
-      <c r="C2879" s="3"/>
-      <c r="D2879" s="3"/>
+      <c r="A2879" s="16"/>
+      <c r="B2879" s="3" t="n">
+        <v>23.8183761638739</v>
+      </c>
+      <c r="C2879" s="3" t="n">
+        <v>25.2060819262036</v>
+      </c>
+      <c r="D2879" s="3" t="n">
+        <v>25.4695605057191</v>
+      </c>
     </row>
     <row r="2880">
-      <c r="A2880" s="6"/>
-      <c r="B2880" s="3"/>
-      <c r="C2880" s="3"/>
-      <c r="D2880" s="3"/>
+      <c r="A2880" s="16"/>
+      <c r="B2880" s="3" t="n">
+        <v>23.8187686196629</v>
+      </c>
+      <c r="C2880" s="3" t="n">
+        <v>25.2069643972514</v>
+      </c>
+      <c r="D2880" s="3" t="n">
+        <v>25.4771688675466</v>
+      </c>
     </row>
     <row r="2881">
-      <c r="A2881" s="6"/>
-      <c r="B2881" s="3"/>
-      <c r="C2881" s="3"/>
-      <c r="D2881" s="3"/>
+      <c r="A2881" s="16"/>
+      <c r="B2881" s="3" t="n">
+        <v>23.8283583021229</v>
+      </c>
+      <c r="C2881" s="3" t="n">
+        <v>25.2205333749217</v>
+      </c>
+      <c r="D2881" s="3" t="n">
+        <v>25.4848004812509</v>
+      </c>
     </row>
     <row r="2882">
-      <c r="A2882" s="6"/>
-      <c r="B2882" s="3"/>
-      <c r="C2882" s="3"/>
-      <c r="D2882" s="3"/>
+      <c r="A2882" s="16"/>
+      <c r="B2882" s="3" t="n">
+        <v>23.8545917717495</v>
+      </c>
+      <c r="C2882" s="3" t="n">
+        <v>25.2407521773552</v>
+      </c>
+      <c r="D2882" s="3" t="n">
+        <v>25.5115007155997</v>
+      </c>
     </row>
     <row r="2883">
-      <c r="A2883" s="6"/>
-      <c r="B2883" s="3"/>
-      <c r="C2883" s="3"/>
-      <c r="D2883" s="3"/>
+      <c r="A2883" s="16"/>
+      <c r="B2883" s="3" t="n">
+        <v>23.8776824583874</v>
+      </c>
+      <c r="C2883" s="3" t="n">
+        <v>25.2567737830096</v>
+      </c>
+      <c r="D2883" s="3" t="n">
+        <v>25.5324591520163</v>
+      </c>
     </row>
     <row r="2884">
-      <c r="A2884" s="6"/>
-      <c r="B2884" s="3"/>
-      <c r="C2884" s="3"/>
-      <c r="D2884" s="3"/>
+      <c r="A2884" s="16"/>
+      <c r="B2884" s="3" t="n">
+        <v>23.9028999871291</v>
+      </c>
+      <c r="C2884" s="3" t="n">
+        <v>25.2658416478918</v>
+      </c>
+      <c r="D2884" s="3" t="n">
+        <v>25.5498821096171</v>
+      </c>
     </row>
     <row r="2885">
-      <c r="A2885" s="6"/>
-      <c r="B2885" s="3"/>
-      <c r="C2885" s="3"/>
-      <c r="D2885" s="3"/>
+      <c r="A2885" s="16"/>
+      <c r="B2885" s="3" t="n">
+        <v>23.9153690228696</v>
+      </c>
+      <c r="C2885" s="3" t="n">
+        <v>25.2803528078976</v>
+      </c>
+      <c r="D2885" s="3" t="n">
+        <v>25.5534658853074</v>
+      </c>
     </row>
     <row r="2886">
-      <c r="A2886" s="6"/>
-      <c r="B2886" s="3"/>
-      <c r="C2886" s="3"/>
-      <c r="D2886" s="3"/>
+      <c r="A2886" s="16"/>
+      <c r="B2886" s="3" t="n">
+        <v>23.9211920792085</v>
+      </c>
+      <c r="C2886" s="3" t="n">
+        <v>25.2702485501241</v>
+      </c>
+      <c r="D2886" s="3" t="n">
+        <v>25.554349871685</v>
+      </c>
     </row>
     <row r="2887">
-      <c r="A2887" s="6"/>
-      <c r="B2887" s="3"/>
-      <c r="C2887" s="3"/>
-      <c r="D2887" s="3"/>
+      <c r="A2887" s="16"/>
+      <c r="B2887" s="3" t="n">
+        <v>23.9347260792733</v>
+      </c>
+      <c r="C2887" s="3" t="n">
+        <v>25.3239374124242</v>
+      </c>
+      <c r="D2887" s="3" t="n">
+        <v>25.566176231176</v>
+      </c>
     </row>
     <row r="2888">
-      <c r="A2888" s="6"/>
-      <c r="B2888" s="3"/>
-      <c r="C2888" s="3"/>
-      <c r="D2888" s="3"/>
+      <c r="A2888" s="16"/>
+      <c r="B2888" s="3" t="n">
+        <v>23.9400012567555</v>
+      </c>
+      <c r="C2888" s="3" t="n">
+        <v>25.325013906057</v>
+      </c>
+      <c r="D2888" s="3" t="n">
+        <v>25.5725470362126</v>
+      </c>
     </row>
     <row r="2889">
-      <c r="A2889" s="6"/>
-      <c r="B2889" s="3"/>
-      <c r="C2889" s="3"/>
-      <c r="D2889" s="3"/>
+      <c r="A2889" s="16"/>
+      <c r="B2889" s="3" t="n">
+        <v>23.911119092628</v>
+      </c>
+      <c r="C2889" s="3" t="n">
+        <v>25.3206586545968</v>
+      </c>
+      <c r="D2889" s="3" t="n">
+        <v>25.5749010002039</v>
+      </c>
     </row>
     <row r="2890">
-      <c r="A2890" s="6"/>
-      <c r="B2890" s="3"/>
-      <c r="C2890" s="3"/>
-      <c r="D2890" s="3"/>
+      <c r="A2890" s="16"/>
+      <c r="B2890" s="3" t="n">
+        <v>23.9012685627994</v>
+      </c>
+      <c r="C2890" s="3" t="n">
+        <v>25.3298537275876</v>
+      </c>
+      <c r="D2890" s="3" t="n">
+        <v>25.5740603958374</v>
+      </c>
     </row>
     <row r="2891">
-      <c r="A2891" s="6"/>
-      <c r="B2891" s="3"/>
-      <c r="C2891" s="3"/>
-      <c r="D2891" s="3"/>
+      <c r="A2891" s="16"/>
+      <c r="B2891" s="3" t="n">
+        <v>23.8912025236597</v>
+      </c>
+      <c r="C2891" s="3" t="n">
+        <v>25.2973648648654</v>
+      </c>
+      <c r="D2891" s="3" t="n">
+        <v>25.5717049380206</v>
+      </c>
     </row>
     <row r="2892">
-      <c r="A2892" s="6"/>
-      <c r="B2892" s="3"/>
-      <c r="C2892" s="3"/>
-      <c r="D2892" s="3"/>
+      <c r="A2892" s="16"/>
+      <c r="B2892" s="3" t="n">
+        <v>23.887818436823</v>
+      </c>
+      <c r="C2892" s="3" t="n">
+        <v>25.296782359497</v>
+      </c>
+      <c r="D2892" s="3" t="n">
+        <v>25.5697549927937</v>
+      </c>
     </row>
     <row r="2893">
-      <c r="A2893" s="6"/>
-      <c r="B2893" s="3"/>
-      <c r="C2893" s="3"/>
-      <c r="D2893" s="3"/>
+      <c r="A2893" s="16"/>
+      <c r="B2893" s="3" t="n">
+        <v>23.8890892719324</v>
+      </c>
+      <c r="C2893" s="3" t="n">
+        <v>25.3014065262819</v>
+      </c>
+      <c r="D2893" s="3" t="n">
+        <v>25.5717380457379</v>
+      </c>
     </row>
     <row r="2894">
-      <c r="A2894" s="6"/>
-      <c r="B2894" s="3"/>
-      <c r="C2894" s="3"/>
-      <c r="D2894" s="3"/>
+      <c r="A2894" s="16"/>
+      <c r="B2894" s="3" t="n">
+        <v>23.8877576691057</v>
+      </c>
+      <c r="C2894" s="3" t="n">
+        <v>25.3028729547642</v>
+      </c>
+      <c r="D2894" s="3" t="n">
+        <v>25.5728888428037</v>
+      </c>
     </row>
     <row r="2895">
-      <c r="A2895" s="6"/>
-      <c r="B2895" s="3"/>
-      <c r="C2895" s="3"/>
-      <c r="D2895" s="3"/>
+      <c r="A2895" s="16"/>
+      <c r="B2895" s="3" t="n">
+        <v>23.8909025548855</v>
+      </c>
+      <c r="C2895" s="3" t="n">
+        <v>25.3157578676941</v>
+      </c>
+      <c r="D2895" s="3" t="n">
+        <v>25.5700578631948</v>
+      </c>
     </row>
     <row r="2896">
-      <c r="A2896" s="6"/>
-      <c r="B2896" s="3"/>
-      <c r="C2896" s="3"/>
-      <c r="D2896" s="3"/>
+      <c r="A2896" s="16"/>
+      <c r="B2896" s="3" t="n">
+        <v>23.8770852250619</v>
+      </c>
+      <c r="C2896" s="3" t="n">
+        <v>25.3132852278253</v>
+      </c>
+      <c r="D2896" s="3" t="n">
+        <v>25.5651653150342</v>
+      </c>
     </row>
     <row r="2897">
-      <c r="A2897" s="6"/>
-      <c r="B2897" s="3"/>
-      <c r="C2897" s="3"/>
-      <c r="D2897" s="3"/>
+      <c r="A2897" s="16"/>
+      <c r="B2897" s="3" t="n">
+        <v>23.8871750455849</v>
+      </c>
+      <c r="C2897" s="3" t="n">
+        <v>25.3273839662445</v>
+      </c>
+      <c r="D2897" s="3" t="n">
+        <v>25.5732365231927</v>
+      </c>
     </row>
     <row r="2898">
-      <c r="A2898" s="6"/>
-      <c r="B2898" s="3"/>
-      <c r="C2898" s="3"/>
-      <c r="D2898" s="3"/>
+      <c r="A2898" s="16"/>
+      <c r="B2898" s="3" t="n">
+        <v>23.898756315585</v>
+      </c>
+      <c r="C2898" s="3" t="n">
+        <v>25.3415896607429</v>
+      </c>
+      <c r="D2898" s="3" t="n">
+        <v>25.5926494312307</v>
+      </c>
     </row>
     <row r="2899">
-      <c r="A2899" s="6"/>
-      <c r="B2899" s="3"/>
-      <c r="C2899" s="3"/>
-      <c r="D2899" s="3"/>
+      <c r="A2899" s="16"/>
+      <c r="B2899" s="3" t="n">
+        <v>23.9077754731657</v>
+      </c>
+      <c r="C2899" s="3" t="n">
+        <v>25.3469987063387</v>
+      </c>
+      <c r="D2899" s="3" t="n">
+        <v>25.6075174537989</v>
+      </c>
     </row>
     <row r="2900">
-      <c r="A2900" s="6"/>
-      <c r="B2900" s="3"/>
-      <c r="C2900" s="3"/>
-      <c r="D2900" s="3"/>
+      <c r="A2900" s="16"/>
+      <c r="B2900" s="3" t="n">
+        <v>23.9103331164607</v>
+      </c>
+      <c r="C2900" s="3" t="n">
+        <v>25.3509260460588</v>
+      </c>
+      <c r="D2900" s="3" t="n">
+        <v>25.6146662546355</v>
+      </c>
     </row>
     <row r="2901">
-      <c r="A2901" s="6"/>
-      <c r="B2901" s="3"/>
-      <c r="C2901" s="3"/>
-      <c r="D2901" s="3"/>
+      <c r="A2901" s="16"/>
+      <c r="B2901" s="3" t="n">
+        <v>23.925112403101</v>
+      </c>
+      <c r="C2901" s="3" t="n">
+        <v>25.3649830945096</v>
+      </c>
+      <c r="D2901" s="3" t="n">
+        <v>25.631338598623</v>
+      </c>
     </row>
     <row r="2902">
-      <c r="A2902" s="6"/>
-      <c r="B2902" s="3"/>
-      <c r="C2902" s="3"/>
-      <c r="D2902" s="3"/>
+      <c r="A2902" s="16"/>
+      <c r="B2902" s="3" t="n">
+        <v>23.9564233855561</v>
+      </c>
+      <c r="C2902" s="3" t="n">
+        <v>25.3750007975752</v>
+      </c>
+      <c r="D2902" s="3" t="n">
+        <v>25.6684481737415</v>
+      </c>
     </row>
     <row r="2903">
-      <c r="A2903" s="6"/>
-      <c r="B2903" s="3"/>
-      <c r="C2903" s="3"/>
-      <c r="D2903" s="3"/>
+      <c r="A2903" s="16"/>
+      <c r="B2903" s="3" t="n">
+        <v>23.9671558245084</v>
+      </c>
+      <c r="C2903" s="3" t="n">
+        <v>25.3976494650721</v>
+      </c>
+      <c r="D2903" s="3" t="n">
+        <v>25.6923369565219</v>
+      </c>
     </row>
     <row r="2904">
-      <c r="A2904" s="6"/>
-      <c r="B2904" s="3"/>
-      <c r="C2904" s="3"/>
-      <c r="D2904" s="3"/>
+      <c r="A2904" s="16"/>
+      <c r="B2904" s="3" t="n">
+        <v>23.9731561085974</v>
+      </c>
+      <c r="C2904" s="3" t="n">
+        <v>25.4005054945054</v>
+      </c>
+      <c r="D2904" s="3" t="n">
+        <v>25.7025345092027</v>
+      </c>
     </row>
     <row r="2905">
-      <c r="A2905" s="6"/>
-      <c r="B2905" s="3"/>
-      <c r="C2905" s="3"/>
-      <c r="D2905" s="3"/>
+      <c r="A2905" s="16"/>
+      <c r="B2905" s="3" t="n">
+        <v>23.9735151133503</v>
+      </c>
+      <c r="C2905" s="3" t="n">
+        <v>25.3995839221227</v>
+      </c>
+      <c r="D2905" s="3" t="n">
+        <v>25.7105432710639</v>
+      </c>
     </row>
     <row r="2906">
       <c r="A2906" s="6"/>
@@ -48146,13 +48326,27 @@
     </row>
     <row r="110">
       <c r="A110" s="6"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
+      <c r="B110" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C110" s="3" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="D110" s="3" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="G110" s="3" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>25.57</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - noviembre 2024</t>
+    <t xml:space="preserve">enero 2017 - diciembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: enero 2025</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">noviembre 2024</t>
+    <t xml:space="preserve">diciembre 2024</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -44947,190 +44947,376 @@
       </c>
     </row>
     <row r="2906">
-      <c r="A2906" s="6"/>
-      <c r="B2906" s="3"/>
-      <c r="C2906" s="3"/>
-      <c r="D2906" s="3"/>
+      <c r="A2906" s="16"/>
+      <c r="B2906" s="3" t="n">
+        <v>23.9749235048684</v>
+      </c>
+      <c r="C2906" s="3" t="n">
+        <v>25.4003399433429</v>
+      </c>
+      <c r="D2906" s="3" t="n">
+        <v>25.7136330798481</v>
+      </c>
     </row>
     <row r="2907">
-      <c r="A2907" s="6"/>
-      <c r="B2907" s="3"/>
-      <c r="C2907" s="3"/>
-      <c r="D2907" s="3"/>
+      <c r="A2907" s="16"/>
+      <c r="B2907" s="3" t="n">
+        <v>23.9774898836625</v>
+      </c>
+      <c r="C2907" s="3" t="n">
+        <v>25.3998691883372</v>
+      </c>
+      <c r="D2907" s="3" t="n">
+        <v>25.7129929644418</v>
+      </c>
     </row>
     <row r="2908">
-      <c r="A2908" s="6"/>
-      <c r="B2908" s="3"/>
-      <c r="C2908" s="3"/>
-      <c r="D2908" s="3"/>
+      <c r="A2908" s="16"/>
+      <c r="B2908" s="3" t="n">
+        <v>23.9784646362953</v>
+      </c>
+      <c r="C2908" s="3" t="n">
+        <v>25.3992353494207</v>
+      </c>
+      <c r="D2908" s="3" t="n">
+        <v>25.7139909468126</v>
+      </c>
     </row>
     <row r="2909">
-      <c r="A2909" s="6"/>
-      <c r="B2909" s="3"/>
-      <c r="C2909" s="3"/>
-      <c r="D2909" s="3"/>
+      <c r="A2909" s="16"/>
+      <c r="B2909" s="3" t="n">
+        <v>23.9767021276596</v>
+      </c>
+      <c r="C2909" s="3" t="n">
+        <v>25.4036360799004</v>
+      </c>
+      <c r="D2909" s="3" t="n">
+        <v>25.7182764441111</v>
+      </c>
     </row>
     <row r="2910">
-      <c r="A2910" s="6"/>
-      <c r="B2910" s="3"/>
-      <c r="C2910" s="3"/>
-      <c r="D2910" s="3"/>
+      <c r="A2910" s="16"/>
+      <c r="B2910" s="3" t="n">
+        <v>23.9836468866418</v>
+      </c>
+      <c r="C2910" s="3" t="n">
+        <v>25.4106356432312</v>
+      </c>
+      <c r="D2910" s="3" t="n">
+        <v>25.7174887453515</v>
+      </c>
     </row>
     <row r="2911">
-      <c r="A2911" s="6"/>
-      <c r="B2911" s="3"/>
-      <c r="C2911" s="3"/>
-      <c r="D2911" s="3"/>
+      <c r="A2911" s="16"/>
+      <c r="B2911" s="3" t="n">
+        <v>23.9750566385671</v>
+      </c>
+      <c r="C2911" s="3" t="n">
+        <v>25.4055544422181</v>
+      </c>
+      <c r="D2911" s="3" t="n">
+        <v>25.7078727942601</v>
+      </c>
     </row>
     <row r="2912">
-      <c r="A2912" s="6"/>
-      <c r="B2912" s="3"/>
-      <c r="C2912" s="3"/>
-      <c r="D2912" s="3"/>
+      <c r="A2912" s="16"/>
+      <c r="B2912" s="3" t="n">
+        <v>23.9708499025344</v>
+      </c>
+      <c r="C2912" s="3" t="n">
+        <v>25.3895591149278</v>
+      </c>
+      <c r="D2912" s="3" t="n">
+        <v>25.6978586518148</v>
+      </c>
     </row>
     <row r="2913">
-      <c r="A2913" s="6"/>
-      <c r="B2913" s="3"/>
-      <c r="C2913" s="3"/>
-      <c r="D2913" s="3"/>
+      <c r="A2913" s="16"/>
+      <c r="B2913" s="3" t="n">
+        <v>23.954761009667</v>
+      </c>
+      <c r="C2913" s="3" t="n">
+        <v>25.3846290952306</v>
+      </c>
+      <c r="D2913" s="3" t="n">
+        <v>25.6955333465271</v>
+      </c>
     </row>
     <row r="2914">
-      <c r="A2914" s="6"/>
-      <c r="B2914" s="3"/>
-      <c r="C2914" s="3"/>
-      <c r="D2914" s="3"/>
+      <c r="A2914" s="16"/>
+      <c r="B2914" s="3" t="n">
+        <v>23.9918094841932</v>
+      </c>
+      <c r="C2914" s="3" t="n">
+        <v>25.4166326530617</v>
+      </c>
+      <c r="D2914" s="3" t="n">
+        <v>25.6926037659446</v>
+      </c>
     </row>
     <row r="2915">
-      <c r="A2915" s="6"/>
-      <c r="B2915" s="3"/>
-      <c r="C2915" s="3"/>
-      <c r="D2915" s="3"/>
+      <c r="A2915" s="16"/>
+      <c r="B2915" s="3" t="n">
+        <v>23.9771617890669</v>
+      </c>
+      <c r="C2915" s="3" t="n">
+        <v>25.407161120841</v>
+      </c>
+      <c r="D2915" s="3" t="n">
+        <v>25.6831144238517</v>
+      </c>
     </row>
     <row r="2916">
-      <c r="A2916" s="6"/>
-      <c r="B2916" s="3"/>
-      <c r="C2916" s="3"/>
-      <c r="D2916" s="3"/>
+      <c r="A2916" s="16"/>
+      <c r="B2916" s="3" t="n">
+        <v>23.964550103663</v>
+      </c>
+      <c r="C2916" s="3" t="n">
+        <v>25.3940548567441</v>
+      </c>
+      <c r="D2916" s="3" t="n">
+        <v>25.6700985717162</v>
+      </c>
     </row>
     <row r="2917">
-      <c r="A2917" s="6"/>
-      <c r="B2917" s="3"/>
-      <c r="C2917" s="3"/>
-      <c r="D2917" s="3"/>
+      <c r="A2917" s="16"/>
+      <c r="B2917" s="3" t="n">
+        <v>23.966037181996</v>
+      </c>
+      <c r="C2917" s="3" t="n">
+        <v>25.3925114881585</v>
+      </c>
+      <c r="D2917" s="3" t="n">
+        <v>25.6740979276716</v>
+      </c>
     </row>
     <row r="2918">
-      <c r="A2918" s="6"/>
-      <c r="B2918" s="3"/>
-      <c r="C2918" s="3"/>
-      <c r="D2918" s="3"/>
+      <c r="A2918" s="16"/>
+      <c r="B2918" s="3" t="n">
+        <v>23.9757408195094</v>
+      </c>
+      <c r="C2918" s="3" t="n">
+        <v>25.3935735896066</v>
+      </c>
+      <c r="D2918" s="3" t="n">
+        <v>25.6680496742674</v>
+      </c>
     </row>
     <row r="2919">
-      <c r="A2919" s="6"/>
-      <c r="B2919" s="3"/>
-      <c r="C2919" s="3"/>
-      <c r="D2919" s="3"/>
+      <c r="A2919" s="16"/>
+      <c r="B2919" s="3" t="n">
+        <v>23.9767134353742</v>
+      </c>
+      <c r="C2919" s="3" t="n">
+        <v>25.3982825583467</v>
+      </c>
+      <c r="D2919" s="3" t="n">
+        <v>25.6719485819222</v>
+      </c>
     </row>
     <row r="2920">
-      <c r="A2920" s="6"/>
-      <c r="B2920" s="3"/>
-      <c r="C2920" s="3"/>
-      <c r="D2920" s="3"/>
+      <c r="A2920" s="16"/>
+      <c r="B2920" s="3" t="n">
+        <v>23.9737975951905</v>
+      </c>
+      <c r="C2920" s="3" t="n">
+        <v>25.3943761172686</v>
+      </c>
+      <c r="D2920" s="3" t="n">
+        <v>25.6715531783586</v>
+      </c>
     </row>
     <row r="2921">
-      <c r="A2921" s="6"/>
-      <c r="B2921" s="3"/>
-      <c r="C2921" s="3"/>
-      <c r="D2921" s="3"/>
+      <c r="A2921" s="16"/>
+      <c r="B2921" s="3" t="n">
+        <v>23.9692513058622</v>
+      </c>
+      <c r="C2921" s="3" t="n">
+        <v>25.393971335269</v>
+      </c>
+      <c r="D2921" s="3" t="n">
+        <v>25.6697006237009</v>
+      </c>
     </row>
     <row r="2922">
-      <c r="A2922" s="6"/>
-      <c r="B2922" s="3"/>
-      <c r="C2922" s="3"/>
-      <c r="D2922" s="3"/>
+      <c r="A2922" s="16"/>
+      <c r="B2922" s="3" t="n">
+        <v>23.9736445396148</v>
+      </c>
+      <c r="C2922" s="3" t="n">
+        <v>25.392827635328</v>
+      </c>
+      <c r="D2922" s="3" t="n">
+        <v>25.6727141109301</v>
+      </c>
     </row>
     <row r="2923">
-      <c r="A2923" s="6"/>
-      <c r="B2923" s="3"/>
-      <c r="C2923" s="3"/>
-      <c r="D2923" s="3"/>
+      <c r="A2923" s="16"/>
+      <c r="B2923" s="3" t="n">
+        <v>23.9795583333334</v>
+      </c>
+      <c r="C2923" s="3" t="n">
+        <v>25.4089457310751</v>
+      </c>
+      <c r="D2923" s="3" t="n">
+        <v>25.677407778669</v>
+      </c>
     </row>
     <row r="2924">
-      <c r="A2924" s="6"/>
-      <c r="B2924" s="3"/>
-      <c r="C2924" s="3"/>
-      <c r="D2924" s="3"/>
+      <c r="A2924" s="16"/>
+      <c r="B2924" s="3" t="n">
+        <v>23.9811254510131</v>
+      </c>
+      <c r="C2924" s="3" t="n">
+        <v>25.4154211438476</v>
+      </c>
+      <c r="D2924" s="3" t="n">
+        <v>25.6840538910115</v>
+      </c>
     </row>
     <row r="2925">
-      <c r="A2925" s="6"/>
-      <c r="B2925" s="3"/>
-      <c r="C2925" s="3"/>
-      <c r="D2925" s="3"/>
+      <c r="A2925" s="16"/>
+      <c r="B2925" s="3" t="n">
+        <v>23.9832144846799</v>
+      </c>
+      <c r="C2925" s="3" t="n">
+        <v>25.4116490008685</v>
+      </c>
+      <c r="D2925" s="3" t="n">
+        <v>25.690859044162</v>
+      </c>
     </row>
     <row r="2926">
-      <c r="A2926" s="6"/>
-      <c r="B2926" s="3"/>
-      <c r="C2926" s="3"/>
-      <c r="D2926" s="3"/>
+      <c r="A2926" s="16"/>
+      <c r="B2926" s="3" t="n">
+        <v>23.9744754558205</v>
+      </c>
+      <c r="C2926" s="3" t="n">
+        <v>25.4014073166469</v>
+      </c>
+      <c r="D2926" s="3" t="n">
+        <v>25.694251872849</v>
+      </c>
     </row>
     <row r="2927">
-      <c r="A2927" s="6"/>
-      <c r="B2927" s="3"/>
-      <c r="C2927" s="3"/>
-      <c r="D2927" s="3"/>
+      <c r="A2927" s="16"/>
+      <c r="B2927" s="3" t="n">
+        <v>23.9770690391461</v>
+      </c>
+      <c r="C2927" s="3" t="n">
+        <v>25.3974115755628</v>
+      </c>
+      <c r="D2927" s="3" t="n">
+        <v>25.7002492339124</v>
+      </c>
     </row>
     <row r="2928">
-      <c r="A2928" s="6"/>
-      <c r="B2928" s="3"/>
-      <c r="C2928" s="3"/>
-      <c r="D2928" s="3"/>
+      <c r="A2928" s="16"/>
+      <c r="B2928" s="3" t="n">
+        <v>23.9789467609291</v>
+      </c>
+      <c r="C2928" s="3" t="n">
+        <v>25.4006358695655</v>
+      </c>
+      <c r="D2928" s="3" t="n">
+        <v>25.7021829521832</v>
+      </c>
     </row>
     <row r="2929">
-      <c r="A2929" s="6"/>
-      <c r="B2929" s="3"/>
-      <c r="C2929" s="3"/>
-      <c r="D2929" s="3"/>
+      <c r="A2929" s="16"/>
+      <c r="B2929" s="3" t="n">
+        <v>23.9761626063139</v>
+      </c>
+      <c r="C2929" s="3" t="n">
+        <v>25.4005741279072</v>
+      </c>
+      <c r="D2929" s="3" t="n">
+        <v>25.7026037344398</v>
+      </c>
     </row>
     <row r="2930">
-      <c r="A2930" s="6"/>
-      <c r="B2930" s="3"/>
-      <c r="C2930" s="3"/>
-      <c r="D2930" s="3"/>
+      <c r="A2930" s="16"/>
+      <c r="B2930" s="3" t="n">
+        <v>23.9712648164209</v>
+      </c>
+      <c r="C2930" s="3" t="n">
+        <v>25.3989540816326</v>
+      </c>
+      <c r="D2930" s="3" t="n">
+        <v>25.7002258469259</v>
+      </c>
     </row>
     <row r="2931">
-      <c r="A2931" s="6"/>
-      <c r="B2931" s="3"/>
-      <c r="C2931" s="3"/>
-      <c r="D2931" s="3"/>
+      <c r="A2931" s="16"/>
+      <c r="B2931" s="3" t="n">
+        <v>23.9661560390101</v>
+      </c>
+      <c r="C2931" s="3" t="n">
+        <v>25.3929183323815</v>
+      </c>
+      <c r="D2931" s="3" t="n">
+        <v>25.6880389122267</v>
+      </c>
     </row>
     <row r="2932">
-      <c r="A2932" s="6"/>
-      <c r="B2932" s="3"/>
-      <c r="C2932" s="3"/>
-      <c r="D2932" s="3"/>
+      <c r="A2932" s="16"/>
+      <c r="B2932" s="3" t="n">
+        <v>23.9682004867665</v>
+      </c>
+      <c r="C2932" s="3" t="n">
+        <v>25.392317893523</v>
+      </c>
+      <c r="D2932" s="3" t="n">
+        <v>25.6731139755769</v>
+      </c>
     </row>
     <row r="2933">
-      <c r="A2933" s="6"/>
-      <c r="B2933" s="3"/>
-      <c r="C2933" s="3"/>
-      <c r="D2933" s="3"/>
+      <c r="A2933" s="16"/>
+      <c r="B2933" s="3" t="n">
+        <v>23.976058562012</v>
+      </c>
+      <c r="C2933" s="3" t="n">
+        <v>25.4067256977864</v>
+      </c>
+      <c r="D2933" s="3" t="n">
+        <v>25.6702838024922</v>
+      </c>
     </row>
     <row r="2934">
-      <c r="A2934" s="6"/>
-      <c r="B2934" s="3"/>
-      <c r="C2934" s="3"/>
-      <c r="D2934" s="3"/>
+      <c r="A2934" s="16"/>
+      <c r="B2934" s="3" t="n">
+        <v>23.9733921659705</v>
+      </c>
+      <c r="C2934" s="3" t="n">
+        <v>25.3979373418954</v>
+      </c>
+      <c r="D2934" s="3" t="n">
+        <v>25.6652335783735</v>
+      </c>
     </row>
     <row r="2935">
-      <c r="A2935" s="6"/>
-      <c r="B2935" s="3"/>
-      <c r="C2935" s="3"/>
-      <c r="D2935" s="3"/>
+      <c r="A2935" s="16"/>
+      <c r="B2935" s="3" t="n">
+        <v>23.9716737790426</v>
+      </c>
+      <c r="C2935" s="3" t="n">
+        <v>25.3927458033574</v>
+      </c>
+      <c r="D2935" s="3" t="n">
+        <v>25.6667640559786</v>
+      </c>
     </row>
     <row r="2936">
-      <c r="A2936" s="6"/>
-      <c r="B2936" s="3"/>
-      <c r="C2936" s="3"/>
-      <c r="D2936" s="3"/>
+      <c r="A2936" s="16"/>
+      <c r="B2936" s="3" t="n">
+        <v>23.9856764295681</v>
+      </c>
+      <c r="C2936" s="3" t="n">
+        <v>25.4018013401656</v>
+      </c>
+      <c r="D2936" s="3" t="n">
+        <v>25.675255102041</v>
+      </c>
     </row>
     <row r="2937">
       <c r="A2937" s="6"/>
@@ -48350,13 +48536,27 @@
     </row>
     <row r="111">
       <c r="A111" s="6"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
+      <c r="B111" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>23.97</v>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>25.69</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="1435">
   <si>
     <t>Periodicidad Mensual</t>
   </si>
@@ -4230,13 +4230,13 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - diciembre 2024</t>
+    <t xml:space="preserve">enero 2017 - enero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2025</t>
+    <t xml:space="preserve">Próxima actualización: marzo 2025</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: CRE; Comisión Reguladora de Energía</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">diciembre 2024</t>
+    <t xml:space="preserve">enero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -4321,6 +4321,9 @@
   </si>
   <si>
     <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
   </si>
 </sst>
 </file>
@@ -45319,190 +45322,376 @@
       </c>
     </row>
     <row r="2937">
-      <c r="A2937" s="6"/>
-      <c r="B2937" s="3"/>
-      <c r="C2937" s="3"/>
-      <c r="D2937" s="3"/>
+      <c r="A2937" s="16"/>
+      <c r="B2937" s="3" t="n">
+        <v>24.0170914696819</v>
+      </c>
+      <c r="C2937" s="3" t="n">
+        <v>25.4177603875536</v>
+      </c>
+      <c r="D2937" s="3" t="n">
+        <v>25.7126224256295</v>
+      </c>
     </row>
     <row r="2938">
-      <c r="A2938" s="6"/>
-      <c r="B2938" s="3"/>
-      <c r="C2938" s="3"/>
-      <c r="D2938" s="3"/>
+      <c r="A2938" s="16"/>
+      <c r="B2938" s="3" t="n">
+        <v>24.0415173596232</v>
+      </c>
+      <c r="C2938" s="3" t="n">
+        <v>25.4084537205084</v>
+      </c>
+      <c r="D2938" s="3" t="n">
+        <v>25.7539064224236</v>
+      </c>
     </row>
     <row r="2939">
-      <c r="A2939" s="6"/>
-      <c r="B2939" s="3"/>
-      <c r="C2939" s="3"/>
-      <c r="D2939" s="3"/>
+      <c r="A2939" s="16"/>
+      <c r="B2939" s="3" t="n">
+        <v>24.1139887790543</v>
+      </c>
+      <c r="C2939" s="3" t="n">
+        <v>25.4438497011106</v>
+      </c>
+      <c r="D2939" s="3" t="n">
+        <v>25.8239636882907</v>
+      </c>
     </row>
     <row r="2940">
-      <c r="A2940" s="6"/>
-      <c r="B2940" s="3"/>
-      <c r="C2940" s="3"/>
-      <c r="D2940" s="3"/>
+      <c r="A2940" s="16"/>
+      <c r="B2940" s="3" t="n">
+        <v>24.2022443008657</v>
+      </c>
+      <c r="C2940" s="3" t="n">
+        <v>25.5076436694467</v>
+      </c>
+      <c r="D2940" s="3" t="n">
+        <v>25.9138700772913</v>
+      </c>
     </row>
     <row r="2941">
-      <c r="A2941" s="6"/>
-      <c r="B2941" s="3"/>
-      <c r="C2941" s="3"/>
-      <c r="D2941" s="3"/>
+      <c r="A2941" s="16"/>
+      <c r="B2941" s="3" t="n">
+        <v>24.2338538244959</v>
+      </c>
+      <c r="C2941" s="3" t="n">
+        <v>25.5264149581286</v>
+      </c>
+      <c r="D2941" s="3" t="n">
+        <v>25.9516444833628</v>
+      </c>
     </row>
     <row r="2942">
-      <c r="A2942" s="6"/>
-      <c r="B2942" s="3"/>
-      <c r="C2942" s="3"/>
-      <c r="D2942" s="3"/>
+      <c r="A2942" s="16"/>
+      <c r="B2942" s="3" t="n">
+        <v>24.235191019161</v>
+      </c>
+      <c r="C2942" s="3" t="n">
+        <v>25.5336473118278</v>
+      </c>
+      <c r="D2942" s="3" t="n">
+        <v>25.959998252665</v>
+      </c>
     </row>
     <row r="2943">
-      <c r="A2943" s="6"/>
-      <c r="B2943" s="3"/>
-      <c r="C2943" s="3"/>
-      <c r="D2943" s="3"/>
+      <c r="A2943" s="16"/>
+      <c r="B2943" s="3" t="n">
+        <v>24.2689913512304</v>
+      </c>
+      <c r="C2943" s="3" t="n">
+        <v>25.5601444732181</v>
+      </c>
+      <c r="D2943" s="3" t="n">
+        <v>25.9894443525716</v>
+      </c>
     </row>
     <row r="2944">
-      <c r="A2944" s="6"/>
-      <c r="B2944" s="3"/>
-      <c r="C2944" s="3"/>
-      <c r="D2944" s="3"/>
+      <c r="A2944" s="16"/>
+      <c r="B2944" s="3" t="n">
+        <v>24.272845905173</v>
+      </c>
+      <c r="C2944" s="3" t="n">
+        <v>25.5815418732066</v>
+      </c>
+      <c r="D2944" s="3" t="n">
+        <v>26.0067993655832</v>
+      </c>
     </row>
     <row r="2945">
-      <c r="A2945" s="6"/>
-      <c r="B2945" s="3"/>
-      <c r="C2945" s="3"/>
-      <c r="D2945" s="3"/>
+      <c r="A2945" s="16"/>
+      <c r="B2945" s="3" t="n">
+        <v>24.2528229210643</v>
+      </c>
+      <c r="C2945" s="3" t="n">
+        <v>25.5295605252896</v>
+      </c>
+      <c r="D2945" s="3" t="n">
+        <v>26.0162263565896</v>
+      </c>
     </row>
     <row r="2946">
-      <c r="A2946" s="6"/>
-      <c r="B2946" s="3"/>
-      <c r="C2946" s="3"/>
-      <c r="D2946" s="3"/>
+      <c r="A2946" s="16"/>
+      <c r="B2946" s="3" t="n">
+        <v>24.2642399687598</v>
+      </c>
+      <c r="C2946" s="3" t="n">
+        <v>25.5819369742922</v>
+      </c>
+      <c r="D2946" s="3" t="n">
+        <v>26.0473254642298</v>
+      </c>
     </row>
     <row r="2947">
-      <c r="A2947" s="6"/>
-      <c r="B2947" s="3"/>
-      <c r="C2947" s="3"/>
-      <c r="D2947" s="3"/>
+      <c r="A2947" s="16"/>
+      <c r="B2947" s="3" t="n">
+        <v>24.2703749639463</v>
+      </c>
+      <c r="C2947" s="3" t="n">
+        <v>25.5833496446463</v>
+      </c>
+      <c r="D2947" s="3" t="n">
+        <v>26.0544320429506</v>
+      </c>
     </row>
     <row r="2948">
-      <c r="A2948" s="6"/>
-      <c r="B2948" s="3"/>
-      <c r="C2948" s="3"/>
-      <c r="D2948" s="3"/>
+      <c r="A2948" s="16"/>
+      <c r="B2948" s="3" t="n">
+        <v>24.2732963033907</v>
+      </c>
+      <c r="C2948" s="3" t="n">
+        <v>25.5801113043476</v>
+      </c>
+      <c r="D2948" s="3" t="n">
+        <v>26.0580005612466</v>
+      </c>
     </row>
     <row r="2949">
-      <c r="A2949" s="6"/>
-      <c r="B2949" s="3"/>
-      <c r="C2949" s="3"/>
-      <c r="D2949" s="3"/>
+      <c r="A2949" s="16"/>
+      <c r="B2949" s="3" t="n">
+        <v>24.2734638958059</v>
+      </c>
+      <c r="C2949" s="3" t="n">
+        <v>25.5794944470151</v>
+      </c>
+      <c r="D2949" s="3" t="n">
+        <v>26.0586435463577</v>
+      </c>
     </row>
     <row r="2950">
-      <c r="A2950" s="6"/>
-      <c r="B2950" s="3"/>
-      <c r="C2950" s="3"/>
-      <c r="D2950" s="3"/>
+      <c r="A2950" s="16"/>
+      <c r="B2950" s="3" t="n">
+        <v>24.2810086182409</v>
+      </c>
+      <c r="C2950" s="3" t="n">
+        <v>25.5857168991536</v>
+      </c>
+      <c r="D2950" s="3" t="n">
+        <v>26.0637475835411</v>
+      </c>
     </row>
     <row r="2951">
-      <c r="A2951" s="6"/>
-      <c r="B2951" s="3"/>
-      <c r="C2951" s="3"/>
-      <c r="D2951" s="3"/>
+      <c r="A2951" s="16"/>
+      <c r="B2951" s="3" t="n">
+        <v>24.2944254920341</v>
+      </c>
+      <c r="C2951" s="3" t="n">
+        <v>25.6112889438758</v>
+      </c>
+      <c r="D2951" s="3" t="n">
+        <v>26.0769419795228</v>
+      </c>
     </row>
     <row r="2952">
-      <c r="A2952" s="6"/>
-      <c r="B2952" s="3"/>
-      <c r="C2952" s="3"/>
-      <c r="D2952" s="3"/>
+      <c r="A2952" s="16"/>
+      <c r="B2952" s="3" t="n">
+        <v>24.3024141461149</v>
+      </c>
+      <c r="C2952" s="3" t="n">
+        <v>25.6259728406053</v>
+      </c>
+      <c r="D2952" s="3" t="n">
+        <v>26.0849708158008</v>
+      </c>
     </row>
     <row r="2953">
-      <c r="A2953" s="6"/>
-      <c r="B2953" s="3"/>
-      <c r="C2953" s="3"/>
-      <c r="D2953" s="3"/>
+      <c r="A2953" s="16"/>
+      <c r="B2953" s="3" t="n">
+        <v>24.308935954227</v>
+      </c>
+      <c r="C2953" s="3" t="n">
+        <v>25.6388871783591</v>
+      </c>
+      <c r="D2953" s="3" t="n">
+        <v>26.0917509413669</v>
+      </c>
     </row>
     <row r="2954">
-      <c r="A2954" s="6"/>
-      <c r="B2954" s="3"/>
-      <c r="C2954" s="3"/>
-      <c r="D2954" s="3"/>
+      <c r="A2954" s="16"/>
+      <c r="B2954" s="3" t="n">
+        <v>24.3189142752699</v>
+      </c>
+      <c r="C2954" s="3" t="n">
+        <v>25.6676097560974</v>
+      </c>
+      <c r="D2954" s="3" t="n">
+        <v>26.1013811491807</v>
+      </c>
     </row>
     <row r="2955">
-      <c r="A2955" s="6"/>
-      <c r="B2955" s="3"/>
-      <c r="C2955" s="3"/>
-      <c r="D2955" s="3"/>
+      <c r="A2955" s="16"/>
+      <c r="B2955" s="3" t="n">
+        <v>24.3225532883953</v>
+      </c>
+      <c r="C2955" s="3" t="n">
+        <v>25.6806577672514</v>
+      </c>
+      <c r="D2955" s="3" t="n">
+        <v>26.1074492099328</v>
+      </c>
     </row>
     <row r="2956">
-      <c r="A2956" s="6"/>
-      <c r="B2956" s="3"/>
-      <c r="C2956" s="3"/>
-      <c r="D2956" s="3"/>
+      <c r="A2956" s="16"/>
+      <c r="B2956" s="3" t="n">
+        <v>24.324017132963</v>
+      </c>
+      <c r="C2956" s="3" t="n">
+        <v>25.6841119483314</v>
+      </c>
+      <c r="D2956" s="3" t="n">
+        <v>26.1090998406803</v>
+      </c>
     </row>
     <row r="2957">
-      <c r="A2957" s="6"/>
-      <c r="B2957" s="3"/>
-      <c r="C2957" s="3"/>
-      <c r="D2957" s="3"/>
+      <c r="A2957" s="16"/>
+      <c r="B2957" s="3" t="n">
+        <v>24.328331824765</v>
+      </c>
+      <c r="C2957" s="3" t="n">
+        <v>25.6943834450473</v>
+      </c>
+      <c r="D2957" s="3" t="n">
+        <v>26.1169412229842</v>
+      </c>
     </row>
     <row r="2958">
-      <c r="A2958" s="6"/>
-      <c r="B2958" s="3"/>
-      <c r="C2958" s="3"/>
-      <c r="D2958" s="3"/>
+      <c r="A2958" s="16"/>
+      <c r="B2958" s="3" t="n">
+        <v>24.3423842426419</v>
+      </c>
+      <c r="C2958" s="3" t="n">
+        <v>25.7256422066369</v>
+      </c>
+      <c r="D2958" s="3" t="n">
+        <v>26.1272585914026</v>
+      </c>
     </row>
     <row r="2959">
-      <c r="A2959" s="6"/>
-      <c r="B2959" s="3"/>
-      <c r="C2959" s="3"/>
-      <c r="D2959" s="3"/>
+      <c r="A2959" s="16"/>
+      <c r="B2959" s="3" t="n">
+        <v>24.3372549019609</v>
+      </c>
+      <c r="C2959" s="3" t="n">
+        <v>25.7326270483304</v>
+      </c>
+      <c r="D2959" s="3" t="n">
+        <v>26.1324236517225</v>
+      </c>
     </row>
     <row r="2960">
-      <c r="A2960" s="6"/>
-      <c r="B2960" s="3"/>
-      <c r="C2960" s="3"/>
-      <c r="D2960" s="3"/>
+      <c r="A2960" s="16"/>
+      <c r="B2960" s="3" t="n">
+        <v>24.3316379616477</v>
+      </c>
+      <c r="C2960" s="3" t="n">
+        <v>25.7382268189772</v>
+      </c>
+      <c r="D2960" s="3" t="n">
+        <v>26.1363256113263</v>
+      </c>
     </row>
     <row r="2961">
-      <c r="A2961" s="6"/>
-      <c r="B2961" s="3"/>
-      <c r="C2961" s="3"/>
-      <c r="D2961" s="3"/>
+      <c r="A2961" s="16"/>
+      <c r="B2961" s="3" t="n">
+        <v>24.3210489014882</v>
+      </c>
+      <c r="C2961" s="3" t="n">
+        <v>25.739538618926</v>
+      </c>
+      <c r="D2961" s="3" t="n">
+        <v>26.1409533572534</v>
+      </c>
     </row>
     <row r="2962">
-      <c r="A2962" s="6"/>
-      <c r="B2962" s="3"/>
-      <c r="C2962" s="3"/>
-      <c r="D2962" s="3"/>
+      <c r="A2962" s="16"/>
+      <c r="B2962" s="3" t="n">
+        <v>24.3141949190049</v>
+      </c>
+      <c r="C2962" s="3" t="n">
+        <v>25.7368585475778</v>
+      </c>
+      <c r="D2962" s="3" t="n">
+        <v>26.1443913043485</v>
+      </c>
     </row>
     <row r="2963">
-      <c r="A2963" s="6"/>
-      <c r="B2963" s="3"/>
-      <c r="C2963" s="3"/>
-      <c r="D2963" s="3"/>
+      <c r="A2963" s="16"/>
+      <c r="B2963" s="3" t="n">
+        <v>24.312503770739</v>
+      </c>
+      <c r="C2963" s="3" t="n">
+        <v>25.7381541623846</v>
+      </c>
+      <c r="D2963" s="3" t="n">
+        <v>26.1460330261144</v>
+      </c>
     </row>
     <row r="2964">
-      <c r="A2964" s="6"/>
-      <c r="B2964" s="3"/>
-      <c r="C2964" s="3"/>
-      <c r="D2964" s="3"/>
+      <c r="A2964" s="16"/>
+      <c r="B2964" s="3" t="n">
+        <v>24.3009633757959</v>
+      </c>
+      <c r="C2964" s="3" t="n">
+        <v>25.7391744245526</v>
+      </c>
+      <c r="D2964" s="3" t="n">
+        <v>26.1481936471496</v>
+      </c>
     </row>
     <row r="2965">
-      <c r="A2965" s="6"/>
-      <c r="B2965" s="3"/>
-      <c r="C2965" s="3"/>
-      <c r="D2965" s="3"/>
+      <c r="A2965" s="16"/>
+      <c r="B2965" s="3" t="n">
+        <v>24.2934483976336</v>
+      </c>
+      <c r="C2965" s="3" t="n">
+        <v>25.7352665919055</v>
+      </c>
+      <c r="D2965" s="3" t="n">
+        <v>26.1481263478378</v>
+      </c>
     </row>
     <row r="2966">
-      <c r="A2966" s="6"/>
-      <c r="B2966" s="3"/>
-      <c r="C2966" s="3"/>
-      <c r="D2966" s="3"/>
+      <c r="A2966" s="16"/>
+      <c r="B2966" s="3" t="n">
+        <v>24.281695556533</v>
+      </c>
+      <c r="C2966" s="3" t="n">
+        <v>25.7359884193419</v>
+      </c>
+      <c r="D2966" s="3" t="n">
+        <v>26.1546590909098</v>
+      </c>
     </row>
     <row r="2967">
-      <c r="A2967" s="6"/>
-      <c r="B2967" s="3"/>
-      <c r="C2967" s="3"/>
-      <c r="D2967" s="3"/>
+      <c r="A2967" s="16"/>
+      <c r="B2967" s="3" t="n">
+        <v>24.2699232416992</v>
+      </c>
+      <c r="C2967" s="3" t="n">
+        <v>25.7362413828584</v>
+      </c>
+      <c r="D2967" s="3" t="n">
+        <v>26.1498844820954</v>
+      </c>
     </row>
     <row r="2968">
       <c r="A2968" s="6"/>
@@ -46258,10 +46447,10 @@
         <v>17.82</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>17.29</v>
+        <v>17.3</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>17.07</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="17">
@@ -46282,10 +46471,10 @@
         <v>17.73</v>
       </c>
       <c r="G17" s="3" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H17" s="3" t="n">
         <v>17.28</v>
-      </c>
-      <c r="H17" s="3" t="n">
-        <v>17.06</v>
       </c>
     </row>
     <row r="18">
@@ -46306,10 +46495,10 @@
         <v>17.64</v>
       </c>
       <c r="G18" s="3" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="H18" s="3" t="n">
         <v>17.16</v>
-      </c>
-      <c r="H18" s="3" t="n">
-        <v>16.95</v>
       </c>
     </row>
     <row r="19">
@@ -46330,10 +46519,10 @@
         <v>17.6</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>17.1</v>
+        <v>17.12</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>16.88</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="20">
@@ -46354,10 +46543,10 @@
         <v>17.53</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>16.98</v>
+        <v>17</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>16.77</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="21">
@@ -46378,10 +46567,10 @@
         <v>17.4</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>16.8</v>
+        <v>16.82</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>16.59</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="22">
@@ -46402,10 +46591,10 @@
         <v>17.3</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>16.67</v>
+        <v>16.69</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>16.46</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="23">
@@ -46426,10 +46615,10 @@
         <v>17.39</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>16.72</v>
+        <v>16.75</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>16.52</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="24">
@@ -46450,10 +46639,10 @@
         <v>17.64</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>16.98</v>
+        <v>17</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>16.77</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="25">
@@ -46474,10 +46663,10 @@
         <v>17.74</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>17.17</v>
+        <v>17.19</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>16.96</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="26">
@@ -46498,10 +46687,10 @@
         <v>17.85</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>17.29</v>
+        <v>17.3</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>17.08</v>
+        <v>17.26</v>
       </c>
     </row>
     <row r="27">
@@ -46522,10 +46711,10 @@
         <v>17.98</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>17.44</v>
+        <v>17.49</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>17.24</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="28">
@@ -46548,10 +46737,10 @@
         <v>18.46</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>18.03</v>
+        <v>18.11</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>17.79</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="29">
@@ -46572,10 +46761,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>18.78</v>
+        <v>18.85</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>18.45</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="30">
@@ -46596,10 +46785,10 @@
         <v>19.16</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>19.04</v>
+        <v>19.1</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>18.69</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="31">
@@ -46620,10 +46809,10 @@
         <v>19.23</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>19.12</v>
+        <v>19.18</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>18.78</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="32">
@@ -46644,10 +46833,10 @@
         <v>19.39</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>19.33</v>
+        <v>19.34</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>18.94</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="33">
@@ -46668,10 +46857,10 @@
         <v>19.62</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>19.62</v>
+        <v>19.57</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>19.18</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="34">
@@ -46692,10 +46881,10 @@
         <v>19.97</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>19.91</v>
+        <v>19.98</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>19.53</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="35">
@@ -46716,10 +46905,10 @@
         <v>20.47</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>20.34</v>
+        <v>20.48</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>20.05</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="36">
@@ -46740,10 +46929,10 @@
         <v>20.7</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>20.59</v>
+        <v>20.73</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>20.32</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="37">
@@ -46764,10 +46953,10 @@
         <v>20.94</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>20.87</v>
+        <v>21.07</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>20.61</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="38">
@@ -46788,10 +46977,10 @@
         <v>20.95</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>21.04</v>
+        <v>21.24</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>20.78</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="39">
@@ -46812,10 +47001,10 @@
         <v>20.65</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>20.93</v>
+        <v>21.07</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>20.66</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="40">
@@ -46838,10 +47027,10 @@
         <v>20.2</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>20.94</v>
+        <v>21.17</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>20.59</v>
+        <v>21.17</v>
       </c>
     </row>
     <row r="41">
@@ -46862,10 +47051,10 @@
         <v>20.19</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>21.81</v>
+        <v>22.32</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>21.42</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="42">
@@ -46886,10 +47075,10 @@
         <v>20.84</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>21.93</v>
+        <v>22.23</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>21.53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -46910,10 +47099,10 @@
         <v>20.94</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>21.74</v>
+        <v>21.89</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>21.33</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="44">
@@ -46934,10 +47123,10 @@
         <v>20.95</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>21.66</v>
+        <v>21.65</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>21.25</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="45">
@@ -46958,10 +47147,10 @@
         <v>20.95</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>21.46</v>
+        <v>21.35</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>21.04</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="46">
@@ -46982,10 +47171,10 @@
         <v>20.97</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>21.5</v>
+        <v>21.47</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>21.13</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="47">
@@ -47006,10 +47195,10 @@
         <v>20.94</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>21.42</v>
+        <v>21.49</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>21.1</v>
+        <v>21.45</v>
       </c>
     </row>
     <row r="48">
@@ -47030,10 +47219,10 @@
         <v>20.94</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>21.41</v>
+        <v>21.56</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>21.15</v>
+        <v>21.49</v>
       </c>
     </row>
     <row r="49">
@@ -47054,10 +47243,10 @@
         <v>20.89</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>21.36</v>
+        <v>21.45</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>21.08</v>
+        <v>21.46</v>
       </c>
     </row>
     <row r="50">
@@ -47078,10 +47267,10 @@
         <v>20.73</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>21.32</v>
+        <v>21.52</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>21.07</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="51">
@@ -47102,10 +47291,10 @@
         <v>20.78</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>21.44</v>
+        <v>21.68</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>21.21</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="52">
@@ -47128,10 +47317,10 @@
         <v>20.83</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>21.5</v>
+        <v>21.78</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>21.28</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="53">
@@ -47152,10 +47341,10 @@
         <v>20.51</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>21.3</v>
+        <v>21.33</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>21.02</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="54">
@@ -47176,10 +47365,10 @@
         <v>19.02</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>20.37</v>
+        <v>20.13</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>20.12</v>
+        <v>20.71</v>
       </c>
     </row>
     <row r="55">
@@ -47200,10 +47389,10 @@
         <v>16.45</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>19.21</v>
+        <v>19.24</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>19.04</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="56">
@@ -47224,10 +47413,10 @@
         <v>17.08</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>18.7</v>
+        <v>18.77</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>18.57</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="57">
@@ -47248,10 +47437,10 @@
         <v>18.16</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>19.23</v>
+        <v>19.51</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>19.13</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="58">
@@ -47272,10 +47461,10 @@
         <v>19.08</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>19.86</v>
+        <v>20.14</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>19.7</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="59">
@@ -47296,10 +47485,10 @@
         <v>19.09</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>19.91</v>
+        <v>20.13</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>19.7</v>
+        <v>19.97</v>
       </c>
     </row>
     <row r="60">
@@ -47320,10 +47509,10 @@
         <v>19.04</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>19.64</v>
+        <v>19.67</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>19.39</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="61">
@@ -47344,10 +47533,10 @@
         <v>18.92</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>19.28</v>
+        <v>19.29</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>19.06</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="62">
@@ -47368,10 +47557,10 @@
         <v>18.34</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>18.93</v>
+        <v>19.08</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>18.8</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="63">
@@ -47392,10 +47581,10 @@
         <v>18.48</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>19.24</v>
+        <v>19.65</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>19.16</v>
+        <v>19.17</v>
       </c>
     </row>
     <row r="64">
@@ -47418,10 +47607,10 @@
         <v>19.45</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>19.92</v>
+        <v>20.47</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>19.88</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="65">
@@ -47442,10 +47631,10 @@
         <v>20.42</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>20.71</v>
+        <v>21.39</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>20.75</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="66">
@@ -47466,10 +47655,10 @@
         <v>21.59</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>21.48</v>
+        <v>21.95</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>21.43</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="67">
@@ -47490,10 +47679,10 @@
         <v>21.88</v>
       </c>
       <c r="G67" s="3" t="n">
-        <v>21.64</v>
+        <v>22</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>21.55</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="68">
@@ -47514,10 +47703,10 @@
         <v>22.01</v>
       </c>
       <c r="G68" s="3" t="n">
-        <v>21.81</v>
+        <v>22.17</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>21.69</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="69">
@@ -47538,10 +47727,10 @@
         <v>22.13</v>
       </c>
       <c r="G69" s="3" t="n">
-        <v>21.8</v>
+        <v>22.29</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>21.73</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="70">
@@ -47562,10 +47751,10 @@
         <v>22.21</v>
       </c>
       <c r="G70" s="3" t="n">
-        <v>21.79</v>
+        <v>22.21</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>21.74</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="71">
@@ -47586,10 +47775,10 @@
         <v>22.29</v>
       </c>
       <c r="G71" s="3" t="n">
-        <v>21.78</v>
+        <v>22.26</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>21.79</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="72">
@@ -47610,10 +47799,10 @@
         <v>22.3</v>
       </c>
       <c r="G72" s="3" t="n">
-        <v>21.75</v>
+        <v>22.21</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>21.73</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="73">
@@ -47634,10 +47823,10 @@
         <v>22.36</v>
       </c>
       <c r="G73" s="3" t="n">
-        <v>21.67</v>
+        <v>22.21</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>21.71</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="74">
@@ -47658,10 +47847,10 @@
         <v>22.28</v>
       </c>
       <c r="G74" s="3" t="n">
-        <v>21.63</v>
+        <v>22.04</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>21.64</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="75">
@@ -47682,10 +47871,10 @@
         <v>22.45</v>
       </c>
       <c r="G75" s="3" t="n">
-        <v>21.9</v>
+        <v>22.29</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>21.82</v>
+        <v>21.62</v>
       </c>
     </row>
     <row r="76">
@@ -47708,10 +47897,10 @@
         <v>22.74</v>
       </c>
       <c r="G76" s="3" t="n">
-        <v>22.3</v>
+        <v>22.63</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>22.16</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="77">
@@ -47732,10 +47921,10 @@
         <v>22.95</v>
       </c>
       <c r="G77" s="3" t="n">
-        <v>22.47</v>
+        <v>22.83</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>22.33</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="78">
@@ -47756,10 +47945,10 @@
         <v>23.25</v>
       </c>
       <c r="G78" s="3" t="n">
-        <v>22.97</v>
+        <v>23.09</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>22.73</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="79">
@@ -47780,10 +47969,10 @@
         <v>23.42</v>
       </c>
       <c r="G79" s="3" t="n">
-        <v>23.38</v>
+        <v>23.35</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>23.13</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="80">
@@ -47804,10 +47993,10 @@
         <v>23.64</v>
       </c>
       <c r="G80" s="3" t="n">
-        <v>23.5</v>
+        <v>23.27</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>23.29</v>
+        <v>23.22</v>
       </c>
     </row>
     <row r="81">
@@ -47828,7 +48017,7 @@
         <v>23.85</v>
       </c>
       <c r="G81" s="3" t="n">
-        <v>23.57</v>
+        <v>23.33</v>
       </c>
       <c r="H81" s="3" t="n">
         <v>23.38</v>
@@ -47852,10 +48041,10 @@
         <v>23.88</v>
       </c>
       <c r="G82" s="3" t="n">
-        <v>23.66</v>
+        <v>23.48</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>23.46</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="83">
@@ -47876,10 +48065,10 @@
         <v>23.99</v>
       </c>
       <c r="G83" s="3" t="n">
-        <v>23.74</v>
+        <v>23.6</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>23.53</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="84">
@@ -47900,10 +48089,10 @@
         <v>23.97</v>
       </c>
       <c r="G84" s="3" t="n">
-        <v>23.78</v>
+        <v>23.69</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>23.57</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="85">
@@ -47924,10 +48113,10 @@
         <v>24.14</v>
       </c>
       <c r="G85" s="3" t="n">
-        <v>23.85</v>
+        <v>23.81</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>23.66</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="86">
@@ -47948,10 +48137,10 @@
         <v>24.1</v>
       </c>
       <c r="G86" s="3" t="n">
-        <v>23.91</v>
+        <v>24.11</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>23.73</v>
+        <v>23.52</v>
       </c>
     </row>
     <row r="87">
@@ -47972,10 +48161,10 @@
         <v>23.9</v>
       </c>
       <c r="G87" s="3" t="n">
-        <v>23.83</v>
+        <v>24.1</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>23.66</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="88">
@@ -47998,10 +48187,10 @@
         <v>24.06</v>
       </c>
       <c r="G88" s="3" t="n">
-        <v>23.92</v>
+        <v>24.21</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>23.74</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="89">
@@ -48022,10 +48211,10 @@
         <v>24.09</v>
       </c>
       <c r="G89" s="3" t="n">
-        <v>23.8</v>
+        <v>24.07</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>23.63</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="90">
@@ -48046,10 +48235,10 @@
         <v>24.18</v>
       </c>
       <c r="G90" s="3" t="n">
-        <v>23.96</v>
+        <v>24.19</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>23.72</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="91">
@@ -48070,10 +48259,10 @@
         <v>24.25</v>
       </c>
       <c r="G91" s="3" t="n">
-        <v>23.95</v>
+        <v>24.08</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>23.7</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="92">
@@ -48094,10 +48283,10 @@
         <v>24.23</v>
       </c>
       <c r="G92" s="3" t="n">
-        <v>23.9</v>
+        <v>24.22</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>23.69</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="93">
@@ -48118,10 +48307,10 @@
         <v>24.27</v>
       </c>
       <c r="G93" s="3" t="n">
-        <v>23.93</v>
+        <v>24.31</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>23.77</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="94">
@@ -48142,10 +48331,10 @@
         <v>24.34</v>
       </c>
       <c r="G94" s="3" t="n">
-        <v>24.08</v>
+        <v>24.38</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>23.83</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="95">
@@ -48166,10 +48355,10 @@
         <v>24.49</v>
       </c>
       <c r="G95" s="3" t="n">
-        <v>24.29</v>
+        <v>24.47</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>24.06</v>
+        <v>23.93</v>
       </c>
     </row>
     <row r="96">
@@ -48190,10 +48379,10 @@
         <v>24.59</v>
       </c>
       <c r="G96" s="3" t="n">
-        <v>24.37</v>
+        <v>24.53</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>24.16</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="97">
@@ -48214,10 +48403,10 @@
         <v>24.6</v>
       </c>
       <c r="G97" s="3" t="n">
-        <v>24.44</v>
+        <v>24.71</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>24.2</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="98">
@@ -48238,10 +48427,10 @@
         <v>24.37</v>
       </c>
       <c r="G98" s="3" t="n">
-        <v>24.35</v>
+        <v>24.53</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>24.11</v>
+        <v>24.21</v>
       </c>
     </row>
     <row r="99">
@@ -48262,10 +48451,10 @@
         <v>24.13</v>
       </c>
       <c r="G99" s="3" t="n">
-        <v>24.34</v>
+        <v>24.58</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>24.13</v>
+        <v>24.12</v>
       </c>
     </row>
     <row r="100">
@@ -48288,10 +48477,10 @@
         <v>24.16</v>
       </c>
       <c r="G100" s="3" t="n">
-        <v>24.72</v>
+        <v>25.03</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>24.42</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="101">
@@ -48312,10 +48501,10 @@
         <v>24.64</v>
       </c>
       <c r="G101" s="3" t="n">
-        <v>25.23</v>
+        <v>25.62</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>24.88</v>
+        <v>24.71</v>
       </c>
     </row>
     <row r="102">
@@ -48336,10 +48525,10 @@
         <v>24.96</v>
       </c>
       <c r="G102" s="3" t="n">
-        <v>25.27</v>
+        <v>25.56</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>24.96</v>
+        <v>24.82</v>
       </c>
     </row>
     <row r="103">
@@ -48360,10 +48549,10 @@
         <v>25.25</v>
       </c>
       <c r="G103" s="3" t="n">
-        <v>25.49</v>
+        <v>25.72</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>25.14</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="104">
@@ -48384,10 +48573,10 @@
         <v>25.28</v>
       </c>
       <c r="G104" s="3" t="n">
-        <v>25.46</v>
+        <v>25.6</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>25.08</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="105">
@@ -48408,10 +48597,10 @@
         <v>25.18</v>
       </c>
       <c r="G105" s="3" t="n">
-        <v>25.67</v>
+        <v>25.74</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>25.19</v>
+        <v>25.05</v>
       </c>
     </row>
     <row r="106">
@@ -48432,10 +48621,10 @@
         <v>25.48</v>
       </c>
       <c r="G106" s="3" t="n">
-        <v>26.05</v>
+        <v>26.13</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>25.58</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="107">
@@ -48456,10 +48645,10 @@
         <v>25.59</v>
       </c>
       <c r="G107" s="3" t="n">
-        <v>25.98</v>
+        <v>26.09</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>25.58</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="108">
@@ -48480,10 +48669,10 @@
         <v>25.39</v>
       </c>
       <c r="G108" s="3" t="n">
-        <v>25.87</v>
+        <v>25.95</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>25.52</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="109">
@@ -48504,10 +48693,10 @@
         <v>25.24</v>
       </c>
       <c r="G109" s="3" t="n">
-        <v>25.64</v>
+        <v>26.02</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>25.44</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="110">
@@ -48528,10 +48717,10 @@
         <v>25.3</v>
       </c>
       <c r="G110" s="3" t="n">
-        <v>25.58</v>
+        <v>26.24</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>25.57</v>
+        <v>25.85</v>
       </c>
     </row>
     <row r="111">
@@ -48552,21 +48741,37 @@
         <v>25.4</v>
       </c>
       <c r="G111" s="3" t="n">
-        <v>25.66</v>
+        <v>26.38</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>25.69</v>
+        <v>25.93</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="6"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
+      <c r="A112" s="6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="D112" s="3" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>25.64</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>26.29</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="6"/>

--- a/PrecioGasolinaHist.xlsx
+++ b/PrecioGasolinaHist.xlsx
@@ -4230,7 +4230,7 @@
     <t xml:space="preserve">Precios corrientes</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2017 - enero 2025</t>
+    <t xml:space="preserve">enero 2017 - febrero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Mensual</t>
@@ -4260,7 +4260,7 @@
     <t xml:space="preserve">CRE, pesos por litro</t>
   </si>
   <si>
-    <t xml:space="preserve">enero 2025</t>
+    <t xml:space="preserve">febrero 2025</t>
   </si>
   <si>
     <t xml:space="preserve">2017</t>
@@ -45694,172 +45694,340 @@
       </c>
     </row>
     <row r="2968">
-      <c r="A2968" s="6"/>
-      <c r="B2968" s="3"/>
-      <c r="C2968" s="3"/>
-      <c r="D2968" s="3"/>
+      <c r="A2968" s="16"/>
+      <c r="B2968" s="3" t="n">
+        <v>24.2610137285206</v>
+      </c>
+      <c r="C2968" s="3" t="n">
+        <v>25.7340934521343</v>
+      </c>
+      <c r="D2968" s="3" t="n">
+        <v>26.1400130701876</v>
+      </c>
     </row>
     <row r="2969">
-      <c r="A2969" s="6"/>
-      <c r="B2969" s="3"/>
-      <c r="C2969" s="3"/>
-      <c r="D2969" s="3"/>
+      <c r="A2969" s="16"/>
+      <c r="B2969" s="3" t="n">
+        <v>24.2560746436609</v>
+      </c>
+      <c r="C2969" s="3" t="n">
+        <v>25.7323303023894</v>
+      </c>
+      <c r="D2969" s="3" t="n">
+        <v>26.1374405083835</v>
+      </c>
     </row>
     <row r="2970">
-      <c r="A2970" s="6"/>
-      <c r="B2970" s="3"/>
-      <c r="C2970" s="3"/>
-      <c r="D2970" s="3"/>
+      <c r="A2970" s="16"/>
+      <c r="B2970" s="3" t="n">
+        <v>24.2456747572815</v>
+      </c>
+      <c r="C2970" s="3" t="n">
+        <v>25.7301893980625</v>
+      </c>
+      <c r="D2970" s="3" t="n">
+        <v>26.1260175861586</v>
+      </c>
     </row>
     <row r="2971">
-      <c r="A2971" s="6"/>
-      <c r="B2971" s="3"/>
-      <c r="C2971" s="3"/>
-      <c r="D2971" s="3"/>
+      <c r="A2971" s="16"/>
+      <c r="B2971" s="3" t="n">
+        <v>24.2422755251587</v>
+      </c>
+      <c r="C2971" s="3" t="n">
+        <v>25.7289145420725</v>
+      </c>
+      <c r="D2971" s="3" t="n">
+        <v>26.1233542319755</v>
+      </c>
     </row>
     <row r="2972">
-      <c r="A2972" s="6"/>
-      <c r="B2972" s="3"/>
-      <c r="C2972" s="3"/>
-      <c r="D2972" s="3"/>
+      <c r="A2972" s="16"/>
+      <c r="B2972" s="3" t="n">
+        <v>24.2320439256035</v>
+      </c>
+      <c r="C2972" s="3" t="n">
+        <v>25.7284049147667</v>
+      </c>
+      <c r="D2972" s="3" t="n">
+        <v>26.1213179976858</v>
+      </c>
     </row>
     <row r="2973">
-      <c r="A2973" s="6"/>
-      <c r="B2973" s="3"/>
-      <c r="C2973" s="3"/>
-      <c r="D2973" s="3"/>
+      <c r="A2973" s="16"/>
+      <c r="B2973" s="3" t="n">
+        <v>24.2335553968578</v>
+      </c>
+      <c r="C2973" s="3" t="n">
+        <v>25.7249182950526</v>
+      </c>
+      <c r="D2973" s="3" t="n">
+        <v>26.1157664670662</v>
+      </c>
     </row>
     <row r="2974">
-      <c r="A2974" s="6"/>
-      <c r="B2974" s="3"/>
-      <c r="C2974" s="3"/>
-      <c r="D2974" s="3"/>
+      <c r="A2974" s="16"/>
+      <c r="B2974" s="3" t="n">
+        <v>24.2315217163789</v>
+      </c>
+      <c r="C2974" s="3" t="n">
+        <v>25.7260135767798</v>
+      </c>
+      <c r="D2974" s="3" t="n">
+        <v>26.1113470779728</v>
+      </c>
     </row>
     <row r="2975">
-      <c r="A2975" s="6"/>
-      <c r="B2975" s="3"/>
-      <c r="C2975" s="3"/>
-      <c r="D2975" s="3"/>
+      <c r="A2975" s="16"/>
+      <c r="B2975" s="3" t="n">
+        <v>24.2220942922626</v>
+      </c>
+      <c r="C2975" s="3" t="n">
+        <v>25.7180002437248</v>
+      </c>
+      <c r="D2975" s="3" t="n">
+        <v>26.0976106483751</v>
+      </c>
     </row>
     <row r="2976">
-      <c r="A2976" s="6"/>
-      <c r="B2976" s="3"/>
-      <c r="C2976" s="3"/>
-      <c r="D2976" s="3"/>
+      <c r="A2976" s="16"/>
+      <c r="B2976" s="3" t="n">
+        <v>24.2220942922626</v>
+      </c>
+      <c r="C2976" s="3" t="n">
+        <v>25.7180002437248</v>
+      </c>
+      <c r="D2976" s="3" t="n">
+        <v>26.0976106483751</v>
+      </c>
     </row>
     <row r="2977">
-      <c r="A2977" s="6"/>
-      <c r="B2977" s="3"/>
-      <c r="C2977" s="3"/>
-      <c r="D2977" s="3"/>
+      <c r="A2977" s="16"/>
+      <c r="B2977" s="3" t="n">
+        <v>24.2254708770366</v>
+      </c>
+      <c r="C2977" s="3" t="n">
+        <v>25.7321789931642</v>
+      </c>
+      <c r="D2977" s="3" t="n">
+        <v>26.0966205401801</v>
+      </c>
     </row>
     <row r="2978">
-      <c r="A2978" s="6"/>
-      <c r="B2978" s="3"/>
-      <c r="C2978" s="3"/>
-      <c r="D2978" s="3"/>
+      <c r="A2978" s="16"/>
+      <c r="B2978" s="3" t="n">
+        <v>24.22430976431</v>
+      </c>
+      <c r="C2978" s="3" t="n">
+        <v>25.7312867325254</v>
+      </c>
+      <c r="D2978" s="3" t="n">
+        <v>26.0970508303977</v>
+      </c>
     </row>
     <row r="2979">
-      <c r="A2979" s="6"/>
-      <c r="B2979" s="3"/>
-      <c r="C2979" s="3"/>
-      <c r="D2979" s="3"/>
+      <c r="A2979" s="16"/>
+      <c r="B2979" s="3" t="n">
+        <v>24.2177120535716</v>
+      </c>
+      <c r="C2979" s="3" t="n">
+        <v>25.7324841002626</v>
+      </c>
+      <c r="D2979" s="3" t="n">
+        <v>26.0988769874477</v>
+      </c>
     </row>
     <row r="2980">
-      <c r="A2980" s="6"/>
-      <c r="B2980" s="3"/>
-      <c r="C2980" s="3"/>
-      <c r="D2980" s="3"/>
+      <c r="A2980" s="16"/>
+      <c r="B2980" s="3" t="n">
+        <v>24.2131595339719</v>
+      </c>
+      <c r="C2980" s="3" t="n">
+        <v>25.7430910008842</v>
+      </c>
+      <c r="D2980" s="3" t="n">
+        <v>26.1074344220682</v>
+      </c>
     </row>
     <row r="2981">
-      <c r="A2981" s="6"/>
-      <c r="B2981" s="3"/>
-      <c r="C2981" s="3"/>
-      <c r="D2981" s="3"/>
+      <c r="A2981" s="16"/>
+      <c r="B2981" s="3" t="n">
+        <v>24.212092750908</v>
+      </c>
+      <c r="C2981" s="3" t="n">
+        <v>25.7523425146651</v>
+      </c>
+      <c r="D2981" s="3" t="n">
+        <v>26.1189599726313</v>
+      </c>
     </row>
     <row r="2982">
-      <c r="A2982" s="6"/>
-      <c r="B2982" s="3"/>
-      <c r="C2982" s="3"/>
-      <c r="D2982" s="3"/>
+      <c r="A2982" s="16"/>
+      <c r="B2982" s="3" t="n">
+        <v>24.2054288452327</v>
+      </c>
+      <c r="C2982" s="3" t="n">
+        <v>25.7471895339761</v>
+      </c>
+      <c r="D2982" s="3" t="n">
+        <v>26.1286287799796</v>
+      </c>
     </row>
     <row r="2983">
-      <c r="A2983" s="6"/>
-      <c r="B2983" s="3"/>
-      <c r="C2983" s="3"/>
-      <c r="D2983" s="3"/>
+      <c r="A2983" s="16"/>
+      <c r="B2983" s="3" t="n">
+        <v>24.2031193231307</v>
+      </c>
+      <c r="C2983" s="3" t="n">
+        <v>25.7210824955243</v>
+      </c>
+      <c r="D2983" s="3" t="n">
+        <v>26.1231030760932</v>
+      </c>
     </row>
     <row r="2984">
-      <c r="A2984" s="6"/>
-      <c r="B2984" s="3"/>
-      <c r="C2984" s="3"/>
-      <c r="D2984" s="3"/>
+      <c r="A2984" s="16"/>
+      <c r="B2984" s="3" t="n">
+        <v>24.1774319927111</v>
+      </c>
+      <c r="C2984" s="3" t="n">
+        <v>25.6457853208281</v>
+      </c>
+      <c r="D2984" s="3" t="n">
+        <v>26.1170720386187</v>
+      </c>
     </row>
     <row r="2985">
-      <c r="A2985" s="6"/>
-      <c r="B2985" s="3"/>
-      <c r="C2985" s="3"/>
-      <c r="D2985" s="3"/>
+      <c r="A2985" s="16"/>
+      <c r="B2985" s="3" t="n">
+        <v>24.1789828526889</v>
+      </c>
+      <c r="C2985" s="3" t="n">
+        <v>25.653202021704</v>
+      </c>
+      <c r="D2985" s="3" t="n">
+        <v>26.122676497696</v>
+      </c>
     </row>
     <row r="2986">
-      <c r="A2986" s="6"/>
-      <c r="B2986" s="3"/>
-      <c r="C2986" s="3"/>
-      <c r="D2986" s="3"/>
+      <c r="A2986" s="16"/>
+      <c r="B2986" s="3" t="n">
+        <v>24.1836263308231</v>
+      </c>
+      <c r="C2986" s="3" t="n">
+        <v>25.644649872545</v>
+      </c>
+      <c r="D2986" s="3" t="n">
+        <v>26.1175524215997</v>
+      </c>
     </row>
     <row r="2987">
-      <c r="A2987" s="6"/>
-      <c r="B2987" s="3"/>
-      <c r="C2987" s="3"/>
-      <c r="D2987" s="3"/>
+      <c r="A2987" s="16"/>
+      <c r="B2987" s="3" t="n">
+        <v>24.1735847312111</v>
+      </c>
+      <c r="C2987" s="3" t="n">
+        <v>25.6017080793876</v>
+      </c>
+      <c r="D2987" s="3" t="n">
+        <v>26.1014718696725</v>
+      </c>
     </row>
     <row r="2988">
-      <c r="A2988" s="6"/>
-      <c r="B2988" s="3"/>
-      <c r="C2988" s="3"/>
-      <c r="D2988" s="3"/>
+      <c r="A2988" s="16"/>
+      <c r="B2988" s="3" t="n">
+        <v>24.1698292422624</v>
+      </c>
+      <c r="C2988" s="3" t="n">
+        <v>25.6016355214823</v>
+      </c>
+      <c r="D2988" s="3" t="n">
+        <v>26.1023166762399</v>
+      </c>
     </row>
     <row r="2989">
-      <c r="A2989" s="6"/>
-      <c r="B2989" s="3"/>
-      <c r="C2989" s="3"/>
-      <c r="D2989" s="3"/>
+      <c r="A2989" s="16"/>
+      <c r="B2989" s="3" t="n">
+        <v>24.1602581353836</v>
+      </c>
+      <c r="C2989" s="3" t="n">
+        <v>25.5979821221651</v>
+      </c>
+      <c r="D2989" s="3" t="n">
+        <v>26.0928486411426</v>
+      </c>
     </row>
     <row r="2990">
-      <c r="A2990" s="6"/>
-      <c r="B2990" s="3"/>
-      <c r="C2990" s="3"/>
-      <c r="D2990" s="3"/>
+      <c r="A2990" s="16"/>
+      <c r="B2990" s="3" t="n">
+        <v>24.1595403429857</v>
+      </c>
+      <c r="C2990" s="3" t="n">
+        <v>25.6049889474577</v>
+      </c>
+      <c r="D2990" s="3" t="n">
+        <v>26.0916927136188</v>
+      </c>
     </row>
     <row r="2991">
-      <c r="A2991" s="6"/>
-      <c r="B2991" s="3"/>
-      <c r="C2991" s="3"/>
-      <c r="D2991" s="3"/>
+      <c r="A2991" s="16"/>
+      <c r="B2991" s="3" t="n">
+        <v>24.1587602238487</v>
+      </c>
+      <c r="C2991" s="3" t="n">
+        <v>25.5947801814375</v>
+      </c>
+      <c r="D2991" s="3" t="n">
+        <v>26.0886643050636</v>
+      </c>
     </row>
     <row r="2992">
-      <c r="A2992" s="6"/>
-      <c r="B2992" s="3"/>
-      <c r="C2992" s="3"/>
-      <c r="D2992" s="3"/>
+      <c r="A2992" s="16"/>
+      <c r="B2992" s="3" t="n">
+        <v>24.1697118478108</v>
+      </c>
+      <c r="C2992" s="3" t="n">
+        <v>25.6070370994937</v>
+      </c>
+      <c r="D2992" s="3" t="n">
+        <v>26.0987734311329</v>
+      </c>
     </row>
     <row r="2993">
-      <c r="A2993" s="6"/>
-      <c r="B2993" s="3"/>
-      <c r="C2993" s="3"/>
-      <c r="D2993" s="3"/>
+      <c r="A2993" s="16"/>
+      <c r="B2993" s="3" t="n">
+        <v>24.164149698076</v>
+      </c>
+      <c r="C2993" s="3" t="n">
+        <v>25.5931009981387</v>
+      </c>
+      <c r="D2993" s="3" t="n">
+        <v>26.0987257107793</v>
+      </c>
     </row>
     <row r="2994">
-      <c r="A2994" s="6"/>
-      <c r="B2994" s="3"/>
-      <c r="C2994" s="3"/>
-      <c r="D2994" s="3"/>
+      <c r="A2994" s="16"/>
+      <c r="B2994" s="3" t="n">
+        <v>24.1475743863977</v>
+      </c>
+      <c r="C2994" s="3" t="n">
+        <v>25.5835800604227</v>
+      </c>
+      <c r="D2994" s="3" t="n">
+        <v>26.0965339865279</v>
+      </c>
     </row>
     <row r="2995">
-      <c r="A2995" s="6"/>
-      <c r="B2995" s="3"/>
-      <c r="C2995" s="3"/>
-      <c r="D2995" s="3"/>
+      <c r="A2995" s="16"/>
+      <c r="B2995" s="3" t="n">
+        <v>24.078550019719</v>
+      </c>
+      <c r="C2995" s="3" t="n">
+        <v>25.5841716766864</v>
+      </c>
+      <c r="D2995" s="3" t="n">
+        <v>26.0852606828869</v>
+      </c>
     </row>
     <row r="2996">
       <c r="A2996" s="6"/>
@@ -46447,10 +46615,10 @@
         <v>17.82</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>17.3</v>
+        <v>17.29</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>17.28</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="17">
@@ -46471,10 +46639,10 @@
         <v>17.73</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>17.3</v>
+        <v>17.28</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>17.28</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="18">
@@ -46495,10 +46663,10 @@
         <v>17.64</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>17.18</v>
+        <v>17.16</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>17.16</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="19">
@@ -46519,10 +46687,10 @@
         <v>17.6</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>17.12</v>
+        <v>17.1</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>17.09</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="20">
@@ -46543,10 +46711,10 @@
         <v>17.53</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>17</v>
+        <v>16.98</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>16.96</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="21">
@@ -46567,10 +46735,10 @@
         <v>17.4</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>16.82</v>
+        <v>16.8</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>16.78</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="22">
@@ -46591,10 +46759,10 @@
         <v>17.3</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>16.69</v>
+        <v>16.67</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>16.66</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="23">
@@ -46615,10 +46783,10 @@
         <v>17.39</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>16.75</v>
+        <v>16.72</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>16.71</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="24">
@@ -46639,10 +46807,10 @@
         <v>17.64</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>17</v>
+        <v>16.98</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>16.95</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="25">
@@ -46663,10 +46831,10 @@
         <v>17.74</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>17.19</v>
+        <v>17.17</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>17.14</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="26">
@@ -46687,10 +46855,10 @@
         <v>17.85</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>17.3</v>
+        <v>17.29</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>17.26</v>
+        <v>17.08</v>
       </c>
     </row>
     <row r="27">
@@ -46711,10 +46879,10 @@
         <v>17.98</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>17.49</v>
+        <v>17.44</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>17.4</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="28">
@@ -46737,10 +46905,10 @@
         <v>18.46</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>18.11</v>
+        <v>18.03</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>18.06</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="29">
@@ -46761,10 +46929,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>18.85</v>
+        <v>18.78</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>18.89</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="30">
@@ -46785,10 +46953,10 @@
         <v>19.16</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>19.1</v>
+        <v>19.04</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>19.19</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="31">
@@ -46809,10 +46977,10 @@
         <v>19.23</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>19.18</v>
+        <v>19.12</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>19.27</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="32">
@@ -46833,10 +47001,10 @@
         <v>19.39</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>19.34</v>
+        <v>19.33</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>19.38</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="33">
@@ -46857,10 +47025,10 @@
         <v>19.62</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>19.57</v>
+        <v>19.62</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>19.57</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="34">
@@ -46881,10 +47049,10 @@
         <v>19.97</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>19.98</v>
+        <v>19.91</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>19.93</v>
+        <v>19.53</v>
       </c>
     </row>
     <row r="35">
@@ -46905,10 +47073,10 @@
         <v>20.47</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>20.48</v>
+        <v>20.34</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>20.46</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="36">
@@ -46929,10 +47097,10 @@
         <v>20.7</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>20.73</v>
+        <v>20.59</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>20.73</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="37">
@@ -46953,10 +47121,10 @@
         <v>20.94</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>21.07</v>
+        <v>20.87</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>21.02</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="38">
@@ -46977,10 +47145,10 @@
         <v>20.95</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>21.24</v>
+        <v>21.04</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>21.2</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="39">
@@ -47001,10 +47169,10 @@
         <v>20.65</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>21.07</v>
+        <v>20.93</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>21.12</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="40">
@@ -47027,10 +47195,10 @@
         <v>20.2</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>21.17</v>
+        <v>20.94</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>21.17</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="41">
@@ -47051,10 +47219,10 @@
         <v>20.19</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>22.32</v>
+        <v>21.81</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>21.94</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="42">
@@ -47075,10 +47243,10 @@
         <v>20.84</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>22.23</v>
+        <v>21.93</v>
       </c>
       <c r="H42" s="3" t="n">
-        <v>22</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="43">
@@ -47099,10 +47267,10 @@
         <v>20.94</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>21.89</v>
+        <v>21.74</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>21.68</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="44">
@@ -47123,10 +47291,10 @@
         <v>20.95</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>21.65</v>
+        <v>21.66</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>21.58</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="45">
@@ -47147,10 +47315,10 @@
         <v>20.95</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>21.35</v>
+        <v>21.46</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>21.43</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="46">
@@ -47171,10 +47339,10 @@
         <v>20.97</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>21.47</v>
+        <v>21.5</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>21.47</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="47">
@@ -47195,10 +47363,10 @@
         <v>20.94</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>21.49</v>
+        <v>21.42</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>21.45</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="48">
@@ -47219,10 +47387,10 @@
         <v>20.94</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>21.56</v>
+        <v>21.41</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>21.49</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="49">
@@ -47243,10 +47411,10 @@
         <v>20.89</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>21.45</v>
+        <v>21.36</v>
       </c>
       <c r="H49" s="3" t="n">
-        <v>21.46</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="50">
@@ -47267,10 +47435,10 @@
         <v>20.73</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>21.52</v>
+        <v>21.32</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>21.47</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="51">
@@ -47291,10 +47459,10 @@
         <v>20.78</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>21.68</v>
+        <v>21.44</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>21.6</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="52">
@@ -47317,10 +47485,10 @@
         <v>20.83</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>21.78</v>
+        <v>21.5</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>21.65</v>
+        <v>21.28</v>
       </c>
     </row>
     <row r="53">
@@ -47341,10 +47509,10 @@
         <v>20.51</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>21.33</v>
+        <v>21.3</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>21.52</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="54">
@@ -47365,10 +47533,10 @@
         <v>19.02</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>20.13</v>
+        <v>20.37</v>
       </c>
       <c r="H54" s="3" t="n">
-        <v>20.71</v>
+        <v>20.12</v>
       </c>
     </row>
     <row r="55">
@@ -47389,10 +47557,10 @@
         <v>16.45</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>19.24</v>
+        <v>19.21</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>19.39</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="56">
@@ -47413,10 +47581,10 @@
         <v>17.08</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>18.77</v>
+        <v>18.7</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>19.13</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="57">
@@ -47437,10 +47605,10 @@
         <v>18.16</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>19.51</v>
+        <v>19.23</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>19.5</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="58">
@@ -47461,10 +47629,10 @@
         <v>19.08</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>20.14</v>
+        <v>19.86</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>19.95</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="59">
@@ -47485,10 +47653,10 @@
         <v>19.09</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>20.13</v>
+        <v>19.91</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>19.97</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="60">
@@ -47509,10 +47677,10 @@
         <v>19.04</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>19.67</v>
+        <v>19.64</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>19.66</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="61">
@@ -47533,10 +47701,10 @@
         <v>18.92</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>19.29</v>
+        <v>19.28</v>
       </c>
       <c r="H61" s="3" t="n">
-        <v>19.22</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="62">
@@ -47557,10 +47725,10 @@
         <v>18.34</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>19.08</v>
+        <v>18.93</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>18.78</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="63">
@@ -47581,10 +47749,10 @@
         <v>18.48</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>19.65</v>
+        <v>19.24</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>19.17</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="64">
@@ -47607,10 +47775,10 @@
         <v>19.45</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>20.47</v>
+        <v>19.92</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>19.91</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="65">
@@ -47631,10 +47799,10 @@
         <v>20.42</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>21.39</v>
+        <v>20.71</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>20.83</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="66">
@@ -47655,10 +47823,10 @@
         <v>21.59</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>21.95</v>
+        <v>21.48</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>21.51</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="67">
@@ -47679,10 +47847,10 @@
         <v>21.88</v>
       </c>
       <c r="G67" s="3" t="n">
-        <v>22</v>
+        <v>21.64</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>21.65</v>
+        <v>21.55</v>
       </c>
     </row>
     <row r="68">
@@ -47703,10 +47871,10 @@
         <v>22.01</v>
       </c>
       <c r="G68" s="3" t="n">
-        <v>22.17</v>
+        <v>21.81</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>21.73</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="69">
@@ -47727,10 +47895,10 @@
         <v>22.13</v>
       </c>
       <c r="G69" s="3" t="n">
-        <v>22.29</v>
+        <v>21.8</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>21.7</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="70">
@@ -47751,10 +47919,10 @@
         <v>22.21</v>
       </c>
       <c r="G70" s="3" t="n">
-        <v>22.21</v>
+        <v>21.79</v>
       </c>
       <c r="H70" s="3" t="n">
-        <v>21.78</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="71">
@@ -47775,10 +47943,10 @@
         <v>22.29</v>
       </c>
       <c r="G71" s="3" t="n">
-        <v>22.26</v>
+        <v>21.78</v>
       </c>
       <c r="H71" s="3" t="n">
-        <v>21.76</v>
+        <v>21.79</v>
       </c>
     </row>
     <row r="72">
@@ -47799,10 +47967,10 @@
         <v>22.3</v>
       </c>
       <c r="G72" s="3" t="n">
-        <v>22.21</v>
+        <v>21.75</v>
       </c>
       <c r="H72" s="3" t="n">
-        <v>21.62</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="73">
@@ -47823,10 +47991,10 @@
         <v>22.36</v>
       </c>
       <c r="G73" s="3" t="n">
-        <v>22.21</v>
+        <v>21.67</v>
       </c>
       <c r="H73" s="3" t="n">
-        <v>21.52</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="74">
@@ -47847,10 +48015,10 @@
         <v>22.28</v>
       </c>
       <c r="G74" s="3" t="n">
-        <v>22.04</v>
+        <v>21.63</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>21.43</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="75">
@@ -47871,10 +48039,10 @@
         <v>22.45</v>
       </c>
       <c r="G75" s="3" t="n">
-        <v>22.29</v>
+        <v>21.9</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>21.62</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="76">
@@ -47897,10 +48065,10 @@
         <v>22.74</v>
       </c>
       <c r="G76" s="3" t="n">
-        <v>22.63</v>
+        <v>22.3</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>21.91</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="77">
@@ -47921,10 +48089,10 @@
         <v>22.95</v>
       </c>
       <c r="G77" s="3" t="n">
-        <v>22.83</v>
+        <v>22.47</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>22.07</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="78">
@@ -47945,10 +48113,10 @@
         <v>23.25</v>
       </c>
       <c r="G78" s="3" t="n">
-        <v>23.09</v>
+        <v>22.97</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>22.49</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="79">
@@ -47969,10 +48137,10 @@
         <v>23.42</v>
       </c>
       <c r="G79" s="3" t="n">
-        <v>23.35</v>
+        <v>23.38</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>22.9</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="80">
@@ -47993,10 +48161,10 @@
         <v>23.64</v>
       </c>
       <c r="G80" s="3" t="n">
-        <v>23.27</v>
+        <v>23.5</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>23.22</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="81">
@@ -48017,7 +48185,7 @@
         <v>23.85</v>
       </c>
       <c r="G81" s="3" t="n">
-        <v>23.33</v>
+        <v>23.57</v>
       </c>
       <c r="H81" s="3" t="n">
         <v>23.38</v>
@@ -48041,10 +48209,10 @@
         <v>23.88</v>
       </c>
       <c r="G82" s="3" t="n">
-        <v>23.48</v>
+        <v>23.66</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>23.38</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="83">
@@ -48065,10 +48233,10 @@
         <v>23.99</v>
       </c>
       <c r="G83" s="3" t="n">
-        <v>23.6</v>
+        <v>23.74</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>23.39</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="84">
@@ -48089,10 +48257,10 @@
         <v>23.97</v>
       </c>
       <c r="G84" s="3" t="n">
-        <v>23.69</v>
+        <v>23.78</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>23.36</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="85">
@@ -48113,10 +48281,10 @@
         <v>24.14</v>
       </c>
       <c r="G85" s="3" t="n">
-        <v>23.81</v>
+        <v>23.85</v>
       </c>
       <c r="H85" s="3" t="n">
-        <v>23.41</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="86">
@@ -48137,10 +48305,10 @@
         <v>24.1</v>
       </c>
       <c r="G86" s="3" t="n">
-        <v>24.11</v>
+        <v>23.91</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>23.52</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="87">
@@ -48161,10 +48329,10 @@
         <v>23.9</v>
       </c>
       <c r="G87" s="3" t="n">
-        <v>24.1</v>
+        <v>23.83</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>23.41</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="88">
@@ -48187,10 +48355,10 @@
         <v>24.06</v>
       </c>
       <c r="G88" s="3" t="n">
-        <v>24.21</v>
+        <v>23.92</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>23.53</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="89">
@@ -48211,10 +48379,10 @@
         <v>24.09</v>
       </c>
       <c r="G89" s="3" t="n">
-        <v>24.07</v>
+        <v>23.8</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>23.5</v>
+        <v>23.63</v>
       </c>
     </row>
     <row r="90">
@@ -48235,10 +48403,10 @@
         <v>24.18</v>
       </c>
       <c r="G90" s="3" t="n">
-        <v>24.19</v>
+        <v>23.96</v>
       </c>
       <c r="H90" s="3" t="n">
-        <v>23.58</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="91">
@@ -48259,10 +48427,10 @@
         <v>24.25</v>
       </c>
       <c r="G91" s="3" t="n">
-        <v>24.08</v>
+        <v>23.95</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>23.67</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="92">
@@ -48283,10 +48451,10 @@
         <v>24.23</v>
       </c>
       <c r="G92" s="3" t="n">
-        <v>24.22</v>
+        <v>23.9</v>
       </c>
       <c r="H92" s="3" t="n">
-        <v>23.63</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="93">
@@ -48307,10 +48475,10 @@
         <v>24.27</v>
       </c>
       <c r="G93" s="3" t="n">
-        <v>24.31</v>
+        <v>23.93</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>23.64</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="94">
@@ -48331,10 +48499,10 @@
         <v>24.34</v>
       </c>
       <c r="G94" s="3" t="n">
-        <v>24.38</v>
+        <v>24.08</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>23.7</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="95">
@@ -48355,10 +48523,10 @@
         <v>24.49</v>
       </c>
       <c r="G95" s="3" t="n">
-        <v>24.47</v>
+        <v>24.29</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>23.93</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="96">
@@ -48379,10 +48547,10 @@
         <v>24.59</v>
       </c>
       <c r="G96" s="3" t="n">
-        <v>24.53</v>
+        <v>24.37</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>24.02</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="97">
@@ -48403,10 +48571,10 @@
         <v>24.6</v>
       </c>
       <c r="G97" s="3" t="n">
-        <v>24.71</v>
+        <v>24.44</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>24.14</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="98">
@@ -48427,10 +48595,10 @@
         <v>24.37</v>
       </c>
       <c r="G98" s="3" t="n">
-        <v>24.53</v>
+        <v>24.35</v>
       </c>
       <c r="H98" s="3" t="n">
-        <v>24.21</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="99">
@@ -48451,10 +48619,10 @@
         <v>24.13</v>
       </c>
       <c r="G99" s="3" t="n">
-        <v>24.58</v>
+        <v>24.34</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>24.12</v>
+        <v>24.13</v>
       </c>
     </row>
     <row r="100">
@@ -48477,10 +48645,10 @@
         <v>24.16</v>
       </c>
       <c r="G100" s="3" t="n">
-        <v>25.03</v>
+        <v>24.72</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>24.37</v>
+        <v>24.42</v>
       </c>
     </row>
     <row r="101">
@@ -48501,10 +48669,10 @@
         <v>24.64</v>
       </c>
       <c r="G101" s="3" t="n">
-        <v>25.62</v>
+        <v>25.23</v>
       </c>
       <c r="H101" s="3" t="n">
-        <v>24.71</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="102">
@@ -48525,10 +48693,10 @@
         <v>24.96</v>
       </c>
       <c r="G102" s="3" t="n">
-        <v>25.56</v>
+        <v>25.27</v>
       </c>
       <c r="H102" s="3" t="n">
-        <v>24.82</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="103">
@@ -48549,10 +48717,10 @@
         <v>25.25</v>
       </c>
       <c r="G103" s="3" t="n">
-        <v>25.72</v>
+        <v>25.49</v>
       </c>
       <c r="H103" s="3" t="n">
-        <v>24.92</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="104">
@@ -48573,10 +48741,10 @@
         <v>25.28</v>
       </c>
       <c r="G104" s="3" t="n">
-        <v>25.6</v>
+        <v>25.46</v>
       </c>
       <c r="H104" s="3" t="n">
-        <v>24.95</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="105">
@@ -48597,10 +48765,10 @@
         <v>25.18</v>
       </c>
       <c r="G105" s="3" t="n">
-        <v>25.74</v>
+        <v>25.67</v>
       </c>
       <c r="H105" s="3" t="n">
-        <v>25.05</v>
+        <v>25.19</v>
       </c>
     </row>
     <row r="106">
@@ -48621,10 +48789,10 @@
         <v>25.48</v>
       </c>
       <c r="G106" s="3" t="n">
-        <v>26.13</v>
+        <v>26.05</v>
       </c>
       <c r="H106" s="3" t="n">
-        <v>25.44</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="107">
@@ -48645,10 +48813,10 @@
         <v>25.59</v>
       </c>
       <c r="G107" s="3" t="n">
-        <v>26.09</v>
+        <v>25.98</v>
       </c>
       <c r="H107" s="3" t="n">
-        <v>25.57</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="108">
@@ -48669,10 +48837,10 @@
         <v>25.39</v>
       </c>
       <c r="G108" s="3" t="n">
-        <v>25.95</v>
+        <v>25.87</v>
       </c>
       <c r="H108" s="3" t="n">
-        <v>25.63</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="109">
@@ -48693,10 +48861,10 @@
         <v>25.24</v>
       </c>
       <c r="G109" s="3" t="n">
-        <v>26.02</v>
+        <v>25.64</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>25.65</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="110">
@@ -48717,10 +48885,10 @@
         <v>25.3</v>
       </c>
       <c r="G110" s="3" t="n">
-        <v>26.24</v>
+        <v>25.58</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>25.85</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="111">
@@ -48741,10 +48909,10 @@
         <v>25.4</v>
       </c>
       <c r="G111" s="3" t="n">
-        <v>26.38</v>
+        <v>25.66</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>25.93</v>
+        <v>25.69</v>
       </c>
     </row>
     <row r="112">
@@ -48767,21 +48935,35 @@
         <v>25.64</v>
       </c>
       <c r="G112" s="3" t="n">
-        <v>26.75</v>
+        <v>26.15</v>
       </c>
       <c r="H112" s="3" t="n">
-        <v>26.29</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="6"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
+      <c r="B113" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="D113" s="3" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="H113" s="3" t="n">
+        <v>26.11</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="6"/>
